--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D71E197-7885-4ABA-947D-093A74F170EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430E08C0-1345-4BAF-8DDA-F26C7942CC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_ACO" sheetId="14" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="420">
   <si>
     <t>TEC_ID</t>
   </si>
@@ -1365,6 +1365,66 @@
   </si>
   <si>
     <t>Séquence</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>30/juil/2024</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>CANPLEX INC.</t>
+  </si>
+  <si>
+    <t>Test avec des tables vides</t>
+  </si>
+  <si>
+    <t>VRAI</t>
+  </si>
+  <si>
+    <t>30/juil/2024 13:13:49</t>
+  </si>
+  <si>
+    <t>FAUX</t>
+  </si>
+  <si>
+    <t>v3.B.3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>HUWIZ Solutions inc.</t>
+  </si>
+  <si>
+    <t>30/juil/2024 13:14:00</t>
+  </si>
+  <si>
+    <t>9299-2585 Québec inc.</t>
+  </si>
+  <si>
+    <t>30/juil/2024 13:14:14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>Les logiciels INFORMAT inc.</t>
+  </si>
+  <si>
+    <t>30/juil/2024 13:14:25</t>
   </si>
 </sst>
 </file>
@@ -1375,11 +1435,11 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;$&quot;"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="dd\-mm\-yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="0000"/>
-    <numFmt numFmtId="172" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd\-mm\-yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="0000"/>
+    <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -3406,7 +3466,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3475,13 +3535,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3524,7 +3584,7 @@
     <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3553,7 +3613,7 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3617,10 +3677,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3649,7 +3709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3658,10 +3718,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3733,10 +3793,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="11" borderId="68" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="68" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3751,10 +3811,10 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="15" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="15" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="15" borderId="86" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="14" fillId="15" borderId="86" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3846,17 +3906,17 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="68" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3871,7 +3931,7 @@
     <xf numFmtId="2" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3880,7 +3940,7 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="14" fillId="9" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4003,12 +4063,276 @@
     <xf numFmtId="4" fontId="28" fillId="2" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="15" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="15" borderId="85" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="15" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="15" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="25" fillId="11" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4018,268 +4342,20 @@
     <xf numFmtId="165" fontId="25" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="15" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="15" borderId="85" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="15" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="15" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4289,7 +4365,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="89">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4548,7 +4631,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="172" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="8" tint="0.59999389629810485"/>
@@ -4594,7 +4677,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="dd\-mm\-yyyy"/>
+      <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="8" tint="0.59999389629810485"/>
@@ -5146,7 +5229,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="172" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="8" tint="0.59999389629810485"/>
@@ -5192,7 +5275,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="dd\-mm\-yyyy"/>
+      <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="8" tint="0.59999389629810485"/>
@@ -6513,23 +6596,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4081FC28-DC16-4499-9F16-86BDB780596C}" name="Tableau5" displayName="Tableau5" ref="L10:N18" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4081FC28-DC16-4499-9F16-86BDB780596C}" name="Tableau5" displayName="Tableau5" ref="L10:N18" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85" totalsRowBorderDxfId="84">
   <autoFilter ref="L10:N18" xr:uid="{A31919EF-8E0F-4C3C-BA3F-104400014F99}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3D5E5F4D-3EC3-41F3-B883-B5F4C7824D42}" name="Code" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{6498A585-0434-4EB1-977D-A0B20C9C63FB}" name="Date" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{74CB0563-15AB-43E0-9B35-F933DB6DD58F}" name="Taux" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{3D5E5F4D-3EC3-41F3-B883-B5F4C7824D42}" name="Code" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{6498A585-0434-4EB1-977D-A0B20C9C63FB}" name="Date" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{74CB0563-15AB-43E0-9B35-F933DB6DD58F}" name="Taux" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BEC410-3782-4EB4-90E8-8C9F29248E62}" name="Tableau37" displayName="Tableau37" ref="D18:F28" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BEC410-3782-4EB4-90E8-8C9F29248E62}" name="Tableau37" displayName="Tableau37" ref="D18:F28" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78">
   <autoFilter ref="D18:F28" xr:uid="{07C6E30C-A06F-40D4-9BA2-8A0A8A76ABF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6537,57 +6620,57 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4B0EDCED-EFE7-4F77-96E5-91C21BFED13C}" name="Prof_ID"/>
-    <tableColumn id="2" xr3:uid="{07335957-5072-4CC8-B588-145A144FD6FC}" name="Date" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{C1051574-3026-4CFC-ACE4-EE3A5BE120E3}" name="Taux horaire" dataDxfId="75" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{07335957-5072-4CC8-B588-145A144FD6FC}" name="Date" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{C1051574-3026-4CFC-ACE4-EE3A5BE120E3}" name="Taux horaire" dataDxfId="76" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B32BB353-BB34-42BB-9D46-2983C5A74B5B}" name="Tableau7" displayName="Tableau7" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B32BB353-BB34-42BB-9D46-2983C5A74B5B}" name="Tableau7" displayName="Tableau7" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F683B85E-E345-46C0-B559-6B55DA1B47DA}" name="Colonne1" headerRowDxfId="69" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{931BD703-99B9-4545-835A-2B2008F9C610}" name="Colonne2" headerRowDxfId="67" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{F683B85E-E345-46C0-B559-6B55DA1B47DA}" name="Colonne1" headerRowDxfId="70" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{931BD703-99B9-4545-835A-2B2008F9C610}" name="Colonne2" headerRowDxfId="68" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7A353E-F107-4699-BEC2-AECA606D5D2B}" name="Tableau8" displayName="Tableau8" ref="P10:R21" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7A353E-F107-4699-BEC2-AECA606D5D2B}" name="Tableau8" displayName="Tableau8" ref="P10:R21" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64">
   <autoFilter ref="P10:R21" xr:uid="{2167B6C9-9F6D-42E0-9CC7-719089B4BE11}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{621C6399-107E-4F8E-905B-7E9265495827}" name="Nom" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{BC9D39C0-5A8D-4060-86F2-B334715137AE}" name="Du" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{0317D5F2-8493-46CE-B417-3AD4D1BE752C}" name="Au" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{621C6399-107E-4F8E-905B-7E9265495827}" name="Nom" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{BC9D39C0-5A8D-4060-86F2-B334715137AE}" name="Du" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{0317D5F2-8493-46CE-B417-3AD4D1BE752C}" name="Au" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B8A5B66-CCB8-44E7-897F-6857E2E7217F}" name="Tableau56" displayName="Tableau56" ref="L10:N18" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B8A5B66-CCB8-44E7-897F-6857E2E7217F}" name="Tableau56" displayName="Tableau56" ref="L10:N18" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="L10:N18" xr:uid="{A31919EF-8E0F-4C3C-BA3F-104400014F99}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{239FBD47-A62E-4E25-A60D-B8F3F5784CAF}" name="Code" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{F1BF9BCA-554F-405E-8EB2-104EE5229852}" name="Date" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{BC205969-C048-4AC1-82CA-DCF785CD2E46}" name="Taux" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{239FBD47-A62E-4E25-A60D-B8F3F5784CAF}" name="Code" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{F1BF9BCA-554F-405E-8EB2-104EE5229852}" name="Date" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{BC205969-C048-4AC1-82CA-DCF785CD2E46}" name="Taux" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B24AF566-2215-473A-8202-6EEA9B350847}" name="Tableau377" displayName="Tableau377" ref="D38:F68" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B24AF566-2215-473A-8202-6EEA9B350847}" name="Tableau377" displayName="Tableau377" ref="D38:F68" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50">
   <autoFilter ref="D38:F68" xr:uid="{07C6E30C-A06F-40D4-9BA2-8A0A8A76ABF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6595,34 +6678,34 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C26875D7-C0AC-4DC0-B966-9A0E941C1287}" name="Prof_ID"/>
-    <tableColumn id="2" xr3:uid="{223CDF22-7E9F-4FF3-B9E9-7EC1E83F63FD}" name="Date" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{3A31E360-73D5-4ABD-A9DE-9036997DA118}" name="Taux horaire" dataDxfId="47" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{223CDF22-7E9F-4FF3-B9E9-7EC1E83F63FD}" name="Date" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{3A31E360-73D5-4ABD-A9DE-9036997DA118}" name="Taux horaire" dataDxfId="48" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8451F979-3D72-41D4-A829-699B5830670C}" name="Tableau78" displayName="Tableau78" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8451F979-3D72-41D4-A829-699B5830670C}" name="Tableau78" displayName="Tableau78" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CB9EBD0D-71C1-4C9E-B3EA-2235AF94176F}" name="Colonne1" headerRowDxfId="41" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{C7DCD92E-FE54-4CC5-87B2-F9846C4139DC}" name="Colonne2" headerRowDxfId="39" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{CB9EBD0D-71C1-4C9E-B3EA-2235AF94176F}" name="Colonne1" headerRowDxfId="42" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{C7DCD92E-FE54-4CC5-87B2-F9846C4139DC}" name="Colonne2" headerRowDxfId="40" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA20A41A-5290-49EB-A732-D1309A2FE1EA}" name="Tableau89" displayName="Tableau89" ref="P10:R21" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA20A41A-5290-49EB-A732-D1309A2FE1EA}" name="Tableau89" displayName="Tableau89" ref="P10:R21" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="P10:R21" xr:uid="{2167B6C9-9F6D-42E0-9CC7-719089B4BE11}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0934086D-06C2-4C23-8345-99186FF38D1F}" name="Nom" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{661E3B83-6827-4026-8FCA-E63CF3515AA8}" name="Du" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{41F1CFF9-AC58-4534-B761-8C936A1D968E}" name="Au" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{0934086D-06C2-4C23-8345-99186FF38D1F}" name="Nom" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{661E3B83-6827-4026-8FCA-E63CF3515AA8}" name="Du" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{41F1CFF9-AC58-4534-B761-8C936A1D968E}" name="Au" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6932,51 +7015,51 @@
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="49"/>
       <c r="B1" s="49"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="305"/>
-      <c r="O1" s="305"/>
-      <c r="P1" s="305"/>
-      <c r="Q1" s="305"/>
-      <c r="R1" s="305"/>
-      <c r="S1" s="305"/>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="221" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="306"/>
+      <c r="B2" s="221"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="51"/>
-      <c r="D3" s="307" t="s">
+      <c r="D3" s="222" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="308"/>
-      <c r="F3" s="309" t="s">
+      <c r="E3" s="223"/>
+      <c r="F3" s="224" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="310"/>
-      <c r="H3" s="310"/>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="310"/>
-      <c r="L3" s="310"/>
-      <c r="M3" s="311"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="226"/>
       <c r="T3" s="14"/>
       <c r="V3"/>
     </row>
@@ -6985,10 +7068,10 @@
         <v>197</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="P4" s="312"/>
-      <c r="Q4" s="298"/>
-      <c r="R4" s="299"/>
-      <c r="S4" s="299"/>
+      <c r="P4" s="227"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="229"/>
+      <c r="S4" s="229"/>
       <c r="V4" s="7"/>
       <c r="W4" s="5"/>
     </row>
@@ -6997,24 +7080,24 @@
         <v>198</v>
       </c>
       <c r="B5" s="52"/>
-      <c r="D5" s="293" t="s">
+      <c r="D5" s="236" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="294"/>
-      <c r="F5" s="295" t="s">
+      <c r="E5" s="237"/>
+      <c r="F5" s="238" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="296"/>
-      <c r="L5" s="296"/>
-      <c r="M5" s="297"/>
-      <c r="P5" s="298"/>
-      <c r="Q5" s="298"/>
-      <c r="R5" s="299"/>
-      <c r="S5" s="299"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="240"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
+      <c r="R5" s="229"/>
+      <c r="S5" s="229"/>
       <c r="V5" s="7"/>
       <c r="W5" s="5"/>
     </row>
@@ -7023,24 +7106,24 @@
         <v>201</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="D6" s="300" t="s">
+      <c r="D6" s="241" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="301"/>
-      <c r="F6" s="302" t="s">
+      <c r="E6" s="242"/>
+      <c r="F6" s="243" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="304"/>
-      <c r="P6" s="298"/>
-      <c r="Q6" s="298"/>
-      <c r="R6" s="299"/>
-      <c r="S6" s="299"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="244"/>
+      <c r="M6" s="245"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="229"/>
+      <c r="S6" s="229"/>
       <c r="V6" s="7"/>
       <c r="W6" s="5"/>
     </row>
@@ -7078,38 +7161,38 @@
       <c r="B9" s="57">
         <v>355</v>
       </c>
-      <c r="D9" s="279" t="s">
+      <c r="D9" s="248" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="280"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="281"/>
-      <c r="I9" s="282" t="s">
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="250"/>
+      <c r="I9" s="251" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="283"/>
+      <c r="J9" s="252"/>
       <c r="K9" s="58"/>
-      <c r="L9" s="234" t="s">
+      <c r="L9" s="253" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="235"/>
-      <c r="N9" s="236"/>
-      <c r="P9" s="284" t="s">
+      <c r="M9" s="254"/>
+      <c r="N9" s="255"/>
+      <c r="P9" s="256" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="285"/>
-      <c r="R9" s="286"/>
-      <c r="T9" s="287" t="s">
+      <c r="Q9" s="257"/>
+      <c r="R9" s="258"/>
+      <c r="T9" s="230" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="288"/>
-      <c r="V9" s="288"/>
-      <c r="W9" s="289"/>
-      <c r="Y9" s="290" t="s">
+      <c r="U9" s="231"/>
+      <c r="V9" s="231"/>
+      <c r="W9" s="232"/>
+      <c r="Y9" s="233" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="291"/>
-      <c r="AA9" s="292"/>
+      <c r="Z9" s="234"/>
+      <c r="AA9" s="235"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="59" t="s">
@@ -7161,9 +7244,9 @@
       <c r="W10" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="267"/>
-      <c r="Z10" s="268"/>
-      <c r="AA10" s="269"/>
+      <c r="Y10" s="259"/>
+      <c r="Z10" s="260"/>
+      <c r="AA10" s="261"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="71" t="s">
@@ -7480,11 +7563,11 @@
       <c r="AA16" s="109"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="270" t="s">
+      <c r="D17" s="262" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="271"/>
-      <c r="F17" s="272"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="264"/>
       <c r="I17" s="104">
         <v>2029</v>
       </c>
@@ -7686,10 +7769,10 @@
       <c r="I21" s="104"/>
       <c r="J21" s="93"/>
       <c r="K21" s="58"/>
-      <c r="L21" s="273" t="s">
+      <c r="L21" s="265" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="274"/>
+      <c r="M21" s="266"/>
       <c r="N21" s="119">
         <v>7</v>
       </c>
@@ -7804,11 +7887,11 @@
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
       <c r="K24" s="58"/>
-      <c r="P24" s="234" t="s">
+      <c r="P24" s="253" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="235"/>
-      <c r="R24" s="236"/>
+      <c r="Q24" s="254"/>
+      <c r="R24" s="255"/>
       <c r="T24" s="97" t="s">
         <v>259</v>
       </c>
@@ -7842,10 +7925,10 @@
       <c r="I25" s="124"/>
       <c r="J25" s="125"/>
       <c r="K25" s="58"/>
-      <c r="P25" s="275" t="s">
+      <c r="P25" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="276"/>
+      <c r="Q25" s="268"/>
       <c r="R25" s="126" t="s">
         <v>262</v>
       </c>
@@ -7883,10 +7966,10 @@
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
-      <c r="P26" s="277" t="s">
+      <c r="P26" s="246" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="278"/>
+      <c r="Q26" s="247"/>
       <c r="R26" s="127" t="s">
         <v>267</v>
       </c>
@@ -7924,10 +8007,10 @@
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="P27" s="259" t="s">
+      <c r="P27" s="269" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="260"/>
+      <c r="Q27" s="270"/>
       <c r="R27" s="129" t="s">
         <v>267</v>
       </c>
@@ -7953,20 +8036,20 @@
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F28" s="130"/>
-      <c r="I28" s="237" t="s">
+      <c r="I28" s="271" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="238"/>
+      <c r="J28" s="272"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="261" t="s">
+      <c r="L28" s="273" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="262"/>
-      <c r="N28" s="263"/>
-      <c r="P28" s="227" t="s">
+      <c r="M28" s="274"/>
+      <c r="N28" s="275"/>
+      <c r="P28" s="276" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="264"/>
+      <c r="Q28" s="277"/>
       <c r="R28" s="132" t="s">
         <v>278</v>
       </c>
@@ -7991,20 +8074,20 @@
       <c r="AA28" s="109"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I29" s="227" t="s">
+      <c r="I29" s="276" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="228"/>
+      <c r="J29" s="278"/>
       <c r="K29" s="5"/>
       <c r="L29" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="245"/>
-      <c r="N29" s="246"/>
-      <c r="P29" s="265" t="s">
+      <c r="M29" s="279"/>
+      <c r="N29" s="280"/>
+      <c r="P29" s="281" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="266"/>
+      <c r="Q29" s="282"/>
       <c r="R29" s="129" t="s">
         <v>278</v>
       </c>
@@ -8031,20 +8114,20 @@
       </c>
     </row>
     <row r="30" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="225" t="s">
+      <c r="I30" s="283" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="226"/>
+      <c r="J30" s="284"/>
       <c r="K30" s="5"/>
       <c r="L30" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="245"/>
-      <c r="N30" s="246"/>
-      <c r="P30" s="257" t="s">
+      <c r="M30" s="279"/>
+      <c r="N30" s="280"/>
+      <c r="P30" s="285" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="258"/>
+      <c r="Q30" s="286"/>
       <c r="R30" s="132" t="s">
         <v>267</v>
       </c>
@@ -8069,24 +8152,24 @@
       <c r="AA30" s="109"/>
     </row>
     <row r="31" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="234" t="s">
+      <c r="D31" s="253" t="s">
         <v>290</v>
       </c>
-      <c r="E31" s="235"/>
-      <c r="F31" s="236"/>
-      <c r="I31" s="227" t="s">
+      <c r="E31" s="254"/>
+      <c r="F31" s="255"/>
+      <c r="I31" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="228"/>
+      <c r="J31" s="278"/>
       <c r="L31" s="134" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="245"/>
-      <c r="N31" s="246"/>
-      <c r="P31" s="259" t="s">
+      <c r="M31" s="279"/>
+      <c r="N31" s="280"/>
+      <c r="P31" s="269" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="260"/>
+      <c r="Q31" s="270"/>
       <c r="R31" s="129" t="s">
         <v>278</v>
       </c>
@@ -8111,24 +8194,24 @@
       <c r="AA31" s="109"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="239" t="s">
+      <c r="D32" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="240"/>
-      <c r="F32" s="241"/>
-      <c r="I32" s="225" t="s">
+      <c r="E32" s="291"/>
+      <c r="F32" s="292"/>
+      <c r="I32" s="283" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="226"/>
+      <c r="J32" s="284"/>
       <c r="L32" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="245"/>
-      <c r="N32" s="246"/>
-      <c r="P32" s="247" t="s">
+      <c r="M32" s="279"/>
+      <c r="N32" s="280"/>
+      <c r="P32" s="293" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="248"/>
+      <c r="Q32" s="294"/>
       <c r="R32" s="137" t="s">
         <v>267</v>
       </c>
@@ -8155,20 +8238,20 @@
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="249" t="s">
+      <c r="D33" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="250"/>
-      <c r="F33" s="251"/>
-      <c r="I33" s="227" t="s">
+      <c r="E33" s="296"/>
+      <c r="F33" s="297"/>
+      <c r="I33" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="228"/>
+      <c r="J33" s="278"/>
       <c r="L33" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="252"/>
-      <c r="N33" s="253"/>
+      <c r="M33" s="298"/>
+      <c r="N33" s="299"/>
       <c r="T33" s="97" t="s">
         <v>65</v>
       </c>
@@ -8190,15 +8273,15 @@
       <c r="AA33" s="109"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="225" t="s">
+      <c r="D34" s="283" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="254"/>
-      <c r="F34" s="226"/>
-      <c r="I34" s="225" t="s">
+      <c r="E34" s="300"/>
+      <c r="F34" s="284"/>
+      <c r="I34" s="283" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="226"/>
+      <c r="J34" s="284"/>
       <c r="T34" s="97" t="s">
         <v>300</v>
       </c>
@@ -8220,17 +8303,17 @@
       <c r="AA34" s="109"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="227" t="s">
+      <c r="D35" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="255"/>
-      <c r="F35" s="228"/>
-      <c r="I35" s="220" t="s">
+      <c r="E35" s="301"/>
+      <c r="F35" s="278"/>
+      <c r="I35" s="302" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="221"/>
-      <c r="P35" s="256"/>
-      <c r="Q35" s="256"/>
+      <c r="J35" s="303"/>
+      <c r="P35" s="304"/>
+      <c r="Q35" s="304"/>
       <c r="T35" s="97" t="s">
         <v>303</v>
       </c>
@@ -8252,11 +8335,11 @@
       <c r="AA35" s="109"/>
     </row>
     <row r="36" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="242" t="s">
+      <c r="D36" s="287" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="243"/>
-      <c r="F36" s="244"/>
+      <c r="E36" s="288"/>
+      <c r="F36" s="289"/>
       <c r="T36" s="97" t="s">
         <v>306</v>
       </c>
@@ -8301,10 +8384,10 @@
       </c>
     </row>
     <row r="38" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="229" t="s">
+      <c r="I38" s="305" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="230"/>
+      <c r="J38" s="306"/>
       <c r="T38" s="97" t="s">
         <v>310</v>
       </c>
@@ -8326,11 +8409,11 @@
       <c r="AA38" s="109"/>
     </row>
     <row r="39" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="231" t="s">
+      <c r="D39" s="307" t="s">
         <v>312</v>
       </c>
-      <c r="E39" s="232"/>
-      <c r="F39" s="233"/>
+      <c r="E39" s="308"/>
+      <c r="F39" s="309"/>
       <c r="I39" s="140" t="s">
         <v>84</v>
       </c>
@@ -8593,15 +8676,15 @@
       <c r="AA47" s="109"/>
     </row>
     <row r="48" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="234" t="s">
+      <c r="D48" s="253" t="s">
         <v>340</v>
       </c>
-      <c r="E48" s="235"/>
-      <c r="F48" s="236"/>
-      <c r="I48" s="237" t="s">
+      <c r="E48" s="254"/>
+      <c r="F48" s="255"/>
+      <c r="I48" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="238"/>
+      <c r="J48" s="272"/>
       <c r="T48" s="97" t="s">
         <v>67</v>
       </c>
@@ -8623,15 +8706,15 @@
       <c r="AA48" s="109"/>
     </row>
     <row r="49" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D49" s="239" t="s">
+      <c r="D49" s="290" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="240"/>
-      <c r="F49" s="241"/>
-      <c r="I49" s="227" t="s">
+      <c r="E49" s="291"/>
+      <c r="F49" s="292"/>
+      <c r="I49" s="276" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="228"/>
+      <c r="J49" s="278"/>
       <c r="T49" s="97" t="s">
         <v>343</v>
       </c>
@@ -8653,15 +8736,15 @@
       <c r="AA49" s="109"/>
     </row>
     <row r="50" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="222">
+      <c r="D50" s="310">
         <v>350</v>
       </c>
-      <c r="E50" s="223"/>
-      <c r="F50" s="224"/>
-      <c r="I50" s="225" t="s">
+      <c r="E50" s="311"/>
+      <c r="F50" s="312"/>
+      <c r="I50" s="283" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="226"/>
+      <c r="J50" s="284"/>
       <c r="T50" s="97" t="s">
         <v>68</v>
       </c>
@@ -8685,10 +8768,10 @@
       </c>
     </row>
     <row r="51" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="227" t="s">
+      <c r="I51" s="276" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="228"/>
+      <c r="J51" s="278"/>
       <c r="T51" s="97" t="s">
         <v>349</v>
       </c>
@@ -8710,10 +8793,10 @@
       <c r="AA51" s="160"/>
     </row>
     <row r="52" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I52" s="225" t="s">
+      <c r="I52" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="226"/>
+      <c r="J52" s="284"/>
       <c r="T52" s="97" t="s">
         <v>351</v>
       </c>
@@ -8728,10 +8811,10 @@
       </c>
     </row>
     <row r="53" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I53" s="227" t="s">
+      <c r="I53" s="276" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="228"/>
+      <c r="J53" s="278"/>
       <c r="T53" s="97" t="s">
         <v>353</v>
       </c>
@@ -8764,10 +8847,10 @@
       </c>
     </row>
     <row r="55" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I55" s="225" t="s">
+      <c r="I55" s="283" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="226"/>
+      <c r="J55" s="284"/>
       <c r="T55" s="97" t="s">
         <v>175</v>
       </c>
@@ -8782,10 +8865,10 @@
       </c>
     </row>
     <row r="56" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I56" s="220" t="s">
+      <c r="I56" s="302" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="221"/>
+      <c r="J56" s="303"/>
       <c r="T56" s="97" t="s">
         <v>34</v>
       </c>
@@ -9082,46 +9165,19 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="I49:J49"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="I32:J32"/>
@@ -9135,54 +9191,81 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="P11:P21">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R20">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:W78">
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AA51">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>AND($Y12&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9227,7 +9310,7 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -9278,7 +9361,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:J99946 I2:I1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9411,7 +9494,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AA9989">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9457,7 +9540,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E9984">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9510,7 +9593,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G962">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9582,7 +9665,7 @@
   <autoFilter ref="A1:J1" xr:uid="{E0D58006-DE1D-488F-9BB7-8096C5818030}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J98523">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9592,14 +9675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="wshTEC_Local"/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="765" topLeftCell="A3" activePane="bottomLeft"/>
-      <selection activeCell="M1" sqref="M1:M1048576"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0" rightToLeft="false">
+      <pane ySplit="540" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9607,22 +9690,22 @@
     <col min="1" max="1" width="7.140625" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="198" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row spans="1:16" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -9638,16 +9721,16 @@
       <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="315" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="315" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="315" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="27" t="s">
@@ -9672,10 +9755,446 @@
         <v>14</v>
       </c>
     </row>
+    <row spans="1:16" s="314" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+      <c r="A2" s="313" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="313" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" s="313" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="317" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="317" t="s">
+        <v>403</v>
+      </c>
+      <c r="F2" s="316" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="316" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="318">
+        <v>1</v>
+      </c>
+      <c r="I2" s="316"/>
+      <c r="J2" s="317" t="s">
+        <v>406</v>
+      </c>
+      <c r="K2" s="317" t="s">
+        <v>407</v>
+      </c>
+      <c r="L2" s="317" t="s">
+        <v>408</v>
+      </c>
+      <c r="M2" s="317"/>
+      <c r="N2" s="317" t="s">
+        <v>408</v>
+      </c>
+      <c r="O2" s="317" t="s">
+        <v>409</v>
+      </c>
+      <c r="P2" s="317"/>
+    </row>
+    <row spans="1:16" s="314" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+      <c r="A3" s="313" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="313" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="313" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="317" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="317" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="316" t="s">
+        <v>412</v>
+      </c>
+      <c r="G3" s="316" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="318">
+        <v>2</v>
+      </c>
+      <c r="I3" s="316"/>
+      <c r="J3" s="317" t="s">
+        <v>406</v>
+      </c>
+      <c r="K3" s="317" t="s">
+        <v>413</v>
+      </c>
+      <c r="L3" s="317" t="s">
+        <v>408</v>
+      </c>
+      <c r="M3" s="317"/>
+      <c r="N3" s="317" t="s">
+        <v>408</v>
+      </c>
+      <c r="O3" s="317" t="s">
+        <v>409</v>
+      </c>
+      <c r="P3" s="317"/>
+    </row>
+    <row spans="1:16" s="314" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+      <c r="A4" s="313" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="313" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="313" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="317" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" s="317" t="s">
+        <v>401</v>
+      </c>
+      <c r="F4" s="316" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" s="316" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="318">
+        <v>3</v>
+      </c>
+      <c r="I4" s="316"/>
+      <c r="J4" s="317" t="s">
+        <v>406</v>
+      </c>
+      <c r="K4" s="317" t="s">
+        <v>415</v>
+      </c>
+      <c r="L4" s="317" t="s">
+        <v>408</v>
+      </c>
+      <c r="M4" s="317"/>
+      <c r="N4" s="317" t="s">
+        <v>408</v>
+      </c>
+      <c r="O4" s="317" t="s">
+        <v>409</v>
+      </c>
+      <c r="P4" s="317"/>
+    </row>
+    <row spans="1:16" s="314" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
+      <c r="A5" s="313" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="313" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="313" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="317" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="317" t="s">
+        <v>417</v>
+      </c>
+      <c r="F5" s="316" t="s">
+        <v>418</v>
+      </c>
+      <c r="G5" s="316" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="318">
+        <v>4</v>
+      </c>
+      <c r="I5" s="316"/>
+      <c r="J5" s="317" t="s">
+        <v>406</v>
+      </c>
+      <c r="K5" s="317" t="s">
+        <v>419</v>
+      </c>
+      <c r="L5" s="317" t="s">
+        <v>408</v>
+      </c>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317" t="s">
+        <v>408</v>
+      </c>
+      <c r="O5" s="317" t="s">
+        <v>409</v>
+      </c>
+      <c r="P5" s="317"/>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="317" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B6" s="317" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" s="317" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D6" s="317" t="inlineStr">
+        <is>
+          <t>30/juil/2024</t>
+        </is>
+      </c>
+      <c r="E6" s="317" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="F6" s="317" t="inlineStr">
+        <is>
+          <t>Les logiciels INFORMAT inc.</t>
+        </is>
+      </c>
+      <c r="G6" s="317" t="inlineStr">
+        <is>
+          <t>Test avec des tables presque vides</t>
+        </is>
+      </c>
+      <c r="H6" s="317">
+        <v>1</v>
+      </c>
+      <c r="J6" s="317" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K6" s="317" t="inlineStr">
+        <is>
+          <t>30/juil/2024 13:29:50</t>
+        </is>
+      </c>
+      <c r="L6" s="317" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N6" s="317" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O6" s="317" t="inlineStr">
+        <is>
+          <t>v3.B.3</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="317" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B7" s="317" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" s="317" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D7" s="317" t="inlineStr">
+        <is>
+          <t>29/juil/2024</t>
+        </is>
+      </c>
+      <c r="E7" s="317" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="F7" s="317" t="inlineStr">
+        <is>
+          <t>HUWIZ Solutions inc.</t>
+        </is>
+      </c>
+      <c r="G7" s="317" t="inlineStr">
+        <is>
+          <t>Tests après avoir vider les tables</t>
+        </is>
+      </c>
+      <c r="H7" s="317">
+        <v>2.9</v>
+      </c>
+      <c r="J7" s="317" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K7" s="317" t="inlineStr">
+        <is>
+          <t>30/juil/2024 14:57:26</t>
+        </is>
+      </c>
+      <c r="L7" s="317" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N7" s="317" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O7" s="317" t="inlineStr">
+        <is>
+          <t>v3.B.3</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="317" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B8" s="317" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" s="317" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D8" s="317" t="inlineStr">
+        <is>
+          <t>28/juil/2024</t>
+        </is>
+      </c>
+      <c r="E8" s="317" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="F8" s="317" t="inlineStr">
+        <is>
+          <t>CANPLEX INC.</t>
+        </is>
+      </c>
+      <c r="G8" s="317" t="inlineStr">
+        <is>
+          <t>Tests</t>
+        </is>
+      </c>
+      <c r="H8" s="317">
+        <v>1.75</v>
+      </c>
+      <c r="J8" s="317" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K8" s="317" t="inlineStr">
+        <is>
+          <t>30/juil/2024 14:59:09</t>
+        </is>
+      </c>
+      <c r="L8" s="317" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N8" s="317" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O8" s="317" t="inlineStr">
+        <is>
+          <t>v3.B.3</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="317" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" s="317" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" s="317" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D9" s="317" t="inlineStr">
+        <is>
+          <t>28/juil/2024</t>
+        </is>
+      </c>
+      <c r="E9" s="317" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="F9" s="317" t="inlineStr">
+        <is>
+          <t>Les logiciels INFORMAT inc.</t>
+        </is>
+      </c>
+      <c r="G9" s="317" t="inlineStr">
+        <is>
+          <t>Tests</t>
+        </is>
+      </c>
+      <c r="H9" s="317">
+        <v>2</v>
+      </c>
+      <c r="J9" s="317" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K9" s="317" t="inlineStr">
+        <is>
+          <t>30/juil/2024 14:59:25</t>
+        </is>
+      </c>
+      <c r="L9" s="317" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N9" s="317" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O9" s="317" t="inlineStr">
+        <is>
+          <t>v3.B.3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:P9543">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:P9999">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9727,51 +10246,51 @@
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="49"/>
       <c r="B1" s="49"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="305"/>
-      <c r="O1" s="305"/>
-      <c r="P1" s="305"/>
-      <c r="Q1" s="305"/>
-      <c r="R1" s="305"/>
-      <c r="S1" s="305"/>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="221" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="306"/>
+      <c r="B2" s="221"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="51"/>
-      <c r="D3" s="307" t="s">
+      <c r="D3" s="222" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="308"/>
-      <c r="F3" s="309" t="s">
+      <c r="E3" s="223"/>
+      <c r="F3" s="224" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="310"/>
-      <c r="H3" s="310"/>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="310"/>
-      <c r="L3" s="310"/>
-      <c r="M3" s="311"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="226"/>
       <c r="T3" s="14"/>
       <c r="V3"/>
     </row>
@@ -9780,10 +10299,10 @@
         <v>197</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="P4" s="312"/>
-      <c r="Q4" s="298"/>
-      <c r="R4" s="299"/>
-      <c r="S4" s="299"/>
+      <c r="P4" s="227"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="229"/>
+      <c r="S4" s="229"/>
       <c r="V4" s="7"/>
       <c r="W4" s="5"/>
     </row>
@@ -9792,24 +10311,24 @@
         <v>198</v>
       </c>
       <c r="B5" s="52"/>
-      <c r="D5" s="293" t="s">
+      <c r="D5" s="236" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="294"/>
-      <c r="F5" s="295" t="s">
+      <c r="E5" s="237"/>
+      <c r="F5" s="238" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="296"/>
-      <c r="L5" s="296"/>
-      <c r="M5" s="297"/>
-      <c r="P5" s="298"/>
-      <c r="Q5" s="298"/>
-      <c r="R5" s="299"/>
-      <c r="S5" s="299"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="240"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
+      <c r="R5" s="229"/>
+      <c r="S5" s="229"/>
       <c r="V5" s="7"/>
       <c r="W5" s="5"/>
     </row>
@@ -9818,24 +10337,24 @@
         <v>201</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="D6" s="300" t="s">
+      <c r="D6" s="241" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="301"/>
-      <c r="F6" s="302" t="s">
+      <c r="E6" s="242"/>
+      <c r="F6" s="243" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="304"/>
-      <c r="P6" s="298"/>
-      <c r="Q6" s="298"/>
-      <c r="R6" s="299"/>
-      <c r="S6" s="299"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="244"/>
+      <c r="M6" s="245"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="229"/>
+      <c r="S6" s="229"/>
       <c r="V6" s="7"/>
       <c r="W6" s="5"/>
     </row>
@@ -9873,38 +10392,38 @@
       <c r="B9" s="57">
         <v>355</v>
       </c>
-      <c r="D9" s="279" t="s">
+      <c r="D9" s="248" t="s">
         <v>370</v>
       </c>
-      <c r="E9" s="280"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="281"/>
-      <c r="I9" s="282" t="s">
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="250"/>
+      <c r="I9" s="251" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="283"/>
+      <c r="J9" s="252"/>
       <c r="K9" s="58"/>
-      <c r="L9" s="234" t="s">
+      <c r="L9" s="253" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="235"/>
-      <c r="N9" s="236"/>
-      <c r="P9" s="284" t="s">
+      <c r="M9" s="254"/>
+      <c r="N9" s="255"/>
+      <c r="P9" s="256" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="285"/>
-      <c r="R9" s="286"/>
-      <c r="T9" s="287" t="s">
+      <c r="Q9" s="257"/>
+      <c r="R9" s="258"/>
+      <c r="T9" s="230" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="288"/>
-      <c r="V9" s="288"/>
-      <c r="W9" s="289"/>
-      <c r="Y9" s="290" t="s">
+      <c r="U9" s="231"/>
+      <c r="V9" s="231"/>
+      <c r="W9" s="232"/>
+      <c r="Y9" s="233" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="291"/>
-      <c r="AA9" s="292"/>
+      <c r="Z9" s="234"/>
+      <c r="AA9" s="235"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="191" t="s">
@@ -9956,9 +10475,9 @@
       <c r="W10" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="267"/>
-      <c r="Z10" s="268"/>
-      <c r="AA10" s="269"/>
+      <c r="Y10" s="259"/>
+      <c r="Z10" s="260"/>
+      <c r="AA10" s="261"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="177" t="s">
@@ -10482,10 +11001,10 @@
       <c r="I21" s="172"/>
       <c r="J21" s="174"/>
       <c r="K21" s="58"/>
-      <c r="L21" s="273" t="s">
+      <c r="L21" s="265" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="274"/>
+      <c r="M21" s="266"/>
       <c r="N21" s="119">
         <v>7</v>
       </c>
@@ -10591,11 +11110,11 @@
       <c r="I24" s="173"/>
       <c r="J24" s="174"/>
       <c r="K24" s="58"/>
-      <c r="P24" s="234" t="s">
+      <c r="P24" s="253" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="235"/>
-      <c r="R24" s="236"/>
+      <c r="Q24" s="254"/>
+      <c r="R24" s="255"/>
       <c r="T24" s="97" t="s">
         <v>259</v>
       </c>
@@ -10626,10 +11145,10 @@
       <c r="I25" s="175"/>
       <c r="J25" s="176"/>
       <c r="K25" s="58"/>
-      <c r="P25" s="275" t="s">
+      <c r="P25" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="276"/>
+      <c r="Q25" s="268"/>
       <c r="R25" s="126" t="s">
         <v>262</v>
       </c>
@@ -10664,10 +11183,10 @@
       <c r="G26" s="186"/>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
-      <c r="P26" s="277" t="s">
+      <c r="P26" s="246" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="278"/>
+      <c r="Q26" s="247"/>
       <c r="R26" s="127" t="s">
         <v>267</v>
       </c>
@@ -10702,10 +11221,10 @@
       <c r="G27" s="186"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="P27" s="259" t="s">
+      <c r="P27" s="269" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="260"/>
+      <c r="Q27" s="270"/>
       <c r="R27" s="129" t="s">
         <v>267</v>
       </c>
@@ -10736,20 +11255,20 @@
       </c>
       <c r="F28" s="183"/>
       <c r="G28" s="186"/>
-      <c r="I28" s="237" t="s">
+      <c r="I28" s="271" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="238"/>
+      <c r="J28" s="272"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="261" t="s">
+      <c r="L28" s="273" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="262"/>
-      <c r="N28" s="263"/>
-      <c r="P28" s="227" t="s">
+      <c r="M28" s="274"/>
+      <c r="N28" s="275"/>
+      <c r="P28" s="276" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="264"/>
+      <c r="Q28" s="277"/>
       <c r="R28" s="132" t="s">
         <v>278</v>
       </c>
@@ -10780,20 +11299,20 @@
       </c>
       <c r="F29" s="183"/>
       <c r="G29" s="186"/>
-      <c r="I29" s="227" t="s">
+      <c r="I29" s="276" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="228"/>
+      <c r="J29" s="278"/>
       <c r="K29" s="5"/>
       <c r="L29" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="245"/>
-      <c r="N29" s="246"/>
-      <c r="P29" s="265" t="s">
+      <c r="M29" s="279"/>
+      <c r="N29" s="280"/>
+      <c r="P29" s="281" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="266"/>
+      <c r="Q29" s="282"/>
       <c r="R29" s="129" t="s">
         <v>278</v>
       </c>
@@ -10826,20 +11345,20 @@
       </c>
       <c r="F30" s="188"/>
       <c r="G30" s="189"/>
-      <c r="I30" s="225" t="s">
+      <c r="I30" s="283" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="226"/>
+      <c r="J30" s="284"/>
       <c r="K30" s="5"/>
       <c r="L30" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="245"/>
-      <c r="N30" s="246"/>
-      <c r="P30" s="257" t="s">
+      <c r="M30" s="279"/>
+      <c r="N30" s="280"/>
+      <c r="P30" s="285" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="258"/>
+      <c r="Q30" s="286"/>
       <c r="R30" s="132" t="s">
         <v>267</v>
       </c>
@@ -10864,19 +11383,19 @@
       <c r="AA30" s="109"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I31" s="227" t="s">
+      <c r="I31" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="228"/>
+      <c r="J31" s="278"/>
       <c r="L31" s="134" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="245"/>
-      <c r="N31" s="246"/>
-      <c r="P31" s="259" t="s">
+      <c r="M31" s="279"/>
+      <c r="N31" s="280"/>
+      <c r="P31" s="269" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="260"/>
+      <c r="Q31" s="270"/>
       <c r="R31" s="129" t="s">
         <v>278</v>
       </c>
@@ -10901,19 +11420,19 @@
       <c r="AA31" s="109"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="225" t="s">
+      <c r="I32" s="283" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="226"/>
+      <c r="J32" s="284"/>
       <c r="L32" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="245"/>
-      <c r="N32" s="246"/>
-      <c r="P32" s="247" t="s">
+      <c r="M32" s="279"/>
+      <c r="N32" s="280"/>
+      <c r="P32" s="293" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="248"/>
+      <c r="Q32" s="294"/>
       <c r="R32" s="137" t="s">
         <v>267</v>
       </c>
@@ -10940,15 +11459,15 @@
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="227" t="s">
+      <c r="I33" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="228"/>
+      <c r="J33" s="278"/>
       <c r="L33" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="252"/>
-      <c r="N33" s="253"/>
+      <c r="M33" s="298"/>
+      <c r="N33" s="299"/>
       <c r="T33" s="97" t="s">
         <v>65</v>
       </c>
@@ -10970,10 +11489,10 @@
       <c r="AA33" s="109"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I34" s="225" t="s">
+      <c r="I34" s="283" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="226"/>
+      <c r="J34" s="284"/>
       <c r="T34" s="97" t="s">
         <v>300</v>
       </c>
@@ -10995,12 +11514,12 @@
       <c r="AA34" s="109"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="220" t="s">
+      <c r="I35" s="302" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="221"/>
-      <c r="P35" s="256"/>
-      <c r="Q35" s="256"/>
+      <c r="J35" s="303"/>
+      <c r="P35" s="304"/>
+      <c r="Q35" s="304"/>
       <c r="T35" s="97" t="s">
         <v>303</v>
       </c>
@@ -11043,16 +11562,16 @@
       <c r="AA36" s="109"/>
     </row>
     <row r="37" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="270" t="s">
+      <c r="D37" s="262" t="s">
         <v>371</v>
       </c>
-      <c r="E37" s="271"/>
-      <c r="F37" s="272"/>
-      <c r="P37" s="234" t="s">
+      <c r="E37" s="263"/>
+      <c r="F37" s="264"/>
+      <c r="P37" s="253" t="s">
         <v>290</v>
       </c>
-      <c r="Q37" s="235"/>
-      <c r="R37" s="236"/>
+      <c r="Q37" s="254"/>
+      <c r="R37" s="255"/>
       <c r="T37" s="97" t="s">
         <v>74</v>
       </c>
@@ -11085,15 +11604,15 @@
       <c r="F38" s="196" t="s">
         <v>243</v>
       </c>
-      <c r="I38" s="229" t="s">
+      <c r="I38" s="305" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="230"/>
-      <c r="P38" s="239" t="s">
+      <c r="J38" s="306"/>
+      <c r="P38" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="240"/>
-      <c r="R38" s="241"/>
+      <c r="Q38" s="291"/>
+      <c r="R38" s="292"/>
       <c r="T38" s="97" t="s">
         <v>310</v>
       </c>
@@ -11130,11 +11649,11 @@
       <c r="J39" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="P39" s="249" t="s">
+      <c r="P39" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="250"/>
-      <c r="R39" s="251"/>
+      <c r="Q39" s="296"/>
+      <c r="R39" s="297"/>
       <c r="T39" s="97" t="s">
         <v>314</v>
       </c>
@@ -11169,11 +11688,11 @@
         <v>317</v>
       </c>
       <c r="J40" s="143"/>
-      <c r="P40" s="225" t="s">
+      <c r="P40" s="283" t="s">
         <v>24</v>
       </c>
-      <c r="Q40" s="254"/>
-      <c r="R40" s="226"/>
+      <c r="Q40" s="300"/>
+      <c r="R40" s="284"/>
       <c r="T40" s="97" t="s">
         <v>318</v>
       </c>
@@ -11208,11 +11727,11 @@
         <v>88</v>
       </c>
       <c r="J41" s="147"/>
-      <c r="P41" s="227" t="s">
+      <c r="P41" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="Q41" s="255"/>
-      <c r="R41" s="228"/>
+      <c r="Q41" s="301"/>
+      <c r="R41" s="278"/>
       <c r="T41" s="97" t="s">
         <v>322</v>
       </c>
@@ -11247,11 +11766,11 @@
         <v>102</v>
       </c>
       <c r="J42" s="143"/>
-      <c r="P42" s="242" t="s">
+      <c r="P42" s="287" t="s">
         <v>23</v>
       </c>
-      <c r="Q42" s="243"/>
-      <c r="R42" s="244"/>
+      <c r="Q42" s="288"/>
+      <c r="R42" s="289"/>
       <c r="T42" s="97" t="s">
         <v>325</v>
       </c>
@@ -11439,15 +11958,15 @@
     </row>
     <row r="48" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F48" s="130"/>
-      <c r="I48" s="237" t="s">
+      <c r="I48" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="238"/>
-      <c r="P48" s="231" t="s">
+      <c r="J48" s="272"/>
+      <c r="P48" s="307" t="s">
         <v>312</v>
       </c>
-      <c r="Q48" s="232"/>
-      <c r="R48" s="233"/>
+      <c r="Q48" s="308"/>
+      <c r="R48" s="309"/>
       <c r="T48" s="97" t="s">
         <v>67</v>
       </c>
@@ -11470,10 +11989,10 @@
     </row>
     <row r="49" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F49" s="130"/>
-      <c r="I49" s="227" t="s">
+      <c r="I49" s="276" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="228"/>
+      <c r="J49" s="278"/>
       <c r="P49" s="140" t="s">
         <v>315</v>
       </c>
@@ -11505,10 +12024,10 @@
     </row>
     <row r="50" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F50" s="130"/>
-      <c r="I50" s="225" t="s">
+      <c r="I50" s="283" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="226"/>
+      <c r="J50" s="284"/>
       <c r="P50" s="144" t="s">
         <v>321</v>
       </c>
@@ -11540,10 +12059,10 @@
     </row>
     <row r="51" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F51" s="130"/>
-      <c r="I51" s="227" t="s">
+      <c r="I51" s="276" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="228"/>
+      <c r="J51" s="278"/>
       <c r="P51" s="148" t="s">
         <v>90</v>
       </c>
@@ -11573,10 +12092,10 @@
     </row>
     <row r="52" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F52" s="130"/>
-      <c r="I52" s="225" t="s">
+      <c r="I52" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="226"/>
+      <c r="J52" s="284"/>
       <c r="P52" s="151" t="s">
         <v>87</v>
       </c>
@@ -11599,10 +12118,10 @@
     </row>
     <row r="53" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F53" s="130"/>
-      <c r="I53" s="227" t="s">
+      <c r="I53" s="276" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="228"/>
+      <c r="J53" s="278"/>
       <c r="P53" s="148" t="s">
         <v>103</v>
       </c>
@@ -11647,10 +12166,10 @@
     </row>
     <row r="55" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F55" s="130"/>
-      <c r="I55" s="225" t="s">
+      <c r="I55" s="283" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="226"/>
+      <c r="J55" s="284"/>
       <c r="T55" s="97" t="s">
         <v>175</v>
       </c>
@@ -11666,10 +12185,10 @@
     </row>
     <row r="56" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F56" s="130"/>
-      <c r="I56" s="220" t="s">
+      <c r="I56" s="302" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="221"/>
+      <c r="J56" s="303"/>
       <c r="T56" s="97" t="s">
         <v>34</v>
       </c>
@@ -11935,11 +12454,11 @@
       </c>
     </row>
     <row r="74" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="234" t="s">
+      <c r="D74" s="253" t="s">
         <v>340</v>
       </c>
-      <c r="E74" s="235"/>
-      <c r="F74" s="236"/>
+      <c r="E74" s="254"/>
+      <c r="F74" s="255"/>
       <c r="T74" s="97" t="s">
         <v>187</v>
       </c>
@@ -11954,11 +12473,11 @@
       </c>
     </row>
     <row r="75" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D75" s="239" t="s">
+      <c r="D75" s="290" t="s">
         <v>243</v>
       </c>
-      <c r="E75" s="240"/>
-      <c r="F75" s="241"/>
+      <c r="E75" s="291"/>
+      <c r="F75" s="292"/>
       <c r="T75" s="97" t="s">
         <v>189</v>
       </c>
@@ -11973,11 +12492,11 @@
       </c>
     </row>
     <row r="76" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="222">
+      <c r="D76" s="310">
         <v>350</v>
       </c>
-      <c r="E76" s="223"/>
-      <c r="F76" s="224"/>
+      <c r="E76" s="311"/>
+      <c r="F76" s="312"/>
       <c r="T76" s="97" t="s">
         <v>366</v>
       </c>
@@ -11993,27 +12512,35 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="P35:Q35"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="L21:M21"/>
@@ -12030,75 +12557,67 @@
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="P37:R37"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:G30">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>AND($D11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P21">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R20">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:W78">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AA51">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND($Y12&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12204,7 +12723,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M9987">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12292,7 +12811,7 @@
   <autoFilter ref="A1:P1" xr:uid="{BF285A66-D32A-4C2D-BAAD-5B60B0034FFF}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:P9924">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12348,7 +12867,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:F9929">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12401,7 +12920,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{9CC0F112-F6F5-4729-8EA4-252A1080634A}"/>
   <conditionalFormatting sqref="A2:F99947">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12471,7 +12990,7 @@
   <autoFilter ref="A1:J1" xr:uid="{6A0BDE8C-C0CD-4E75-A0A0-916CFADCF838}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J99796">
-    <cfRule type="expression" dxfId="8" priority="49">
+    <cfRule type="expression" dxfId="9" priority="49">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12589,7 +13108,7 @@
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{8B45F79E-24DF-4598-AC35-A20900C36411}"/>
   <conditionalFormatting sqref="A2:V9826">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12641,7 +13160,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F9557">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430E08C0-1345-4BAF-8DDA-F26C7942CC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A522F-FD8B-46F2-930F-97143F462866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="440">
   <si>
     <t>TEC_ID</t>
   </si>
@@ -1373,9 +1373,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>30/juil/2024</t>
-  </si>
-  <si>
     <t>344</t>
   </si>
   <si>
@@ -1425,6 +1422,69 @@
   </si>
   <si>
     <t>30/juil/2024 13:14:25</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Test avec des tables presque vides</t>
+  </si>
+  <si>
+    <t>30/juil/2024 13:29:50</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Tests après avoir vider les tables</t>
+  </si>
+  <si>
+    <t>30/juil/2024 14:57:26</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>30/juil/2024 14:59:09</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>30/juil/2024 14:59:25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Advantest Corporation (Kabushiki Kaisha Advantest) ADS</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>30/juil/2024 20:30:48</t>
+  </si>
+  <si>
+    <t>v3.B.4</t>
+  </si>
+  <si>
+    <t>30/juil/2024 21:04:21</t>
+  </si>
+  <si>
+    <t>30/juil/2024 21:04:46</t>
+  </si>
+  <si>
+    <t>30/juil/2024 21:08:16</t>
   </si>
 </sst>
 </file>
@@ -3466,7 +3526,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3535,19 +3595,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4063,6 +4113,12 @@
     <xf numFmtId="4" fontId="28" fillId="2" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4342,21 +4398,11 @@
     <xf numFmtId="165" fontId="25" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4365,14 +4411,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="89">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="88">
     <dxf>
       <fill>
         <patternFill>
@@ -6596,23 +6635,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4081FC28-DC16-4499-9F16-86BDB780596C}" name="Tableau5" displayName="Tableau5" ref="L10:N18" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85" totalsRowBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4081FC28-DC16-4499-9F16-86BDB780596C}" name="Tableau5" displayName="Tableau5" ref="L10:N18" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <autoFilter ref="L10:N18" xr:uid="{A31919EF-8E0F-4C3C-BA3F-104400014F99}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3D5E5F4D-3EC3-41F3-B883-B5F4C7824D42}" name="Code" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{6498A585-0434-4EB1-977D-A0B20C9C63FB}" name="Date" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{74CB0563-15AB-43E0-9B35-F933DB6DD58F}" name="Taux" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{3D5E5F4D-3EC3-41F3-B883-B5F4C7824D42}" name="Code" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{6498A585-0434-4EB1-977D-A0B20C9C63FB}" name="Date" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{74CB0563-15AB-43E0-9B35-F933DB6DD58F}" name="Taux" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BEC410-3782-4EB4-90E8-8C9F29248E62}" name="Tableau37" displayName="Tableau37" ref="D18:F28" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BEC410-3782-4EB4-90E8-8C9F29248E62}" name="Tableau37" displayName="Tableau37" ref="D18:F28" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77">
   <autoFilter ref="D18:F28" xr:uid="{07C6E30C-A06F-40D4-9BA2-8A0A8A76ABF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6620,57 +6659,57 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4B0EDCED-EFE7-4F77-96E5-91C21BFED13C}" name="Prof_ID"/>
-    <tableColumn id="2" xr3:uid="{07335957-5072-4CC8-B588-145A144FD6FC}" name="Date" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{C1051574-3026-4CFC-ACE4-EE3A5BE120E3}" name="Taux horaire" dataDxfId="76" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{07335957-5072-4CC8-B588-145A144FD6FC}" name="Date" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{C1051574-3026-4CFC-ACE4-EE3A5BE120E3}" name="Taux horaire" dataDxfId="75" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B32BB353-BB34-42BB-9D46-2983C5A74B5B}" name="Tableau7" displayName="Tableau7" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B32BB353-BB34-42BB-9D46-2983C5A74B5B}" name="Tableau7" displayName="Tableau7" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71" totalsRowBorderDxfId="70">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F683B85E-E345-46C0-B559-6B55DA1B47DA}" name="Colonne1" headerRowDxfId="70" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{931BD703-99B9-4545-835A-2B2008F9C610}" name="Colonne2" headerRowDxfId="68" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{F683B85E-E345-46C0-B559-6B55DA1B47DA}" name="Colonne1" headerRowDxfId="69" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{931BD703-99B9-4545-835A-2B2008F9C610}" name="Colonne2" headerRowDxfId="67" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7A353E-F107-4699-BEC2-AECA606D5D2B}" name="Tableau8" displayName="Tableau8" ref="P10:R21" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7A353E-F107-4699-BEC2-AECA606D5D2B}" name="Tableau8" displayName="Tableau8" ref="P10:R21" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63">
   <autoFilter ref="P10:R21" xr:uid="{2167B6C9-9F6D-42E0-9CC7-719089B4BE11}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{621C6399-107E-4F8E-905B-7E9265495827}" name="Nom" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{BC9D39C0-5A8D-4060-86F2-B334715137AE}" name="Du" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{0317D5F2-8493-46CE-B417-3AD4D1BE752C}" name="Au" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{621C6399-107E-4F8E-905B-7E9265495827}" name="Nom" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{BC9D39C0-5A8D-4060-86F2-B334715137AE}" name="Du" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{0317D5F2-8493-46CE-B417-3AD4D1BE752C}" name="Au" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B8A5B66-CCB8-44E7-897F-6857E2E7217F}" name="Tableau56" displayName="Tableau56" ref="L10:N18" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B8A5B66-CCB8-44E7-897F-6857E2E7217F}" name="Tableau56" displayName="Tableau56" ref="L10:N18" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="L10:N18" xr:uid="{A31919EF-8E0F-4C3C-BA3F-104400014F99}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{239FBD47-A62E-4E25-A60D-B8F3F5784CAF}" name="Code" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{F1BF9BCA-554F-405E-8EB2-104EE5229852}" name="Date" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{BC205969-C048-4AC1-82CA-DCF785CD2E46}" name="Taux" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{239FBD47-A62E-4E25-A60D-B8F3F5784CAF}" name="Code" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{F1BF9BCA-554F-405E-8EB2-104EE5229852}" name="Date" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{BC205969-C048-4AC1-82CA-DCF785CD2E46}" name="Taux" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B24AF566-2215-473A-8202-6EEA9B350847}" name="Tableau377" displayName="Tableau377" ref="D38:F68" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B24AF566-2215-473A-8202-6EEA9B350847}" name="Tableau377" displayName="Tableau377" ref="D38:F68" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="D38:F68" xr:uid="{07C6E30C-A06F-40D4-9BA2-8A0A8A76ABF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6678,34 +6717,34 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C26875D7-C0AC-4DC0-B966-9A0E941C1287}" name="Prof_ID"/>
-    <tableColumn id="2" xr3:uid="{223CDF22-7E9F-4FF3-B9E9-7EC1E83F63FD}" name="Date" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{3A31E360-73D5-4ABD-A9DE-9036997DA118}" name="Taux horaire" dataDxfId="48" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{223CDF22-7E9F-4FF3-B9E9-7EC1E83F63FD}" name="Date" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{3A31E360-73D5-4ABD-A9DE-9036997DA118}" name="Taux horaire" dataDxfId="47" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8451F979-3D72-41D4-A829-699B5830670C}" name="Tableau78" displayName="Tableau78" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8451F979-3D72-41D4-A829-699B5830670C}" name="Tableau78" displayName="Tableau78" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CB9EBD0D-71C1-4C9E-B3EA-2235AF94176F}" name="Colonne1" headerRowDxfId="42" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{C7DCD92E-FE54-4CC5-87B2-F9846C4139DC}" name="Colonne2" headerRowDxfId="40" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{CB9EBD0D-71C1-4C9E-B3EA-2235AF94176F}" name="Colonne1" headerRowDxfId="41" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{C7DCD92E-FE54-4CC5-87B2-F9846C4139DC}" name="Colonne2" headerRowDxfId="39" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA20A41A-5290-49EB-A732-D1309A2FE1EA}" name="Tableau89" displayName="Tableau89" ref="P10:R21" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA20A41A-5290-49EB-A732-D1309A2FE1EA}" name="Tableau89" displayName="Tableau89" ref="P10:R21" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="P10:R21" xr:uid="{2167B6C9-9F6D-42E0-9CC7-719089B4BE11}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0934086D-06C2-4C23-8345-99186FF38D1F}" name="Nom" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{661E3B83-6827-4026-8FCA-E63CF3515AA8}" name="Du" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{41F1CFF9-AC58-4534-B761-8C936A1D968E}" name="Au" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{0934086D-06C2-4C23-8345-99186FF38D1F}" name="Nom" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{661E3B83-6827-4026-8FCA-E63CF3515AA8}" name="Du" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{41F1CFF9-AC58-4534-B761-8C936A1D968E}" name="Au" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6985,8 +7024,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="55" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="55" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="51" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="51" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -7013,126 +7052,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="218"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="219" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="221"/>
+      <c r="B2" s="219"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="D3" s="222" t="s">
+      <c r="B3" s="47"/>
+      <c r="D3" s="220" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="224" t="s">
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="225"/>
-      <c r="M3" s="226"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="224"/>
       <c r="T3" s="14"/>
       <c r="V3"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="P4" s="227"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="229"/>
-      <c r="S4" s="229"/>
+      <c r="B4" s="47"/>
+      <c r="P4" s="225"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="227"/>
+      <c r="S4" s="227"/>
       <c r="V4" s="7"/>
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="D5" s="236" t="s">
+      <c r="B5" s="48"/>
+      <c r="D5" s="234" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="237"/>
-      <c r="F5" s="238" t="s">
+      <c r="E5" s="235"/>
+      <c r="F5" s="236" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="240"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="229"/>
-      <c r="S5" s="229"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="237"/>
+      <c r="J5" s="237"/>
+      <c r="K5" s="237"/>
+      <c r="L5" s="237"/>
+      <c r="M5" s="238"/>
+      <c r="P5" s="226"/>
+      <c r="Q5" s="226"/>
+      <c r="R5" s="227"/>
+      <c r="S5" s="227"/>
       <c r="V5" s="7"/>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="D6" s="241" t="s">
+      <c r="B6" s="49"/>
+      <c r="D6" s="239" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243" t="s">
+      <c r="E6" s="240"/>
+      <c r="F6" s="241" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="244"/>
-      <c r="M6" s="245"/>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="229"/>
-      <c r="S6" s="229"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="242"/>
+      <c r="L6" s="242"/>
+      <c r="M6" s="243"/>
+      <c r="P6" s="226"/>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
       <c r="V6" s="7"/>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="E7" s="54"/>
+      <c r="B7" s="49"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -7143,7 +7182,7 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="54"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -7155,2011 +7194,2011 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="53">
         <v>355</v>
       </c>
-      <c r="D9" s="248" t="s">
+      <c r="D9" s="246" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="250"/>
-      <c r="I9" s="251" t="s">
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="248"/>
+      <c r="I9" s="249" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="252"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="253" t="s">
+      <c r="J9" s="250"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="254"/>
-      <c r="N9" s="255"/>
-      <c r="P9" s="256" t="s">
+      <c r="M9" s="252"/>
+      <c r="N9" s="253"/>
+      <c r="P9" s="254" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="258"/>
-      <c r="T9" s="230" t="s">
+      <c r="Q9" s="255"/>
+      <c r="R9" s="256"/>
+      <c r="T9" s="228" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="231"/>
-      <c r="V9" s="231"/>
-      <c r="W9" s="232"/>
-      <c r="Y9" s="233" t="s">
+      <c r="U9" s="229"/>
+      <c r="V9" s="229"/>
+      <c r="W9" s="230"/>
+      <c r="Y9" s="231" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="234"/>
-      <c r="AA9" s="235"/>
+      <c r="Z9" s="232"/>
+      <c r="AA9" s="233"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="64" t="s">
+      <c r="K10" s="54"/>
+      <c r="L10" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="M10" s="64" t="s">
+      <c r="M10" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="64" t="s">
+      <c r="N10" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="65" t="s">
+      <c r="P10" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="Q10" s="66" t="s">
+      <c r="Q10" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="R10" s="67" t="s">
+      <c r="R10" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="T10" s="68" t="s">
+      <c r="T10" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="69" t="s">
+      <c r="U10" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="69" t="s">
+      <c r="V10" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="W10" s="70" t="s">
+      <c r="W10" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="259"/>
-      <c r="Z10" s="260"/>
-      <c r="AA10" s="261"/>
+      <c r="Y10" s="257"/>
+      <c r="Z10" s="258"/>
+      <c r="AA10" s="259"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="68">
         <v>1</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="71">
         <v>2023</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="72">
         <v>45138</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="77" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="73" t="s">
         <v>223</v>
       </c>
       <c r="M11" s="6">
         <v>39448</v>
       </c>
-      <c r="N11" s="78">
+      <c r="N11" s="74">
         <v>0.05</v>
       </c>
-      <c r="P11" s="79" t="s">
+      <c r="P11" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="Q11" s="80">
+      <c r="Q11" s="76">
         <f ca="1">TODAY()</f>
         <v>45503</v>
       </c>
-      <c r="R11" s="81">
+      <c r="R11" s="77">
         <f ca="1">TODAY()</f>
         <v>45503</v>
       </c>
-      <c r="T11" s="82" t="s">
+      <c r="T11" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="83" t="s">
+      <c r="U11" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="83">
+      <c r="V11" s="79">
         <v>1</v>
       </c>
-      <c r="W11" s="84" t="s">
+      <c r="W11" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="Y11" s="85" t="s">
+      <c r="Y11" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="Z11" s="86" t="s">
+      <c r="Z11" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="AA11" s="87" t="s">
+      <c r="AA11" s="83" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="85">
         <v>2</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="92">
+      <c r="I12" s="88">
         <v>2024</v>
       </c>
-      <c r="J12" s="93">
+      <c r="J12" s="89">
         <v>45504</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="77" t="s">
+      <c r="K12" s="54"/>
+      <c r="L12" s="73" t="s">
         <v>179</v>
       </c>
       <c r="M12" s="6">
         <v>41275</v>
       </c>
-      <c r="N12" s="94">
+      <c r="N12" s="90">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="P12" s="82" t="s">
+      <c r="P12" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="Q12" s="95">
+      <c r="Q12" s="91">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),1)</f>
         <v>45474</v>
       </c>
-      <c r="R12" s="96">
+      <c r="R12" s="92">
         <f ca="1">EOMONTH(DATE(YEAR(TODAY()),MONTH(TODAY()),1),0)</f>
         <v>45504</v>
       </c>
-      <c r="T12" s="97" t="s">
+      <c r="T12" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="99">
+      <c r="V12" s="95">
         <v>2</v>
       </c>
-      <c r="W12" s="100" t="s">
+      <c r="W12" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y12" s="101">
+      <c r="Y12" s="97">
         <v>1</v>
       </c>
-      <c r="Z12" s="102" t="s">
+      <c r="Z12" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="AA12" s="103"/>
+      <c r="AA12" s="99"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="85">
         <v>3</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="86" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="104">
+      <c r="I13" s="100">
         <v>2025</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="89">
         <v>45869</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="77"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="73"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="78"/>
-      <c r="P13" s="82" t="s">
+      <c r="N13" s="74"/>
+      <c r="P13" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="Q13" s="95">
+      <c r="Q13" s="91">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())-1,1)</f>
         <v>45444</v>
       </c>
-      <c r="R13" s="96">
+      <c r="R13" s="92">
         <f ca="1">EOMONTH(DATE(YEAR(TODAY()),MONTH(TODAY()),1),-1)</f>
         <v>45473</v>
       </c>
-      <c r="T13" s="97" t="s">
+      <c r="T13" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="U13" s="105" t="s">
+      <c r="U13" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="V13" s="99">
+      <c r="V13" s="95">
         <v>3</v>
       </c>
-      <c r="W13" s="106" t="s">
+      <c r="W13" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y13" s="107">
+      <c r="Y13" s="103">
         <v>2</v>
       </c>
-      <c r="Z13" s="108" t="s">
+      <c r="Z13" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="AA13" s="109"/>
+      <c r="AA13" s="105"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="111">
+      <c r="E14" s="107">
         <v>4</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="113" t="s">
+      <c r="G14" s="109" t="s">
         <v>237</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="88">
         <v>2026</v>
       </c>
-      <c r="J14" s="93">
+      <c r="J14" s="89">
         <v>46234</v>
       </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="77"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="73"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="94"/>
-      <c r="P14" s="82" t="s">
+      <c r="N14" s="90"/>
+      <c r="P14" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="Q14" s="95" t="e">
+      <c r="Q14" s="91" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="R14" s="96" t="e">
+      <c r="R14" s="92" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="T14" s="97" t="s">
+      <c r="T14" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="U14" s="98" t="s">
+      <c r="U14" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="V14" s="99">
+      <c r="V14" s="95">
         <v>4</v>
       </c>
-      <c r="W14" s="100" t="s">
+      <c r="W14" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y14" s="107">
+      <c r="Y14" s="103">
         <v>3</v>
       </c>
-      <c r="Z14" s="108" t="s">
+      <c r="Z14" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="AA14" s="109"/>
+      <c r="AA14" s="105"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="7"/>
-      <c r="I15" s="104">
+      <c r="I15" s="100">
         <v>2027</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="72">
         <v>46599</v>
       </c>
-      <c r="K15" s="58"/>
-      <c r="L15" s="77"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="73"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="78"/>
-      <c r="P15" s="82" t="s">
+      <c r="N15" s="74"/>
+      <c r="P15" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="Q15" s="95" t="e">
+      <c r="Q15" s="91" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="R15" s="96" t="e">
+      <c r="R15" s="92" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="T15" s="97" t="s">
+      <c r="T15" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="105" t="s">
+      <c r="U15" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="V15" s="99">
+      <c r="V15" s="95">
         <v>5</v>
       </c>
-      <c r="W15" s="106" t="s">
+      <c r="W15" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y15" s="107">
+      <c r="Y15" s="103">
         <v>4</v>
       </c>
-      <c r="Z15" s="108" t="s">
+      <c r="Z15" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="AA15" s="109"/>
+      <c r="AA15" s="105"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="92">
+      <c r="I16" s="88">
         <v>2028</v>
       </c>
-      <c r="J16" s="93">
+      <c r="J16" s="89">
         <v>46965</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="77"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="73"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="94"/>
-      <c r="P16" s="82" t="s">
+      <c r="N16" s="90"/>
+      <c r="P16" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="Q16" s="95" t="e">
+      <c r="Q16" s="91" t="e">
         <f>DATE(YEAR(Aujourdhui)-1+IF(MONTH(Aujourdhui)&gt;7,1,0),8,1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="R16" s="96" t="e">
+      <c r="R16" s="92" t="e">
         <f>DATE(YEAR(Aujourdhui)+IF(MONTH(Aujourdhui)&gt;7,1,0),7,31)</f>
         <v>#NAME?</v>
       </c>
-      <c r="T16" s="97" t="s">
+      <c r="T16" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="98" t="s">
+      <c r="U16" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="99">
+      <c r="V16" s="95">
         <v>6</v>
       </c>
-      <c r="W16" s="100" t="s">
+      <c r="W16" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y16" s="107">
+      <c r="Y16" s="103">
         <v>5</v>
       </c>
-      <c r="Z16" s="108" t="s">
+      <c r="Z16" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="AA16" s="109"/>
+      <c r="AA16" s="105"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="262" t="s">
+      <c r="D17" s="260" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="263"/>
-      <c r="F17" s="264"/>
-      <c r="I17" s="104">
+      <c r="E17" s="261"/>
+      <c r="F17" s="262"/>
+      <c r="I17" s="100">
         <v>2029</v>
       </c>
-      <c r="J17" s="93">
+      <c r="J17" s="89">
         <v>47330</v>
       </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="77"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="73"/>
       <c r="N17" s="7"/>
-      <c r="P17" s="82" t="s">
+      <c r="P17" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="Q17" s="95" t="e">
+      <c r="Q17" s="91" t="e">
         <f>DATE(YEAR(Aujourdhui)-2+IF(MONTH(Aujourdhui)&gt;7,1,0),8,1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="R17" s="96" t="e">
+      <c r="R17" s="92" t="e">
         <f>DATE(YEAR(Aujourdhui)-1+IF(MONTH(Aujourdhui)&gt;7,1,0),7,31)</f>
         <v>#NAME?</v>
       </c>
-      <c r="T17" s="97" t="s">
+      <c r="T17" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="105" t="s">
+      <c r="U17" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="99">
+      <c r="V17" s="95">
         <v>7</v>
       </c>
-      <c r="W17" s="106" t="s">
+      <c r="W17" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y17" s="107">
+      <c r="Y17" s="103">
         <v>6</v>
       </c>
-      <c r="Z17" s="108" t="s">
+      <c r="Z17" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="109"/>
+      <c r="AA17" s="105"/>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="E18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="117" t="s">
+      <c r="F18" s="113" t="s">
         <v>243</v>
       </c>
-      <c r="I18" s="92">
+      <c r="I18" s="88">
         <v>2030</v>
       </c>
-      <c r="J18" s="93">
+      <c r="J18" s="89">
         <v>47695</v>
       </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="77"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="73"/>
       <c r="N18" s="7"/>
-      <c r="P18" s="82" t="s">
+      <c r="P18" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="Q18" s="95">
+      <c r="Q18" s="91">
         <f ca="1">TODAY()-6</f>
         <v>45497</v>
       </c>
-      <c r="R18" s="96">
+      <c r="R18" s="92">
         <f ca="1">TODAY()</f>
         <v>45503</v>
       </c>
-      <c r="T18" s="97" t="s">
+      <c r="T18" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="U18" s="98" t="s">
+      <c r="U18" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="V18" s="99">
+      <c r="V18" s="95">
         <v>8</v>
       </c>
-      <c r="W18" s="100" t="s">
+      <c r="W18" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y18" s="107">
+      <c r="Y18" s="103">
         <v>7</v>
       </c>
-      <c r="Z18" s="108" t="s">
+      <c r="Z18" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="AA18" s="109"/>
+      <c r="AA18" s="105"/>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="77">
+      <c r="D19" s="73">
         <v>1</v>
       </c>
       <c r="E19" s="6">
         <v>44562</v>
       </c>
-      <c r="F19" s="118">
+      <c r="F19" s="114">
         <v>300</v>
       </c>
-      <c r="I19" s="104">
+      <c r="I19" s="100">
         <v>2031</v>
       </c>
-      <c r="J19" s="93">
+      <c r="J19" s="89">
         <v>48060</v>
       </c>
-      <c r="K19" s="58"/>
-      <c r="P19" s="82" t="s">
+      <c r="K19" s="54"/>
+      <c r="P19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="Q19" s="95">
+      <c r="Q19" s="91">
         <f ca="1">TODAY()-14</f>
         <v>45489</v>
       </c>
-      <c r="R19" s="96">
+      <c r="R19" s="92">
         <f ca="1">TODAY()</f>
         <v>45503</v>
       </c>
-      <c r="T19" s="97" t="s">
+      <c r="T19" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="U19" s="105" t="s">
+      <c r="U19" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="V19" s="99">
+      <c r="V19" s="95">
         <v>9</v>
       </c>
-      <c r="W19" s="106" t="s">
+      <c r="W19" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y19" s="107">
+      <c r="Y19" s="103">
         <v>8</v>
       </c>
-      <c r="Z19" s="108" t="s">
+      <c r="Z19" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="AA19" s="109"/>
+      <c r="AA19" s="105"/>
     </row>
     <row r="20" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="77">
+      <c r="D20" s="73">
         <v>1</v>
       </c>
       <c r="E20" s="6">
         <v>44927</v>
       </c>
-      <c r="F20" s="118">
+      <c r="F20" s="114">
         <v>350</v>
       </c>
-      <c r="I20" s="92">
+      <c r="I20" s="88">
         <v>2032</v>
       </c>
-      <c r="J20" s="93">
+      <c r="J20" s="89">
         <v>48426</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="P20" s="82" t="s">
+      <c r="K20" s="54"/>
+      <c r="P20" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="Q20" s="95">
+      <c r="Q20" s="91">
         <f ca="1">Q11-WEEKDAY(Q11,1)+1</f>
         <v>45501</v>
       </c>
-      <c r="R20" s="96">
+      <c r="R20" s="92">
         <f ca="1">Tableau8[[#This Row],[Du]]+6</f>
         <v>45507</v>
       </c>
-      <c r="T20" s="97" t="s">
+      <c r="T20" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="U20" s="98" t="s">
+      <c r="U20" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="V20" s="99">
+      <c r="V20" s="95">
         <v>10</v>
       </c>
-      <c r="W20" s="100" t="s">
+      <c r="W20" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y20" s="107">
+      <c r="Y20" s="103">
         <v>9</v>
       </c>
-      <c r="Z20" s="108" t="s">
+      <c r="Z20" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="AA20" s="109" t="s">
+      <c r="AA20" s="105" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="77">
+      <c r="D21" s="73">
         <v>1</v>
       </c>
       <c r="E21" s="6">
         <v>45292</v>
       </c>
-      <c r="F21" s="118">
+      <c r="F21" s="114">
         <v>400</v>
       </c>
-      <c r="I21" s="104"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="265" t="s">
+      <c r="I21" s="100"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="263" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="266"/>
-      <c r="N21" s="119">
+      <c r="M21" s="264"/>
+      <c r="N21" s="115">
         <v>7</v>
       </c>
-      <c r="P21" s="120" t="s">
+      <c r="P21" s="116" t="s">
         <v>252</v>
       </c>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="122"/>
-      <c r="T21" s="97" t="s">
+      <c r="Q21" s="117"/>
+      <c r="R21" s="118"/>
+      <c r="T21" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="105" t="s">
+      <c r="U21" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="V21" s="99">
+      <c r="V21" s="95">
         <v>11</v>
       </c>
-      <c r="W21" s="106" t="s">
+      <c r="W21" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y21" s="107">
+      <c r="Y21" s="103">
         <v>10</v>
       </c>
-      <c r="Z21" s="108" t="s">
+      <c r="Z21" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="AA21" s="109" t="s">
+      <c r="AA21" s="105" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D22" s="77">
+      <c r="D22" s="73">
         <v>2</v>
       </c>
       <c r="E22" s="6">
         <v>44927</v>
       </c>
-      <c r="F22" s="118">
+      <c r="F22" s="114">
         <v>200</v>
       </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="58"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="54"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="T22" s="97" t="s">
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="T22" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="U22" s="98" t="s">
+      <c r="U22" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="99">
+      <c r="V22" s="95">
         <v>12</v>
       </c>
-      <c r="W22" s="100" t="s">
+      <c r="W22" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y22" s="107">
+      <c r="Y22" s="103">
         <v>11</v>
       </c>
-      <c r="Z22" s="108" t="s">
+      <c r="Z22" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="AA22" s="109"/>
+      <c r="AA22" s="105"/>
     </row>
     <row r="23" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="77">
+      <c r="D23" s="73">
         <v>2</v>
       </c>
       <c r="E23" s="6">
         <v>45292</v>
       </c>
-      <c r="F23" s="118">
+      <c r="F23" s="114">
         <v>225</v>
       </c>
-      <c r="I23" s="104"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="58"/>
-      <c r="T23" s="97" t="s">
+      <c r="I23" s="100"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="54"/>
+      <c r="T23" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="U23" s="105" t="s">
+      <c r="U23" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="V23" s="99">
+      <c r="V23" s="95">
         <v>13</v>
       </c>
-      <c r="W23" s="106" t="s">
+      <c r="W23" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y23" s="107">
+      <c r="Y23" s="103">
         <v>12</v>
       </c>
-      <c r="Z23" s="108" t="s">
+      <c r="Z23" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="AA23" s="109" t="s">
+      <c r="AA23" s="105" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="77">
+      <c r="D24" s="73">
         <v>3</v>
       </c>
       <c r="E24" s="6">
         <v>44927</v>
       </c>
-      <c r="F24" s="118">
+      <c r="F24" s="114">
         <v>100</v>
       </c>
-      <c r="I24" s="92"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="58"/>
-      <c r="P24" s="253" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="54"/>
+      <c r="P24" s="251" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="254"/>
-      <c r="R24" s="255"/>
-      <c r="T24" s="97" t="s">
+      <c r="Q24" s="252"/>
+      <c r="R24" s="253"/>
+      <c r="T24" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="U24" s="98" t="s">
+      <c r="U24" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="V24" s="99">
+      <c r="V24" s="95">
         <v>14</v>
       </c>
-      <c r="W24" s="100" t="s">
+      <c r="W24" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y24" s="107">
+      <c r="Y24" s="103">
         <v>13</v>
       </c>
-      <c r="Z24" s="108" t="s">
+      <c r="Z24" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="AA24" s="109"/>
+      <c r="AA24" s="105"/>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25" s="77">
+      <c r="D25" s="73">
         <v>3</v>
       </c>
       <c r="E25" s="6">
         <v>45292</v>
       </c>
-      <c r="F25" s="118">
+      <c r="F25" s="114">
         <v>115</v>
       </c>
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="58"/>
-      <c r="P25" s="267" t="s">
+      <c r="I25" s="120"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="54"/>
+      <c r="P25" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="268"/>
-      <c r="R25" s="126" t="s">
+      <c r="Q25" s="266"/>
+      <c r="R25" s="122" t="s">
         <v>262</v>
       </c>
-      <c r="T25" s="97" t="s">
+      <c r="T25" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="U25" s="105" t="s">
+      <c r="U25" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="V25" s="99">
+      <c r="V25" s="95">
         <v>15</v>
       </c>
-      <c r="W25" s="106" t="s">
+      <c r="W25" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y25" s="107">
+      <c r="Y25" s="103">
         <v>14</v>
       </c>
-      <c r="Z25" s="108" t="s">
+      <c r="Z25" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="AA25" s="109" t="s">
+      <c r="AA25" s="105" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D26" s="77">
+      <c r="D26" s="73">
         <v>4</v>
       </c>
       <c r="E26" s="6">
         <v>44927</v>
       </c>
-      <c r="F26" s="118">
+      <c r="F26" s="114">
         <v>200</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
-      <c r="P26" s="246" t="s">
+      <c r="P26" s="244" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="247"/>
-      <c r="R26" s="127" t="s">
+      <c r="Q26" s="245"/>
+      <c r="R26" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="T26" s="97" t="s">
+      <c r="T26" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="U26" s="98" t="s">
+      <c r="U26" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="V26" s="99">
+      <c r="V26" s="95">
         <v>16</v>
       </c>
-      <c r="W26" s="100" t="s">
+      <c r="W26" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y26" s="107">
+      <c r="Y26" s="103">
         <v>15</v>
       </c>
-      <c r="Z26" s="108" t="s">
+      <c r="Z26" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="AA26" s="109" t="s">
+      <c r="AA26" s="105" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="27" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="77">
+      <c r="D27" s="73">
         <v>4</v>
       </c>
       <c r="E27" s="6">
         <v>45292</v>
       </c>
-      <c r="F27" s="118">
+      <c r="F27" s="114">
         <v>225</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="P27" s="269" t="s">
+      <c r="P27" s="267" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="270"/>
-      <c r="R27" s="129" t="s">
+      <c r="Q27" s="268"/>
+      <c r="R27" s="125" t="s">
         <v>267</v>
       </c>
-      <c r="T27" s="97" t="s">
+      <c r="T27" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="U27" s="105" t="s">
+      <c r="U27" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="V27" s="99">
+      <c r="V27" s="95">
         <v>17</v>
       </c>
-      <c r="W27" s="106" t="s">
+      <c r="W27" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y27" s="107">
+      <c r="Y27" s="103">
         <v>16</v>
       </c>
-      <c r="Z27" s="108" t="s">
+      <c r="Z27" s="104" t="s">
         <v>274</v>
       </c>
-      <c r="AA27" s="109"/>
+      <c r="AA27" s="105"/>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F28" s="130"/>
-      <c r="I28" s="271" t="s">
+      <c r="F28" s="126"/>
+      <c r="I28" s="269" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="272"/>
+      <c r="J28" s="270"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="273" t="s">
+      <c r="L28" s="271" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="274"/>
-      <c r="N28" s="275"/>
-      <c r="P28" s="276" t="s">
+      <c r="M28" s="272"/>
+      <c r="N28" s="273"/>
+      <c r="P28" s="274" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="277"/>
-      <c r="R28" s="132" t="s">
+      <c r="Q28" s="275"/>
+      <c r="R28" s="128" t="s">
         <v>278</v>
       </c>
-      <c r="T28" s="97" t="s">
+      <c r="T28" s="93" t="s">
         <v>279</v>
       </c>
-      <c r="U28" s="98" t="s">
+      <c r="U28" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="V28" s="99">
+      <c r="V28" s="95">
         <v>18</v>
       </c>
-      <c r="W28" s="100" t="s">
+      <c r="W28" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y28" s="107">
+      <c r="Y28" s="103">
         <v>17</v>
       </c>
-      <c r="Z28" s="108" t="s">
+      <c r="Z28" s="104" t="s">
         <v>281</v>
       </c>
-      <c r="AA28" s="109"/>
+      <c r="AA28" s="105"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I29" s="276" t="s">
+      <c r="I29" s="274" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="278"/>
+      <c r="J29" s="276"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="134" t="s">
+      <c r="L29" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="279"/>
-      <c r="N29" s="280"/>
-      <c r="P29" s="281" t="s">
+      <c r="M29" s="277"/>
+      <c r="N29" s="278"/>
+      <c r="P29" s="279" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="282"/>
-      <c r="R29" s="129" t="s">
+      <c r="Q29" s="280"/>
+      <c r="R29" s="125" t="s">
         <v>278</v>
       </c>
-      <c r="T29" s="97" t="s">
+      <c r="T29" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="U29" s="105" t="s">
+      <c r="U29" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="V29" s="99">
+      <c r="V29" s="95">
         <v>19</v>
       </c>
-      <c r="W29" s="106" t="s">
+      <c r="W29" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y29" s="107">
+      <c r="Y29" s="103">
         <v>18</v>
       </c>
-      <c r="Z29" s="108" t="s">
+      <c r="Z29" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="AA29" s="109" t="s">
+      <c r="AA29" s="105" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="30" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="283" t="s">
+      <c r="I30" s="281" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="284"/>
+      <c r="J30" s="282"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="134" t="s">
+      <c r="L30" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="279"/>
-      <c r="N30" s="280"/>
-      <c r="P30" s="285" t="s">
+      <c r="M30" s="277"/>
+      <c r="N30" s="278"/>
+      <c r="P30" s="283" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="286"/>
-      <c r="R30" s="132" t="s">
+      <c r="Q30" s="284"/>
+      <c r="R30" s="128" t="s">
         <v>267</v>
       </c>
-      <c r="T30" s="97" t="s">
+      <c r="T30" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="U30" s="98" t="s">
+      <c r="U30" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="V30" s="99">
+      <c r="V30" s="95">
         <v>20</v>
       </c>
-      <c r="W30" s="100" t="s">
+      <c r="W30" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y30" s="107">
+      <c r="Y30" s="103">
         <v>19</v>
       </c>
-      <c r="Z30" s="108" t="s">
+      <c r="Z30" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="AA30" s="109"/>
+      <c r="AA30" s="105"/>
     </row>
     <row r="31" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="253" t="s">
+      <c r="D31" s="251" t="s">
         <v>290</v>
       </c>
-      <c r="E31" s="254"/>
-      <c r="F31" s="255"/>
-      <c r="I31" s="276" t="s">
+      <c r="E31" s="252"/>
+      <c r="F31" s="253"/>
+      <c r="I31" s="274" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="278"/>
-      <c r="L31" s="134" t="s">
+      <c r="J31" s="276"/>
+      <c r="L31" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="279"/>
-      <c r="N31" s="280"/>
-      <c r="P31" s="269" t="s">
+      <c r="M31" s="277"/>
+      <c r="N31" s="278"/>
+      <c r="P31" s="267" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="270"/>
-      <c r="R31" s="129" t="s">
+      <c r="Q31" s="268"/>
+      <c r="R31" s="125" t="s">
         <v>278</v>
       </c>
-      <c r="T31" s="97" t="s">
+      <c r="T31" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="105" t="s">
+      <c r="U31" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="V31" s="99">
+      <c r="V31" s="95">
         <v>21</v>
       </c>
-      <c r="W31" s="106" t="s">
+      <c r="W31" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y31" s="107">
+      <c r="Y31" s="103">
         <v>20</v>
       </c>
-      <c r="Z31" s="108" t="s">
+      <c r="Z31" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="AA31" s="109"/>
+      <c r="AA31" s="105"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="288" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="291"/>
-      <c r="F32" s="292"/>
-      <c r="I32" s="283" t="s">
+      <c r="E32" s="289"/>
+      <c r="F32" s="290"/>
+      <c r="I32" s="281" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="284"/>
-      <c r="L32" s="134" t="s">
+      <c r="J32" s="282"/>
+      <c r="L32" s="130" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="279"/>
-      <c r="N32" s="280"/>
-      <c r="P32" s="293" t="s">
+      <c r="M32" s="277"/>
+      <c r="N32" s="278"/>
+      <c r="P32" s="291" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="294"/>
-      <c r="R32" s="137" t="s">
+      <c r="Q32" s="292"/>
+      <c r="R32" s="133" t="s">
         <v>267</v>
       </c>
-      <c r="T32" s="97" t="s">
+      <c r="T32" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="U32" s="98" t="s">
+      <c r="U32" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="V32" s="99">
+      <c r="V32" s="95">
         <v>22</v>
       </c>
-      <c r="W32" s="100" t="s">
+      <c r="W32" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y32" s="107">
+      <c r="Y32" s="103">
         <v>21</v>
       </c>
-      <c r="Z32" s="108" t="s">
+      <c r="Z32" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="AA32" s="109" t="s">
+      <c r="AA32" s="105" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="295" t="s">
+      <c r="D33" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="296"/>
-      <c r="F33" s="297"/>
-      <c r="I33" s="276" t="s">
+      <c r="E33" s="294"/>
+      <c r="F33" s="295"/>
+      <c r="I33" s="274" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="278"/>
-      <c r="L33" s="138" t="s">
+      <c r="J33" s="276"/>
+      <c r="L33" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="298"/>
-      <c r="N33" s="299"/>
-      <c r="T33" s="97" t="s">
+      <c r="M33" s="296"/>
+      <c r="N33" s="297"/>
+      <c r="T33" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="U33" s="105" t="s">
+      <c r="U33" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="V33" s="99">
+      <c r="V33" s="95">
         <v>23</v>
       </c>
-      <c r="W33" s="106" t="s">
+      <c r="W33" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y33" s="107">
+      <c r="Y33" s="103">
         <v>22</v>
       </c>
-      <c r="Z33" s="108" t="s">
+      <c r="Z33" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="AA33" s="109"/>
+      <c r="AA33" s="105"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="283" t="s">
+      <c r="D34" s="281" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="300"/>
-      <c r="F34" s="284"/>
-      <c r="I34" s="283" t="s">
+      <c r="E34" s="298"/>
+      <c r="F34" s="282"/>
+      <c r="I34" s="281" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="284"/>
-      <c r="T34" s="97" t="s">
+      <c r="J34" s="282"/>
+      <c r="T34" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="U34" s="98" t="s">
+      <c r="U34" s="94" t="s">
         <v>301</v>
       </c>
-      <c r="V34" s="99">
+      <c r="V34" s="95">
         <v>24</v>
       </c>
-      <c r="W34" s="100" t="s">
+      <c r="W34" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y34" s="107">
+      <c r="Y34" s="103">
         <v>23</v>
       </c>
-      <c r="Z34" s="108" t="s">
+      <c r="Z34" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="AA34" s="109"/>
+      <c r="AA34" s="105"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="276" t="s">
+      <c r="D35" s="274" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="301"/>
-      <c r="F35" s="278"/>
-      <c r="I35" s="302" t="s">
+      <c r="E35" s="299"/>
+      <c r="F35" s="276"/>
+      <c r="I35" s="300" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="303"/>
-      <c r="P35" s="304"/>
-      <c r="Q35" s="304"/>
-      <c r="T35" s="97" t="s">
+      <c r="J35" s="301"/>
+      <c r="P35" s="302"/>
+      <c r="Q35" s="302"/>
+      <c r="T35" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="U35" s="105" t="s">
+      <c r="U35" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="V35" s="99">
+      <c r="V35" s="95">
         <v>25</v>
       </c>
-      <c r="W35" s="106" t="s">
+      <c r="W35" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y35" s="107">
+      <c r="Y35" s="103">
         <v>24</v>
       </c>
-      <c r="Z35" s="108" t="s">
+      <c r="Z35" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="AA35" s="109"/>
+      <c r="AA35" s="105"/>
     </row>
     <row r="36" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="287" t="s">
+      <c r="D36" s="285" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="288"/>
-      <c r="F36" s="289"/>
-      <c r="T36" s="97" t="s">
+      <c r="E36" s="286"/>
+      <c r="F36" s="287"/>
+      <c r="T36" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="U36" s="98" t="s">
+      <c r="U36" s="94" t="s">
         <v>307</v>
       </c>
-      <c r="V36" s="99">
+      <c r="V36" s="95">
         <v>26</v>
       </c>
-      <c r="W36" s="100" t="s">
+      <c r="W36" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y36" s="107">
+      <c r="Y36" s="103">
         <v>25</v>
       </c>
-      <c r="Z36" s="108" t="s">
+      <c r="Z36" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="AA36" s="109"/>
+      <c r="AA36" s="105"/>
     </row>
     <row r="37" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T37" s="97" t="s">
+      <c r="T37" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="U37" s="105" t="s">
+      <c r="U37" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="V37" s="99">
+      <c r="V37" s="95">
         <v>27</v>
       </c>
-      <c r="W37" s="106" t="s">
+      <c r="W37" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y37" s="107">
+      <c r="Y37" s="103">
         <v>26</v>
       </c>
-      <c r="Z37" s="108" t="s">
+      <c r="Z37" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="AA37" s="109" t="s">
+      <c r="AA37" s="105" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="38" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="305" t="s">
+      <c r="I38" s="303" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="306"/>
-      <c r="T38" s="97" t="s">
+      <c r="J38" s="304"/>
+      <c r="T38" s="93" t="s">
         <v>310</v>
       </c>
-      <c r="U38" s="98" t="s">
+      <c r="U38" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="V38" s="99">
+      <c r="V38" s="95">
         <v>28</v>
       </c>
-      <c r="W38" s="100" t="s">
+      <c r="W38" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y38" s="107">
+      <c r="Y38" s="103">
         <v>27</v>
       </c>
-      <c r="Z38" s="139" t="s">
+      <c r="Z38" s="135" t="s">
         <v>311</v>
       </c>
-      <c r="AA38" s="109"/>
+      <c r="AA38" s="105"/>
     </row>
     <row r="39" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="307" t="s">
+      <c r="D39" s="305" t="s">
         <v>312</v>
       </c>
-      <c r="E39" s="308"/>
-      <c r="F39" s="309"/>
-      <c r="I39" s="140" t="s">
+      <c r="E39" s="306"/>
+      <c r="F39" s="307"/>
+      <c r="I39" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="J39" s="141" t="s">
+      <c r="J39" s="137" t="s">
         <v>313</v>
       </c>
-      <c r="T39" s="97" t="s">
+      <c r="T39" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="U39" s="105" t="s">
+      <c r="U39" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="V39" s="99">
+      <c r="V39" s="95">
         <v>29</v>
       </c>
-      <c r="W39" s="106" t="s">
+      <c r="W39" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y39" s="107">
+      <c r="Y39" s="103">
         <v>28</v>
       </c>
-      <c r="Z39" s="139" t="s">
+      <c r="Z39" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="AA39" s="109"/>
+      <c r="AA39" s="105"/>
     </row>
     <row r="40" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="140" t="s">
+      <c r="D40" s="136" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="141" t="s">
+      <c r="E40" s="137" t="s">
         <v>316</v>
       </c>
-      <c r="F40" s="142" t="s">
+      <c r="F40" s="138" t="s">
         <v>313</v>
       </c>
-      <c r="I40" s="128" t="s">
+      <c r="I40" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="J40" s="143"/>
-      <c r="T40" s="97" t="s">
+      <c r="J40" s="139"/>
+      <c r="T40" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="U40" s="98" t="s">
+      <c r="U40" s="94" t="s">
         <v>319</v>
       </c>
-      <c r="V40" s="99">
+      <c r="V40" s="95">
         <v>30</v>
       </c>
-      <c r="W40" s="100" t="s">
+      <c r="W40" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y40" s="107">
+      <c r="Y40" s="103">
         <v>29</v>
       </c>
-      <c r="Z40" s="139" t="s">
+      <c r="Z40" s="135" t="s">
         <v>320</v>
       </c>
-      <c r="AA40" s="109"/>
+      <c r="AA40" s="105"/>
     </row>
     <row r="41" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="144" t="s">
+      <c r="D41" s="140" t="s">
         <v>321</v>
       </c>
-      <c r="E41" s="145">
+      <c r="E41" s="141">
         <v>0</v>
       </c>
-      <c r="F41" s="146"/>
-      <c r="I41" s="135" t="s">
+      <c r="F41" s="142"/>
+      <c r="I41" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J41" s="147"/>
-      <c r="T41" s="97" t="s">
+      <c r="J41" s="143"/>
+      <c r="T41" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="U41" s="105" t="s">
+      <c r="U41" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="V41" s="99">
+      <c r="V41" s="95">
         <v>31</v>
       </c>
-      <c r="W41" s="106" t="s">
+      <c r="W41" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y41" s="107">
+      <c r="Y41" s="103">
         <v>30</v>
       </c>
-      <c r="Z41" s="139" t="s">
+      <c r="Z41" s="135" t="s">
         <v>324</v>
       </c>
-      <c r="AA41" s="109"/>
+      <c r="AA41" s="105"/>
     </row>
     <row r="42" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="148" t="s">
+      <c r="D42" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="149">
+      <c r="E42" s="145">
         <v>15</v>
       </c>
-      <c r="F42" s="150"/>
-      <c r="I42" s="128" t="s">
+      <c r="F42" s="146"/>
+      <c r="I42" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="143"/>
-      <c r="T42" s="97" t="s">
+      <c r="J42" s="139"/>
+      <c r="T42" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="U42" s="98" t="s">
+      <c r="U42" s="94" t="s">
         <v>326</v>
       </c>
-      <c r="V42" s="99">
+      <c r="V42" s="95">
         <v>32</v>
       </c>
-      <c r="W42" s="100" t="s">
+      <c r="W42" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y42" s="107">
+      <c r="Y42" s="103">
         <v>31</v>
       </c>
-      <c r="Z42" s="139" t="s">
+      <c r="Z42" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="AA42" s="109"/>
+      <c r="AA42" s="105"/>
     </row>
     <row r="43" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="151" t="s">
+      <c r="D43" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="148">
         <v>30</v>
       </c>
-      <c r="F43" s="153"/>
-      <c r="I43" s="135" t="s">
+      <c r="F43" s="149"/>
+      <c r="I43" s="131" t="s">
         <v>327</v>
       </c>
-      <c r="J43" s="147"/>
-      <c r="T43" s="97" t="s">
+      <c r="J43" s="143"/>
+      <c r="T43" s="93" t="s">
         <v>328</v>
       </c>
-      <c r="U43" s="105" t="s">
+      <c r="U43" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="V43" s="99">
+      <c r="V43" s="95">
         <v>33</v>
       </c>
-      <c r="W43" s="106" t="s">
+      <c r="W43" s="102" t="s">
         <v>330</v>
       </c>
-      <c r="Y43" s="107">
+      <c r="Y43" s="103">
         <v>32</v>
       </c>
-      <c r="Z43" s="139" t="s">
+      <c r="Z43" s="135" t="s">
         <v>331</v>
       </c>
-      <c r="AA43" s="109"/>
+      <c r="AA43" s="105"/>
     </row>
     <row r="44" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="148" t="s">
+      <c r="D44" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="149">
+      <c r="E44" s="145">
         <v>60</v>
       </c>
-      <c r="F44" s="150"/>
-      <c r="I44" s="128" t="s">
+      <c r="F44" s="146"/>
+      <c r="I44" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="J44" s="143" t="str">
+      <c r="J44" s="139" t="str">
         <f>CHAR(252)</f>
         <v>ü</v>
       </c>
-      <c r="T44" s="97" t="s">
+      <c r="T44" s="93" t="s">
         <v>332</v>
       </c>
-      <c r="U44" s="98" t="s">
+      <c r="U44" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="V44" s="99">
+      <c r="V44" s="95">
         <v>34</v>
       </c>
-      <c r="W44" s="100" t="s">
+      <c r="W44" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="Y44" s="107">
+      <c r="Y44" s="103">
         <v>33</v>
       </c>
-      <c r="Z44" s="139" t="s">
+      <c r="Z44" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="AA44" s="109"/>
+      <c r="AA44" s="105"/>
     </row>
     <row r="45" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="154"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="156"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="157"/>
-      <c r="T45" s="97" t="s">
+      <c r="D45" s="150"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="152"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="153"/>
+      <c r="T45" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="U45" s="105" t="s">
+      <c r="U45" s="101" t="s">
         <v>336</v>
       </c>
-      <c r="V45" s="99">
+      <c r="V45" s="95">
         <v>35</v>
       </c>
-      <c r="W45" s="106" t="s">
+      <c r="W45" s="102" t="s">
         <v>330</v>
       </c>
-      <c r="Y45" s="107">
+      <c r="Y45" s="103">
         <v>34</v>
       </c>
-      <c r="Z45" s="139" t="s">
+      <c r="Z45" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="AA45" s="109"/>
+      <c r="AA45" s="105"/>
     </row>
     <row r="46" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T46" s="97" t="s">
+      <c r="T46" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="U46" s="98" t="s">
+      <c r="U46" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="V46" s="99">
+      <c r="V46" s="95">
         <v>36</v>
       </c>
-      <c r="W46" s="100" t="s">
+      <c r="W46" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="Y46" s="107">
+      <c r="Y46" s="103">
         <v>35</v>
       </c>
-      <c r="Z46" s="108" t="s">
+      <c r="Z46" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="AA46" s="109" t="s">
+      <c r="AA46" s="105" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="47" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T47" s="97" t="s">
+      <c r="T47" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="U47" s="105" t="s">
+      <c r="U47" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="V47" s="99">
+      <c r="V47" s="95">
         <v>37</v>
       </c>
-      <c r="W47" s="106" t="s">
+      <c r="W47" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="Y47" s="107">
+      <c r="Y47" s="103">
         <v>36</v>
       </c>
-      <c r="Z47" s="108" t="s">
+      <c r="Z47" s="104" t="s">
         <v>339</v>
       </c>
-      <c r="AA47" s="109"/>
+      <c r="AA47" s="105"/>
     </row>
     <row r="48" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="253" t="s">
+      <c r="D48" s="251" t="s">
         <v>340</v>
       </c>
-      <c r="E48" s="254"/>
-      <c r="F48" s="255"/>
-      <c r="I48" s="271" t="s">
+      <c r="E48" s="252"/>
+      <c r="F48" s="253"/>
+      <c r="I48" s="269" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="272"/>
-      <c r="T48" s="97" t="s">
+      <c r="J48" s="270"/>
+      <c r="T48" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="U48" s="98" t="s">
+      <c r="U48" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="V48" s="99">
+      <c r="V48" s="95">
         <v>38</v>
       </c>
-      <c r="W48" s="100" t="s">
+      <c r="W48" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="Y48" s="107">
+      <c r="Y48" s="103">
         <v>37</v>
       </c>
-      <c r="Z48" s="108" t="s">
+      <c r="Z48" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="AA48" s="109"/>
+      <c r="AA48" s="105"/>
     </row>
     <row r="49" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D49" s="290" t="s">
+      <c r="D49" s="288" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="291"/>
-      <c r="F49" s="292"/>
-      <c r="I49" s="276" t="s">
+      <c r="E49" s="289"/>
+      <c r="F49" s="290"/>
+      <c r="I49" s="274" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="278"/>
-      <c r="T49" s="97" t="s">
+      <c r="J49" s="276"/>
+      <c r="T49" s="93" t="s">
         <v>343</v>
       </c>
-      <c r="U49" s="105" t="s">
+      <c r="U49" s="101" t="s">
         <v>344</v>
       </c>
-      <c r="V49" s="99">
+      <c r="V49" s="95">
         <v>39</v>
       </c>
-      <c r="W49" s="106" t="s">
+      <c r="W49" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="Y49" s="107">
+      <c r="Y49" s="103">
         <v>38</v>
       </c>
-      <c r="Z49" s="108" t="s">
+      <c r="Z49" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="AA49" s="109"/>
+      <c r="AA49" s="105"/>
     </row>
     <row r="50" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="310">
+      <c r="D50" s="308">
         <v>350</v>
       </c>
-      <c r="E50" s="311"/>
-      <c r="F50" s="312"/>
-      <c r="I50" s="283" t="s">
+      <c r="E50" s="309"/>
+      <c r="F50" s="310"/>
+      <c r="I50" s="281" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="284"/>
-      <c r="T50" s="97" t="s">
+      <c r="J50" s="282"/>
+      <c r="T50" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="U50" s="98" t="s">
+      <c r="U50" s="94" t="s">
         <v>346</v>
       </c>
-      <c r="V50" s="99">
+      <c r="V50" s="95">
         <v>40</v>
       </c>
-      <c r="W50" s="100" t="s">
+      <c r="W50" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="Y50" s="107">
+      <c r="Y50" s="103">
         <v>39</v>
       </c>
-      <c r="Z50" s="108" t="s">
+      <c r="Z50" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="AA50" s="109" t="s">
+      <c r="AA50" s="105" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="51" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="276" t="s">
+      <c r="I51" s="274" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="278"/>
-      <c r="T51" s="97" t="s">
+      <c r="J51" s="276"/>
+      <c r="T51" s="93" t="s">
         <v>349</v>
       </c>
-      <c r="U51" s="105" t="s">
+      <c r="U51" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="V51" s="99">
+      <c r="V51" s="95">
         <v>41</v>
       </c>
-      <c r="W51" s="106" t="s">
+      <c r="W51" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="Y51" s="158">
+      <c r="Y51" s="154">
         <v>40</v>
       </c>
-      <c r="Z51" s="159" t="s">
+      <c r="Z51" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="AA51" s="160"/>
+      <c r="AA51" s="156"/>
     </row>
     <row r="52" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I52" s="283" t="s">
+      <c r="I52" s="281" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="284"/>
-      <c r="T52" s="97" t="s">
+      <c r="J52" s="282"/>
+      <c r="T52" s="93" t="s">
         <v>351</v>
       </c>
-      <c r="U52" s="98" t="s">
+      <c r="U52" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="V52" s="99">
+      <c r="V52" s="95">
         <v>42</v>
       </c>
-      <c r="W52" s="100" t="s">
+      <c r="W52" s="96" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="53" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I53" s="276" t="s">
+      <c r="I53" s="274" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="278"/>
-      <c r="T53" s="97" t="s">
+      <c r="J53" s="276"/>
+      <c r="T53" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="U53" s="105" t="s">
+      <c r="U53" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="V53" s="99">
+      <c r="V53" s="95">
         <v>43</v>
       </c>
-      <c r="W53" s="106" t="s">
+      <c r="W53" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="54" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I54" s="131" t="s">
+      <c r="I54" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="J54" s="133"/>
-      <c r="T54" s="97" t="s">
+      <c r="J54" s="129"/>
+      <c r="T54" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="U54" s="98" t="s">
+      <c r="U54" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="99">
+      <c r="V54" s="95">
         <v>44</v>
       </c>
-      <c r="W54" s="100" t="s">
+      <c r="W54" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="55" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I55" s="283" t="s">
+      <c r="I55" s="281" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="284"/>
-      <c r="T55" s="97" t="s">
+      <c r="J55" s="282"/>
+      <c r="T55" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="U55" s="105" t="s">
+      <c r="U55" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="V55" s="99">
+      <c r="V55" s="95">
         <v>45</v>
       </c>
-      <c r="W55" s="106" t="s">
+      <c r="W55" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="56" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I56" s="302" t="s">
+      <c r="I56" s="300" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="303"/>
-      <c r="T56" s="97" t="s">
+      <c r="J56" s="301"/>
+      <c r="T56" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="U56" s="98" t="s">
+      <c r="U56" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="99">
+      <c r="V56" s="95">
         <v>46</v>
       </c>
-      <c r="W56" s="100" t="s">
+      <c r="W56" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="57" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T57" s="97" t="s">
+      <c r="T57" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="U57" s="105" t="s">
+      <c r="U57" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="V57" s="99">
+      <c r="V57" s="95">
         <v>47</v>
       </c>
-      <c r="W57" s="106" t="s">
+      <c r="W57" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="58" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T58" s="97" t="s">
+      <c r="T58" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="U58" s="98" t="s">
+      <c r="U58" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="V58" s="99">
+      <c r="V58" s="95">
         <v>48</v>
       </c>
-      <c r="W58" s="100" t="s">
+      <c r="W58" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="59" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T59" s="97" t="s">
+      <c r="T59" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="U59" s="105" t="s">
+      <c r="U59" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="V59" s="99">
+      <c r="V59" s="95">
         <v>49</v>
       </c>
-      <c r="W59" s="106" t="s">
+      <c r="W59" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="60" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T60" s="97" t="s">
+      <c r="T60" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="U60" s="98" t="s">
+      <c r="U60" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="V60" s="99">
+      <c r="V60" s="95">
         <v>50</v>
       </c>
-      <c r="W60" s="100" t="s">
+      <c r="W60" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="61" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T61" s="97" t="s">
+      <c r="T61" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="U61" s="105" t="s">
+      <c r="U61" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="V61" s="99">
+      <c r="V61" s="95">
         <v>66</v>
       </c>
-      <c r="W61" s="106" t="s">
+      <c r="W61" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="62" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T62" s="97" t="s">
+      <c r="T62" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="U62" s="98" t="s">
+      <c r="U62" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="V62" s="99">
+      <c r="V62" s="95">
         <v>51</v>
       </c>
-      <c r="W62" s="100" t="s">
+      <c r="W62" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="63" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T63" s="97" t="s">
+      <c r="T63" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="U63" s="105" t="s">
+      <c r="U63" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="V63" s="99">
+      <c r="V63" s="95">
         <v>52</v>
       </c>
-      <c r="W63" s="106" t="s">
+      <c r="W63" s="102" t="s">
         <v>355</v>
       </c>
       <c r="Z63" s="14"/>
     </row>
     <row r="64" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T64" s="97" t="s">
+      <c r="T64" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="U64" s="98" t="s">
+      <c r="U64" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="V64" s="99">
+      <c r="V64" s="95">
         <v>62</v>
       </c>
-      <c r="W64" s="100" t="s">
+      <c r="W64" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="65" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T65" s="97" t="s">
+      <c r="T65" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="U65" s="105" t="s">
+      <c r="U65" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="V65" s="99">
+      <c r="V65" s="95">
         <v>53</v>
       </c>
-      <c r="W65" s="106" t="s">
+      <c r="W65" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="66" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T66" s="97" t="s">
+      <c r="T66" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="U66" s="98" t="s">
+      <c r="U66" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="V66" s="99">
+      <c r="V66" s="95">
         <v>54</v>
       </c>
-      <c r="W66" s="100" t="s">
+      <c r="W66" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="67" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T67" s="97" t="s">
+      <c r="T67" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="U67" s="105" t="s">
+      <c r="U67" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="V67" s="99">
+      <c r="V67" s="95">
         <v>55</v>
       </c>
-      <c r="W67" s="106" t="s">
+      <c r="W67" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="68" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T68" s="97" t="s">
+      <c r="T68" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U68" s="98" t="s">
+      <c r="U68" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="V68" s="99">
+      <c r="V68" s="95">
         <v>56</v>
       </c>
-      <c r="W68" s="100" t="s">
+      <c r="W68" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="69" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T69" s="97" t="s">
+      <c r="T69" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="U69" s="105" t="s">
+      <c r="U69" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="V69" s="99">
+      <c r="V69" s="95">
         <v>57</v>
       </c>
-      <c r="W69" s="106" t="s">
+      <c r="W69" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="70" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T70" s="97" t="s">
+      <c r="T70" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="U70" s="98" t="s">
+      <c r="U70" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="V70" s="99">
+      <c r="V70" s="95">
         <v>58</v>
       </c>
-      <c r="W70" s="100" t="s">
+      <c r="W70" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="71" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T71" s="97" t="s">
+      <c r="T71" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="U71" s="105" t="s">
+      <c r="U71" s="101" t="s">
         <v>365</v>
       </c>
-      <c r="V71" s="99">
+      <c r="V71" s="95">
         <v>59</v>
       </c>
-      <c r="W71" s="106" t="s">
+      <c r="W71" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="72" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T72" s="97" t="s">
+      <c r="T72" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="U72" s="98" t="s">
+      <c r="U72" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="V72" s="99">
+      <c r="V72" s="95">
         <v>60</v>
       </c>
-      <c r="W72" s="100" t="s">
+      <c r="W72" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="73" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T73" s="97" t="s">
+      <c r="T73" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="U73" s="105" t="s">
+      <c r="U73" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="V73" s="99">
+      <c r="V73" s="95">
         <v>63</v>
       </c>
-      <c r="W73" s="106" t="s">
+      <c r="W73" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="74" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T74" s="97" t="s">
+      <c r="T74" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="U74" s="98" t="s">
+      <c r="U74" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="V74" s="99">
+      <c r="V74" s="95">
         <v>64</v>
       </c>
-      <c r="W74" s="100" t="s">
+      <c r="W74" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="75" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T75" s="97" t="s">
+      <c r="T75" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="U75" s="105" t="s">
+      <c r="U75" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="V75" s="99">
+      <c r="V75" s="95">
         <v>65</v>
       </c>
-      <c r="W75" s="106" t="s">
+      <c r="W75" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="76" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T76" s="97" t="s">
+      <c r="T76" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="U76" s="98" t="s">
+      <c r="U76" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="V76" s="99">
+      <c r="V76" s="95">
         <v>61</v>
       </c>
-      <c r="W76" s="100" t="s">
+      <c r="W76" s="96" t="s">
         <v>355</v>
       </c>
     </row>
@@ -9233,39 +9272,39 @@
     <mergeCell ref="R4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="P11:P21">
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="7">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R20">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:W78">
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="25" priority="8">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="24" priority="9">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AA51">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>AND($Y12&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9319,49 +9358,49 @@
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="30.7109375" style="15" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="9.140625" style="217"/>
+    <col min="5" max="5" width="9.140625" style="213"/>
     <col min="6" max="6" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="9.140625" style="33"/>
-    <col min="9" max="9" width="9.7109375" style="218" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="29"/>
+    <col min="9" max="9" width="9.7109375" style="214" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="193" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="210" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="197" t="s">
+      <c r="C1" s="193" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="197" t="s">
+      <c r="D1" s="193" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="216" t="s">
+      <c r="E1" s="212" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="215" t="s">
+      <c r="F1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="213" t="s">
+      <c r="G1" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="219" t="s">
+      <c r="H1" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="219" t="s">
+      <c r="I1" s="215" t="s">
         <v>375</v>
       </c>
-      <c r="J1" s="213" t="s">
+      <c r="J1" s="209" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:J99946 I2:I1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9385,116 +9424,116 @@
     <col min="3" max="3" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="202" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="198" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="198" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="198" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="194" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="194" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="202" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="198" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="198" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="198" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="194" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="194" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="202" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="198" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="198" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="198" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="194" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="194" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="202" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="198" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="198" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="198" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="194" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="194" customWidth="1"/>
     <col min="21" max="21" width="11.7109375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" style="203" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="198" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="198" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="199" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" style="194" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="194" customWidth="1"/>
     <col min="25" max="25" width="11.7109375" style="8" customWidth="1"/>
     <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="200" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+    <row r="1" spans="1:27" s="196" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="195" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="195" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="199" t="s">
+      <c r="D1" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="204" t="s">
+      <c r="E1" s="200" t="s">
         <v>398</v>
       </c>
-      <c r="F1" s="201" t="s">
+      <c r="F1" s="197" t="s">
         <v>388</v>
       </c>
-      <c r="G1" s="201" t="s">
+      <c r="G1" s="197" t="s">
         <v>378</v>
       </c>
-      <c r="H1" s="201" t="s">
+      <c r="H1" s="197" t="s">
         <v>390</v>
       </c>
-      <c r="I1" s="204" t="s">
+      <c r="I1" s="200" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="201" t="s">
+      <c r="J1" s="197" t="s">
         <v>389</v>
       </c>
-      <c r="K1" s="201" t="s">
+      <c r="K1" s="197" t="s">
         <v>380</v>
       </c>
-      <c r="L1" s="201" t="s">
+      <c r="L1" s="197" t="s">
         <v>391</v>
       </c>
-      <c r="M1" s="204" t="s">
+      <c r="M1" s="200" t="s">
         <v>381</v>
       </c>
-      <c r="N1" s="201" t="s">
+      <c r="N1" s="197" t="s">
         <v>392</v>
       </c>
-      <c r="O1" s="201" t="s">
+      <c r="O1" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="P1" s="201" t="s">
+      <c r="P1" s="197" t="s">
         <v>395</v>
       </c>
-      <c r="Q1" s="204" t="s">
+      <c r="Q1" s="200" t="s">
         <v>383</v>
       </c>
-      <c r="R1" s="201" t="s">
+      <c r="R1" s="197" t="s">
         <v>393</v>
       </c>
-      <c r="S1" s="201" t="s">
+      <c r="S1" s="197" t="s">
         <v>384</v>
       </c>
-      <c r="T1" s="201" t="s">
+      <c r="T1" s="197" t="s">
         <v>396</v>
       </c>
-      <c r="U1" s="204" t="s">
+      <c r="U1" s="200" t="s">
         <v>385</v>
       </c>
-      <c r="V1" s="201" t="s">
+      <c r="V1" s="197" t="s">
         <v>394</v>
       </c>
-      <c r="W1" s="201" t="s">
+      <c r="W1" s="197" t="s">
         <v>386</v>
       </c>
-      <c r="X1" s="201" t="s">
+      <c r="X1" s="197" t="s">
         <v>397</v>
       </c>
-      <c r="Y1" s="204" t="s">
+      <c r="Y1" s="200" t="s">
         <v>387</v>
       </c>
-      <c r="Z1" s="199" t="s">
+      <c r="Z1" s="195" t="s">
         <v>375</v>
       </c>
-      <c r="AA1" s="199" t="s">
+      <c r="AA1" s="195" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AA9989">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9513,34 +9552,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="208"/>
-    <col min="2" max="2" width="11.42578125" style="209"/>
-    <col min="3" max="3" width="11.42578125" style="208"/>
-    <col min="4" max="4" width="11.42578125" style="210"/>
-    <col min="5" max="5" width="11.42578125" style="211"/>
-    <col min="6" max="16384" width="11.42578125" style="207"/>
+    <col min="1" max="1" width="11.42578125" style="204"/>
+    <col min="2" max="2" width="11.42578125" style="205"/>
+    <col min="3" max="3" width="11.42578125" style="204"/>
+    <col min="4" max="4" width="11.42578125" style="206"/>
+    <col min="5" max="5" width="11.42578125" style="207"/>
+    <col min="6" max="16384" width="11.42578125" style="203"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="201" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="205" t="s">
+      <c r="D1" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="205" t="s">
+      <c r="E1" s="201" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E9984">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9593,7 +9632,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G962">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9616,48 +9655,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" style="35" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="35"/>
+    <col min="1" max="1" width="10" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="163" t="s">
+      <c r="J1" s="159" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9665,7 +9704,7 @@
   <autoFilter ref="A1:J1" xr:uid="{E0D58006-DE1D-488F-9BB7-8096C5818030}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J98523">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9675,26 +9714,26 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="wshTEC_Local"/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0" rightToLeft="false">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="540" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="312" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" style="7" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="198" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.7109375" style="7" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="5" customWidth="1"/>
@@ -9705,8 +9744,8 @@
     <col min="16" max="16" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:16" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="311" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -9715,34 +9754,34 @@
       <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="217" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="315" t="s">
+      <c r="F1" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="315" t="s">
+      <c r="G1" s="216" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="315" t="s">
+      <c r="I1" s="216" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="28" t="s">
         <v>144</v>
       </c>
       <c r="N1" s="27" t="s">
@@ -9755,447 +9794,503 @@
         <v>14</v>
       </c>
     </row>
-    <row spans="1:16" s="314" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
-      <c r="A2" s="313" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="312" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="313" t="s">
+      <c r="B2" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C2" s="313" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="317" t="s">
+      <c r="D2" s="6">
+        <v>45503</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E2" s="317" t="s">
+      <c r="F2" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F2" s="316" t="s">
+      <c r="G2" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G2" s="316" t="s">
+      <c r="H2" s="29">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H2" s="318">
+      <c r="K2" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="312" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45503</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="312" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45503</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="29">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="312" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45503</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="29">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="312" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45503</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H6" s="29">
         <v>1</v>
       </c>
-      <c r="I2" s="316"/>
-      <c r="J2" s="317" t="s">
-        <v>406</v>
-      </c>
-      <c r="K2" s="317" t="s">
+      <c r="J6" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L2" s="317" t="s">
+      <c r="N6" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="M2" s="317"/>
-      <c r="N2" s="317" t="s">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="312" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45502</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H7" s="29">
+        <v>2.9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="O2" s="317" t="s">
-        <v>409</v>
-      </c>
-      <c r="P2" s="317"/>
-    </row>
-    <row spans="1:16" s="314" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
-      <c r="A3" s="313" t="s">
-        <v>410</v>
-      </c>
-      <c r="B3" s="313" t="s">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="312" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45501</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1.75</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="312" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45501</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H9" s="29">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="312" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45495</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H10" s="29">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="312">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C3" s="313" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="317" t="s">
-        <v>402</v>
-      </c>
-      <c r="E3" s="317" t="s">
-        <v>411</v>
-      </c>
-      <c r="F3" s="316" t="s">
-        <v>412</v>
-      </c>
-      <c r="G3" s="316" t="s">
+      <c r="D11" s="6">
+        <v>45469</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H11" s="29">
+        <v>3</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H3" s="318">
-        <v>2</v>
-      </c>
-      <c r="I3" s="316"/>
-      <c r="J3" s="317" t="s">
-        <v>406</v>
-      </c>
-      <c r="K3" s="317" t="s">
-        <v>413</v>
-      </c>
-      <c r="L3" s="317" t="s">
-        <v>408</v>
-      </c>
-      <c r="M3" s="317"/>
-      <c r="N3" s="317" t="s">
-        <v>408</v>
-      </c>
-      <c r="O3" s="317" t="s">
-        <v>409</v>
-      </c>
-      <c r="P3" s="317"/>
-    </row>
-    <row spans="1:16" s="314" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
-      <c r="A4" s="313" t="s">
-        <v>401</v>
-      </c>
-      <c r="B4" s="313" t="s">
-        <v>401</v>
-      </c>
-      <c r="C4" s="313" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="317" t="s">
-        <v>402</v>
-      </c>
-      <c r="E4" s="317" t="s">
-        <v>401</v>
-      </c>
-      <c r="F4" s="316" t="s">
-        <v>414</v>
-      </c>
-      <c r="G4" s="316" t="s">
+      <c r="K11" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="312">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45443</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H12" s="29">
+        <v>3</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H4" s="318">
-        <v>3</v>
-      </c>
-      <c r="I4" s="316"/>
-      <c r="J4" s="317" t="s">
-        <v>406</v>
-      </c>
-      <c r="K4" s="317" t="s">
-        <v>415</v>
-      </c>
-      <c r="L4" s="317" t="s">
-        <v>408</v>
-      </c>
-      <c r="M4" s="317"/>
-      <c r="N4" s="317" t="s">
-        <v>408</v>
-      </c>
-      <c r="O4" s="317" t="s">
-        <v>409</v>
-      </c>
-      <c r="P4" s="317"/>
-    </row>
-    <row spans="1:16" s="314" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
-      <c r="A5" s="313" t="s">
+      <c r="K12" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="312">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45458</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B5" s="313" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="313" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="317" t="s">
-        <v>402</v>
-      </c>
-      <c r="E5" s="317" t="s">
+      <c r="F13" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F5" s="316" t="s">
-        <v>418</v>
-      </c>
-      <c r="G5" s="316" t="s">
+      <c r="G13" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H13" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H5" s="318">
-        <v>4</v>
-      </c>
-      <c r="I5" s="316"/>
-      <c r="J5" s="317" t="s">
-        <v>406</v>
-      </c>
-      <c r="K5" s="317" t="s">
-        <v>419</v>
-      </c>
-      <c r="L5" s="317" t="s">
-        <v>408</v>
-      </c>
-      <c r="M5" s="317"/>
-      <c r="N5" s="317" t="s">
-        <v>408</v>
-      </c>
-      <c r="O5" s="317" t="s">
-        <v>409</v>
-      </c>
-      <c r="P5" s="317"/>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="317" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B6" s="317" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" s="317" t="inlineStr">
-        <is>
-          <t>GC</t>
-        </is>
-      </c>
-      <c r="D6" s="317" t="inlineStr">
-        <is>
-          <t>30/juil/2024</t>
-        </is>
-      </c>
-      <c r="E6" s="317" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="F6" s="317" t="inlineStr">
-        <is>
-          <t>Les logiciels INFORMAT inc.</t>
-        </is>
-      </c>
-      <c r="G6" s="317" t="inlineStr">
-        <is>
-          <t>Test avec des tables presque vides</t>
-        </is>
-      </c>
-      <c r="H6" s="317">
-        <v>1</v>
-      </c>
-      <c r="J6" s="317" t="inlineStr">
-        <is>
-          <t>VRAI</t>
-        </is>
-      </c>
-      <c r="K6" s="317" t="inlineStr">
-        <is>
-          <t>30/juil/2024 13:29:50</t>
-        </is>
-      </c>
-      <c r="L6" s="317" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="N6" s="317" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="O6" s="317" t="inlineStr">
-        <is>
-          <t>v3.B.3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="317" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B7" s="317" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" s="317" t="inlineStr">
-        <is>
-          <t>GC</t>
-        </is>
-      </c>
-      <c r="D7" s="317" t="inlineStr">
-        <is>
-          <t>29/juil/2024</t>
-        </is>
-      </c>
-      <c r="E7" s="317" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="F7" s="317" t="inlineStr">
-        <is>
-          <t>HUWIZ Solutions inc.</t>
-        </is>
-      </c>
-      <c r="G7" s="317" t="inlineStr">
-        <is>
-          <t>Tests après avoir vider les tables</t>
-        </is>
-      </c>
-      <c r="H7" s="317">
-        <v>2.9</v>
-      </c>
-      <c r="J7" s="317" t="inlineStr">
-        <is>
-          <t>VRAI</t>
-        </is>
-      </c>
-      <c r="K7" s="317" t="inlineStr">
-        <is>
-          <t>30/juil/2024 14:57:26</t>
-        </is>
-      </c>
-      <c r="L7" s="317" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="N7" s="317" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="O7" s="317" t="inlineStr">
-        <is>
-          <t>v3.B.3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="317" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B8" s="317" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" s="317" t="inlineStr">
-        <is>
-          <t>GC</t>
-        </is>
-      </c>
-      <c r="D8" s="317" t="inlineStr">
-        <is>
-          <t>28/juil/2024</t>
-        </is>
-      </c>
-      <c r="E8" s="317" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="F8" s="317" t="inlineStr">
-        <is>
-          <t>CANPLEX INC.</t>
-        </is>
-      </c>
-      <c r="G8" s="317" t="inlineStr">
-        <is>
-          <t>Tests</t>
-        </is>
-      </c>
-      <c r="H8" s="317">
-        <v>1.75</v>
-      </c>
-      <c r="J8" s="317" t="inlineStr">
-        <is>
-          <t>VRAI</t>
-        </is>
-      </c>
-      <c r="K8" s="317" t="inlineStr">
-        <is>
-          <t>30/juil/2024 14:59:09</t>
-        </is>
-      </c>
-      <c r="L8" s="317" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="N8" s="317" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="O8" s="317" t="inlineStr">
-        <is>
-          <t>v3.B.3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="317" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B9" s="317" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" s="317" t="inlineStr">
-        <is>
-          <t>GC</t>
-        </is>
-      </c>
-      <c r="D9" s="317" t="inlineStr">
-        <is>
-          <t>28/juil/2024</t>
-        </is>
-      </c>
-      <c r="E9" s="317" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="F9" s="317" t="inlineStr">
-        <is>
-          <t>Les logiciels INFORMAT inc.</t>
-        </is>
-      </c>
-      <c r="G9" s="317" t="inlineStr">
-        <is>
-          <t>Tests</t>
-        </is>
-      </c>
-      <c r="H9" s="317">
-        <v>2</v>
-      </c>
-      <c r="J9" s="317" t="inlineStr">
-        <is>
-          <t>VRAI</t>
-        </is>
-      </c>
-      <c r="K9" s="317" t="inlineStr">
-        <is>
-          <t>30/juil/2024 14:59:25</t>
-        </is>
-      </c>
-      <c r="L9" s="317" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="N9" s="317" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="O9" s="317" t="inlineStr">
-        <is>
-          <t>v3.B.3</t>
-        </is>
+      <c r="K13" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:P9999">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
+  <conditionalFormatting sqref="H1:H12 H14:H1048576 A2:P9999">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($A1&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10216,8 +10311,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="55" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="14" style="51" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="51" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -10244,126 +10339,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="218"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="219" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="221"/>
+      <c r="B2" s="219"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="D3" s="222" t="s">
+      <c r="B3" s="47"/>
+      <c r="D3" s="220" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="224" t="s">
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="225"/>
-      <c r="M3" s="226"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="224"/>
       <c r="T3" s="14"/>
       <c r="V3"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="P4" s="227"/>
-      <c r="Q4" s="228"/>
-      <c r="R4" s="229"/>
-      <c r="S4" s="229"/>
+      <c r="B4" s="47"/>
+      <c r="P4" s="225"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="227"/>
+      <c r="S4" s="227"/>
       <c r="V4" s="7"/>
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="D5" s="236" t="s">
+      <c r="B5" s="48"/>
+      <c r="D5" s="234" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="237"/>
-      <c r="F5" s="238" t="s">
+      <c r="E5" s="235"/>
+      <c r="F5" s="236" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="240"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="229"/>
-      <c r="S5" s="229"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="237"/>
+      <c r="J5" s="237"/>
+      <c r="K5" s="237"/>
+      <c r="L5" s="237"/>
+      <c r="M5" s="238"/>
+      <c r="P5" s="226"/>
+      <c r="Q5" s="226"/>
+      <c r="R5" s="227"/>
+      <c r="S5" s="227"/>
       <c r="V5" s="7"/>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="D6" s="241" t="s">
+      <c r="B6" s="49"/>
+      <c r="D6" s="239" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243" t="s">
+      <c r="E6" s="240"/>
+      <c r="F6" s="241" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="244"/>
-      <c r="M6" s="245"/>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="229"/>
-      <c r="S6" s="229"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="242"/>
+      <c r="L6" s="242"/>
+      <c r="M6" s="243"/>
+      <c r="P6" s="226"/>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
       <c r="V6" s="7"/>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="E7" s="54"/>
+      <c r="B7" s="49"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -10374,7 +10469,7 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="54"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -10386,2127 +10481,2127 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="53">
         <v>355</v>
       </c>
-      <c r="D9" s="248" t="s">
+      <c r="D9" s="246" t="s">
         <v>370</v>
       </c>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="250"/>
-      <c r="I9" s="251" t="s">
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="248"/>
+      <c r="I9" s="249" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="252"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="253" t="s">
+      <c r="J9" s="250"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="254"/>
-      <c r="N9" s="255"/>
-      <c r="P9" s="256" t="s">
+      <c r="M9" s="252"/>
+      <c r="N9" s="253"/>
+      <c r="P9" s="254" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="258"/>
-      <c r="T9" s="230" t="s">
+      <c r="Q9" s="255"/>
+      <c r="R9" s="256"/>
+      <c r="T9" s="228" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="231"/>
-      <c r="V9" s="231"/>
-      <c r="W9" s="232"/>
-      <c r="Y9" s="233" t="s">
+      <c r="U9" s="229"/>
+      <c r="V9" s="229"/>
+      <c r="W9" s="230"/>
+      <c r="Y9" s="231" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="234"/>
-      <c r="AA9" s="235"/>
+      <c r="Z9" s="232"/>
+      <c r="AA9" s="233"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="191" t="s">
+      <c r="D10" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="192" t="s">
+      <c r="E10" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="192" t="s">
+      <c r="F10" s="188" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="193" t="s">
+      <c r="G10" s="189" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="64" t="s">
+      <c r="K10" s="54"/>
+      <c r="L10" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="M10" s="64" t="s">
+      <c r="M10" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="64" t="s">
+      <c r="N10" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="65" t="s">
+      <c r="P10" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="Q10" s="66" t="s">
+      <c r="Q10" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="R10" s="67" t="s">
+      <c r="R10" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="T10" s="68" t="s">
+      <c r="T10" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="69" t="s">
+      <c r="U10" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="69" t="s">
+      <c r="V10" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="W10" s="70" t="s">
+      <c r="W10" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="259"/>
-      <c r="Z10" s="260"/>
-      <c r="AA10" s="261"/>
+      <c r="Y10" s="257"/>
+      <c r="Z10" s="258"/>
+      <c r="AA10" s="259"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="177" t="s">
+      <c r="D11" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="178">
+      <c r="E11" s="174">
         <v>1</v>
       </c>
-      <c r="F11" s="179" t="s">
+      <c r="F11" s="175" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="180" t="s">
+      <c r="G11" s="176" t="s">
         <v>222</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="71">
         <v>2023</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="72">
         <v>45138</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="77" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="73" t="s">
         <v>223</v>
       </c>
       <c r="M11" s="6">
         <v>39448</v>
       </c>
-      <c r="N11" s="78">
+      <c r="N11" s="74">
         <v>0.05</v>
       </c>
-      <c r="P11" s="79" t="s">
+      <c r="P11" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="Q11" s="80">
+      <c r="Q11" s="76">
         <f ca="1">TODAY()</f>
         <v>45503</v>
       </c>
-      <c r="R11" s="81">
+      <c r="R11" s="77">
         <f ca="1">TODAY()</f>
         <v>45503</v>
       </c>
-      <c r="T11" s="82" t="s">
+      <c r="T11" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="83" t="s">
+      <c r="U11" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="83">
+      <c r="V11" s="79">
         <v>1</v>
       </c>
-      <c r="W11" s="84" t="s">
+      <c r="W11" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="Y11" s="85" t="s">
+      <c r="Y11" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="Z11" s="86" t="s">
+      <c r="Z11" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="AA11" s="87" t="s">
+      <c r="AA11" s="83" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D12" s="181" t="s">
+      <c r="D12" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="182">
+      <c r="E12" s="178">
         <v>2</v>
       </c>
-      <c r="F12" s="183" t="s">
+      <c r="F12" s="179" t="s">
         <v>228</v>
       </c>
-      <c r="G12" s="184" t="s">
+      <c r="G12" s="180" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="92">
+      <c r="I12" s="88">
         <v>2024</v>
       </c>
-      <c r="J12" s="93">
+      <c r="J12" s="89">
         <v>45504</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="77" t="s">
+      <c r="K12" s="54"/>
+      <c r="L12" s="73" t="s">
         <v>179</v>
       </c>
       <c r="M12" s="6">
         <v>41275</v>
       </c>
-      <c r="N12" s="94">
+      <c r="N12" s="90">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="P12" s="82" t="s">
+      <c r="P12" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="Q12" s="95">
+      <c r="Q12" s="91">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),1)</f>
         <v>45474</v>
       </c>
-      <c r="R12" s="96">
+      <c r="R12" s="92">
         <f ca="1">EOMONTH(DATE(YEAR(TODAY()),MONTH(TODAY()),1),0)</f>
         <v>45504</v>
       </c>
-      <c r="T12" s="97" t="s">
+      <c r="T12" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="99">
+      <c r="V12" s="95">
         <v>2</v>
       </c>
-      <c r="W12" s="100" t="s">
+      <c r="W12" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y12" s="101">
+      <c r="Y12" s="97">
         <v>1</v>
       </c>
-      <c r="Z12" s="102" t="s">
+      <c r="Z12" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="AA12" s="103"/>
+      <c r="AA12" s="99"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D13" s="181" t="s">
+      <c r="D13" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="182">
+      <c r="E13" s="178">
         <v>3</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="184" t="s">
+      <c r="G13" s="180" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="104">
+      <c r="I13" s="100">
         <v>2025</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="89">
         <v>45869</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="77"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="73"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="78"/>
-      <c r="P13" s="82" t="s">
+      <c r="N13" s="74"/>
+      <c r="P13" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="Q13" s="95">
+      <c r="Q13" s="91">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())-1,1)</f>
         <v>45444</v>
       </c>
-      <c r="R13" s="96">
+      <c r="R13" s="92">
         <f ca="1">EOMONTH(DATE(YEAR(TODAY()),MONTH(TODAY()),1),-1)</f>
         <v>45473</v>
       </c>
-      <c r="T13" s="97" t="s">
+      <c r="T13" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="U13" s="105" t="s">
+      <c r="U13" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="V13" s="99">
+      <c r="V13" s="95">
         <v>3</v>
       </c>
-      <c r="W13" s="106" t="s">
+      <c r="W13" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y13" s="107">
+      <c r="Y13" s="103">
         <v>2</v>
       </c>
-      <c r="Z13" s="108" t="s">
+      <c r="Z13" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="AA13" s="109"/>
+      <c r="AA13" s="105"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D14" s="181" t="s">
+      <c r="D14" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="182">
+      <c r="E14" s="178">
         <v>4</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="179" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="G14" s="180" t="s">
         <v>237</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="88">
         <v>2026</v>
       </c>
-      <c r="J14" s="93">
+      <c r="J14" s="89">
         <v>46234</v>
       </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="77"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="73"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="94"/>
-      <c r="P14" s="82" t="s">
+      <c r="N14" s="90"/>
+      <c r="P14" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="Q14" s="95">
+      <c r="Q14" s="91">
         <f ca="1">IF(MONTH(Aujourdhui)&lt;(MoisFinAnnéeFinancière+1), DATE(YEAR(Aujourdhui)-1, (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) + 12 - (MoisFinAnnéeFinancière+1))/3)*3, 1), DATE(YEAR(Aujourdhui), (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) - (MoisFinAnnéeFinancière+1))/3)*3, 1))</f>
         <v>45413</v>
       </c>
-      <c r="R14" s="96">
+      <c r="R14" s="92">
         <f ca="1">EOMONTH(IF(MONTH(Aujourdhui)&lt;(MoisFinAnnéeFinancière+1), DATE(YEAR(Aujourdhui)-1, (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) + 12 - (MoisFinAnnéeFinancière+1))/3)*3, 1), DATE(YEAR(Aujourdhui), (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) - (MoisFinAnnéeFinancière+1))/3)*3, 1)), 2)</f>
         <v>45504</v>
       </c>
-      <c r="T14" s="97" t="s">
+      <c r="T14" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="U14" s="98" t="s">
+      <c r="U14" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="V14" s="99">
+      <c r="V14" s="95">
         <v>4</v>
       </c>
-      <c r="W14" s="100" t="s">
+      <c r="W14" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y14" s="107">
+      <c r="Y14" s="103">
         <v>3</v>
       </c>
-      <c r="Z14" s="108" t="s">
+      <c r="Z14" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="AA14" s="109"/>
+      <c r="AA14" s="105"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="181"/>
-      <c r="E15" s="182">
+      <c r="D15" s="177"/>
+      <c r="E15" s="178">
         <v>5</v>
       </c>
-      <c r="F15" s="183"/>
-      <c r="G15" s="184"/>
-      <c r="I15" s="104">
+      <c r="F15" s="179"/>
+      <c r="G15" s="180"/>
+      <c r="I15" s="100">
         <v>2027</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="72">
         <v>46599</v>
       </c>
-      <c r="K15" s="58"/>
-      <c r="L15" s="77"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="73"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="78"/>
-      <c r="P15" s="82" t="s">
+      <c r="N15" s="74"/>
+      <c r="P15" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="Q15" s="95">
+      <c r="Q15" s="91">
         <f ca="1">IF(MONTH(Aujourdhui)&lt;(MoisFinAnnéeFinancière +1), DATE(YEAR(Aujourdhui)-1, (MoisFinAnnéeFinancière +1) + INT((MONTH(Aujourdhui) + 12 -(MoisFinAnnéeFinancière +1))/3 - 1)*3, 1), DATE(YEAR(Aujourdhui), (MoisFinAnnéeFinancière +1) + INT((MONTH(Aujourdhui) - (MoisFinAnnéeFinancière +1))/3 - 1)*3, 1))</f>
         <v>45323</v>
       </c>
-      <c r="R15" s="96">
+      <c r="R15" s="92">
         <f ca="1">EOMONTH(IF(MONTH(Aujourdhui)&lt;(MoisFinAnnéeFinancière+1), DATE(YEAR(Aujourdhui)-1, (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) + 12 - (MoisFinAnnéeFinancière+1))/3 - 1)*3, 1), DATE(YEAR(Aujourdhui), (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) - (MoisFinAnnéeFinancière+1))/3 - 1)*3, 1)), 2)</f>
         <v>45412</v>
       </c>
-      <c r="T15" s="97" t="s">
+      <c r="T15" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="105" t="s">
+      <c r="U15" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="V15" s="99">
+      <c r="V15" s="95">
         <v>5</v>
       </c>
-      <c r="W15" s="106" t="s">
+      <c r="W15" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y15" s="107">
+      <c r="Y15" s="103">
         <v>4</v>
       </c>
-      <c r="Z15" s="108" t="s">
+      <c r="Z15" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="AA15" s="109"/>
+      <c r="AA15" s="105"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D16" s="181"/>
-      <c r="E16" s="182">
+      <c r="D16" s="177"/>
+      <c r="E16" s="178">
         <v>6</v>
       </c>
-      <c r="F16" s="183"/>
-      <c r="G16" s="184"/>
-      <c r="I16" s="92">
+      <c r="F16" s="179"/>
+      <c r="G16" s="180"/>
+      <c r="I16" s="88">
         <v>2028</v>
       </c>
-      <c r="J16" s="93">
+      <c r="J16" s="89">
         <v>46965</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="77"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="73"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="94"/>
-      <c r="P16" s="82" t="s">
+      <c r="N16" s="90"/>
+      <c r="P16" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="Q16" s="95">
+      <c r="Q16" s="91">
         <f ca="1">DATE(YEAR(Aujourdhui)-1+IF(MONTH(Aujourdhui)&gt;7,1,0),8,1)</f>
         <v>45139</v>
       </c>
-      <c r="R16" s="96">
+      <c r="R16" s="92">
         <f ca="1">DATE(YEAR(Aujourdhui)+IF(MONTH(Aujourdhui)&gt;7,1,0),7,31)</f>
         <v>45504</v>
       </c>
-      <c r="T16" s="97" t="s">
+      <c r="T16" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="98" t="s">
+      <c r="U16" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="99">
+      <c r="V16" s="95">
         <v>6</v>
       </c>
-      <c r="W16" s="100" t="s">
+      <c r="W16" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y16" s="107">
+      <c r="Y16" s="103">
         <v>5</v>
       </c>
-      <c r="Z16" s="108" t="s">
+      <c r="Z16" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="AA16" s="109"/>
+      <c r="AA16" s="105"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="181"/>
-      <c r="E17" s="182">
+      <c r="D17" s="177"/>
+      <c r="E17" s="178">
         <v>7</v>
       </c>
-      <c r="F17" s="183"/>
-      <c r="G17" s="184"/>
-      <c r="I17" s="104">
+      <c r="F17" s="179"/>
+      <c r="G17" s="180"/>
+      <c r="I17" s="100">
         <v>2029</v>
       </c>
-      <c r="J17" s="93">
+      <c r="J17" s="89">
         <v>47330</v>
       </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="77"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="73"/>
       <c r="N17" s="7"/>
-      <c r="P17" s="82" t="s">
+      <c r="P17" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="Q17" s="95">
+      <c r="Q17" s="91">
         <f ca="1">DATE(YEAR(Aujourdhui)-2+IF(MONTH(Aujourdhui)&gt;7,1,0),8,1)</f>
         <v>44774</v>
       </c>
-      <c r="R17" s="96">
+      <c r="R17" s="92">
         <f ca="1">DATE(YEAR(Aujourdhui)-1+IF(MONTH(Aujourdhui)&gt;7,1,0),7,31)</f>
         <v>45138</v>
       </c>
-      <c r="T17" s="97" t="s">
+      <c r="T17" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="105" t="s">
+      <c r="U17" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="99">
+      <c r="V17" s="95">
         <v>7</v>
       </c>
-      <c r="W17" s="106" t="s">
+      <c r="W17" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y17" s="107">
+      <c r="Y17" s="103">
         <v>6</v>
       </c>
-      <c r="Z17" s="108" t="s">
+      <c r="Z17" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="109"/>
+      <c r="AA17" s="105"/>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="181"/>
-      <c r="E18" s="182">
+      <c r="D18" s="177"/>
+      <c r="E18" s="178">
         <v>8</v>
       </c>
-      <c r="F18" s="183"/>
-      <c r="G18" s="184"/>
-      <c r="I18" s="92">
+      <c r="F18" s="179"/>
+      <c r="G18" s="180"/>
+      <c r="I18" s="88">
         <v>2030</v>
       </c>
-      <c r="J18" s="93">
+      <c r="J18" s="89">
         <v>47695</v>
       </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="77"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="73"/>
       <c r="N18" s="7"/>
-      <c r="P18" s="82" t="s">
+      <c r="P18" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="Q18" s="95">
+      <c r="Q18" s="91">
         <f ca="1">TODAY()-6</f>
         <v>45497</v>
       </c>
-      <c r="R18" s="96">
+      <c r="R18" s="92">
         <f ca="1">TODAY()</f>
         <v>45503</v>
       </c>
-      <c r="T18" s="97" t="s">
+      <c r="T18" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="U18" s="98" t="s">
+      <c r="U18" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="V18" s="99">
+      <c r="V18" s="95">
         <v>8</v>
       </c>
-      <c r="W18" s="100" t="s">
+      <c r="W18" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y18" s="107">
+      <c r="Y18" s="103">
         <v>7</v>
       </c>
-      <c r="Z18" s="108" t="s">
+      <c r="Z18" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="AA18" s="109"/>
+      <c r="AA18" s="105"/>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="181"/>
-      <c r="E19" s="182">
+      <c r="D19" s="177"/>
+      <c r="E19" s="178">
         <v>9</v>
       </c>
-      <c r="F19" s="183"/>
-      <c r="G19" s="184"/>
-      <c r="I19" s="104">
+      <c r="F19" s="179"/>
+      <c r="G19" s="180"/>
+      <c r="I19" s="100">
         <v>2031</v>
       </c>
-      <c r="J19" s="93">
+      <c r="J19" s="89">
         <v>48060</v>
       </c>
-      <c r="K19" s="58"/>
-      <c r="P19" s="82" t="s">
+      <c r="K19" s="54"/>
+      <c r="P19" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="Q19" s="95">
+      <c r="Q19" s="91">
         <f ca="1">TODAY()-14</f>
         <v>45489</v>
       </c>
-      <c r="R19" s="96">
+      <c r="R19" s="92">
         <f ca="1">TODAY()</f>
         <v>45503</v>
       </c>
-      <c r="T19" s="97" t="s">
+      <c r="T19" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="U19" s="105" t="s">
+      <c r="U19" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="V19" s="99">
+      <c r="V19" s="95">
         <v>9</v>
       </c>
-      <c r="W19" s="106" t="s">
+      <c r="W19" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y19" s="107">
+      <c r="Y19" s="103">
         <v>8</v>
       </c>
-      <c r="Z19" s="108" t="s">
+      <c r="Z19" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="AA19" s="109"/>
+      <c r="AA19" s="105"/>
     </row>
     <row r="20" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="181"/>
-      <c r="E20" s="182">
+      <c r="D20" s="177"/>
+      <c r="E20" s="178">
         <v>10</v>
       </c>
-      <c r="F20" s="183"/>
-      <c r="G20" s="184"/>
-      <c r="I20" s="92">
+      <c r="F20" s="179"/>
+      <c r="G20" s="180"/>
+      <c r="I20" s="88">
         <v>2032</v>
       </c>
-      <c r="J20" s="93">
+      <c r="J20" s="89">
         <v>48426</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="P20" s="82" t="s">
+      <c r="K20" s="54"/>
+      <c r="P20" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="Q20" s="95">
+      <c r="Q20" s="91">
         <f ca="1">Q11-WEEKDAY(Q11,1)+1</f>
         <v>45501</v>
       </c>
-      <c r="R20" s="96">
+      <c r="R20" s="92">
         <f ca="1">Tableau89[[#This Row],[Du]]+6</f>
         <v>45507</v>
       </c>
-      <c r="T20" s="97" t="s">
+      <c r="T20" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="U20" s="98" t="s">
+      <c r="U20" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="V20" s="99">
+      <c r="V20" s="95">
         <v>10</v>
       </c>
-      <c r="W20" s="100" t="s">
+      <c r="W20" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y20" s="107">
+      <c r="Y20" s="103">
         <v>9</v>
       </c>
-      <c r="Z20" s="108" t="s">
+      <c r="Z20" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="AA20" s="109" t="s">
+      <c r="AA20" s="105" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="181"/>
-      <c r="E21" s="182">
+      <c r="D21" s="177"/>
+      <c r="E21" s="178">
         <v>11</v>
       </c>
-      <c r="F21" s="183"/>
-      <c r="G21" s="184"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="265" t="s">
+      <c r="F21" s="179"/>
+      <c r="G21" s="180"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="263" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="266"/>
-      <c r="N21" s="119">
+      <c r="M21" s="264"/>
+      <c r="N21" s="115">
         <v>7</v>
       </c>
-      <c r="P21" s="120" t="s">
+      <c r="P21" s="116" t="s">
         <v>252</v>
       </c>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="122"/>
-      <c r="T21" s="97" t="s">
+      <c r="Q21" s="117"/>
+      <c r="R21" s="118"/>
+      <c r="T21" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="105" t="s">
+      <c r="U21" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="V21" s="99">
+      <c r="V21" s="95">
         <v>11</v>
       </c>
-      <c r="W21" s="106" t="s">
+      <c r="W21" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y21" s="107">
+      <c r="Y21" s="103">
         <v>10</v>
       </c>
-      <c r="Z21" s="108" t="s">
+      <c r="Z21" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="AA21" s="109" t="s">
+      <c r="AA21" s="105" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D22" s="181"/>
-      <c r="E22" s="182">
+      <c r="D22" s="177"/>
+      <c r="E22" s="178">
         <v>12</v>
       </c>
-      <c r="F22" s="183"/>
-      <c r="G22" s="184"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="58"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="180"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="54"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="T22" s="97" t="s">
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="T22" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="U22" s="98" t="s">
+      <c r="U22" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="99">
+      <c r="V22" s="95">
         <v>12</v>
       </c>
-      <c r="W22" s="100" t="s">
+      <c r="W22" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y22" s="107">
+      <c r="Y22" s="103">
         <v>11</v>
       </c>
-      <c r="Z22" s="108" t="s">
+      <c r="Z22" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="AA22" s="109"/>
+      <c r="AA22" s="105"/>
     </row>
     <row r="23" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="181"/>
-      <c r="E23" s="182">
+      <c r="D23" s="177"/>
+      <c r="E23" s="178">
         <v>13</v>
       </c>
-      <c r="F23" s="183"/>
-      <c r="G23" s="184"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="58"/>
-      <c r="T23" s="97" t="s">
+      <c r="F23" s="179"/>
+      <c r="G23" s="180"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="54"/>
+      <c r="T23" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="U23" s="105" t="s">
+      <c r="U23" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="V23" s="99">
+      <c r="V23" s="95">
         <v>13</v>
       </c>
-      <c r="W23" s="106" t="s">
+      <c r="W23" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y23" s="107">
+      <c r="Y23" s="103">
         <v>12</v>
       </c>
-      <c r="Z23" s="108" t="s">
+      <c r="Z23" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="AA23" s="109" t="s">
+      <c r="AA23" s="105" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="185"/>
-      <c r="E24" s="182">
+      <c r="D24" s="181"/>
+      <c r="E24" s="178">
         <v>14</v>
       </c>
-      <c r="F24" s="183"/>
-      <c r="G24" s="186"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="58"/>
-      <c r="P24" s="253" t="s">
+      <c r="F24" s="179"/>
+      <c r="G24" s="182"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="54"/>
+      <c r="P24" s="251" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="254"/>
-      <c r="R24" s="255"/>
-      <c r="T24" s="97" t="s">
+      <c r="Q24" s="252"/>
+      <c r="R24" s="253"/>
+      <c r="T24" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="U24" s="98" t="s">
+      <c r="U24" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="V24" s="99">
+      <c r="V24" s="95">
         <v>14</v>
       </c>
-      <c r="W24" s="100" t="s">
+      <c r="W24" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y24" s="107">
+      <c r="Y24" s="103">
         <v>13</v>
       </c>
-      <c r="Z24" s="108" t="s">
+      <c r="Z24" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="AA24" s="109"/>
+      <c r="AA24" s="105"/>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25" s="185"/>
-      <c r="E25" s="182">
+      <c r="D25" s="181"/>
+      <c r="E25" s="178">
         <v>15</v>
       </c>
-      <c r="F25" s="183"/>
-      <c r="G25" s="186"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="176"/>
-      <c r="K25" s="58"/>
-      <c r="P25" s="267" t="s">
+      <c r="F25" s="179"/>
+      <c r="G25" s="182"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="54"/>
+      <c r="P25" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="268"/>
-      <c r="R25" s="126" t="s">
+      <c r="Q25" s="266"/>
+      <c r="R25" s="122" t="s">
         <v>262</v>
       </c>
-      <c r="T25" s="97" t="s">
+      <c r="T25" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="U25" s="105" t="s">
+      <c r="U25" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="V25" s="99">
+      <c r="V25" s="95">
         <v>15</v>
       </c>
-      <c r="W25" s="106" t="s">
+      <c r="W25" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y25" s="107">
+      <c r="Y25" s="103">
         <v>14</v>
       </c>
-      <c r="Z25" s="108" t="s">
+      <c r="Z25" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="AA25" s="109" t="s">
+      <c r="AA25" s="105" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D26" s="185"/>
-      <c r="E26" s="182">
+      <c r="D26" s="181"/>
+      <c r="E26" s="178">
         <v>16</v>
       </c>
-      <c r="F26" s="183"/>
-      <c r="G26" s="186"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="182"/>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
-      <c r="P26" s="246" t="s">
+      <c r="P26" s="244" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="247"/>
-      <c r="R26" s="127" t="s">
+      <c r="Q26" s="245"/>
+      <c r="R26" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="T26" s="97" t="s">
+      <c r="T26" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="U26" s="98" t="s">
+      <c r="U26" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="V26" s="99">
+      <c r="V26" s="95">
         <v>16</v>
       </c>
-      <c r="W26" s="100" t="s">
+      <c r="W26" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y26" s="107">
+      <c r="Y26" s="103">
         <v>15</v>
       </c>
-      <c r="Z26" s="108" t="s">
+      <c r="Z26" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="AA26" s="109" t="s">
+      <c r="AA26" s="105" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="27" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="185"/>
-      <c r="E27" s="182">
+      <c r="D27" s="181"/>
+      <c r="E27" s="178">
         <v>17</v>
       </c>
-      <c r="F27" s="183"/>
-      <c r="G27" s="186"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="182"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="P27" s="269" t="s">
+      <c r="P27" s="267" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="270"/>
-      <c r="R27" s="129" t="s">
+      <c r="Q27" s="268"/>
+      <c r="R27" s="125" t="s">
         <v>267</v>
       </c>
-      <c r="T27" s="97" t="s">
+      <c r="T27" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="U27" s="105" t="s">
+      <c r="U27" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="V27" s="99">
+      <c r="V27" s="95">
         <v>17</v>
       </c>
-      <c r="W27" s="106" t="s">
+      <c r="W27" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y27" s="107">
+      <c r="Y27" s="103">
         <v>16</v>
       </c>
-      <c r="Z27" s="108" t="s">
+      <c r="Z27" s="104" t="s">
         <v>274</v>
       </c>
-      <c r="AA27" s="109"/>
+      <c r="AA27" s="105"/>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="185"/>
-      <c r="E28" s="182">
+      <c r="D28" s="181"/>
+      <c r="E28" s="178">
         <v>18</v>
       </c>
-      <c r="F28" s="183"/>
-      <c r="G28" s="186"/>
-      <c r="I28" s="271" t="s">
+      <c r="F28" s="179"/>
+      <c r="G28" s="182"/>
+      <c r="I28" s="269" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="272"/>
+      <c r="J28" s="270"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="273" t="s">
+      <c r="L28" s="271" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="274"/>
-      <c r="N28" s="275"/>
-      <c r="P28" s="276" t="s">
+      <c r="M28" s="272"/>
+      <c r="N28" s="273"/>
+      <c r="P28" s="274" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="277"/>
-      <c r="R28" s="132" t="s">
+      <c r="Q28" s="275"/>
+      <c r="R28" s="128" t="s">
         <v>278</v>
       </c>
-      <c r="T28" s="97" t="s">
+      <c r="T28" s="93" t="s">
         <v>279</v>
       </c>
-      <c r="U28" s="98" t="s">
+      <c r="U28" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="V28" s="99">
+      <c r="V28" s="95">
         <v>18</v>
       </c>
-      <c r="W28" s="100" t="s">
+      <c r="W28" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y28" s="107">
+      <c r="Y28" s="103">
         <v>17</v>
       </c>
-      <c r="Z28" s="108" t="s">
+      <c r="Z28" s="104" t="s">
         <v>281</v>
       </c>
-      <c r="AA28" s="109"/>
+      <c r="AA28" s="105"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D29" s="185"/>
-      <c r="E29" s="182">
+      <c r="D29" s="181"/>
+      <c r="E29" s="178">
         <v>19</v>
       </c>
-      <c r="F29" s="183"/>
-      <c r="G29" s="186"/>
-      <c r="I29" s="276" t="s">
+      <c r="F29" s="179"/>
+      <c r="G29" s="182"/>
+      <c r="I29" s="274" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="278"/>
+      <c r="J29" s="276"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="134" t="s">
+      <c r="L29" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="279"/>
-      <c r="N29" s="280"/>
-      <c r="P29" s="281" t="s">
+      <c r="M29" s="277"/>
+      <c r="N29" s="278"/>
+      <c r="P29" s="279" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="282"/>
-      <c r="R29" s="129" t="s">
+      <c r="Q29" s="280"/>
+      <c r="R29" s="125" t="s">
         <v>278</v>
       </c>
-      <c r="T29" s="97" t="s">
+      <c r="T29" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="U29" s="105" t="s">
+      <c r="U29" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="V29" s="99">
+      <c r="V29" s="95">
         <v>19</v>
       </c>
-      <c r="W29" s="106" t="s">
+      <c r="W29" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Y29" s="107">
+      <c r="Y29" s="103">
         <v>18</v>
       </c>
-      <c r="Z29" s="108" t="s">
+      <c r="Z29" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="AA29" s="109" t="s">
+      <c r="AA29" s="105" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="30" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="187"/>
-      <c r="E30" s="190">
+      <c r="D30" s="183"/>
+      <c r="E30" s="186">
         <v>20</v>
       </c>
-      <c r="F30" s="188"/>
-      <c r="G30" s="189"/>
-      <c r="I30" s="283" t="s">
+      <c r="F30" s="184"/>
+      <c r="G30" s="185"/>
+      <c r="I30" s="281" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="284"/>
+      <c r="J30" s="282"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="134" t="s">
+      <c r="L30" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="279"/>
-      <c r="N30" s="280"/>
-      <c r="P30" s="285" t="s">
+      <c r="M30" s="277"/>
+      <c r="N30" s="278"/>
+      <c r="P30" s="283" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="286"/>
-      <c r="R30" s="132" t="s">
+      <c r="Q30" s="284"/>
+      <c r="R30" s="128" t="s">
         <v>267</v>
       </c>
-      <c r="T30" s="97" t="s">
+      <c r="T30" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="U30" s="98" t="s">
+      <c r="U30" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="V30" s="99">
+      <c r="V30" s="95">
         <v>20</v>
       </c>
-      <c r="W30" s="100" t="s">
+      <c r="W30" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="Y30" s="107">
+      <c r="Y30" s="103">
         <v>19</v>
       </c>
-      <c r="Z30" s="108" t="s">
+      <c r="Z30" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="AA30" s="109"/>
+      <c r="AA30" s="105"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I31" s="276" t="s">
+      <c r="I31" s="274" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="278"/>
-      <c r="L31" s="134" t="s">
+      <c r="J31" s="276"/>
+      <c r="L31" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="279"/>
-      <c r="N31" s="280"/>
-      <c r="P31" s="269" t="s">
+      <c r="M31" s="277"/>
+      <c r="N31" s="278"/>
+      <c r="P31" s="267" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="270"/>
-      <c r="R31" s="129" t="s">
+      <c r="Q31" s="268"/>
+      <c r="R31" s="125" t="s">
         <v>278</v>
       </c>
-      <c r="T31" s="97" t="s">
+      <c r="T31" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="105" t="s">
+      <c r="U31" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="V31" s="99">
+      <c r="V31" s="95">
         <v>21</v>
       </c>
-      <c r="W31" s="106" t="s">
+      <c r="W31" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y31" s="107">
+      <c r="Y31" s="103">
         <v>20</v>
       </c>
-      <c r="Z31" s="108" t="s">
+      <c r="Z31" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="AA31" s="109"/>
+      <c r="AA31" s="105"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="283" t="s">
+      <c r="I32" s="281" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="284"/>
-      <c r="L32" s="134" t="s">
+      <c r="J32" s="282"/>
+      <c r="L32" s="130" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="279"/>
-      <c r="N32" s="280"/>
-      <c r="P32" s="293" t="s">
+      <c r="M32" s="277"/>
+      <c r="N32" s="278"/>
+      <c r="P32" s="291" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="294"/>
-      <c r="R32" s="137" t="s">
+      <c r="Q32" s="292"/>
+      <c r="R32" s="133" t="s">
         <v>267</v>
       </c>
-      <c r="T32" s="97" t="s">
+      <c r="T32" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="U32" s="98" t="s">
+      <c r="U32" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="V32" s="99">
+      <c r="V32" s="95">
         <v>22</v>
       </c>
-      <c r="W32" s="100" t="s">
+      <c r="W32" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y32" s="107">
+      <c r="Y32" s="103">
         <v>21</v>
       </c>
-      <c r="Z32" s="108" t="s">
+      <c r="Z32" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="AA32" s="109" t="s">
+      <c r="AA32" s="105" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="276" t="s">
+      <c r="I33" s="274" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="278"/>
-      <c r="L33" s="138" t="s">
+      <c r="J33" s="276"/>
+      <c r="L33" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="298"/>
-      <c r="N33" s="299"/>
-      <c r="T33" s="97" t="s">
+      <c r="M33" s="296"/>
+      <c r="N33" s="297"/>
+      <c r="T33" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="U33" s="105" t="s">
+      <c r="U33" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="V33" s="99">
+      <c r="V33" s="95">
         <v>23</v>
       </c>
-      <c r="W33" s="106" t="s">
+      <c r="W33" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y33" s="107">
+      <c r="Y33" s="103">
         <v>22</v>
       </c>
-      <c r="Z33" s="108" t="s">
+      <c r="Z33" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="AA33" s="109"/>
+      <c r="AA33" s="105"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I34" s="283" t="s">
+      <c r="I34" s="281" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="284"/>
-      <c r="T34" s="97" t="s">
+      <c r="J34" s="282"/>
+      <c r="T34" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="U34" s="98" t="s">
+      <c r="U34" s="94" t="s">
         <v>301</v>
       </c>
-      <c r="V34" s="99">
+      <c r="V34" s="95">
         <v>24</v>
       </c>
-      <c r="W34" s="100" t="s">
+      <c r="W34" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y34" s="107">
+      <c r="Y34" s="103">
         <v>23</v>
       </c>
-      <c r="Z34" s="108" t="s">
+      <c r="Z34" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="AA34" s="109"/>
+      <c r="AA34" s="105"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="302" t="s">
+      <c r="I35" s="300" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="303"/>
-      <c r="P35" s="304"/>
-      <c r="Q35" s="304"/>
-      <c r="T35" s="97" t="s">
+      <c r="J35" s="301"/>
+      <c r="P35" s="302"/>
+      <c r="Q35" s="302"/>
+      <c r="T35" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="U35" s="105" t="s">
+      <c r="U35" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="V35" s="99">
+      <c r="V35" s="95">
         <v>25</v>
       </c>
-      <c r="W35" s="106" t="s">
+      <c r="W35" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y35" s="107">
+      <c r="Y35" s="103">
         <v>24</v>
       </c>
-      <c r="Z35" s="108" t="s">
+      <c r="Z35" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="AA35" s="109"/>
+      <c r="AA35" s="105"/>
     </row>
     <row r="36" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T36" s="97" t="s">
+      <c r="T36" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="U36" s="98" t="s">
+      <c r="U36" s="94" t="s">
         <v>307</v>
       </c>
-      <c r="V36" s="99">
+      <c r="V36" s="95">
         <v>26</v>
       </c>
-      <c r="W36" s="100" t="s">
+      <c r="W36" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y36" s="107">
+      <c r="Y36" s="103">
         <v>25</v>
       </c>
-      <c r="Z36" s="108" t="s">
+      <c r="Z36" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="AA36" s="109"/>
+      <c r="AA36" s="105"/>
     </row>
     <row r="37" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="262" t="s">
+      <c r="D37" s="260" t="s">
         <v>371</v>
       </c>
-      <c r="E37" s="263"/>
-      <c r="F37" s="264"/>
-      <c r="P37" s="253" t="s">
+      <c r="E37" s="261"/>
+      <c r="F37" s="262"/>
+      <c r="P37" s="251" t="s">
         <v>290</v>
       </c>
-      <c r="Q37" s="254"/>
-      <c r="R37" s="255"/>
-      <c r="T37" s="97" t="s">
+      <c r="Q37" s="252"/>
+      <c r="R37" s="253"/>
+      <c r="T37" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="U37" s="105" t="s">
+      <c r="U37" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="V37" s="99">
+      <c r="V37" s="95">
         <v>27</v>
       </c>
-      <c r="W37" s="106" t="s">
+      <c r="W37" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y37" s="107">
+      <c r="Y37" s="103">
         <v>26</v>
       </c>
-      <c r="Z37" s="108" t="s">
+      <c r="Z37" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="AA37" s="109" t="s">
+      <c r="AA37" s="105" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="38" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="194" t="s">
+      <c r="D38" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="195" t="s">
+      <c r="E38" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="196" t="s">
+      <c r="F38" s="192" t="s">
         <v>243</v>
       </c>
-      <c r="I38" s="305" t="s">
+      <c r="I38" s="303" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="306"/>
-      <c r="P38" s="290" t="s">
+      <c r="J38" s="304"/>
+      <c r="P38" s="288" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="291"/>
-      <c r="R38" s="292"/>
-      <c r="T38" s="97" t="s">
+      <c r="Q38" s="289"/>
+      <c r="R38" s="290"/>
+      <c r="T38" s="93" t="s">
         <v>310</v>
       </c>
-      <c r="U38" s="98" t="s">
+      <c r="U38" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="V38" s="99">
+      <c r="V38" s="95">
         <v>28</v>
       </c>
-      <c r="W38" s="100" t="s">
+      <c r="W38" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y38" s="107">
+      <c r="Y38" s="103">
         <v>27</v>
       </c>
-      <c r="Z38" s="139" t="s">
+      <c r="Z38" s="135" t="s">
         <v>311</v>
       </c>
-      <c r="AA38" s="109"/>
+      <c r="AA38" s="105"/>
     </row>
     <row r="39" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="77">
+      <c r="D39" s="73">
         <v>1</v>
       </c>
       <c r="E39" s="6">
         <v>44562</v>
       </c>
-      <c r="F39" s="118">
+      <c r="F39" s="114">
         <v>300</v>
       </c>
-      <c r="I39" s="140" t="s">
+      <c r="I39" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="J39" s="141" t="s">
+      <c r="J39" s="137" t="s">
         <v>313</v>
       </c>
-      <c r="P39" s="295" t="s">
+      <c r="P39" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="296"/>
-      <c r="R39" s="297"/>
-      <c r="T39" s="97" t="s">
+      <c r="Q39" s="294"/>
+      <c r="R39" s="295"/>
+      <c r="T39" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="U39" s="105" t="s">
+      <c r="U39" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="V39" s="99">
+      <c r="V39" s="95">
         <v>29</v>
       </c>
-      <c r="W39" s="106" t="s">
+      <c r="W39" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y39" s="107">
+      <c r="Y39" s="103">
         <v>28</v>
       </c>
-      <c r="Z39" s="139" t="s">
+      <c r="Z39" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="AA39" s="109"/>
+      <c r="AA39" s="105"/>
     </row>
     <row r="40" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="77">
+      <c r="D40" s="73">
         <v>1</v>
       </c>
       <c r="E40" s="6">
         <v>44927</v>
       </c>
-      <c r="F40" s="118">
+      <c r="F40" s="114">
         <v>350</v>
       </c>
-      <c r="I40" s="128" t="s">
+      <c r="I40" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="J40" s="143"/>
-      <c r="P40" s="283" t="s">
+      <c r="J40" s="139"/>
+      <c r="P40" s="281" t="s">
         <v>24</v>
       </c>
-      <c r="Q40" s="300"/>
-      <c r="R40" s="284"/>
-      <c r="T40" s="97" t="s">
+      <c r="Q40" s="298"/>
+      <c r="R40" s="282"/>
+      <c r="T40" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="U40" s="98" t="s">
+      <c r="U40" s="94" t="s">
         <v>319</v>
       </c>
-      <c r="V40" s="99">
+      <c r="V40" s="95">
         <v>30</v>
       </c>
-      <c r="W40" s="100" t="s">
+      <c r="W40" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y40" s="107">
+      <c r="Y40" s="103">
         <v>29</v>
       </c>
-      <c r="Z40" s="139" t="s">
+      <c r="Z40" s="135" t="s">
         <v>320</v>
       </c>
-      <c r="AA40" s="109"/>
+      <c r="AA40" s="105"/>
     </row>
     <row r="41" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="77">
+      <c r="D41" s="73">
         <v>1</v>
       </c>
       <c r="E41" s="6">
         <v>45292</v>
       </c>
-      <c r="F41" s="118">
+      <c r="F41" s="114">
         <v>400</v>
       </c>
-      <c r="I41" s="135" t="s">
+      <c r="I41" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J41" s="147"/>
-      <c r="P41" s="276" t="s">
+      <c r="J41" s="143"/>
+      <c r="P41" s="274" t="s">
         <v>108</v>
       </c>
-      <c r="Q41" s="301"/>
-      <c r="R41" s="278"/>
-      <c r="T41" s="97" t="s">
+      <c r="Q41" s="299"/>
+      <c r="R41" s="276"/>
+      <c r="T41" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="U41" s="105" t="s">
+      <c r="U41" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="V41" s="99">
+      <c r="V41" s="95">
         <v>31</v>
       </c>
-      <c r="W41" s="106" t="s">
+      <c r="W41" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="Y41" s="107">
+      <c r="Y41" s="103">
         <v>30</v>
       </c>
-      <c r="Z41" s="139" t="s">
+      <c r="Z41" s="135" t="s">
         <v>324</v>
       </c>
-      <c r="AA41" s="109"/>
+      <c r="AA41" s="105"/>
     </row>
     <row r="42" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="77">
+      <c r="D42" s="73">
         <v>2</v>
       </c>
       <c r="E42" s="6">
         <v>44927</v>
       </c>
-      <c r="F42" s="118">
+      <c r="F42" s="114">
         <v>200</v>
       </c>
-      <c r="I42" s="128" t="s">
+      <c r="I42" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="143"/>
-      <c r="P42" s="287" t="s">
+      <c r="J42" s="139"/>
+      <c r="P42" s="285" t="s">
         <v>23</v>
       </c>
-      <c r="Q42" s="288"/>
-      <c r="R42" s="289"/>
-      <c r="T42" s="97" t="s">
+      <c r="Q42" s="286"/>
+      <c r="R42" s="287"/>
+      <c r="T42" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="U42" s="98" t="s">
+      <c r="U42" s="94" t="s">
         <v>326</v>
       </c>
-      <c r="V42" s="99">
+      <c r="V42" s="95">
         <v>32</v>
       </c>
-      <c r="W42" s="100" t="s">
+      <c r="W42" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="Y42" s="107">
+      <c r="Y42" s="103">
         <v>31</v>
       </c>
-      <c r="Z42" s="139" t="s">
+      <c r="Z42" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="AA42" s="109"/>
+      <c r="AA42" s="105"/>
     </row>
     <row r="43" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="77">
+      <c r="D43" s="73">
         <v>2</v>
       </c>
       <c r="E43" s="6">
         <v>45292</v>
       </c>
-      <c r="F43" s="118">
+      <c r="F43" s="114">
         <v>225</v>
       </c>
-      <c r="I43" s="135" t="s">
+      <c r="I43" s="131" t="s">
         <v>327</v>
       </c>
-      <c r="J43" s="147"/>
-      <c r="T43" s="97" t="s">
+      <c r="J43" s="143"/>
+      <c r="T43" s="93" t="s">
         <v>328</v>
       </c>
-      <c r="U43" s="105" t="s">
+      <c r="U43" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="V43" s="99">
+      <c r="V43" s="95">
         <v>33</v>
       </c>
-      <c r="W43" s="106" t="s">
+      <c r="W43" s="102" t="s">
         <v>330</v>
       </c>
-      <c r="Y43" s="107">
+      <c r="Y43" s="103">
         <v>32</v>
       </c>
-      <c r="Z43" s="139" t="s">
+      <c r="Z43" s="135" t="s">
         <v>331</v>
       </c>
-      <c r="AA43" s="109"/>
+      <c r="AA43" s="105"/>
     </row>
     <row r="44" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="77">
+      <c r="D44" s="73">
         <v>3</v>
       </c>
       <c r="E44" s="6">
         <v>44927</v>
       </c>
-      <c r="F44" s="118">
+      <c r="F44" s="114">
         <v>100</v>
       </c>
-      <c r="I44" s="128" t="s">
+      <c r="I44" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="J44" s="143" t="str">
+      <c r="J44" s="139" t="str">
         <f>CHAR(252)</f>
         <v>ü</v>
       </c>
-      <c r="T44" s="97" t="s">
+      <c r="T44" s="93" t="s">
         <v>332</v>
       </c>
-      <c r="U44" s="98" t="s">
+      <c r="U44" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="V44" s="99">
+      <c r="V44" s="95">
         <v>34</v>
       </c>
-      <c r="W44" s="100" t="s">
+      <c r="W44" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="Y44" s="107">
+      <c r="Y44" s="103">
         <v>33</v>
       </c>
-      <c r="Z44" s="139" t="s">
+      <c r="Z44" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="AA44" s="109"/>
+      <c r="AA44" s="105"/>
     </row>
     <row r="45" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="77">
+      <c r="D45" s="73">
         <v>3</v>
       </c>
       <c r="E45" s="6">
         <v>45292</v>
       </c>
-      <c r="F45" s="118">
+      <c r="F45" s="114">
         <v>115</v>
       </c>
-      <c r="I45" s="136"/>
-      <c r="J45" s="157"/>
-      <c r="T45" s="97" t="s">
+      <c r="I45" s="132"/>
+      <c r="J45" s="153"/>
+      <c r="T45" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="U45" s="105" t="s">
+      <c r="U45" s="101" t="s">
         <v>336</v>
       </c>
-      <c r="V45" s="99">
+      <c r="V45" s="95">
         <v>35</v>
       </c>
-      <c r="W45" s="106" t="s">
+      <c r="W45" s="102" t="s">
         <v>330</v>
       </c>
-      <c r="Y45" s="107">
+      <c r="Y45" s="103">
         <v>34</v>
       </c>
-      <c r="Z45" s="139" t="s">
+      <c r="Z45" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="AA45" s="109"/>
+      <c r="AA45" s="105"/>
     </row>
     <row r="46" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="77">
+      <c r="D46" s="73">
         <v>4</v>
       </c>
       <c r="E46" s="6">
         <v>44927</v>
       </c>
-      <c r="F46" s="118">
+      <c r="F46" s="114">
         <v>200</v>
       </c>
-      <c r="T46" s="97" t="s">
+      <c r="T46" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="U46" s="98" t="s">
+      <c r="U46" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="V46" s="99">
+      <c r="V46" s="95">
         <v>36</v>
       </c>
-      <c r="W46" s="100" t="s">
+      <c r="W46" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="Y46" s="107">
+      <c r="Y46" s="103">
         <v>35</v>
       </c>
-      <c r="Z46" s="108" t="s">
+      <c r="Z46" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="AA46" s="109" t="s">
+      <c r="AA46" s="105" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="47" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="77">
+      <c r="D47" s="73">
         <v>4</v>
       </c>
       <c r="E47" s="6">
         <v>45292</v>
       </c>
-      <c r="F47" s="118">
+      <c r="F47" s="114">
         <v>225</v>
       </c>
-      <c r="T47" s="97" t="s">
+      <c r="T47" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="U47" s="105" t="s">
+      <c r="U47" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="V47" s="99">
+      <c r="V47" s="95">
         <v>37</v>
       </c>
-      <c r="W47" s="106" t="s">
+      <c r="W47" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="Y47" s="107">
+      <c r="Y47" s="103">
         <v>36</v>
       </c>
-      <c r="Z47" s="108" t="s">
+      <c r="Z47" s="104" t="s">
         <v>339</v>
       </c>
-      <c r="AA47" s="109"/>
+      <c r="AA47" s="105"/>
     </row>
     <row r="48" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F48" s="130"/>
-      <c r="I48" s="271" t="s">
+      <c r="F48" s="126"/>
+      <c r="I48" s="269" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="272"/>
-      <c r="P48" s="307" t="s">
+      <c r="J48" s="270"/>
+      <c r="P48" s="305" t="s">
         <v>312</v>
       </c>
-      <c r="Q48" s="308"/>
-      <c r="R48" s="309"/>
-      <c r="T48" s="97" t="s">
+      <c r="Q48" s="306"/>
+      <c r="R48" s="307"/>
+      <c r="T48" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="U48" s="98" t="s">
+      <c r="U48" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="V48" s="99">
+      <c r="V48" s="95">
         <v>38</v>
       </c>
-      <c r="W48" s="100" t="s">
+      <c r="W48" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="Y48" s="107">
+      <c r="Y48" s="103">
         <v>37</v>
       </c>
-      <c r="Z48" s="108" t="s">
+      <c r="Z48" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="AA48" s="109"/>
+      <c r="AA48" s="105"/>
     </row>
     <row r="49" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F49" s="130"/>
-      <c r="I49" s="276" t="s">
+      <c r="F49" s="126"/>
+      <c r="I49" s="274" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="278"/>
-      <c r="P49" s="140" t="s">
+      <c r="J49" s="276"/>
+      <c r="P49" s="136" t="s">
         <v>315</v>
       </c>
-      <c r="Q49" s="141" t="s">
+      <c r="Q49" s="137" t="s">
         <v>316</v>
       </c>
-      <c r="R49" s="142" t="s">
+      <c r="R49" s="138" t="s">
         <v>313</v>
       </c>
-      <c r="T49" s="97" t="s">
+      <c r="T49" s="93" t="s">
         <v>343</v>
       </c>
-      <c r="U49" s="105" t="s">
+      <c r="U49" s="101" t="s">
         <v>344</v>
       </c>
-      <c r="V49" s="99">
+      <c r="V49" s="95">
         <v>39</v>
       </c>
-      <c r="W49" s="106" t="s">
+      <c r="W49" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="Y49" s="107">
+      <c r="Y49" s="103">
         <v>38</v>
       </c>
-      <c r="Z49" s="108" t="s">
+      <c r="Z49" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="AA49" s="109"/>
+      <c r="AA49" s="105"/>
     </row>
     <row r="50" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F50" s="130"/>
-      <c r="I50" s="283" t="s">
+      <c r="F50" s="126"/>
+      <c r="I50" s="281" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="284"/>
-      <c r="P50" s="144" t="s">
+      <c r="J50" s="282"/>
+      <c r="P50" s="140" t="s">
         <v>321</v>
       </c>
-      <c r="Q50" s="145">
+      <c r="Q50" s="141">
         <v>0</v>
       </c>
-      <c r="R50" s="146"/>
-      <c r="T50" s="97" t="s">
+      <c r="R50" s="142"/>
+      <c r="T50" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="U50" s="98" t="s">
+      <c r="U50" s="94" t="s">
         <v>346</v>
       </c>
-      <c r="V50" s="99">
+      <c r="V50" s="95">
         <v>40</v>
       </c>
-      <c r="W50" s="100" t="s">
+      <c r="W50" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="Y50" s="107">
+      <c r="Y50" s="103">
         <v>39</v>
       </c>
-      <c r="Z50" s="108" t="s">
+      <c r="Z50" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="AA50" s="109" t="s">
+      <c r="AA50" s="105" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="51" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="130"/>
-      <c r="I51" s="276" t="s">
+      <c r="F51" s="126"/>
+      <c r="I51" s="274" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="278"/>
-      <c r="P51" s="148" t="s">
+      <c r="J51" s="276"/>
+      <c r="P51" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="Q51" s="149">
+      <c r="Q51" s="145">
         <v>15</v>
       </c>
-      <c r="R51" s="150"/>
-      <c r="T51" s="97" t="s">
+      <c r="R51" s="146"/>
+      <c r="T51" s="93" t="s">
         <v>349</v>
       </c>
-      <c r="U51" s="105" t="s">
+      <c r="U51" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="V51" s="99">
+      <c r="V51" s="95">
         <v>41</v>
       </c>
-      <c r="W51" s="106" t="s">
+      <c r="W51" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="Y51" s="158">
+      <c r="Y51" s="154">
         <v>40</v>
       </c>
-      <c r="Z51" s="159" t="s">
+      <c r="Z51" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="AA51" s="160"/>
+      <c r="AA51" s="156"/>
     </row>
     <row r="52" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F52" s="130"/>
-      <c r="I52" s="283" t="s">
+      <c r="F52" s="126"/>
+      <c r="I52" s="281" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="284"/>
-      <c r="P52" s="151" t="s">
+      <c r="J52" s="282"/>
+      <c r="P52" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="Q52" s="152">
+      <c r="Q52" s="148">
         <v>30</v>
       </c>
-      <c r="R52" s="153"/>
-      <c r="T52" s="97" t="s">
+      <c r="R52" s="149"/>
+      <c r="T52" s="93" t="s">
         <v>351</v>
       </c>
-      <c r="U52" s="98" t="s">
+      <c r="U52" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="V52" s="99">
+      <c r="V52" s="95">
         <v>42</v>
       </c>
-      <c r="W52" s="100" t="s">
+      <c r="W52" s="96" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="53" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F53" s="130"/>
-      <c r="I53" s="276" t="s">
+      <c r="F53" s="126"/>
+      <c r="I53" s="274" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="278"/>
-      <c r="P53" s="148" t="s">
+      <c r="J53" s="276"/>
+      <c r="P53" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="Q53" s="149">
+      <c r="Q53" s="145">
         <v>60</v>
       </c>
-      <c r="R53" s="150"/>
-      <c r="T53" s="97" t="s">
+      <c r="R53" s="146"/>
+      <c r="T53" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="U53" s="105" t="s">
+      <c r="U53" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="V53" s="99">
+      <c r="V53" s="95">
         <v>43</v>
       </c>
-      <c r="W53" s="106" t="s">
+      <c r="W53" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="54" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="130"/>
-      <c r="I54" s="131" t="s">
+      <c r="F54" s="126"/>
+      <c r="I54" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="J54" s="133"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="155"/>
-      <c r="R54" s="156"/>
-      <c r="T54" s="97" t="s">
+      <c r="J54" s="129"/>
+      <c r="P54" s="150"/>
+      <c r="Q54" s="151"/>
+      <c r="R54" s="152"/>
+      <c r="T54" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="U54" s="98" t="s">
+      <c r="U54" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="99">
+      <c r="V54" s="95">
         <v>44</v>
       </c>
-      <c r="W54" s="100" t="s">
+      <c r="W54" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="55" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F55" s="130"/>
-      <c r="I55" s="283" t="s">
+      <c r="F55" s="126"/>
+      <c r="I55" s="281" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="284"/>
-      <c r="T55" s="97" t="s">
+      <c r="J55" s="282"/>
+      <c r="T55" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="U55" s="105" t="s">
+      <c r="U55" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="V55" s="99">
+      <c r="V55" s="95">
         <v>45</v>
       </c>
-      <c r="W55" s="106" t="s">
+      <c r="W55" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="56" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F56" s="130"/>
-      <c r="I56" s="302" t="s">
+      <c r="F56" s="126"/>
+      <c r="I56" s="300" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="303"/>
-      <c r="T56" s="97" t="s">
+      <c r="J56" s="301"/>
+      <c r="T56" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="U56" s="98" t="s">
+      <c r="U56" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="99">
+      <c r="V56" s="95">
         <v>46</v>
       </c>
-      <c r="W56" s="100" t="s">
+      <c r="W56" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="57" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F57" s="130"/>
-      <c r="T57" s="97" t="s">
+      <c r="F57" s="126"/>
+      <c r="T57" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="U57" s="105" t="s">
+      <c r="U57" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="V57" s="99">
+      <c r="V57" s="95">
         <v>47</v>
       </c>
-      <c r="W57" s="106" t="s">
+      <c r="W57" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="58" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F58" s="130"/>
-      <c r="T58" s="97" t="s">
+      <c r="F58" s="126"/>
+      <c r="T58" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="U58" s="98" t="s">
+      <c r="U58" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="V58" s="99">
+      <c r="V58" s="95">
         <v>48</v>
       </c>
-      <c r="W58" s="100" t="s">
+      <c r="W58" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="59" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F59" s="130"/>
-      <c r="T59" s="97" t="s">
+      <c r="F59" s="126"/>
+      <c r="T59" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="U59" s="105" t="s">
+      <c r="U59" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="V59" s="99">
+      <c r="V59" s="95">
         <v>49</v>
       </c>
-      <c r="W59" s="106" t="s">
+      <c r="W59" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="60" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F60" s="130"/>
-      <c r="T60" s="97" t="s">
+      <c r="F60" s="126"/>
+      <c r="T60" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="U60" s="98" t="s">
+      <c r="U60" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="V60" s="99">
+      <c r="V60" s="95">
         <v>50</v>
       </c>
-      <c r="W60" s="100" t="s">
+      <c r="W60" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="61" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F61" s="130"/>
-      <c r="T61" s="97" t="s">
+      <c r="F61" s="126"/>
+      <c r="T61" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="U61" s="105" t="s">
+      <c r="U61" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="V61" s="99">
+      <c r="V61" s="95">
         <v>66</v>
       </c>
-      <c r="W61" s="106" t="s">
+      <c r="W61" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="62" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F62" s="130"/>
-      <c r="T62" s="97" t="s">
+      <c r="F62" s="126"/>
+      <c r="T62" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="U62" s="98" t="s">
+      <c r="U62" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="V62" s="99">
+      <c r="V62" s="95">
         <v>51</v>
       </c>
-      <c r="W62" s="100" t="s">
+      <c r="W62" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="63" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F63" s="130"/>
-      <c r="T63" s="97" t="s">
+      <c r="F63" s="126"/>
+      <c r="T63" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="U63" s="105" t="s">
+      <c r="U63" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="V63" s="99">
+      <c r="V63" s="95">
         <v>52</v>
       </c>
-      <c r="W63" s="106" t="s">
+      <c r="W63" s="102" t="s">
         <v>355</v>
       </c>
       <c r="Z63" s="14"/>
     </row>
     <row r="64" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F64" s="130"/>
-      <c r="T64" s="97" t="s">
+      <c r="F64" s="126"/>
+      <c r="T64" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="U64" s="98" t="s">
+      <c r="U64" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="V64" s="99">
+      <c r="V64" s="95">
         <v>62</v>
       </c>
-      <c r="W64" s="100" t="s">
+      <c r="W64" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="65" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="F65" s="130"/>
-      <c r="T65" s="97" t="s">
+      <c r="F65" s="126"/>
+      <c r="T65" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="U65" s="105" t="s">
+      <c r="U65" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="V65" s="99">
+      <c r="V65" s="95">
         <v>53</v>
       </c>
-      <c r="W65" s="106" t="s">
+      <c r="W65" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="66" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="F66" s="130"/>
-      <c r="T66" s="97" t="s">
+      <c r="F66" s="126"/>
+      <c r="T66" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="U66" s="98" t="s">
+      <c r="U66" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="V66" s="99">
+      <c r="V66" s="95">
         <v>54</v>
       </c>
-      <c r="W66" s="100" t="s">
+      <c r="W66" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="67" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="F67" s="130"/>
-      <c r="T67" s="97" t="s">
+      <c r="F67" s="126"/>
+      <c r="T67" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="U67" s="105" t="s">
+      <c r="U67" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="V67" s="99">
+      <c r="V67" s="95">
         <v>55</v>
       </c>
-      <c r="W67" s="106" t="s">
+      <c r="W67" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="68" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="F68" s="130"/>
-      <c r="T68" s="97" t="s">
+      <c r="F68" s="126"/>
+      <c r="T68" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U68" s="98" t="s">
+      <c r="U68" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="V68" s="99">
+      <c r="V68" s="95">
         <v>56</v>
       </c>
-      <c r="W68" s="100" t="s">
+      <c r="W68" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="69" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="T69" s="97" t="s">
+      <c r="T69" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="U69" s="105" t="s">
+      <c r="U69" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="V69" s="99">
+      <c r="V69" s="95">
         <v>57</v>
       </c>
-      <c r="W69" s="106" t="s">
+      <c r="W69" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="70" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="T70" s="97" t="s">
+      <c r="T70" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="U70" s="98" t="s">
+      <c r="U70" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="V70" s="99">
+      <c r="V70" s="95">
         <v>58</v>
       </c>
-      <c r="W70" s="100" t="s">
+      <c r="W70" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="71" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="T71" s="97" t="s">
+      <c r="T71" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="U71" s="105" t="s">
+      <c r="U71" s="101" t="s">
         <v>365</v>
       </c>
-      <c r="V71" s="99">
+      <c r="V71" s="95">
         <v>59</v>
       </c>
-      <c r="W71" s="106" t="s">
+      <c r="W71" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="72" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="T72" s="97" t="s">
+      <c r="T72" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="U72" s="98" t="s">
+      <c r="U72" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="V72" s="99">
+      <c r="V72" s="95">
         <v>60</v>
       </c>
-      <c r="W72" s="100" t="s">
+      <c r="W72" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="73" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T73" s="97" t="s">
+      <c r="T73" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="U73" s="105" t="s">
+      <c r="U73" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="V73" s="99">
+      <c r="V73" s="95">
         <v>63</v>
       </c>
-      <c r="W73" s="106" t="s">
+      <c r="W73" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="74" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="253" t="s">
+      <c r="D74" s="251" t="s">
         <v>340</v>
       </c>
-      <c r="E74" s="254"/>
-      <c r="F74" s="255"/>
-      <c r="T74" s="97" t="s">
+      <c r="E74" s="252"/>
+      <c r="F74" s="253"/>
+      <c r="T74" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="U74" s="98" t="s">
+      <c r="U74" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="V74" s="99">
+      <c r="V74" s="95">
         <v>64</v>
       </c>
-      <c r="W74" s="100" t="s">
+      <c r="W74" s="96" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="75" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D75" s="290" t="s">
+      <c r="D75" s="288" t="s">
         <v>243</v>
       </c>
-      <c r="E75" s="291"/>
-      <c r="F75" s="292"/>
-      <c r="T75" s="97" t="s">
+      <c r="E75" s="289"/>
+      <c r="F75" s="290"/>
+      <c r="T75" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="U75" s="105" t="s">
+      <c r="U75" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="V75" s="99">
+      <c r="V75" s="95">
         <v>65</v>
       </c>
-      <c r="W75" s="106" t="s">
+      <c r="W75" s="102" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="76" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="310">
+      <c r="D76" s="308">
         <v>350</v>
       </c>
-      <c r="E76" s="311"/>
-      <c r="F76" s="312"/>
-      <c r="T76" s="97" t="s">
+      <c r="E76" s="309"/>
+      <c r="F76" s="310"/>
+      <c r="T76" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="U76" s="98" t="s">
+      <c r="U76" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="V76" s="99">
+      <c r="V76" s="95">
         <v>61</v>
       </c>
-      <c r="W76" s="100" t="s">
+      <c r="W76" s="96" t="s">
         <v>355</v>
       </c>
     </row>
@@ -12580,44 +12675,44 @@
     <mergeCell ref="R4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:G30">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>AND($D11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P21">
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R20">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:W78">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AA51">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND($Y12&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12670,60 +12765,60 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="170" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="166" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="10.7109375" style="171" customWidth="1"/>
+    <col min="9" max="13" width="10.7109375" style="167" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="167" t="s">
+      <c r="E1" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="164" t="s">
+      <c r="F1" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="166" t="s">
+      <c r="G1" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="168" t="s">
+      <c r="H1" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="169" t="s">
+      <c r="I1" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="169" t="s">
+      <c r="J1" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="169" t="s">
+      <c r="K1" s="165" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="169" t="s">
+      <c r="L1" s="165" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="169" t="s">
+      <c r="M1" s="165" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M9987">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12754,56 +12849,56 @@
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" style="162" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="158" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="161" t="s">
+      <c r="P1" s="157" t="s">
         <v>141</v>
       </c>
     </row>
@@ -12811,7 +12906,7 @@
   <autoFilter ref="A1:P1" xr:uid="{BF285A66-D32A-4C2D-BAAD-5B60B0034FFF}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:P9924">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12867,7 +12962,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:F9929">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12920,7 +13015,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{9CC0F112-F6F5-4729-8EA4-252A1080634A}"/>
   <conditionalFormatting sqref="A2:F99947">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12942,47 +13037,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="38" t="s">
         <v>106</v>
       </c>
     </row>
@@ -12990,7 +13085,7 @@
   <autoFilter ref="A1:J1" xr:uid="{6A0BDE8C-C0CD-4E75-A0A0-916CFADCF838}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J99796">
-    <cfRule type="expression" dxfId="9" priority="49">
+    <cfRule type="expression" dxfId="8" priority="49">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13038,7 +13133,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="202" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -13108,7 +13203,7 @@
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{8B45F79E-24DF-4598-AC35-A20900C36411}"/>
   <conditionalFormatting sqref="A2:V9826">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13160,7 +13255,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F9557">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A522F-FD8B-46F2-930F-97143F462866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97806913-8A5E-484D-84E2-AD10A103E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="437">
   <si>
     <t>TEC_ID</t>
   </si>
@@ -1367,9 +1367,6 @@
     <t>Séquence</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -1394,9 +1391,6 @@
     <t>v3.B.3</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>895</t>
   </si>
   <si>
@@ -1412,9 +1406,6 @@
     <t>30/juil/2024 13:14:14</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>1083</t>
   </si>
   <si>
@@ -1424,9 +1415,6 @@
     <t>30/juil/2024 13:14:25</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -1436,33 +1424,21 @@
     <t>30/juil/2024 13:29:50</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Tests après avoir vider les tables</t>
   </si>
   <si>
     <t>30/juil/2024 14:57:26</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Tests</t>
   </si>
   <si>
     <t>30/juil/2024 14:59:09</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>30/juil/2024 14:59:25</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -1485,6 +1461,21 @@
   </si>
   <si>
     <t>30/juil/2024 21:08:16</t>
+  </si>
+  <si>
+    <t>Test des fonctions du module TEC</t>
+  </si>
+  <si>
+    <t>31/juil/2024 08:09:32</t>
+  </si>
+  <si>
+    <t>Tests additionnels</t>
+  </si>
+  <si>
+    <t>31/juil/2024 08:09:51</t>
+  </si>
+  <si>
+    <t>31/juil/2024 08:51:17</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1717,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1851,8 +1842,14 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="126">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3519,6 +3516,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3526,7 +3578,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3591,12 +3643,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4113,12 +4159,6 @@
     <xf numFmtId="4" fontId="28" fillId="2" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4398,10 +4438,73 @@
     <xf numFmtId="165" fontId="25" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="2" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="19" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="19" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="19" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4411,7 +4514,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="90">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6635,23 +6752,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4081FC28-DC16-4499-9F16-86BDB780596C}" name="Tableau5" displayName="Tableau5" ref="L10:N18" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4081FC28-DC16-4499-9F16-86BDB780596C}" name="Tableau5" displayName="Tableau5" ref="L10:N18" totalsRowShown="0" headerRowDxfId="89" dataDxfId="87" headerRowBorderDxfId="88" tableBorderDxfId="86" totalsRowBorderDxfId="85">
   <autoFilter ref="L10:N18" xr:uid="{A31919EF-8E0F-4C3C-BA3F-104400014F99}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3D5E5F4D-3EC3-41F3-B883-B5F4C7824D42}" name="Code" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{6498A585-0434-4EB1-977D-A0B20C9C63FB}" name="Date" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{74CB0563-15AB-43E0-9B35-F933DB6DD58F}" name="Taux" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{3D5E5F4D-3EC3-41F3-B883-B5F4C7824D42}" name="Code" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{6498A585-0434-4EB1-977D-A0B20C9C63FB}" name="Date" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{74CB0563-15AB-43E0-9B35-F933DB6DD58F}" name="Taux" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BEC410-3782-4EB4-90E8-8C9F29248E62}" name="Tableau37" displayName="Tableau37" ref="D18:F28" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BEC410-3782-4EB4-90E8-8C9F29248E62}" name="Tableau37" displayName="Tableau37" ref="D18:F28" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79">
   <autoFilter ref="D18:F28" xr:uid="{07C6E30C-A06F-40D4-9BA2-8A0A8A76ABF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6659,57 +6776,57 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4B0EDCED-EFE7-4F77-96E5-91C21BFED13C}" name="Prof_ID"/>
-    <tableColumn id="2" xr3:uid="{07335957-5072-4CC8-B588-145A144FD6FC}" name="Date" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{C1051574-3026-4CFC-ACE4-EE3A5BE120E3}" name="Taux horaire" dataDxfId="75" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{07335957-5072-4CC8-B588-145A144FD6FC}" name="Date" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{C1051574-3026-4CFC-ACE4-EE3A5BE120E3}" name="Taux horaire" dataDxfId="77" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B32BB353-BB34-42BB-9D46-2983C5A74B5B}" name="Tableau7" displayName="Tableau7" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B32BB353-BB34-42BB-9D46-2983C5A74B5B}" name="Tableau7" displayName="Tableau7" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F683B85E-E345-46C0-B559-6B55DA1B47DA}" name="Colonne1" headerRowDxfId="69" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{931BD703-99B9-4545-835A-2B2008F9C610}" name="Colonne2" headerRowDxfId="67" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{F683B85E-E345-46C0-B559-6B55DA1B47DA}" name="Colonne1" headerRowDxfId="71" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{931BD703-99B9-4545-835A-2B2008F9C610}" name="Colonne2" headerRowDxfId="69" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7A353E-F107-4699-BEC2-AECA606D5D2B}" name="Tableau8" displayName="Tableau8" ref="P10:R21" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7A353E-F107-4699-BEC2-AECA606D5D2B}" name="Tableau8" displayName="Tableau8" ref="P10:R21" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65">
   <autoFilter ref="P10:R21" xr:uid="{2167B6C9-9F6D-42E0-9CC7-719089B4BE11}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{621C6399-107E-4F8E-905B-7E9265495827}" name="Nom" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{BC9D39C0-5A8D-4060-86F2-B334715137AE}" name="Du" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{0317D5F2-8493-46CE-B417-3AD4D1BE752C}" name="Au" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{621C6399-107E-4F8E-905B-7E9265495827}" name="Nom" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{BC9D39C0-5A8D-4060-86F2-B334715137AE}" name="Du" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{0317D5F2-8493-46CE-B417-3AD4D1BE752C}" name="Au" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B8A5B66-CCB8-44E7-897F-6857E2E7217F}" name="Tableau56" displayName="Tableau56" ref="L10:N18" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B8A5B66-CCB8-44E7-897F-6857E2E7217F}" name="Tableau56" displayName="Tableau56" ref="L10:N18" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="L10:N18" xr:uid="{A31919EF-8E0F-4C3C-BA3F-104400014F99}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{239FBD47-A62E-4E25-A60D-B8F3F5784CAF}" name="Code" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{F1BF9BCA-554F-405E-8EB2-104EE5229852}" name="Date" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{BC205969-C048-4AC1-82CA-DCF785CD2E46}" name="Taux" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{239FBD47-A62E-4E25-A60D-B8F3F5784CAF}" name="Code" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{F1BF9BCA-554F-405E-8EB2-104EE5229852}" name="Date" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{BC205969-C048-4AC1-82CA-DCF785CD2E46}" name="Taux" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B24AF566-2215-473A-8202-6EEA9B350847}" name="Tableau377" displayName="Tableau377" ref="D38:F68" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B24AF566-2215-473A-8202-6EEA9B350847}" name="Tableau377" displayName="Tableau377" ref="D38:F68" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="D38:F68" xr:uid="{07C6E30C-A06F-40D4-9BA2-8A0A8A76ABF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6717,34 +6834,34 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C26875D7-C0AC-4DC0-B966-9A0E941C1287}" name="Prof_ID"/>
-    <tableColumn id="2" xr3:uid="{223CDF22-7E9F-4FF3-B9E9-7EC1E83F63FD}" name="Date" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{3A31E360-73D5-4ABD-A9DE-9036997DA118}" name="Taux horaire" dataDxfId="47" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{223CDF22-7E9F-4FF3-B9E9-7EC1E83F63FD}" name="Date" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{3A31E360-73D5-4ABD-A9DE-9036997DA118}" name="Taux horaire" dataDxfId="49" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8451F979-3D72-41D4-A829-699B5830670C}" name="Tableau78" displayName="Tableau78" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8451F979-3D72-41D4-A829-699B5830670C}" name="Tableau78" displayName="Tableau78" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CB9EBD0D-71C1-4C9E-B3EA-2235AF94176F}" name="Colonne1" headerRowDxfId="41" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{C7DCD92E-FE54-4CC5-87B2-F9846C4139DC}" name="Colonne2" headerRowDxfId="39" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{CB9EBD0D-71C1-4C9E-B3EA-2235AF94176F}" name="Colonne1" headerRowDxfId="43" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{C7DCD92E-FE54-4CC5-87B2-F9846C4139DC}" name="Colonne2" headerRowDxfId="41" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA20A41A-5290-49EB-A732-D1309A2FE1EA}" name="Tableau89" displayName="Tableau89" ref="P10:R21" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA20A41A-5290-49EB-A732-D1309A2FE1EA}" name="Tableau89" displayName="Tableau89" ref="P10:R21" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="P10:R21" xr:uid="{2167B6C9-9F6D-42E0-9CC7-719089B4BE11}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0934086D-06C2-4C23-8345-99186FF38D1F}" name="Nom" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{661E3B83-6827-4026-8FCA-E63CF3515AA8}" name="Du" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{41F1CFF9-AC58-4534-B761-8C936A1D968E}" name="Au" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{0934086D-06C2-4C23-8345-99186FF38D1F}" name="Nom" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{661E3B83-6827-4026-8FCA-E63CF3515AA8}" name="Du" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{41F1CFF9-AC58-4534-B761-8C936A1D968E}" name="Au" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7024,8 +7141,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="51" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="51" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="49" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="49" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -7052,126 +7169,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="218"/>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="219"/>
+      <c r="B2" s="215"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="D3" s="220" t="s">
+      <c r="B3" s="45"/>
+      <c r="D3" s="216" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="221"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="217"/>
+      <c r="F3" s="218" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="224"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="220"/>
       <c r="T3" s="14"/>
       <c r="V3"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="P4" s="225"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="227"/>
-      <c r="S4" s="227"/>
+      <c r="B4" s="45"/>
+      <c r="P4" s="221"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="223"/>
+      <c r="S4" s="223"/>
       <c r="V4" s="7"/>
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="D5" s="234" t="s">
+      <c r="B5" s="46"/>
+      <c r="D5" s="230" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="235"/>
-      <c r="F5" s="236" t="s">
+      <c r="E5" s="231"/>
+      <c r="F5" s="232" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="237"/>
-      <c r="M5" s="238"/>
-      <c r="P5" s="226"/>
-      <c r="Q5" s="226"/>
-      <c r="R5" s="227"/>
-      <c r="S5" s="227"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="234"/>
+      <c r="P5" s="222"/>
+      <c r="Q5" s="222"/>
+      <c r="R5" s="223"/>
+      <c r="S5" s="223"/>
       <c r="V5" s="7"/>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="D6" s="239" t="s">
+      <c r="B6" s="47"/>
+      <c r="D6" s="235" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241" t="s">
+      <c r="E6" s="236"/>
+      <c r="F6" s="237" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="242"/>
-      <c r="L6" s="242"/>
-      <c r="M6" s="243"/>
-      <c r="P6" s="226"/>
-      <c r="Q6" s="226"/>
-      <c r="R6" s="227"/>
-      <c r="S6" s="227"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="239"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="223"/>
       <c r="V6" s="7"/>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="47"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -7182,7 +7299,7 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="50"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -7194,2011 +7311,2011 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>355</v>
       </c>
-      <c r="D9" s="246" t="s">
+      <c r="D9" s="242" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="248"/>
-      <c r="I9" s="249" t="s">
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="244"/>
+      <c r="I9" s="245" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="250"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="251" t="s">
+      <c r="J9" s="246"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="247" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="252"/>
-      <c r="N9" s="253"/>
-      <c r="P9" s="254" t="s">
+      <c r="M9" s="248"/>
+      <c r="N9" s="249"/>
+      <c r="P9" s="250" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="255"/>
-      <c r="R9" s="256"/>
-      <c r="T9" s="228" t="s">
+      <c r="Q9" s="251"/>
+      <c r="R9" s="252"/>
+      <c r="T9" s="224" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="229"/>
-      <c r="V9" s="229"/>
-      <c r="W9" s="230"/>
-      <c r="Y9" s="231" t="s">
+      <c r="U9" s="225"/>
+      <c r="V9" s="225"/>
+      <c r="W9" s="226"/>
+      <c r="Y9" s="227" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="232"/>
-      <c r="AA9" s="233"/>
+      <c r="Z9" s="228"/>
+      <c r="AA9" s="229"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="60" t="s">
+      <c r="K10" s="52"/>
+      <c r="L10" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="61" t="s">
+      <c r="P10" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="Q10" s="62" t="s">
+      <c r="Q10" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="R10" s="63" t="s">
+      <c r="R10" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="T10" s="64" t="s">
+      <c r="T10" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="65" t="s">
+      <c r="U10" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="65" t="s">
+      <c r="V10" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="W10" s="66" t="s">
+      <c r="W10" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="257"/>
-      <c r="Z10" s="258"/>
-      <c r="AA10" s="259"/>
+      <c r="Y10" s="253"/>
+      <c r="Z10" s="254"/>
+      <c r="AA10" s="255"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="66">
         <v>1</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="69">
         <v>2023</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="70">
         <v>45138</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="73" t="s">
+      <c r="K11" s="52"/>
+      <c r="L11" s="71" t="s">
         <v>223</v>
       </c>
       <c r="M11" s="6">
         <v>39448</v>
       </c>
-      <c r="N11" s="74">
+      <c r="N11" s="72">
         <v>0.05</v>
       </c>
-      <c r="P11" s="75" t="s">
+      <c r="P11" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="74">
         <f ca="1">TODAY()</f>
-        <v>45503</v>
-      </c>
-      <c r="R11" s="77">
+        <v>45504</v>
+      </c>
+      <c r="R11" s="75">
         <f ca="1">TODAY()</f>
-        <v>45503</v>
-      </c>
-      <c r="T11" s="78" t="s">
+        <v>45504</v>
+      </c>
+      <c r="T11" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="79" t="s">
+      <c r="U11" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="79">
+      <c r="V11" s="77">
         <v>1</v>
       </c>
-      <c r="W11" s="80" t="s">
+      <c r="W11" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="Y11" s="81" t="s">
+      <c r="Y11" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="Z11" s="82" t="s">
+      <c r="Z11" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AA11" s="83" t="s">
+      <c r="AA11" s="81" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="83">
         <v>2</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="86">
         <v>2024</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="87">
         <v>45504</v>
       </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="73" t="s">
+      <c r="K12" s="52"/>
+      <c r="L12" s="71" t="s">
         <v>179</v>
       </c>
       <c r="M12" s="6">
         <v>41275</v>
       </c>
-      <c r="N12" s="90">
+      <c r="N12" s="88">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="P12" s="78" t="s">
+      <c r="P12" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="Q12" s="91">
+      <c r="Q12" s="89">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),1)</f>
         <v>45474</v>
       </c>
-      <c r="R12" s="92">
+      <c r="R12" s="90">
         <f ca="1">EOMONTH(DATE(YEAR(TODAY()),MONTH(TODAY()),1),0)</f>
         <v>45504</v>
       </c>
-      <c r="T12" s="93" t="s">
+      <c r="T12" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="U12" s="94" t="s">
+      <c r="U12" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="95">
+      <c r="V12" s="93">
         <v>2</v>
       </c>
-      <c r="W12" s="96" t="s">
+      <c r="W12" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y12" s="97">
+      <c r="Y12" s="95">
         <v>1</v>
       </c>
-      <c r="Z12" s="98" t="s">
+      <c r="Z12" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="AA12" s="99"/>
+      <c r="AA12" s="97"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="83">
         <v>3</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="100">
+      <c r="I13" s="98">
         <v>2025</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="87">
         <v>45869</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="73"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="74"/>
-      <c r="P13" s="78" t="s">
+      <c r="N13" s="72"/>
+      <c r="P13" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="Q13" s="91">
+      <c r="Q13" s="89">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())-1,1)</f>
         <v>45444</v>
       </c>
-      <c r="R13" s="92">
+      <c r="R13" s="90">
         <f ca="1">EOMONTH(DATE(YEAR(TODAY()),MONTH(TODAY()),1),-1)</f>
         <v>45473</v>
       </c>
-      <c r="T13" s="93" t="s">
+      <c r="T13" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="U13" s="101" t="s">
+      <c r="U13" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="V13" s="95">
+      <c r="V13" s="93">
         <v>3</v>
       </c>
-      <c r="W13" s="102" t="s">
+      <c r="W13" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y13" s="103">
+      <c r="Y13" s="101">
         <v>2</v>
       </c>
-      <c r="Z13" s="104" t="s">
+      <c r="Z13" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="AA13" s="105"/>
+      <c r="AA13" s="103"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="106" t="s">
+      <c r="D14" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="105">
         <v>4</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="106" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="I14" s="88">
+      <c r="I14" s="86">
         <v>2026</v>
       </c>
-      <c r="J14" s="89">
+      <c r="J14" s="87">
         <v>46234</v>
       </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="73"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="90"/>
-      <c r="P14" s="78" t="s">
+      <c r="N14" s="88"/>
+      <c r="P14" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="Q14" s="91" t="e">
+      <c r="Q14" s="89" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="R14" s="92" t="e">
+      <c r="R14" s="90" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="T14" s="93" t="s">
+      <c r="T14" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="U14" s="94" t="s">
+      <c r="U14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="V14" s="95">
+      <c r="V14" s="93">
         <v>4</v>
       </c>
-      <c r="W14" s="96" t="s">
+      <c r="W14" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y14" s="103">
+      <c r="Y14" s="101">
         <v>3</v>
       </c>
-      <c r="Z14" s="104" t="s">
+      <c r="Z14" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="AA14" s="105"/>
+      <c r="AA14" s="103"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="7"/>
-      <c r="I15" s="100">
+      <c r="I15" s="98">
         <v>2027</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="70">
         <v>46599</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="73"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="74"/>
-      <c r="P15" s="78" t="s">
+      <c r="N15" s="72"/>
+      <c r="P15" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="Q15" s="91" t="e">
+      <c r="Q15" s="89" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="R15" s="92" t="e">
+      <c r="R15" s="90" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="T15" s="93" t="s">
+      <c r="T15" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="101" t="s">
+      <c r="U15" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="V15" s="95">
+      <c r="V15" s="93">
         <v>5</v>
       </c>
-      <c r="W15" s="102" t="s">
+      <c r="W15" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y15" s="103">
+      <c r="Y15" s="101">
         <v>4</v>
       </c>
-      <c r="Z15" s="104" t="s">
+      <c r="Z15" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="AA15" s="105"/>
+      <c r="AA15" s="103"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="88">
+      <c r="I16" s="86">
         <v>2028</v>
       </c>
-      <c r="J16" s="89">
+      <c r="J16" s="87">
         <v>46965</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="73"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="71"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="90"/>
-      <c r="P16" s="78" t="s">
+      <c r="N16" s="88"/>
+      <c r="P16" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="Q16" s="91" t="e">
+      <c r="Q16" s="89" t="e">
         <f>DATE(YEAR(Aujourdhui)-1+IF(MONTH(Aujourdhui)&gt;7,1,0),8,1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="R16" s="92" t="e">
+      <c r="R16" s="90" t="e">
         <f>DATE(YEAR(Aujourdhui)+IF(MONTH(Aujourdhui)&gt;7,1,0),7,31)</f>
         <v>#NAME?</v>
       </c>
-      <c r="T16" s="93" t="s">
+      <c r="T16" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="94" t="s">
+      <c r="U16" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="95">
+      <c r="V16" s="93">
         <v>6</v>
       </c>
-      <c r="W16" s="96" t="s">
+      <c r="W16" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y16" s="103">
+      <c r="Y16" s="101">
         <v>5</v>
       </c>
-      <c r="Z16" s="104" t="s">
+      <c r="Z16" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="AA16" s="105"/>
+      <c r="AA16" s="103"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="260" t="s">
+      <c r="D17" s="256" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="261"/>
-      <c r="F17" s="262"/>
-      <c r="I17" s="100">
+      <c r="E17" s="257"/>
+      <c r="F17" s="258"/>
+      <c r="I17" s="98">
         <v>2029</v>
       </c>
-      <c r="J17" s="89">
+      <c r="J17" s="87">
         <v>47330</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="73"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="71"/>
       <c r="N17" s="7"/>
-      <c r="P17" s="78" t="s">
+      <c r="P17" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="Q17" s="91" t="e">
+      <c r="Q17" s="89" t="e">
         <f>DATE(YEAR(Aujourdhui)-2+IF(MONTH(Aujourdhui)&gt;7,1,0),8,1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="R17" s="92" t="e">
+      <c r="R17" s="90" t="e">
         <f>DATE(YEAR(Aujourdhui)-1+IF(MONTH(Aujourdhui)&gt;7,1,0),7,31)</f>
         <v>#NAME?</v>
       </c>
-      <c r="T17" s="93" t="s">
+      <c r="T17" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="101" t="s">
+      <c r="U17" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="95">
+      <c r="V17" s="93">
         <v>7</v>
       </c>
-      <c r="W17" s="102" t="s">
+      <c r="W17" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y17" s="103">
+      <c r="Y17" s="101">
         <v>6</v>
       </c>
-      <c r="Z17" s="104" t="s">
+      <c r="Z17" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="105"/>
+      <c r="AA17" s="103"/>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="112" t="s">
+      <c r="E18" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="I18" s="88">
+      <c r="I18" s="86">
         <v>2030</v>
       </c>
-      <c r="J18" s="89">
+      <c r="J18" s="87">
         <v>47695</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="73"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="71"/>
       <c r="N18" s="7"/>
-      <c r="P18" s="78" t="s">
+      <c r="P18" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="Q18" s="91">
+      <c r="Q18" s="89">
         <f ca="1">TODAY()-6</f>
-        <v>45497</v>
-      </c>
-      <c r="R18" s="92">
+        <v>45498</v>
+      </c>
+      <c r="R18" s="90">
         <f ca="1">TODAY()</f>
-        <v>45503</v>
-      </c>
-      <c r="T18" s="93" t="s">
+        <v>45504</v>
+      </c>
+      <c r="T18" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="U18" s="94" t="s">
+      <c r="U18" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="V18" s="95">
+      <c r="V18" s="93">
         <v>8</v>
       </c>
-      <c r="W18" s="96" t="s">
+      <c r="W18" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y18" s="103">
+      <c r="Y18" s="101">
         <v>7</v>
       </c>
-      <c r="Z18" s="104" t="s">
+      <c r="Z18" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="AA18" s="105"/>
+      <c r="AA18" s="103"/>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="73">
+      <c r="D19" s="71">
         <v>1</v>
       </c>
       <c r="E19" s="6">
         <v>44562</v>
       </c>
-      <c r="F19" s="114">
+      <c r="F19" s="112">
         <v>300</v>
       </c>
-      <c r="I19" s="100">
+      <c r="I19" s="98">
         <v>2031</v>
       </c>
-      <c r="J19" s="89">
+      <c r="J19" s="87">
         <v>48060</v>
       </c>
-      <c r="K19" s="54"/>
-      <c r="P19" s="78" t="s">
+      <c r="K19" s="52"/>
+      <c r="P19" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="Q19" s="91">
+      <c r="Q19" s="89">
         <f ca="1">TODAY()-14</f>
-        <v>45489</v>
-      </c>
-      <c r="R19" s="92">
+        <v>45490</v>
+      </c>
+      <c r="R19" s="90">
         <f ca="1">TODAY()</f>
-        <v>45503</v>
-      </c>
-      <c r="T19" s="93" t="s">
+        <v>45504</v>
+      </c>
+      <c r="T19" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="U19" s="101" t="s">
+      <c r="U19" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="V19" s="95">
+      <c r="V19" s="93">
         <v>9</v>
       </c>
-      <c r="W19" s="102" t="s">
+      <c r="W19" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y19" s="103">
+      <c r="Y19" s="101">
         <v>8</v>
       </c>
-      <c r="Z19" s="104" t="s">
+      <c r="Z19" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="AA19" s="105"/>
+      <c r="AA19" s="103"/>
     </row>
     <row r="20" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="73">
+      <c r="D20" s="71">
         <v>1</v>
       </c>
       <c r="E20" s="6">
         <v>44927</v>
       </c>
-      <c r="F20" s="114">
+      <c r="F20" s="112">
         <v>350</v>
       </c>
-      <c r="I20" s="88">
+      <c r="I20" s="86">
         <v>2032</v>
       </c>
-      <c r="J20" s="89">
+      <c r="J20" s="87">
         <v>48426</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="P20" s="78" t="s">
+      <c r="K20" s="52"/>
+      <c r="P20" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="Q20" s="91">
+      <c r="Q20" s="89">
         <f ca="1">Q11-WEEKDAY(Q11,1)+1</f>
         <v>45501</v>
       </c>
-      <c r="R20" s="92">
+      <c r="R20" s="90">
         <f ca="1">Tableau8[[#This Row],[Du]]+6</f>
         <v>45507</v>
       </c>
-      <c r="T20" s="93" t="s">
+      <c r="T20" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="U20" s="94" t="s">
+      <c r="U20" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="V20" s="95">
+      <c r="V20" s="93">
         <v>10</v>
       </c>
-      <c r="W20" s="96" t="s">
+      <c r="W20" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y20" s="103">
+      <c r="Y20" s="101">
         <v>9</v>
       </c>
-      <c r="Z20" s="104" t="s">
+      <c r="Z20" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="AA20" s="105" t="s">
+      <c r="AA20" s="103" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="73">
+      <c r="D21" s="71">
         <v>1</v>
       </c>
       <c r="E21" s="6">
         <v>45292</v>
       </c>
-      <c r="F21" s="114">
+      <c r="F21" s="112">
         <v>400</v>
       </c>
-      <c r="I21" s="100"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="263" t="s">
+      <c r="I21" s="98"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="259" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="264"/>
-      <c r="N21" s="115">
+      <c r="M21" s="260"/>
+      <c r="N21" s="113">
         <v>7</v>
       </c>
-      <c r="P21" s="116" t="s">
+      <c r="P21" s="114" t="s">
         <v>252</v>
       </c>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="118"/>
-      <c r="T21" s="93" t="s">
+      <c r="Q21" s="115"/>
+      <c r="R21" s="116"/>
+      <c r="T21" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="101" t="s">
+      <c r="U21" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="V21" s="95">
+      <c r="V21" s="93">
         <v>11</v>
       </c>
-      <c r="W21" s="102" t="s">
+      <c r="W21" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y21" s="103">
+      <c r="Y21" s="101">
         <v>10</v>
       </c>
-      <c r="Z21" s="104" t="s">
+      <c r="Z21" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="AA21" s="105" t="s">
+      <c r="AA21" s="103" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D22" s="73">
+      <c r="D22" s="71">
         <v>2</v>
       </c>
       <c r="E22" s="6">
         <v>44927</v>
       </c>
-      <c r="F22" s="114">
+      <c r="F22" s="112">
         <v>200</v>
       </c>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="52"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="T22" s="93" t="s">
+      <c r="Q22" s="117"/>
+      <c r="R22" s="117"/>
+      <c r="T22" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="U22" s="94" t="s">
+      <c r="U22" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="95">
+      <c r="V22" s="93">
         <v>12</v>
       </c>
-      <c r="W22" s="96" t="s">
+      <c r="W22" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y22" s="103">
+      <c r="Y22" s="101">
         <v>11</v>
       </c>
-      <c r="Z22" s="104" t="s">
+      <c r="Z22" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="AA22" s="105"/>
+      <c r="AA22" s="103"/>
     </row>
     <row r="23" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="73">
+      <c r="D23" s="71">
         <v>2</v>
       </c>
       <c r="E23" s="6">
         <v>45292</v>
       </c>
-      <c r="F23" s="114">
+      <c r="F23" s="112">
         <v>225</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="54"/>
-      <c r="T23" s="93" t="s">
+      <c r="I23" s="98"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="52"/>
+      <c r="T23" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="U23" s="101" t="s">
+      <c r="U23" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="V23" s="95">
+      <c r="V23" s="93">
         <v>13</v>
       </c>
-      <c r="W23" s="102" t="s">
+      <c r="W23" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y23" s="103">
+      <c r="Y23" s="101">
         <v>12</v>
       </c>
-      <c r="Z23" s="104" t="s">
+      <c r="Z23" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="AA23" s="105" t="s">
+      <c r="AA23" s="103" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="73">
+      <c r="D24" s="71">
         <v>3</v>
       </c>
       <c r="E24" s="6">
         <v>44927</v>
       </c>
-      <c r="F24" s="114">
+      <c r="F24" s="112">
         <v>100</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="54"/>
-      <c r="P24" s="251" t="s">
+      <c r="I24" s="86"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="52"/>
+      <c r="P24" s="247" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="252"/>
-      <c r="R24" s="253"/>
-      <c r="T24" s="93" t="s">
+      <c r="Q24" s="248"/>
+      <c r="R24" s="249"/>
+      <c r="T24" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="U24" s="94" t="s">
+      <c r="U24" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="V24" s="95">
+      <c r="V24" s="93">
         <v>14</v>
       </c>
-      <c r="W24" s="96" t="s">
+      <c r="W24" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y24" s="103">
+      <c r="Y24" s="101">
         <v>13</v>
       </c>
-      <c r="Z24" s="104" t="s">
+      <c r="Z24" s="102" t="s">
         <v>261</v>
       </c>
-      <c r="AA24" s="105"/>
+      <c r="AA24" s="103"/>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25" s="73">
+      <c r="D25" s="71">
         <v>3</v>
       </c>
       <c r="E25" s="6">
         <v>45292</v>
       </c>
-      <c r="F25" s="114">
+      <c r="F25" s="112">
         <v>115</v>
       </c>
-      <c r="I25" s="120"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="54"/>
-      <c r="P25" s="265" t="s">
+      <c r="I25" s="118"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="52"/>
+      <c r="P25" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="266"/>
-      <c r="R25" s="122" t="s">
+      <c r="Q25" s="262"/>
+      <c r="R25" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="T25" s="93" t="s">
+      <c r="T25" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="U25" s="101" t="s">
+      <c r="U25" s="99" t="s">
         <v>264</v>
       </c>
-      <c r="V25" s="95">
+      <c r="V25" s="93">
         <v>15</v>
       </c>
-      <c r="W25" s="102" t="s">
+      <c r="W25" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y25" s="103">
+      <c r="Y25" s="101">
         <v>14</v>
       </c>
-      <c r="Z25" s="104" t="s">
+      <c r="Z25" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="AA25" s="105" t="s">
+      <c r="AA25" s="103" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D26" s="73">
+      <c r="D26" s="71">
         <v>4</v>
       </c>
       <c r="E26" s="6">
         <v>44927</v>
       </c>
-      <c r="F26" s="114">
+      <c r="F26" s="112">
         <v>200</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
-      <c r="P26" s="244" t="s">
+      <c r="P26" s="240" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="245"/>
-      <c r="R26" s="123" t="s">
+      <c r="Q26" s="241"/>
+      <c r="R26" s="121" t="s">
         <v>267</v>
       </c>
-      <c r="T26" s="93" t="s">
+      <c r="T26" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="U26" s="94" t="s">
+      <c r="U26" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="V26" s="95">
+      <c r="V26" s="93">
         <v>16</v>
       </c>
-      <c r="W26" s="96" t="s">
+      <c r="W26" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y26" s="103">
+      <c r="Y26" s="101">
         <v>15</v>
       </c>
-      <c r="Z26" s="104" t="s">
+      <c r="Z26" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="AA26" s="105" t="s">
+      <c r="AA26" s="103" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="27" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="73">
+      <c r="D27" s="71">
         <v>4</v>
       </c>
       <c r="E27" s="6">
         <v>45292</v>
       </c>
-      <c r="F27" s="114">
+      <c r="F27" s="112">
         <v>225</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="P27" s="267" t="s">
+      <c r="P27" s="263" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="268"/>
-      <c r="R27" s="125" t="s">
+      <c r="Q27" s="264"/>
+      <c r="R27" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="T27" s="93" t="s">
+      <c r="T27" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="U27" s="101" t="s">
+      <c r="U27" s="99" t="s">
         <v>273</v>
       </c>
-      <c r="V27" s="95">
+      <c r="V27" s="93">
         <v>17</v>
       </c>
-      <c r="W27" s="102" t="s">
+      <c r="W27" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y27" s="103">
+      <c r="Y27" s="101">
         <v>16</v>
       </c>
-      <c r="Z27" s="104" t="s">
+      <c r="Z27" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AA27" s="105"/>
+      <c r="AA27" s="103"/>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F28" s="126"/>
-      <c r="I28" s="269" t="s">
+      <c r="F28" s="124"/>
+      <c r="I28" s="265" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="270"/>
+      <c r="J28" s="266"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="271" t="s">
+      <c r="L28" s="267" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="272"/>
-      <c r="N28" s="273"/>
-      <c r="P28" s="274" t="s">
+      <c r="M28" s="268"/>
+      <c r="N28" s="269"/>
+      <c r="P28" s="270" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="275"/>
-      <c r="R28" s="128" t="s">
+      <c r="Q28" s="271"/>
+      <c r="R28" s="126" t="s">
         <v>278</v>
       </c>
-      <c r="T28" s="93" t="s">
+      <c r="T28" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="U28" s="94" t="s">
+      <c r="U28" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="V28" s="95">
+      <c r="V28" s="93">
         <v>18</v>
       </c>
-      <c r="W28" s="96" t="s">
+      <c r="W28" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y28" s="103">
+      <c r="Y28" s="101">
         <v>17</v>
       </c>
-      <c r="Z28" s="104" t="s">
+      <c r="Z28" s="102" t="s">
         <v>281</v>
       </c>
-      <c r="AA28" s="105"/>
+      <c r="AA28" s="103"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I29" s="274" t="s">
+      <c r="I29" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="276"/>
+      <c r="J29" s="272"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="130" t="s">
+      <c r="L29" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="277"/>
-      <c r="N29" s="278"/>
-      <c r="P29" s="279" t="s">
+      <c r="M29" s="273"/>
+      <c r="N29" s="274"/>
+      <c r="P29" s="275" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="280"/>
-      <c r="R29" s="125" t="s">
+      <c r="Q29" s="276"/>
+      <c r="R29" s="123" t="s">
         <v>278</v>
       </c>
-      <c r="T29" s="93" t="s">
+      <c r="T29" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="U29" s="101" t="s">
+      <c r="U29" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="V29" s="95">
+      <c r="V29" s="93">
         <v>19</v>
       </c>
-      <c r="W29" s="102" t="s">
+      <c r="W29" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y29" s="103">
+      <c r="Y29" s="101">
         <v>18</v>
       </c>
-      <c r="Z29" s="104" t="s">
+      <c r="Z29" s="102" t="s">
         <v>285</v>
       </c>
-      <c r="AA29" s="105" t="s">
+      <c r="AA29" s="103" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="30" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="281" t="s">
+      <c r="I30" s="277" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="282"/>
+      <c r="J30" s="278"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="130" t="s">
+      <c r="L30" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="277"/>
-      <c r="N30" s="278"/>
-      <c r="P30" s="283" t="s">
+      <c r="M30" s="273"/>
+      <c r="N30" s="274"/>
+      <c r="P30" s="279" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="284"/>
-      <c r="R30" s="128" t="s">
+      <c r="Q30" s="280"/>
+      <c r="R30" s="126" t="s">
         <v>267</v>
       </c>
-      <c r="T30" s="93" t="s">
+      <c r="T30" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="U30" s="94" t="s">
+      <c r="U30" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="V30" s="95">
+      <c r="V30" s="93">
         <v>20</v>
       </c>
-      <c r="W30" s="96" t="s">
+      <c r="W30" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y30" s="103">
+      <c r="Y30" s="101">
         <v>19</v>
       </c>
-      <c r="Z30" s="104" t="s">
+      <c r="Z30" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="AA30" s="105"/>
+      <c r="AA30" s="103"/>
     </row>
     <row r="31" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="251" t="s">
+      <c r="D31" s="247" t="s">
         <v>290</v>
       </c>
-      <c r="E31" s="252"/>
-      <c r="F31" s="253"/>
-      <c r="I31" s="274" t="s">
+      <c r="E31" s="248"/>
+      <c r="F31" s="249"/>
+      <c r="I31" s="270" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="276"/>
-      <c r="L31" s="130" t="s">
+      <c r="J31" s="272"/>
+      <c r="L31" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="277"/>
-      <c r="N31" s="278"/>
-      <c r="P31" s="267" t="s">
+      <c r="M31" s="273"/>
+      <c r="N31" s="274"/>
+      <c r="P31" s="263" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="268"/>
-      <c r="R31" s="125" t="s">
+      <c r="Q31" s="264"/>
+      <c r="R31" s="123" t="s">
         <v>278</v>
       </c>
-      <c r="T31" s="93" t="s">
+      <c r="T31" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="101" t="s">
+      <c r="U31" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="V31" s="95">
+      <c r="V31" s="93">
         <v>21</v>
       </c>
-      <c r="W31" s="102" t="s">
+      <c r="W31" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y31" s="103">
+      <c r="Y31" s="101">
         <v>20</v>
       </c>
-      <c r="Z31" s="104" t="s">
+      <c r="Z31" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="AA31" s="105"/>
+      <c r="AA31" s="103"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="288" t="s">
+      <c r="D32" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="289"/>
-      <c r="F32" s="290"/>
-      <c r="I32" s="281" t="s">
+      <c r="E32" s="285"/>
+      <c r="F32" s="286"/>
+      <c r="I32" s="277" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="282"/>
-      <c r="L32" s="130" t="s">
+      <c r="J32" s="278"/>
+      <c r="L32" s="128" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="277"/>
-      <c r="N32" s="278"/>
-      <c r="P32" s="291" t="s">
+      <c r="M32" s="273"/>
+      <c r="N32" s="274"/>
+      <c r="P32" s="287" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="292"/>
-      <c r="R32" s="133" t="s">
+      <c r="Q32" s="288"/>
+      <c r="R32" s="131" t="s">
         <v>267</v>
       </c>
-      <c r="T32" s="93" t="s">
+      <c r="T32" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="U32" s="94" t="s">
+      <c r="U32" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="V32" s="95">
+      <c r="V32" s="93">
         <v>22</v>
       </c>
-      <c r="W32" s="96" t="s">
+      <c r="W32" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y32" s="103">
+      <c r="Y32" s="101">
         <v>21</v>
       </c>
-      <c r="Z32" s="104" t="s">
+      <c r="Z32" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="AA32" s="105" t="s">
+      <c r="AA32" s="103" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="293" t="s">
+      <c r="D33" s="289" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="294"/>
-      <c r="F33" s="295"/>
-      <c r="I33" s="274" t="s">
+      <c r="E33" s="290"/>
+      <c r="F33" s="291"/>
+      <c r="I33" s="270" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="276"/>
-      <c r="L33" s="134" t="s">
+      <c r="J33" s="272"/>
+      <c r="L33" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="296"/>
-      <c r="N33" s="297"/>
-      <c r="T33" s="93" t="s">
+      <c r="M33" s="292"/>
+      <c r="N33" s="293"/>
+      <c r="T33" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="U33" s="101" t="s">
+      <c r="U33" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="V33" s="95">
+      <c r="V33" s="93">
         <v>23</v>
       </c>
-      <c r="W33" s="102" t="s">
+      <c r="W33" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y33" s="103">
+      <c r="Y33" s="101">
         <v>22</v>
       </c>
-      <c r="Z33" s="104" t="s">
+      <c r="Z33" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="AA33" s="105"/>
+      <c r="AA33" s="103"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="281" t="s">
+      <c r="D34" s="277" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="298"/>
-      <c r="F34" s="282"/>
-      <c r="I34" s="281" t="s">
+      <c r="E34" s="294"/>
+      <c r="F34" s="278"/>
+      <c r="I34" s="277" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="282"/>
-      <c r="T34" s="93" t="s">
+      <c r="J34" s="278"/>
+      <c r="T34" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="U34" s="94" t="s">
+      <c r="U34" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="V34" s="95">
+      <c r="V34" s="93">
         <v>24</v>
       </c>
-      <c r="W34" s="96" t="s">
+      <c r="W34" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y34" s="103">
+      <c r="Y34" s="101">
         <v>23</v>
       </c>
-      <c r="Z34" s="104" t="s">
+      <c r="Z34" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="AA34" s="105"/>
+      <c r="AA34" s="103"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="274" t="s">
+      <c r="D35" s="270" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="299"/>
-      <c r="F35" s="276"/>
-      <c r="I35" s="300" t="s">
+      <c r="E35" s="295"/>
+      <c r="F35" s="272"/>
+      <c r="I35" s="296" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="301"/>
-      <c r="P35" s="302"/>
-      <c r="Q35" s="302"/>
-      <c r="T35" s="93" t="s">
+      <c r="J35" s="297"/>
+      <c r="P35" s="298"/>
+      <c r="Q35" s="298"/>
+      <c r="T35" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="U35" s="101" t="s">
+      <c r="U35" s="99" t="s">
         <v>304</v>
       </c>
-      <c r="V35" s="95">
+      <c r="V35" s="93">
         <v>25</v>
       </c>
-      <c r="W35" s="102" t="s">
+      <c r="W35" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y35" s="103">
+      <c r="Y35" s="101">
         <v>24</v>
       </c>
-      <c r="Z35" s="104" t="s">
+      <c r="Z35" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="AA35" s="105"/>
+      <c r="AA35" s="103"/>
     </row>
     <row r="36" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="285" t="s">
+      <c r="D36" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="286"/>
-      <c r="F36" s="287"/>
-      <c r="T36" s="93" t="s">
+      <c r="E36" s="282"/>
+      <c r="F36" s="283"/>
+      <c r="T36" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="U36" s="94" t="s">
+      <c r="U36" s="92" t="s">
         <v>307</v>
       </c>
-      <c r="V36" s="95">
+      <c r="V36" s="93">
         <v>26</v>
       </c>
-      <c r="W36" s="96" t="s">
+      <c r="W36" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y36" s="103">
+      <c r="Y36" s="101">
         <v>25</v>
       </c>
-      <c r="Z36" s="104" t="s">
+      <c r="Z36" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="AA36" s="105"/>
+      <c r="AA36" s="103"/>
     </row>
     <row r="37" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T37" s="93" t="s">
+      <c r="T37" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="U37" s="101" t="s">
+      <c r="U37" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="V37" s="95">
+      <c r="V37" s="93">
         <v>27</v>
       </c>
-      <c r="W37" s="102" t="s">
+      <c r="W37" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y37" s="103">
+      <c r="Y37" s="101">
         <v>26</v>
       </c>
-      <c r="Z37" s="104" t="s">
+      <c r="Z37" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="AA37" s="105" t="s">
+      <c r="AA37" s="103" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="38" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="303" t="s">
+      <c r="I38" s="299" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="304"/>
-      <c r="T38" s="93" t="s">
+      <c r="J38" s="300"/>
+      <c r="T38" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="U38" s="94" t="s">
+      <c r="U38" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="V38" s="95">
+      <c r="V38" s="93">
         <v>28</v>
       </c>
-      <c r="W38" s="96" t="s">
+      <c r="W38" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y38" s="103">
+      <c r="Y38" s="101">
         <v>27</v>
       </c>
-      <c r="Z38" s="135" t="s">
+      <c r="Z38" s="133" t="s">
         <v>311</v>
       </c>
-      <c r="AA38" s="105"/>
+      <c r="AA38" s="103"/>
     </row>
     <row r="39" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="305" t="s">
+      <c r="D39" s="301" t="s">
         <v>312</v>
       </c>
-      <c r="E39" s="306"/>
-      <c r="F39" s="307"/>
-      <c r="I39" s="136" t="s">
+      <c r="E39" s="302"/>
+      <c r="F39" s="303"/>
+      <c r="I39" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="J39" s="137" t="s">
+      <c r="J39" s="135" t="s">
         <v>313</v>
       </c>
-      <c r="T39" s="93" t="s">
+      <c r="T39" s="91" t="s">
         <v>314</v>
       </c>
-      <c r="U39" s="101" t="s">
+      <c r="U39" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="V39" s="95">
+      <c r="V39" s="93">
         <v>29</v>
       </c>
-      <c r="W39" s="102" t="s">
+      <c r="W39" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y39" s="103">
+      <c r="Y39" s="101">
         <v>28</v>
       </c>
-      <c r="Z39" s="135" t="s">
+      <c r="Z39" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="AA39" s="105"/>
+      <c r="AA39" s="103"/>
     </row>
     <row r="40" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="136" t="s">
+      <c r="D40" s="134" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="137" t="s">
+      <c r="E40" s="135" t="s">
         <v>316</v>
       </c>
-      <c r="F40" s="138" t="s">
+      <c r="F40" s="136" t="s">
         <v>313</v>
       </c>
-      <c r="I40" s="124" t="s">
+      <c r="I40" s="122" t="s">
         <v>317</v>
       </c>
-      <c r="J40" s="139"/>
-      <c r="T40" s="93" t="s">
+      <c r="J40" s="137"/>
+      <c r="T40" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="U40" s="94" t="s">
+      <c r="U40" s="92" t="s">
         <v>319</v>
       </c>
-      <c r="V40" s="95">
+      <c r="V40" s="93">
         <v>30</v>
       </c>
-      <c r="W40" s="96" t="s">
+      <c r="W40" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y40" s="103">
+      <c r="Y40" s="101">
         <v>29</v>
       </c>
-      <c r="Z40" s="135" t="s">
+      <c r="Z40" s="133" t="s">
         <v>320</v>
       </c>
-      <c r="AA40" s="105"/>
+      <c r="AA40" s="103"/>
     </row>
     <row r="41" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="140" t="s">
+      <c r="D41" s="138" t="s">
         <v>321</v>
       </c>
-      <c r="E41" s="141">
+      <c r="E41" s="139">
         <v>0</v>
       </c>
-      <c r="F41" s="142"/>
-      <c r="I41" s="131" t="s">
+      <c r="F41" s="140"/>
+      <c r="I41" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="J41" s="143"/>
-      <c r="T41" s="93" t="s">
+      <c r="J41" s="141"/>
+      <c r="T41" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="U41" s="101" t="s">
+      <c r="U41" s="99" t="s">
         <v>323</v>
       </c>
-      <c r="V41" s="95">
+      <c r="V41" s="93">
         <v>31</v>
       </c>
-      <c r="W41" s="102" t="s">
+      <c r="W41" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y41" s="103">
+      <c r="Y41" s="101">
         <v>30</v>
       </c>
-      <c r="Z41" s="135" t="s">
+      <c r="Z41" s="133" t="s">
         <v>324</v>
       </c>
-      <c r="AA41" s="105"/>
+      <c r="AA41" s="103"/>
     </row>
     <row r="42" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="144" t="s">
+      <c r="D42" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="145">
+      <c r="E42" s="143">
         <v>15</v>
       </c>
-      <c r="F42" s="146"/>
-      <c r="I42" s="124" t="s">
+      <c r="F42" s="144"/>
+      <c r="I42" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="139"/>
-      <c r="T42" s="93" t="s">
+      <c r="J42" s="137"/>
+      <c r="T42" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="U42" s="94" t="s">
+      <c r="U42" s="92" t="s">
         <v>326</v>
       </c>
-      <c r="V42" s="95">
+      <c r="V42" s="93">
         <v>32</v>
       </c>
-      <c r="W42" s="96" t="s">
+      <c r="W42" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y42" s="103">
+      <c r="Y42" s="101">
         <v>31</v>
       </c>
-      <c r="Z42" s="135" t="s">
+      <c r="Z42" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="AA42" s="105"/>
+      <c r="AA42" s="103"/>
     </row>
     <row r="43" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="147" t="s">
+      <c r="D43" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="148">
+      <c r="E43" s="146">
         <v>30</v>
       </c>
-      <c r="F43" s="149"/>
-      <c r="I43" s="131" t="s">
+      <c r="F43" s="147"/>
+      <c r="I43" s="129" t="s">
         <v>327</v>
       </c>
-      <c r="J43" s="143"/>
-      <c r="T43" s="93" t="s">
+      <c r="J43" s="141"/>
+      <c r="T43" s="91" t="s">
         <v>328</v>
       </c>
-      <c r="U43" s="101" t="s">
+      <c r="U43" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="V43" s="95">
+      <c r="V43" s="93">
         <v>33</v>
       </c>
-      <c r="W43" s="102" t="s">
+      <c r="W43" s="100" t="s">
         <v>330</v>
       </c>
-      <c r="Y43" s="103">
+      <c r="Y43" s="101">
         <v>32</v>
       </c>
-      <c r="Z43" s="135" t="s">
+      <c r="Z43" s="133" t="s">
         <v>331</v>
       </c>
-      <c r="AA43" s="105"/>
+      <c r="AA43" s="103"/>
     </row>
     <row r="44" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="144" t="s">
+      <c r="D44" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="145">
+      <c r="E44" s="143">
         <v>60</v>
       </c>
-      <c r="F44" s="146"/>
-      <c r="I44" s="124" t="s">
+      <c r="F44" s="144"/>
+      <c r="I44" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="J44" s="139" t="str">
+      <c r="J44" s="137" t="str">
         <f>CHAR(252)</f>
         <v>ü</v>
       </c>
-      <c r="T44" s="93" t="s">
+      <c r="T44" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="U44" s="94" t="s">
+      <c r="U44" s="92" t="s">
         <v>333</v>
       </c>
-      <c r="V44" s="95">
+      <c r="V44" s="93">
         <v>34</v>
       </c>
-      <c r="W44" s="96" t="s">
+      <c r="W44" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="Y44" s="103">
+      <c r="Y44" s="101">
         <v>33</v>
       </c>
-      <c r="Z44" s="135" t="s">
+      <c r="Z44" s="133" t="s">
         <v>334</v>
       </c>
-      <c r="AA44" s="105"/>
+      <c r="AA44" s="103"/>
     </row>
     <row r="45" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="150"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="152"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="153"/>
-      <c r="T45" s="93" t="s">
+      <c r="D45" s="148"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="150"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="151"/>
+      <c r="T45" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="U45" s="101" t="s">
+      <c r="U45" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="V45" s="95">
+      <c r="V45" s="93">
         <v>35</v>
       </c>
-      <c r="W45" s="102" t="s">
+      <c r="W45" s="100" t="s">
         <v>330</v>
       </c>
-      <c r="Y45" s="103">
+      <c r="Y45" s="101">
         <v>34</v>
       </c>
-      <c r="Z45" s="135" t="s">
+      <c r="Z45" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="AA45" s="105"/>
+      <c r="AA45" s="103"/>
     </row>
     <row r="46" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T46" s="93" t="s">
+      <c r="T46" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="U46" s="94" t="s">
+      <c r="U46" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="V46" s="95">
+      <c r="V46" s="93">
         <v>36</v>
       </c>
-      <c r="W46" s="96" t="s">
+      <c r="W46" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="Y46" s="103">
+      <c r="Y46" s="101">
         <v>35</v>
       </c>
-      <c r="Z46" s="104" t="s">
+      <c r="Z46" s="102" t="s">
         <v>337</v>
       </c>
-      <c r="AA46" s="105" t="s">
+      <c r="AA46" s="103" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="47" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T47" s="93" t="s">
+      <c r="T47" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="U47" s="101" t="s">
+      <c r="U47" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="V47" s="95">
+      <c r="V47" s="93">
         <v>37</v>
       </c>
-      <c r="W47" s="102" t="s">
+      <c r="W47" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="Y47" s="103">
+      <c r="Y47" s="101">
         <v>36</v>
       </c>
-      <c r="Z47" s="104" t="s">
+      <c r="Z47" s="102" t="s">
         <v>339</v>
       </c>
-      <c r="AA47" s="105"/>
+      <c r="AA47" s="103"/>
     </row>
     <row r="48" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="251" t="s">
+      <c r="D48" s="247" t="s">
         <v>340</v>
       </c>
-      <c r="E48" s="252"/>
-      <c r="F48" s="253"/>
-      <c r="I48" s="269" t="s">
+      <c r="E48" s="248"/>
+      <c r="F48" s="249"/>
+      <c r="I48" s="265" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="270"/>
-      <c r="T48" s="93" t="s">
+      <c r="J48" s="266"/>
+      <c r="T48" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="U48" s="94" t="s">
+      <c r="U48" s="92" t="s">
         <v>342</v>
       </c>
-      <c r="V48" s="95">
+      <c r="V48" s="93">
         <v>38</v>
       </c>
-      <c r="W48" s="96" t="s">
+      <c r="W48" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="Y48" s="103">
+      <c r="Y48" s="101">
         <v>37</v>
       </c>
-      <c r="Z48" s="104" t="s">
+      <c r="Z48" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="AA48" s="105"/>
+      <c r="AA48" s="103"/>
     </row>
     <row r="49" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D49" s="288" t="s">
+      <c r="D49" s="284" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="289"/>
-      <c r="F49" s="290"/>
-      <c r="I49" s="274" t="s">
+      <c r="E49" s="285"/>
+      <c r="F49" s="286"/>
+      <c r="I49" s="270" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="276"/>
-      <c r="T49" s="93" t="s">
+      <c r="J49" s="272"/>
+      <c r="T49" s="91" t="s">
         <v>343</v>
       </c>
-      <c r="U49" s="101" t="s">
+      <c r="U49" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="V49" s="95">
+      <c r="V49" s="93">
         <v>39</v>
       </c>
-      <c r="W49" s="102" t="s">
+      <c r="W49" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="Y49" s="103">
+      <c r="Y49" s="101">
         <v>38</v>
       </c>
-      <c r="Z49" s="104" t="s">
+      <c r="Z49" s="102" t="s">
         <v>345</v>
       </c>
-      <c r="AA49" s="105"/>
+      <c r="AA49" s="103"/>
     </row>
     <row r="50" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="308">
+      <c r="D50" s="304">
         <v>350</v>
       </c>
-      <c r="E50" s="309"/>
-      <c r="F50" s="310"/>
-      <c r="I50" s="281" t="s">
+      <c r="E50" s="305"/>
+      <c r="F50" s="306"/>
+      <c r="I50" s="277" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="282"/>
-      <c r="T50" s="93" t="s">
+      <c r="J50" s="278"/>
+      <c r="T50" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="U50" s="94" t="s">
+      <c r="U50" s="92" t="s">
         <v>346</v>
       </c>
-      <c r="V50" s="95">
+      <c r="V50" s="93">
         <v>40</v>
       </c>
-      <c r="W50" s="96" t="s">
+      <c r="W50" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="Y50" s="103">
+      <c r="Y50" s="101">
         <v>39</v>
       </c>
-      <c r="Z50" s="104" t="s">
+      <c r="Z50" s="102" t="s">
         <v>347</v>
       </c>
-      <c r="AA50" s="105" t="s">
+      <c r="AA50" s="103" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="51" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="274" t="s">
+      <c r="I51" s="270" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="276"/>
-      <c r="T51" s="93" t="s">
+      <c r="J51" s="272"/>
+      <c r="T51" s="91" t="s">
         <v>349</v>
       </c>
-      <c r="U51" s="101" t="s">
+      <c r="U51" s="99" t="s">
         <v>350</v>
       </c>
-      <c r="V51" s="95">
+      <c r="V51" s="93">
         <v>41</v>
       </c>
-      <c r="W51" s="102" t="s">
+      <c r="W51" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="Y51" s="154">
+      <c r="Y51" s="152">
         <v>40</v>
       </c>
-      <c r="Z51" s="155" t="s">
+      <c r="Z51" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="AA51" s="156"/>
+      <c r="AA51" s="154"/>
     </row>
     <row r="52" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I52" s="281" t="s">
+      <c r="I52" s="277" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="282"/>
-      <c r="T52" s="93" t="s">
+      <c r="J52" s="278"/>
+      <c r="T52" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="U52" s="94" t="s">
+      <c r="U52" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="V52" s="95">
+      <c r="V52" s="93">
         <v>42</v>
       </c>
-      <c r="W52" s="96" t="s">
+      <c r="W52" s="94" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="53" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I53" s="274" t="s">
+      <c r="I53" s="270" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="276"/>
-      <c r="T53" s="93" t="s">
+      <c r="J53" s="272"/>
+      <c r="T53" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="U53" s="101" t="s">
+      <c r="U53" s="99" t="s">
         <v>354</v>
       </c>
-      <c r="V53" s="95">
+      <c r="V53" s="93">
         <v>43</v>
       </c>
-      <c r="W53" s="102" t="s">
+      <c r="W53" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="54" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I54" s="127" t="s">
+      <c r="I54" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="J54" s="129"/>
-      <c r="T54" s="93" t="s">
+      <c r="J54" s="127"/>
+      <c r="T54" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="U54" s="94" t="s">
+      <c r="U54" s="92" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="95">
+      <c r="V54" s="93">
         <v>44</v>
       </c>
-      <c r="W54" s="96" t="s">
+      <c r="W54" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="55" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I55" s="281" t="s">
+      <c r="I55" s="277" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="282"/>
-      <c r="T55" s="93" t="s">
+      <c r="J55" s="278"/>
+      <c r="T55" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="U55" s="101" t="s">
+      <c r="U55" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="V55" s="95">
+      <c r="V55" s="93">
         <v>45</v>
       </c>
-      <c r="W55" s="102" t="s">
+      <c r="W55" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="56" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I56" s="300" t="s">
+      <c r="I56" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="301"/>
-      <c r="T56" s="93" t="s">
+      <c r="J56" s="297"/>
+      <c r="T56" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="U56" s="94" t="s">
+      <c r="U56" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="95">
+      <c r="V56" s="93">
         <v>46</v>
       </c>
-      <c r="W56" s="96" t="s">
+      <c r="W56" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="57" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T57" s="93" t="s">
+      <c r="T57" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="U57" s="101" t="s">
+      <c r="U57" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="V57" s="95">
+      <c r="V57" s="93">
         <v>47</v>
       </c>
-      <c r="W57" s="102" t="s">
+      <c r="W57" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="58" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T58" s="93" t="s">
+      <c r="T58" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="U58" s="94" t="s">
+      <c r="U58" s="92" t="s">
         <v>360</v>
       </c>
-      <c r="V58" s="95">
+      <c r="V58" s="93">
         <v>48</v>
       </c>
-      <c r="W58" s="96" t="s">
+      <c r="W58" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="59" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T59" s="93" t="s">
+      <c r="T59" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="U59" s="101" t="s">
+      <c r="U59" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="V59" s="95">
+      <c r="V59" s="93">
         <v>49</v>
       </c>
-      <c r="W59" s="102" t="s">
+      <c r="W59" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="60" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T60" s="93" t="s">
+      <c r="T60" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="U60" s="94" t="s">
+      <c r="U60" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="V60" s="95">
+      <c r="V60" s="93">
         <v>50</v>
       </c>
-      <c r="W60" s="96" t="s">
+      <c r="W60" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="61" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T61" s="93" t="s">
+      <c r="T61" s="91" t="s">
         <v>361</v>
       </c>
-      <c r="U61" s="101" t="s">
+      <c r="U61" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="V61" s="95">
+      <c r="V61" s="93">
         <v>66</v>
       </c>
-      <c r="W61" s="102" t="s">
+      <c r="W61" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="62" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T62" s="93" t="s">
+      <c r="T62" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="U62" s="94" t="s">
+      <c r="U62" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="V62" s="95">
+      <c r="V62" s="93">
         <v>51</v>
       </c>
-      <c r="W62" s="96" t="s">
+      <c r="W62" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="63" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T63" s="93" t="s">
+      <c r="T63" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="U63" s="101" t="s">
+      <c r="U63" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="V63" s="95">
+      <c r="V63" s="93">
         <v>52</v>
       </c>
-      <c r="W63" s="102" t="s">
+      <c r="W63" s="100" t="s">
         <v>355</v>
       </c>
       <c r="Z63" s="14"/>
     </row>
     <row r="64" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="T64" s="93" t="s">
+      <c r="T64" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="U64" s="94" t="s">
+      <c r="U64" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="V64" s="95">
+      <c r="V64" s="93">
         <v>62</v>
       </c>
-      <c r="W64" s="96" t="s">
+      <c r="W64" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="65" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T65" s="93" t="s">
+      <c r="T65" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="U65" s="101" t="s">
+      <c r="U65" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="V65" s="95">
+      <c r="V65" s="93">
         <v>53</v>
       </c>
-      <c r="W65" s="102" t="s">
+      <c r="W65" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="66" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T66" s="93" t="s">
+      <c r="T66" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="U66" s="94" t="s">
+      <c r="U66" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="V66" s="95">
+      <c r="V66" s="93">
         <v>54</v>
       </c>
-      <c r="W66" s="96" t="s">
+      <c r="W66" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="67" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T67" s="93" t="s">
+      <c r="T67" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="U67" s="101" t="s">
+      <c r="U67" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="V67" s="95">
+      <c r="V67" s="93">
         <v>55</v>
       </c>
-      <c r="W67" s="102" t="s">
+      <c r="W67" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="68" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T68" s="93" t="s">
+      <c r="T68" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="U68" s="94" t="s">
+      <c r="U68" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="V68" s="95">
+      <c r="V68" s="93">
         <v>56</v>
       </c>
-      <c r="W68" s="96" t="s">
+      <c r="W68" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="69" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T69" s="93" t="s">
+      <c r="T69" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="U69" s="101" t="s">
+      <c r="U69" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="V69" s="95">
+      <c r="V69" s="93">
         <v>57</v>
       </c>
-      <c r="W69" s="102" t="s">
+      <c r="W69" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="70" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T70" s="93" t="s">
+      <c r="T70" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="U70" s="94" t="s">
+      <c r="U70" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="V70" s="95">
+      <c r="V70" s="93">
         <v>58</v>
       </c>
-      <c r="W70" s="96" t="s">
+      <c r="W70" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="71" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T71" s="93" t="s">
+      <c r="T71" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="U71" s="101" t="s">
+      <c r="U71" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="V71" s="95">
+      <c r="V71" s="93">
         <v>59</v>
       </c>
-      <c r="W71" s="102" t="s">
+      <c r="W71" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="72" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T72" s="93" t="s">
+      <c r="T72" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="U72" s="94" t="s">
+      <c r="U72" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="V72" s="95">
+      <c r="V72" s="93">
         <v>60</v>
       </c>
-      <c r="W72" s="96" t="s">
+      <c r="W72" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="73" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T73" s="93" t="s">
+      <c r="T73" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="U73" s="101" t="s">
+      <c r="U73" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="V73" s="95">
+      <c r="V73" s="93">
         <v>63</v>
       </c>
-      <c r="W73" s="102" t="s">
+      <c r="W73" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="74" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T74" s="93" t="s">
+      <c r="T74" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="U74" s="94" t="s">
+      <c r="U74" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="V74" s="95">
+      <c r="V74" s="93">
         <v>64</v>
       </c>
-      <c r="W74" s="96" t="s">
+      <c r="W74" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="75" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T75" s="93" t="s">
+      <c r="T75" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="U75" s="101" t="s">
+      <c r="U75" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="V75" s="95">
+      <c r="V75" s="93">
         <v>65</v>
       </c>
-      <c r="W75" s="102" t="s">
+      <c r="W75" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="76" spans="20:23" x14ac:dyDescent="0.25">
-      <c r="T76" s="93" t="s">
+      <c r="T76" s="91" t="s">
         <v>366</v>
       </c>
-      <c r="U76" s="94" t="s">
+      <c r="U76" s="92" t="s">
         <v>367</v>
       </c>
-      <c r="V76" s="95">
+      <c r="V76" s="93">
         <v>61</v>
       </c>
-      <c r="W76" s="96" t="s">
+      <c r="W76" s="94" t="s">
         <v>355</v>
       </c>
     </row>
@@ -9272,39 +9389,39 @@
     <mergeCell ref="R4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="P11:P21">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="30" priority="5">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R20">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:W78">
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AA51">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>AND($Y12&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9358,49 +9475,49 @@
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="30.7109375" style="15" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="9.140625" style="213"/>
+    <col min="5" max="5" width="9.140625" style="211"/>
     <col min="6" max="6" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="9.140625" style="29"/>
-    <col min="9" max="9" width="9.7109375" style="214" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="27"/>
+    <col min="9" max="9" width="9.7109375" style="212" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="191" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="208" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="193" t="s">
+      <c r="C1" s="191" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="193" t="s">
+      <c r="D1" s="191" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="212" t="s">
+      <c r="E1" s="210" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="211" t="s">
+      <c r="F1" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="209" t="s">
+      <c r="G1" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="215" t="s">
+      <c r="H1" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="215" t="s">
+      <c r="I1" s="213" t="s">
         <v>375</v>
       </c>
-      <c r="J1" s="209" t="s">
+      <c r="J1" s="207" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:J99946 I2:I1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9424,116 +9541,116 @@
     <col min="3" max="3" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="198" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="194" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="194" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="196" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="192" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="192" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="198" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="194" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="194" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="196" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="192" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="192" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="198" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="194" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="194" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="196" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="192" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="192" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="198" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="194" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="194" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="196" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="192" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="192" customWidth="1"/>
     <col min="21" max="21" width="11.7109375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" style="199" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="194" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="194" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="197" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" style="192" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="192" customWidth="1"/>
     <col min="25" max="25" width="11.7109375" style="8" customWidth="1"/>
     <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="196" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:27" s="194" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="193" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="199" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="195" t="s">
+      <c r="C1" s="193" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="195" t="s">
+      <c r="D1" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="200" t="s">
+      <c r="E1" s="198" t="s">
         <v>398</v>
       </c>
-      <c r="F1" s="197" t="s">
+      <c r="F1" s="195" t="s">
         <v>388</v>
       </c>
-      <c r="G1" s="197" t="s">
+      <c r="G1" s="195" t="s">
         <v>378</v>
       </c>
-      <c r="H1" s="197" t="s">
+      <c r="H1" s="195" t="s">
         <v>390</v>
       </c>
-      <c r="I1" s="200" t="s">
+      <c r="I1" s="198" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="197" t="s">
+      <c r="J1" s="195" t="s">
         <v>389</v>
       </c>
-      <c r="K1" s="197" t="s">
+      <c r="K1" s="195" t="s">
         <v>380</v>
       </c>
-      <c r="L1" s="197" t="s">
+      <c r="L1" s="195" t="s">
         <v>391</v>
       </c>
-      <c r="M1" s="200" t="s">
+      <c r="M1" s="198" t="s">
         <v>381</v>
       </c>
-      <c r="N1" s="197" t="s">
+      <c r="N1" s="195" t="s">
         <v>392</v>
       </c>
-      <c r="O1" s="197" t="s">
+      <c r="O1" s="195" t="s">
         <v>382</v>
       </c>
-      <c r="P1" s="197" t="s">
+      <c r="P1" s="195" t="s">
         <v>395</v>
       </c>
-      <c r="Q1" s="200" t="s">
+      <c r="Q1" s="198" t="s">
         <v>383</v>
       </c>
-      <c r="R1" s="197" t="s">
+      <c r="R1" s="195" t="s">
         <v>393</v>
       </c>
-      <c r="S1" s="197" t="s">
+      <c r="S1" s="195" t="s">
         <v>384</v>
       </c>
-      <c r="T1" s="197" t="s">
+      <c r="T1" s="195" t="s">
         <v>396</v>
       </c>
-      <c r="U1" s="200" t="s">
+      <c r="U1" s="198" t="s">
         <v>385</v>
       </c>
-      <c r="V1" s="197" t="s">
+      <c r="V1" s="195" t="s">
         <v>394</v>
       </c>
-      <c r="W1" s="197" t="s">
+      <c r="W1" s="195" t="s">
         <v>386</v>
       </c>
-      <c r="X1" s="197" t="s">
+      <c r="X1" s="195" t="s">
         <v>397</v>
       </c>
-      <c r="Y1" s="200" t="s">
+      <c r="Y1" s="198" t="s">
         <v>387</v>
       </c>
-      <c r="Z1" s="195" t="s">
+      <c r="Z1" s="193" t="s">
         <v>375</v>
       </c>
-      <c r="AA1" s="195" t="s">
+      <c r="AA1" s="193" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AA9989">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9552,34 +9669,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="204"/>
-    <col min="2" max="2" width="11.42578125" style="205"/>
-    <col min="3" max="3" width="11.42578125" style="204"/>
-    <col min="4" max="4" width="11.42578125" style="206"/>
-    <col min="5" max="5" width="11.42578125" style="207"/>
-    <col min="6" max="16384" width="11.42578125" style="203"/>
+    <col min="1" max="1" width="11.42578125" style="202"/>
+    <col min="2" max="2" width="11.42578125" style="203"/>
+    <col min="3" max="3" width="11.42578125" style="202"/>
+    <col min="4" max="4" width="11.42578125" style="204"/>
+    <col min="5" max="5" width="11.42578125" style="205"/>
+    <col min="6" max="16384" width="11.42578125" style="201"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="199" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="201" t="s">
+      <c r="C1" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="201" t="s">
+      <c r="D1" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="201" t="s">
+      <c r="E1" s="199" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E9984">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9632,7 +9749,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G962">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9655,48 +9772,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="1" max="1" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="208" t="s">
+      <c r="F1" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="159" t="s">
+      <c r="J1" s="157" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9704,7 +9821,7 @@
   <autoFilter ref="A1:J1" xr:uid="{E0D58006-DE1D-488F-9BB7-8096C5818030}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J98523">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9714,583 +9831,999 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="wshTEC_Local"/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="540" topLeftCell="A2" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0" rightToLeft="false">
+      <pane ySplit="540" activePane="bottomLeft"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="312" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="329" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="311" t="s">
+    <row spans="1:16" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="217" t="s">
+      <c r="D1" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="307" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="216" t="s">
+      <c r="F1" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="216" t="s">
+      <c r="G1" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="216" t="s">
+      <c r="I1" s="307" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="307" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="309" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="307" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="309" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="310" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="312" t="s">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+      <c r="A2" s="327">
+        <v>2</v>
+      </c>
+      <c r="B2" s="311" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="311" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="312">
+        <v>45503</v>
+      </c>
+      <c r="E2" s="311" t="s">
         <v>401</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="313" t="s">
+        <v>402</v>
+      </c>
+      <c r="G2" s="313" t="s">
+        <v>403</v>
+      </c>
+      <c r="H2" s="314">
+        <v>1</v>
+      </c>
+      <c r="I2" s="313"/>
+      <c r="J2" s="311" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" s="311" t="s">
+        <v>405</v>
+      </c>
+      <c r="L2" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="M2" s="311"/>
+      <c r="N2" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="O2" s="311" t="s">
+        <v>407</v>
+      </c>
+      <c r="P2" s="315"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+      <c r="A3" s="328">
+        <v>3</v>
+      </c>
+      <c r="B3" s="316" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="316" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3" s="317">
         <v>45503</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="316" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="318" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" s="318" t="s">
+        <v>403</v>
+      </c>
+      <c r="H3" s="319">
+        <v>2</v>
+      </c>
+      <c r="I3" s="318"/>
+      <c r="J3" s="316" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" s="316" t="s">
+        <v>410</v>
+      </c>
+      <c r="L3" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="M3" s="316"/>
+      <c r="N3" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="O3" s="316" t="s">
+        <v>407</v>
+      </c>
+      <c r="P3" s="320"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+      <c r="A4" s="327">
+        <v>4</v>
+      </c>
+      <c r="B4" s="311" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="311" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="312">
+        <v>45503</v>
+      </c>
+      <c r="E4" s="311" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" s="313" t="s">
+        <v>411</v>
+      </c>
+      <c r="G4" s="313" t="s">
+        <v>403</v>
+      </c>
+      <c r="H4" s="314">
+        <v>3</v>
+      </c>
+      <c r="I4" s="313"/>
+      <c r="J4" s="311" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" s="311" t="s">
+        <v>412</v>
+      </c>
+      <c r="L4" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="M4" s="311"/>
+      <c r="N4" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="O4" s="311" t="s">
+        <v>407</v>
+      </c>
+      <c r="P4" s="315"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
+      <c r="A5" s="328">
+        <v>5</v>
+      </c>
+      <c r="B5" s="316" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="316" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="317">
+        <v>45503</v>
+      </c>
+      <c r="E5" s="316" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" s="318" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="318" t="s">
+        <v>403</v>
+      </c>
+      <c r="H5" s="319">
+        <v>4</v>
+      </c>
+      <c r="I5" s="318"/>
+      <c r="J5" s="316" t="s">
+        <v>404</v>
+      </c>
+      <c r="K5" s="316" t="s">
+        <v>415</v>
+      </c>
+      <c r="L5" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="O5" s="316" t="s">
+        <v>407</v>
+      </c>
+      <c r="P5" s="320"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
+      <c r="A6" s="327">
+        <v>6</v>
+      </c>
+      <c r="B6" s="311" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="311" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="312">
+        <v>45503</v>
+      </c>
+      <c r="E6" s="311" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" s="313" t="s">
+        <v>414</v>
+      </c>
+      <c r="G6" s="313" t="s">
+        <v>417</v>
+      </c>
+      <c r="H6" s="314">
+        <v>1</v>
+      </c>
+      <c r="I6" s="313"/>
+      <c r="J6" s="311" t="s">
+        <v>404</v>
+      </c>
+      <c r="K6" s="311" t="s">
+        <v>418</v>
+      </c>
+      <c r="L6" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="M6" s="311"/>
+      <c r="N6" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="O6" s="311" t="s">
+        <v>407</v>
+      </c>
+      <c r="P6" s="315"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
+      <c r="A7" s="328">
+        <v>7</v>
+      </c>
+      <c r="B7" s="316" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="316" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="317">
+        <v>45502</v>
+      </c>
+      <c r="E7" s="316" t="s">
+        <v>408</v>
+      </c>
+      <c r="F7" s="318" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="318" t="s">
+        <v>419</v>
+      </c>
+      <c r="H7" s="319">
+        <v>2.9</v>
+      </c>
+      <c r="I7" s="318"/>
+      <c r="J7" s="316" t="s">
+        <v>404</v>
+      </c>
+      <c r="K7" s="316" t="s">
+        <v>420</v>
+      </c>
+      <c r="L7" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="O7" s="316" t="s">
+        <v>407</v>
+      </c>
+      <c r="P7" s="320"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
+      <c r="A8" s="327">
+        <v>8</v>
+      </c>
+      <c r="B8" s="311" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="311" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="312">
+        <v>45501</v>
+      </c>
+      <c r="E8" s="311" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="313" t="s">
         <v>402</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="G8" s="313" t="s">
+        <v>421</v>
+      </c>
+      <c r="H8" s="314">
+        <v>1.75</v>
+      </c>
+      <c r="I8" s="313"/>
+      <c r="J8" s="311" t="s">
         <v>404</v>
       </c>
-      <c r="H2" s="29">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="K8" s="311" t="s">
+        <v>422</v>
+      </c>
+      <c r="L8" s="311" t="s">
         <v>406</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M8" s="311"/>
+      <c r="N8" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="O8" s="311" t="s">
         <v>407</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P8" s="315"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
+      <c r="A9" s="328">
+        <v>9</v>
+      </c>
+      <c r="B9" s="316" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="316" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="317">
+        <v>45501</v>
+      </c>
+      <c r="E9" s="316" t="s">
+        <v>413</v>
+      </c>
+      <c r="F9" s="318" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" s="318" t="s">
+        <v>421</v>
+      </c>
+      <c r="H9" s="319">
+        <v>2</v>
+      </c>
+      <c r="I9" s="318"/>
+      <c r="J9" s="316" t="s">
+        <v>404</v>
+      </c>
+      <c r="K9" s="316" t="s">
+        <v>423</v>
+      </c>
+      <c r="L9" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="M9" s="316"/>
+      <c r="N9" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="O9" s="316" t="s">
         <v>407</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P9" s="320"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
+      <c r="A10" s="327">
+        <v>10</v>
+      </c>
+      <c r="B10" s="311" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="311" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="312">
+        <v>45495</v>
+      </c>
+      <c r="E10" s="311" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="313" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="313" t="s">
+        <v>426</v>
+      </c>
+      <c r="H10" s="314">
+        <v>2</v>
+      </c>
+      <c r="I10" s="313"/>
+      <c r="J10" s="311" t="s">
+        <v>404</v>
+      </c>
+      <c r="K10" s="311" t="s">
+        <v>427</v>
+      </c>
+      <c r="L10" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="M10" s="311"/>
+      <c r="N10" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="O10" s="311" t="s">
+        <v>428</v>
+      </c>
+      <c r="P10" s="315"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
+      <c r="A11" s="327">
+        <v>11</v>
+      </c>
+      <c r="B11" s="316" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="316" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="317">
+        <v>45469</v>
+      </c>
+      <c r="E11" s="316" t="s">
+        <v>424</v>
+      </c>
+      <c r="F11" s="318" t="s">
+        <v>425</v>
+      </c>
+      <c r="G11" s="318" t="s">
+        <v>426</v>
+      </c>
+      <c r="H11" s="319">
+        <v>3</v>
+      </c>
+      <c r="I11" s="318"/>
+      <c r="J11" s="316" t="s">
+        <v>404</v>
+      </c>
+      <c r="K11" s="316" t="s">
+        <v>429</v>
+      </c>
+      <c r="L11" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="M11" s="316"/>
+      <c r="N11" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="O11" s="316" t="s">
+        <v>428</v>
+      </c>
+      <c r="P11" s="320"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
+      <c r="A12" s="327">
+        <v>12</v>
+      </c>
+      <c r="B12" s="311" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="311" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="312">
+        <v>45443</v>
+      </c>
+      <c r="E12" s="311" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="313" t="s">
+        <v>425</v>
+      </c>
+      <c r="G12" s="313" t="s">
+        <v>426</v>
+      </c>
+      <c r="H12" s="314">
+        <v>3</v>
+      </c>
+      <c r="I12" s="313"/>
+      <c r="J12" s="311" t="s">
+        <v>404</v>
+      </c>
+      <c r="K12" s="311" t="s">
+        <v>430</v>
+      </c>
+      <c r="L12" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="M12" s="311"/>
+      <c r="N12" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="O12" s="311" t="s">
+        <v>428</v>
+      </c>
+      <c r="P12" s="315"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
+      <c r="A13" s="327">
+        <v>13</v>
+      </c>
+      <c r="B13" s="316" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" s="316" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="317">
+        <v>45458</v>
+      </c>
+      <c r="E13" s="316" t="s">
+        <v>413</v>
+      </c>
+      <c r="F13" s="318" t="s">
+        <v>414</v>
+      </c>
+      <c r="G13" s="318" t="s">
+        <v>426</v>
+      </c>
+      <c r="H13" s="319">
+        <v>2.1</v>
+      </c>
+      <c r="I13" s="318"/>
+      <c r="J13" s="316" t="s">
+        <v>404</v>
+      </c>
+      <c r="K13" s="316" t="s">
+        <v>431</v>
+      </c>
+      <c r="L13" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="M13" s="316"/>
+      <c r="N13" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="O13" s="316" t="s">
+        <v>428</v>
+      </c>
+      <c r="P13" s="320"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
+      <c r="A14" s="327">
+        <v>14</v>
+      </c>
+      <c r="B14" s="311" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="311" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="312">
+        <v>45504</v>
+      </c>
+      <c r="E14" s="311" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="313" t="s">
+        <v>402</v>
+      </c>
+      <c r="G14" s="313" t="s">
+        <v>432</v>
+      </c>
+      <c r="H14" s="314">
+        <v>1.75</v>
+      </c>
+      <c r="I14" s="313"/>
+      <c r="J14" s="311" t="s">
+        <v>404</v>
+      </c>
+      <c r="K14" s="311" t="s">
+        <v>433</v>
+      </c>
+      <c r="L14" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="M14" s="311"/>
+      <c r="N14" s="311" t="s">
+        <v>406</v>
+      </c>
+      <c r="O14" s="311" t="s">
+        <v>428</v>
+      </c>
+      <c r="P14" s="315"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
+      <c r="A15" s="327">
+        <v>15</v>
+      </c>
+      <c r="B15" s="316" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="316" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="317">
+        <v>45504</v>
+      </c>
+      <c r="E15" s="316" t="s">
+        <v>413</v>
+      </c>
+      <c r="F15" s="318" t="s">
+        <v>414</v>
+      </c>
+      <c r="G15" s="318" t="s">
+        <v>434</v>
+      </c>
+      <c r="H15" s="319">
+        <v>1.1</v>
+      </c>
+      <c r="I15" s="318"/>
+      <c r="J15" s="316" t="s">
+        <v>404</v>
+      </c>
+      <c r="K15" s="316" t="s">
+        <v>435</v>
+      </c>
+      <c r="L15" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="M15" s="316"/>
+      <c r="N15" s="316" t="s">
+        <v>406</v>
+      </c>
+      <c r="O15" s="316" t="s">
+        <v>428</v>
+      </c>
+      <c r="P15" s="320"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
+      <c r="A16" s="327">
+        <v>16</v>
+      </c>
+      <c r="B16" s="321" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="321" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="322">
+        <v>45504</v>
+      </c>
+      <c r="E16" s="321" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="312" t="s">
+      <c r="F16" s="323" t="s">
         <v>409</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6">
-        <v>45503</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="G16" s="323" t="s">
+        <v>421</v>
+      </c>
+      <c r="H16" s="324">
+        <v>1.1</v>
+      </c>
+      <c r="I16" s="323"/>
+      <c r="J16" s="321" t="s">
         <v>404</v>
       </c>
-      <c r="H3" s="29">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="312" t="s">
-        <v>401</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6">
-        <v>45503</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H4" s="29">
-        <v>3</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="312" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6">
-        <v>45503</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H5" s="29">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="312" t="s">
-        <v>419</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>45503</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H6" s="29">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="312" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6">
-        <v>45502</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H7" s="29">
-        <v>2.9</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="312" t="s">
-        <v>426</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <v>45501</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H8" s="29">
-        <v>1.75</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="K16" s="321" t="s">
+        <v>436</v>
+      </c>
+      <c r="L16" s="321" t="s">
+        <v>406</v>
+      </c>
+      <c r="M16" s="321"/>
+      <c r="N16" s="321" t="s">
+        <v>406</v>
+      </c>
+      <c r="O16" s="321" t="s">
         <v>428</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="312" t="s">
-        <v>429</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6">
-        <v>45501</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H9" s="29">
-        <v>2</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="312" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6">
-        <v>45495</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H10" s="29">
-        <v>2</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="312">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45469</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H11" s="29">
-        <v>3</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="312">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6">
-        <v>45443</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H12" s="29">
-        <v>3</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="312">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>45458</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H13" s="29">
+      <c r="P16" s="325"/>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="325">
+        <v>17</v>
+      </c>
+      <c r="B17" s="325" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" s="325" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D17" s="322">
+        <v>45504</v>
+      </c>
+      <c r="E17" s="325" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="F17" s="325" t="inlineStr">
+        <is>
+          <t>CANPLEX INC.</t>
+        </is>
+      </c>
+      <c r="G17" s="325" t="inlineStr">
+        <is>
+          <t>Tests</t>
+        </is>
+      </c>
+      <c r="H17" s="325">
         <v>2.1</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>436</v>
+      <c r="J17" s="325" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K17" s="325" t="inlineStr">
+        <is>
+          <t>31/juil/2024 08:56:12</t>
+        </is>
+      </c>
+      <c r="L17" s="325" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N17" s="325" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O17" s="325" t="inlineStr">
+        <is>
+          <t>v3.B.4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="325">
+        <v>18</v>
+      </c>
+      <c r="B18" s="325" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" s="325" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D18" s="322">
+        <v>45504</v>
+      </c>
+      <c r="E18" s="325" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F18" s="325" t="inlineStr">
+        <is>
+          <t>Advantest Corporation (Kabushiki Kaisha Advantest) ADS</t>
+        </is>
+      </c>
+      <c r="G18" s="325" t="inlineStr">
+        <is>
+          <t>Encore des tests</t>
+        </is>
+      </c>
+      <c r="H18" s="325">
+        <v>1.9</v>
+      </c>
+      <c r="I18" s="325" t="inlineStr">
+        <is>
+          <t>Test de commentaire</t>
+        </is>
+      </c>
+      <c r="J18" s="325" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K18" s="325" t="inlineStr">
+        <is>
+          <t>31/juil/2024 08:56:40</t>
+        </is>
+      </c>
+      <c r="L18" s="325" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N18" s="325" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O18" s="325" t="inlineStr">
+        <is>
+          <t>v3.B.4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="325">
+        <v>19</v>
+      </c>
+      <c r="B19" s="325" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C19" s="325" t="inlineStr">
+        <is>
+          <t>RMV</t>
+        </is>
+      </c>
+      <c r="D19" s="322">
+        <v>45504</v>
+      </c>
+      <c r="E19" s="325" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F19" s="325" t="inlineStr">
+        <is>
+          <t>Advantest Corporation (Kabushiki Kaisha Advantest) ADS</t>
+        </is>
+      </c>
+      <c r="G19" s="325" t="inlineStr">
+        <is>
+          <t>Tests</t>
+        </is>
+      </c>
+      <c r="H19" s="325">
+        <v>1.9</v>
+      </c>
+      <c r="J19" s="325" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K19" s="325" t="inlineStr">
+        <is>
+          <t>31/juil/2024 09:29:00</t>
+        </is>
+      </c>
+      <c r="L19" s="325" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N19" s="325" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O19" s="325" t="inlineStr">
+        <is>
+          <t>v3.B.4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="325">
+        <v>20</v>
+      </c>
+      <c r="B20" s="325" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C20" s="325" t="inlineStr">
+        <is>
+          <t>RMV</t>
+        </is>
+      </c>
+      <c r="D20" s="322">
+        <v>45504</v>
+      </c>
+      <c r="E20" s="325" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="F20" s="325" t="inlineStr">
+        <is>
+          <t>CANPLEX INC.</t>
+        </is>
+      </c>
+      <c r="G20" s="325" t="inlineStr">
+        <is>
+          <t>Autre charge pour la même journée</t>
+        </is>
+      </c>
+      <c r="H20" s="325">
+        <v>0.9</v>
+      </c>
+      <c r="J20" s="325" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K20" s="325" t="inlineStr">
+        <is>
+          <t>31/juil/2024 09:29:36</t>
+        </is>
+      </c>
+      <c r="L20" s="325" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N20" s="325" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O20" s="325" t="inlineStr">
+        <is>
+          <t>v3.B.4</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="H1:H12 H14:H1048576 A2:P9999">
+  <conditionalFormatting sqref="A2:P99999">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($A1&lt;&gt;"",MOD(ROW(),2)=1)</formula>
+      <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10311,8 +10844,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="51" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="14" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="49" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -10339,126 +10872,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="218"/>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="219"/>
+      <c r="B2" s="215"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="D3" s="220" t="s">
+      <c r="B3" s="45"/>
+      <c r="D3" s="216" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="221"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="217"/>
+      <c r="F3" s="218" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="224"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="220"/>
       <c r="T3" s="14"/>
       <c r="V3"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="P4" s="225"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="227"/>
-      <c r="S4" s="227"/>
+      <c r="B4" s="45"/>
+      <c r="P4" s="221"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="223"/>
+      <c r="S4" s="223"/>
       <c r="V4" s="7"/>
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="D5" s="234" t="s">
+      <c r="B5" s="46"/>
+      <c r="D5" s="230" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="235"/>
-      <c r="F5" s="236" t="s">
+      <c r="E5" s="231"/>
+      <c r="F5" s="232" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="237"/>
-      <c r="M5" s="238"/>
-      <c r="P5" s="226"/>
-      <c r="Q5" s="226"/>
-      <c r="R5" s="227"/>
-      <c r="S5" s="227"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="234"/>
+      <c r="P5" s="222"/>
+      <c r="Q5" s="222"/>
+      <c r="R5" s="223"/>
+      <c r="S5" s="223"/>
       <c r="V5" s="7"/>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="D6" s="239" t="s">
+      <c r="B6" s="47"/>
+      <c r="D6" s="235" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241" t="s">
+      <c r="E6" s="236"/>
+      <c r="F6" s="237" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="242"/>
-      <c r="L6" s="242"/>
-      <c r="M6" s="243"/>
-      <c r="P6" s="226"/>
-      <c r="Q6" s="226"/>
-      <c r="R6" s="227"/>
-      <c r="S6" s="227"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="239"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="223"/>
       <c r="V6" s="7"/>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="47"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -10469,7 +11002,7 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="50"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -10481,2127 +11014,2127 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>355</v>
       </c>
-      <c r="D9" s="246" t="s">
+      <c r="D9" s="242" t="s">
         <v>370</v>
       </c>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="248"/>
-      <c r="I9" s="249" t="s">
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="244"/>
+      <c r="I9" s="245" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="250"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="251" t="s">
+      <c r="J9" s="246"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="247" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="252"/>
-      <c r="N9" s="253"/>
-      <c r="P9" s="254" t="s">
+      <c r="M9" s="248"/>
+      <c r="N9" s="249"/>
+      <c r="P9" s="250" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="255"/>
-      <c r="R9" s="256"/>
-      <c r="T9" s="228" t="s">
+      <c r="Q9" s="251"/>
+      <c r="R9" s="252"/>
+      <c r="T9" s="224" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="229"/>
-      <c r="V9" s="229"/>
-      <c r="W9" s="230"/>
-      <c r="Y9" s="231" t="s">
+      <c r="U9" s="225"/>
+      <c r="V9" s="225"/>
+      <c r="W9" s="226"/>
+      <c r="Y9" s="227" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="232"/>
-      <c r="AA9" s="233"/>
+      <c r="Z9" s="228"/>
+      <c r="AA9" s="229"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="187" t="s">
+      <c r="D10" s="185" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="188" t="s">
+      <c r="E10" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="188" t="s">
+      <c r="F10" s="186" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="189" t="s">
+      <c r="G10" s="187" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="60" t="s">
+      <c r="K10" s="52"/>
+      <c r="L10" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="61" t="s">
+      <c r="P10" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="Q10" s="62" t="s">
+      <c r="Q10" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="R10" s="63" t="s">
+      <c r="R10" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="T10" s="64" t="s">
+      <c r="T10" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="65" t="s">
+      <c r="U10" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="65" t="s">
+      <c r="V10" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="W10" s="66" t="s">
+      <c r="W10" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="257"/>
-      <c r="Z10" s="258"/>
-      <c r="AA10" s="259"/>
+      <c r="Y10" s="253"/>
+      <c r="Z10" s="254"/>
+      <c r="AA10" s="255"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="173" t="s">
+      <c r="D11" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="174">
+      <c r="E11" s="172">
         <v>1</v>
       </c>
-      <c r="F11" s="175" t="s">
+      <c r="F11" s="173" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="176" t="s">
+      <c r="G11" s="174" t="s">
         <v>222</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="69">
         <v>2023</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="70">
         <v>45138</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="73" t="s">
+      <c r="K11" s="52"/>
+      <c r="L11" s="71" t="s">
         <v>223</v>
       </c>
       <c r="M11" s="6">
         <v>39448</v>
       </c>
-      <c r="N11" s="74">
+      <c r="N11" s="72">
         <v>0.05</v>
       </c>
-      <c r="P11" s="75" t="s">
+      <c r="P11" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="74">
         <f ca="1">TODAY()</f>
-        <v>45503</v>
-      </c>
-      <c r="R11" s="77">
+        <v>45504</v>
+      </c>
+      <c r="R11" s="75">
         <f ca="1">TODAY()</f>
-        <v>45503</v>
-      </c>
-      <c r="T11" s="78" t="s">
+        <v>45504</v>
+      </c>
+      <c r="T11" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="79" t="s">
+      <c r="U11" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="79">
+      <c r="V11" s="77">
         <v>1</v>
       </c>
-      <c r="W11" s="80" t="s">
+      <c r="W11" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="Y11" s="81" t="s">
+      <c r="Y11" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="Z11" s="82" t="s">
+      <c r="Z11" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AA11" s="83" t="s">
+      <c r="AA11" s="81" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D12" s="177" t="s">
+      <c r="D12" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="178">
+      <c r="E12" s="176">
         <v>2</v>
       </c>
-      <c r="F12" s="179" t="s">
+      <c r="F12" s="177" t="s">
         <v>228</v>
       </c>
-      <c r="G12" s="180" t="s">
+      <c r="G12" s="178" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="86">
         <v>2024</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="87">
         <v>45504</v>
       </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="73" t="s">
+      <c r="K12" s="52"/>
+      <c r="L12" s="71" t="s">
         <v>179</v>
       </c>
       <c r="M12" s="6">
         <v>41275</v>
       </c>
-      <c r="N12" s="90">
+      <c r="N12" s="88">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="P12" s="78" t="s">
+      <c r="P12" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="Q12" s="91">
+      <c r="Q12" s="89">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),1)</f>
         <v>45474</v>
       </c>
-      <c r="R12" s="92">
+      <c r="R12" s="90">
         <f ca="1">EOMONTH(DATE(YEAR(TODAY()),MONTH(TODAY()),1),0)</f>
         <v>45504</v>
       </c>
-      <c r="T12" s="93" t="s">
+      <c r="T12" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="U12" s="94" t="s">
+      <c r="U12" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="95">
+      <c r="V12" s="93">
         <v>2</v>
       </c>
-      <c r="W12" s="96" t="s">
+      <c r="W12" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y12" s="97">
+      <c r="Y12" s="95">
         <v>1</v>
       </c>
-      <c r="Z12" s="98" t="s">
+      <c r="Z12" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="AA12" s="99"/>
+      <c r="AA12" s="97"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D13" s="177" t="s">
+      <c r="D13" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="178">
+      <c r="E13" s="176">
         <v>3</v>
       </c>
-      <c r="F13" s="179" t="s">
+      <c r="F13" s="177" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="180" t="s">
+      <c r="G13" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="100">
+      <c r="I13" s="98">
         <v>2025</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="87">
         <v>45869</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="73"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="74"/>
-      <c r="P13" s="78" t="s">
+      <c r="N13" s="72"/>
+      <c r="P13" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="Q13" s="91">
+      <c r="Q13" s="89">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())-1,1)</f>
         <v>45444</v>
       </c>
-      <c r="R13" s="92">
+      <c r="R13" s="90">
         <f ca="1">EOMONTH(DATE(YEAR(TODAY()),MONTH(TODAY()),1),-1)</f>
         <v>45473</v>
       </c>
-      <c r="T13" s="93" t="s">
+      <c r="T13" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="U13" s="101" t="s">
+      <c r="U13" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="V13" s="95">
+      <c r="V13" s="93">
         <v>3</v>
       </c>
-      <c r="W13" s="102" t="s">
+      <c r="W13" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y13" s="103">
+      <c r="Y13" s="101">
         <v>2</v>
       </c>
-      <c r="Z13" s="104" t="s">
+      <c r="Z13" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="AA13" s="105"/>
+      <c r="AA13" s="103"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D14" s="177" t="s">
+      <c r="D14" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="178">
+      <c r="E14" s="176">
         <v>4</v>
       </c>
-      <c r="F14" s="179" t="s">
+      <c r="F14" s="177" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="180" t="s">
+      <c r="G14" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="I14" s="88">
+      <c r="I14" s="86">
         <v>2026</v>
       </c>
-      <c r="J14" s="89">
+      <c r="J14" s="87">
         <v>46234</v>
       </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="73"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="90"/>
-      <c r="P14" s="78" t="s">
+      <c r="N14" s="88"/>
+      <c r="P14" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="Q14" s="91">
+      <c r="Q14" s="89">
         <f ca="1">IF(MONTH(Aujourdhui)&lt;(MoisFinAnnéeFinancière+1), DATE(YEAR(Aujourdhui)-1, (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) + 12 - (MoisFinAnnéeFinancière+1))/3)*3, 1), DATE(YEAR(Aujourdhui), (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) - (MoisFinAnnéeFinancière+1))/3)*3, 1))</f>
         <v>45413</v>
       </c>
-      <c r="R14" s="92">
+      <c r="R14" s="90">
         <f ca="1">EOMONTH(IF(MONTH(Aujourdhui)&lt;(MoisFinAnnéeFinancière+1), DATE(YEAR(Aujourdhui)-1, (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) + 12 - (MoisFinAnnéeFinancière+1))/3)*3, 1), DATE(YEAR(Aujourdhui), (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) - (MoisFinAnnéeFinancière+1))/3)*3, 1)), 2)</f>
         <v>45504</v>
       </c>
-      <c r="T14" s="93" t="s">
+      <c r="T14" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="U14" s="94" t="s">
+      <c r="U14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="V14" s="95">
+      <c r="V14" s="93">
         <v>4</v>
       </c>
-      <c r="W14" s="96" t="s">
+      <c r="W14" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y14" s="103">
+      <c r="Y14" s="101">
         <v>3</v>
       </c>
-      <c r="Z14" s="104" t="s">
+      <c r="Z14" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="AA14" s="105"/>
+      <c r="AA14" s="103"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="177"/>
-      <c r="E15" s="178">
+      <c r="D15" s="175"/>
+      <c r="E15" s="176">
         <v>5</v>
       </c>
-      <c r="F15" s="179"/>
-      <c r="G15" s="180"/>
-      <c r="I15" s="100">
+      <c r="F15" s="177"/>
+      <c r="G15" s="178"/>
+      <c r="I15" s="98">
         <v>2027</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="70">
         <v>46599</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="73"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="74"/>
-      <c r="P15" s="78" t="s">
+      <c r="N15" s="72"/>
+      <c r="P15" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="Q15" s="91">
+      <c r="Q15" s="89">
         <f ca="1">IF(MONTH(Aujourdhui)&lt;(MoisFinAnnéeFinancière +1), DATE(YEAR(Aujourdhui)-1, (MoisFinAnnéeFinancière +1) + INT((MONTH(Aujourdhui) + 12 -(MoisFinAnnéeFinancière +1))/3 - 1)*3, 1), DATE(YEAR(Aujourdhui), (MoisFinAnnéeFinancière +1) + INT((MONTH(Aujourdhui) - (MoisFinAnnéeFinancière +1))/3 - 1)*3, 1))</f>
         <v>45323</v>
       </c>
-      <c r="R15" s="92">
+      <c r="R15" s="90">
         <f ca="1">EOMONTH(IF(MONTH(Aujourdhui)&lt;(MoisFinAnnéeFinancière+1), DATE(YEAR(Aujourdhui)-1, (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) + 12 - (MoisFinAnnéeFinancière+1))/3 - 1)*3, 1), DATE(YEAR(Aujourdhui), (MoisFinAnnéeFinancière+1) + INT((MONTH(Aujourdhui) - (MoisFinAnnéeFinancière+1))/3 - 1)*3, 1)), 2)</f>
         <v>45412</v>
       </c>
-      <c r="T15" s="93" t="s">
+      <c r="T15" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="101" t="s">
+      <c r="U15" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="V15" s="95">
+      <c r="V15" s="93">
         <v>5</v>
       </c>
-      <c r="W15" s="102" t="s">
+      <c r="W15" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y15" s="103">
+      <c r="Y15" s="101">
         <v>4</v>
       </c>
-      <c r="Z15" s="104" t="s">
+      <c r="Z15" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="AA15" s="105"/>
+      <c r="AA15" s="103"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D16" s="177"/>
-      <c r="E16" s="178">
+      <c r="D16" s="175"/>
+      <c r="E16" s="176">
         <v>6</v>
       </c>
-      <c r="F16" s="179"/>
-      <c r="G16" s="180"/>
-      <c r="I16" s="88">
+      <c r="F16" s="177"/>
+      <c r="G16" s="178"/>
+      <c r="I16" s="86">
         <v>2028</v>
       </c>
-      <c r="J16" s="89">
+      <c r="J16" s="87">
         <v>46965</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="73"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="71"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="90"/>
-      <c r="P16" s="78" t="s">
+      <c r="N16" s="88"/>
+      <c r="P16" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="Q16" s="91">
+      <c r="Q16" s="89">
         <f ca="1">DATE(YEAR(Aujourdhui)-1+IF(MONTH(Aujourdhui)&gt;7,1,0),8,1)</f>
         <v>45139</v>
       </c>
-      <c r="R16" s="92">
+      <c r="R16" s="90">
         <f ca="1">DATE(YEAR(Aujourdhui)+IF(MONTH(Aujourdhui)&gt;7,1,0),7,31)</f>
         <v>45504</v>
       </c>
-      <c r="T16" s="93" t="s">
+      <c r="T16" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="94" t="s">
+      <c r="U16" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="95">
+      <c r="V16" s="93">
         <v>6</v>
       </c>
-      <c r="W16" s="96" t="s">
+      <c r="W16" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y16" s="103">
+      <c r="Y16" s="101">
         <v>5</v>
       </c>
-      <c r="Z16" s="104" t="s">
+      <c r="Z16" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="AA16" s="105"/>
+      <c r="AA16" s="103"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="177"/>
-      <c r="E17" s="178">
+      <c r="D17" s="175"/>
+      <c r="E17" s="176">
         <v>7</v>
       </c>
-      <c r="F17" s="179"/>
-      <c r="G17" s="180"/>
-      <c r="I17" s="100">
+      <c r="F17" s="177"/>
+      <c r="G17" s="178"/>
+      <c r="I17" s="98">
         <v>2029</v>
       </c>
-      <c r="J17" s="89">
+      <c r="J17" s="87">
         <v>47330</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="73"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="71"/>
       <c r="N17" s="7"/>
-      <c r="P17" s="78" t="s">
+      <c r="P17" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="Q17" s="91">
+      <c r="Q17" s="89">
         <f ca="1">DATE(YEAR(Aujourdhui)-2+IF(MONTH(Aujourdhui)&gt;7,1,0),8,1)</f>
         <v>44774</v>
       </c>
-      <c r="R17" s="92">
+      <c r="R17" s="90">
         <f ca="1">DATE(YEAR(Aujourdhui)-1+IF(MONTH(Aujourdhui)&gt;7,1,0),7,31)</f>
         <v>45138</v>
       </c>
-      <c r="T17" s="93" t="s">
+      <c r="T17" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="101" t="s">
+      <c r="U17" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="95">
+      <c r="V17" s="93">
         <v>7</v>
       </c>
-      <c r="W17" s="102" t="s">
+      <c r="W17" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y17" s="103">
+      <c r="Y17" s="101">
         <v>6</v>
       </c>
-      <c r="Z17" s="104" t="s">
+      <c r="Z17" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="105"/>
+      <c r="AA17" s="103"/>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="177"/>
-      <c r="E18" s="178">
+      <c r="D18" s="175"/>
+      <c r="E18" s="176">
         <v>8</v>
       </c>
-      <c r="F18" s="179"/>
-      <c r="G18" s="180"/>
-      <c r="I18" s="88">
+      <c r="F18" s="177"/>
+      <c r="G18" s="178"/>
+      <c r="I18" s="86">
         <v>2030</v>
       </c>
-      <c r="J18" s="89">
+      <c r="J18" s="87">
         <v>47695</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="73"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="71"/>
       <c r="N18" s="7"/>
-      <c r="P18" s="78" t="s">
+      <c r="P18" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="Q18" s="91">
+      <c r="Q18" s="89">
         <f ca="1">TODAY()-6</f>
-        <v>45497</v>
-      </c>
-      <c r="R18" s="92">
+        <v>45498</v>
+      </c>
+      <c r="R18" s="90">
         <f ca="1">TODAY()</f>
-        <v>45503</v>
-      </c>
-      <c r="T18" s="93" t="s">
+        <v>45504</v>
+      </c>
+      <c r="T18" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="U18" s="94" t="s">
+      <c r="U18" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="V18" s="95">
+      <c r="V18" s="93">
         <v>8</v>
       </c>
-      <c r="W18" s="96" t="s">
+      <c r="W18" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y18" s="103">
+      <c r="Y18" s="101">
         <v>7</v>
       </c>
-      <c r="Z18" s="104" t="s">
+      <c r="Z18" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="AA18" s="105"/>
+      <c r="AA18" s="103"/>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="177"/>
-      <c r="E19" s="178">
+      <c r="D19" s="175"/>
+      <c r="E19" s="176">
         <v>9</v>
       </c>
-      <c r="F19" s="179"/>
-      <c r="G19" s="180"/>
-      <c r="I19" s="100">
+      <c r="F19" s="177"/>
+      <c r="G19" s="178"/>
+      <c r="I19" s="98">
         <v>2031</v>
       </c>
-      <c r="J19" s="89">
+      <c r="J19" s="87">
         <v>48060</v>
       </c>
-      <c r="K19" s="54"/>
-      <c r="P19" s="78" t="s">
+      <c r="K19" s="52"/>
+      <c r="P19" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="Q19" s="91">
+      <c r="Q19" s="89">
         <f ca="1">TODAY()-14</f>
-        <v>45489</v>
-      </c>
-      <c r="R19" s="92">
+        <v>45490</v>
+      </c>
+      <c r="R19" s="90">
         <f ca="1">TODAY()</f>
-        <v>45503</v>
-      </c>
-      <c r="T19" s="93" t="s">
+        <v>45504</v>
+      </c>
+      <c r="T19" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="U19" s="101" t="s">
+      <c r="U19" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="V19" s="95">
+      <c r="V19" s="93">
         <v>9</v>
       </c>
-      <c r="W19" s="102" t="s">
+      <c r="W19" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y19" s="103">
+      <c r="Y19" s="101">
         <v>8</v>
       </c>
-      <c r="Z19" s="104" t="s">
+      <c r="Z19" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="AA19" s="105"/>
+      <c r="AA19" s="103"/>
     </row>
     <row r="20" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="177"/>
-      <c r="E20" s="178">
+      <c r="D20" s="175"/>
+      <c r="E20" s="176">
         <v>10</v>
       </c>
-      <c r="F20" s="179"/>
-      <c r="G20" s="180"/>
-      <c r="I20" s="88">
+      <c r="F20" s="177"/>
+      <c r="G20" s="178"/>
+      <c r="I20" s="86">
         <v>2032</v>
       </c>
-      <c r="J20" s="89">
+      <c r="J20" s="87">
         <v>48426</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="P20" s="78" t="s">
+      <c r="K20" s="52"/>
+      <c r="P20" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="Q20" s="91">
+      <c r="Q20" s="89">
         <f ca="1">Q11-WEEKDAY(Q11,1)+1</f>
         <v>45501</v>
       </c>
-      <c r="R20" s="92">
+      <c r="R20" s="90">
         <f ca="1">Tableau89[[#This Row],[Du]]+6</f>
         <v>45507</v>
       </c>
-      <c r="T20" s="93" t="s">
+      <c r="T20" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="U20" s="94" t="s">
+      <c r="U20" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="V20" s="95">
+      <c r="V20" s="93">
         <v>10</v>
       </c>
-      <c r="W20" s="96" t="s">
+      <c r="W20" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y20" s="103">
+      <c r="Y20" s="101">
         <v>9</v>
       </c>
-      <c r="Z20" s="104" t="s">
+      <c r="Z20" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="AA20" s="105" t="s">
+      <c r="AA20" s="103" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="177"/>
-      <c r="E21" s="178">
+      <c r="D21" s="175"/>
+      <c r="E21" s="176">
         <v>11</v>
       </c>
-      <c r="F21" s="179"/>
-      <c r="G21" s="180"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="263" t="s">
+      <c r="F21" s="177"/>
+      <c r="G21" s="178"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="259" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="264"/>
-      <c r="N21" s="115">
+      <c r="M21" s="260"/>
+      <c r="N21" s="113">
         <v>7</v>
       </c>
-      <c r="P21" s="116" t="s">
+      <c r="P21" s="114" t="s">
         <v>252</v>
       </c>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="118"/>
-      <c r="T21" s="93" t="s">
+      <c r="Q21" s="115"/>
+      <c r="R21" s="116"/>
+      <c r="T21" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="101" t="s">
+      <c r="U21" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="V21" s="95">
+      <c r="V21" s="93">
         <v>11</v>
       </c>
-      <c r="W21" s="102" t="s">
+      <c r="W21" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y21" s="103">
+      <c r="Y21" s="101">
         <v>10</v>
       </c>
-      <c r="Z21" s="104" t="s">
+      <c r="Z21" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="AA21" s="105" t="s">
+      <c r="AA21" s="103" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D22" s="177"/>
-      <c r="E22" s="178">
+      <c r="D22" s="175"/>
+      <c r="E22" s="176">
         <v>12</v>
       </c>
-      <c r="F22" s="179"/>
-      <c r="G22" s="180"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="54"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="178"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="52"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="T22" s="93" t="s">
+      <c r="Q22" s="117"/>
+      <c r="R22" s="117"/>
+      <c r="T22" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="U22" s="94" t="s">
+      <c r="U22" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="95">
+      <c r="V22" s="93">
         <v>12</v>
       </c>
-      <c r="W22" s="96" t="s">
+      <c r="W22" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y22" s="103">
+      <c r="Y22" s="101">
         <v>11</v>
       </c>
-      <c r="Z22" s="104" t="s">
+      <c r="Z22" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="AA22" s="105"/>
+      <c r="AA22" s="103"/>
     </row>
     <row r="23" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="177"/>
-      <c r="E23" s="178">
+      <c r="D23" s="175"/>
+      <c r="E23" s="176">
         <v>13</v>
       </c>
-      <c r="F23" s="179"/>
-      <c r="G23" s="180"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="54"/>
-      <c r="T23" s="93" t="s">
+      <c r="F23" s="177"/>
+      <c r="G23" s="178"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="52"/>
+      <c r="T23" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="U23" s="101" t="s">
+      <c r="U23" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="V23" s="95">
+      <c r="V23" s="93">
         <v>13</v>
       </c>
-      <c r="W23" s="102" t="s">
+      <c r="W23" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y23" s="103">
+      <c r="Y23" s="101">
         <v>12</v>
       </c>
-      <c r="Z23" s="104" t="s">
+      <c r="Z23" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="AA23" s="105" t="s">
+      <c r="AA23" s="103" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="181"/>
-      <c r="E24" s="178">
+      <c r="D24" s="179"/>
+      <c r="E24" s="176">
         <v>14</v>
       </c>
-      <c r="F24" s="179"/>
-      <c r="G24" s="182"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="54"/>
-      <c r="P24" s="251" t="s">
+      <c r="F24" s="177"/>
+      <c r="G24" s="180"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="52"/>
+      <c r="P24" s="247" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="252"/>
-      <c r="R24" s="253"/>
-      <c r="T24" s="93" t="s">
+      <c r="Q24" s="248"/>
+      <c r="R24" s="249"/>
+      <c r="T24" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="U24" s="94" t="s">
+      <c r="U24" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="V24" s="95">
+      <c r="V24" s="93">
         <v>14</v>
       </c>
-      <c r="W24" s="96" t="s">
+      <c r="W24" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y24" s="103">
+      <c r="Y24" s="101">
         <v>13</v>
       </c>
-      <c r="Z24" s="104" t="s">
+      <c r="Z24" s="102" t="s">
         <v>261</v>
       </c>
-      <c r="AA24" s="105"/>
+      <c r="AA24" s="103"/>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25" s="181"/>
-      <c r="E25" s="178">
+      <c r="D25" s="179"/>
+      <c r="E25" s="176">
         <v>15</v>
       </c>
-      <c r="F25" s="179"/>
-      <c r="G25" s="182"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="54"/>
-      <c r="P25" s="265" t="s">
+      <c r="F25" s="177"/>
+      <c r="G25" s="180"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="52"/>
+      <c r="P25" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="266"/>
-      <c r="R25" s="122" t="s">
+      <c r="Q25" s="262"/>
+      <c r="R25" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="T25" s="93" t="s">
+      <c r="T25" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="U25" s="101" t="s">
+      <c r="U25" s="99" t="s">
         <v>264</v>
       </c>
-      <c r="V25" s="95">
+      <c r="V25" s="93">
         <v>15</v>
       </c>
-      <c r="W25" s="102" t="s">
+      <c r="W25" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y25" s="103">
+      <c r="Y25" s="101">
         <v>14</v>
       </c>
-      <c r="Z25" s="104" t="s">
+      <c r="Z25" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="AA25" s="105" t="s">
+      <c r="AA25" s="103" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D26" s="181"/>
-      <c r="E26" s="178">
+      <c r="D26" s="179"/>
+      <c r="E26" s="176">
         <v>16</v>
       </c>
-      <c r="F26" s="179"/>
-      <c r="G26" s="182"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="180"/>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
-      <c r="P26" s="244" t="s">
+      <c r="P26" s="240" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="245"/>
-      <c r="R26" s="123" t="s">
+      <c r="Q26" s="241"/>
+      <c r="R26" s="121" t="s">
         <v>267</v>
       </c>
-      <c r="T26" s="93" t="s">
+      <c r="T26" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="U26" s="94" t="s">
+      <c r="U26" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="V26" s="95">
+      <c r="V26" s="93">
         <v>16</v>
       </c>
-      <c r="W26" s="96" t="s">
+      <c r="W26" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y26" s="103">
+      <c r="Y26" s="101">
         <v>15</v>
       </c>
-      <c r="Z26" s="104" t="s">
+      <c r="Z26" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="AA26" s="105" t="s">
+      <c r="AA26" s="103" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="27" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="181"/>
-      <c r="E27" s="178">
+      <c r="D27" s="179"/>
+      <c r="E27" s="176">
         <v>17</v>
       </c>
-      <c r="F27" s="179"/>
-      <c r="G27" s="182"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="180"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="P27" s="267" t="s">
+      <c r="P27" s="263" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="268"/>
-      <c r="R27" s="125" t="s">
+      <c r="Q27" s="264"/>
+      <c r="R27" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="T27" s="93" t="s">
+      <c r="T27" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="U27" s="101" t="s">
+      <c r="U27" s="99" t="s">
         <v>273</v>
       </c>
-      <c r="V27" s="95">
+      <c r="V27" s="93">
         <v>17</v>
       </c>
-      <c r="W27" s="102" t="s">
+      <c r="W27" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y27" s="103">
+      <c r="Y27" s="101">
         <v>16</v>
       </c>
-      <c r="Z27" s="104" t="s">
+      <c r="Z27" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AA27" s="105"/>
+      <c r="AA27" s="103"/>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="181"/>
-      <c r="E28" s="178">
+      <c r="D28" s="179"/>
+      <c r="E28" s="176">
         <v>18</v>
       </c>
-      <c r="F28" s="179"/>
-      <c r="G28" s="182"/>
-      <c r="I28" s="269" t="s">
+      <c r="F28" s="177"/>
+      <c r="G28" s="180"/>
+      <c r="I28" s="265" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="270"/>
+      <c r="J28" s="266"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="271" t="s">
+      <c r="L28" s="267" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="272"/>
-      <c r="N28" s="273"/>
-      <c r="P28" s="274" t="s">
+      <c r="M28" s="268"/>
+      <c r="N28" s="269"/>
+      <c r="P28" s="270" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="275"/>
-      <c r="R28" s="128" t="s">
+      <c r="Q28" s="271"/>
+      <c r="R28" s="126" t="s">
         <v>278</v>
       </c>
-      <c r="T28" s="93" t="s">
+      <c r="T28" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="U28" s="94" t="s">
+      <c r="U28" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="V28" s="95">
+      <c r="V28" s="93">
         <v>18</v>
       </c>
-      <c r="W28" s="96" t="s">
+      <c r="W28" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y28" s="103">
+      <c r="Y28" s="101">
         <v>17</v>
       </c>
-      <c r="Z28" s="104" t="s">
+      <c r="Z28" s="102" t="s">
         <v>281</v>
       </c>
-      <c r="AA28" s="105"/>
+      <c r="AA28" s="103"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D29" s="181"/>
-      <c r="E29" s="178">
+      <c r="D29" s="179"/>
+      <c r="E29" s="176">
         <v>19</v>
       </c>
-      <c r="F29" s="179"/>
-      <c r="G29" s="182"/>
-      <c r="I29" s="274" t="s">
+      <c r="F29" s="177"/>
+      <c r="G29" s="180"/>
+      <c r="I29" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="276"/>
+      <c r="J29" s="272"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="130" t="s">
+      <c r="L29" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="277"/>
-      <c r="N29" s="278"/>
-      <c r="P29" s="279" t="s">
+      <c r="M29" s="273"/>
+      <c r="N29" s="274"/>
+      <c r="P29" s="275" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="280"/>
-      <c r="R29" s="125" t="s">
+      <c r="Q29" s="276"/>
+      <c r="R29" s="123" t="s">
         <v>278</v>
       </c>
-      <c r="T29" s="93" t="s">
+      <c r="T29" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="U29" s="101" t="s">
+      <c r="U29" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="V29" s="95">
+      <c r="V29" s="93">
         <v>19</v>
       </c>
-      <c r="W29" s="102" t="s">
+      <c r="W29" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Y29" s="103">
+      <c r="Y29" s="101">
         <v>18</v>
       </c>
-      <c r="Z29" s="104" t="s">
+      <c r="Z29" s="102" t="s">
         <v>285</v>
       </c>
-      <c r="AA29" s="105" t="s">
+      <c r="AA29" s="103" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="30" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="183"/>
-      <c r="E30" s="186">
+      <c r="D30" s="181"/>
+      <c r="E30" s="184">
         <v>20</v>
       </c>
-      <c r="F30" s="184"/>
-      <c r="G30" s="185"/>
-      <c r="I30" s="281" t="s">
+      <c r="F30" s="182"/>
+      <c r="G30" s="183"/>
+      <c r="I30" s="277" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="282"/>
+      <c r="J30" s="278"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="130" t="s">
+      <c r="L30" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="277"/>
-      <c r="N30" s="278"/>
-      <c r="P30" s="283" t="s">
+      <c r="M30" s="273"/>
+      <c r="N30" s="274"/>
+      <c r="P30" s="279" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="284"/>
-      <c r="R30" s="128" t="s">
+      <c r="Q30" s="280"/>
+      <c r="R30" s="126" t="s">
         <v>267</v>
       </c>
-      <c r="T30" s="93" t="s">
+      <c r="T30" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="U30" s="94" t="s">
+      <c r="U30" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="V30" s="95">
+      <c r="V30" s="93">
         <v>20</v>
       </c>
-      <c r="W30" s="96" t="s">
+      <c r="W30" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="Y30" s="103">
+      <c r="Y30" s="101">
         <v>19</v>
       </c>
-      <c r="Z30" s="104" t="s">
+      <c r="Z30" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="AA30" s="105"/>
+      <c r="AA30" s="103"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I31" s="274" t="s">
+      <c r="I31" s="270" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="276"/>
-      <c r="L31" s="130" t="s">
+      <c r="J31" s="272"/>
+      <c r="L31" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="277"/>
-      <c r="N31" s="278"/>
-      <c r="P31" s="267" t="s">
+      <c r="M31" s="273"/>
+      <c r="N31" s="274"/>
+      <c r="P31" s="263" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="268"/>
-      <c r="R31" s="125" t="s">
+      <c r="Q31" s="264"/>
+      <c r="R31" s="123" t="s">
         <v>278</v>
       </c>
-      <c r="T31" s="93" t="s">
+      <c r="T31" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="101" t="s">
+      <c r="U31" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="V31" s="95">
+      <c r="V31" s="93">
         <v>21</v>
       </c>
-      <c r="W31" s="102" t="s">
+      <c r="W31" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y31" s="103">
+      <c r="Y31" s="101">
         <v>20</v>
       </c>
-      <c r="Z31" s="104" t="s">
+      <c r="Z31" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="AA31" s="105"/>
+      <c r="AA31" s="103"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="281" t="s">
+      <c r="I32" s="277" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="282"/>
-      <c r="L32" s="130" t="s">
+      <c r="J32" s="278"/>
+      <c r="L32" s="128" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="277"/>
-      <c r="N32" s="278"/>
-      <c r="P32" s="291" t="s">
+      <c r="M32" s="273"/>
+      <c r="N32" s="274"/>
+      <c r="P32" s="287" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="292"/>
-      <c r="R32" s="133" t="s">
+      <c r="Q32" s="288"/>
+      <c r="R32" s="131" t="s">
         <v>267</v>
       </c>
-      <c r="T32" s="93" t="s">
+      <c r="T32" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="U32" s="94" t="s">
+      <c r="U32" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="V32" s="95">
+      <c r="V32" s="93">
         <v>22</v>
       </c>
-      <c r="W32" s="96" t="s">
+      <c r="W32" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y32" s="103">
+      <c r="Y32" s="101">
         <v>21</v>
       </c>
-      <c r="Z32" s="104" t="s">
+      <c r="Z32" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="AA32" s="105" t="s">
+      <c r="AA32" s="103" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="274" t="s">
+      <c r="I33" s="270" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="276"/>
-      <c r="L33" s="134" t="s">
+      <c r="J33" s="272"/>
+      <c r="L33" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="296"/>
-      <c r="N33" s="297"/>
-      <c r="T33" s="93" t="s">
+      <c r="M33" s="292"/>
+      <c r="N33" s="293"/>
+      <c r="T33" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="U33" s="101" t="s">
+      <c r="U33" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="V33" s="95">
+      <c r="V33" s="93">
         <v>23</v>
       </c>
-      <c r="W33" s="102" t="s">
+      <c r="W33" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y33" s="103">
+      <c r="Y33" s="101">
         <v>22</v>
       </c>
-      <c r="Z33" s="104" t="s">
+      <c r="Z33" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="AA33" s="105"/>
+      <c r="AA33" s="103"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I34" s="281" t="s">
+      <c r="I34" s="277" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="282"/>
-      <c r="T34" s="93" t="s">
+      <c r="J34" s="278"/>
+      <c r="T34" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="U34" s="94" t="s">
+      <c r="U34" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="V34" s="95">
+      <c r="V34" s="93">
         <v>24</v>
       </c>
-      <c r="W34" s="96" t="s">
+      <c r="W34" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y34" s="103">
+      <c r="Y34" s="101">
         <v>23</v>
       </c>
-      <c r="Z34" s="104" t="s">
+      <c r="Z34" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="AA34" s="105"/>
+      <c r="AA34" s="103"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="300" t="s">
+      <c r="I35" s="296" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="301"/>
-      <c r="P35" s="302"/>
-      <c r="Q35" s="302"/>
-      <c r="T35" s="93" t="s">
+      <c r="J35" s="297"/>
+      <c r="P35" s="298"/>
+      <c r="Q35" s="298"/>
+      <c r="T35" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="U35" s="101" t="s">
+      <c r="U35" s="99" t="s">
         <v>304</v>
       </c>
-      <c r="V35" s="95">
+      <c r="V35" s="93">
         <v>25</v>
       </c>
-      <c r="W35" s="102" t="s">
+      <c r="W35" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y35" s="103">
+      <c r="Y35" s="101">
         <v>24</v>
       </c>
-      <c r="Z35" s="104" t="s">
+      <c r="Z35" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="AA35" s="105"/>
+      <c r="AA35" s="103"/>
     </row>
     <row r="36" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T36" s="93" t="s">
+      <c r="T36" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="U36" s="94" t="s">
+      <c r="U36" s="92" t="s">
         <v>307</v>
       </c>
-      <c r="V36" s="95">
+      <c r="V36" s="93">
         <v>26</v>
       </c>
-      <c r="W36" s="96" t="s">
+      <c r="W36" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y36" s="103">
+      <c r="Y36" s="101">
         <v>25</v>
       </c>
-      <c r="Z36" s="104" t="s">
+      <c r="Z36" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="AA36" s="105"/>
+      <c r="AA36" s="103"/>
     </row>
     <row r="37" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="260" t="s">
+      <c r="D37" s="256" t="s">
         <v>371</v>
       </c>
-      <c r="E37" s="261"/>
-      <c r="F37" s="262"/>
-      <c r="P37" s="251" t="s">
+      <c r="E37" s="257"/>
+      <c r="F37" s="258"/>
+      <c r="P37" s="247" t="s">
         <v>290</v>
       </c>
-      <c r="Q37" s="252"/>
-      <c r="R37" s="253"/>
-      <c r="T37" s="93" t="s">
+      <c r="Q37" s="248"/>
+      <c r="R37" s="249"/>
+      <c r="T37" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="U37" s="101" t="s">
+      <c r="U37" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="V37" s="95">
+      <c r="V37" s="93">
         <v>27</v>
       </c>
-      <c r="W37" s="102" t="s">
+      <c r="W37" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y37" s="103">
+      <c r="Y37" s="101">
         <v>26</v>
       </c>
-      <c r="Z37" s="104" t="s">
+      <c r="Z37" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="AA37" s="105" t="s">
+      <c r="AA37" s="103" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="38" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="190" t="s">
+      <c r="D38" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="191" t="s">
+      <c r="E38" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="192" t="s">
+      <c r="F38" s="190" t="s">
         <v>243</v>
       </c>
-      <c r="I38" s="303" t="s">
+      <c r="I38" s="299" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="304"/>
-      <c r="P38" s="288" t="s">
+      <c r="J38" s="300"/>
+      <c r="P38" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="289"/>
-      <c r="R38" s="290"/>
-      <c r="T38" s="93" t="s">
+      <c r="Q38" s="285"/>
+      <c r="R38" s="286"/>
+      <c r="T38" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="U38" s="94" t="s">
+      <c r="U38" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="V38" s="95">
+      <c r="V38" s="93">
         <v>28</v>
       </c>
-      <c r="W38" s="96" t="s">
+      <c r="W38" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y38" s="103">
+      <c r="Y38" s="101">
         <v>27</v>
       </c>
-      <c r="Z38" s="135" t="s">
+      <c r="Z38" s="133" t="s">
         <v>311</v>
       </c>
-      <c r="AA38" s="105"/>
+      <c r="AA38" s="103"/>
     </row>
     <row r="39" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="73">
+      <c r="D39" s="71">
         <v>1</v>
       </c>
       <c r="E39" s="6">
         <v>44562</v>
       </c>
-      <c r="F39" s="114">
+      <c r="F39" s="112">
         <v>300</v>
       </c>
-      <c r="I39" s="136" t="s">
+      <c r="I39" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="J39" s="137" t="s">
+      <c r="J39" s="135" t="s">
         <v>313</v>
       </c>
-      <c r="P39" s="293" t="s">
+      <c r="P39" s="289" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="294"/>
-      <c r="R39" s="295"/>
-      <c r="T39" s="93" t="s">
+      <c r="Q39" s="290"/>
+      <c r="R39" s="291"/>
+      <c r="T39" s="91" t="s">
         <v>314</v>
       </c>
-      <c r="U39" s="101" t="s">
+      <c r="U39" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="V39" s="95">
+      <c r="V39" s="93">
         <v>29</v>
       </c>
-      <c r="W39" s="102" t="s">
+      <c r="W39" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y39" s="103">
+      <c r="Y39" s="101">
         <v>28</v>
       </c>
-      <c r="Z39" s="135" t="s">
+      <c r="Z39" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="AA39" s="105"/>
+      <c r="AA39" s="103"/>
     </row>
     <row r="40" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="73">
+      <c r="D40" s="71">
         <v>1</v>
       </c>
       <c r="E40" s="6">
         <v>44927</v>
       </c>
-      <c r="F40" s="114">
+      <c r="F40" s="112">
         <v>350</v>
       </c>
-      <c r="I40" s="124" t="s">
+      <c r="I40" s="122" t="s">
         <v>317</v>
       </c>
-      <c r="J40" s="139"/>
-      <c r="P40" s="281" t="s">
+      <c r="J40" s="137"/>
+      <c r="P40" s="277" t="s">
         <v>24</v>
       </c>
-      <c r="Q40" s="298"/>
-      <c r="R40" s="282"/>
-      <c r="T40" s="93" t="s">
+      <c r="Q40" s="294"/>
+      <c r="R40" s="278"/>
+      <c r="T40" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="U40" s="94" t="s">
+      <c r="U40" s="92" t="s">
         <v>319</v>
       </c>
-      <c r="V40" s="95">
+      <c r="V40" s="93">
         <v>30</v>
       </c>
-      <c r="W40" s="96" t="s">
+      <c r="W40" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y40" s="103">
+      <c r="Y40" s="101">
         <v>29</v>
       </c>
-      <c r="Z40" s="135" t="s">
+      <c r="Z40" s="133" t="s">
         <v>320</v>
       </c>
-      <c r="AA40" s="105"/>
+      <c r="AA40" s="103"/>
     </row>
     <row r="41" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="73">
+      <c r="D41" s="71">
         <v>1</v>
       </c>
       <c r="E41" s="6">
         <v>45292</v>
       </c>
-      <c r="F41" s="114">
+      <c r="F41" s="112">
         <v>400</v>
       </c>
-      <c r="I41" s="131" t="s">
+      <c r="I41" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="J41" s="143"/>
-      <c r="P41" s="274" t="s">
+      <c r="J41" s="141"/>
+      <c r="P41" s="270" t="s">
         <v>108</v>
       </c>
-      <c r="Q41" s="299"/>
-      <c r="R41" s="276"/>
-      <c r="T41" s="93" t="s">
+      <c r="Q41" s="295"/>
+      <c r="R41" s="272"/>
+      <c r="T41" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="U41" s="101" t="s">
+      <c r="U41" s="99" t="s">
         <v>323</v>
       </c>
-      <c r="V41" s="95">
+      <c r="V41" s="93">
         <v>31</v>
       </c>
-      <c r="W41" s="102" t="s">
+      <c r="W41" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="Y41" s="103">
+      <c r="Y41" s="101">
         <v>30</v>
       </c>
-      <c r="Z41" s="135" t="s">
+      <c r="Z41" s="133" t="s">
         <v>324</v>
       </c>
-      <c r="AA41" s="105"/>
+      <c r="AA41" s="103"/>
     </row>
     <row r="42" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="73">
+      <c r="D42" s="71">
         <v>2</v>
       </c>
       <c r="E42" s="6">
         <v>44927</v>
       </c>
-      <c r="F42" s="114">
+      <c r="F42" s="112">
         <v>200</v>
       </c>
-      <c r="I42" s="124" t="s">
+      <c r="I42" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="139"/>
-      <c r="P42" s="285" t="s">
+      <c r="J42" s="137"/>
+      <c r="P42" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="Q42" s="286"/>
-      <c r="R42" s="287"/>
-      <c r="T42" s="93" t="s">
+      <c r="Q42" s="282"/>
+      <c r="R42" s="283"/>
+      <c r="T42" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="U42" s="94" t="s">
+      <c r="U42" s="92" t="s">
         <v>326</v>
       </c>
-      <c r="V42" s="95">
+      <c r="V42" s="93">
         <v>32</v>
       </c>
-      <c r="W42" s="96" t="s">
+      <c r="W42" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="Y42" s="103">
+      <c r="Y42" s="101">
         <v>31</v>
       </c>
-      <c r="Z42" s="135" t="s">
+      <c r="Z42" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="AA42" s="105"/>
+      <c r="AA42" s="103"/>
     </row>
     <row r="43" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="73">
+      <c r="D43" s="71">
         <v>2</v>
       </c>
       <c r="E43" s="6">
         <v>45292</v>
       </c>
-      <c r="F43" s="114">
+      <c r="F43" s="112">
         <v>225</v>
       </c>
-      <c r="I43" s="131" t="s">
+      <c r="I43" s="129" t="s">
         <v>327</v>
       </c>
-      <c r="J43" s="143"/>
-      <c r="T43" s="93" t="s">
+      <c r="J43" s="141"/>
+      <c r="T43" s="91" t="s">
         <v>328</v>
       </c>
-      <c r="U43" s="101" t="s">
+      <c r="U43" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="V43" s="95">
+      <c r="V43" s="93">
         <v>33</v>
       </c>
-      <c r="W43" s="102" t="s">
+      <c r="W43" s="100" t="s">
         <v>330</v>
       </c>
-      <c r="Y43" s="103">
+      <c r="Y43" s="101">
         <v>32</v>
       </c>
-      <c r="Z43" s="135" t="s">
+      <c r="Z43" s="133" t="s">
         <v>331</v>
       </c>
-      <c r="AA43" s="105"/>
+      <c r="AA43" s="103"/>
     </row>
     <row r="44" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="73">
+      <c r="D44" s="71">
         <v>3</v>
       </c>
       <c r="E44" s="6">
         <v>44927</v>
       </c>
-      <c r="F44" s="114">
+      <c r="F44" s="112">
         <v>100</v>
       </c>
-      <c r="I44" s="124" t="s">
+      <c r="I44" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="J44" s="139" t="str">
+      <c r="J44" s="137" t="str">
         <f>CHAR(252)</f>
         <v>ü</v>
       </c>
-      <c r="T44" s="93" t="s">
+      <c r="T44" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="U44" s="94" t="s">
+      <c r="U44" s="92" t="s">
         <v>333</v>
       </c>
-      <c r="V44" s="95">
+      <c r="V44" s="93">
         <v>34</v>
       </c>
-      <c r="W44" s="96" t="s">
+      <c r="W44" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="Y44" s="103">
+      <c r="Y44" s="101">
         <v>33</v>
       </c>
-      <c r="Z44" s="135" t="s">
+      <c r="Z44" s="133" t="s">
         <v>334</v>
       </c>
-      <c r="AA44" s="105"/>
+      <c r="AA44" s="103"/>
     </row>
     <row r="45" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="73">
+      <c r="D45" s="71">
         <v>3</v>
       </c>
       <c r="E45" s="6">
         <v>45292</v>
       </c>
-      <c r="F45" s="114">
+      <c r="F45" s="112">
         <v>115</v>
       </c>
-      <c r="I45" s="132"/>
-      <c r="J45" s="153"/>
-      <c r="T45" s="93" t="s">
+      <c r="I45" s="130"/>
+      <c r="J45" s="151"/>
+      <c r="T45" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="U45" s="101" t="s">
+      <c r="U45" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="V45" s="95">
+      <c r="V45" s="93">
         <v>35</v>
       </c>
-      <c r="W45" s="102" t="s">
+      <c r="W45" s="100" t="s">
         <v>330</v>
       </c>
-      <c r="Y45" s="103">
+      <c r="Y45" s="101">
         <v>34</v>
       </c>
-      <c r="Z45" s="135" t="s">
+      <c r="Z45" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="AA45" s="105"/>
+      <c r="AA45" s="103"/>
     </row>
     <row r="46" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="73">
+      <c r="D46" s="71">
         <v>4</v>
       </c>
       <c r="E46" s="6">
         <v>44927</v>
       </c>
-      <c r="F46" s="114">
+      <c r="F46" s="112">
         <v>200</v>
       </c>
-      <c r="T46" s="93" t="s">
+      <c r="T46" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="U46" s="94" t="s">
+      <c r="U46" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="V46" s="95">
+      <c r="V46" s="93">
         <v>36</v>
       </c>
-      <c r="W46" s="96" t="s">
+      <c r="W46" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="Y46" s="103">
+      <c r="Y46" s="101">
         <v>35</v>
       </c>
-      <c r="Z46" s="104" t="s">
+      <c r="Z46" s="102" t="s">
         <v>337</v>
       </c>
-      <c r="AA46" s="105" t="s">
+      <c r="AA46" s="103" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="47" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="73">
+      <c r="D47" s="71">
         <v>4</v>
       </c>
       <c r="E47" s="6">
         <v>45292</v>
       </c>
-      <c r="F47" s="114">
+      <c r="F47" s="112">
         <v>225</v>
       </c>
-      <c r="T47" s="93" t="s">
+      <c r="T47" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="U47" s="101" t="s">
+      <c r="U47" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="V47" s="95">
+      <c r="V47" s="93">
         <v>37</v>
       </c>
-      <c r="W47" s="102" t="s">
+      <c r="W47" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="Y47" s="103">
+      <c r="Y47" s="101">
         <v>36</v>
       </c>
-      <c r="Z47" s="104" t="s">
+      <c r="Z47" s="102" t="s">
         <v>339</v>
       </c>
-      <c r="AA47" s="105"/>
+      <c r="AA47" s="103"/>
     </row>
     <row r="48" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="F48" s="126"/>
-      <c r="I48" s="269" t="s">
+      <c r="F48" s="124"/>
+      <c r="I48" s="265" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="270"/>
-      <c r="P48" s="305" t="s">
+      <c r="J48" s="266"/>
+      <c r="P48" s="301" t="s">
         <v>312</v>
       </c>
-      <c r="Q48" s="306"/>
-      <c r="R48" s="307"/>
-      <c r="T48" s="93" t="s">
+      <c r="Q48" s="302"/>
+      <c r="R48" s="303"/>
+      <c r="T48" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="U48" s="94" t="s">
+      <c r="U48" s="92" t="s">
         <v>342</v>
       </c>
-      <c r="V48" s="95">
+      <c r="V48" s="93">
         <v>38</v>
       </c>
-      <c r="W48" s="96" t="s">
+      <c r="W48" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="Y48" s="103">
+      <c r="Y48" s="101">
         <v>37</v>
       </c>
-      <c r="Z48" s="104" t="s">
+      <c r="Z48" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="AA48" s="105"/>
+      <c r="AA48" s="103"/>
     </row>
     <row r="49" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F49" s="126"/>
-      <c r="I49" s="274" t="s">
+      <c r="F49" s="124"/>
+      <c r="I49" s="270" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="276"/>
-      <c r="P49" s="136" t="s">
+      <c r="J49" s="272"/>
+      <c r="P49" s="134" t="s">
         <v>315</v>
       </c>
-      <c r="Q49" s="137" t="s">
+      <c r="Q49" s="135" t="s">
         <v>316</v>
       </c>
-      <c r="R49" s="138" t="s">
+      <c r="R49" s="136" t="s">
         <v>313</v>
       </c>
-      <c r="T49" s="93" t="s">
+      <c r="T49" s="91" t="s">
         <v>343</v>
       </c>
-      <c r="U49" s="101" t="s">
+      <c r="U49" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="V49" s="95">
+      <c r="V49" s="93">
         <v>39</v>
       </c>
-      <c r="W49" s="102" t="s">
+      <c r="W49" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="Y49" s="103">
+      <c r="Y49" s="101">
         <v>38</v>
       </c>
-      <c r="Z49" s="104" t="s">
+      <c r="Z49" s="102" t="s">
         <v>345</v>
       </c>
-      <c r="AA49" s="105"/>
+      <c r="AA49" s="103"/>
     </row>
     <row r="50" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F50" s="126"/>
-      <c r="I50" s="281" t="s">
+      <c r="F50" s="124"/>
+      <c r="I50" s="277" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="282"/>
-      <c r="P50" s="140" t="s">
+      <c r="J50" s="278"/>
+      <c r="P50" s="138" t="s">
         <v>321</v>
       </c>
-      <c r="Q50" s="141">
+      <c r="Q50" s="139">
         <v>0</v>
       </c>
-      <c r="R50" s="142"/>
-      <c r="T50" s="93" t="s">
+      <c r="R50" s="140"/>
+      <c r="T50" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="U50" s="94" t="s">
+      <c r="U50" s="92" t="s">
         <v>346</v>
       </c>
-      <c r="V50" s="95">
+      <c r="V50" s="93">
         <v>40</v>
       </c>
-      <c r="W50" s="96" t="s">
+      <c r="W50" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="Y50" s="103">
+      <c r="Y50" s="101">
         <v>39</v>
       </c>
-      <c r="Z50" s="104" t="s">
+      <c r="Z50" s="102" t="s">
         <v>347</v>
       </c>
-      <c r="AA50" s="105" t="s">
+      <c r="AA50" s="103" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="51" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="126"/>
-      <c r="I51" s="274" t="s">
+      <c r="F51" s="124"/>
+      <c r="I51" s="270" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="276"/>
-      <c r="P51" s="144" t="s">
+      <c r="J51" s="272"/>
+      <c r="P51" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="Q51" s="145">
+      <c r="Q51" s="143">
         <v>15</v>
       </c>
-      <c r="R51" s="146"/>
-      <c r="T51" s="93" t="s">
+      <c r="R51" s="144"/>
+      <c r="T51" s="91" t="s">
         <v>349</v>
       </c>
-      <c r="U51" s="101" t="s">
+      <c r="U51" s="99" t="s">
         <v>350</v>
       </c>
-      <c r="V51" s="95">
+      <c r="V51" s="93">
         <v>41</v>
       </c>
-      <c r="W51" s="102" t="s">
+      <c r="W51" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="Y51" s="154">
+      <c r="Y51" s="152">
         <v>40</v>
       </c>
-      <c r="Z51" s="155" t="s">
+      <c r="Z51" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="AA51" s="156"/>
+      <c r="AA51" s="154"/>
     </row>
     <row r="52" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F52" s="126"/>
-      <c r="I52" s="281" t="s">
+      <c r="F52" s="124"/>
+      <c r="I52" s="277" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="282"/>
-      <c r="P52" s="147" t="s">
+      <c r="J52" s="278"/>
+      <c r="P52" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="Q52" s="148">
+      <c r="Q52" s="146">
         <v>30</v>
       </c>
-      <c r="R52" s="149"/>
-      <c r="T52" s="93" t="s">
+      <c r="R52" s="147"/>
+      <c r="T52" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="U52" s="94" t="s">
+      <c r="U52" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="V52" s="95">
+      <c r="V52" s="93">
         <v>42</v>
       </c>
-      <c r="W52" s="96" t="s">
+      <c r="W52" s="94" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="53" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F53" s="126"/>
-      <c r="I53" s="274" t="s">
+      <c r="F53" s="124"/>
+      <c r="I53" s="270" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="276"/>
-      <c r="P53" s="144" t="s">
+      <c r="J53" s="272"/>
+      <c r="P53" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="Q53" s="145">
+      <c r="Q53" s="143">
         <v>60</v>
       </c>
-      <c r="R53" s="146"/>
-      <c r="T53" s="93" t="s">
+      <c r="R53" s="144"/>
+      <c r="T53" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="U53" s="101" t="s">
+      <c r="U53" s="99" t="s">
         <v>354</v>
       </c>
-      <c r="V53" s="95">
+      <c r="V53" s="93">
         <v>43</v>
       </c>
-      <c r="W53" s="102" t="s">
+      <c r="W53" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="54" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="126"/>
-      <c r="I54" s="127" t="s">
+      <c r="F54" s="124"/>
+      <c r="I54" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="J54" s="129"/>
-      <c r="P54" s="150"/>
-      <c r="Q54" s="151"/>
-      <c r="R54" s="152"/>
-      <c r="T54" s="93" t="s">
+      <c r="J54" s="127"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="149"/>
+      <c r="R54" s="150"/>
+      <c r="T54" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="U54" s="94" t="s">
+      <c r="U54" s="92" t="s">
         <v>357</v>
       </c>
-      <c r="V54" s="95">
+      <c r="V54" s="93">
         <v>44</v>
       </c>
-      <c r="W54" s="96" t="s">
+      <c r="W54" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="55" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F55" s="126"/>
-      <c r="I55" s="281" t="s">
+      <c r="F55" s="124"/>
+      <c r="I55" s="277" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="282"/>
-      <c r="T55" s="93" t="s">
+      <c r="J55" s="278"/>
+      <c r="T55" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="U55" s="101" t="s">
+      <c r="U55" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="V55" s="95">
+      <c r="V55" s="93">
         <v>45</v>
       </c>
-      <c r="W55" s="102" t="s">
+      <c r="W55" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="56" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F56" s="126"/>
-      <c r="I56" s="300" t="s">
+      <c r="F56" s="124"/>
+      <c r="I56" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="301"/>
-      <c r="T56" s="93" t="s">
+      <c r="J56" s="297"/>
+      <c r="T56" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="U56" s="94" t="s">
+      <c r="U56" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="95">
+      <c r="V56" s="93">
         <v>46</v>
       </c>
-      <c r="W56" s="96" t="s">
+      <c r="W56" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="57" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F57" s="126"/>
-      <c r="T57" s="93" t="s">
+      <c r="F57" s="124"/>
+      <c r="T57" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="U57" s="101" t="s">
+      <c r="U57" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="V57" s="95">
+      <c r="V57" s="93">
         <v>47</v>
       </c>
-      <c r="W57" s="102" t="s">
+      <c r="W57" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="58" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F58" s="126"/>
-      <c r="T58" s="93" t="s">
+      <c r="F58" s="124"/>
+      <c r="T58" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="U58" s="94" t="s">
+      <c r="U58" s="92" t="s">
         <v>360</v>
       </c>
-      <c r="V58" s="95">
+      <c r="V58" s="93">
         <v>48</v>
       </c>
-      <c r="W58" s="96" t="s">
+      <c r="W58" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="59" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F59" s="126"/>
-      <c r="T59" s="93" t="s">
+      <c r="F59" s="124"/>
+      <c r="T59" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="U59" s="101" t="s">
+      <c r="U59" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="V59" s="95">
+      <c r="V59" s="93">
         <v>49</v>
       </c>
-      <c r="W59" s="102" t="s">
+      <c r="W59" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="60" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F60" s="126"/>
-      <c r="T60" s="93" t="s">
+      <c r="F60" s="124"/>
+      <c r="T60" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="U60" s="94" t="s">
+      <c r="U60" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="V60" s="95">
+      <c r="V60" s="93">
         <v>50</v>
       </c>
-      <c r="W60" s="96" t="s">
+      <c r="W60" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="61" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F61" s="126"/>
-      <c r="T61" s="93" t="s">
+      <c r="F61" s="124"/>
+      <c r="T61" s="91" t="s">
         <v>361</v>
       </c>
-      <c r="U61" s="101" t="s">
+      <c r="U61" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="V61" s="95">
+      <c r="V61" s="93">
         <v>66</v>
       </c>
-      <c r="W61" s="102" t="s">
+      <c r="W61" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="62" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F62" s="126"/>
-      <c r="T62" s="93" t="s">
+      <c r="F62" s="124"/>
+      <c r="T62" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="U62" s="94" t="s">
+      <c r="U62" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="V62" s="95">
+      <c r="V62" s="93">
         <v>51</v>
       </c>
-      <c r="W62" s="96" t="s">
+      <c r="W62" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="63" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F63" s="126"/>
-      <c r="T63" s="93" t="s">
+      <c r="F63" s="124"/>
+      <c r="T63" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="U63" s="101" t="s">
+      <c r="U63" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="V63" s="95">
+      <c r="V63" s="93">
         <v>52</v>
       </c>
-      <c r="W63" s="102" t="s">
+      <c r="W63" s="100" t="s">
         <v>355</v>
       </c>
       <c r="Z63" s="14"/>
     </row>
     <row r="64" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F64" s="126"/>
-      <c r="T64" s="93" t="s">
+      <c r="F64" s="124"/>
+      <c r="T64" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="U64" s="94" t="s">
+      <c r="U64" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="V64" s="95">
+      <c r="V64" s="93">
         <v>62</v>
       </c>
-      <c r="W64" s="96" t="s">
+      <c r="W64" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="65" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="F65" s="126"/>
-      <c r="T65" s="93" t="s">
+      <c r="F65" s="124"/>
+      <c r="T65" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="U65" s="101" t="s">
+      <c r="U65" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="V65" s="95">
+      <c r="V65" s="93">
         <v>53</v>
       </c>
-      <c r="W65" s="102" t="s">
+      <c r="W65" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="66" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="F66" s="126"/>
-      <c r="T66" s="93" t="s">
+      <c r="F66" s="124"/>
+      <c r="T66" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="U66" s="94" t="s">
+      <c r="U66" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="V66" s="95">
+      <c r="V66" s="93">
         <v>54</v>
       </c>
-      <c r="W66" s="96" t="s">
+      <c r="W66" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="67" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="F67" s="126"/>
-      <c r="T67" s="93" t="s">
+      <c r="F67" s="124"/>
+      <c r="T67" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="U67" s="101" t="s">
+      <c r="U67" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="V67" s="95">
+      <c r="V67" s="93">
         <v>55</v>
       </c>
-      <c r="W67" s="102" t="s">
+      <c r="W67" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="68" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="F68" s="126"/>
-      <c r="T68" s="93" t="s">
+      <c r="F68" s="124"/>
+      <c r="T68" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="U68" s="94" t="s">
+      <c r="U68" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="V68" s="95">
+      <c r="V68" s="93">
         <v>56</v>
       </c>
-      <c r="W68" s="96" t="s">
+      <c r="W68" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="69" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="T69" s="93" t="s">
+      <c r="T69" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="U69" s="101" t="s">
+      <c r="U69" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="V69" s="95">
+      <c r="V69" s="93">
         <v>57</v>
       </c>
-      <c r="W69" s="102" t="s">
+      <c r="W69" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="70" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="T70" s="93" t="s">
+      <c r="T70" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="U70" s="94" t="s">
+      <c r="U70" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="V70" s="95">
+      <c r="V70" s="93">
         <v>58</v>
       </c>
-      <c r="W70" s="96" t="s">
+      <c r="W70" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="71" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="T71" s="93" t="s">
+      <c r="T71" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="U71" s="101" t="s">
+      <c r="U71" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="V71" s="95">
+      <c r="V71" s="93">
         <v>59</v>
       </c>
-      <c r="W71" s="102" t="s">
+      <c r="W71" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="72" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="T72" s="93" t="s">
+      <c r="T72" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="U72" s="94" t="s">
+      <c r="U72" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="V72" s="95">
+      <c r="V72" s="93">
         <v>60</v>
       </c>
-      <c r="W72" s="96" t="s">
+      <c r="W72" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="73" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T73" s="93" t="s">
+      <c r="T73" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="U73" s="101" t="s">
+      <c r="U73" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="V73" s="95">
+      <c r="V73" s="93">
         <v>63</v>
       </c>
-      <c r="W73" s="102" t="s">
+      <c r="W73" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="74" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="251" t="s">
+      <c r="D74" s="247" t="s">
         <v>340</v>
       </c>
-      <c r="E74" s="252"/>
-      <c r="F74" s="253"/>
-      <c r="T74" s="93" t="s">
+      <c r="E74" s="248"/>
+      <c r="F74" s="249"/>
+      <c r="T74" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="U74" s="94" t="s">
+      <c r="U74" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="V74" s="95">
+      <c r="V74" s="93">
         <v>64</v>
       </c>
-      <c r="W74" s="96" t="s">
+      <c r="W74" s="94" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="75" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D75" s="288" t="s">
+      <c r="D75" s="284" t="s">
         <v>243</v>
       </c>
-      <c r="E75" s="289"/>
-      <c r="F75" s="290"/>
-      <c r="T75" s="93" t="s">
+      <c r="E75" s="285"/>
+      <c r="F75" s="286"/>
+      <c r="T75" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="U75" s="101" t="s">
+      <c r="U75" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="V75" s="95">
+      <c r="V75" s="93">
         <v>65</v>
       </c>
-      <c r="W75" s="102" t="s">
+      <c r="W75" s="100" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="76" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="308">
+      <c r="D76" s="304">
         <v>350</v>
       </c>
-      <c r="E76" s="309"/>
-      <c r="F76" s="310"/>
-      <c r="T76" s="93" t="s">
+      <c r="E76" s="305"/>
+      <c r="F76" s="306"/>
+      <c r="T76" s="91" t="s">
         <v>366</v>
       </c>
-      <c r="U76" s="94" t="s">
+      <c r="U76" s="92" t="s">
         <v>367</v>
       </c>
-      <c r="V76" s="95">
+      <c r="V76" s="93">
         <v>61</v>
       </c>
-      <c r="W76" s="96" t="s">
+      <c r="W76" s="94" t="s">
         <v>355</v>
       </c>
     </row>
@@ -12675,44 +13208,44 @@
     <mergeCell ref="R4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:G30">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>AND($D11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P21">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R20">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:W78">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AA51">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND($Y12&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12765,60 +13298,60 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="166" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="164" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="10.7109375" style="167" customWidth="1"/>
+    <col min="9" max="13" width="10.7109375" style="165" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="162" t="s">
+      <c r="D1" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="161" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="162" t="s">
+      <c r="G1" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="164" t="s">
+      <c r="H1" s="162" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="165" t="s">
+      <c r="I1" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="165" t="s">
+      <c r="J1" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="165" t="s">
+      <c r="K1" s="163" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="165" t="s">
+      <c r="L1" s="163" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="165" t="s">
+      <c r="M1" s="163" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M9987">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12849,56 +13382,56 @@
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" style="158" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="156" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="157" t="s">
+      <c r="P1" s="155" t="s">
         <v>141</v>
       </c>
     </row>
@@ -12906,7 +13439,7 @@
   <autoFilter ref="A1:P1" xr:uid="{BF285A66-D32A-4C2D-BAAD-5B60B0034FFF}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:P9924">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12962,7 +13495,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:F9929">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13015,7 +13548,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{9CC0F112-F6F5-4729-8EA4-252A1080634A}"/>
   <conditionalFormatting sqref="A2:F99947">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13037,47 +13570,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="36" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13085,7 +13618,7 @@
   <autoFilter ref="A1:J1" xr:uid="{6A0BDE8C-C0CD-4E75-A0A0-916CFADCF838}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J99796">
-    <cfRule type="expression" dxfId="8" priority="49">
+    <cfRule type="expression" dxfId="10" priority="49">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13133,7 +13666,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="200" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -13203,7 +13736,7 @@
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{8B45F79E-24DF-4598-AC35-A20900C36411}"/>
   <conditionalFormatting sqref="A2:V9826">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13255,7 +13788,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F9557">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -12109,11 +12109,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="wshTEC_Local"/>
-  <dimension ref="A1:P262"/>
+  <dimension ref="A1:P264"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0" rightToLeft="false">
       <pane ySplit="570" topLeftCell="A236" activePane="bottomLeft"/>
       <selection activeCell="K1" sqref="K1:K1048576"/>
       <selection pane="bottomLeft" activeCell="K246" sqref="K246"/>
@@ -12139,7 +12139,7 @@
     <col min="16" max="16" width="11.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row spans="1:16" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="244">
         <v>1</v>
       </c>
@@ -12233,7 +12233,7 @@
       </c>
       <c r="P2" s="252"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" s="244">
         <v>2</v>
       </c>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="P3" s="252"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" s="244">
         <v>3</v>
       </c>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="P4" s="252"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" s="244">
         <v>4</v>
       </c>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="P5" s="252"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" s="244">
         <v>5</v>
       </c>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="P6" s="252"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7" s="244">
         <v>6</v>
       </c>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="P7" s="252"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8" s="244">
         <v>7</v>
       </c>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="P8" s="252"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9" s="244">
         <v>8</v>
       </c>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="P9" s="252"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
       <c r="A10" s="244">
         <v>9</v>
       </c>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="P10" s="252"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
       <c r="A11" s="244">
         <v>10</v>
       </c>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="P11" s="252"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
       <c r="A12" s="244">
         <v>11</v>
       </c>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="P12" s="252"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
       <c r="A13" s="244">
         <v>12</v>
       </c>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="P13" s="252"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
       <c r="A14" s="244">
         <v>13</v>
       </c>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="P14" s="252"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
       <c r="A15" s="244">
         <v>14</v>
       </c>
@@ -12805,7 +12805,7 @@
       </c>
       <c r="P15" s="252"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
       <c r="A16" s="244">
         <v>15</v>
       </c>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="P16" s="252"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
       <c r="A17" s="244">
         <v>16</v>
       </c>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="P17" s="252"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
       <c r="A18" s="244">
         <v>17</v>
       </c>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="P18" s="252"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
       <c r="A19" s="244">
         <v>18</v>
       </c>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="P19" s="252"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
       <c r="A20" s="244">
         <v>19</v>
       </c>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="P20" s="252"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
       <c r="A21" s="244">
         <v>20</v>
       </c>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="P21" s="252"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
       <c r="A22" s="244">
         <v>21</v>
       </c>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="P22" s="252"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
       <c r="A23" s="244">
         <v>22</v>
       </c>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="P23" s="252"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
       <c r="A24" s="244">
         <v>23</v>
       </c>
@@ -13201,7 +13201,7 @@
       </c>
       <c r="P24" s="252"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
       <c r="A25" s="244">
         <v>24</v>
       </c>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="P25" s="252"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="26">
       <c r="A26" s="244">
         <v>25</v>
       </c>
@@ -13289,7 +13289,7 @@
       </c>
       <c r="P26" s="252"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="27">
       <c r="A27" s="244">
         <v>26</v>
       </c>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="P27" s="252"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="28">
       <c r="A28" s="244">
         <v>27</v>
       </c>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="P28" s="252"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="29">
       <c r="A29" s="244">
         <v>28</v>
       </c>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="P29" s="252"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="30">
       <c r="A30" s="244">
         <v>29</v>
       </c>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="P30" s="252"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="31">
       <c r="A31" s="244">
         <v>30</v>
       </c>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="P31" s="252"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="32">
       <c r="A32" s="244">
         <v>31</v>
       </c>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="P32" s="252"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="33">
       <c r="A33" s="244">
         <v>32</v>
       </c>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="P33" s="252"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="34">
       <c r="A34" s="244">
         <v>33</v>
       </c>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="P34" s="252"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="35">
       <c r="A35" s="244">
         <v>34</v>
       </c>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="P35" s="252"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="36">
       <c r="A36" s="244">
         <v>35</v>
       </c>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="P36" s="252"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="37">
       <c r="A37" s="244">
         <v>36</v>
       </c>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="P37" s="252"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="38">
       <c r="A38" s="244">
         <v>37</v>
       </c>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="P38" s="252"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="39">
       <c r="A39" s="244">
         <v>38</v>
       </c>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="P39" s="252"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="40">
       <c r="A40" s="244">
         <v>39</v>
       </c>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="P40" s="252"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="41">
       <c r="A41" s="244">
         <v>40</v>
       </c>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="P41" s="252"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="42">
       <c r="A42" s="244">
         <v>41</v>
       </c>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="P42" s="252"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="43">
       <c r="A43" s="244">
         <v>42</v>
       </c>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="P43" s="252"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="44">
       <c r="A44" s="244">
         <v>43</v>
       </c>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="P44" s="252"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="45">
       <c r="A45" s="244">
         <v>44</v>
       </c>
@@ -14125,7 +14125,7 @@
       </c>
       <c r="P45" s="252"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="46">
       <c r="A46" s="244">
         <v>45</v>
       </c>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="P46" s="252"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="47">
       <c r="A47" s="244">
         <v>46</v>
       </c>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="P47" s="252"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="48">
       <c r="A48" s="244">
         <v>47</v>
       </c>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="P48" s="252"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="49">
       <c r="A49" s="244">
         <v>48</v>
       </c>
@@ -14301,7 +14301,7 @@
       </c>
       <c r="P49" s="252"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="50">
       <c r="A50" s="244">
         <v>49</v>
       </c>
@@ -14345,7 +14345,7 @@
       </c>
       <c r="P50" s="252"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="51">
       <c r="A51" s="244">
         <v>50</v>
       </c>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="P51" s="252"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="52">
       <c r="A52" s="244">
         <v>51</v>
       </c>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="P52" s="252"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="53">
       <c r="A53" s="244">
         <v>52</v>
       </c>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="P53" s="252"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="54">
       <c r="A54" s="244">
         <v>53</v>
       </c>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="P54" s="252"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="55">
       <c r="A55" s="244">
         <v>54</v>
       </c>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="P55" s="252"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="56">
       <c r="A56" s="244">
         <v>55</v>
       </c>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="P56" s="252"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="57">
       <c r="A57" s="244">
         <v>56</v>
       </c>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="P57" s="252"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="58">
       <c r="A58" s="244">
         <v>57</v>
       </c>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="P58" s="252"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="59">
       <c r="A59" s="244">
         <v>58</v>
       </c>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="P59" s="252"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="60">
       <c r="A60" s="244">
         <v>59</v>
       </c>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="P60" s="252"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="61">
       <c r="A61" s="244">
         <v>60</v>
       </c>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="P61" s="252"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="62">
       <c r="A62" s="244">
         <v>61</v>
       </c>
@@ -14873,7 +14873,7 @@
       </c>
       <c r="P62" s="252"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="63">
       <c r="A63" s="244">
         <v>62</v>
       </c>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="P63" s="252"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="64">
       <c r="A64" s="244">
         <v>63</v>
       </c>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="P64" s="252"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="65">
       <c r="A65" s="244">
         <v>64</v>
       </c>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="P65" s="252"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="66">
       <c r="A66" s="244">
         <v>65</v>
       </c>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="P66" s="252"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="67">
       <c r="A67" s="244">
         <v>66</v>
       </c>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="P67" s="252"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="68">
       <c r="A68" s="244">
         <v>67</v>
       </c>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="P68" s="252"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="69">
       <c r="A69" s="244">
         <v>68</v>
       </c>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="P69" s="252"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="70">
       <c r="A70" s="244">
         <v>69</v>
       </c>
@@ -15225,7 +15225,7 @@
       </c>
       <c r="P70" s="252"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="71">
       <c r="A71" s="244">
         <v>70</v>
       </c>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="P71" s="252"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="72">
       <c r="A72" s="244">
         <v>71</v>
       </c>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="P72" s="252"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="73">
       <c r="A73" s="244">
         <v>72</v>
       </c>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="P73" s="252"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="74">
       <c r="A74" s="244">
         <v>73</v>
       </c>
@@ -15401,7 +15401,7 @@
       </c>
       <c r="P74" s="252"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="75">
       <c r="A75" s="244">
         <v>74</v>
       </c>
@@ -15445,7 +15445,7 @@
       </c>
       <c r="P75" s="252"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="76">
       <c r="A76" s="244">
         <v>75</v>
       </c>
@@ -15489,7 +15489,7 @@
       </c>
       <c r="P76" s="252"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="77">
       <c r="A77" s="244">
         <v>76</v>
       </c>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="P77" s="252"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="78">
       <c r="A78" s="244">
         <v>77</v>
       </c>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="P78" s="252"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="79">
       <c r="A79" s="244">
         <v>78</v>
       </c>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="P79" s="252"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="80">
       <c r="A80" s="244">
         <v>79</v>
       </c>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="P80" s="252"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="81">
       <c r="A81" s="244">
         <v>80</v>
       </c>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="P81" s="252"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="82">
       <c r="A82" s="244">
         <v>81</v>
       </c>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="P82" s="252"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="83">
       <c r="A83" s="244">
         <v>82</v>
       </c>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="P83" s="252"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="84">
       <c r="A84" s="244">
         <v>83</v>
       </c>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="P84" s="252"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="85">
       <c r="A85" s="244">
         <v>84</v>
       </c>
@@ -15885,7 +15885,7 @@
       </c>
       <c r="P85" s="252"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="86">
       <c r="A86" s="244">
         <v>85</v>
       </c>
@@ -15929,7 +15929,7 @@
       </c>
       <c r="P86" s="252"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="87">
       <c r="A87" s="244">
         <v>86</v>
       </c>
@@ -15973,7 +15973,7 @@
       </c>
       <c r="P87" s="252"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="88">
       <c r="A88" s="244">
         <v>87</v>
       </c>
@@ -16017,7 +16017,7 @@
       </c>
       <c r="P88" s="252"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="89">
       <c r="A89" s="244">
         <v>88</v>
       </c>
@@ -16061,7 +16061,7 @@
       </c>
       <c r="P89" s="252"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="90">
       <c r="A90" s="244">
         <v>89</v>
       </c>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="P90" s="252"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="91">
       <c r="A91" s="244">
         <v>90</v>
       </c>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="P91" s="252"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="92">
       <c r="A92" s="244">
         <v>91</v>
       </c>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="P92" s="252"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="93">
       <c r="A93" s="244">
         <v>92</v>
       </c>
@@ -16237,7 +16237,7 @@
       </c>
       <c r="P93" s="252"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="94">
       <c r="A94" s="244">
         <v>93</v>
       </c>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="P94" s="252"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="95">
       <c r="A95" s="244">
         <v>94</v>
       </c>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="P95" s="252"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="96">
       <c r="A96" s="244">
         <v>95</v>
       </c>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="P96" s="252"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="97">
       <c r="A97" s="244">
         <v>96</v>
       </c>
@@ -16413,7 +16413,7 @@
       </c>
       <c r="P97" s="252"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="98">
       <c r="A98" s="244">
         <v>97</v>
       </c>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="P98" s="252"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="99">
       <c r="A99" s="244">
         <v>98</v>
       </c>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="P99" s="252"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="100">
       <c r="A100" s="244">
         <v>99</v>
       </c>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="P100" s="252"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="101">
       <c r="A101" s="244">
         <v>100</v>
       </c>
@@ -16589,7 +16589,7 @@
       </c>
       <c r="P101" s="252"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="102">
       <c r="A102" s="244">
         <v>101</v>
       </c>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="P102" s="252"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="103">
       <c r="A103" s="244">
         <v>102</v>
       </c>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="P103" s="252"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="104">
       <c r="A104" s="244">
         <v>103</v>
       </c>
@@ -16721,7 +16721,7 @@
       </c>
       <c r="P104" s="252"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="105">
       <c r="A105" s="244">
         <v>104</v>
       </c>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="P105" s="252"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="106">
       <c r="A106" s="244">
         <v>105</v>
       </c>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="P106" s="252"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="107">
       <c r="A107" s="244">
         <v>106</v>
       </c>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="P107" s="252"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="108">
       <c r="A108" s="244">
         <v>107</v>
       </c>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="P108" s="252"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="109">
       <c r="A109" s="244">
         <v>108</v>
       </c>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="P109" s="252"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="110">
       <c r="A110" s="244">
         <v>109</v>
       </c>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="P110" s="252"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="111">
       <c r="A111" s="244">
         <v>110</v>
       </c>
@@ -17029,7 +17029,7 @@
       </c>
       <c r="P111" s="252"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="112">
       <c r="A112" s="244">
         <v>111</v>
       </c>
@@ -17073,7 +17073,7 @@
       </c>
       <c r="P112" s="252"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="113">
       <c r="A113" s="244">
         <v>112</v>
       </c>
@@ -17117,7 +17117,7 @@
       </c>
       <c r="P113" s="252"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="114">
       <c r="A114" s="244">
         <v>113</v>
       </c>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="P114" s="252"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="115">
       <c r="A115" s="244">
         <v>114</v>
       </c>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="P115" s="252"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="116">
       <c r="A116" s="244">
         <v>115</v>
       </c>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="P116" s="252"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="117">
       <c r="A117" s="244">
         <v>116</v>
       </c>
@@ -17293,7 +17293,7 @@
       </c>
       <c r="P117" s="252"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="118">
       <c r="A118" s="244">
         <v>117</v>
       </c>
@@ -17337,7 +17337,7 @@
       </c>
       <c r="P118" s="252"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="119">
       <c r="A119" s="244">
         <v>118</v>
       </c>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="P119" s="252"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="120">
       <c r="A120" s="244">
         <v>119</v>
       </c>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="P120" s="252"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="121">
       <c r="A121" s="244">
         <v>120</v>
       </c>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="P121" s="252"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="122">
       <c r="A122" s="244">
         <v>121</v>
       </c>
@@ -17513,7 +17513,7 @@
       </c>
       <c r="P122" s="252"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="123">
       <c r="A123" s="244">
         <v>122</v>
       </c>
@@ -17557,7 +17557,7 @@
       </c>
       <c r="P123" s="252"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="124">
       <c r="A124" s="244">
         <v>123</v>
       </c>
@@ -17601,7 +17601,7 @@
       </c>
       <c r="P124" s="252"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="125">
       <c r="A125" s="244">
         <v>124</v>
       </c>
@@ -17645,7 +17645,7 @@
       </c>
       <c r="P125" s="252"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="126">
       <c r="A126" s="244">
         <v>125</v>
       </c>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="P126" s="252"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="127">
       <c r="A127" s="244">
         <v>126</v>
       </c>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="P127" s="252"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="128">
       <c r="A128" s="244">
         <v>127</v>
       </c>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="P128" s="252"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="129">
       <c r="A129" s="244">
         <v>128</v>
       </c>
@@ -17821,7 +17821,7 @@
       </c>
       <c r="P129" s="252"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="130">
       <c r="A130" s="244">
         <v>129</v>
       </c>
@@ -17865,7 +17865,7 @@
       </c>
       <c r="P130" s="252"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="131">
       <c r="A131" s="244">
         <v>130</v>
       </c>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="P131" s="252"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="132">
       <c r="A132" s="244">
         <v>131</v>
       </c>
@@ -17953,7 +17953,7 @@
       </c>
       <c r="P132" s="252"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="133">
       <c r="A133" s="244">
         <v>132</v>
       </c>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="P133" s="252"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="134">
       <c r="A134" s="244">
         <v>133</v>
       </c>
@@ -18041,7 +18041,7 @@
       </c>
       <c r="P134" s="252"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="135">
       <c r="A135" s="244">
         <v>134</v>
       </c>
@@ -18085,7 +18085,7 @@
       </c>
       <c r="P135" s="252"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="136">
       <c r="A136" s="244">
         <v>135</v>
       </c>
@@ -18129,7 +18129,7 @@
       </c>
       <c r="P136" s="252"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="137">
       <c r="A137" s="244">
         <v>136</v>
       </c>
@@ -18173,7 +18173,7 @@
       </c>
       <c r="P137" s="252"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="138">
       <c r="A138" s="244">
         <v>137</v>
       </c>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="P138" s="252"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="139">
       <c r="A139" s="244">
         <v>138</v>
       </c>
@@ -18261,7 +18261,7 @@
       </c>
       <c r="P139" s="252"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="140">
       <c r="A140" s="244">
         <v>139</v>
       </c>
@@ -18305,7 +18305,7 @@
       </c>
       <c r="P140" s="252"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="141">
       <c r="A141" s="244">
         <v>140</v>
       </c>
@@ -18349,7 +18349,7 @@
       </c>
       <c r="P141" s="252"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="142">
       <c r="A142" s="244">
         <v>141</v>
       </c>
@@ -18393,7 +18393,7 @@
       </c>
       <c r="P142" s="252"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="143">
       <c r="A143" s="244">
         <v>142</v>
       </c>
@@ -18437,7 +18437,7 @@
       </c>
       <c r="P143" s="252"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="144">
       <c r="A144" s="244">
         <v>143</v>
       </c>
@@ -18481,7 +18481,7 @@
       </c>
       <c r="P144" s="252"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="145">
       <c r="A145" s="244">
         <v>144</v>
       </c>
@@ -18525,7 +18525,7 @@
       </c>
       <c r="P145" s="252"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="146">
       <c r="A146" s="244">
         <v>145</v>
       </c>
@@ -18569,7 +18569,7 @@
       </c>
       <c r="P146" s="252"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="147">
       <c r="A147" s="244">
         <v>146</v>
       </c>
@@ -18613,7 +18613,7 @@
       </c>
       <c r="P147" s="252"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="148">
       <c r="A148" s="244">
         <v>147</v>
       </c>
@@ -18657,7 +18657,7 @@
       </c>
       <c r="P148" s="252"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="149">
       <c r="A149" s="244">
         <v>148</v>
       </c>
@@ -18701,7 +18701,7 @@
       </c>
       <c r="P149" s="252"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="150">
       <c r="A150" s="244">
         <v>149</v>
       </c>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="P150" s="252"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="151">
       <c r="A151" s="244">
         <v>150</v>
       </c>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="P151" s="252"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="152">
       <c r="A152" s="244">
         <v>151</v>
       </c>
@@ -18833,7 +18833,7 @@
       </c>
       <c r="P152" s="252"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="153">
       <c r="A153" s="244">
         <v>152</v>
       </c>
@@ -18877,7 +18877,7 @@
       </c>
       <c r="P153" s="252"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="154">
       <c r="A154" s="244">
         <v>153</v>
       </c>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="P154" s="252"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="155">
       <c r="A155" s="244">
         <v>154</v>
       </c>
@@ -18965,7 +18965,7 @@
       </c>
       <c r="P155" s="252"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="156">
       <c r="A156" s="244">
         <v>155</v>
       </c>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="P156" s="252"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="157">
       <c r="A157" s="244">
         <v>156</v>
       </c>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="P157" s="252"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="158">
       <c r="A158" s="244">
         <v>157</v>
       </c>
@@ -19097,7 +19097,7 @@
       </c>
       <c r="P158" s="252"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="159">
       <c r="A159" s="244">
         <v>158</v>
       </c>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="P159" s="252"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="160">
       <c r="A160" s="244">
         <v>159</v>
       </c>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="P160" s="252"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="161">
       <c r="A161" s="244">
         <v>160</v>
       </c>
@@ -19229,7 +19229,7 @@
       </c>
       <c r="P161" s="252"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="162">
       <c r="A162" s="244">
         <v>161</v>
       </c>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="P162" s="252"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="163">
       <c r="A163" s="244">
         <v>162</v>
       </c>
@@ -19317,7 +19317,7 @@
       </c>
       <c r="P163" s="252"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="164">
       <c r="A164" s="244">
         <v>163</v>
       </c>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="P164" s="252"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="165">
       <c r="A165" s="244">
         <v>164</v>
       </c>
@@ -19405,7 +19405,7 @@
       </c>
       <c r="P165" s="252"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="166">
       <c r="A166" s="244">
         <v>165</v>
       </c>
@@ -19449,7 +19449,7 @@
       </c>
       <c r="P166" s="252"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="167">
       <c r="A167" s="244">
         <v>166</v>
       </c>
@@ -19493,7 +19493,7 @@
       </c>
       <c r="P167" s="252"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="168">
       <c r="A168" s="244">
         <v>167</v>
       </c>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="P168" s="252"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="169">
       <c r="A169" s="244">
         <v>168</v>
       </c>
@@ -19581,7 +19581,7 @@
       </c>
       <c r="P169" s="252"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="170">
       <c r="A170" s="244">
         <v>169</v>
       </c>
@@ -19625,7 +19625,7 @@
       </c>
       <c r="P170" s="252"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="171">
       <c r="A171" s="244">
         <v>170</v>
       </c>
@@ -19669,7 +19669,7 @@
       </c>
       <c r="P171" s="252"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="172">
       <c r="A172" s="244">
         <v>171</v>
       </c>
@@ -19713,7 +19713,7 @@
       </c>
       <c r="P172" s="252"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="173">
       <c r="A173" s="244">
         <v>172</v>
       </c>
@@ -19757,7 +19757,7 @@
       </c>
       <c r="P173" s="252"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="174">
       <c r="A174" s="244">
         <v>173</v>
       </c>
@@ -19801,7 +19801,7 @@
       </c>
       <c r="P174" s="252"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="175">
       <c r="A175" s="244">
         <v>174</v>
       </c>
@@ -19845,7 +19845,7 @@
       </c>
       <c r="P175" s="252"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="176">
       <c r="A176" s="244">
         <v>175</v>
       </c>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="P176" s="252"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="177">
       <c r="A177" s="244">
         <v>176</v>
       </c>
@@ -19933,7 +19933,7 @@
       </c>
       <c r="P177" s="252"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="178">
       <c r="A178" s="244">
         <v>177</v>
       </c>
@@ -19977,7 +19977,7 @@
       </c>
       <c r="P178" s="252"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="179">
       <c r="A179" s="244">
         <v>178</v>
       </c>
@@ -20021,7 +20021,7 @@
       </c>
       <c r="P179" s="252"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="180">
       <c r="A180" s="244">
         <v>179</v>
       </c>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="P180" s="252"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="181">
       <c r="A181" s="244">
         <v>180</v>
       </c>
@@ -20109,7 +20109,7 @@
       </c>
       <c r="P181" s="252"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="182">
       <c r="A182" s="244">
         <v>181</v>
       </c>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="P182" s="252"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="183">
       <c r="A183" s="244">
         <v>182</v>
       </c>
@@ -20197,7 +20197,7 @@
       </c>
       <c r="P183" s="252"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="184">
       <c r="A184" s="244">
         <v>183</v>
       </c>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="P184" s="252"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="185">
       <c r="A185" s="244">
         <v>184</v>
       </c>
@@ -20285,7 +20285,7 @@
       </c>
       <c r="P185" s="252"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="186">
       <c r="A186" s="244">
         <v>185</v>
       </c>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="P186" s="252"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="187">
       <c r="A187" s="244">
         <v>186</v>
       </c>
@@ -20373,7 +20373,7 @@
       </c>
       <c r="P187" s="252"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="188">
       <c r="A188" s="244">
         <v>187</v>
       </c>
@@ -20419,7 +20419,7 @@
       </c>
       <c r="P188" s="252"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="189">
       <c r="A189" s="244">
         <v>188</v>
       </c>
@@ -20463,7 +20463,7 @@
       </c>
       <c r="P189" s="252"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="190">
       <c r="A190" s="244">
         <v>189</v>
       </c>
@@ -20507,7 +20507,7 @@
       </c>
       <c r="P190" s="252"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="191">
       <c r="A191" s="244">
         <v>190</v>
       </c>
@@ -20553,7 +20553,7 @@
       </c>
       <c r="P191" s="252"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="192">
       <c r="A192" s="244">
         <v>191</v>
       </c>
@@ -20597,7 +20597,7 @@
       </c>
       <c r="P192" s="252"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="193">
       <c r="A193" s="244">
         <v>192</v>
       </c>
@@ -20641,7 +20641,7 @@
       </c>
       <c r="P193" s="252"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="194">
       <c r="A194" s="244">
         <v>193</v>
       </c>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="P194" s="252"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="195">
       <c r="A195" s="244">
         <v>194</v>
       </c>
@@ -20729,7 +20729,7 @@
       </c>
       <c r="P195" s="252"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="196">
       <c r="A196" s="244">
         <v>195</v>
       </c>
@@ -20773,7 +20773,7 @@
       </c>
       <c r="P196" s="252"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="197">
       <c r="A197" s="244">
         <v>196</v>
       </c>
@@ -20817,7 +20817,7 @@
       </c>
       <c r="P197" s="252"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="198">
       <c r="A198" s="244">
         <v>197</v>
       </c>
@@ -20861,7 +20861,7 @@
       </c>
       <c r="P198" s="252"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="199">
       <c r="A199" s="244">
         <v>198</v>
       </c>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="P199" s="252"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="200">
       <c r="A200" s="244">
         <v>199</v>
       </c>
@@ -20949,7 +20949,7 @@
       </c>
       <c r="P200" s="252"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="201">
       <c r="A201" s="244">
         <v>200</v>
       </c>
@@ -20993,7 +20993,7 @@
       </c>
       <c r="P201" s="252"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="202">
       <c r="A202" s="244">
         <v>201</v>
       </c>
@@ -21037,7 +21037,7 @@
       </c>
       <c r="P202" s="252"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="203">
       <c r="A203" s="244">
         <v>202</v>
       </c>
@@ -21081,7 +21081,7 @@
       </c>
       <c r="P203" s="252"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="204">
       <c r="A204" s="244">
         <v>203</v>
       </c>
@@ -21125,7 +21125,7 @@
       </c>
       <c r="P204" s="252"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="205">
       <c r="A205" s="244">
         <v>204</v>
       </c>
@@ -21169,7 +21169,7 @@
       </c>
       <c r="P205" s="252"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="206">
       <c r="A206" s="244">
         <v>205</v>
       </c>
@@ -21213,7 +21213,7 @@
       </c>
       <c r="P206" s="252"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="207">
       <c r="A207" s="244">
         <v>206</v>
       </c>
@@ -21257,7 +21257,7 @@
       </c>
       <c r="P207" s="252"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="208">
       <c r="A208" s="244">
         <v>207</v>
       </c>
@@ -21301,7 +21301,7 @@
       </c>
       <c r="P208" s="252"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="209">
       <c r="A209" s="244">
         <v>208</v>
       </c>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="P209" s="252"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="210">
       <c r="A210" s="244">
         <v>209</v>
       </c>
@@ -21389,7 +21389,7 @@
       </c>
       <c r="P210" s="252"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="211">
       <c r="A211" s="244">
         <v>210</v>
       </c>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="P211" s="252"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="212">
       <c r="A212" s="244">
         <v>211</v>
       </c>
@@ -21477,7 +21477,7 @@
       </c>
       <c r="P212" s="252"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="213">
       <c r="A213" s="244">
         <v>212</v>
       </c>
@@ -21521,7 +21521,7 @@
       </c>
       <c r="P213" s="252"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="214">
       <c r="A214" s="244">
         <v>213</v>
       </c>
@@ -21565,7 +21565,7 @@
       </c>
       <c r="P214" s="252"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="215">
       <c r="A215" s="244">
         <v>214</v>
       </c>
@@ -21609,7 +21609,7 @@
       </c>
       <c r="P215" s="252"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="216">
       <c r="A216" s="244">
         <v>215</v>
       </c>
@@ -21653,7 +21653,7 @@
       </c>
       <c r="P216" s="252"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="217">
       <c r="A217" s="244">
         <v>216</v>
       </c>
@@ -21697,7 +21697,7 @@
       </c>
       <c r="P217" s="252"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="218">
       <c r="A218" s="244">
         <v>217</v>
       </c>
@@ -21741,7 +21741,7 @@
       </c>
       <c r="P218" s="252"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="219">
       <c r="A219" s="244">
         <v>218</v>
       </c>
@@ -21785,7 +21785,7 @@
       </c>
       <c r="P219" s="252"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="220">
       <c r="A220" s="244">
         <v>219</v>
       </c>
@@ -21829,7 +21829,7 @@
       </c>
       <c r="P220" s="252"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="221">
       <c r="A221" s="244">
         <v>220</v>
       </c>
@@ -21873,7 +21873,7 @@
       </c>
       <c r="P221" s="252"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="222">
       <c r="A222" s="244">
         <v>221</v>
       </c>
@@ -21917,7 +21917,7 @@
       </c>
       <c r="P222" s="252"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="223">
       <c r="A223" s="244">
         <v>222</v>
       </c>
@@ -21961,7 +21961,7 @@
       </c>
       <c r="P223" s="252"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="224">
       <c r="A224" s="244">
         <v>223</v>
       </c>
@@ -22005,7 +22005,7 @@
       </c>
       <c r="P224" s="252"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="225">
       <c r="A225" s="244">
         <v>224</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>767</v>
       </c>
       <c r="H225" s="249">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I225" s="248"/>
       <c r="J225" s="251" t="s">
@@ -22049,7 +22049,7 @@
       </c>
       <c r="P225" s="252"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="226">
       <c r="A226" s="244">
         <v>225</v>
       </c>
@@ -22093,7 +22093,7 @@
       </c>
       <c r="P226" s="252"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="227">
       <c r="A227" s="244">
         <v>226</v>
       </c>
@@ -22137,7 +22137,7 @@
       </c>
       <c r="P227" s="252"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="228">
       <c r="A228" s="244">
         <v>227</v>
       </c>
@@ -22181,7 +22181,7 @@
       </c>
       <c r="P228" s="252"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="229">
       <c r="A229" s="244">
         <v>228</v>
       </c>
@@ -22225,7 +22225,7 @@
       </c>
       <c r="P229" s="252"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="230">
       <c r="A230" s="244">
         <v>229</v>
       </c>
@@ -22269,7 +22269,7 @@
       </c>
       <c r="P230" s="252"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="231">
       <c r="A231" s="244">
         <v>230</v>
       </c>
@@ -22313,7 +22313,7 @@
       </c>
       <c r="P231" s="252"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="232">
       <c r="A232" s="244">
         <v>231</v>
       </c>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="P232" s="252"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="233">
       <c r="A233" s="244">
         <v>232</v>
       </c>
@@ -22401,7 +22401,7 @@
       </c>
       <c r="P233" s="252"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="234">
       <c r="A234" s="244">
         <v>233</v>
       </c>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="P234" s="252"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="235">
       <c r="A235" s="244">
         <v>234</v>
       </c>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="P235" s="252"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="236">
       <c r="A236" s="244">
         <v>235</v>
       </c>
@@ -22533,7 +22533,7 @@
       </c>
       <c r="P236" s="252"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="237">
       <c r="A237" s="244">
         <v>236</v>
       </c>
@@ -22577,7 +22577,7 @@
       </c>
       <c r="P237" s="252"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="238">
       <c r="A238" s="244">
         <v>237</v>
       </c>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="P238" s="252"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="239">
       <c r="A239" s="244">
         <v>238</v>
       </c>
@@ -22665,7 +22665,7 @@
       </c>
       <c r="P239" s="252"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="240">
       <c r="A240" s="244">
         <v>239</v>
       </c>
@@ -22709,7 +22709,7 @@
       </c>
       <c r="P240" s="252"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="241">
       <c r="A241" s="244">
         <v>240</v>
       </c>
@@ -22753,7 +22753,7 @@
       </c>
       <c r="P241" s="252"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="242">
       <c r="A242" s="244">
         <v>241</v>
       </c>
@@ -22797,7 +22797,7 @@
       </c>
       <c r="P242" s="252"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="243">
       <c r="A243" s="244">
         <v>242</v>
       </c>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="P243" s="252"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="244">
       <c r="A244" s="244">
         <v>243</v>
       </c>
@@ -22885,7 +22885,7 @@
       </c>
       <c r="P244" s="252"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="245">
       <c r="A245" s="244">
         <v>244</v>
       </c>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="P245" s="252"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="246">
       <c r="A246" s="244">
         <v>245</v>
       </c>
@@ -22973,7 +22973,7 @@
       </c>
       <c r="P246" s="252"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="247">
       <c r="A247" s="244">
         <v>246</v>
       </c>
@@ -22996,7 +22996,7 @@
         <v>790</v>
       </c>
       <c r="H247" s="249">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I247" s="248"/>
       <c r="J247" s="251" t="s">
@@ -23017,7 +23017,7 @@
       </c>
       <c r="P247" s="252"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="248">
       <c r="A248" s="244">
         <v>247</v>
       </c>
@@ -23061,7 +23061,7 @@
       </c>
       <c r="P248" s="252"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="249">
       <c r="A249" s="244">
         <v>248</v>
       </c>
@@ -23105,7 +23105,7 @@
       </c>
       <c r="P249" s="252"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="250">
       <c r="A250" s="244">
         <v>249</v>
       </c>
@@ -23149,7 +23149,7 @@
       </c>
       <c r="P250" s="252"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="251">
       <c r="A251" s="244">
         <v>250</v>
       </c>
@@ -23193,7 +23193,7 @@
       </c>
       <c r="P251" s="252"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="252">
       <c r="A252" s="244">
         <v>251</v>
       </c>
@@ -23237,7 +23237,7 @@
       </c>
       <c r="P252" s="252"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="253">
       <c r="A253" s="244">
         <v>252</v>
       </c>
@@ -23281,7 +23281,7 @@
       </c>
       <c r="P253" s="252"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="254">
       <c r="A254" s="244">
         <v>253</v>
       </c>
@@ -23304,7 +23304,7 @@
         <v>799</v>
       </c>
       <c r="H254" s="249">
-        <v>6.8999999999999995</v>
+        <v>6.9</v>
       </c>
       <c r="I254" s="248"/>
       <c r="J254" s="251" t="s">
@@ -23325,7 +23325,7 @@
       </c>
       <c r="P254" s="252"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="255">
       <c r="A255" s="244">
         <v>254</v>
       </c>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="P255" s="252"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="256">
       <c r="A256" s="244">
         <v>255</v>
       </c>
@@ -23392,7 +23392,7 @@
         <v>803</v>
       </c>
       <c r="H256" s="249">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I256" s="248"/>
       <c r="J256" s="251" t="s">
@@ -23413,7 +23413,7 @@
       </c>
       <c r="P256" s="252"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="257">
       <c r="A257" s="244">
         <v>256</v>
       </c>
@@ -23457,7 +23457,7 @@
       </c>
       <c r="P257" s="252"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="258">
       <c r="A258" s="244">
         <v>257</v>
       </c>
@@ -23501,7 +23501,7 @@
       </c>
       <c r="P258" s="252"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="259">
       <c r="A259" s="244">
         <v>258</v>
       </c>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="P259" s="252"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="260">
       <c r="A260" s="244">
         <v>259</v>
       </c>
@@ -23589,7 +23589,7 @@
       </c>
       <c r="P260" s="252"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="261">
       <c r="A261" s="244">
         <v>260</v>
       </c>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="P261" s="252"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="262">
       <c r="A262" s="253">
         <v>261</v>
       </c>
@@ -23674,6 +23674,120 @@
         <v>405</v>
       </c>
       <c r="P262" s="261"/>
+    </row>
+    <row outlineLevel="0" r="263">
+      <c r="A263" s="345">
+        <v>262</v>
+      </c>
+      <c r="B263" s="345">
+        <v>1</v>
+      </c>
+      <c r="C263" s="345" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D263" s="269">
+        <v>45508</v>
+      </c>
+      <c r="E263" s="345" t="inlineStr">
+        <is>
+          <t>193r</t>
+        </is>
+      </c>
+      <c r="F263" s="345" t="inlineStr">
+        <is>
+          <t>Logiciels Informat - Robert</t>
+        </is>
+      </c>
+      <c r="G263" s="345" t="inlineStr">
+        <is>
+          <t>Test de modification</t>
+        </is>
+      </c>
+      <c r="H263" s="345">
+        <v>2</v>
+      </c>
+      <c r="J263" s="345" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="K263" s="269">
+        <v>45508.4094097222</v>
+      </c>
+      <c r="L263" s="345" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N263" s="345" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O263" s="345" t="inlineStr">
+        <is>
+          <t>v4.A.2.xlsb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="264">
+      <c r="A264" s="345">
+        <v>263</v>
+      </c>
+      <c r="B264" s="345">
+        <v>1</v>
+      </c>
+      <c r="C264" s="345" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D264" s="269">
+        <v>45508</v>
+      </c>
+      <c r="E264" s="345" t="inlineStr">
+        <is>
+          <t>193l</t>
+        </is>
+      </c>
+      <c r="F264" s="345" t="inlineStr">
+        <is>
+          <t>Logiciels Informat - Luc</t>
+        </is>
+      </c>
+      <c r="G264" s="345" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="H264" s="345">
+        <v>1.4</v>
+      </c>
+      <c r="J264" s="345" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="K264" s="269">
+        <v>45508.4093287037</v>
+      </c>
+      <c r="L264" s="345" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N264" s="345" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O264" s="345" t="inlineStr">
+        <is>
+          <t>v4.A.2.xlsb</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A379D-A359-48B2-BEF2-998BE5A7BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ED37AA-9BB7-4CEE-85FF-F30858791A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_ACO" sheetId="14" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="842">
   <si>
     <t>TEC_ID</t>
   </si>
@@ -2664,6 +2664,33 @@
   </si>
   <si>
     <t>08/03/2024 18:48:48</t>
+  </si>
+  <si>
+    <t>193r</t>
+  </si>
+  <si>
+    <t>Logiciels Informat - Robert</t>
+  </si>
+  <si>
+    <t>Test de modification</t>
+  </si>
+  <si>
+    <t>v4.A.2.xlsb</t>
+  </si>
+  <si>
+    <t>193l</t>
+  </si>
+  <si>
+    <t>Logiciels Informat - Luc</t>
+  </si>
+  <si>
+    <t>Logiciels Informat - Robert [Robert Vigneault]</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>v4.B.4.xlsb</t>
   </si>
 </sst>
 </file>
@@ -4794,7 +4821,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="377">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5497,6 +5524,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5776,16 +5815,54 @@
     <xf numFmtId="165" fontId="24" fillId="7" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5795,18 +5872,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="109">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="107">
     <dxf>
       <font>
         <strike val="0"/>
@@ -5825,16 +5891,6 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8400,23 +8456,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4081FC28-DC16-4499-9F16-86BDB780596C}" name="Tableau5" displayName="Tableau5" ref="L10:N18" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105" totalsRowBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4081FC28-DC16-4499-9F16-86BDB780596C}" name="Tableau5" displayName="Tableau5" ref="L10:N18" totalsRowShown="0" headerRowDxfId="106" dataDxfId="104" headerRowBorderDxfId="105" tableBorderDxfId="103" totalsRowBorderDxfId="102">
   <autoFilter ref="L10:N18" xr:uid="{A31919EF-8E0F-4C3C-BA3F-104400014F99}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3D5E5F4D-3EC3-41F3-B883-B5F4C7824D42}" name="Code" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{6498A585-0434-4EB1-977D-A0B20C9C63FB}" name="Date" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{74CB0563-15AB-43E0-9B35-F933DB6DD58F}" name="Taux" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{3D5E5F4D-3EC3-41F3-B883-B5F4C7824D42}" name="Code" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{6498A585-0434-4EB1-977D-A0B20C9C63FB}" name="Date" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{74CB0563-15AB-43E0-9B35-F933DB6DD58F}" name="Taux" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BEC410-3782-4EB4-90E8-8C9F29248E62}" name="Tableau37" displayName="Tableau37" ref="D18:F28" totalsRowShown="0" headerRowDxfId="100" headerRowBorderDxfId="99" tableBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BEC410-3782-4EB4-90E8-8C9F29248E62}" name="Tableau37" displayName="Tableau37" ref="D18:F28" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96">
   <autoFilter ref="D18:F28" xr:uid="{07C6E30C-A06F-40D4-9BA2-8A0A8A76ABF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8424,57 +8480,57 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4B0EDCED-EFE7-4F77-96E5-91C21BFED13C}" name="Prof_ID"/>
-    <tableColumn id="2" xr3:uid="{07335957-5072-4CC8-B588-145A144FD6FC}" name="Date" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{C1051574-3026-4CFC-ACE4-EE3A5BE120E3}" name="Taux horaire" dataDxfId="96" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{07335957-5072-4CC8-B588-145A144FD6FC}" name="Date" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{C1051574-3026-4CFC-ACE4-EE3A5BE120E3}" name="Taux horaire" dataDxfId="94" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B32BB353-BB34-42BB-9D46-2983C5A74B5B}" name="Tableau7" displayName="Tableau7" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B32BB353-BB34-42BB-9D46-2983C5A74B5B}" name="Tableau7" displayName="Tableau7" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F683B85E-E345-46C0-B559-6B55DA1B47DA}" name="Colonne1" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{931BD703-99B9-4545-835A-2B2008F9C610}" name="Colonne2" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{F683B85E-E345-46C0-B559-6B55DA1B47DA}" name="Colonne1" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{931BD703-99B9-4545-835A-2B2008F9C610}" name="Colonne2" headerRowDxfId="86" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7A353E-F107-4699-BEC2-AECA606D5D2B}" name="Tableau8" displayName="Tableau8" ref="P10:R21" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7A353E-F107-4699-BEC2-AECA606D5D2B}" name="Tableau8" displayName="Tableau8" ref="P10:R21" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="P10:R21" xr:uid="{2167B6C9-9F6D-42E0-9CC7-719089B4BE11}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{621C6399-107E-4F8E-905B-7E9265495827}" name="Nom" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{BC9D39C0-5A8D-4060-86F2-B334715137AE}" name="Du" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{0317D5F2-8493-46CE-B417-3AD4D1BE752C}" name="Au" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{621C6399-107E-4F8E-905B-7E9265495827}" name="Nom" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{BC9D39C0-5A8D-4060-86F2-B334715137AE}" name="Du" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{0317D5F2-8493-46CE-B417-3AD4D1BE752C}" name="Au" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B8A5B66-CCB8-44E7-897F-6857E2E7217F}" name="Tableau56" displayName="Tableau56" ref="L10:N18" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77" totalsRowBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B8A5B66-CCB8-44E7-897F-6857E2E7217F}" name="Tableau56" displayName="Tableau56" ref="L10:N18" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
   <autoFilter ref="L10:N18" xr:uid="{A31919EF-8E0F-4C3C-BA3F-104400014F99}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{239FBD47-A62E-4E25-A60D-B8F3F5784CAF}" name="Code" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{F1BF9BCA-554F-405E-8EB2-104EE5229852}" name="Date" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{BC205969-C048-4AC1-82CA-DCF785CD2E46}" name="Taux" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{239FBD47-A62E-4E25-A60D-B8F3F5784CAF}" name="Code" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{F1BF9BCA-554F-405E-8EB2-104EE5229852}" name="Date" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{BC205969-C048-4AC1-82CA-DCF785CD2E46}" name="Taux" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B24AF566-2215-473A-8202-6EEA9B350847}" name="Tableau377" displayName="Tableau377" ref="D38:F68" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B24AF566-2215-473A-8202-6EEA9B350847}" name="Tableau377" displayName="Tableau377" ref="D38:F68" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="D38:F68" xr:uid="{07C6E30C-A06F-40D4-9BA2-8A0A8A76ABF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8482,59 +8538,59 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C26875D7-C0AC-4DC0-B966-9A0E941C1287}" name="Prof_ID"/>
-    <tableColumn id="2" xr3:uid="{223CDF22-7E9F-4FF3-B9E9-7EC1E83F63FD}" name="Date" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{3A31E360-73D5-4ABD-A9DE-9036997DA118}" name="Taux horaire" dataDxfId="68" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{223CDF22-7E9F-4FF3-B9E9-7EC1E83F63FD}" name="Date" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{3A31E360-73D5-4ABD-A9DE-9036997DA118}" name="Taux horaire" dataDxfId="66" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8451F979-3D72-41D4-A829-699B5830670C}" name="Tableau78" displayName="Tableau78" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8451F979-3D72-41D4-A829-699B5830670C}" name="Tableau78" displayName="Tableau78" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CB9EBD0D-71C1-4C9E-B3EA-2235AF94176F}" name="Colonne1" headerRowDxfId="62" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{C7DCD92E-FE54-4CC5-87B2-F9846C4139DC}" name="Colonne2" headerRowDxfId="60" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{CB9EBD0D-71C1-4C9E-B3EA-2235AF94176F}" name="Colonne1" headerRowDxfId="60" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{C7DCD92E-FE54-4CC5-87B2-F9846C4139DC}" name="Colonne2" headerRowDxfId="58" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA20A41A-5290-49EB-A732-D1309A2FE1EA}" name="Tableau89" displayName="Tableau89" ref="P10:R21" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA20A41A-5290-49EB-A732-D1309A2FE1EA}" name="Tableau89" displayName="Tableau89" ref="P10:R21" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="P10:R21" xr:uid="{2167B6C9-9F6D-42E0-9CC7-719089B4BE11}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0934086D-06C2-4C23-8345-99186FF38D1F}" name="Nom" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{661E3B83-6827-4026-8FCA-E63CF3515AA8}" name="Du" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{41F1CFF9-AC58-4534-B761-8C936A1D968E}" name="Au" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{0934086D-06C2-4C23-8345-99186FF38D1F}" name="Nom" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{661E3B83-6827-4026-8FCA-E63CF3515AA8}" name="Du" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{41F1CFF9-AC58-4534-B761-8C936A1D968E}" name="Au" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P262" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
-  <autoFilter ref="A1:P262" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P266" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:P266" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{442BE8B7-5CE4-48D7-A603-B8BD91CF4F12}" name="TEC_ID" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{AF8BE6CE-0BCF-4480-8A4A-B19F36ABFC85}" name="Prof_ID" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{0BBF5A6F-70D6-4E6C-8A34-1DC0B703A990}" name="Prof" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{E627AF44-B9B8-497C-BF47-8F6FF8ACD02A}" name="Date" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{2FCB36F7-7550-45BB-8BF9-F33F371A7621}" name="Client_ID" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{880B6392-67A4-44FE-99B4-2D6AFC690D19}" name="ClientNom" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{BB82BD83-08FF-46D8-AA7B-AF7F07E7D57F}" name="Description" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{6D50DCEF-6B21-4332-8C2B-6B7582E549FD}" name="Heures" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{B2B0BF98-C2E2-418F-B219-396DAE73E2C0}" name="CommentaireNote" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{04FCC7EC-6F94-4B76-87F6-13EC767E5814}" name="EstFacturable" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{31135437-F957-431B-B288-D96DDF98E911}" name="DateSaisie" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{B15D8992-EC7F-4A9F-9B45-525626044170}" name="EstFacturee" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{3FB2DD8F-2954-4B0B-82C3-975B3E73C363}" name="DateFacturee" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{5F5E7A24-97ED-4E35-AF70-985B14FFBDEF}" name="EstDetruit" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{0234FC06-DCE2-4E4D-888D-F4726D9FF50B}" name="VersionApp" dataDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{67885876-BB1B-452D-BDA7-F4C0B770DC62}" name="NoFacture" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{442BE8B7-5CE4-48D7-A603-B8BD91CF4F12}" name="TEC_ID" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{AF8BE6CE-0BCF-4480-8A4A-B19F36ABFC85}" name="Prof_ID" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{0BBF5A6F-70D6-4E6C-8A34-1DC0B703A990}" name="Prof" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{E627AF44-B9B8-497C-BF47-8F6FF8ACD02A}" name="Date" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{2FCB36F7-7550-45BB-8BF9-F33F371A7621}" name="Client_ID" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{880B6392-67A4-44FE-99B4-2D6AFC690D19}" name="ClientNom" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{BB82BD83-08FF-46D8-AA7B-AF7F07E7D57F}" name="Description" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{6D50DCEF-6B21-4332-8C2B-6B7582E549FD}" name="Heures" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{B2B0BF98-C2E2-418F-B219-396DAE73E2C0}" name="CommentaireNote" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{04FCC7EC-6F94-4B76-87F6-13EC767E5814}" name="EstFacturable" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{31135437-F957-431B-B288-D96DDF98E911}" name="DateSaisie" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{B15D8992-EC7F-4A9F-9B45-525626044170}" name="EstFacturee" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{3FB2DD8F-2954-4B0B-82C3-975B3E73C363}" name="DateFacturee" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{5F5E7A24-97ED-4E35-AF70-985B14FFBDEF}" name="EstDetruit" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{0234FC06-DCE2-4E4D-888D-F4726D9FF50B}" name="VersionApp" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{67885876-BB1B-452D-BDA7-F4C0B770DC62}" name="NoFacture" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8844,51 +8900,51 @@
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="262"/>
-      <c r="O1" s="262"/>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="262"/>
-      <c r="S1" s="262"/>
-      <c r="T1" s="262"/>
-      <c r="U1" s="262"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="266"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="266"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="266"/>
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="267" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="263"/>
+      <c r="B2" s="267"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="24"/>
-      <c r="D3" s="264" t="s">
+      <c r="D3" s="268" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="265"/>
-      <c r="F3" s="266" t="s">
+      <c r="E3" s="269"/>
+      <c r="F3" s="270" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="268"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="271"/>
+      <c r="K3" s="271"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="272"/>
       <c r="T3" s="11"/>
       <c r="V3"/>
     </row>
@@ -8897,10 +8953,10 @@
         <v>197</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="P4" s="269"/>
-      <c r="Q4" s="270"/>
-      <c r="R4" s="271"/>
-      <c r="S4" s="271"/>
+      <c r="P4" s="273"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="275"/>
+      <c r="S4" s="275"/>
       <c r="V4" s="4"/>
       <c r="W4" s="2"/>
     </row>
@@ -8909,24 +8965,24 @@
         <v>198</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="D5" s="278" t="s">
+      <c r="D5" s="282" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="279"/>
-      <c r="F5" s="280" t="s">
+      <c r="E5" s="283"/>
+      <c r="F5" s="284" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="281"/>
-      <c r="L5" s="281"/>
-      <c r="M5" s="282"/>
-      <c r="P5" s="270"/>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="271"/>
-      <c r="S5" s="271"/>
+      <c r="G5" s="285"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285"/>
+      <c r="K5" s="285"/>
+      <c r="L5" s="285"/>
+      <c r="M5" s="286"/>
+      <c r="P5" s="274"/>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="275"/>
+      <c r="S5" s="275"/>
       <c r="V5" s="4"/>
       <c r="W5" s="2"/>
     </row>
@@ -8935,24 +8991,24 @@
         <v>201</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="287" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="284"/>
-      <c r="F6" s="285" t="s">
+      <c r="E6" s="288"/>
+      <c r="F6" s="289" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="287"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="270"/>
-      <c r="R6" s="271"/>
-      <c r="S6" s="271"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="290"/>
+      <c r="I6" s="290"/>
+      <c r="J6" s="290"/>
+      <c r="K6" s="290"/>
+      <c r="L6" s="290"/>
+      <c r="M6" s="291"/>
+      <c r="P6" s="274"/>
+      <c r="Q6" s="274"/>
+      <c r="R6" s="275"/>
+      <c r="S6" s="275"/>
       <c r="V6" s="4"/>
       <c r="W6" s="2"/>
     </row>
@@ -8990,38 +9046,38 @@
       <c r="B9" s="30">
         <v>355</v>
       </c>
-      <c r="D9" s="290" t="s">
+      <c r="D9" s="294" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="292"/>
-      <c r="I9" s="293" t="s">
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="296"/>
+      <c r="I9" s="297" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="294"/>
+      <c r="J9" s="298"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="295" t="s">
+      <c r="L9" s="299" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="296"/>
-      <c r="N9" s="297"/>
-      <c r="P9" s="298" t="s">
+      <c r="M9" s="300"/>
+      <c r="N9" s="301"/>
+      <c r="P9" s="302" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="299"/>
-      <c r="R9" s="300"/>
-      <c r="T9" s="272" t="s">
+      <c r="Q9" s="303"/>
+      <c r="R9" s="304"/>
+      <c r="T9" s="276" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="273"/>
-      <c r="V9" s="273"/>
-      <c r="W9" s="274"/>
-      <c r="Y9" s="275" t="s">
+      <c r="U9" s="277"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="278"/>
+      <c r="Y9" s="279" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="276"/>
-      <c r="AA9" s="277"/>
+      <c r="Z9" s="280"/>
+      <c r="AA9" s="281"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="32" t="s">
@@ -9073,9 +9129,9 @@
       <c r="W10" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="301"/>
-      <c r="Z10" s="302"/>
-      <c r="AA10" s="303"/>
+      <c r="Y10" s="305"/>
+      <c r="Z10" s="306"/>
+      <c r="AA10" s="307"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="44" t="s">
@@ -9111,11 +9167,11 @@
       </c>
       <c r="Q11" s="53">
         <f ca="1">TODAY()</f>
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="R11" s="54">
         <f ca="1">TODAY()</f>
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="T11" s="55" t="s">
         <v>30</v>
@@ -9392,11 +9448,11 @@
       <c r="AA16" s="82"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="304" t="s">
+      <c r="D17" s="308" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="305"/>
-      <c r="F17" s="306"/>
+      <c r="E17" s="309"/>
+      <c r="F17" s="310"/>
       <c r="I17" s="77">
         <v>2029</v>
       </c>
@@ -9461,11 +9517,11 @@
       </c>
       <c r="Q18" s="68">
         <f ca="1">TODAY()-6</f>
-        <v>45501</v>
+        <v>45504</v>
       </c>
       <c r="R18" s="69">
         <f ca="1">TODAY()</f>
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="T18" s="70" t="s">
         <v>143</v>
@@ -9509,11 +9565,11 @@
       </c>
       <c r="Q19" s="68">
         <f ca="1">TODAY()-14</f>
-        <v>45493</v>
+        <v>45496</v>
       </c>
       <c r="R19" s="69">
         <f ca="1">TODAY()</f>
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="T19" s="70" t="s">
         <v>246</v>
@@ -9557,11 +9613,11 @@
       </c>
       <c r="Q20" s="68">
         <f ca="1">Q11-WEEKDAY(Q11,1)+1</f>
-        <v>45501</v>
+        <v>45508</v>
       </c>
       <c r="R20" s="69">
         <f ca="1">Tableau8[[#This Row],[Du]]+6</f>
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="T20" s="70" t="s">
         <v>76</v>
@@ -9598,10 +9654,10 @@
       <c r="I21" s="77"/>
       <c r="J21" s="66"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="307" t="s">
+      <c r="L21" s="311" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="308"/>
+      <c r="M21" s="312"/>
       <c r="N21" s="92">
         <v>7</v>
       </c>
@@ -9716,11 +9772,11 @@
       <c r="I24" s="65"/>
       <c r="J24" s="66"/>
       <c r="K24" s="31"/>
-      <c r="P24" s="295" t="s">
+      <c r="P24" s="299" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="296"/>
-      <c r="R24" s="297"/>
+      <c r="Q24" s="300"/>
+      <c r="R24" s="301"/>
       <c r="T24" s="70" t="s">
         <v>259</v>
       </c>
@@ -9754,10 +9810,10 @@
       <c r="I25" s="97"/>
       <c r="J25" s="98"/>
       <c r="K25" s="31"/>
-      <c r="P25" s="309" t="s">
+      <c r="P25" s="313" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="310"/>
+      <c r="Q25" s="314"/>
       <c r="R25" s="99" t="s">
         <v>262</v>
       </c>
@@ -9795,10 +9851,10 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
-      <c r="P26" s="288" t="s">
+      <c r="P26" s="292" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="289"/>
+      <c r="Q26" s="293"/>
       <c r="R26" s="100" t="s">
         <v>267</v>
       </c>
@@ -9836,10 +9892,10 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="P27" s="311" t="s">
+      <c r="P27" s="315" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="312"/>
+      <c r="Q27" s="316"/>
       <c r="R27" s="102" t="s">
         <v>267</v>
       </c>
@@ -9865,20 +9921,20 @@
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F28" s="103"/>
-      <c r="I28" s="313" t="s">
+      <c r="I28" s="317" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="314"/>
+      <c r="J28" s="318"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="315" t="s">
+      <c r="L28" s="319" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="316"/>
-      <c r="N28" s="317"/>
-      <c r="P28" s="318" t="s">
+      <c r="M28" s="320"/>
+      <c r="N28" s="321"/>
+      <c r="P28" s="322" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="319"/>
+      <c r="Q28" s="323"/>
       <c r="R28" s="105" t="s">
         <v>278</v>
       </c>
@@ -9903,20 +9959,20 @@
       <c r="AA28" s="82"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I29" s="318" t="s">
+      <c r="I29" s="322" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="320"/>
+      <c r="J29" s="324"/>
       <c r="K29" s="2"/>
       <c r="L29" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="321"/>
-      <c r="N29" s="322"/>
-      <c r="P29" s="323" t="s">
+      <c r="M29" s="325"/>
+      <c r="N29" s="326"/>
+      <c r="P29" s="327" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="324"/>
+      <c r="Q29" s="328"/>
       <c r="R29" s="102" t="s">
         <v>278</v>
       </c>
@@ -9943,20 +9999,20 @@
       </c>
     </row>
     <row r="30" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="325" t="s">
+      <c r="I30" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="326"/>
+      <c r="J30" s="330"/>
       <c r="K30" s="2"/>
       <c r="L30" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="321"/>
-      <c r="N30" s="322"/>
-      <c r="P30" s="327" t="s">
+      <c r="M30" s="325"/>
+      <c r="N30" s="326"/>
+      <c r="P30" s="331" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="328"/>
+      <c r="Q30" s="332"/>
       <c r="R30" s="105" t="s">
         <v>267</v>
       </c>
@@ -9981,24 +10037,24 @@
       <c r="AA30" s="82"/>
     </row>
     <row r="31" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="295" t="s">
+      <c r="D31" s="299" t="s">
         <v>290</v>
       </c>
-      <c r="E31" s="296"/>
-      <c r="F31" s="297"/>
-      <c r="I31" s="318" t="s">
+      <c r="E31" s="300"/>
+      <c r="F31" s="301"/>
+      <c r="I31" s="322" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="320"/>
+      <c r="J31" s="324"/>
       <c r="L31" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="321"/>
-      <c r="N31" s="322"/>
-      <c r="P31" s="311" t="s">
+      <c r="M31" s="325"/>
+      <c r="N31" s="326"/>
+      <c r="P31" s="315" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="312"/>
+      <c r="Q31" s="316"/>
       <c r="R31" s="102" t="s">
         <v>278</v>
       </c>
@@ -10023,24 +10079,24 @@
       <c r="AA31" s="82"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="332" t="s">
+      <c r="D32" s="336" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="333"/>
-      <c r="F32" s="334"/>
-      <c r="I32" s="325" t="s">
+      <c r="E32" s="337"/>
+      <c r="F32" s="338"/>
+      <c r="I32" s="329" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="326"/>
+      <c r="J32" s="330"/>
       <c r="L32" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="321"/>
-      <c r="N32" s="322"/>
-      <c r="P32" s="335" t="s">
+      <c r="M32" s="325"/>
+      <c r="N32" s="326"/>
+      <c r="P32" s="339" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="336"/>
+      <c r="Q32" s="340"/>
       <c r="R32" s="110" t="s">
         <v>267</v>
       </c>
@@ -10067,20 +10123,20 @@
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="337" t="s">
+      <c r="D33" s="341" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="338"/>
-      <c r="F33" s="339"/>
-      <c r="I33" s="318" t="s">
+      <c r="E33" s="342"/>
+      <c r="F33" s="343"/>
+      <c r="I33" s="322" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="320"/>
+      <c r="J33" s="324"/>
       <c r="L33" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="340"/>
-      <c r="N33" s="341"/>
+      <c r="M33" s="344"/>
+      <c r="N33" s="345"/>
       <c r="T33" s="70" t="s">
         <v>65</v>
       </c>
@@ -10102,15 +10158,15 @@
       <c r="AA33" s="82"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="325" t="s">
+      <c r="D34" s="329" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="342"/>
-      <c r="F34" s="326"/>
-      <c r="I34" s="325" t="s">
+      <c r="E34" s="346"/>
+      <c r="F34" s="330"/>
+      <c r="I34" s="329" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="326"/>
+      <c r="J34" s="330"/>
       <c r="T34" s="70" t="s">
         <v>300</v>
       </c>
@@ -10132,17 +10188,17 @@
       <c r="AA34" s="82"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="318" t="s">
+      <c r="D35" s="322" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="343"/>
-      <c r="F35" s="320"/>
-      <c r="I35" s="344" t="s">
+      <c r="E35" s="347"/>
+      <c r="F35" s="324"/>
+      <c r="I35" s="348" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="345"/>
-      <c r="P35" s="346"/>
-      <c r="Q35" s="346"/>
+      <c r="J35" s="349"/>
+      <c r="P35" s="350"/>
+      <c r="Q35" s="350"/>
       <c r="T35" s="70" t="s">
         <v>303</v>
       </c>
@@ -10164,11 +10220,11 @@
       <c r="AA35" s="82"/>
     </row>
     <row r="36" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="329" t="s">
+      <c r="D36" s="333" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="330"/>
-      <c r="F36" s="331"/>
+      <c r="E36" s="334"/>
+      <c r="F36" s="335"/>
       <c r="T36" s="70" t="s">
         <v>306</v>
       </c>
@@ -10213,10 +10269,10 @@
       </c>
     </row>
     <row r="38" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="347" t="s">
+      <c r="I38" s="351" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="348"/>
+      <c r="J38" s="352"/>
       <c r="T38" s="70" t="s">
         <v>310</v>
       </c>
@@ -10238,11 +10294,11 @@
       <c r="AA38" s="82"/>
     </row>
     <row r="39" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="349" t="s">
+      <c r="D39" s="353" t="s">
         <v>312</v>
       </c>
-      <c r="E39" s="350"/>
-      <c r="F39" s="351"/>
+      <c r="E39" s="354"/>
+      <c r="F39" s="355"/>
       <c r="I39" s="113" t="s">
         <v>84</v>
       </c>
@@ -10505,15 +10561,15 @@
       <c r="AA47" s="82"/>
     </row>
     <row r="48" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="295" t="s">
+      <c r="D48" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="E48" s="296"/>
-      <c r="F48" s="297"/>
-      <c r="I48" s="313" t="s">
+      <c r="E48" s="300"/>
+      <c r="F48" s="301"/>
+      <c r="I48" s="317" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="314"/>
+      <c r="J48" s="318"/>
       <c r="T48" s="70" t="s">
         <v>67</v>
       </c>
@@ -10535,15 +10591,15 @@
       <c r="AA48" s="82"/>
     </row>
     <row r="49" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D49" s="332" t="s">
+      <c r="D49" s="336" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="333"/>
-      <c r="F49" s="334"/>
-      <c r="I49" s="318" t="s">
+      <c r="E49" s="337"/>
+      <c r="F49" s="338"/>
+      <c r="I49" s="322" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="320"/>
+      <c r="J49" s="324"/>
       <c r="T49" s="70" t="s">
         <v>343</v>
       </c>
@@ -10565,15 +10621,15 @@
       <c r="AA49" s="82"/>
     </row>
     <row r="50" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="352">
+      <c r="D50" s="356">
         <v>350</v>
       </c>
-      <c r="E50" s="353"/>
-      <c r="F50" s="354"/>
-      <c r="I50" s="325" t="s">
+      <c r="E50" s="357"/>
+      <c r="F50" s="358"/>
+      <c r="I50" s="329" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="326"/>
+      <c r="J50" s="330"/>
       <c r="T50" s="70" t="s">
         <v>68</v>
       </c>
@@ -10597,10 +10653,10 @@
       </c>
     </row>
     <row r="51" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="318" t="s">
+      <c r="I51" s="322" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="320"/>
+      <c r="J51" s="324"/>
       <c r="T51" s="70" t="s">
         <v>349</v>
       </c>
@@ -10622,10 +10678,10 @@
       <c r="AA51" s="133"/>
     </row>
     <row r="52" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I52" s="325" t="s">
+      <c r="I52" s="329" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="326"/>
+      <c r="J52" s="330"/>
       <c r="T52" s="70" t="s">
         <v>351</v>
       </c>
@@ -10640,10 +10696,10 @@
       </c>
     </row>
     <row r="53" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I53" s="318" t="s">
+      <c r="I53" s="322" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="320"/>
+      <c r="J53" s="324"/>
       <c r="T53" s="70" t="s">
         <v>353</v>
       </c>
@@ -10676,10 +10732,10 @@
       </c>
     </row>
     <row r="55" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I55" s="325" t="s">
+      <c r="I55" s="329" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="326"/>
+      <c r="J55" s="330"/>
       <c r="T55" s="70" t="s">
         <v>175</v>
       </c>
@@ -10694,10 +10750,10 @@
       </c>
     </row>
     <row r="56" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I56" s="344" t="s">
+      <c r="I56" s="348" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="345"/>
+      <c r="J56" s="349"/>
       <c r="T56" s="70" t="s">
         <v>34</v>
       </c>
@@ -11062,39 +11118,39 @@
     <mergeCell ref="R4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="P11:P21">
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="7">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R20">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:W78">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="25" priority="8">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="9">
+    <cfRule type="expression" dxfId="24" priority="9">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AA51">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>AND($Y12&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11208,7 +11264,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:J9999">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11384,7 +11440,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AA99999">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11437,7 +11493,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E9999">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11490,7 +11546,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G962">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11505,7 +11561,7 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G40" sqref="G40"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -11562,27 +11618,27 @@
       <c r="A2" s="209">
         <v>1</v>
       </c>
-      <c r="B2" s="355">
+      <c r="B2" s="262">
         <v>45504</v>
       </c>
-      <c r="C2" s="356" t="s">
+      <c r="C2" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D2" s="356" t="s">
+      <c r="D2" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E2" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="356" t="s">
+      <c r="F2" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="357">
+      <c r="G2" s="264">
         <v>124365.8</v>
       </c>
-      <c r="H2" s="357"/>
-      <c r="I2" s="356"/>
-      <c r="J2" s="358" t="s">
+      <c r="H2" s="264"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="265" t="s">
         <v>832</v>
       </c>
     </row>
@@ -11590,26 +11646,26 @@
       <c r="A3" s="209">
         <v>1</v>
       </c>
-      <c r="B3" s="355">
+      <c r="B3" s="262">
         <v>45504</v>
       </c>
-      <c r="C3" s="356" t="s">
+      <c r="C3" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D3" s="356" t="s">
+      <c r="D3" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E3" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="356" t="s">
+      <c r="F3" s="263" t="s">
         <v>815</v>
       </c>
-      <c r="G3" s="357">
+      <c r="G3" s="264">
         <v>401270.99</v>
       </c>
-      <c r="H3" s="357"/>
-      <c r="I3" s="356"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="263"/>
       <c r="J3" s="208" t="s">
         <v>832</v>
       </c>
@@ -11618,26 +11674,26 @@
       <c r="A4" s="209">
         <v>1</v>
       </c>
-      <c r="B4" s="355">
+      <c r="B4" s="262">
         <v>45504</v>
       </c>
-      <c r="C4" s="356" t="s">
+      <c r="C4" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D4" s="356" t="s">
+      <c r="D4" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E4" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="356" t="s">
+      <c r="F4" s="263" t="s">
         <v>816</v>
       </c>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357">
+      <c r="G4" s="264"/>
+      <c r="H4" s="264">
         <v>57401.53</v>
       </c>
-      <c r="I4" s="356"/>
+      <c r="I4" s="263"/>
       <c r="J4" s="208" t="s">
         <v>832</v>
       </c>
@@ -11646,26 +11702,26 @@
       <c r="A5" s="209">
         <v>1</v>
       </c>
-      <c r="B5" s="355">
+      <c r="B5" s="262">
         <v>45504</v>
       </c>
-      <c r="C5" s="356" t="s">
+      <c r="C5" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D5" s="356" t="s">
+      <c r="D5" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E5" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="356" t="s">
+      <c r="F5" s="263" t="s">
         <v>817</v>
       </c>
-      <c r="G5" s="357"/>
-      <c r="H5" s="357">
+      <c r="G5" s="264"/>
+      <c r="H5" s="264">
         <v>114514.79</v>
       </c>
-      <c r="I5" s="356"/>
+      <c r="I5" s="263"/>
       <c r="J5" s="208" t="s">
         <v>832</v>
       </c>
@@ -11674,26 +11730,26 @@
       <c r="A6" s="209">
         <v>1</v>
       </c>
-      <c r="B6" s="355">
+      <c r="B6" s="262">
         <v>45504</v>
       </c>
-      <c r="C6" s="356" t="s">
+      <c r="C6" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D6" s="356" t="s">
+      <c r="D6" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E6" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="356" t="s">
+      <c r="F6" s="263" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="357">
+      <c r="G6" s="264">
         <v>68313</v>
       </c>
-      <c r="H6" s="357"/>
-      <c r="I6" s="356"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="263"/>
       <c r="J6" s="208" t="s">
         <v>832</v>
       </c>
@@ -11702,26 +11758,26 @@
       <c r="A7" s="209">
         <v>1</v>
       </c>
-      <c r="B7" s="355">
+      <c r="B7" s="262">
         <v>45504</v>
       </c>
-      <c r="C7" s="356" t="s">
+      <c r="C7" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D7" s="356" t="s">
+      <c r="D7" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E7" s="208" t="s">
         <v>818</v>
       </c>
-      <c r="F7" s="356" t="s">
+      <c r="F7" s="263" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="357">
+      <c r="G7" s="264">
         <v>4063</v>
       </c>
-      <c r="H7" s="357"/>
-      <c r="I7" s="356"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="263"/>
       <c r="J7" s="208" t="s">
         <v>832</v>
       </c>
@@ -11730,26 +11786,26 @@
       <c r="A8" s="209">
         <v>1</v>
       </c>
-      <c r="B8" s="355">
+      <c r="B8" s="262">
         <v>45504</v>
       </c>
-      <c r="C8" s="356" t="s">
+      <c r="C8" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D8" s="356" t="s">
+      <c r="D8" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E8" s="208" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="356" t="s">
+      <c r="F8" s="263" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="357">
+      <c r="G8" s="264">
         <v>91727.67</v>
       </c>
-      <c r="H8" s="357"/>
-      <c r="I8" s="356"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="263"/>
       <c r="J8" s="208" t="s">
         <v>832</v>
       </c>
@@ -11758,26 +11814,26 @@
       <c r="A9" s="209">
         <v>1</v>
       </c>
-      <c r="B9" s="355">
+      <c r="B9" s="262">
         <v>45504</v>
       </c>
-      <c r="C9" s="356" t="s">
+      <c r="C9" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D9" s="356" t="s">
+      <c r="D9" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E9" s="208" t="s">
         <v>284</v>
       </c>
-      <c r="F9" s="356" t="s">
+      <c r="F9" s="263" t="s">
         <v>255</v>
       </c>
-      <c r="G9" s="357"/>
-      <c r="H9" s="357">
+      <c r="G9" s="264"/>
+      <c r="H9" s="264">
         <v>81101.17</v>
       </c>
-      <c r="I9" s="356"/>
+      <c r="I9" s="263"/>
       <c r="J9" s="208" t="s">
         <v>832</v>
       </c>
@@ -11786,26 +11842,26 @@
       <c r="A10" s="209">
         <v>1</v>
       </c>
-      <c r="B10" s="355">
+      <c r="B10" s="262">
         <v>45504</v>
       </c>
-      <c r="C10" s="356" t="s">
+      <c r="C10" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D10" s="356" t="s">
+      <c r="D10" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E10" s="208" t="s">
         <v>819</v>
       </c>
-      <c r="F10" s="356" t="s">
+      <c r="F10" s="263" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="357">
+      <c r="G10" s="264">
         <v>113106.26</v>
       </c>
-      <c r="H10" s="357"/>
-      <c r="I10" s="356"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="263"/>
       <c r="J10" s="208" t="s">
         <v>832</v>
       </c>
@@ -11814,26 +11870,26 @@
       <c r="A11" s="209">
         <v>1</v>
       </c>
-      <c r="B11" s="355">
+      <c r="B11" s="262">
         <v>45504</v>
       </c>
-      <c r="C11" s="356" t="s">
+      <c r="C11" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D11" s="356" t="s">
+      <c r="D11" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E11" s="208" t="s">
         <v>820</v>
       </c>
-      <c r="F11" s="356" t="s">
+      <c r="F11" s="263" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="357"/>
-      <c r="H11" s="357">
+      <c r="G11" s="264"/>
+      <c r="H11" s="264">
         <v>108457.88</v>
       </c>
-      <c r="I11" s="356"/>
+      <c r="I11" s="263"/>
       <c r="J11" s="208" t="s">
         <v>832</v>
       </c>
@@ -11842,26 +11898,26 @@
       <c r="A12" s="209">
         <v>1</v>
       </c>
-      <c r="B12" s="355">
+      <c r="B12" s="262">
         <v>45504</v>
       </c>
-      <c r="C12" s="356" t="s">
+      <c r="C12" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D12" s="356" t="s">
+      <c r="D12" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E12" s="208" t="s">
         <v>295</v>
       </c>
-      <c r="F12" s="356" t="s">
+      <c r="F12" s="263" t="s">
         <v>821</v>
       </c>
-      <c r="G12" s="357"/>
-      <c r="H12" s="357">
+      <c r="G12" s="264"/>
+      <c r="H12" s="264">
         <v>359.39</v>
       </c>
-      <c r="I12" s="356"/>
+      <c r="I12" s="263"/>
       <c r="J12" s="208" t="s">
         <v>832</v>
       </c>
@@ -11870,26 +11926,26 @@
       <c r="A13" s="209">
         <v>1</v>
       </c>
-      <c r="B13" s="355">
+      <c r="B13" s="262">
         <v>45504</v>
       </c>
-      <c r="C13" s="356" t="s">
+      <c r="C13" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D13" s="356" t="s">
+      <c r="D13" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E13" s="208" t="s">
         <v>304</v>
       </c>
-      <c r="F13" s="356" t="s">
+      <c r="F13" s="263" t="s">
         <v>822</v>
       </c>
-      <c r="G13" s="357"/>
-      <c r="H13" s="357">
+      <c r="G13" s="264"/>
+      <c r="H13" s="264">
         <v>188.4</v>
       </c>
-      <c r="I13" s="356"/>
+      <c r="I13" s="263"/>
       <c r="J13" s="208" t="s">
         <v>832</v>
       </c>
@@ -11898,26 +11954,26 @@
       <c r="A14" s="209">
         <v>1</v>
       </c>
-      <c r="B14" s="355">
+      <c r="B14" s="262">
         <v>45504</v>
       </c>
-      <c r="C14" s="356" t="s">
+      <c r="C14" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D14" s="356" t="s">
+      <c r="D14" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E14" s="208" t="s">
         <v>823</v>
       </c>
-      <c r="F14" s="356" t="s">
+      <c r="F14" s="263" t="s">
         <v>824</v>
       </c>
-      <c r="G14" s="357"/>
-      <c r="H14" s="357">
+      <c r="G14" s="264"/>
+      <c r="H14" s="264">
         <v>16972.54</v>
       </c>
-      <c r="I14" s="356"/>
+      <c r="I14" s="263"/>
       <c r="J14" s="208" t="s">
         <v>832</v>
       </c>
@@ -11926,26 +11982,26 @@
       <c r="A15" s="209">
         <v>1</v>
       </c>
-      <c r="B15" s="355">
+      <c r="B15" s="262">
         <v>45504</v>
       </c>
-      <c r="C15" s="356" t="s">
+      <c r="C15" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D15" s="356" t="s">
+      <c r="D15" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E15" s="208" t="s">
         <v>825</v>
       </c>
-      <c r="F15" s="356" t="s">
+      <c r="F15" s="263" t="s">
         <v>318</v>
       </c>
-      <c r="G15" s="357">
+      <c r="G15" s="264">
         <v>15567</v>
       </c>
-      <c r="H15" s="357"/>
-      <c r="I15" s="356"/>
+      <c r="H15" s="264"/>
+      <c r="I15" s="263"/>
       <c r="J15" s="208" t="s">
         <v>832</v>
       </c>
@@ -11954,26 +12010,26 @@
       <c r="A16" s="209">
         <v>1</v>
       </c>
-      <c r="B16" s="355">
+      <c r="B16" s="262">
         <v>45504</v>
       </c>
-      <c r="C16" s="356" t="s">
+      <c r="C16" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D16" s="356" t="s">
+      <c r="D16" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E16" s="208" t="s">
         <v>826</v>
       </c>
-      <c r="F16" s="356" t="s">
+      <c r="F16" s="263" t="s">
         <v>322</v>
       </c>
-      <c r="G16" s="357">
+      <c r="G16" s="264">
         <v>12776</v>
       </c>
-      <c r="H16" s="357"/>
-      <c r="I16" s="356"/>
+      <c r="H16" s="264"/>
+      <c r="I16" s="263"/>
       <c r="J16" s="208" t="s">
         <v>832</v>
       </c>
@@ -11982,26 +12038,26 @@
       <c r="A17" s="209">
         <v>1</v>
       </c>
-      <c r="B17" s="355">
+      <c r="B17" s="262">
         <v>45504</v>
       </c>
-      <c r="C17" s="356" t="s">
+      <c r="C17" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D17" s="356" t="s">
+      <c r="D17" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E17" s="208" t="s">
         <v>827</v>
       </c>
-      <c r="F17" s="356" t="s">
+      <c r="F17" s="263" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="357"/>
-      <c r="H17" s="357">
+      <c r="G17" s="264"/>
+      <c r="H17" s="264">
         <v>1217.3699999999999</v>
       </c>
-      <c r="I17" s="356"/>
+      <c r="I17" s="263"/>
       <c r="J17" s="208" t="s">
         <v>832</v>
       </c>
@@ -12010,26 +12066,26 @@
       <c r="A18" s="209">
         <v>1</v>
       </c>
-      <c r="B18" s="355">
+      <c r="B18" s="262">
         <v>45504</v>
       </c>
-      <c r="C18" s="356" t="s">
+      <c r="C18" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D18" s="356" t="s">
+      <c r="D18" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E18" s="208" t="s">
         <v>828</v>
       </c>
-      <c r="F18" s="356" t="s">
+      <c r="F18" s="263" t="s">
         <v>328</v>
       </c>
-      <c r="G18" s="357"/>
-      <c r="H18" s="357">
+      <c r="G18" s="264"/>
+      <c r="H18" s="264">
         <v>100</v>
       </c>
-      <c r="I18" s="356"/>
+      <c r="I18" s="263"/>
       <c r="J18" s="208" t="s">
         <v>832</v>
       </c>
@@ -12038,26 +12094,26 @@
       <c r="A19" s="209">
         <v>1</v>
       </c>
-      <c r="B19" s="355">
+      <c r="B19" s="262">
         <v>45504</v>
       </c>
-      <c r="C19" s="356" t="s">
+      <c r="C19" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D19" s="356" t="s">
+      <c r="D19" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E19" s="208" t="s">
         <v>829</v>
       </c>
-      <c r="F19" s="356" t="s">
+      <c r="F19" s="263" t="s">
         <v>332</v>
       </c>
-      <c r="G19" s="357"/>
-      <c r="H19" s="357">
+      <c r="G19" s="264"/>
+      <c r="H19" s="264">
         <v>300</v>
       </c>
-      <c r="I19" s="356"/>
+      <c r="I19" s="263"/>
       <c r="J19" s="208" t="s">
         <v>832</v>
       </c>
@@ -12066,26 +12122,26 @@
       <c r="A20" s="209">
         <v>1</v>
       </c>
-      <c r="B20" s="355">
+      <c r="B20" s="262">
         <v>45504</v>
       </c>
-      <c r="C20" s="356" t="s">
+      <c r="C20" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D20" s="356" t="s">
+      <c r="D20" s="263" t="s">
         <v>814</v>
       </c>
       <c r="E20" s="208" t="s">
         <v>830</v>
       </c>
-      <c r="F20" s="356" t="s">
+      <c r="F20" s="263" t="s">
         <v>831</v>
       </c>
-      <c r="G20" s="357"/>
-      <c r="H20" s="357">
+      <c r="G20" s="264"/>
+      <c r="H20" s="264">
         <v>450576.65</v>
       </c>
-      <c r="I20" s="356"/>
+      <c r="I20" s="263"/>
       <c r="J20" s="208" t="s">
         <v>832</v>
       </c>
@@ -12093,14 +12149,14 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{E0D58006-DE1D-488F-9BB7-8096C5818030}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A21:J99999">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>AND($A21&lt;&gt;"",MOD(ROW(),2)=1)</formula>
+  <conditionalFormatting sqref="A2:J99999">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J99999">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
+  <conditionalFormatting sqref="A21:J99999">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND($A21&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12111,12 +12167,12 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="wshTEC_Local"/>
-  <dimension ref="A1:P264"/>
+  <dimension ref="A1:P266"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" rightToLeft="false">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" rightToLeft="false">
       <pane ySplit="570" topLeftCell="A236" activePane="bottomLeft"/>
       <selection activeCell="K1" sqref="K1:K1048576"/>
-      <selection pane="bottomLeft" activeCell="K246" sqref="K246"/>
+      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23675,119 +23731,201 @@
       </c>
       <c r="P262" s="261"/>
     </row>
-    <row outlineLevel="0" r="263">
-      <c r="A263" s="345">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="263">
+      <c r="A263" s="359">
         <v>262</v>
       </c>
-      <c r="B263" s="345">
+      <c r="B263" s="360">
         <v>1</v>
       </c>
-      <c r="C263" s="345" t="inlineStr">
-        <is>
-          <t>GC</t>
-        </is>
-      </c>
-      <c r="D263" s="269">
+      <c r="C263" s="361" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" s="362">
         <v>45508</v>
       </c>
-      <c r="E263" s="345" t="inlineStr">
+      <c r="E263" s="361" t="s">
+        <v>833</v>
+      </c>
+      <c r="F263" s="363" t="s">
+        <v>834</v>
+      </c>
+      <c r="G263" s="363" t="s">
+        <v>835</v>
+      </c>
+      <c r="H263" s="364">
+        <v>2</v>
+      </c>
+      <c r="I263" s="363"/>
+      <c r="J263" s="365" t="s">
+        <v>404</v>
+      </c>
+      <c r="K263" s="366">
+        <v>45508.4094097222</v>
+      </c>
+      <c r="L263" s="365" t="s">
+        <v>404</v>
+      </c>
+      <c r="M263" s="365"/>
+      <c r="N263" s="365" t="s">
+        <v>404</v>
+      </c>
+      <c r="O263" s="365" t="s">
+        <v>836</v>
+      </c>
+      <c r="P263" s="367"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="264">
+      <c r="A264" s="359">
+        <v>263</v>
+      </c>
+      <c r="B264" s="360">
+        <v>1</v>
+      </c>
+      <c r="C264" s="361" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" s="362">
+        <v>45508</v>
+      </c>
+      <c r="E264" s="361" t="s">
+        <v>837</v>
+      </c>
+      <c r="F264" s="363" t="s">
+        <v>838</v>
+      </c>
+      <c r="G264" s="363" t="s">
+        <v>6</v>
+      </c>
+      <c r="H264" s="364">
+        <v>1.4</v>
+      </c>
+      <c r="I264" s="363"/>
+      <c r="J264" s="365" t="s">
+        <v>404</v>
+      </c>
+      <c r="K264" s="366">
+        <v>45508.4093287037</v>
+      </c>
+      <c r="L264" s="365" t="s">
+        <v>404</v>
+      </c>
+      <c r="M264" s="365"/>
+      <c r="N264" s="365" t="s">
+        <v>404</v>
+      </c>
+      <c r="O264" s="365" t="s">
+        <v>836</v>
+      </c>
+      <c r="P264" s="367"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="265">
+      <c r="A265" s="359">
+        <v>264</v>
+      </c>
+      <c r="B265" s="360">
+        <v>1</v>
+      </c>
+      <c r="C265" s="361" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="362">
+        <v>45508</v>
+      </c>
+      <c r="E265" s="361" t="inlineStr">
         <is>
           <t>193r</t>
         </is>
       </c>
-      <c r="F263" s="345" t="inlineStr">
+      <c r="F265" s="363" t="inlineStr">
         <is>
-          <t>Logiciels Informat - Robert</t>
+          <t>Logiciels Informat - Robert [Robert Vigneault]</t>
         </is>
       </c>
-      <c r="G263" s="345" t="inlineStr">
+      <c r="G265" s="363" t="inlineStr">
         <is>
-          <t>Test de modification</t>
+          <t>Test</t>
         </is>
       </c>
-      <c r="H263" s="345">
-        <v>2</v>
-      </c>
-      <c r="J263" s="345" t="inlineStr">
+      <c r="H265" s="364">
+        <v>1</v>
+      </c>
+      <c r="I265" s="363"/>
+      <c r="J265" s="365" t="inlineStr">
         <is>
           <t>FAUX</t>
         </is>
       </c>
-      <c r="K263" s="269">
-        <v>45508.4094097222</v>
-      </c>
-      <c r="L263" s="345" t="inlineStr">
+      <c r="K265" s="366">
+        <v>45510.6025</v>
+      </c>
+      <c r="L265" s="365" t="s">
+        <v>404</v>
+      </c>
+      <c r="M265" s="365"/>
+      <c r="N265" s="365" t="s">
+        <v>404</v>
+      </c>
+      <c r="O265" s="365" t="inlineStr">
+        <is>
+          <t>v4.B.4.xlsb</t>
+        </is>
+      </c>
+      <c r="P265" s="367"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="266">
+      <c r="A266" s="368">
+        <v>265</v>
+      </c>
+      <c r="B266" s="369">
+        <v>1</v>
+      </c>
+      <c r="C266" s="370" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" s="371">
+        <v>45508</v>
+      </c>
+      <c r="E266" s="370" t="inlineStr">
+        <is>
+          <t>1528</t>
+        </is>
+      </c>
+      <c r="F266" s="372" t="inlineStr">
+        <is>
+          <t>Huwiz Inc.</t>
+        </is>
+      </c>
+      <c r="G266" s="372" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="H266" s="373">
+        <v>0.1</v>
+      </c>
+      <c r="I266" s="372"/>
+      <c r="J266" s="374" t="inlineStr">
         <is>
           <t>FAUX</t>
         </is>
       </c>
-      <c r="N263" s="345" t="inlineStr">
+      <c r="K266" s="375">
+        <v>45510.6025462963</v>
+      </c>
+      <c r="L266" s="374" t="s">
+        <v>404</v>
+      </c>
+      <c r="M266" s="374"/>
+      <c r="N266" s="374" t="s">
+        <v>404</v>
+      </c>
+      <c r="O266" s="374" t="inlineStr">
         <is>
-          <t>FAUX</t>
+          <t>v4.B.4.xlsb</t>
         </is>
       </c>
-      <c r="O263" s="345" t="inlineStr">
-        <is>
-          <t>v4.A.2.xlsb</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="264">
-      <c r="A264" s="345">
-        <v>263</v>
-      </c>
-      <c r="B264" s="345">
-        <v>1</v>
-      </c>
-      <c r="C264" s="345" t="inlineStr">
-        <is>
-          <t>GC</t>
-        </is>
-      </c>
-      <c r="D264" s="269">
-        <v>45508</v>
-      </c>
-      <c r="E264" s="345" t="inlineStr">
-        <is>
-          <t>193l</t>
-        </is>
-      </c>
-      <c r="F264" s="345" t="inlineStr">
-        <is>
-          <t>Logiciels Informat - Luc</t>
-        </is>
-      </c>
-      <c r="G264" s="345" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="H264" s="345">
-        <v>1.4</v>
-      </c>
-      <c r="J264" s="345" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="K264" s="269">
-        <v>45508.4093287037</v>
-      </c>
-      <c r="L264" s="345" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="N264" s="345" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="O264" s="345" t="inlineStr">
-        <is>
-          <t>v4.A.2.xlsb</t>
-        </is>
-      </c>
+      <c r="P266" s="376"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23841,51 +23979,51 @@
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="262"/>
-      <c r="O1" s="262"/>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="262"/>
-      <c r="S1" s="262"/>
-      <c r="T1" s="262"/>
-      <c r="U1" s="262"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="266"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="266"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="266"/>
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="267" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="263"/>
+      <c r="B2" s="267"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="24"/>
-      <c r="D3" s="264" t="s">
+      <c r="D3" s="268" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="265"/>
-      <c r="F3" s="266" t="s">
+      <c r="E3" s="269"/>
+      <c r="F3" s="270" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="268"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="271"/>
+      <c r="K3" s="271"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="272"/>
       <c r="T3" s="11"/>
       <c r="V3"/>
     </row>
@@ -23894,10 +24032,10 @@
         <v>197</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="P4" s="269"/>
-      <c r="Q4" s="270"/>
-      <c r="R4" s="271"/>
-      <c r="S4" s="271"/>
+      <c r="P4" s="273"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="275"/>
+      <c r="S4" s="275"/>
       <c r="V4" s="4"/>
       <c r="W4" s="2"/>
     </row>
@@ -23906,24 +24044,24 @@
         <v>198</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="D5" s="278" t="s">
+      <c r="D5" s="282" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="279"/>
-      <c r="F5" s="280" t="s">
+      <c r="E5" s="283"/>
+      <c r="F5" s="284" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="281"/>
-      <c r="L5" s="281"/>
-      <c r="M5" s="282"/>
-      <c r="P5" s="270"/>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="271"/>
-      <c r="S5" s="271"/>
+      <c r="G5" s="285"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285"/>
+      <c r="K5" s="285"/>
+      <c r="L5" s="285"/>
+      <c r="M5" s="286"/>
+      <c r="P5" s="274"/>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="275"/>
+      <c r="S5" s="275"/>
       <c r="V5" s="4"/>
       <c r="W5" s="2"/>
     </row>
@@ -23932,24 +24070,24 @@
         <v>201</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="287" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="284"/>
-      <c r="F6" s="285" t="s">
+      <c r="E6" s="288"/>
+      <c r="F6" s="289" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="287"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="270"/>
-      <c r="R6" s="271"/>
-      <c r="S6" s="271"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="290"/>
+      <c r="I6" s="290"/>
+      <c r="J6" s="290"/>
+      <c r="K6" s="290"/>
+      <c r="L6" s="290"/>
+      <c r="M6" s="291"/>
+      <c r="P6" s="274"/>
+      <c r="Q6" s="274"/>
+      <c r="R6" s="275"/>
+      <c r="S6" s="275"/>
       <c r="V6" s="4"/>
       <c r="W6" s="2"/>
     </row>
@@ -23987,38 +24125,38 @@
       <c r="B9" s="30">
         <v>355</v>
       </c>
-      <c r="D9" s="290" t="s">
+      <c r="D9" s="294" t="s">
         <v>370</v>
       </c>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="292"/>
-      <c r="I9" s="293" t="s">
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="296"/>
+      <c r="I9" s="297" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="294"/>
+      <c r="J9" s="298"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="295" t="s">
+      <c r="L9" s="299" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="296"/>
-      <c r="N9" s="297"/>
-      <c r="P9" s="298" t="s">
+      <c r="M9" s="300"/>
+      <c r="N9" s="301"/>
+      <c r="P9" s="302" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="299"/>
-      <c r="R9" s="300"/>
-      <c r="T9" s="272" t="s">
+      <c r="Q9" s="303"/>
+      <c r="R9" s="304"/>
+      <c r="T9" s="276" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="273"/>
-      <c r="V9" s="273"/>
-      <c r="W9" s="274"/>
-      <c r="Y9" s="275" t="s">
+      <c r="U9" s="277"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="278"/>
+      <c r="Y9" s="279" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="276"/>
-      <c r="AA9" s="277"/>
+      <c r="Z9" s="280"/>
+      <c r="AA9" s="281"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="156" t="s">
@@ -24070,9 +24208,9 @@
       <c r="W10" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="301"/>
-      <c r="Z10" s="302"/>
-      <c r="AA10" s="303"/>
+      <c r="Y10" s="305"/>
+      <c r="Z10" s="306"/>
+      <c r="AA10" s="307"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="142" t="s">
@@ -24108,11 +24246,11 @@
       </c>
       <c r="Q11" s="53">
         <f ca="1">TODAY()</f>
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="R11" s="54">
         <f ca="1">TODAY()</f>
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="T11" s="55" t="s">
         <v>30</v>
@@ -24468,11 +24606,11 @@
       </c>
       <c r="Q18" s="68">
         <f ca="1">TODAY()-6</f>
-        <v>45501</v>
+        <v>45504</v>
       </c>
       <c r="R18" s="69">
         <f ca="1">TODAY()</f>
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="T18" s="70" t="s">
         <v>143</v>
@@ -24513,11 +24651,11 @@
       </c>
       <c r="Q19" s="68">
         <f ca="1">TODAY()-14</f>
-        <v>45493</v>
+        <v>45496</v>
       </c>
       <c r="R19" s="69">
         <f ca="1">TODAY()</f>
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="T19" s="70" t="s">
         <v>246</v>
@@ -24558,11 +24696,11 @@
       </c>
       <c r="Q20" s="68">
         <f ca="1">Q11-WEEKDAY(Q11,1)+1</f>
-        <v>45501</v>
+        <v>45508</v>
       </c>
       <c r="R20" s="69">
         <f ca="1">Tableau89[[#This Row],[Du]]+6</f>
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="T20" s="70" t="s">
         <v>76</v>
@@ -24596,10 +24734,10 @@
       <c r="I21" s="137"/>
       <c r="J21" s="139"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="307" t="s">
+      <c r="L21" s="311" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="308"/>
+      <c r="M21" s="312"/>
       <c r="N21" s="92">
         <v>7</v>
       </c>
@@ -24705,11 +24843,11 @@
       <c r="I24" s="138"/>
       <c r="J24" s="139"/>
       <c r="K24" s="31"/>
-      <c r="P24" s="295" t="s">
+      <c r="P24" s="299" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="296"/>
-      <c r="R24" s="297"/>
+      <c r="Q24" s="300"/>
+      <c r="R24" s="301"/>
       <c r="T24" s="70" t="s">
         <v>259</v>
       </c>
@@ -24740,10 +24878,10 @@
       <c r="I25" s="140"/>
       <c r="J25" s="141"/>
       <c r="K25" s="31"/>
-      <c r="P25" s="309" t="s">
+      <c r="P25" s="313" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="310"/>
+      <c r="Q25" s="314"/>
       <c r="R25" s="99" t="s">
         <v>262</v>
       </c>
@@ -24778,10 +24916,10 @@
       <c r="G26" s="151"/>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
-      <c r="P26" s="288" t="s">
+      <c r="P26" s="292" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="289"/>
+      <c r="Q26" s="293"/>
       <c r="R26" s="100" t="s">
         <v>267</v>
       </c>
@@ -24816,10 +24954,10 @@
       <c r="G27" s="151"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="P27" s="311" t="s">
+      <c r="P27" s="315" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="312"/>
+      <c r="Q27" s="316"/>
       <c r="R27" s="102" t="s">
         <v>267</v>
       </c>
@@ -24850,20 +24988,20 @@
       </c>
       <c r="F28" s="148"/>
       <c r="G28" s="151"/>
-      <c r="I28" s="313" t="s">
+      <c r="I28" s="317" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="314"/>
+      <c r="J28" s="318"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="315" t="s">
+      <c r="L28" s="319" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="316"/>
-      <c r="N28" s="317"/>
-      <c r="P28" s="318" t="s">
+      <c r="M28" s="320"/>
+      <c r="N28" s="321"/>
+      <c r="P28" s="322" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="319"/>
+      <c r="Q28" s="323"/>
       <c r="R28" s="105" t="s">
         <v>278</v>
       </c>
@@ -24894,20 +25032,20 @@
       </c>
       <c r="F29" s="148"/>
       <c r="G29" s="151"/>
-      <c r="I29" s="318" t="s">
+      <c r="I29" s="322" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="320"/>
+      <c r="J29" s="324"/>
       <c r="K29" s="2"/>
       <c r="L29" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="321"/>
-      <c r="N29" s="322"/>
-      <c r="P29" s="323" t="s">
+      <c r="M29" s="325"/>
+      <c r="N29" s="326"/>
+      <c r="P29" s="327" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="324"/>
+      <c r="Q29" s="328"/>
       <c r="R29" s="102" t="s">
         <v>278</v>
       </c>
@@ -24940,20 +25078,20 @@
       </c>
       <c r="F30" s="153"/>
       <c r="G30" s="154"/>
-      <c r="I30" s="325" t="s">
+      <c r="I30" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="326"/>
+      <c r="J30" s="330"/>
       <c r="K30" s="2"/>
       <c r="L30" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="321"/>
-      <c r="N30" s="322"/>
-      <c r="P30" s="327" t="s">
+      <c r="M30" s="325"/>
+      <c r="N30" s="326"/>
+      <c r="P30" s="331" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="328"/>
+      <c r="Q30" s="332"/>
       <c r="R30" s="105" t="s">
         <v>267</v>
       </c>
@@ -24978,19 +25116,19 @@
       <c r="AA30" s="82"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I31" s="318" t="s">
+      <c r="I31" s="322" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="320"/>
+      <c r="J31" s="324"/>
       <c r="L31" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="321"/>
-      <c r="N31" s="322"/>
-      <c r="P31" s="311" t="s">
+      <c r="M31" s="325"/>
+      <c r="N31" s="326"/>
+      <c r="P31" s="315" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="312"/>
+      <c r="Q31" s="316"/>
       <c r="R31" s="102" t="s">
         <v>278</v>
       </c>
@@ -25015,19 +25153,19 @@
       <c r="AA31" s="82"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="325" t="s">
+      <c r="I32" s="329" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="326"/>
+      <c r="J32" s="330"/>
       <c r="L32" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="321"/>
-      <c r="N32" s="322"/>
-      <c r="P32" s="335" t="s">
+      <c r="M32" s="325"/>
+      <c r="N32" s="326"/>
+      <c r="P32" s="339" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="336"/>
+      <c r="Q32" s="340"/>
       <c r="R32" s="110" t="s">
         <v>267</v>
       </c>
@@ -25054,15 +25192,15 @@
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="318" t="s">
+      <c r="I33" s="322" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="320"/>
+      <c r="J33" s="324"/>
       <c r="L33" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="340"/>
-      <c r="N33" s="341"/>
+      <c r="M33" s="344"/>
+      <c r="N33" s="345"/>
       <c r="T33" s="70" t="s">
         <v>65</v>
       </c>
@@ -25084,10 +25222,10 @@
       <c r="AA33" s="82"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I34" s="325" t="s">
+      <c r="I34" s="329" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="326"/>
+      <c r="J34" s="330"/>
       <c r="T34" s="70" t="s">
         <v>300</v>
       </c>
@@ -25109,12 +25247,12 @@
       <c r="AA34" s="82"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="344" t="s">
+      <c r="I35" s="348" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="345"/>
-      <c r="P35" s="346"/>
-      <c r="Q35" s="346"/>
+      <c r="J35" s="349"/>
+      <c r="P35" s="350"/>
+      <c r="Q35" s="350"/>
       <c r="T35" s="70" t="s">
         <v>303</v>
       </c>
@@ -25157,16 +25295,16 @@
       <c r="AA36" s="82"/>
     </row>
     <row r="37" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="304" t="s">
+      <c r="D37" s="308" t="s">
         <v>371</v>
       </c>
-      <c r="E37" s="305"/>
-      <c r="F37" s="306"/>
-      <c r="P37" s="295" t="s">
+      <c r="E37" s="309"/>
+      <c r="F37" s="310"/>
+      <c r="P37" s="299" t="s">
         <v>290</v>
       </c>
-      <c r="Q37" s="296"/>
-      <c r="R37" s="297"/>
+      <c r="Q37" s="300"/>
+      <c r="R37" s="301"/>
       <c r="T37" s="70" t="s">
         <v>74</v>
       </c>
@@ -25199,15 +25337,15 @@
       <c r="F38" s="161" t="s">
         <v>243</v>
       </c>
-      <c r="I38" s="347" t="s">
+      <c r="I38" s="351" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="348"/>
-      <c r="P38" s="332" t="s">
+      <c r="J38" s="352"/>
+      <c r="P38" s="336" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="333"/>
-      <c r="R38" s="334"/>
+      <c r="Q38" s="337"/>
+      <c r="R38" s="338"/>
       <c r="T38" s="70" t="s">
         <v>310</v>
       </c>
@@ -25244,11 +25382,11 @@
       <c r="J39" s="114" t="s">
         <v>313</v>
       </c>
-      <c r="P39" s="337" t="s">
+      <c r="P39" s="341" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="338"/>
-      <c r="R39" s="339"/>
+      <c r="Q39" s="342"/>
+      <c r="R39" s="343"/>
       <c r="T39" s="70" t="s">
         <v>314</v>
       </c>
@@ -25283,11 +25421,11 @@
         <v>317</v>
       </c>
       <c r="J40" s="116"/>
-      <c r="P40" s="325" t="s">
+      <c r="P40" s="329" t="s">
         <v>24</v>
       </c>
-      <c r="Q40" s="342"/>
-      <c r="R40" s="326"/>
+      <c r="Q40" s="346"/>
+      <c r="R40" s="330"/>
       <c r="T40" s="70" t="s">
         <v>318</v>
       </c>
@@ -25322,11 +25460,11 @@
         <v>88</v>
       </c>
       <c r="J41" s="120"/>
-      <c r="P41" s="318" t="s">
+      <c r="P41" s="322" t="s">
         <v>108</v>
       </c>
-      <c r="Q41" s="343"/>
-      <c r="R41" s="320"/>
+      <c r="Q41" s="347"/>
+      <c r="R41" s="324"/>
       <c r="T41" s="70" t="s">
         <v>322</v>
       </c>
@@ -25361,11 +25499,11 @@
         <v>102</v>
       </c>
       <c r="J42" s="116"/>
-      <c r="P42" s="329" t="s">
+      <c r="P42" s="333" t="s">
         <v>23</v>
       </c>
-      <c r="Q42" s="330"/>
-      <c r="R42" s="331"/>
+      <c r="Q42" s="334"/>
+      <c r="R42" s="335"/>
       <c r="T42" s="70" t="s">
         <v>325</v>
       </c>
@@ -25553,15 +25691,15 @@
     </row>
     <row r="48" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F48" s="103"/>
-      <c r="I48" s="313" t="s">
+      <c r="I48" s="317" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="314"/>
-      <c r="P48" s="349" t="s">
+      <c r="J48" s="318"/>
+      <c r="P48" s="353" t="s">
         <v>312</v>
       </c>
-      <c r="Q48" s="350"/>
-      <c r="R48" s="351"/>
+      <c r="Q48" s="354"/>
+      <c r="R48" s="355"/>
       <c r="T48" s="70" t="s">
         <v>67</v>
       </c>
@@ -25584,10 +25722,10 @@
     </row>
     <row r="49" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F49" s="103"/>
-      <c r="I49" s="318" t="s">
+      <c r="I49" s="322" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="320"/>
+      <c r="J49" s="324"/>
       <c r="P49" s="113" t="s">
         <v>315</v>
       </c>
@@ -25619,10 +25757,10 @@
     </row>
     <row r="50" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F50" s="103"/>
-      <c r="I50" s="325" t="s">
+      <c r="I50" s="329" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="326"/>
+      <c r="J50" s="330"/>
       <c r="P50" s="117" t="s">
         <v>321</v>
       </c>
@@ -25654,10 +25792,10 @@
     </row>
     <row r="51" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F51" s="103"/>
-      <c r="I51" s="318" t="s">
+      <c r="I51" s="322" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="320"/>
+      <c r="J51" s="324"/>
       <c r="P51" s="121" t="s">
         <v>90</v>
       </c>
@@ -25687,10 +25825,10 @@
     </row>
     <row r="52" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F52" s="103"/>
-      <c r="I52" s="325" t="s">
+      <c r="I52" s="329" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="326"/>
+      <c r="J52" s="330"/>
       <c r="P52" s="124" t="s">
         <v>87</v>
       </c>
@@ -25713,10 +25851,10 @@
     </row>
     <row r="53" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F53" s="103"/>
-      <c r="I53" s="318" t="s">
+      <c r="I53" s="322" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="320"/>
+      <c r="J53" s="324"/>
       <c r="P53" s="121" t="s">
         <v>103</v>
       </c>
@@ -25761,10 +25899,10 @@
     </row>
     <row r="55" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F55" s="103"/>
-      <c r="I55" s="325" t="s">
+      <c r="I55" s="329" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="326"/>
+      <c r="J55" s="330"/>
       <c r="T55" s="70" t="s">
         <v>175</v>
       </c>
@@ -25780,10 +25918,10 @@
     </row>
     <row r="56" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F56" s="103"/>
-      <c r="I56" s="344" t="s">
+      <c r="I56" s="348" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="345"/>
+      <c r="J56" s="349"/>
       <c r="T56" s="70" t="s">
         <v>34</v>
       </c>
@@ -26049,11 +26187,11 @@
       </c>
     </row>
     <row r="74" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="295" t="s">
+      <c r="D74" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="E74" s="296"/>
-      <c r="F74" s="297"/>
+      <c r="E74" s="300"/>
+      <c r="F74" s="301"/>
       <c r="T74" s="70" t="s">
         <v>187</v>
       </c>
@@ -26068,11 +26206,11 @@
       </c>
     </row>
     <row r="75" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D75" s="332" t="s">
+      <c r="D75" s="336" t="s">
         <v>243</v>
       </c>
-      <c r="E75" s="333"/>
-      <c r="F75" s="334"/>
+      <c r="E75" s="337"/>
+      <c r="F75" s="338"/>
       <c r="T75" s="70" t="s">
         <v>189</v>
       </c>
@@ -26087,11 +26225,11 @@
       </c>
     </row>
     <row r="76" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="352">
+      <c r="D76" s="356">
         <v>350</v>
       </c>
-      <c r="E76" s="353"/>
-      <c r="F76" s="354"/>
+      <c r="E76" s="357"/>
+      <c r="F76" s="358"/>
       <c r="T76" s="70" t="s">
         <v>366</v>
       </c>
@@ -26175,44 +26313,44 @@
     <mergeCell ref="R4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:G30">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>AND($D11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P21">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R20">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:W78">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AA51">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND($Y12&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26593,7 +26731,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M9987">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26742,7 +26880,7 @@
   <autoFilter ref="A1:P1" xr:uid="{BF285A66-D32A-4C2D-BAAD-5B60B0034FFF}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:P9924">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26928,7 +27066,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:F9929">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26981,7 +27119,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{9CC0F112-F6F5-4729-8EA4-252A1080634A}"/>
   <conditionalFormatting sqref="A2:F99947">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27061,7 +27199,7 @@
   <autoFilter ref="A1:J1" xr:uid="{6A0BDE8C-C0CD-4E75-A0A0-916CFADCF838}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J99999">
-    <cfRule type="expression" dxfId="10" priority="49">
+    <cfRule type="expression" dxfId="8" priority="49">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27198,7 +27336,7 @@
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{8B45F79E-24DF-4598-AC35-A20900C36411}"/>
   <conditionalFormatting sqref="A2:V9999">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27264,7 +27402,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F9999">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ED37AA-9BB7-4CEE-85FF-F30858791A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3436BB-5B36-4885-ACE4-DD28C626D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2447,9 +2447,6 @@
     <t>408</t>
   </si>
   <si>
-    <t>Louis Parker</t>
-  </si>
-  <si>
     <t>analyse de question de Giovanni sur prix de vente vs portion restante et kick back + façon de payer + tel Louis</t>
   </si>
   <si>
@@ -2691,6 +2688,9 @@
   </si>
   <si>
     <t>v4.B.4.xlsb</t>
+  </si>
+  <si>
+    <t>Louis Parker [Giovanni Cinquino (Gestion GMCB Inc)]</t>
   </si>
 </sst>
 </file>
@@ -4821,7 +4821,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5536,6 +5536,261 @@
     <xf numFmtId="49" fontId="31" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="7" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="7" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="7" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="11" borderId="83" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="11" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="11" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="11" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5559,311 +5814,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="11" borderId="83" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="11" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="11" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="11" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="7" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="7" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="7" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5872,7 +5822,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="107">
+  <dxfs count="108">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -8456,23 +8413,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4081FC28-DC16-4499-9F16-86BDB780596C}" name="Tableau5" displayName="Tableau5" ref="L10:N18" totalsRowShown="0" headerRowDxfId="106" dataDxfId="104" headerRowBorderDxfId="105" tableBorderDxfId="103" totalsRowBorderDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4081FC28-DC16-4499-9F16-86BDB780596C}" name="Tableau5" displayName="Tableau5" ref="L10:N18" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103">
   <autoFilter ref="L10:N18" xr:uid="{A31919EF-8E0F-4C3C-BA3F-104400014F99}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3D5E5F4D-3EC3-41F3-B883-B5F4C7824D42}" name="Code" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{6498A585-0434-4EB1-977D-A0B20C9C63FB}" name="Date" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{74CB0563-15AB-43E0-9B35-F933DB6DD58F}" name="Taux" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{3D5E5F4D-3EC3-41F3-B883-B5F4C7824D42}" name="Code" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{6498A585-0434-4EB1-977D-A0B20C9C63FB}" name="Date" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{74CB0563-15AB-43E0-9B35-F933DB6DD58F}" name="Taux" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BEC410-3782-4EB4-90E8-8C9F29248E62}" name="Tableau37" displayName="Tableau37" ref="D18:F28" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BEC410-3782-4EB4-90E8-8C9F29248E62}" name="Tableau37" displayName="Tableau37" ref="D18:F28" totalsRowShown="0" headerRowDxfId="99" headerRowBorderDxfId="98" tableBorderDxfId="97">
   <autoFilter ref="D18:F28" xr:uid="{07C6E30C-A06F-40D4-9BA2-8A0A8A76ABF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8480,57 +8437,57 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4B0EDCED-EFE7-4F77-96E5-91C21BFED13C}" name="Prof_ID"/>
-    <tableColumn id="2" xr3:uid="{07335957-5072-4CC8-B588-145A144FD6FC}" name="Date" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{C1051574-3026-4CFC-ACE4-EE3A5BE120E3}" name="Taux horaire" dataDxfId="94" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{07335957-5072-4CC8-B588-145A144FD6FC}" name="Date" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{C1051574-3026-4CFC-ACE4-EE3A5BE120E3}" name="Taux horaire" dataDxfId="95" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B32BB353-BB34-42BB-9D46-2983C5A74B5B}" name="Tableau7" displayName="Tableau7" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B32BB353-BB34-42BB-9D46-2983C5A74B5B}" name="Tableau7" displayName="Tableau7" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F683B85E-E345-46C0-B559-6B55DA1B47DA}" name="Colonne1" headerRowDxfId="88" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{931BD703-99B9-4545-835A-2B2008F9C610}" name="Colonne2" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{F683B85E-E345-46C0-B559-6B55DA1B47DA}" name="Colonne1" headerRowDxfId="89" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{931BD703-99B9-4545-835A-2B2008F9C610}" name="Colonne2" headerRowDxfId="87" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7A353E-F107-4699-BEC2-AECA606D5D2B}" name="Tableau8" displayName="Tableau8" ref="P10:R21" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B7A353E-F107-4699-BEC2-AECA606D5D2B}" name="Tableau8" displayName="Tableau8" ref="P10:R21" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83">
   <autoFilter ref="P10:R21" xr:uid="{2167B6C9-9F6D-42E0-9CC7-719089B4BE11}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{621C6399-107E-4F8E-905B-7E9265495827}" name="Nom" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{BC9D39C0-5A8D-4060-86F2-B334715137AE}" name="Du" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{0317D5F2-8493-46CE-B417-3AD4D1BE752C}" name="Au" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{621C6399-107E-4F8E-905B-7E9265495827}" name="Nom" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{BC9D39C0-5A8D-4060-86F2-B334715137AE}" name="Du" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{0317D5F2-8493-46CE-B417-3AD4D1BE752C}" name="Au" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B8A5B66-CCB8-44E7-897F-6857E2E7217F}" name="Tableau56" displayName="Tableau56" ref="L10:N18" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B8A5B66-CCB8-44E7-897F-6857E2E7217F}" name="Tableau56" displayName="Tableau56" ref="L10:N18" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="L10:N18" xr:uid="{A31919EF-8E0F-4C3C-BA3F-104400014F99}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{239FBD47-A62E-4E25-A60D-B8F3F5784CAF}" name="Code" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{F1BF9BCA-554F-405E-8EB2-104EE5229852}" name="Date" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{BC205969-C048-4AC1-82CA-DCF785CD2E46}" name="Taux" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{239FBD47-A62E-4E25-A60D-B8F3F5784CAF}" name="Code" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{F1BF9BCA-554F-405E-8EB2-104EE5229852}" name="Date" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{BC205969-C048-4AC1-82CA-DCF785CD2E46}" name="Taux" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B24AF566-2215-473A-8202-6EEA9B350847}" name="Tableau377" displayName="Tableau377" ref="D38:F68" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B24AF566-2215-473A-8202-6EEA9B350847}" name="Tableau377" displayName="Tableau377" ref="D38:F68" totalsRowShown="0" headerRowDxfId="71" headerRowBorderDxfId="70" tableBorderDxfId="69">
   <autoFilter ref="D38:F68" xr:uid="{07C6E30C-A06F-40D4-9BA2-8A0A8A76ABF2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8538,59 +8495,59 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C26875D7-C0AC-4DC0-B966-9A0E941C1287}" name="Prof_ID"/>
-    <tableColumn id="2" xr3:uid="{223CDF22-7E9F-4FF3-B9E9-7EC1E83F63FD}" name="Date" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{3A31E360-73D5-4ABD-A9DE-9036997DA118}" name="Taux horaire" dataDxfId="66" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{223CDF22-7E9F-4FF3-B9E9-7EC1E83F63FD}" name="Date" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{3A31E360-73D5-4ABD-A9DE-9036997DA118}" name="Taux horaire" dataDxfId="67" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8451F979-3D72-41D4-A829-699B5830670C}" name="Tableau78" displayName="Tableau78" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8451F979-3D72-41D4-A829-699B5830670C}" name="Tableau78" displayName="Tableau78" ref="I10:J25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CB9EBD0D-71C1-4C9E-B3EA-2235AF94176F}" name="Colonne1" headerRowDxfId="60" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{C7DCD92E-FE54-4CC5-87B2-F9846C4139DC}" name="Colonne2" headerRowDxfId="58" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{CB9EBD0D-71C1-4C9E-B3EA-2235AF94176F}" name="Colonne1" headerRowDxfId="61" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{C7DCD92E-FE54-4CC5-87B2-F9846C4139DC}" name="Colonne2" headerRowDxfId="59" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA20A41A-5290-49EB-A732-D1309A2FE1EA}" name="Tableau89" displayName="Tableau89" ref="P10:R21" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA20A41A-5290-49EB-A732-D1309A2FE1EA}" name="Tableau89" displayName="Tableau89" ref="P10:R21" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55">
   <autoFilter ref="P10:R21" xr:uid="{2167B6C9-9F6D-42E0-9CC7-719089B4BE11}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0934086D-06C2-4C23-8345-99186FF38D1F}" name="Nom" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{661E3B83-6827-4026-8FCA-E63CF3515AA8}" name="Du" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{41F1CFF9-AC58-4534-B761-8C936A1D968E}" name="Au" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{0934086D-06C2-4C23-8345-99186FF38D1F}" name="Nom" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{661E3B83-6827-4026-8FCA-E63CF3515AA8}" name="Du" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{41F1CFF9-AC58-4534-B761-8C936A1D968E}" name="Au" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P266" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P266" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="A1:P266" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{442BE8B7-5CE4-48D7-A603-B8BD91CF4F12}" name="TEC_ID" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{AF8BE6CE-0BCF-4480-8A4A-B19F36ABFC85}" name="Prof_ID" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{0BBF5A6F-70D6-4E6C-8A34-1DC0B703A990}" name="Prof" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{E627AF44-B9B8-497C-BF47-8F6FF8ACD02A}" name="Date" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{2FCB36F7-7550-45BB-8BF9-F33F371A7621}" name="Client_ID" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{880B6392-67A4-44FE-99B4-2D6AFC690D19}" name="ClientNom" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{BB82BD83-08FF-46D8-AA7B-AF7F07E7D57F}" name="Description" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{6D50DCEF-6B21-4332-8C2B-6B7582E549FD}" name="Heures" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{B2B0BF98-C2E2-418F-B219-396DAE73E2C0}" name="CommentaireNote" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{04FCC7EC-6F94-4B76-87F6-13EC767E5814}" name="EstFacturable" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{31135437-F957-431B-B288-D96DDF98E911}" name="DateSaisie" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{B15D8992-EC7F-4A9F-9B45-525626044170}" name="EstFacturee" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{3FB2DD8F-2954-4B0B-82C3-975B3E73C363}" name="DateFacturee" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{5F5E7A24-97ED-4E35-AF70-985B14FFBDEF}" name="EstDetruit" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{0234FC06-DCE2-4E4D-888D-F4726D9FF50B}" name="VersionApp" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{67885876-BB1B-452D-BDA7-F4C0B770DC62}" name="NoFacture" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{442BE8B7-5CE4-48D7-A603-B8BD91CF4F12}" name="TEC_ID" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{AF8BE6CE-0BCF-4480-8A4A-B19F36ABFC85}" name="Prof_ID" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{0BBF5A6F-70D6-4E6C-8A34-1DC0B703A990}" name="Prof" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{E627AF44-B9B8-497C-BF47-8F6FF8ACD02A}" name="Date" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{2FCB36F7-7550-45BB-8BF9-F33F371A7621}" name="Client_ID" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{880B6392-67A4-44FE-99B4-2D6AFC690D19}" name="ClientNom" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{BB82BD83-08FF-46D8-AA7B-AF7F07E7D57F}" name="Description" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{6D50DCEF-6B21-4332-8C2B-6B7582E549FD}" name="Heures" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{B2B0BF98-C2E2-418F-B219-396DAE73E2C0}" name="CommentaireNote" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{04FCC7EC-6F94-4B76-87F6-13EC767E5814}" name="EstFacturable" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{31135437-F957-431B-B288-D96DDF98E911}" name="DateSaisie" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{B15D8992-EC7F-4A9F-9B45-525626044170}" name="EstFacturee" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{3FB2DD8F-2954-4B0B-82C3-975B3E73C363}" name="DateFacturee" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{5F5E7A24-97ED-4E35-AF70-985B14FFBDEF}" name="EstDetruit" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{0234FC06-DCE2-4E4D-888D-F4726D9FF50B}" name="VersionApp" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{67885876-BB1B-452D-BDA7-F4C0B770DC62}" name="NoFacture" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8900,51 +8857,51 @@
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
+      <c r="N1" s="351"/>
+      <c r="O1" s="351"/>
+      <c r="P1" s="351"/>
+      <c r="Q1" s="351"/>
+      <c r="R1" s="351"/>
+      <c r="S1" s="351"/>
+      <c r="T1" s="351"/>
+      <c r="U1" s="351"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="352" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="267"/>
+      <c r="B2" s="352"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="24"/>
-      <c r="D3" s="268" t="s">
+      <c r="D3" s="353" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="269"/>
-      <c r="F3" s="270" t="s">
+      <c r="E3" s="354"/>
+      <c r="F3" s="355" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="272"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="356"/>
+      <c r="I3" s="356"/>
+      <c r="J3" s="356"/>
+      <c r="K3" s="356"/>
+      <c r="L3" s="356"/>
+      <c r="M3" s="357"/>
       <c r="T3" s="11"/>
       <c r="V3"/>
     </row>
@@ -8953,10 +8910,10 @@
         <v>197</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="P4" s="273"/>
-      <c r="Q4" s="274"/>
-      <c r="R4" s="275"/>
-      <c r="S4" s="275"/>
+      <c r="P4" s="358"/>
+      <c r="Q4" s="344"/>
+      <c r="R4" s="345"/>
+      <c r="S4" s="345"/>
       <c r="V4" s="4"/>
       <c r="W4" s="2"/>
     </row>
@@ -8965,24 +8922,24 @@
         <v>198</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="D5" s="282" t="s">
+      <c r="D5" s="339" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="283"/>
-      <c r="F5" s="284" t="s">
+      <c r="E5" s="340"/>
+      <c r="F5" s="341" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="286"/>
-      <c r="P5" s="274"/>
-      <c r="Q5" s="274"/>
-      <c r="R5" s="275"/>
-      <c r="S5" s="275"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="343"/>
+      <c r="P5" s="344"/>
+      <c r="Q5" s="344"/>
+      <c r="R5" s="345"/>
+      <c r="S5" s="345"/>
       <c r="V5" s="4"/>
       <c r="W5" s="2"/>
     </row>
@@ -8991,24 +8948,24 @@
         <v>201</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="D6" s="287" t="s">
+      <c r="D6" s="346" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="288"/>
-      <c r="F6" s="289" t="s">
+      <c r="E6" s="347"/>
+      <c r="F6" s="348" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="290"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="290"/>
-      <c r="L6" s="290"/>
-      <c r="M6" s="291"/>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="275"/>
-      <c r="S6" s="275"/>
+      <c r="G6" s="349"/>
+      <c r="H6" s="349"/>
+      <c r="I6" s="349"/>
+      <c r="J6" s="349"/>
+      <c r="K6" s="349"/>
+      <c r="L6" s="349"/>
+      <c r="M6" s="350"/>
+      <c r="P6" s="344"/>
+      <c r="Q6" s="344"/>
+      <c r="R6" s="345"/>
+      <c r="S6" s="345"/>
       <c r="V6" s="4"/>
       <c r="W6" s="2"/>
     </row>
@@ -9046,38 +9003,38 @@
       <c r="B9" s="30">
         <v>355</v>
       </c>
-      <c r="D9" s="294" t="s">
+      <c r="D9" s="325" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="296"/>
-      <c r="I9" s="297" t="s">
+      <c r="E9" s="326"/>
+      <c r="F9" s="326"/>
+      <c r="G9" s="327"/>
+      <c r="I9" s="328" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="298"/>
+      <c r="J9" s="329"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="299" t="s">
+      <c r="L9" s="280" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="300"/>
-      <c r="N9" s="301"/>
-      <c r="P9" s="302" t="s">
+      <c r="M9" s="281"/>
+      <c r="N9" s="282"/>
+      <c r="P9" s="330" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="303"/>
-      <c r="R9" s="304"/>
-      <c r="T9" s="276" t="s">
+      <c r="Q9" s="331"/>
+      <c r="R9" s="332"/>
+      <c r="T9" s="333" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="277"/>
-      <c r="V9" s="277"/>
-      <c r="W9" s="278"/>
-      <c r="Y9" s="279" t="s">
+      <c r="U9" s="334"/>
+      <c r="V9" s="334"/>
+      <c r="W9" s="335"/>
+      <c r="Y9" s="336" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="280"/>
-      <c r="AA9" s="281"/>
+      <c r="Z9" s="337"/>
+      <c r="AA9" s="338"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="32" t="s">
@@ -9129,9 +9086,9 @@
       <c r="W10" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="305"/>
-      <c r="Z10" s="306"/>
-      <c r="AA10" s="307"/>
+      <c r="Y10" s="313"/>
+      <c r="Z10" s="314"/>
+      <c r="AA10" s="315"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="44" t="s">
@@ -9448,11 +9405,11 @@
       <c r="AA16" s="82"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="308" t="s">
+      <c r="D17" s="316" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="309"/>
-      <c r="F17" s="310"/>
+      <c r="E17" s="317"/>
+      <c r="F17" s="318"/>
       <c r="I17" s="77">
         <v>2029</v>
       </c>
@@ -9654,10 +9611,10 @@
       <c r="I21" s="77"/>
       <c r="J21" s="66"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="311" t="s">
+      <c r="L21" s="319" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="312"/>
+      <c r="M21" s="320"/>
       <c r="N21" s="92">
         <v>7</v>
       </c>
@@ -9772,11 +9729,11 @@
       <c r="I24" s="65"/>
       <c r="J24" s="66"/>
       <c r="K24" s="31"/>
-      <c r="P24" s="299" t="s">
+      <c r="P24" s="280" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="300"/>
-      <c r="R24" s="301"/>
+      <c r="Q24" s="281"/>
+      <c r="R24" s="282"/>
       <c r="T24" s="70" t="s">
         <v>259</v>
       </c>
@@ -9810,10 +9767,10 @@
       <c r="I25" s="97"/>
       <c r="J25" s="98"/>
       <c r="K25" s="31"/>
-      <c r="P25" s="313" t="s">
+      <c r="P25" s="321" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="314"/>
+      <c r="Q25" s="322"/>
       <c r="R25" s="99" t="s">
         <v>262</v>
       </c>
@@ -9851,10 +9808,10 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
-      <c r="P26" s="292" t="s">
+      <c r="P26" s="323" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="293"/>
+      <c r="Q26" s="324"/>
       <c r="R26" s="100" t="s">
         <v>267</v>
       </c>
@@ -9892,10 +9849,10 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="P27" s="315" t="s">
+      <c r="P27" s="305" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="316"/>
+      <c r="Q27" s="306"/>
       <c r="R27" s="102" t="s">
         <v>267</v>
       </c>
@@ -9921,20 +9878,20 @@
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F28" s="103"/>
-      <c r="I28" s="317" t="s">
+      <c r="I28" s="283" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="318"/>
+      <c r="J28" s="284"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="319" t="s">
+      <c r="L28" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="320"/>
-      <c r="N28" s="321"/>
-      <c r="P28" s="322" t="s">
+      <c r="M28" s="308"/>
+      <c r="N28" s="309"/>
+      <c r="P28" s="273" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="323"/>
+      <c r="Q28" s="310"/>
       <c r="R28" s="105" t="s">
         <v>278</v>
       </c>
@@ -9959,20 +9916,20 @@
       <c r="AA28" s="82"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I29" s="322" t="s">
+      <c r="I29" s="273" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="324"/>
+      <c r="J29" s="274"/>
       <c r="K29" s="2"/>
       <c r="L29" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="325"/>
-      <c r="N29" s="326"/>
-      <c r="P29" s="327" t="s">
+      <c r="M29" s="291"/>
+      <c r="N29" s="292"/>
+      <c r="P29" s="311" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="328"/>
+      <c r="Q29" s="312"/>
       <c r="R29" s="102" t="s">
         <v>278</v>
       </c>
@@ -9999,20 +9956,20 @@
       </c>
     </row>
     <row r="30" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="329" t="s">
+      <c r="I30" s="271" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="330"/>
+      <c r="J30" s="272"/>
       <c r="K30" s="2"/>
       <c r="L30" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="325"/>
-      <c r="N30" s="326"/>
-      <c r="P30" s="331" t="s">
+      <c r="M30" s="291"/>
+      <c r="N30" s="292"/>
+      <c r="P30" s="303" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="332"/>
+      <c r="Q30" s="304"/>
       <c r="R30" s="105" t="s">
         <v>267</v>
       </c>
@@ -10037,24 +9994,24 @@
       <c r="AA30" s="82"/>
     </row>
     <row r="31" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="299" t="s">
+      <c r="D31" s="280" t="s">
         <v>290</v>
       </c>
-      <c r="E31" s="300"/>
-      <c r="F31" s="301"/>
-      <c r="I31" s="322" t="s">
+      <c r="E31" s="281"/>
+      <c r="F31" s="282"/>
+      <c r="I31" s="273" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="324"/>
+      <c r="J31" s="274"/>
       <c r="L31" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="325"/>
-      <c r="N31" s="326"/>
-      <c r="P31" s="315" t="s">
+      <c r="M31" s="291"/>
+      <c r="N31" s="292"/>
+      <c r="P31" s="305" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="316"/>
+      <c r="Q31" s="306"/>
       <c r="R31" s="102" t="s">
         <v>278</v>
       </c>
@@ -10079,24 +10036,24 @@
       <c r="AA31" s="82"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="336" t="s">
+      <c r="D32" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="337"/>
-      <c r="F32" s="338"/>
-      <c r="I32" s="329" t="s">
+      <c r="E32" s="286"/>
+      <c r="F32" s="287"/>
+      <c r="I32" s="271" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="330"/>
+      <c r="J32" s="272"/>
       <c r="L32" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="325"/>
-      <c r="N32" s="326"/>
-      <c r="P32" s="339" t="s">
+      <c r="M32" s="291"/>
+      <c r="N32" s="292"/>
+      <c r="P32" s="293" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="340"/>
+      <c r="Q32" s="294"/>
       <c r="R32" s="110" t="s">
         <v>267</v>
       </c>
@@ -10123,20 +10080,20 @@
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="341" t="s">
+      <c r="D33" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="342"/>
-      <c r="F33" s="343"/>
-      <c r="I33" s="322" t="s">
+      <c r="E33" s="296"/>
+      <c r="F33" s="297"/>
+      <c r="I33" s="273" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="324"/>
+      <c r="J33" s="274"/>
       <c r="L33" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="344"/>
-      <c r="N33" s="345"/>
+      <c r="M33" s="298"/>
+      <c r="N33" s="299"/>
       <c r="T33" s="70" t="s">
         <v>65</v>
       </c>
@@ -10158,15 +10115,15 @@
       <c r="AA33" s="82"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="329" t="s">
+      <c r="D34" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="346"/>
-      <c r="F34" s="330"/>
-      <c r="I34" s="329" t="s">
+      <c r="E34" s="300"/>
+      <c r="F34" s="272"/>
+      <c r="I34" s="271" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="330"/>
+      <c r="J34" s="272"/>
       <c r="T34" s="70" t="s">
         <v>300</v>
       </c>
@@ -10188,17 +10145,17 @@
       <c r="AA34" s="82"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="322" t="s">
+      <c r="D35" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="347"/>
-      <c r="F35" s="324"/>
-      <c r="I35" s="348" t="s">
+      <c r="E35" s="301"/>
+      <c r="F35" s="274"/>
+      <c r="I35" s="266" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="349"/>
-      <c r="P35" s="350"/>
-      <c r="Q35" s="350"/>
+      <c r="J35" s="267"/>
+      <c r="P35" s="302"/>
+      <c r="Q35" s="302"/>
       <c r="T35" s="70" t="s">
         <v>303</v>
       </c>
@@ -10220,11 +10177,11 @@
       <c r="AA35" s="82"/>
     </row>
     <row r="36" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="333" t="s">
+      <c r="D36" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="334"/>
-      <c r="F36" s="335"/>
+      <c r="E36" s="289"/>
+      <c r="F36" s="290"/>
       <c r="T36" s="70" t="s">
         <v>306</v>
       </c>
@@ -10269,10 +10226,10 @@
       </c>
     </row>
     <row r="38" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="351" t="s">
+      <c r="I38" s="275" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="352"/>
+      <c r="J38" s="276"/>
       <c r="T38" s="70" t="s">
         <v>310</v>
       </c>
@@ -10294,11 +10251,11 @@
       <c r="AA38" s="82"/>
     </row>
     <row r="39" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="353" t="s">
+      <c r="D39" s="277" t="s">
         <v>312</v>
       </c>
-      <c r="E39" s="354"/>
-      <c r="F39" s="355"/>
+      <c r="E39" s="278"/>
+      <c r="F39" s="279"/>
       <c r="I39" s="113" t="s">
         <v>84</v>
       </c>
@@ -10561,15 +10518,15 @@
       <c r="AA47" s="82"/>
     </row>
     <row r="48" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="299" t="s">
+      <c r="D48" s="280" t="s">
         <v>340</v>
       </c>
-      <c r="E48" s="300"/>
-      <c r="F48" s="301"/>
-      <c r="I48" s="317" t="s">
+      <c r="E48" s="281"/>
+      <c r="F48" s="282"/>
+      <c r="I48" s="283" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="318"/>
+      <c r="J48" s="284"/>
       <c r="T48" s="70" t="s">
         <v>67</v>
       </c>
@@ -10591,15 +10548,15 @@
       <c r="AA48" s="82"/>
     </row>
     <row r="49" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D49" s="336" t="s">
+      <c r="D49" s="285" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="337"/>
-      <c r="F49" s="338"/>
-      <c r="I49" s="322" t="s">
+      <c r="E49" s="286"/>
+      <c r="F49" s="287"/>
+      <c r="I49" s="273" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="324"/>
+      <c r="J49" s="274"/>
       <c r="T49" s="70" t="s">
         <v>343</v>
       </c>
@@ -10621,15 +10578,15 @@
       <c r="AA49" s="82"/>
     </row>
     <row r="50" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="356">
+      <c r="D50" s="268">
         <v>350</v>
       </c>
-      <c r="E50" s="357"/>
-      <c r="F50" s="358"/>
-      <c r="I50" s="329" t="s">
+      <c r="E50" s="269"/>
+      <c r="F50" s="270"/>
+      <c r="I50" s="271" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="330"/>
+      <c r="J50" s="272"/>
       <c r="T50" s="70" t="s">
         <v>68</v>
       </c>
@@ -10653,10 +10610,10 @@
       </c>
     </row>
     <row r="51" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="322" t="s">
+      <c r="I51" s="273" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="324"/>
+      <c r="J51" s="274"/>
       <c r="T51" s="70" t="s">
         <v>349</v>
       </c>
@@ -10678,10 +10635,10 @@
       <c r="AA51" s="133"/>
     </row>
     <row r="52" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I52" s="329" t="s">
+      <c r="I52" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="330"/>
+      <c r="J52" s="272"/>
       <c r="T52" s="70" t="s">
         <v>351</v>
       </c>
@@ -10696,10 +10653,10 @@
       </c>
     </row>
     <row r="53" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I53" s="322" t="s">
+      <c r="I53" s="273" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="324"/>
+      <c r="J53" s="274"/>
       <c r="T53" s="70" t="s">
         <v>353</v>
       </c>
@@ -10732,10 +10689,10 @@
       </c>
     </row>
     <row r="55" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I55" s="329" t="s">
+      <c r="I55" s="271" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="330"/>
+      <c r="J55" s="272"/>
       <c r="T55" s="70" t="s">
         <v>175</v>
       </c>
@@ -10750,10 +10707,10 @@
       </c>
     </row>
     <row r="56" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I56" s="348" t="s">
+      <c r="I56" s="266" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="349"/>
+      <c r="J56" s="267"/>
       <c r="T56" s="70" t="s">
         <v>34</v>
       </c>
@@ -11050,19 +11007,46 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="I32:J32"/>
@@ -11076,81 +11060,54 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
   </mergeCells>
   <conditionalFormatting sqref="P11:P21">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R20">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:W78">
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AA51">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>AND($Y12&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11264,7 +11221,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:J9999">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11440,7 +11397,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AA99999">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11493,7 +11450,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E9999">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11546,7 +11503,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G962">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11622,10 +11579,10 @@
         <v>45504</v>
       </c>
       <c r="C2" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D2" s="263" t="s">
         <v>813</v>
-      </c>
-      <c r="D2" s="263" t="s">
-        <v>814</v>
       </c>
       <c r="E2" s="208" t="s">
         <v>31</v>
@@ -11639,7 +11596,7 @@
       <c r="H2" s="264"/>
       <c r="I2" s="263"/>
       <c r="J2" s="265" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11650,16 +11607,16 @@
         <v>45504</v>
       </c>
       <c r="C3" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D3" s="263" t="s">
         <v>813</v>
-      </c>
-      <c r="D3" s="263" t="s">
-        <v>814</v>
       </c>
       <c r="E3" s="208" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="263" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G3" s="264">
         <v>401270.99</v>
@@ -11667,7 +11624,7 @@
       <c r="H3" s="264"/>
       <c r="I3" s="263"/>
       <c r="J3" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11678,16 +11635,16 @@
         <v>45504</v>
       </c>
       <c r="C4" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D4" s="263" t="s">
         <v>813</v>
-      </c>
-      <c r="D4" s="263" t="s">
-        <v>814</v>
       </c>
       <c r="E4" s="208" t="s">
         <v>142</v>
       </c>
       <c r="F4" s="263" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G4" s="264"/>
       <c r="H4" s="264">
@@ -11695,7 +11652,7 @@
       </c>
       <c r="I4" s="263"/>
       <c r="J4" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11706,16 +11663,16 @@
         <v>45504</v>
       </c>
       <c r="C5" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D5" s="263" t="s">
         <v>813</v>
-      </c>
-      <c r="D5" s="263" t="s">
-        <v>814</v>
       </c>
       <c r="E5" s="208" t="s">
         <v>247</v>
       </c>
       <c r="F5" s="263" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G5" s="264"/>
       <c r="H5" s="264">
@@ -11723,7 +11680,7 @@
       </c>
       <c r="I5" s="263"/>
       <c r="J5" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11734,10 +11691,10 @@
         <v>45504</v>
       </c>
       <c r="C6" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D6" s="263" t="s">
         <v>813</v>
-      </c>
-      <c r="D6" s="263" t="s">
-        <v>814</v>
       </c>
       <c r="E6" s="208" t="s">
         <v>75</v>
@@ -11751,7 +11708,7 @@
       <c r="H6" s="264"/>
       <c r="I6" s="263"/>
       <c r="J6" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11762,13 +11719,13 @@
         <v>45504</v>
       </c>
       <c r="C7" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D7" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D7" s="263" t="s">
-        <v>814</v>
-      </c>
       <c r="E7" s="208" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F7" s="263" t="s">
         <v>51</v>
@@ -11779,7 +11736,7 @@
       <c r="H7" s="264"/>
       <c r="I7" s="263"/>
       <c r="J7" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11790,10 +11747,10 @@
         <v>45504</v>
       </c>
       <c r="C8" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D8" s="263" t="s">
         <v>813</v>
-      </c>
-      <c r="D8" s="263" t="s">
-        <v>814</v>
       </c>
       <c r="E8" s="208" t="s">
         <v>280</v>
@@ -11807,7 +11764,7 @@
       <c r="H8" s="264"/>
       <c r="I8" s="263"/>
       <c r="J8" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11818,10 +11775,10 @@
         <v>45504</v>
       </c>
       <c r="C9" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D9" s="263" t="s">
         <v>813</v>
-      </c>
-      <c r="D9" s="263" t="s">
-        <v>814</v>
       </c>
       <c r="E9" s="208" t="s">
         <v>284</v>
@@ -11835,7 +11792,7 @@
       </c>
       <c r="I9" s="263"/>
       <c r="J9" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11846,13 +11803,13 @@
         <v>45504</v>
       </c>
       <c r="C10" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D10" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D10" s="263" t="s">
-        <v>814</v>
-      </c>
       <c r="E10" s="208" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F10" s="263" t="s">
         <v>259</v>
@@ -11863,7 +11820,7 @@
       <c r="H10" s="264"/>
       <c r="I10" s="263"/>
       <c r="J10" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11874,13 +11831,13 @@
         <v>45504</v>
       </c>
       <c r="C11" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D11" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D11" s="263" t="s">
-        <v>814</v>
-      </c>
       <c r="E11" s="208" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F11" s="263" t="s">
         <v>263</v>
@@ -11891,7 +11848,7 @@
       </c>
       <c r="I11" s="263"/>
       <c r="J11" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11902,16 +11859,16 @@
         <v>45504</v>
       </c>
       <c r="C12" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D12" s="263" t="s">
         <v>813</v>
-      </c>
-      <c r="D12" s="263" t="s">
-        <v>814</v>
       </c>
       <c r="E12" s="208" t="s">
         <v>295</v>
       </c>
       <c r="F12" s="263" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G12" s="264"/>
       <c r="H12" s="264">
@@ -11919,7 +11876,7 @@
       </c>
       <c r="I12" s="263"/>
       <c r="J12" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11930,16 +11887,16 @@
         <v>45504</v>
       </c>
       <c r="C13" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D13" s="263" t="s">
         <v>813</v>
-      </c>
-      <c r="D13" s="263" t="s">
-        <v>814</v>
       </c>
       <c r="E13" s="208" t="s">
         <v>304</v>
       </c>
       <c r="F13" s="263" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G13" s="264"/>
       <c r="H13" s="264">
@@ -11947,7 +11904,7 @@
       </c>
       <c r="I13" s="263"/>
       <c r="J13" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11958,16 +11915,16 @@
         <v>45504</v>
       </c>
       <c r="C14" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D14" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D14" s="263" t="s">
-        <v>814</v>
-      </c>
       <c r="E14" s="208" t="s">
+        <v>822</v>
+      </c>
+      <c r="F14" s="263" t="s">
         <v>823</v>
-      </c>
-      <c r="F14" s="263" t="s">
-        <v>824</v>
       </c>
       <c r="G14" s="264"/>
       <c r="H14" s="264">
@@ -11975,7 +11932,7 @@
       </c>
       <c r="I14" s="263"/>
       <c r="J14" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11986,13 +11943,13 @@
         <v>45504</v>
       </c>
       <c r="C15" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D15" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D15" s="263" t="s">
-        <v>814</v>
-      </c>
       <c r="E15" s="208" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F15" s="263" t="s">
         <v>318</v>
@@ -12003,7 +11960,7 @@
       <c r="H15" s="264"/>
       <c r="I15" s="263"/>
       <c r="J15" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -12014,13 +11971,13 @@
         <v>45504</v>
       </c>
       <c r="C16" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D16" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D16" s="263" t="s">
-        <v>814</v>
-      </c>
       <c r="E16" s="208" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F16" s="263" t="s">
         <v>322</v>
@@ -12031,7 +11988,7 @@
       <c r="H16" s="264"/>
       <c r="I16" s="263"/>
       <c r="J16" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -12042,13 +11999,13 @@
         <v>45504</v>
       </c>
       <c r="C17" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D17" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D17" s="263" t="s">
-        <v>814</v>
-      </c>
       <c r="E17" s="208" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F17" s="263" t="s">
         <v>325</v>
@@ -12059,7 +12016,7 @@
       </c>
       <c r="I17" s="263"/>
       <c r="J17" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -12070,13 +12027,13 @@
         <v>45504</v>
       </c>
       <c r="C18" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D18" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D18" s="263" t="s">
-        <v>814</v>
-      </c>
       <c r="E18" s="208" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F18" s="263" t="s">
         <v>328</v>
@@ -12087,7 +12044,7 @@
       </c>
       <c r="I18" s="263"/>
       <c r="J18" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -12098,13 +12055,13 @@
         <v>45504</v>
       </c>
       <c r="C19" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D19" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D19" s="263" t="s">
-        <v>814</v>
-      </c>
       <c r="E19" s="208" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F19" s="263" t="s">
         <v>332</v>
@@ -12115,7 +12072,7 @@
       </c>
       <c r="I19" s="263"/>
       <c r="J19" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="207" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -12126,16 +12083,16 @@
         <v>45504</v>
       </c>
       <c r="C20" s="263" t="s">
+        <v>812</v>
+      </c>
+      <c r="D20" s="263" t="s">
         <v>813</v>
       </c>
-      <c r="D20" s="263" t="s">
-        <v>814</v>
-      </c>
       <c r="E20" s="208" t="s">
+        <v>829</v>
+      </c>
+      <c r="F20" s="263" t="s">
         <v>830</v>
-      </c>
-      <c r="F20" s="263" t="s">
-        <v>831</v>
       </c>
       <c r="G20" s="264"/>
       <c r="H20" s="264">
@@ -12143,19 +12100,19 @@
       </c>
       <c r="I20" s="263"/>
       <c r="J20" s="208" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{E0D58006-DE1D-488F-9BB7-8096C5818030}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J99999">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:J99999">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND($A21&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12165,14 +12122,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="wshTEC_Local"/>
   <dimension ref="A1:P266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" rightToLeft="false">
-      <pane ySplit="570" topLeftCell="A236" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="570" topLeftCell="A201" activePane="bottomLeft"/>
       <selection activeCell="K1" sqref="K1:K1048576"/>
-      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
+      <selection pane="bottomLeft" activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12195,7 +12152,7 @@
     <col min="16" max="16" width="11.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:16" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
@@ -12245,7 +12202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="244">
         <v>1</v>
       </c>
@@ -12289,7 +12246,7 @@
       </c>
       <c r="P2" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="244">
         <v>2</v>
       </c>
@@ -12333,7 +12290,7 @@
       </c>
       <c r="P3" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="244">
         <v>3</v>
       </c>
@@ -12377,7 +12334,7 @@
       </c>
       <c r="P4" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="244">
         <v>4</v>
       </c>
@@ -12421,7 +12378,7 @@
       </c>
       <c r="P5" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="244">
         <v>5</v>
       </c>
@@ -12465,7 +12422,7 @@
       </c>
       <c r="P6" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="244">
         <v>6</v>
       </c>
@@ -12509,7 +12466,7 @@
       </c>
       <c r="P7" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="244">
         <v>7</v>
       </c>
@@ -12553,7 +12510,7 @@
       </c>
       <c r="P8" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="244">
         <v>8</v>
       </c>
@@ -12597,7 +12554,7 @@
       </c>
       <c r="P9" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="244">
         <v>9</v>
       </c>
@@ -12641,7 +12598,7 @@
       </c>
       <c r="P10" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="244">
         <v>10</v>
       </c>
@@ -12685,7 +12642,7 @@
       </c>
       <c r="P11" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="244">
         <v>11</v>
       </c>
@@ -12729,7 +12686,7 @@
       </c>
       <c r="P12" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="244">
         <v>12</v>
       </c>
@@ -12773,7 +12730,7 @@
       </c>
       <c r="P13" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="244">
         <v>13</v>
       </c>
@@ -12817,7 +12774,7 @@
       </c>
       <c r="P14" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="244">
         <v>14</v>
       </c>
@@ -12861,7 +12818,7 @@
       </c>
       <c r="P15" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="244">
         <v>15</v>
       </c>
@@ -12905,7 +12862,7 @@
       </c>
       <c r="P16" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="244">
         <v>16</v>
       </c>
@@ -12949,7 +12906,7 @@
       </c>
       <c r="P17" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="244">
         <v>17</v>
       </c>
@@ -12993,7 +12950,7 @@
       </c>
       <c r="P18" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="244">
         <v>18</v>
       </c>
@@ -13037,7 +12994,7 @@
       </c>
       <c r="P19" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="244">
         <v>19</v>
       </c>
@@ -13081,7 +13038,7 @@
       </c>
       <c r="P20" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="244">
         <v>20</v>
       </c>
@@ -13125,7 +13082,7 @@
       </c>
       <c r="P21" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="244">
         <v>21</v>
       </c>
@@ -13169,7 +13126,7 @@
       </c>
       <c r="P22" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="244">
         <v>22</v>
       </c>
@@ -13213,7 +13170,7 @@
       </c>
       <c r="P23" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="244">
         <v>23</v>
       </c>
@@ -13257,7 +13214,7 @@
       </c>
       <c r="P24" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="244">
         <v>24</v>
       </c>
@@ -13301,7 +13258,7 @@
       </c>
       <c r="P25" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="26">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="244">
         <v>25</v>
       </c>
@@ -13345,7 +13302,7 @@
       </c>
       <c r="P26" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="244">
         <v>26</v>
       </c>
@@ -13389,7 +13346,7 @@
       </c>
       <c r="P27" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="244">
         <v>27</v>
       </c>
@@ -13433,7 +13390,7 @@
       </c>
       <c r="P28" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="244">
         <v>28</v>
       </c>
@@ -13477,7 +13434,7 @@
       </c>
       <c r="P29" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="244">
         <v>29</v>
       </c>
@@ -13521,7 +13478,7 @@
       </c>
       <c r="P30" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="244">
         <v>30</v>
       </c>
@@ -13565,7 +13522,7 @@
       </c>
       <c r="P31" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="244">
         <v>31</v>
       </c>
@@ -13609,7 +13566,7 @@
       </c>
       <c r="P32" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="33">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="244">
         <v>32</v>
       </c>
@@ -13653,7 +13610,7 @@
       </c>
       <c r="P33" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="244">
         <v>33</v>
       </c>
@@ -13697,7 +13654,7 @@
       </c>
       <c r="P34" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="244">
         <v>34</v>
       </c>
@@ -13741,7 +13698,7 @@
       </c>
       <c r="P35" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="244">
         <v>35</v>
       </c>
@@ -13785,7 +13742,7 @@
       </c>
       <c r="P36" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="37">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="244">
         <v>36</v>
       </c>
@@ -13829,7 +13786,7 @@
       </c>
       <c r="P37" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="38">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="244">
         <v>37</v>
       </c>
@@ -13873,7 +13830,7 @@
       </c>
       <c r="P38" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="244">
         <v>38</v>
       </c>
@@ -13917,7 +13874,7 @@
       </c>
       <c r="P39" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="40">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="244">
         <v>39</v>
       </c>
@@ -13961,7 +13918,7 @@
       </c>
       <c r="P40" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="41">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="244">
         <v>40</v>
       </c>
@@ -14005,7 +13962,7 @@
       </c>
       <c r="P41" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="42">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="244">
         <v>41</v>
       </c>
@@ -14049,7 +14006,7 @@
       </c>
       <c r="P42" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="43">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="244">
         <v>42</v>
       </c>
@@ -14093,7 +14050,7 @@
       </c>
       <c r="P43" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="44">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="244">
         <v>43</v>
       </c>
@@ -14137,7 +14094,7 @@
       </c>
       <c r="P44" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="244">
         <v>44</v>
       </c>
@@ -14181,7 +14138,7 @@
       </c>
       <c r="P45" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="46">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="244">
         <v>45</v>
       </c>
@@ -14225,7 +14182,7 @@
       </c>
       <c r="P46" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="47">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="244">
         <v>46</v>
       </c>
@@ -14269,7 +14226,7 @@
       </c>
       <c r="P47" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="48">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="244">
         <v>47</v>
       </c>
@@ -14313,7 +14270,7 @@
       </c>
       <c r="P48" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="49">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="244">
         <v>48</v>
       </c>
@@ -14357,7 +14314,7 @@
       </c>
       <c r="P49" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="50">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="244">
         <v>49</v>
       </c>
@@ -14401,7 +14358,7 @@
       </c>
       <c r="P50" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="51">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="244">
         <v>50</v>
       </c>
@@ -14445,7 +14402,7 @@
       </c>
       <c r="P51" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="52">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="244">
         <v>51</v>
       </c>
@@ -14489,7 +14446,7 @@
       </c>
       <c r="P52" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="53">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="244">
         <v>52</v>
       </c>
@@ -14533,7 +14490,7 @@
       </c>
       <c r="P53" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="54">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="244">
         <v>53</v>
       </c>
@@ -14577,7 +14534,7 @@
       </c>
       <c r="P54" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="55">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="244">
         <v>54</v>
       </c>
@@ -14621,7 +14578,7 @@
       </c>
       <c r="P55" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="56">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="244">
         <v>55</v>
       </c>
@@ -14665,7 +14622,7 @@
       </c>
       <c r="P56" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="57">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="244">
         <v>56</v>
       </c>
@@ -14709,7 +14666,7 @@
       </c>
       <c r="P57" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="58">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="244">
         <v>57</v>
       </c>
@@ -14753,7 +14710,7 @@
       </c>
       <c r="P58" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="59">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="244">
         <v>58</v>
       </c>
@@ -14797,7 +14754,7 @@
       </c>
       <c r="P59" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="60">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="244">
         <v>59</v>
       </c>
@@ -14841,7 +14798,7 @@
       </c>
       <c r="P60" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="61">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="244">
         <v>60</v>
       </c>
@@ -14885,7 +14842,7 @@
       </c>
       <c r="P61" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="62">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="244">
         <v>61</v>
       </c>
@@ -14929,7 +14886,7 @@
       </c>
       <c r="P62" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="63">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="244">
         <v>62</v>
       </c>
@@ -14973,7 +14930,7 @@
       </c>
       <c r="P63" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="64">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="244">
         <v>63</v>
       </c>
@@ -15017,7 +14974,7 @@
       </c>
       <c r="P64" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="65">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="244">
         <v>64</v>
       </c>
@@ -15061,7 +15018,7 @@
       </c>
       <c r="P65" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="66">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="244">
         <v>65</v>
       </c>
@@ -15105,7 +15062,7 @@
       </c>
       <c r="P66" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="67">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="244">
         <v>66</v>
       </c>
@@ -15149,7 +15106,7 @@
       </c>
       <c r="P67" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="68">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="244">
         <v>67</v>
       </c>
@@ -15193,7 +15150,7 @@
       </c>
       <c r="P68" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="69">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="244">
         <v>68</v>
       </c>
@@ -15237,7 +15194,7 @@
       </c>
       <c r="P69" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="70">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="244">
         <v>69</v>
       </c>
@@ -15281,7 +15238,7 @@
       </c>
       <c r="P70" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="71">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="244">
         <v>70</v>
       </c>
@@ -15325,7 +15282,7 @@
       </c>
       <c r="P71" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="72">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="244">
         <v>71</v>
       </c>
@@ -15369,7 +15326,7 @@
       </c>
       <c r="P72" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="73">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="244">
         <v>72</v>
       </c>
@@ -15413,7 +15370,7 @@
       </c>
       <c r="P73" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="74">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="244">
         <v>73</v>
       </c>
@@ -15457,7 +15414,7 @@
       </c>
       <c r="P74" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="75">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="244">
         <v>74</v>
       </c>
@@ -15501,7 +15458,7 @@
       </c>
       <c r="P75" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="76">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="244">
         <v>75</v>
       </c>
@@ -15545,7 +15502,7 @@
       </c>
       <c r="P76" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="77">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="244">
         <v>76</v>
       </c>
@@ -15589,7 +15546,7 @@
       </c>
       <c r="P77" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="78">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="244">
         <v>77</v>
       </c>
@@ -15633,7 +15590,7 @@
       </c>
       <c r="P78" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="79">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="244">
         <v>78</v>
       </c>
@@ -15677,7 +15634,7 @@
       </c>
       <c r="P79" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="80">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="244">
         <v>79</v>
       </c>
@@ -15721,7 +15678,7 @@
       </c>
       <c r="P80" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="81">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="244">
         <v>80</v>
       </c>
@@ -15765,7 +15722,7 @@
       </c>
       <c r="P81" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="82">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="244">
         <v>81</v>
       </c>
@@ -15809,7 +15766,7 @@
       </c>
       <c r="P82" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="83">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="244">
         <v>82</v>
       </c>
@@ -15853,7 +15810,7 @@
       </c>
       <c r="P83" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="84">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="244">
         <v>83</v>
       </c>
@@ -15897,7 +15854,7 @@
       </c>
       <c r="P84" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="85">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="244">
         <v>84</v>
       </c>
@@ -15941,7 +15898,7 @@
       </c>
       <c r="P85" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="86">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="244">
         <v>85</v>
       </c>
@@ -15985,7 +15942,7 @@
       </c>
       <c r="P86" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="87">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="244">
         <v>86</v>
       </c>
@@ -16029,7 +15986,7 @@
       </c>
       <c r="P87" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="88">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="244">
         <v>87</v>
       </c>
@@ -16073,7 +16030,7 @@
       </c>
       <c r="P88" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="89">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="244">
         <v>88</v>
       </c>
@@ -16117,7 +16074,7 @@
       </c>
       <c r="P89" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="90">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="244">
         <v>89</v>
       </c>
@@ -16161,7 +16118,7 @@
       </c>
       <c r="P90" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="91">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="244">
         <v>90</v>
       </c>
@@ -16205,7 +16162,7 @@
       </c>
       <c r="P91" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="92">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="244">
         <v>91</v>
       </c>
@@ -16249,7 +16206,7 @@
       </c>
       <c r="P92" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="93">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="244">
         <v>92</v>
       </c>
@@ -16293,7 +16250,7 @@
       </c>
       <c r="P93" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="94">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="244">
         <v>93</v>
       </c>
@@ -16337,7 +16294,7 @@
       </c>
       <c r="P94" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="95">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="244">
         <v>94</v>
       </c>
@@ -16381,7 +16338,7 @@
       </c>
       <c r="P95" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="96">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="244">
         <v>95</v>
       </c>
@@ -16425,7 +16382,7 @@
       </c>
       <c r="P96" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="97">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="244">
         <v>96</v>
       </c>
@@ -16469,7 +16426,7 @@
       </c>
       <c r="P97" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="98">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="244">
         <v>97</v>
       </c>
@@ -16513,7 +16470,7 @@
       </c>
       <c r="P98" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="99">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="244">
         <v>98</v>
       </c>
@@ -16557,7 +16514,7 @@
       </c>
       <c r="P99" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="100">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="244">
         <v>99</v>
       </c>
@@ -16601,7 +16558,7 @@
       </c>
       <c r="P100" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="101">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="244">
         <v>100</v>
       </c>
@@ -16645,7 +16602,7 @@
       </c>
       <c r="P101" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="102">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="244">
         <v>101</v>
       </c>
@@ -16689,7 +16646,7 @@
       </c>
       <c r="P102" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="103">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="244">
         <v>102</v>
       </c>
@@ -16733,7 +16690,7 @@
       </c>
       <c r="P103" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="104">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="244">
         <v>103</v>
       </c>
@@ -16777,7 +16734,7 @@
       </c>
       <c r="P104" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="105">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="244">
         <v>104</v>
       </c>
@@ -16821,7 +16778,7 @@
       </c>
       <c r="P105" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="106">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="244">
         <v>105</v>
       </c>
@@ -16865,7 +16822,7 @@
       </c>
       <c r="P106" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="107">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="244">
         <v>106</v>
       </c>
@@ -16909,7 +16866,7 @@
       </c>
       <c r="P107" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="108">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="244">
         <v>107</v>
       </c>
@@ -16953,7 +16910,7 @@
       </c>
       <c r="P108" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="109">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="244">
         <v>108</v>
       </c>
@@ -16997,7 +16954,7 @@
       </c>
       <c r="P109" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="110">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="244">
         <v>109</v>
       </c>
@@ -17041,7 +16998,7 @@
       </c>
       <c r="P110" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="111">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="244">
         <v>110</v>
       </c>
@@ -17085,7 +17042,7 @@
       </c>
       <c r="P111" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="112">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="244">
         <v>111</v>
       </c>
@@ -17129,7 +17086,7 @@
       </c>
       <c r="P112" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="113">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="244">
         <v>112</v>
       </c>
@@ -17173,7 +17130,7 @@
       </c>
       <c r="P113" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="114">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="244">
         <v>113</v>
       </c>
@@ -17217,7 +17174,7 @@
       </c>
       <c r="P114" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="115">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="244">
         <v>114</v>
       </c>
@@ -17261,7 +17218,7 @@
       </c>
       <c r="P115" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="116">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="244">
         <v>115</v>
       </c>
@@ -17305,7 +17262,7 @@
       </c>
       <c r="P116" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="117">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="244">
         <v>116</v>
       </c>
@@ -17349,7 +17306,7 @@
       </c>
       <c r="P117" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="118">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="244">
         <v>117</v>
       </c>
@@ -17393,7 +17350,7 @@
       </c>
       <c r="P118" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="119">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="244">
         <v>118</v>
       </c>
@@ -17437,7 +17394,7 @@
       </c>
       <c r="P119" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="120">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="244">
         <v>119</v>
       </c>
@@ -17481,7 +17438,7 @@
       </c>
       <c r="P120" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="121">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="244">
         <v>120</v>
       </c>
@@ -17525,7 +17482,7 @@
       </c>
       <c r="P121" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="122">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="244">
         <v>121</v>
       </c>
@@ -17569,7 +17526,7 @@
       </c>
       <c r="P122" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="123">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="244">
         <v>122</v>
       </c>
@@ -17613,7 +17570,7 @@
       </c>
       <c r="P123" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="124">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="244">
         <v>123</v>
       </c>
@@ -17657,7 +17614,7 @@
       </c>
       <c r="P124" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="125">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="244">
         <v>124</v>
       </c>
@@ -17701,7 +17658,7 @@
       </c>
       <c r="P125" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="126">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="244">
         <v>125</v>
       </c>
@@ -17745,7 +17702,7 @@
       </c>
       <c r="P126" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="127">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="244">
         <v>126</v>
       </c>
@@ -17789,7 +17746,7 @@
       </c>
       <c r="P127" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="128">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="244">
         <v>127</v>
       </c>
@@ -17833,7 +17790,7 @@
       </c>
       <c r="P128" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="129">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="244">
         <v>128</v>
       </c>
@@ -17877,7 +17834,7 @@
       </c>
       <c r="P129" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="130">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="244">
         <v>129</v>
       </c>
@@ -17921,7 +17878,7 @@
       </c>
       <c r="P130" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="131">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="244">
         <v>130</v>
       </c>
@@ -17965,7 +17922,7 @@
       </c>
       <c r="P131" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="132">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="244">
         <v>131</v>
       </c>
@@ -18009,7 +17966,7 @@
       </c>
       <c r="P132" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="133">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="244">
         <v>132</v>
       </c>
@@ -18053,7 +18010,7 @@
       </c>
       <c r="P133" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="134">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="244">
         <v>133</v>
       </c>
@@ -18097,7 +18054,7 @@
       </c>
       <c r="P134" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="135">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="244">
         <v>134</v>
       </c>
@@ -18141,7 +18098,7 @@
       </c>
       <c r="P135" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="136">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="244">
         <v>135</v>
       </c>
@@ -18185,7 +18142,7 @@
       </c>
       <c r="P136" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="137">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="244">
         <v>136</v>
       </c>
@@ -18229,7 +18186,7 @@
       </c>
       <c r="P137" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="138">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="244">
         <v>137</v>
       </c>
@@ -18273,7 +18230,7 @@
       </c>
       <c r="P138" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="139">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="244">
         <v>138</v>
       </c>
@@ -18317,7 +18274,7 @@
       </c>
       <c r="P139" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="140">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="244">
         <v>139</v>
       </c>
@@ -18361,7 +18318,7 @@
       </c>
       <c r="P140" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="141">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="244">
         <v>140</v>
       </c>
@@ -18405,7 +18362,7 @@
       </c>
       <c r="P141" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="142">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="244">
         <v>141</v>
       </c>
@@ -18449,7 +18406,7 @@
       </c>
       <c r="P142" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="143">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="244">
         <v>142</v>
       </c>
@@ -18493,7 +18450,7 @@
       </c>
       <c r="P143" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="144">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="244">
         <v>143</v>
       </c>
@@ -18537,7 +18494,7 @@
       </c>
       <c r="P144" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="145">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="244">
         <v>144</v>
       </c>
@@ -18581,7 +18538,7 @@
       </c>
       <c r="P145" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="146">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="244">
         <v>145</v>
       </c>
@@ -18625,7 +18582,7 @@
       </c>
       <c r="P146" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="147">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="244">
         <v>146</v>
       </c>
@@ -18669,7 +18626,7 @@
       </c>
       <c r="P147" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="148">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="244">
         <v>147</v>
       </c>
@@ -18713,7 +18670,7 @@
       </c>
       <c r="P148" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="149">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="244">
         <v>148</v>
       </c>
@@ -18757,7 +18714,7 @@
       </c>
       <c r="P149" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="150">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="244">
         <v>149</v>
       </c>
@@ -18801,7 +18758,7 @@
       </c>
       <c r="P150" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="151">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="244">
         <v>150</v>
       </c>
@@ -18845,7 +18802,7 @@
       </c>
       <c r="P151" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="152">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="244">
         <v>151</v>
       </c>
@@ -18889,7 +18846,7 @@
       </c>
       <c r="P152" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="153">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="244">
         <v>152</v>
       </c>
@@ -18933,7 +18890,7 @@
       </c>
       <c r="P153" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="154">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="244">
         <v>153</v>
       </c>
@@ -18977,7 +18934,7 @@
       </c>
       <c r="P154" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="155">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="244">
         <v>154</v>
       </c>
@@ -19021,7 +18978,7 @@
       </c>
       <c r="P155" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="156">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="244">
         <v>155</v>
       </c>
@@ -19065,7 +19022,7 @@
       </c>
       <c r="P156" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="157">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="244">
         <v>156</v>
       </c>
@@ -19109,7 +19066,7 @@
       </c>
       <c r="P157" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="158">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="244">
         <v>157</v>
       </c>
@@ -19153,7 +19110,7 @@
       </c>
       <c r="P158" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="159">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="244">
         <v>158</v>
       </c>
@@ -19197,7 +19154,7 @@
       </c>
       <c r="P159" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="160">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="244">
         <v>159</v>
       </c>
@@ -19241,7 +19198,7 @@
       </c>
       <c r="P160" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="161">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="244">
         <v>160</v>
       </c>
@@ -19285,7 +19242,7 @@
       </c>
       <c r="P161" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="162">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="244">
         <v>161</v>
       </c>
@@ -19329,7 +19286,7 @@
       </c>
       <c r="P162" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="163">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="244">
         <v>162</v>
       </c>
@@ -19373,7 +19330,7 @@
       </c>
       <c r="P163" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="164">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="244">
         <v>163</v>
       </c>
@@ -19417,7 +19374,7 @@
       </c>
       <c r="P164" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="165">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="244">
         <v>164</v>
       </c>
@@ -19461,7 +19418,7 @@
       </c>
       <c r="P165" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="166">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="244">
         <v>165</v>
       </c>
@@ -19505,7 +19462,7 @@
       </c>
       <c r="P166" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="167">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="244">
         <v>166</v>
       </c>
@@ -19549,7 +19506,7 @@
       </c>
       <c r="P167" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="168">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="244">
         <v>167</v>
       </c>
@@ -19593,7 +19550,7 @@
       </c>
       <c r="P168" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="169">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="244">
         <v>168</v>
       </c>
@@ -19637,7 +19594,7 @@
       </c>
       <c r="P169" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="170">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="244">
         <v>169</v>
       </c>
@@ -19681,7 +19638,7 @@
       </c>
       <c r="P170" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="171">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="244">
         <v>170</v>
       </c>
@@ -19725,7 +19682,7 @@
       </c>
       <c r="P171" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="172">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="244">
         <v>171</v>
       </c>
@@ -19769,7 +19726,7 @@
       </c>
       <c r="P172" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="173">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="244">
         <v>172</v>
       </c>
@@ -19813,7 +19770,7 @@
       </c>
       <c r="P173" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="174">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="244">
         <v>173</v>
       </c>
@@ -19857,7 +19814,7 @@
       </c>
       <c r="P174" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="175">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="244">
         <v>174</v>
       </c>
@@ -19901,7 +19858,7 @@
       </c>
       <c r="P175" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="176">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="244">
         <v>175</v>
       </c>
@@ -19945,7 +19902,7 @@
       </c>
       <c r="P176" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="177">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="244">
         <v>176</v>
       </c>
@@ -19989,7 +19946,7 @@
       </c>
       <c r="P177" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="178">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="244">
         <v>177</v>
       </c>
@@ -20033,7 +19990,7 @@
       </c>
       <c r="P178" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="179">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="244">
         <v>178</v>
       </c>
@@ -20077,7 +20034,7 @@
       </c>
       <c r="P179" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="180">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="244">
         <v>179</v>
       </c>
@@ -20121,7 +20078,7 @@
       </c>
       <c r="P180" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="181">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="244">
         <v>180</v>
       </c>
@@ -20165,7 +20122,7 @@
       </c>
       <c r="P181" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="182">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="244">
         <v>181</v>
       </c>
@@ -20209,7 +20166,7 @@
       </c>
       <c r="P182" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="183">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="244">
         <v>182</v>
       </c>
@@ -20253,7 +20210,7 @@
       </c>
       <c r="P183" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="184">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="244">
         <v>183</v>
       </c>
@@ -20297,7 +20254,7 @@
       </c>
       <c r="P184" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="185">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="244">
         <v>184</v>
       </c>
@@ -20341,7 +20298,7 @@
       </c>
       <c r="P185" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="186">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="244">
         <v>185</v>
       </c>
@@ -20385,7 +20342,7 @@
       </c>
       <c r="P186" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="187">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="244">
         <v>186</v>
       </c>
@@ -20429,7 +20386,7 @@
       </c>
       <c r="P187" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="188">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="244">
         <v>187</v>
       </c>
@@ -20475,7 +20432,7 @@
       </c>
       <c r="P188" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="189">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="244">
         <v>188</v>
       </c>
@@ -20519,7 +20476,7 @@
       </c>
       <c r="P189" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="190">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="244">
         <v>189</v>
       </c>
@@ -20563,7 +20520,7 @@
       </c>
       <c r="P190" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="191">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="244">
         <v>190</v>
       </c>
@@ -20609,7 +20566,7 @@
       </c>
       <c r="P191" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="192">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="244">
         <v>191</v>
       </c>
@@ -20653,7 +20610,7 @@
       </c>
       <c r="P192" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="193">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="244">
         <v>192</v>
       </c>
@@ -20697,7 +20654,7 @@
       </c>
       <c r="P193" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="194">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="244">
         <v>193</v>
       </c>
@@ -20741,7 +20698,7 @@
       </c>
       <c r="P194" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="195">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="244">
         <v>194</v>
       </c>
@@ -20785,7 +20742,7 @@
       </c>
       <c r="P195" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="196">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="244">
         <v>195</v>
       </c>
@@ -20829,7 +20786,7 @@
       </c>
       <c r="P196" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="197">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="244">
         <v>196</v>
       </c>
@@ -20873,7 +20830,7 @@
       </c>
       <c r="P197" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="198">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="244">
         <v>197</v>
       </c>
@@ -20917,7 +20874,7 @@
       </c>
       <c r="P198" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="199">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="244">
         <v>198</v>
       </c>
@@ -20961,7 +20918,7 @@
       </c>
       <c r="P199" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="200">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="244">
         <v>199</v>
       </c>
@@ -21005,7 +20962,7 @@
       </c>
       <c r="P200" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="201">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="244">
         <v>200</v>
       </c>
@@ -21049,7 +21006,7 @@
       </c>
       <c r="P201" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="202">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="244">
         <v>201</v>
       </c>
@@ -21093,7 +21050,7 @@
       </c>
       <c r="P202" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="203">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="244">
         <v>202</v>
       </c>
@@ -21137,7 +21094,7 @@
       </c>
       <c r="P203" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="204">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="244">
         <v>203</v>
       </c>
@@ -21181,7 +21138,7 @@
       </c>
       <c r="P204" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="205">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="244">
         <v>204</v>
       </c>
@@ -21225,7 +21182,7 @@
       </c>
       <c r="P205" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="206">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="244">
         <v>205</v>
       </c>
@@ -21269,7 +21226,7 @@
       </c>
       <c r="P206" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="207">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="244">
         <v>206</v>
       </c>
@@ -21313,7 +21270,7 @@
       </c>
       <c r="P207" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="208">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="244">
         <v>207</v>
       </c>
@@ -21357,7 +21314,7 @@
       </c>
       <c r="P208" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="209">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="244">
         <v>208</v>
       </c>
@@ -21401,7 +21358,7 @@
       </c>
       <c r="P209" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="210">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="244">
         <v>209</v>
       </c>
@@ -21445,7 +21402,7 @@
       </c>
       <c r="P210" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="211">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="244">
         <v>210</v>
       </c>
@@ -21489,7 +21446,7 @@
       </c>
       <c r="P211" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="212">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="244">
         <v>211</v>
       </c>
@@ -21533,7 +21490,7 @@
       </c>
       <c r="P212" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="213">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="244">
         <v>212</v>
       </c>
@@ -21577,7 +21534,7 @@
       </c>
       <c r="P213" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="214">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="244">
         <v>213</v>
       </c>
@@ -21621,7 +21578,7 @@
       </c>
       <c r="P214" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="215">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="244">
         <v>214</v>
       </c>
@@ -21665,7 +21622,7 @@
       </c>
       <c r="P215" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="216">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="244">
         <v>215</v>
       </c>
@@ -21709,7 +21666,7 @@
       </c>
       <c r="P216" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="217">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="244">
         <v>216</v>
       </c>
@@ -21753,7 +21710,7 @@
       </c>
       <c r="P217" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="218">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="244">
         <v>217</v>
       </c>
@@ -21797,7 +21754,7 @@
       </c>
       <c r="P218" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="219">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="244">
         <v>218</v>
       </c>
@@ -21841,7 +21798,7 @@
       </c>
       <c r="P219" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="220">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="244">
         <v>219</v>
       </c>
@@ -21858,10 +21815,10 @@
         <v>759</v>
       </c>
       <c r="F220" s="248" t="s">
+        <v>841</v>
+      </c>
+      <c r="G220" s="248" t="s">
         <v>760</v>
-      </c>
-      <c r="G220" s="248" t="s">
-        <v>761</v>
       </c>
       <c r="H220" s="249">
         <v>0.5</v>
@@ -21885,7 +21842,7 @@
       </c>
       <c r="P220" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="221">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="244">
         <v>220</v>
       </c>
@@ -21893,7 +21850,7 @@
         <v>4</v>
       </c>
       <c r="C221" s="246" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D221" s="250">
         <v>45495</v>
@@ -21905,7 +21862,7 @@
         <v>657</v>
       </c>
       <c r="G221" s="248" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H221" s="249">
         <v>0.5</v>
@@ -21929,7 +21886,7 @@
       </c>
       <c r="P221" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="222">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="244">
         <v>221</v>
       </c>
@@ -21937,7 +21894,7 @@
         <v>4</v>
       </c>
       <c r="C222" s="246" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D222" s="250">
         <v>45496</v>
@@ -21949,7 +21906,7 @@
         <v>657</v>
       </c>
       <c r="G222" s="248" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H222" s="249">
         <v>0.75</v>
@@ -21973,7 +21930,7 @@
       </c>
       <c r="P222" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="223">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="244">
         <v>222</v>
       </c>
@@ -21981,7 +21938,7 @@
         <v>4</v>
       </c>
       <c r="C223" s="246" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D223" s="250">
         <v>45497</v>
@@ -21993,7 +21950,7 @@
         <v>657</v>
       </c>
       <c r="G223" s="248" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H223" s="249">
         <v>0.25</v>
@@ -22017,7 +21974,7 @@
       </c>
       <c r="P223" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="224">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="244">
         <v>223</v>
       </c>
@@ -22025,7 +21982,7 @@
         <v>4</v>
       </c>
       <c r="C224" s="246" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D224" s="250">
         <v>45505</v>
@@ -22037,7 +21994,7 @@
         <v>413</v>
       </c>
       <c r="G224" s="248" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H224" s="249">
         <v>8.5</v>
@@ -22061,7 +22018,7 @@
       </c>
       <c r="P224" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="225">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="244">
         <v>224</v>
       </c>
@@ -22081,10 +22038,10 @@
         <v>604</v>
       </c>
       <c r="G225" s="248" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H225" s="249">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I225" s="248"/>
       <c r="J225" s="251" t="s">
@@ -22105,7 +22062,7 @@
       </c>
       <c r="P225" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="226">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="244">
         <v>225</v>
       </c>
@@ -22125,7 +22082,7 @@
         <v>604</v>
       </c>
       <c r="G226" s="248" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H226" s="249">
         <v>0.8</v>
@@ -22149,7 +22106,7 @@
       </c>
       <c r="P226" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="227">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="244">
         <v>226</v>
       </c>
@@ -22163,13 +22120,13 @@
         <v>45471</v>
       </c>
       <c r="E227" s="246" t="s">
+        <v>768</v>
+      </c>
+      <c r="F227" s="248" t="s">
         <v>769</v>
       </c>
-      <c r="F227" s="248" t="s">
+      <c r="G227" s="248" t="s">
         <v>770</v>
-      </c>
-      <c r="G227" s="248" t="s">
-        <v>771</v>
       </c>
       <c r="H227" s="249">
         <v>0.3</v>
@@ -22193,7 +22150,7 @@
       </c>
       <c r="P227" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="228">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="244">
         <v>227</v>
       </c>
@@ -22213,7 +22170,7 @@
         <v>604</v>
       </c>
       <c r="G228" s="248" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H228" s="249">
         <v>2.8</v>
@@ -22237,7 +22194,7 @@
       </c>
       <c r="P228" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="229">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="244">
         <v>228</v>
       </c>
@@ -22257,7 +22214,7 @@
         <v>604</v>
       </c>
       <c r="G229" s="248" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H229" s="249">
         <v>7.1</v>
@@ -22281,7 +22238,7 @@
       </c>
       <c r="P229" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="230">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="244">
         <v>229</v>
       </c>
@@ -22301,7 +22258,7 @@
         <v>604</v>
       </c>
       <c r="G230" s="248" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H230" s="249">
         <v>0.7</v>
@@ -22325,7 +22282,7 @@
       </c>
       <c r="P230" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="231">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="244">
         <v>230</v>
       </c>
@@ -22345,7 +22302,7 @@
         <v>604</v>
       </c>
       <c r="G231" s="248" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H231" s="249">
         <v>2.5</v>
@@ -22369,7 +22326,7 @@
       </c>
       <c r="P231" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="232">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="244">
         <v>231</v>
       </c>
@@ -22389,7 +22346,7 @@
         <v>604</v>
       </c>
       <c r="G232" s="248" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H232" s="249">
         <v>3.4</v>
@@ -22413,7 +22370,7 @@
       </c>
       <c r="P232" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="233">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="244">
         <v>232</v>
       </c>
@@ -22433,7 +22390,7 @@
         <v>604</v>
       </c>
       <c r="G233" s="248" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H233" s="249">
         <v>0.2</v>
@@ -22457,7 +22414,7 @@
       </c>
       <c r="P233" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="234">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="244">
         <v>233</v>
       </c>
@@ -22477,7 +22434,7 @@
         <v>594</v>
       </c>
       <c r="G234" s="248" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H234" s="249">
         <v>1.8</v>
@@ -22501,7 +22458,7 @@
       </c>
       <c r="P234" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="235">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="244">
         <v>234</v>
       </c>
@@ -22521,7 +22478,7 @@
         <v>594</v>
       </c>
       <c r="G235" s="248" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H235" s="249">
         <v>1.7</v>
@@ -22545,7 +22502,7 @@
       </c>
       <c r="P235" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="236">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="244">
         <v>235</v>
       </c>
@@ -22565,7 +22522,7 @@
         <v>511</v>
       </c>
       <c r="G236" s="248" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H236" s="249">
         <v>0.3</v>
@@ -22589,7 +22546,7 @@
       </c>
       <c r="P236" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="237">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="244">
         <v>236</v>
       </c>
@@ -22609,7 +22566,7 @@
         <v>591</v>
       </c>
       <c r="G237" s="248" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H237" s="249">
         <v>3.4</v>
@@ -22633,7 +22590,7 @@
       </c>
       <c r="P237" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="238">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="244">
         <v>237</v>
       </c>
@@ -22653,7 +22610,7 @@
         <v>594</v>
       </c>
       <c r="G238" s="248" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H238" s="249">
         <v>1.2</v>
@@ -22677,7 +22634,7 @@
       </c>
       <c r="P238" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="239">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="244">
         <v>238</v>
       </c>
@@ -22697,7 +22654,7 @@
         <v>594</v>
       </c>
       <c r="G239" s="248" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H239" s="249">
         <v>2.4</v>
@@ -22721,7 +22678,7 @@
       </c>
       <c r="P239" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="240">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="244">
         <v>239</v>
       </c>
@@ -22741,7 +22698,7 @@
         <v>653</v>
       </c>
       <c r="G240" s="248" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H240" s="249">
         <v>1.6</v>
@@ -22765,7 +22722,7 @@
       </c>
       <c r="P240" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="241">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="244">
         <v>240</v>
       </c>
@@ -22785,7 +22742,7 @@
         <v>604</v>
       </c>
       <c r="G241" s="248" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H241" s="249">
         <v>0.1</v>
@@ -22809,7 +22766,7 @@
       </c>
       <c r="P241" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="242">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="244">
         <v>241</v>
       </c>
@@ -22829,7 +22786,7 @@
         <v>511</v>
       </c>
       <c r="G242" s="248" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H242" s="249">
         <v>3.6</v>
@@ -22853,7 +22810,7 @@
       </c>
       <c r="P242" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="243">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="244">
         <v>242</v>
       </c>
@@ -22873,7 +22830,7 @@
         <v>591</v>
       </c>
       <c r="G243" s="248" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H243" s="249">
         <v>0.5</v>
@@ -22897,7 +22854,7 @@
       </c>
       <c r="P243" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="244">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="244">
         <v>243</v>
       </c>
@@ -22917,7 +22874,7 @@
         <v>594</v>
       </c>
       <c r="G244" s="248" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H244" s="249">
         <v>0.9</v>
@@ -22941,7 +22898,7 @@
       </c>
       <c r="P244" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="245">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="244">
         <v>244</v>
       </c>
@@ -22961,7 +22918,7 @@
         <v>511</v>
       </c>
       <c r="G245" s="248" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H245" s="249">
         <v>0.8</v>
@@ -22985,7 +22942,7 @@
       </c>
       <c r="P245" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="246">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="244">
         <v>245</v>
       </c>
@@ -23005,7 +22962,7 @@
         <v>594</v>
       </c>
       <c r="G246" s="248" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H246" s="249">
         <v>0.5</v>
@@ -23029,7 +22986,7 @@
       </c>
       <c r="P246" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="247">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="244">
         <v>246</v>
       </c>
@@ -23049,10 +23006,10 @@
         <v>653</v>
       </c>
       <c r="G247" s="248" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H247" s="249">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I247" s="248"/>
       <c r="J247" s="251" t="s">
@@ -23073,7 +23030,7 @@
       </c>
       <c r="P247" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="248">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="244">
         <v>247</v>
       </c>
@@ -23093,7 +23050,7 @@
         <v>604</v>
       </c>
       <c r="G248" s="248" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H248" s="249">
         <v>0.3</v>
@@ -23117,7 +23074,7 @@
       </c>
       <c r="P248" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="249">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="244">
         <v>248</v>
       </c>
@@ -23137,7 +23094,7 @@
         <v>604</v>
       </c>
       <c r="G249" s="248" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H249" s="249">
         <v>0.6</v>
@@ -23161,7 +23118,7 @@
       </c>
       <c r="P249" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="250">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="244">
         <v>249</v>
       </c>
@@ -23181,7 +23138,7 @@
         <v>694</v>
       </c>
       <c r="G250" s="248" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H250" s="249">
         <v>5.3</v>
@@ -23205,7 +23162,7 @@
       </c>
       <c r="P250" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="251">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="244">
         <v>250</v>
       </c>
@@ -23225,7 +23182,7 @@
         <v>701</v>
       </c>
       <c r="G251" s="248" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H251" s="249">
         <v>0.8</v>
@@ -23249,7 +23206,7 @@
       </c>
       <c r="P251" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="252">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="244">
         <v>251</v>
       </c>
@@ -23269,7 +23226,7 @@
         <v>694</v>
       </c>
       <c r="G252" s="248" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H252" s="249">
         <v>6.1</v>
@@ -23293,7 +23250,7 @@
       </c>
       <c r="P252" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="253">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="244">
         <v>252</v>
       </c>
@@ -23307,13 +23264,13 @@
         <v>45503</v>
       </c>
       <c r="E253" s="246" t="s">
+        <v>795</v>
+      </c>
+      <c r="F253" s="248" t="s">
         <v>796</v>
       </c>
-      <c r="F253" s="248" t="s">
+      <c r="G253" s="248" t="s">
         <v>797</v>
-      </c>
-      <c r="G253" s="248" t="s">
-        <v>798</v>
       </c>
       <c r="H253" s="249">
         <v>0.2</v>
@@ -23337,7 +23294,7 @@
       </c>
       <c r="P253" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="254">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="244">
         <v>253</v>
       </c>
@@ -23357,7 +23314,7 @@
         <v>694</v>
       </c>
       <c r="G254" s="248" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H254" s="249">
         <v>6.9</v>
@@ -23381,7 +23338,7 @@
       </c>
       <c r="P254" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="255">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="244">
         <v>254</v>
       </c>
@@ -23395,13 +23352,13 @@
         <v>45505</v>
       </c>
       <c r="E255" s="246" t="s">
+        <v>799</v>
+      </c>
+      <c r="F255" s="248" t="s">
         <v>800</v>
       </c>
-      <c r="F255" s="248" t="s">
+      <c r="G255" s="248" t="s">
         <v>801</v>
-      </c>
-      <c r="G255" s="248" t="s">
-        <v>802</v>
       </c>
       <c r="H255" s="249">
         <v>1</v>
@@ -23425,7 +23382,7 @@
       </c>
       <c r="P255" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="256">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="244">
         <v>255</v>
       </c>
@@ -23445,10 +23402,10 @@
         <v>694</v>
       </c>
       <c r="G256" s="248" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H256" s="249">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I256" s="248"/>
       <c r="J256" s="251" t="s">
@@ -23469,7 +23426,7 @@
       </c>
       <c r="P256" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="257">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="244">
         <v>256</v>
       </c>
@@ -23483,13 +23440,13 @@
         <v>45505</v>
       </c>
       <c r="E257" s="246" t="s">
+        <v>803</v>
+      </c>
+      <c r="F257" s="248" t="s">
         <v>804</v>
       </c>
-      <c r="F257" s="248" t="s">
+      <c r="G257" s="248" t="s">
         <v>805</v>
-      </c>
-      <c r="G257" s="248" t="s">
-        <v>806</v>
       </c>
       <c r="H257" s="249">
         <v>3.6</v>
@@ -23513,7 +23470,7 @@
       </c>
       <c r="P257" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="258">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="244">
         <v>257</v>
       </c>
@@ -23527,13 +23484,13 @@
         <v>45505</v>
       </c>
       <c r="E258" s="246" t="s">
+        <v>806</v>
+      </c>
+      <c r="F258" s="248" t="s">
         <v>807</v>
       </c>
-      <c r="F258" s="248" t="s">
+      <c r="G258" s="248" t="s">
         <v>808</v>
-      </c>
-      <c r="G258" s="248" t="s">
-        <v>809</v>
       </c>
       <c r="H258" s="249">
         <v>1</v>
@@ -23557,7 +23514,7 @@
       </c>
       <c r="P258" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="259">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="244">
         <v>258</v>
       </c>
@@ -23577,7 +23534,7 @@
         <v>413</v>
       </c>
       <c r="G259" s="248" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H259" s="249">
         <v>1.4</v>
@@ -23601,7 +23558,7 @@
       </c>
       <c r="P259" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="260">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="244">
         <v>259</v>
       </c>
@@ -23621,7 +23578,7 @@
         <v>707</v>
       </c>
       <c r="G260" s="248" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H260" s="249">
         <v>3.4</v>
@@ -23645,7 +23602,7 @@
       </c>
       <c r="P260" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="261">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="244">
         <v>260</v>
       </c>
@@ -23687,7 +23644,7 @@
       </c>
       <c r="P261" s="252"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="262">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="253">
         <v>261</v>
       </c>
@@ -23707,7 +23664,7 @@
         <v>413</v>
       </c>
       <c r="G262" s="257" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H262" s="258">
         <v>0.8</v>
@@ -23731,201 +23688,181 @@
       </c>
       <c r="P262" s="261"/>
     </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="263">
-      <c r="A263" s="359">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A263" s="244">
         <v>262</v>
       </c>
-      <c r="B263" s="360">
+      <c r="B263" s="245">
         <v>1</v>
       </c>
-      <c r="C263" s="361" t="s">
+      <c r="C263" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="D263" s="362">
+      <c r="D263" s="250">
         <v>45508</v>
       </c>
-      <c r="E263" s="361" t="s">
+      <c r="E263" s="246" t="s">
+        <v>832</v>
+      </c>
+      <c r="F263" s="248" t="s">
         <v>833</v>
       </c>
-      <c r="F263" s="363" t="s">
+      <c r="G263" s="248" t="s">
         <v>834</v>
       </c>
-      <c r="G263" s="363" t="s">
+      <c r="H263" s="249">
+        <v>2</v>
+      </c>
+      <c r="I263" s="248"/>
+      <c r="J263" s="251" t="s">
+        <v>404</v>
+      </c>
+      <c r="K263" s="247">
+        <v>45508.409409722197</v>
+      </c>
+      <c r="L263" s="251" t="s">
+        <v>404</v>
+      </c>
+      <c r="M263" s="251"/>
+      <c r="N263" s="251" t="s">
+        <v>404</v>
+      </c>
+      <c r="O263" s="251" t="s">
         <v>835</v>
       </c>
-      <c r="H263" s="364">
-        <v>2</v>
-      </c>
-      <c r="I263" s="363"/>
-      <c r="J263" s="365" t="s">
-        <v>404</v>
-      </c>
-      <c r="K263" s="366">
-        <v>45508.4094097222</v>
-      </c>
-      <c r="L263" s="365" t="s">
-        <v>404</v>
-      </c>
-      <c r="M263" s="365"/>
-      <c r="N263" s="365" t="s">
-        <v>404</v>
-      </c>
-      <c r="O263" s="365" t="s">
+      <c r="P263" s="252"/>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A264" s="244">
+        <v>263</v>
+      </c>
+      <c r="B264" s="245">
+        <v>1</v>
+      </c>
+      <c r="C264" s="246" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" s="250">
+        <v>45508</v>
+      </c>
+      <c r="E264" s="246" t="s">
         <v>836</v>
       </c>
-      <c r="P263" s="367"/>
-    </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="264">
-      <c r="A264" s="359">
-        <v>263</v>
-      </c>
-      <c r="B264" s="360">
+      <c r="F264" s="248" t="s">
+        <v>837</v>
+      </c>
+      <c r="G264" s="248" t="s">
+        <v>6</v>
+      </c>
+      <c r="H264" s="249">
+        <v>1.4</v>
+      </c>
+      <c r="I264" s="248"/>
+      <c r="J264" s="251" t="s">
+        <v>404</v>
+      </c>
+      <c r="K264" s="247">
+        <v>45508.409328703703</v>
+      </c>
+      <c r="L264" s="251" t="s">
+        <v>404</v>
+      </c>
+      <c r="M264" s="251"/>
+      <c r="N264" s="251" t="s">
+        <v>404</v>
+      </c>
+      <c r="O264" s="251" t="s">
+        <v>835</v>
+      </c>
+      <c r="P264" s="252"/>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A265" s="244">
+        <v>264</v>
+      </c>
+      <c r="B265" s="245">
         <v>1</v>
       </c>
-      <c r="C264" s="361" t="s">
+      <c r="C265" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="D264" s="362">
+      <c r="D265" s="250">
         <v>45508</v>
       </c>
-      <c r="E264" s="361" t="s">
-        <v>837</v>
-      </c>
-      <c r="F264" s="363" t="s">
+      <c r="E265" s="246" t="s">
+        <v>832</v>
+      </c>
+      <c r="F265" s="248" t="s">
         <v>838</v>
       </c>
-      <c r="G264" s="363" t="s">
-        <v>6</v>
-      </c>
-      <c r="H264" s="364">
-        <v>1.4</v>
-      </c>
-      <c r="I264" s="363"/>
-      <c r="J264" s="365" t="s">
-        <v>404</v>
-      </c>
-      <c r="K264" s="366">
-        <v>45508.4093287037</v>
-      </c>
-      <c r="L264" s="365" t="s">
-        <v>404</v>
-      </c>
-      <c r="M264" s="365"/>
-      <c r="N264" s="365" t="s">
-        <v>404</v>
-      </c>
-      <c r="O264" s="365" t="s">
-        <v>836</v>
-      </c>
-      <c r="P264" s="367"/>
-    </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="265">
-      <c r="A265" s="359">
-        <v>264</v>
-      </c>
-      <c r="B265" s="360">
+      <c r="G265" s="248" t="s">
+        <v>839</v>
+      </c>
+      <c r="H265" s="249">
         <v>1</v>
       </c>
-      <c r="C265" s="361" t="s">
+      <c r="I265" s="248"/>
+      <c r="J265" s="251" t="s">
+        <v>404</v>
+      </c>
+      <c r="K265" s="247">
+        <v>45510.602500000001</v>
+      </c>
+      <c r="L265" s="251" t="s">
+        <v>404</v>
+      </c>
+      <c r="M265" s="251"/>
+      <c r="N265" s="251" t="s">
+        <v>404</v>
+      </c>
+      <c r="O265" s="251" t="s">
+        <v>840</v>
+      </c>
+      <c r="P265" s="252"/>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A266" s="253">
+        <v>265</v>
+      </c>
+      <c r="B266" s="254">
+        <v>1</v>
+      </c>
+      <c r="C266" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="D265" s="362">
+      <c r="D266" s="256">
         <v>45508</v>
       </c>
-      <c r="E265" s="361" t="inlineStr">
-        <is>
-          <t>193r</t>
-        </is>
-      </c>
-      <c r="F265" s="363" t="inlineStr">
-        <is>
-          <t>Logiciels Informat - Robert [Robert Vigneault]</t>
-        </is>
-      </c>
-      <c r="G265" s="363" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="H265" s="364">
-        <v>1</v>
-      </c>
-      <c r="I265" s="363"/>
-      <c r="J265" s="365" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="K265" s="366">
-        <v>45510.6025</v>
-      </c>
-      <c r="L265" s="365" t="s">
-        <v>404</v>
-      </c>
-      <c r="M265" s="365"/>
-      <c r="N265" s="365" t="s">
-        <v>404</v>
-      </c>
-      <c r="O265" s="365" t="inlineStr">
-        <is>
-          <t>v4.B.4.xlsb</t>
-        </is>
-      </c>
-      <c r="P265" s="367"/>
-    </row>
-    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="266">
-      <c r="A266" s="368">
-        <v>265</v>
-      </c>
-      <c r="B266" s="369">
-        <v>1</v>
-      </c>
-      <c r="C266" s="370" t="s">
-        <v>15</v>
-      </c>
-      <c r="D266" s="371">
-        <v>45508</v>
-      </c>
-      <c r="E266" s="370" t="inlineStr">
-        <is>
-          <t>1528</t>
-        </is>
-      </c>
-      <c r="F266" s="372" t="inlineStr">
-        <is>
-          <t>Huwiz Inc.</t>
-        </is>
-      </c>
-      <c r="G266" s="372" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="H266" s="373">
+      <c r="E266" s="255" t="s">
+        <v>545</v>
+      </c>
+      <c r="F266" s="257" t="s">
+        <v>546</v>
+      </c>
+      <c r="G266" s="257" t="s">
+        <v>839</v>
+      </c>
+      <c r="H266" s="258">
         <v>0.1</v>
       </c>
-      <c r="I266" s="372"/>
-      <c r="J266" s="374" t="inlineStr">
-        <is>
-          <t>FAUX</t>
-        </is>
-      </c>
-      <c r="K266" s="375">
-        <v>45510.6025462963</v>
-      </c>
-      <c r="L266" s="374" t="s">
-        <v>404</v>
-      </c>
-      <c r="M266" s="374"/>
-      <c r="N266" s="374" t="s">
-        <v>404</v>
-      </c>
-      <c r="O266" s="374" t="inlineStr">
-        <is>
-          <t>v4.B.4.xlsb</t>
-        </is>
-      </c>
-      <c r="P266" s="376"/>
+      <c r="I266" s="257"/>
+      <c r="J266" s="259" t="s">
+        <v>404</v>
+      </c>
+      <c r="K266" s="260">
+        <v>45510.602546296301</v>
+      </c>
+      <c r="L266" s="259" t="s">
+        <v>404</v>
+      </c>
+      <c r="M266" s="259"/>
+      <c r="N266" s="259" t="s">
+        <v>404</v>
+      </c>
+      <c r="O266" s="259" t="s">
+        <v>840</v>
+      </c>
+      <c r="P266" s="261"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23979,51 +23916,51 @@
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
+      <c r="N1" s="351"/>
+      <c r="O1" s="351"/>
+      <c r="P1" s="351"/>
+      <c r="Q1" s="351"/>
+      <c r="R1" s="351"/>
+      <c r="S1" s="351"/>
+      <c r="T1" s="351"/>
+      <c r="U1" s="351"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="352" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="267"/>
+      <c r="B2" s="352"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="24"/>
-      <c r="D3" s="268" t="s">
+      <c r="D3" s="353" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="269"/>
-      <c r="F3" s="270" t="s">
+      <c r="E3" s="354"/>
+      <c r="F3" s="355" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="272"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="356"/>
+      <c r="I3" s="356"/>
+      <c r="J3" s="356"/>
+      <c r="K3" s="356"/>
+      <c r="L3" s="356"/>
+      <c r="M3" s="357"/>
       <c r="T3" s="11"/>
       <c r="V3"/>
     </row>
@@ -24032,10 +23969,10 @@
         <v>197</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="P4" s="273"/>
-      <c r="Q4" s="274"/>
-      <c r="R4" s="275"/>
-      <c r="S4" s="275"/>
+      <c r="P4" s="358"/>
+      <c r="Q4" s="344"/>
+      <c r="R4" s="345"/>
+      <c r="S4" s="345"/>
       <c r="V4" s="4"/>
       <c r="W4" s="2"/>
     </row>
@@ -24044,24 +23981,24 @@
         <v>198</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="D5" s="282" t="s">
+      <c r="D5" s="339" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="283"/>
-      <c r="F5" s="284" t="s">
+      <c r="E5" s="340"/>
+      <c r="F5" s="341" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="286"/>
-      <c r="P5" s="274"/>
-      <c r="Q5" s="274"/>
-      <c r="R5" s="275"/>
-      <c r="S5" s="275"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="343"/>
+      <c r="P5" s="344"/>
+      <c r="Q5" s="344"/>
+      <c r="R5" s="345"/>
+      <c r="S5" s="345"/>
       <c r="V5" s="4"/>
       <c r="W5" s="2"/>
     </row>
@@ -24070,24 +24007,24 @@
         <v>201</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="D6" s="287" t="s">
+      <c r="D6" s="346" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="288"/>
-      <c r="F6" s="289" t="s">
+      <c r="E6" s="347"/>
+      <c r="F6" s="348" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="290"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="290"/>
-      <c r="L6" s="290"/>
-      <c r="M6" s="291"/>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="275"/>
-      <c r="S6" s="275"/>
+      <c r="G6" s="349"/>
+      <c r="H6" s="349"/>
+      <c r="I6" s="349"/>
+      <c r="J6" s="349"/>
+      <c r="K6" s="349"/>
+      <c r="L6" s="349"/>
+      <c r="M6" s="350"/>
+      <c r="P6" s="344"/>
+      <c r="Q6" s="344"/>
+      <c r="R6" s="345"/>
+      <c r="S6" s="345"/>
       <c r="V6" s="4"/>
       <c r="W6" s="2"/>
     </row>
@@ -24125,38 +24062,38 @@
       <c r="B9" s="30">
         <v>355</v>
       </c>
-      <c r="D9" s="294" t="s">
+      <c r="D9" s="325" t="s">
         <v>370</v>
       </c>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="296"/>
-      <c r="I9" s="297" t="s">
+      <c r="E9" s="326"/>
+      <c r="F9" s="326"/>
+      <c r="G9" s="327"/>
+      <c r="I9" s="328" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="298"/>
+      <c r="J9" s="329"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="299" t="s">
+      <c r="L9" s="280" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="300"/>
-      <c r="N9" s="301"/>
-      <c r="P9" s="302" t="s">
+      <c r="M9" s="281"/>
+      <c r="N9" s="282"/>
+      <c r="P9" s="330" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="303"/>
-      <c r="R9" s="304"/>
-      <c r="T9" s="276" t="s">
+      <c r="Q9" s="331"/>
+      <c r="R9" s="332"/>
+      <c r="T9" s="333" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="277"/>
-      <c r="V9" s="277"/>
-      <c r="W9" s="278"/>
-      <c r="Y9" s="279" t="s">
+      <c r="U9" s="334"/>
+      <c r="V9" s="334"/>
+      <c r="W9" s="335"/>
+      <c r="Y9" s="336" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="280"/>
-      <c r="AA9" s="281"/>
+      <c r="Z9" s="337"/>
+      <c r="AA9" s="338"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="156" t="s">
@@ -24208,9 +24145,9 @@
       <c r="W10" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="305"/>
-      <c r="Z10" s="306"/>
-      <c r="AA10" s="307"/>
+      <c r="Y10" s="313"/>
+      <c r="Z10" s="314"/>
+      <c r="AA10" s="315"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="142" t="s">
@@ -24734,10 +24671,10 @@
       <c r="I21" s="137"/>
       <c r="J21" s="139"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="311" t="s">
+      <c r="L21" s="319" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="312"/>
+      <c r="M21" s="320"/>
       <c r="N21" s="92">
         <v>7</v>
       </c>
@@ -24843,11 +24780,11 @@
       <c r="I24" s="138"/>
       <c r="J24" s="139"/>
       <c r="K24" s="31"/>
-      <c r="P24" s="299" t="s">
+      <c r="P24" s="280" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="300"/>
-      <c r="R24" s="301"/>
+      <c r="Q24" s="281"/>
+      <c r="R24" s="282"/>
       <c r="T24" s="70" t="s">
         <v>259</v>
       </c>
@@ -24878,10 +24815,10 @@
       <c r="I25" s="140"/>
       <c r="J25" s="141"/>
       <c r="K25" s="31"/>
-      <c r="P25" s="313" t="s">
+      <c r="P25" s="321" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="314"/>
+      <c r="Q25" s="322"/>
       <c r="R25" s="99" t="s">
         <v>262</v>
       </c>
@@ -24916,10 +24853,10 @@
       <c r="G26" s="151"/>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
-      <c r="P26" s="292" t="s">
+      <c r="P26" s="323" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="293"/>
+      <c r="Q26" s="324"/>
       <c r="R26" s="100" t="s">
         <v>267</v>
       </c>
@@ -24954,10 +24891,10 @@
       <c r="G27" s="151"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="P27" s="315" t="s">
+      <c r="P27" s="305" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="316"/>
+      <c r="Q27" s="306"/>
       <c r="R27" s="102" t="s">
         <v>267</v>
       </c>
@@ -24988,20 +24925,20 @@
       </c>
       <c r="F28" s="148"/>
       <c r="G28" s="151"/>
-      <c r="I28" s="317" t="s">
+      <c r="I28" s="283" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="318"/>
+      <c r="J28" s="284"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="319" t="s">
+      <c r="L28" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="320"/>
-      <c r="N28" s="321"/>
-      <c r="P28" s="322" t="s">
+      <c r="M28" s="308"/>
+      <c r="N28" s="309"/>
+      <c r="P28" s="273" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="323"/>
+      <c r="Q28" s="310"/>
       <c r="R28" s="105" t="s">
         <v>278</v>
       </c>
@@ -25032,20 +24969,20 @@
       </c>
       <c r="F29" s="148"/>
       <c r="G29" s="151"/>
-      <c r="I29" s="322" t="s">
+      <c r="I29" s="273" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="324"/>
+      <c r="J29" s="274"/>
       <c r="K29" s="2"/>
       <c r="L29" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="325"/>
-      <c r="N29" s="326"/>
-      <c r="P29" s="327" t="s">
+      <c r="M29" s="291"/>
+      <c r="N29" s="292"/>
+      <c r="P29" s="311" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="328"/>
+      <c r="Q29" s="312"/>
       <c r="R29" s="102" t="s">
         <v>278</v>
       </c>
@@ -25078,20 +25015,20 @@
       </c>
       <c r="F30" s="153"/>
       <c r="G30" s="154"/>
-      <c r="I30" s="329" t="s">
+      <c r="I30" s="271" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="330"/>
+      <c r="J30" s="272"/>
       <c r="K30" s="2"/>
       <c r="L30" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="325"/>
-      <c r="N30" s="326"/>
-      <c r="P30" s="331" t="s">
+      <c r="M30" s="291"/>
+      <c r="N30" s="292"/>
+      <c r="P30" s="303" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="332"/>
+      <c r="Q30" s="304"/>
       <c r="R30" s="105" t="s">
         <v>267</v>
       </c>
@@ -25116,19 +25053,19 @@
       <c r="AA30" s="82"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I31" s="322" t="s">
+      <c r="I31" s="273" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="324"/>
+      <c r="J31" s="274"/>
       <c r="L31" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="325"/>
-      <c r="N31" s="326"/>
-      <c r="P31" s="315" t="s">
+      <c r="M31" s="291"/>
+      <c r="N31" s="292"/>
+      <c r="P31" s="305" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="316"/>
+      <c r="Q31" s="306"/>
       <c r="R31" s="102" t="s">
         <v>278</v>
       </c>
@@ -25153,19 +25090,19 @@
       <c r="AA31" s="82"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="329" t="s">
+      <c r="I32" s="271" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="330"/>
+      <c r="J32" s="272"/>
       <c r="L32" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="325"/>
-      <c r="N32" s="326"/>
-      <c r="P32" s="339" t="s">
+      <c r="M32" s="291"/>
+      <c r="N32" s="292"/>
+      <c r="P32" s="293" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="340"/>
+      <c r="Q32" s="294"/>
       <c r="R32" s="110" t="s">
         <v>267</v>
       </c>
@@ -25192,15 +25129,15 @@
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="322" t="s">
+      <c r="I33" s="273" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="324"/>
+      <c r="J33" s="274"/>
       <c r="L33" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="344"/>
-      <c r="N33" s="345"/>
+      <c r="M33" s="298"/>
+      <c r="N33" s="299"/>
       <c r="T33" s="70" t="s">
         <v>65</v>
       </c>
@@ -25222,10 +25159,10 @@
       <c r="AA33" s="82"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I34" s="329" t="s">
+      <c r="I34" s="271" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="330"/>
+      <c r="J34" s="272"/>
       <c r="T34" s="70" t="s">
         <v>300</v>
       </c>
@@ -25247,12 +25184,12 @@
       <c r="AA34" s="82"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="348" t="s">
+      <c r="I35" s="266" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="349"/>
-      <c r="P35" s="350"/>
-      <c r="Q35" s="350"/>
+      <c r="J35" s="267"/>
+      <c r="P35" s="302"/>
+      <c r="Q35" s="302"/>
       <c r="T35" s="70" t="s">
         <v>303</v>
       </c>
@@ -25295,16 +25232,16 @@
       <c r="AA36" s="82"/>
     </row>
     <row r="37" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="308" t="s">
+      <c r="D37" s="316" t="s">
         <v>371</v>
       </c>
-      <c r="E37" s="309"/>
-      <c r="F37" s="310"/>
-      <c r="P37" s="299" t="s">
+      <c r="E37" s="317"/>
+      <c r="F37" s="318"/>
+      <c r="P37" s="280" t="s">
         <v>290</v>
       </c>
-      <c r="Q37" s="300"/>
-      <c r="R37" s="301"/>
+      <c r="Q37" s="281"/>
+      <c r="R37" s="282"/>
       <c r="T37" s="70" t="s">
         <v>74</v>
       </c>
@@ -25337,15 +25274,15 @@
       <c r="F38" s="161" t="s">
         <v>243</v>
       </c>
-      <c r="I38" s="351" t="s">
+      <c r="I38" s="275" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="352"/>
-      <c r="P38" s="336" t="s">
+      <c r="J38" s="276"/>
+      <c r="P38" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="337"/>
-      <c r="R38" s="338"/>
+      <c r="Q38" s="286"/>
+      <c r="R38" s="287"/>
       <c r="T38" s="70" t="s">
         <v>310</v>
       </c>
@@ -25382,11 +25319,11 @@
       <c r="J39" s="114" t="s">
         <v>313</v>
       </c>
-      <c r="P39" s="341" t="s">
+      <c r="P39" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="342"/>
-      <c r="R39" s="343"/>
+      <c r="Q39" s="296"/>
+      <c r="R39" s="297"/>
       <c r="T39" s="70" t="s">
         <v>314</v>
       </c>
@@ -25421,11 +25358,11 @@
         <v>317</v>
       </c>
       <c r="J40" s="116"/>
-      <c r="P40" s="329" t="s">
+      <c r="P40" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="Q40" s="346"/>
-      <c r="R40" s="330"/>
+      <c r="Q40" s="300"/>
+      <c r="R40" s="272"/>
       <c r="T40" s="70" t="s">
         <v>318</v>
       </c>
@@ -25460,11 +25397,11 @@
         <v>88</v>
       </c>
       <c r="J41" s="120"/>
-      <c r="P41" s="322" t="s">
+      <c r="P41" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="Q41" s="347"/>
-      <c r="R41" s="324"/>
+      <c r="Q41" s="301"/>
+      <c r="R41" s="274"/>
       <c r="T41" s="70" t="s">
         <v>322</v>
       </c>
@@ -25499,11 +25436,11 @@
         <v>102</v>
       </c>
       <c r="J42" s="116"/>
-      <c r="P42" s="333" t="s">
+      <c r="P42" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="Q42" s="334"/>
-      <c r="R42" s="335"/>
+      <c r="Q42" s="289"/>
+      <c r="R42" s="290"/>
       <c r="T42" s="70" t="s">
         <v>325</v>
       </c>
@@ -25691,15 +25628,15 @@
     </row>
     <row r="48" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F48" s="103"/>
-      <c r="I48" s="317" t="s">
+      <c r="I48" s="283" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="318"/>
-      <c r="P48" s="353" t="s">
+      <c r="J48" s="284"/>
+      <c r="P48" s="277" t="s">
         <v>312</v>
       </c>
-      <c r="Q48" s="354"/>
-      <c r="R48" s="355"/>
+      <c r="Q48" s="278"/>
+      <c r="R48" s="279"/>
       <c r="T48" s="70" t="s">
         <v>67</v>
       </c>
@@ -25722,10 +25659,10 @@
     </row>
     <row r="49" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F49" s="103"/>
-      <c r="I49" s="322" t="s">
+      <c r="I49" s="273" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="324"/>
+      <c r="J49" s="274"/>
       <c r="P49" s="113" t="s">
         <v>315</v>
       </c>
@@ -25757,10 +25694,10 @@
     </row>
     <row r="50" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F50" s="103"/>
-      <c r="I50" s="329" t="s">
+      <c r="I50" s="271" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="330"/>
+      <c r="J50" s="272"/>
       <c r="P50" s="117" t="s">
         <v>321</v>
       </c>
@@ -25792,10 +25729,10 @@
     </row>
     <row r="51" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F51" s="103"/>
-      <c r="I51" s="322" t="s">
+      <c r="I51" s="273" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="324"/>
+      <c r="J51" s="274"/>
       <c r="P51" s="121" t="s">
         <v>90</v>
       </c>
@@ -25825,10 +25762,10 @@
     </row>
     <row r="52" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F52" s="103"/>
-      <c r="I52" s="329" t="s">
+      <c r="I52" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="330"/>
+      <c r="J52" s="272"/>
       <c r="P52" s="124" t="s">
         <v>87</v>
       </c>
@@ -25851,10 +25788,10 @@
     </row>
     <row r="53" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F53" s="103"/>
-      <c r="I53" s="322" t="s">
+      <c r="I53" s="273" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="324"/>
+      <c r="J53" s="274"/>
       <c r="P53" s="121" t="s">
         <v>103</v>
       </c>
@@ -25899,10 +25836,10 @@
     </row>
     <row r="55" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F55" s="103"/>
-      <c r="I55" s="329" t="s">
+      <c r="I55" s="271" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="330"/>
+      <c r="J55" s="272"/>
       <c r="T55" s="70" t="s">
         <v>175</v>
       </c>
@@ -25918,10 +25855,10 @@
     </row>
     <row r="56" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F56" s="103"/>
-      <c r="I56" s="348" t="s">
+      <c r="I56" s="266" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="349"/>
+      <c r="J56" s="267"/>
       <c r="T56" s="70" t="s">
         <v>34</v>
       </c>
@@ -26187,11 +26124,11 @@
       </c>
     </row>
     <row r="74" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="299" t="s">
+      <c r="D74" s="280" t="s">
         <v>340</v>
       </c>
-      <c r="E74" s="300"/>
-      <c r="F74" s="301"/>
+      <c r="E74" s="281"/>
+      <c r="F74" s="282"/>
       <c r="T74" s="70" t="s">
         <v>187</v>
       </c>
@@ -26206,11 +26143,11 @@
       </c>
     </row>
     <row r="75" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D75" s="336" t="s">
+      <c r="D75" s="285" t="s">
         <v>243</v>
       </c>
-      <c r="E75" s="337"/>
-      <c r="F75" s="338"/>
+      <c r="E75" s="286"/>
+      <c r="F75" s="287"/>
       <c r="T75" s="70" t="s">
         <v>189</v>
       </c>
@@ -26225,11 +26162,11 @@
       </c>
     </row>
     <row r="76" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="356">
+      <c r="D76" s="268">
         <v>350</v>
       </c>
-      <c r="E76" s="357"/>
-      <c r="F76" s="358"/>
+      <c r="E76" s="269"/>
+      <c r="F76" s="270"/>
       <c r="T76" s="70" t="s">
         <v>366</v>
       </c>
@@ -26245,19 +26182,43 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P37:R37"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="P31:Q31"/>
@@ -26274,83 +26235,59 @@
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:G30">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>AND($D11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P21">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R20">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:W78">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>AND($T11&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AA51">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND($Y12&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26731,7 +26668,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M9987">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26880,7 +26817,7 @@
   <autoFilter ref="A1:P1" xr:uid="{BF285A66-D32A-4C2D-BAAD-5B60B0034FFF}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:P9924">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27066,7 +27003,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:F9929">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27119,7 +27056,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{9CC0F112-F6F5-4729-8EA4-252A1080634A}"/>
   <conditionalFormatting sqref="A2:F99947">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27199,7 +27136,7 @@
   <autoFilter ref="A1:J1" xr:uid="{6A0BDE8C-C0CD-4E75-A0A0-916CFADCF838}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J99999">
-    <cfRule type="expression" dxfId="8" priority="49">
+    <cfRule type="expression" dxfId="9" priority="49">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27336,7 +27273,7 @@
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{8B45F79E-24DF-4598-AC35-A20900C36411}"/>
   <conditionalFormatting sqref="A2:V9999">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27402,7 +27339,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F9999">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -13135,7 +13135,7 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="wshTEC_Local"/>
-  <dimension ref="A1:P290"/>
+  <dimension ref="A1:P292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0" rightToLeft="false">
       <pane ySplit="570" topLeftCell="A271" activePane="bottomLeft"/>
@@ -25993,6 +25993,120 @@
       <c r="O290" s="367" t="inlineStr">
         <is>
           <t>APP_v4.C.4.xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="291">
+      <c r="A291" s="367">
+        <v>291</v>
+      </c>
+      <c r="B291" s="367">
+        <v>1</v>
+      </c>
+      <c r="C291" s="367" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D291" s="379">
+        <v>45515</v>
+      </c>
+      <c r="E291" s="367" t="inlineStr">
+        <is>
+          <t>1528</t>
+        </is>
+      </c>
+      <c r="F291" s="367" t="inlineStr">
+        <is>
+          <t>Huwiz Inc.</t>
+        </is>
+      </c>
+      <c r="G291" s="367" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="H291" s="367">
+        <v>2</v>
+      </c>
+      <c r="J291" s="367" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K291" s="379">
+        <v>45515.5917476852</v>
+      </c>
+      <c r="L291" s="367" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N291" s="367" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O291" s="367" t="inlineStr">
+        <is>
+          <t>APP_v4.D.1.xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="292">
+      <c r="A292" s="367">
+        <v>292</v>
+      </c>
+      <c r="B292" s="367">
+        <v>1</v>
+      </c>
+      <c r="C292" s="367" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D292" s="379">
+        <v>45515</v>
+      </c>
+      <c r="E292" s="367" t="inlineStr">
+        <is>
+          <t>1516</t>
+        </is>
+      </c>
+      <c r="F292" s="367" t="inlineStr">
+        <is>
+          <t>Canplex</t>
+        </is>
+      </c>
+      <c r="G292" s="367" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="H292" s="367">
+        <v>1</v>
+      </c>
+      <c r="J292" s="367" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K292" s="379">
+        <v>45515.62</v>
+      </c>
+      <c r="L292" s="367" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N292" s="367" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O292" s="367" t="inlineStr">
+        <is>
+          <t>APP_v4.D.1.xlsm</t>
         </is>
       </c>
     </row>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A157FF-7FCE-49D4-A147-9061ED383CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A08721-46B4-4B13-9535-C172E028E1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,7 +193,6 @@
     <definedName name="Years" localSheetId="1">Admin_Master!$I$11:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -214,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5416" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5504" uniqueCount="1208">
   <si>
     <t>TEC_ID</t>
   </si>
@@ -3790,6 +3789,54 @@
   </si>
   <si>
     <t>Sur facture, indiquer pour Transfert à Stacy Blain</t>
+  </si>
+  <si>
+    <t>tel avec Guy sur véhicules en stock vs ajustement prix de vente</t>
+  </si>
+  <si>
+    <t>révision légale de portion #2 + préparation de lettre au banquier pour roulement des placements de RJJK à sa nouvelle société + révision des documents modifiés</t>
+  </si>
+  <si>
+    <t>préparation à la vidéoconférence et vidéoconférence pour stratégie de 84.1</t>
+  </si>
+  <si>
+    <t>tel avec Martyne sur stratégie avec acheteur  sur cash flow + analyse de tous les courriels + reparler avec Martyne + révision de la LOI et commentaires</t>
+  </si>
+  <si>
+    <t>1794</t>
+  </si>
+  <si>
+    <t>B&amp;K Stratégies Financières Inc. [Christopher Knull]</t>
+  </si>
+  <si>
+    <t>rencontre par vidéoconférence + questions par courriel</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>Garage Hébert [Martin Montpas]</t>
+  </si>
+  <si>
+    <t>envoie de liste d'infos requises pour évaluation et tel avec Martin + tel avec Karine + envoi de courriel d'infos pour évaluation à Karine</t>
+  </si>
+  <si>
+    <t>tel avec céline sur avances dans la fiducie et prêts + analyse de yvon + courriel de financement + courriels sur contamination de la fiduciie vs analyse de ce qu'il s'est passé depuis le début</t>
+  </si>
+  <si>
+    <t>répondre aux questions de Nicole sur le mémorandum fiscal</t>
+  </si>
+  <si>
+    <t>avancer le tableau de roulement de l'iimmeuble de 12817 60e avenue et poser des questions additionnelles suite à l'obtention de l'évaluation</t>
+  </si>
+  <si>
+    <t>Révision du contrat de vente et commentaires/modifications</t>
+  </si>
+  <si>
+    <t>Assurancia Inc [Jean-Pierre Tardif]</t>
+  </si>
+  <si>
+    <t>courriels sur émission des acitons privilégiées</t>
   </si>
 </sst>
 </file>
@@ -5940,7 +5987,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="389">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -6687,35 +6734,206 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="7" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="7" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="7" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="11" borderId="83" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="11" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="11" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="11" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6750,6 +6968,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6765,205 +6989,78 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="11" borderId="83" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="11" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="11" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="11" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="7" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="7" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="7" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9923,17 +10020,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P451" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A1:P451" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="14/08/2024 08:22:54"/>
-        <filter val="14/08/2024 08:22:55"/>
-        <filter val="14/08/2024 08:22:57"/>
-        <filter val="14/08/2024 08:22:58"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P462" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:P462" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{442BE8B7-5CE4-48D7-A603-B8BD91CF4F12}" name="TEC_ID" dataDxfId="47"/>
     <tableColumn id="2" xr3:uid="{AF8BE6CE-0BCF-4480-8A4A-B19F36ABFC85}" name="Prof_ID" dataDxfId="46"/>
@@ -10380,51 +10468,51 @@
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="278"/>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
-      <c r="N1" s="278"/>
-      <c r="O1" s="278"/>
-      <c r="P1" s="278"/>
-      <c r="Q1" s="278"/>
-      <c r="R1" s="278"/>
-      <c r="S1" s="278"/>
-      <c r="T1" s="278"/>
-      <c r="U1" s="278"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
+      <c r="I1" s="363"/>
+      <c r="J1" s="363"/>
+      <c r="K1" s="363"/>
+      <c r="L1" s="363"/>
+      <c r="M1" s="363"/>
+      <c r="N1" s="363"/>
+      <c r="O1" s="363"/>
+      <c r="P1" s="363"/>
+      <c r="Q1" s="363"/>
+      <c r="R1" s="363"/>
+      <c r="S1" s="363"/>
+      <c r="T1" s="363"/>
+      <c r="U1" s="363"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="364" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="279"/>
+      <c r="B2" s="364"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="24"/>
-      <c r="D3" s="280" t="s">
+      <c r="D3" s="365" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="281"/>
-      <c r="F3" s="282" t="s">
+      <c r="E3" s="366"/>
+      <c r="F3" s="367" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="284"/>
+      <c r="G3" s="368"/>
+      <c r="H3" s="368"/>
+      <c r="I3" s="368"/>
+      <c r="J3" s="368"/>
+      <c r="K3" s="368"/>
+      <c r="L3" s="368"/>
+      <c r="M3" s="369"/>
       <c r="T3" s="11"/>
       <c r="V3"/>
     </row>
@@ -10433,10 +10521,10 @@
         <v>197</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="P4" s="285"/>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="287"/>
-      <c r="S4" s="287"/>
+      <c r="P4" s="370"/>
+      <c r="Q4" s="356"/>
+      <c r="R4" s="357"/>
+      <c r="S4" s="357"/>
       <c r="V4" s="4"/>
       <c r="W4" s="2"/>
     </row>
@@ -10445,24 +10533,24 @@
         <v>198</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="D5" s="294" t="s">
+      <c r="D5" s="351" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="295"/>
-      <c r="F5" s="296" t="s">
+      <c r="E5" s="352"/>
+      <c r="F5" s="353" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="297"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="298"/>
-      <c r="P5" s="286"/>
-      <c r="Q5" s="286"/>
-      <c r="R5" s="287"/>
-      <c r="S5" s="287"/>
+      <c r="G5" s="354"/>
+      <c r="H5" s="354"/>
+      <c r="I5" s="354"/>
+      <c r="J5" s="354"/>
+      <c r="K5" s="354"/>
+      <c r="L5" s="354"/>
+      <c r="M5" s="355"/>
+      <c r="P5" s="356"/>
+      <c r="Q5" s="356"/>
+      <c r="R5" s="357"/>
+      <c r="S5" s="357"/>
       <c r="V5" s="4"/>
       <c r="W5" s="2"/>
     </row>
@@ -10471,24 +10559,24 @@
         <v>201</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="D6" s="299" t="s">
+      <c r="D6" s="358" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="300"/>
-      <c r="F6" s="301" t="s">
+      <c r="E6" s="359"/>
+      <c r="F6" s="360" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="303"/>
-      <c r="P6" s="286"/>
-      <c r="Q6" s="286"/>
-      <c r="R6" s="287"/>
-      <c r="S6" s="287"/>
+      <c r="G6" s="361"/>
+      <c r="H6" s="361"/>
+      <c r="I6" s="361"/>
+      <c r="J6" s="361"/>
+      <c r="K6" s="361"/>
+      <c r="L6" s="361"/>
+      <c r="M6" s="362"/>
+      <c r="P6" s="356"/>
+      <c r="Q6" s="356"/>
+      <c r="R6" s="357"/>
+      <c r="S6" s="357"/>
       <c r="V6" s="4"/>
       <c r="W6" s="2"/>
     </row>
@@ -10526,38 +10614,38 @@
       <c r="B9" s="30">
         <v>355</v>
       </c>
-      <c r="D9" s="306" t="s">
+      <c r="D9" s="337" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="307"/>
-      <c r="F9" s="307"/>
-      <c r="G9" s="308"/>
-      <c r="I9" s="309" t="s">
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
+      <c r="G9" s="339"/>
+      <c r="I9" s="340" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="310"/>
+      <c r="J9" s="341"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="311" t="s">
+      <c r="L9" s="292" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="312"/>
-      <c r="N9" s="313"/>
-      <c r="P9" s="314" t="s">
+      <c r="M9" s="293"/>
+      <c r="N9" s="294"/>
+      <c r="P9" s="342" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="315"/>
-      <c r="R9" s="316"/>
-      <c r="T9" s="288" t="s">
+      <c r="Q9" s="343"/>
+      <c r="R9" s="344"/>
+      <c r="T9" s="345" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="289"/>
-      <c r="V9" s="289"/>
-      <c r="W9" s="290"/>
-      <c r="Y9" s="291" t="s">
+      <c r="U9" s="346"/>
+      <c r="V9" s="346"/>
+      <c r="W9" s="347"/>
+      <c r="Y9" s="348" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="292"/>
-      <c r="AA9" s="293"/>
+      <c r="Z9" s="349"/>
+      <c r="AA9" s="350"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="32" t="s">
@@ -10609,9 +10697,9 @@
       <c r="W10" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="317"/>
-      <c r="Z10" s="318"/>
-      <c r="AA10" s="319"/>
+      <c r="Y10" s="325"/>
+      <c r="Z10" s="326"/>
+      <c r="AA10" s="327"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="44" t="s">
@@ -10926,11 +11014,11 @@
       <c r="AA16" s="82"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="320" t="s">
+      <c r="D17" s="328" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="321"/>
-      <c r="F17" s="322"/>
+      <c r="E17" s="329"/>
+      <c r="F17" s="330"/>
       <c r="I17" s="77">
         <v>2029</v>
       </c>
@@ -11130,10 +11218,10 @@
       <c r="I21" s="77"/>
       <c r="J21" s="66"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="323" t="s">
+      <c r="L21" s="331" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="324"/>
+      <c r="M21" s="332"/>
       <c r="N21" s="92">
         <v>7</v>
       </c>
@@ -11248,11 +11336,11 @@
       <c r="I24" s="65"/>
       <c r="J24" s="66"/>
       <c r="K24" s="31"/>
-      <c r="P24" s="311" t="s">
+      <c r="P24" s="292" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="312"/>
-      <c r="R24" s="313"/>
+      <c r="Q24" s="293"/>
+      <c r="R24" s="294"/>
       <c r="T24" s="70" t="s">
         <v>259</v>
       </c>
@@ -11286,10 +11374,10 @@
       <c r="I25" s="97"/>
       <c r="J25" s="98"/>
       <c r="K25" s="31"/>
-      <c r="P25" s="325" t="s">
+      <c r="P25" s="333" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="326"/>
+      <c r="Q25" s="334"/>
       <c r="R25" s="99" t="s">
         <v>262</v>
       </c>
@@ -11327,10 +11415,10 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
-      <c r="P26" s="304" t="s">
+      <c r="P26" s="335" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="305"/>
+      <c r="Q26" s="336"/>
       <c r="R26" s="100" t="s">
         <v>267</v>
       </c>
@@ -11368,10 +11456,10 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="P27" s="327" t="s">
+      <c r="P27" s="317" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="328"/>
+      <c r="Q27" s="318"/>
       <c r="R27" s="102" t="s">
         <v>267</v>
       </c>
@@ -11397,20 +11485,20 @@
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F28" s="103"/>
-      <c r="I28" s="329" t="s">
+      <c r="I28" s="295" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="330"/>
+      <c r="J28" s="296"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="331" t="s">
+      <c r="L28" s="319" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="332"/>
-      <c r="N28" s="333"/>
-      <c r="P28" s="334" t="s">
+      <c r="M28" s="320"/>
+      <c r="N28" s="321"/>
+      <c r="P28" s="285" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="335"/>
+      <c r="Q28" s="322"/>
       <c r="R28" s="105" t="s">
         <v>278</v>
       </c>
@@ -11435,20 +11523,20 @@
       <c r="AA28" s="82"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I29" s="334" t="s">
+      <c r="I29" s="285" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="336"/>
+      <c r="J29" s="286"/>
       <c r="K29" s="2"/>
       <c r="L29" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="337"/>
-      <c r="N29" s="338"/>
-      <c r="P29" s="339" t="s">
+      <c r="M29" s="303"/>
+      <c r="N29" s="304"/>
+      <c r="P29" s="323" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="340"/>
+      <c r="Q29" s="324"/>
       <c r="R29" s="102" t="s">
         <v>278</v>
       </c>
@@ -11475,20 +11563,20 @@
       </c>
     </row>
     <row r="30" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="341" t="s">
+      <c r="I30" s="283" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="342"/>
+      <c r="J30" s="284"/>
       <c r="K30" s="2"/>
       <c r="L30" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="337"/>
-      <c r="N30" s="338"/>
-      <c r="P30" s="343" t="s">
+      <c r="M30" s="303"/>
+      <c r="N30" s="304"/>
+      <c r="P30" s="315" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="344"/>
+      <c r="Q30" s="316"/>
       <c r="R30" s="105" t="s">
         <v>267</v>
       </c>
@@ -11513,24 +11601,24 @@
       <c r="AA30" s="82"/>
     </row>
     <row r="31" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="311" t="s">
+      <c r="D31" s="292" t="s">
         <v>290</v>
       </c>
-      <c r="E31" s="312"/>
-      <c r="F31" s="313"/>
-      <c r="I31" s="334" t="s">
+      <c r="E31" s="293"/>
+      <c r="F31" s="294"/>
+      <c r="I31" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="336"/>
+      <c r="J31" s="286"/>
       <c r="L31" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="337"/>
-      <c r="N31" s="338"/>
-      <c r="P31" s="327" t="s">
+      <c r="M31" s="303"/>
+      <c r="N31" s="304"/>
+      <c r="P31" s="317" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="328"/>
+      <c r="Q31" s="318"/>
       <c r="R31" s="102" t="s">
         <v>278</v>
       </c>
@@ -11555,24 +11643,24 @@
       <c r="AA31" s="82"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="348" t="s">
+      <c r="D32" s="297" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="349"/>
-      <c r="F32" s="350"/>
-      <c r="I32" s="341" t="s">
+      <c r="E32" s="298"/>
+      <c r="F32" s="299"/>
+      <c r="I32" s="283" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="342"/>
+      <c r="J32" s="284"/>
       <c r="L32" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="337"/>
-      <c r="N32" s="338"/>
-      <c r="P32" s="351" t="s">
+      <c r="M32" s="303"/>
+      <c r="N32" s="304"/>
+      <c r="P32" s="305" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="352"/>
+      <c r="Q32" s="306"/>
       <c r="R32" s="110" t="s">
         <v>267</v>
       </c>
@@ -11599,20 +11687,20 @@
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="353" t="s">
+      <c r="D33" s="307" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="354"/>
-      <c r="F33" s="355"/>
-      <c r="I33" s="334" t="s">
+      <c r="E33" s="308"/>
+      <c r="F33" s="309"/>
+      <c r="I33" s="285" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="336"/>
+      <c r="J33" s="286"/>
       <c r="L33" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="356"/>
-      <c r="N33" s="357"/>
+      <c r="M33" s="310"/>
+      <c r="N33" s="311"/>
       <c r="T33" s="70" t="s">
         <v>65</v>
       </c>
@@ -11634,15 +11722,15 @@
       <c r="AA33" s="82"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="341" t="s">
+      <c r="D34" s="283" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="358"/>
-      <c r="F34" s="342"/>
-      <c r="I34" s="341" t="s">
+      <c r="E34" s="312"/>
+      <c r="F34" s="284"/>
+      <c r="I34" s="283" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="342"/>
+      <c r="J34" s="284"/>
       <c r="T34" s="70" t="s">
         <v>300</v>
       </c>
@@ -11664,17 +11752,17 @@
       <c r="AA34" s="82"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="334" t="s">
+      <c r="D35" s="285" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="359"/>
-      <c r="F35" s="336"/>
-      <c r="I35" s="360" t="s">
+      <c r="E35" s="313"/>
+      <c r="F35" s="286"/>
+      <c r="I35" s="278" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="361"/>
-      <c r="P35" s="362"/>
-      <c r="Q35" s="362"/>
+      <c r="J35" s="279"/>
+      <c r="P35" s="314"/>
+      <c r="Q35" s="314"/>
       <c r="T35" s="70" t="s">
         <v>303</v>
       </c>
@@ -11696,11 +11784,11 @@
       <c r="AA35" s="82"/>
     </row>
     <row r="36" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="345" t="s">
+      <c r="D36" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="346"/>
-      <c r="F36" s="347"/>
+      <c r="E36" s="301"/>
+      <c r="F36" s="302"/>
       <c r="T36" s="70" t="s">
         <v>306</v>
       </c>
@@ -11745,10 +11833,10 @@
       </c>
     </row>
     <row r="38" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="363" t="s">
+      <c r="I38" s="287" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="364"/>
+      <c r="J38" s="288"/>
       <c r="T38" s="70" t="s">
         <v>310</v>
       </c>
@@ -11770,11 +11858,11 @@
       <c r="AA38" s="82"/>
     </row>
     <row r="39" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="365" t="s">
+      <c r="D39" s="289" t="s">
         <v>312</v>
       </c>
-      <c r="E39" s="366"/>
-      <c r="F39" s="367"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="291"/>
       <c r="I39" s="113" t="s">
         <v>84</v>
       </c>
@@ -12037,15 +12125,15 @@
       <c r="AA47" s="82"/>
     </row>
     <row r="48" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="311" t="s">
+      <c r="D48" s="292" t="s">
         <v>340</v>
       </c>
-      <c r="E48" s="312"/>
-      <c r="F48" s="313"/>
-      <c r="I48" s="329" t="s">
+      <c r="E48" s="293"/>
+      <c r="F48" s="294"/>
+      <c r="I48" s="295" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="330"/>
+      <c r="J48" s="296"/>
       <c r="T48" s="70" t="s">
         <v>67</v>
       </c>
@@ -12067,15 +12155,15 @@
       <c r="AA48" s="82"/>
     </row>
     <row r="49" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D49" s="348" t="s">
+      <c r="D49" s="297" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="349"/>
-      <c r="F49" s="350"/>
-      <c r="I49" s="334" t="s">
+      <c r="E49" s="298"/>
+      <c r="F49" s="299"/>
+      <c r="I49" s="285" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="336"/>
+      <c r="J49" s="286"/>
       <c r="T49" s="70" t="s">
         <v>343</v>
       </c>
@@ -12097,15 +12185,15 @@
       <c r="AA49" s="82"/>
     </row>
     <row r="50" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="368">
+      <c r="D50" s="280">
         <v>350</v>
       </c>
-      <c r="E50" s="369"/>
-      <c r="F50" s="370"/>
-      <c r="I50" s="341" t="s">
+      <c r="E50" s="281"/>
+      <c r="F50" s="282"/>
+      <c r="I50" s="283" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="342"/>
+      <c r="J50" s="284"/>
       <c r="T50" s="70" t="s">
         <v>68</v>
       </c>
@@ -12129,10 +12217,10 @@
       </c>
     </row>
     <row r="51" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="334" t="s">
+      <c r="I51" s="285" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="336"/>
+      <c r="J51" s="286"/>
       <c r="T51" s="70" t="s">
         <v>349</v>
       </c>
@@ -12154,10 +12242,10 @@
       <c r="AA51" s="133"/>
     </row>
     <row r="52" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I52" s="341" t="s">
+      <c r="I52" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="342"/>
+      <c r="J52" s="284"/>
       <c r="T52" s="70" t="s">
         <v>351</v>
       </c>
@@ -12172,10 +12260,10 @@
       </c>
     </row>
     <row r="53" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I53" s="334" t="s">
+      <c r="I53" s="285" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="336"/>
+      <c r="J53" s="286"/>
       <c r="T53" s="70" t="s">
         <v>353</v>
       </c>
@@ -12208,10 +12296,10 @@
       </c>
     </row>
     <row r="55" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I55" s="341" t="s">
+      <c r="I55" s="283" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="342"/>
+      <c r="J55" s="284"/>
       <c r="T55" s="70" t="s">
         <v>175</v>
       </c>
@@ -12226,10 +12314,10 @@
       </c>
     </row>
     <row r="56" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I56" s="360" t="s">
+      <c r="I56" s="278" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="361"/>
+      <c r="J56" s="279"/>
       <c r="T56" s="70" t="s">
         <v>34</v>
       </c>
@@ -12526,19 +12614,46 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="I32:J32"/>
@@ -12552,46 +12667,19 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
   </mergeCells>
   <conditionalFormatting sqref="P11:P21">
     <cfRule type="expression" dxfId="31" priority="6">
@@ -13709,12 +13797,12 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="wshTEC_Local"/>
-  <dimension ref="A1:P451"/>
+  <dimension ref="A1:P462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="570" topLeftCell="A428" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="570" topLeftCell="A438" activePane="bottomLeft"/>
       <selection activeCell="K1" sqref="K1:K1048576"/>
-      <selection pane="bottomLeft" activeCell="I448" sqref="I448"/>
+      <selection pane="bottomLeft" activeCell="P466" sqref="P466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13787,7 +13875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="238">
         <v>1</v>
       </c>
@@ -13831,7 +13919,7 @@
       </c>
       <c r="P2" s="268"/>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="238">
         <v>2</v>
       </c>
@@ -13875,7 +13963,7 @@
       </c>
       <c r="P3" s="268"/>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="238">
         <v>3</v>
       </c>
@@ -13919,7 +14007,7 @@
       </c>
       <c r="P4" s="268"/>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="238">
         <v>4</v>
       </c>
@@ -13963,7 +14051,7 @@
       </c>
       <c r="P5" s="268"/>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="238">
         <v>5</v>
       </c>
@@ -14007,7 +14095,7 @@
       </c>
       <c r="P6" s="268"/>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="238">
         <v>6</v>
       </c>
@@ -14051,7 +14139,7 @@
       </c>
       <c r="P7" s="268"/>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="238">
         <v>7</v>
       </c>
@@ -14095,7 +14183,7 @@
       </c>
       <c r="P8" s="268"/>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="238">
         <v>8</v>
       </c>
@@ -14139,7 +14227,7 @@
       </c>
       <c r="P9" s="268"/>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="238">
         <v>9</v>
       </c>
@@ -14183,7 +14271,7 @@
       </c>
       <c r="P10" s="268"/>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="238">
         <v>10</v>
       </c>
@@ -14227,7 +14315,7 @@
       </c>
       <c r="P11" s="268"/>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="238">
         <v>11</v>
       </c>
@@ -14271,7 +14359,7 @@
       </c>
       <c r="P12" s="268"/>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="238">
         <v>12</v>
       </c>
@@ -14315,7 +14403,7 @@
       </c>
       <c r="P13" s="268"/>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="238">
         <v>13</v>
       </c>
@@ -14359,7 +14447,7 @@
       </c>
       <c r="P14" s="268"/>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="238">
         <v>14</v>
       </c>
@@ -14403,7 +14491,7 @@
       </c>
       <c r="P15" s="268"/>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="238">
         <v>15</v>
       </c>
@@ -14447,7 +14535,7 @@
       </c>
       <c r="P16" s="268"/>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="238">
         <v>16</v>
       </c>
@@ -14491,7 +14579,7 @@
       </c>
       <c r="P17" s="268"/>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="238">
         <v>17</v>
       </c>
@@ -14535,7 +14623,7 @@
       </c>
       <c r="P18" s="268"/>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="238">
         <v>18</v>
       </c>
@@ -14579,7 +14667,7 @@
       </c>
       <c r="P19" s="268"/>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="238">
         <v>19</v>
       </c>
@@ -14623,7 +14711,7 @@
       </c>
       <c r="P20" s="268"/>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="238">
         <v>20</v>
       </c>
@@ -14667,7 +14755,7 @@
       </c>
       <c r="P21" s="268"/>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="238">
         <v>21</v>
       </c>
@@ -14711,7 +14799,7 @@
       </c>
       <c r="P22" s="268"/>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="238">
         <v>22</v>
       </c>
@@ -14755,7 +14843,7 @@
       </c>
       <c r="P23" s="268"/>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="238">
         <v>23</v>
       </c>
@@ -14799,7 +14887,7 @@
       </c>
       <c r="P24" s="268"/>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="238">
         <v>24</v>
       </c>
@@ -14843,7 +14931,7 @@
       </c>
       <c r="P25" s="268"/>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="238">
         <v>25</v>
       </c>
@@ -14887,7 +14975,7 @@
       </c>
       <c r="P26" s="268"/>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="238">
         <v>26</v>
       </c>
@@ -14931,7 +15019,7 @@
       </c>
       <c r="P27" s="268"/>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="238">
         <v>27</v>
       </c>
@@ -14975,7 +15063,7 @@
       </c>
       <c r="P28" s="268"/>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="238">
         <v>28</v>
       </c>
@@ -15019,7 +15107,7 @@
       </c>
       <c r="P29" s="268"/>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="238">
         <v>29</v>
       </c>
@@ -15063,7 +15151,7 @@
       </c>
       <c r="P30" s="268"/>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="238">
         <v>30</v>
       </c>
@@ -15107,7 +15195,7 @@
       </c>
       <c r="P31" s="268"/>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="238">
         <v>31</v>
       </c>
@@ -15151,7 +15239,7 @@
       </c>
       <c r="P32" s="268"/>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="238">
         <v>32</v>
       </c>
@@ -15195,7 +15283,7 @@
       </c>
       <c r="P33" s="268"/>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="238">
         <v>33</v>
       </c>
@@ -15239,7 +15327,7 @@
       </c>
       <c r="P34" s="268"/>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="238">
         <v>34</v>
       </c>
@@ -15283,7 +15371,7 @@
       </c>
       <c r="P35" s="268"/>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="238">
         <v>35</v>
       </c>
@@ -15327,7 +15415,7 @@
       </c>
       <c r="P36" s="268"/>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="238">
         <v>36</v>
       </c>
@@ -15371,7 +15459,7 @@
       </c>
       <c r="P37" s="268"/>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="238">
         <v>37</v>
       </c>
@@ -15415,7 +15503,7 @@
       </c>
       <c r="P38" s="268"/>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="238">
         <v>38</v>
       </c>
@@ -15459,7 +15547,7 @@
       </c>
       <c r="P39" s="268"/>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="238">
         <v>39</v>
       </c>
@@ -15503,7 +15591,7 @@
       </c>
       <c r="P40" s="268"/>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="238">
         <v>40</v>
       </c>
@@ -15547,7 +15635,7 @@
       </c>
       <c r="P41" s="268"/>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="238">
         <v>41</v>
       </c>
@@ -15591,7 +15679,7 @@
       </c>
       <c r="P42" s="268"/>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="238">
         <v>42</v>
       </c>
@@ -15635,7 +15723,7 @@
       </c>
       <c r="P43" s="268"/>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="238">
         <v>43</v>
       </c>
@@ -15679,7 +15767,7 @@
       </c>
       <c r="P44" s="268"/>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="238">
         <v>44</v>
       </c>
@@ -15723,7 +15811,7 @@
       </c>
       <c r="P45" s="268"/>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="238">
         <v>45</v>
       </c>
@@ -15767,7 +15855,7 @@
       </c>
       <c r="P46" s="268"/>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="238">
         <v>46</v>
       </c>
@@ -15811,7 +15899,7 @@
       </c>
       <c r="P47" s="268"/>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="238">
         <v>47</v>
       </c>
@@ -15855,7 +15943,7 @@
       </c>
       <c r="P48" s="268"/>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="238">
         <v>48</v>
       </c>
@@ -15899,7 +15987,7 @@
       </c>
       <c r="P49" s="268"/>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="238">
         <v>49</v>
       </c>
@@ -15943,7 +16031,7 @@
       </c>
       <c r="P50" s="268"/>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="238">
         <v>50</v>
       </c>
@@ -15987,7 +16075,7 @@
       </c>
       <c r="P51" s="268"/>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="238">
         <v>51</v>
       </c>
@@ -16031,7 +16119,7 @@
       </c>
       <c r="P52" s="268"/>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="238">
         <v>52</v>
       </c>
@@ -16075,7 +16163,7 @@
       </c>
       <c r="P53" s="268"/>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="238">
         <v>53</v>
       </c>
@@ -16119,7 +16207,7 @@
       </c>
       <c r="P54" s="268"/>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="238">
         <v>54</v>
       </c>
@@ -16163,7 +16251,7 @@
       </c>
       <c r="P55" s="268"/>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="238">
         <v>55</v>
       </c>
@@ -16207,7 +16295,7 @@
       </c>
       <c r="P56" s="268"/>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="238">
         <v>56</v>
       </c>
@@ -16251,7 +16339,7 @@
       </c>
       <c r="P57" s="268"/>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="238">
         <v>57</v>
       </c>
@@ -16295,7 +16383,7 @@
       </c>
       <c r="P58" s="268"/>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="238">
         <v>58</v>
       </c>
@@ -16339,7 +16427,7 @@
       </c>
       <c r="P59" s="268"/>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="238">
         <v>59</v>
       </c>
@@ -16383,7 +16471,7 @@
       </c>
       <c r="P60" s="268"/>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="238">
         <v>60</v>
       </c>
@@ -16427,7 +16515,7 @@
       </c>
       <c r="P61" s="268"/>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="238">
         <v>61</v>
       </c>
@@ -16471,7 +16559,7 @@
       </c>
       <c r="P62" s="268"/>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="238">
         <v>62</v>
       </c>
@@ -16515,7 +16603,7 @@
       </c>
       <c r="P63" s="268"/>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="238">
         <v>63</v>
       </c>
@@ -16559,7 +16647,7 @@
       </c>
       <c r="P64" s="268"/>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="238">
         <v>64</v>
       </c>
@@ -16603,7 +16691,7 @@
       </c>
       <c r="P65" s="268"/>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="238">
         <v>65</v>
       </c>
@@ -16647,7 +16735,7 @@
       </c>
       <c r="P66" s="268"/>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="238">
         <v>66</v>
       </c>
@@ -16691,7 +16779,7 @@
       </c>
       <c r="P67" s="268"/>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="238">
         <v>67</v>
       </c>
@@ -16735,7 +16823,7 @@
       </c>
       <c r="P68" s="268"/>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="238">
         <v>68</v>
       </c>
@@ -16779,7 +16867,7 @@
       </c>
       <c r="P69" s="268"/>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="238">
         <v>69</v>
       </c>
@@ -16823,7 +16911,7 @@
       </c>
       <c r="P70" s="268"/>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="238">
         <v>70</v>
       </c>
@@ -16867,7 +16955,7 @@
       </c>
       <c r="P71" s="268"/>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="238">
         <v>71</v>
       </c>
@@ -16911,7 +16999,7 @@
       </c>
       <c r="P72" s="268"/>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="238">
         <v>72</v>
       </c>
@@ -16955,7 +17043,7 @@
       </c>
       <c r="P73" s="268"/>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="238">
         <v>73</v>
       </c>
@@ -16999,7 +17087,7 @@
       </c>
       <c r="P74" s="268"/>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="238">
         <v>74</v>
       </c>
@@ -17043,7 +17131,7 @@
       </c>
       <c r="P75" s="268"/>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="238">
         <v>75</v>
       </c>
@@ -17087,7 +17175,7 @@
       </c>
       <c r="P76" s="268"/>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="238">
         <v>76</v>
       </c>
@@ -17131,7 +17219,7 @@
       </c>
       <c r="P77" s="268"/>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="238">
         <v>77</v>
       </c>
@@ -17175,7 +17263,7 @@
       </c>
       <c r="P78" s="268"/>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="238">
         <v>78</v>
       </c>
@@ -17219,7 +17307,7 @@
       </c>
       <c r="P79" s="268"/>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="238">
         <v>79</v>
       </c>
@@ -17263,7 +17351,7 @@
       </c>
       <c r="P80" s="268"/>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="238">
         <v>80</v>
       </c>
@@ -17307,7 +17395,7 @@
       </c>
       <c r="P81" s="268"/>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="238">
         <v>81</v>
       </c>
@@ -17351,7 +17439,7 @@
       </c>
       <c r="P82" s="268"/>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="238">
         <v>82</v>
       </c>
@@ -17395,7 +17483,7 @@
       </c>
       <c r="P83" s="268"/>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="238">
         <v>83</v>
       </c>
@@ -17439,7 +17527,7 @@
       </c>
       <c r="P84" s="268"/>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="238">
         <v>84</v>
       </c>
@@ -17483,7 +17571,7 @@
       </c>
       <c r="P85" s="268"/>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="238">
         <v>85</v>
       </c>
@@ -17527,7 +17615,7 @@
       </c>
       <c r="P86" s="268"/>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="238">
         <v>86</v>
       </c>
@@ -17571,7 +17659,7 @@
       </c>
       <c r="P87" s="268"/>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="238">
         <v>87</v>
       </c>
@@ -17615,7 +17703,7 @@
       </c>
       <c r="P88" s="268"/>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="238">
         <v>88</v>
       </c>
@@ -17659,7 +17747,7 @@
       </c>
       <c r="P89" s="268"/>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="238">
         <v>89</v>
       </c>
@@ -17703,7 +17791,7 @@
       </c>
       <c r="P90" s="268"/>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="238">
         <v>90</v>
       </c>
@@ -17747,7 +17835,7 @@
       </c>
       <c r="P91" s="268"/>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="238">
         <v>91</v>
       </c>
@@ -17791,7 +17879,7 @@
       </c>
       <c r="P92" s="268"/>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="238">
         <v>92</v>
       </c>
@@ -17835,7 +17923,7 @@
       </c>
       <c r="P93" s="268"/>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="238">
         <v>93</v>
       </c>
@@ -17879,7 +17967,7 @@
       </c>
       <c r="P94" s="268"/>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="238">
         <v>94</v>
       </c>
@@ -17923,7 +18011,7 @@
       </c>
       <c r="P95" s="268"/>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="238">
         <v>95</v>
       </c>
@@ -17967,7 +18055,7 @@
       </c>
       <c r="P96" s="268"/>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="238">
         <v>96</v>
       </c>
@@ -18011,7 +18099,7 @@
       </c>
       <c r="P97" s="268"/>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="238">
         <v>97</v>
       </c>
@@ -18055,7 +18143,7 @@
       </c>
       <c r="P98" s="268"/>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="238">
         <v>98</v>
       </c>
@@ -18099,7 +18187,7 @@
       </c>
       <c r="P99" s="268"/>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="238">
         <v>99</v>
       </c>
@@ -18143,7 +18231,7 @@
       </c>
       <c r="P100" s="268"/>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="238">
         <v>100</v>
       </c>
@@ -18187,7 +18275,7 @@
       </c>
       <c r="P101" s="268"/>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="238">
         <v>101</v>
       </c>
@@ -18231,7 +18319,7 @@
       </c>
       <c r="P102" s="268"/>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="238">
         <v>102</v>
       </c>
@@ -18275,7 +18363,7 @@
       </c>
       <c r="P103" s="268"/>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="238">
         <v>103</v>
       </c>
@@ -18319,7 +18407,7 @@
       </c>
       <c r="P104" s="268"/>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="238">
         <v>104</v>
       </c>
@@ -18363,7 +18451,7 @@
       </c>
       <c r="P105" s="268"/>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="238">
         <v>105</v>
       </c>
@@ -18407,7 +18495,7 @@
       </c>
       <c r="P106" s="268"/>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="238">
         <v>106</v>
       </c>
@@ -18451,7 +18539,7 @@
       </c>
       <c r="P107" s="268"/>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="238">
         <v>107</v>
       </c>
@@ -18495,7 +18583,7 @@
       </c>
       <c r="P108" s="268"/>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="238">
         <v>108</v>
       </c>
@@ -18539,7 +18627,7 @@
       </c>
       <c r="P109" s="268"/>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="238">
         <v>109</v>
       </c>
@@ -18583,7 +18671,7 @@
       </c>
       <c r="P110" s="268"/>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="238">
         <v>110</v>
       </c>
@@ -18627,7 +18715,7 @@
       </c>
       <c r="P111" s="268"/>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="238">
         <v>111</v>
       </c>
@@ -18671,7 +18759,7 @@
       </c>
       <c r="P112" s="268"/>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="238">
         <v>112</v>
       </c>
@@ -18715,7 +18803,7 @@
       </c>
       <c r="P113" s="268"/>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="238">
         <v>113</v>
       </c>
@@ -18759,7 +18847,7 @@
       </c>
       <c r="P114" s="268"/>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="238">
         <v>114</v>
       </c>
@@ -18803,7 +18891,7 @@
       </c>
       <c r="P115" s="268"/>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="238">
         <v>115</v>
       </c>
@@ -18847,7 +18935,7 @@
       </c>
       <c r="P116" s="268"/>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="238">
         <v>116</v>
       </c>
@@ -18891,7 +18979,7 @@
       </c>
       <c r="P117" s="268"/>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="238">
         <v>117</v>
       </c>
@@ -18935,7 +19023,7 @@
       </c>
       <c r="P118" s="268"/>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="238">
         <v>118</v>
       </c>
@@ -18979,7 +19067,7 @@
       </c>
       <c r="P119" s="268"/>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="238">
         <v>119</v>
       </c>
@@ -19023,7 +19111,7 @@
       </c>
       <c r="P120" s="268"/>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="238">
         <v>120</v>
       </c>
@@ -19067,7 +19155,7 @@
       </c>
       <c r="P121" s="268"/>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="238">
         <v>121</v>
       </c>
@@ -19111,7 +19199,7 @@
       </c>
       <c r="P122" s="268"/>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="238">
         <v>122</v>
       </c>
@@ -19155,7 +19243,7 @@
       </c>
       <c r="P123" s="268"/>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="238">
         <v>123</v>
       </c>
@@ -19199,7 +19287,7 @@
       </c>
       <c r="P124" s="268"/>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="238">
         <v>124</v>
       </c>
@@ -19243,7 +19331,7 @@
       </c>
       <c r="P125" s="268"/>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="238">
         <v>125</v>
       </c>
@@ -19287,7 +19375,7 @@
       </c>
       <c r="P126" s="268"/>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="238">
         <v>126</v>
       </c>
@@ -19331,7 +19419,7 @@
       </c>
       <c r="P127" s="268"/>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="238">
         <v>127</v>
       </c>
@@ -19375,7 +19463,7 @@
       </c>
       <c r="P128" s="268"/>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="238">
         <v>128</v>
       </c>
@@ -19419,7 +19507,7 @@
       </c>
       <c r="P129" s="268"/>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="238">
         <v>129</v>
       </c>
@@ -19463,7 +19551,7 @@
       </c>
       <c r="P130" s="268"/>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="238">
         <v>130</v>
       </c>
@@ -19507,7 +19595,7 @@
       </c>
       <c r="P131" s="268"/>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="238">
         <v>131</v>
       </c>
@@ -19551,7 +19639,7 @@
       </c>
       <c r="P132" s="268"/>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="238">
         <v>132</v>
       </c>
@@ -19595,7 +19683,7 @@
       </c>
       <c r="P133" s="268"/>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="238">
         <v>133</v>
       </c>
@@ -19639,7 +19727,7 @@
       </c>
       <c r="P134" s="268"/>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="238">
         <v>134</v>
       </c>
@@ -19683,7 +19771,7 @@
       </c>
       <c r="P135" s="268"/>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="238">
         <v>135</v>
       </c>
@@ -19727,7 +19815,7 @@
       </c>
       <c r="P136" s="268"/>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="238">
         <v>136</v>
       </c>
@@ -19771,7 +19859,7 @@
       </c>
       <c r="P137" s="268"/>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="238">
         <v>137</v>
       </c>
@@ -19815,7 +19903,7 @@
       </c>
       <c r="P138" s="268"/>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="238">
         <v>138</v>
       </c>
@@ -19859,7 +19947,7 @@
       </c>
       <c r="P139" s="268"/>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="238">
         <v>139</v>
       </c>
@@ -19903,7 +19991,7 @@
       </c>
       <c r="P140" s="268"/>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="238">
         <v>140</v>
       </c>
@@ -19947,7 +20035,7 @@
       </c>
       <c r="P141" s="268"/>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="238">
         <v>141</v>
       </c>
@@ -19991,7 +20079,7 @@
       </c>
       <c r="P142" s="268"/>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="238">
         <v>142</v>
       </c>
@@ -20035,7 +20123,7 @@
       </c>
       <c r="P143" s="268"/>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="238">
         <v>143</v>
       </c>
@@ -20079,7 +20167,7 @@
       </c>
       <c r="P144" s="268"/>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="238">
         <v>144</v>
       </c>
@@ -20123,7 +20211,7 @@
       </c>
       <c r="P145" s="268"/>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="238">
         <v>145</v>
       </c>
@@ -20167,7 +20255,7 @@
       </c>
       <c r="P146" s="268"/>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="238">
         <v>146</v>
       </c>
@@ -20211,7 +20299,7 @@
       </c>
       <c r="P147" s="268"/>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="238">
         <v>147</v>
       </c>
@@ -20255,7 +20343,7 @@
       </c>
       <c r="P148" s="268"/>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="238">
         <v>148</v>
       </c>
@@ -20299,7 +20387,7 @@
       </c>
       <c r="P149" s="268"/>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="238">
         <v>149</v>
       </c>
@@ -20343,7 +20431,7 @@
       </c>
       <c r="P150" s="268"/>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="238">
         <v>150</v>
       </c>
@@ -20387,7 +20475,7 @@
       </c>
       <c r="P151" s="268"/>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="238">
         <v>151</v>
       </c>
@@ -20431,7 +20519,7 @@
       </c>
       <c r="P152" s="268"/>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="238">
         <v>152</v>
       </c>
@@ -20475,7 +20563,7 @@
       </c>
       <c r="P153" s="268"/>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="238">
         <v>153</v>
       </c>
@@ -20519,7 +20607,7 @@
       </c>
       <c r="P154" s="268"/>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="238">
         <v>154</v>
       </c>
@@ -20563,7 +20651,7 @@
       </c>
       <c r="P155" s="268"/>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="238">
         <v>155</v>
       </c>
@@ -20607,7 +20695,7 @@
       </c>
       <c r="P156" s="268"/>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="238">
         <v>156</v>
       </c>
@@ -20651,7 +20739,7 @@
       </c>
       <c r="P157" s="268"/>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="238">
         <v>157</v>
       </c>
@@ -20695,7 +20783,7 @@
       </c>
       <c r="P158" s="268"/>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="238">
         <v>158</v>
       </c>
@@ -20739,7 +20827,7 @@
       </c>
       <c r="P159" s="268"/>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="238">
         <v>159</v>
       </c>
@@ -20783,7 +20871,7 @@
       </c>
       <c r="P160" s="268"/>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="238">
         <v>160</v>
       </c>
@@ -20827,7 +20915,7 @@
       </c>
       <c r="P161" s="268"/>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="238">
         <v>161</v>
       </c>
@@ -20871,7 +20959,7 @@
       </c>
       <c r="P162" s="268"/>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="238">
         <v>162</v>
       </c>
@@ -20915,7 +21003,7 @@
       </c>
       <c r="P163" s="268"/>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="238">
         <v>163</v>
       </c>
@@ -20959,7 +21047,7 @@
       </c>
       <c r="P164" s="268"/>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="238">
         <v>164</v>
       </c>
@@ -21003,7 +21091,7 @@
       </c>
       <c r="P165" s="268"/>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="238">
         <v>165</v>
       </c>
@@ -21047,7 +21135,7 @@
       </c>
       <c r="P166" s="268"/>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="238">
         <v>166</v>
       </c>
@@ -21091,7 +21179,7 @@
       </c>
       <c r="P167" s="268"/>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="238">
         <v>167</v>
       </c>
@@ -21135,7 +21223,7 @@
       </c>
       <c r="P168" s="268"/>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="238">
         <v>168</v>
       </c>
@@ -21179,7 +21267,7 @@
       </c>
       <c r="P169" s="268"/>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="238">
         <v>169</v>
       </c>
@@ -21223,7 +21311,7 @@
       </c>
       <c r="P170" s="268"/>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="238">
         <v>170</v>
       </c>
@@ -21267,7 +21355,7 @@
       </c>
       <c r="P171" s="268"/>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="238">
         <v>171</v>
       </c>
@@ -21311,7 +21399,7 @@
       </c>
       <c r="P172" s="268"/>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="238">
         <v>172</v>
       </c>
@@ -21355,7 +21443,7 @@
       </c>
       <c r="P173" s="268"/>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="238">
         <v>173</v>
       </c>
@@ -21399,7 +21487,7 @@
       </c>
       <c r="P174" s="268"/>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="238">
         <v>174</v>
       </c>
@@ -21443,7 +21531,7 @@
       </c>
       <c r="P175" s="268"/>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="238">
         <v>175</v>
       </c>
@@ -21487,7 +21575,7 @@
       </c>
       <c r="P176" s="268"/>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="238">
         <v>176</v>
       </c>
@@ -21531,7 +21619,7 @@
       </c>
       <c r="P177" s="268"/>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="238">
         <v>177</v>
       </c>
@@ -21575,7 +21663,7 @@
       </c>
       <c r="P178" s="268"/>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="238">
         <v>178</v>
       </c>
@@ -21619,7 +21707,7 @@
       </c>
       <c r="P179" s="268"/>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="238">
         <v>179</v>
       </c>
@@ -21663,7 +21751,7 @@
       </c>
       <c r="P180" s="268"/>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="238">
         <v>180</v>
       </c>
@@ -21707,7 +21795,7 @@
       </c>
       <c r="P181" s="268"/>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="238">
         <v>181</v>
       </c>
@@ -21751,7 +21839,7 @@
       </c>
       <c r="P182" s="268"/>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="238">
         <v>182</v>
       </c>
@@ -21795,7 +21883,7 @@
       </c>
       <c r="P183" s="268"/>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="238">
         <v>183</v>
       </c>
@@ -21839,7 +21927,7 @@
       </c>
       <c r="P184" s="268"/>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="238">
         <v>184</v>
       </c>
@@ -21883,7 +21971,7 @@
       </c>
       <c r="P185" s="268"/>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="238">
         <v>185</v>
       </c>
@@ -21927,7 +22015,7 @@
       </c>
       <c r="P186" s="268"/>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="238">
         <v>186</v>
       </c>
@@ -21971,7 +22059,7 @@
       </c>
       <c r="P187" s="268"/>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="238">
         <v>187</v>
       </c>
@@ -22017,7 +22105,7 @@
       </c>
       <c r="P188" s="268"/>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="238">
         <v>188</v>
       </c>
@@ -22061,7 +22149,7 @@
       </c>
       <c r="P189" s="268"/>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="238">
         <v>189</v>
       </c>
@@ -22105,7 +22193,7 @@
       </c>
       <c r="P190" s="268"/>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="238">
         <v>190</v>
       </c>
@@ -22151,7 +22239,7 @@
       </c>
       <c r="P191" s="268"/>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="238">
         <v>191</v>
       </c>
@@ -22195,7 +22283,7 @@
       </c>
       <c r="P192" s="268"/>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="238">
         <v>192</v>
       </c>
@@ -22239,7 +22327,7 @@
       </c>
       <c r="P193" s="268"/>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="238">
         <v>193</v>
       </c>
@@ -22283,7 +22371,7 @@
       </c>
       <c r="P194" s="268"/>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="238">
         <v>194</v>
       </c>
@@ -22327,7 +22415,7 @@
       </c>
       <c r="P195" s="268"/>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="238">
         <v>195</v>
       </c>
@@ -22371,7 +22459,7 @@
       </c>
       <c r="P196" s="268"/>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="238">
         <v>196</v>
       </c>
@@ -22415,7 +22503,7 @@
       </c>
       <c r="P197" s="268"/>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="238">
         <v>197</v>
       </c>
@@ -22459,7 +22547,7 @@
       </c>
       <c r="P198" s="268"/>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="238">
         <v>198</v>
       </c>
@@ -22503,7 +22591,7 @@
       </c>
       <c r="P199" s="268"/>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="238">
         <v>199</v>
       </c>
@@ -22547,7 +22635,7 @@
       </c>
       <c r="P200" s="268"/>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="238">
         <v>200</v>
       </c>
@@ -22591,7 +22679,7 @@
       </c>
       <c r="P201" s="268"/>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="238">
         <v>201</v>
       </c>
@@ -22635,7 +22723,7 @@
       </c>
       <c r="P202" s="268"/>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="238">
         <v>202</v>
       </c>
@@ -22679,7 +22767,7 @@
       </c>
       <c r="P203" s="268"/>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="238">
         <v>203</v>
       </c>
@@ -22723,7 +22811,7 @@
       </c>
       <c r="P204" s="268"/>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="238">
         <v>204</v>
       </c>
@@ -22767,7 +22855,7 @@
       </c>
       <c r="P205" s="268"/>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="238">
         <v>205</v>
       </c>
@@ -22811,7 +22899,7 @@
       </c>
       <c r="P206" s="268"/>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="238">
         <v>206</v>
       </c>
@@ -22855,7 +22943,7 @@
       </c>
       <c r="P207" s="268"/>
     </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="238">
         <v>207</v>
       </c>
@@ -22899,7 +22987,7 @@
       </c>
       <c r="P208" s="268"/>
     </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="238">
         <v>208</v>
       </c>
@@ -22943,7 +23031,7 @@
       </c>
       <c r="P209" s="268"/>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="238">
         <v>209</v>
       </c>
@@ -22987,7 +23075,7 @@
       </c>
       <c r="P210" s="268"/>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="238">
         <v>210</v>
       </c>
@@ -23031,7 +23119,7 @@
       </c>
       <c r="P211" s="268"/>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="238">
         <v>211</v>
       </c>
@@ -23075,7 +23163,7 @@
       </c>
       <c r="P212" s="268"/>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="238">
         <v>212</v>
       </c>
@@ -23119,7 +23207,7 @@
       </c>
       <c r="P213" s="268"/>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="238">
         <v>213</v>
       </c>
@@ -23163,7 +23251,7 @@
       </c>
       <c r="P214" s="268"/>
     </row>
-    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="238">
         <v>214</v>
       </c>
@@ -23207,7 +23295,7 @@
       </c>
       <c r="P215" s="268"/>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="238">
         <v>215</v>
       </c>
@@ -23251,7 +23339,7 @@
       </c>
       <c r="P216" s="268"/>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="238">
         <v>216</v>
       </c>
@@ -23295,7 +23383,7 @@
       </c>
       <c r="P217" s="268"/>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="238">
         <v>217</v>
       </c>
@@ -23339,7 +23427,7 @@
       </c>
       <c r="P218" s="268"/>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="238">
         <v>218</v>
       </c>
@@ -23383,7 +23471,7 @@
       </c>
       <c r="P219" s="268"/>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="238">
         <v>219</v>
       </c>
@@ -23427,7 +23515,7 @@
       </c>
       <c r="P220" s="268"/>
     </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="238">
         <v>220</v>
       </c>
@@ -23471,7 +23559,7 @@
       </c>
       <c r="P221" s="268"/>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="238">
         <v>221</v>
       </c>
@@ -23515,7 +23603,7 @@
       </c>
       <c r="P222" s="268"/>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="238">
         <v>222</v>
       </c>
@@ -23559,7 +23647,7 @@
       </c>
       <c r="P223" s="268"/>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="238">
         <v>223</v>
       </c>
@@ -23603,7 +23691,7 @@
       </c>
       <c r="P224" s="268"/>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="238">
         <v>224</v>
       </c>
@@ -23647,7 +23735,7 @@
       </c>
       <c r="P225" s="268"/>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="238">
         <v>225</v>
       </c>
@@ -23691,7 +23779,7 @@
       </c>
       <c r="P226" s="268"/>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="238">
         <v>226</v>
       </c>
@@ -23735,7 +23823,7 @@
       </c>
       <c r="P227" s="268"/>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="238">
         <v>227</v>
       </c>
@@ -23779,7 +23867,7 @@
       </c>
       <c r="P228" s="268"/>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="238">
         <v>228</v>
       </c>
@@ -23823,7 +23911,7 @@
       </c>
       <c r="P229" s="268"/>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="238">
         <v>229</v>
       </c>
@@ -23867,7 +23955,7 @@
       </c>
       <c r="P230" s="268"/>
     </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="238">
         <v>230</v>
       </c>
@@ -23911,7 +23999,7 @@
       </c>
       <c r="P231" s="268"/>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="238">
         <v>231</v>
       </c>
@@ -23955,7 +24043,7 @@
       </c>
       <c r="P232" s="268"/>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="238">
         <v>232</v>
       </c>
@@ -23999,7 +24087,7 @@
       </c>
       <c r="P233" s="268"/>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="238">
         <v>233</v>
       </c>
@@ -24043,7 +24131,7 @@
       </c>
       <c r="P234" s="268"/>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="238">
         <v>234</v>
       </c>
@@ -24087,7 +24175,7 @@
       </c>
       <c r="P235" s="268"/>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="238">
         <v>235</v>
       </c>
@@ -24131,7 +24219,7 @@
       </c>
       <c r="P236" s="268"/>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="238">
         <v>236</v>
       </c>
@@ -24175,7 +24263,7 @@
       </c>
       <c r="P237" s="268"/>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="238">
         <v>237</v>
       </c>
@@ -24219,7 +24307,7 @@
       </c>
       <c r="P238" s="268"/>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="238">
         <v>238</v>
       </c>
@@ -24263,7 +24351,7 @@
       </c>
       <c r="P239" s="268"/>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="238">
         <v>239</v>
       </c>
@@ -24307,7 +24395,7 @@
       </c>
       <c r="P240" s="268"/>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="238">
         <v>240</v>
       </c>
@@ -24351,7 +24439,7 @@
       </c>
       <c r="P241" s="268"/>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="238">
         <v>241</v>
       </c>
@@ -24395,7 +24483,7 @@
       </c>
       <c r="P242" s="268"/>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="238">
         <v>242</v>
       </c>
@@ -24439,7 +24527,7 @@
       </c>
       <c r="P243" s="268"/>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="238">
         <v>243</v>
       </c>
@@ -24483,7 +24571,7 @@
       </c>
       <c r="P244" s="268"/>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="238">
         <v>244</v>
       </c>
@@ -24527,7 +24615,7 @@
       </c>
       <c r="P245" s="268"/>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="238">
         <v>245</v>
       </c>
@@ -24571,7 +24659,7 @@
       </c>
       <c r="P246" s="268"/>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="238">
         <v>246</v>
       </c>
@@ -24615,7 +24703,7 @@
       </c>
       <c r="P247" s="268"/>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="238">
         <v>247</v>
       </c>
@@ -24659,7 +24747,7 @@
       </c>
       <c r="P248" s="268"/>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="238">
         <v>248</v>
       </c>
@@ -24703,7 +24791,7 @@
       </c>
       <c r="P249" s="268"/>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="238">
         <v>249</v>
       </c>
@@ -24747,7 +24835,7 @@
       </c>
       <c r="P250" s="268"/>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="238">
         <v>250</v>
       </c>
@@ -24791,7 +24879,7 @@
       </c>
       <c r="P251" s="268"/>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="238">
         <v>251</v>
       </c>
@@ -24835,7 +24923,7 @@
       </c>
       <c r="P252" s="268"/>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="238">
         <v>252</v>
       </c>
@@ -24879,7 +24967,7 @@
       </c>
       <c r="P253" s="268"/>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="238">
         <v>253</v>
       </c>
@@ -24923,7 +25011,7 @@
       </c>
       <c r="P254" s="268"/>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="238">
         <v>254</v>
       </c>
@@ -24967,7 +25055,7 @@
       </c>
       <c r="P255" s="268"/>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="238">
         <v>255</v>
       </c>
@@ -25011,7 +25099,7 @@
       </c>
       <c r="P256" s="268"/>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="238">
         <v>256</v>
       </c>
@@ -25055,7 +25143,7 @@
       </c>
       <c r="P257" s="268"/>
     </row>
-    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="238">
         <v>257</v>
       </c>
@@ -25099,7 +25187,7 @@
       </c>
       <c r="P258" s="268"/>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="238">
         <v>258</v>
       </c>
@@ -25143,7 +25231,7 @@
       </c>
       <c r="P259" s="268"/>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="238">
         <v>259</v>
       </c>
@@ -25187,7 +25275,7 @@
       </c>
       <c r="P260" s="268"/>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="238">
         <v>260</v>
       </c>
@@ -25229,7 +25317,7 @@
       </c>
       <c r="P261" s="268"/>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="243">
         <v>261</v>
       </c>
@@ -25273,7 +25361,7 @@
       </c>
       <c r="P262" s="270"/>
     </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="238">
         <v>262</v>
       </c>
@@ -25317,7 +25405,7 @@
       </c>
       <c r="P263" s="268"/>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="238">
         <v>263</v>
       </c>
@@ -25361,7 +25449,7 @@
       </c>
       <c r="P264" s="268"/>
     </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="238">
         <v>264</v>
       </c>
@@ -25405,7 +25493,7 @@
       </c>
       <c r="P265" s="268"/>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="238">
         <v>265</v>
       </c>
@@ -25449,7 +25537,7 @@
       </c>
       <c r="P266" s="268"/>
     </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="238">
         <v>266</v>
       </c>
@@ -25493,7 +25581,7 @@
       </c>
       <c r="P267" s="268"/>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="238">
         <v>268</v>
       </c>
@@ -25537,7 +25625,7 @@
       </c>
       <c r="P268" s="268"/>
     </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="238">
         <v>269</v>
       </c>
@@ -25581,7 +25669,7 @@
       </c>
       <c r="P269" s="268"/>
     </row>
-    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="238">
         <v>270</v>
       </c>
@@ -25625,7 +25713,7 @@
       </c>
       <c r="P270" s="268"/>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="238">
         <v>271</v>
       </c>
@@ -25669,7 +25757,7 @@
       </c>
       <c r="P271" s="268"/>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="243">
         <v>272</v>
       </c>
@@ -25711,7 +25799,7 @@
       </c>
       <c r="P272" s="270"/>
     </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="238">
         <v>273</v>
       </c>
@@ -25753,7 +25841,7 @@
       </c>
       <c r="P273" s="268"/>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="238">
         <v>274</v>
       </c>
@@ -25797,7 +25885,7 @@
       </c>
       <c r="P274" s="268"/>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="238">
         <v>275</v>
       </c>
@@ -25841,7 +25929,7 @@
       </c>
       <c r="P275" s="268"/>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="238">
         <v>276</v>
       </c>
@@ -25885,7 +25973,7 @@
       </c>
       <c r="P276" s="268"/>
     </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="238">
         <v>277</v>
       </c>
@@ -25929,7 +26017,7 @@
       </c>
       <c r="P277" s="268"/>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="238">
         <v>278</v>
       </c>
@@ -25973,7 +26061,7 @@
       </c>
       <c r="P278" s="268"/>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="238">
         <v>279</v>
       </c>
@@ -26017,7 +26105,7 @@
       </c>
       <c r="P279" s="268"/>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="238">
         <v>280</v>
       </c>
@@ -26061,7 +26149,7 @@
       </c>
       <c r="P280" s="268"/>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="238">
         <v>281</v>
       </c>
@@ -26105,7 +26193,7 @@
       </c>
       <c r="P281" s="268"/>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="238">
         <v>282</v>
       </c>
@@ -26149,7 +26237,7 @@
       </c>
       <c r="P282" s="268"/>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="238">
         <v>283</v>
       </c>
@@ -26193,7 +26281,7 @@
       </c>
       <c r="P283" s="268"/>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="238">
         <v>284</v>
       </c>
@@ -26237,7 +26325,7 @@
       </c>
       <c r="P284" s="268"/>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="238">
         <v>285</v>
       </c>
@@ -26267,7 +26355,7 @@
         <v>403</v>
       </c>
       <c r="K285" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L285" s="240" t="s">
         <v>403</v>
@@ -26281,7 +26369,7 @@
       </c>
       <c r="P285" s="268"/>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="238">
         <v>286</v>
       </c>
@@ -26311,7 +26399,7 @@
         <v>402</v>
       </c>
       <c r="K286" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L286" s="240" t="s">
         <v>403</v>
@@ -26325,7 +26413,7 @@
       </c>
       <c r="P286" s="268"/>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="238">
         <v>287</v>
       </c>
@@ -26355,7 +26443,7 @@
         <v>402</v>
       </c>
       <c r="K287" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L287" s="240" t="s">
         <v>403</v>
@@ -26369,7 +26457,7 @@
       </c>
       <c r="P287" s="268"/>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" s="238">
         <v>288</v>
       </c>
@@ -26399,7 +26487,7 @@
         <v>402</v>
       </c>
       <c r="K288" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L288" s="240" t="s">
         <v>403</v>
@@ -26413,7 +26501,7 @@
       </c>
       <c r="P288" s="268"/>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="238">
         <v>289</v>
       </c>
@@ -26443,7 +26531,7 @@
         <v>402</v>
       </c>
       <c r="K289" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L289" s="240" t="s">
         <v>403</v>
@@ -26457,7 +26545,7 @@
       </c>
       <c r="P289" s="268"/>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="238">
         <v>290</v>
       </c>
@@ -26487,7 +26575,7 @@
         <v>402</v>
       </c>
       <c r="K290" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L290" s="240" t="s">
         <v>403</v>
@@ -26501,7 +26589,7 @@
       </c>
       <c r="P290" s="268"/>
     </row>
-    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="238">
         <v>291</v>
       </c>
@@ -26531,7 +26619,7 @@
         <v>402</v>
       </c>
       <c r="K291" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L291" s="240" t="s">
         <v>403</v>
@@ -26545,7 +26633,7 @@
       </c>
       <c r="P291" s="268"/>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="238">
         <v>292</v>
       </c>
@@ -26575,7 +26663,7 @@
         <v>402</v>
       </c>
       <c r="K292" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L292" s="240" t="s">
         <v>403</v>
@@ -26589,7 +26677,7 @@
       </c>
       <c r="P292" s="268"/>
     </row>
-    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="238">
         <v>293</v>
       </c>
@@ -26619,7 +26707,7 @@
         <v>402</v>
       </c>
       <c r="K293" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L293" s="240" t="s">
         <v>403</v>
@@ -26633,7 +26721,7 @@
       </c>
       <c r="P293" s="268"/>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="238">
         <v>294</v>
       </c>
@@ -26663,7 +26751,7 @@
         <v>402</v>
       </c>
       <c r="K294" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L294" s="240" t="s">
         <v>403</v>
@@ -26677,7 +26765,7 @@
       </c>
       <c r="P294" s="268"/>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="238">
         <v>295</v>
       </c>
@@ -26707,7 +26795,7 @@
         <v>403</v>
       </c>
       <c r="K295" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L295" s="240" t="s">
         <v>403</v>
@@ -26721,7 +26809,7 @@
       </c>
       <c r="P295" s="268"/>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="238">
         <v>296</v>
       </c>
@@ -26751,7 +26839,7 @@
         <v>402</v>
       </c>
       <c r="K296" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L296" s="240" t="s">
         <v>403</v>
@@ -26765,7 +26853,7 @@
       </c>
       <c r="P296" s="268"/>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="238">
         <v>297</v>
       </c>
@@ -26795,7 +26883,7 @@
         <v>402</v>
       </c>
       <c r="K297" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L297" s="240" t="s">
         <v>403</v>
@@ -26809,7 +26897,7 @@
       </c>
       <c r="P297" s="268"/>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="238">
         <v>298</v>
       </c>
@@ -26839,7 +26927,7 @@
         <v>402</v>
       </c>
       <c r="K298" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L298" s="240" t="s">
         <v>403</v>
@@ -26853,7 +26941,7 @@
       </c>
       <c r="P298" s="268"/>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="238">
         <v>299</v>
       </c>
@@ -26883,7 +26971,7 @@
         <v>402</v>
       </c>
       <c r="K299" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L299" s="240" t="s">
         <v>403</v>
@@ -26897,7 +26985,7 @@
       </c>
       <c r="P299" s="268"/>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="238">
         <v>300</v>
       </c>
@@ -26927,7 +27015,7 @@
         <v>402</v>
       </c>
       <c r="K300" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L300" s="240" t="s">
         <v>403</v>
@@ -26941,7 +27029,7 @@
       </c>
       <c r="P300" s="268"/>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="238">
         <v>301</v>
       </c>
@@ -26971,7 +27059,7 @@
         <v>402</v>
       </c>
       <c r="K301" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L301" s="240" t="s">
         <v>403</v>
@@ -26985,7 +27073,7 @@
       </c>
       <c r="P301" s="268"/>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" s="238">
         <v>302</v>
       </c>
@@ -27015,7 +27103,7 @@
         <v>402</v>
       </c>
       <c r="K302" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L302" s="240" t="s">
         <v>403</v>
@@ -27029,7 +27117,7 @@
       </c>
       <c r="P302" s="268"/>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" s="238">
         <v>303</v>
       </c>
@@ -27059,7 +27147,7 @@
         <v>403</v>
       </c>
       <c r="K303" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L303" s="240" t="s">
         <v>403</v>
@@ -27073,7 +27161,7 @@
       </c>
       <c r="P303" s="268"/>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" s="238">
         <v>304</v>
       </c>
@@ -27103,7 +27191,7 @@
         <v>403</v>
       </c>
       <c r="K304" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L304" s="240" t="s">
         <v>403</v>
@@ -27117,7 +27205,7 @@
       </c>
       <c r="P304" s="268"/>
     </row>
-    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" s="238">
         <v>305</v>
       </c>
@@ -27147,7 +27235,7 @@
         <v>402</v>
       </c>
       <c r="K305" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L305" s="240" t="s">
         <v>403</v>
@@ -27161,7 +27249,7 @@
       </c>
       <c r="P305" s="268"/>
     </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" s="238">
         <v>306</v>
       </c>
@@ -27191,7 +27279,7 @@
         <v>402</v>
       </c>
       <c r="K306" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L306" s="240" t="s">
         <v>403</v>
@@ -27205,7 +27293,7 @@
       </c>
       <c r="P306" s="268"/>
     </row>
-    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" s="238">
         <v>307</v>
       </c>
@@ -27235,7 +27323,7 @@
         <v>402</v>
       </c>
       <c r="K307" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L307" s="240" t="s">
         <v>403</v>
@@ -27249,7 +27337,7 @@
       </c>
       <c r="P307" s="268"/>
     </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" s="238">
         <v>308</v>
       </c>
@@ -27279,7 +27367,7 @@
         <v>402</v>
       </c>
       <c r="K308" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L308" s="240" t="s">
         <v>403</v>
@@ -27293,7 +27381,7 @@
       </c>
       <c r="P308" s="268"/>
     </row>
-    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="238">
         <v>309</v>
       </c>
@@ -27323,7 +27411,7 @@
         <v>402</v>
       </c>
       <c r="K309" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L309" s="240" t="s">
         <v>403</v>
@@ -27337,7 +27425,7 @@
       </c>
       <c r="P309" s="268"/>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="238">
         <v>310</v>
       </c>
@@ -27367,7 +27455,7 @@
         <v>402</v>
       </c>
       <c r="K310" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L310" s="240" t="s">
         <v>403</v>
@@ -27381,7 +27469,7 @@
       </c>
       <c r="P310" s="268"/>
     </row>
-    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="238">
         <v>311</v>
       </c>
@@ -27411,7 +27499,7 @@
         <v>403</v>
       </c>
       <c r="K311" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L311" s="240" t="s">
         <v>403</v>
@@ -27425,7 +27513,7 @@
       </c>
       <c r="P311" s="268"/>
     </row>
-    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="238">
         <v>312</v>
       </c>
@@ -27455,7 +27543,7 @@
         <v>403</v>
       </c>
       <c r="K312" s="275">
-        <v>45516.568368055552</v>
+        <v>45516.568368055603</v>
       </c>
       <c r="L312" s="240" t="s">
         <v>403</v>
@@ -27469,7 +27557,7 @@
       </c>
       <c r="P312" s="268"/>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="238">
         <v>313</v>
       </c>
@@ -27513,7 +27601,7 @@
       </c>
       <c r="P313" s="268"/>
     </row>
-    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="238">
         <v>314</v>
       </c>
@@ -27557,7 +27645,7 @@
       </c>
       <c r="P314" s="268"/>
     </row>
-    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="238">
         <v>315</v>
       </c>
@@ -27601,7 +27689,7 @@
       </c>
       <c r="P315" s="268"/>
     </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" s="238">
         <v>316</v>
       </c>
@@ -27645,7 +27733,7 @@
       </c>
       <c r="P316" s="268"/>
     </row>
-    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" s="238">
         <v>317</v>
       </c>
@@ -27689,7 +27777,7 @@
       </c>
       <c r="P317" s="268"/>
     </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" s="238">
         <v>318</v>
       </c>
@@ -27733,7 +27821,7 @@
       </c>
       <c r="P318" s="268"/>
     </row>
-    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" s="238">
         <v>319</v>
       </c>
@@ -27777,7 +27865,7 @@
       </c>
       <c r="P319" s="268"/>
     </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="238">
         <v>320</v>
       </c>
@@ -27821,7 +27909,7 @@
       </c>
       <c r="P320" s="268"/>
     </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="238">
         <v>321</v>
       </c>
@@ -27865,7 +27953,7 @@
       </c>
       <c r="P321" s="268"/>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="238">
         <v>322</v>
       </c>
@@ -27909,7 +27997,7 @@
       </c>
       <c r="P322" s="268"/>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="238">
         <v>323</v>
       </c>
@@ -27953,7 +28041,7 @@
       </c>
       <c r="P323" s="268"/>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="238">
         <v>324</v>
       </c>
@@ -27997,7 +28085,7 @@
       </c>
       <c r="P324" s="268"/>
     </row>
-    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="238">
         <v>325</v>
       </c>
@@ -28041,7 +28129,7 @@
       </c>
       <c r="P325" s="268"/>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="238">
         <v>326</v>
       </c>
@@ -28085,7 +28173,7 @@
       </c>
       <c r="P326" s="268"/>
     </row>
-    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="238">
         <v>327</v>
       </c>
@@ -28129,7 +28217,7 @@
       </c>
       <c r="P327" s="268"/>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="238">
         <v>328</v>
       </c>
@@ -28173,7 +28261,7 @@
       </c>
       <c r="P328" s="268"/>
     </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" s="238">
         <v>329</v>
       </c>
@@ -28217,7 +28305,7 @@
       </c>
       <c r="P329" s="268"/>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" s="238">
         <v>330</v>
       </c>
@@ -28261,7 +28349,7 @@
       </c>
       <c r="P330" s="268"/>
     </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" s="238">
         <v>331</v>
       </c>
@@ -28305,7 +28393,7 @@
       </c>
       <c r="P331" s="268"/>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" s="238">
         <v>332</v>
       </c>
@@ -28349,7 +28437,7 @@
       </c>
       <c r="P332" s="268"/>
     </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" s="238">
         <v>333</v>
       </c>
@@ -28393,7 +28481,7 @@
       </c>
       <c r="P333" s="268"/>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="238">
         <v>334</v>
       </c>
@@ -28437,7 +28525,7 @@
       </c>
       <c r="P334" s="268"/>
     </row>
-    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" s="238">
         <v>335</v>
       </c>
@@ -28481,7 +28569,7 @@
       </c>
       <c r="P335" s="268"/>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" s="238">
         <v>336</v>
       </c>
@@ -28525,7 +28613,7 @@
       </c>
       <c r="P336" s="268"/>
     </row>
-    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="238">
         <v>337</v>
       </c>
@@ -28569,7 +28657,7 @@
       </c>
       <c r="P337" s="268"/>
     </row>
-    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="238">
         <v>338</v>
       </c>
@@ -28613,7 +28701,7 @@
       </c>
       <c r="P338" s="268"/>
     </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="238">
         <v>339</v>
       </c>
@@ -28657,7 +28745,7 @@
       </c>
       <c r="P339" s="268"/>
     </row>
-    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="238">
         <v>340</v>
       </c>
@@ -28701,7 +28789,7 @@
       </c>
       <c r="P340" s="268"/>
     </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="238">
         <v>341</v>
       </c>
@@ -28745,7 +28833,7 @@
       </c>
       <c r="P341" s="268"/>
     </row>
-    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="243">
         <v>342</v>
       </c>
@@ -28789,7 +28877,7 @@
       </c>
       <c r="P342" s="270"/>
     </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="238">
         <v>343</v>
       </c>
@@ -28821,7 +28909,7 @@
         <v>402</v>
       </c>
       <c r="K343" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L343" s="240" t="s">
         <v>403</v>
@@ -28839,7 +28927,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" s="238">
         <v>344</v>
       </c>
@@ -28871,7 +28959,7 @@
         <v>402</v>
       </c>
       <c r="K344" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L344" s="240" t="s">
         <v>403</v>
@@ -28889,7 +28977,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" s="238">
         <v>345</v>
       </c>
@@ -28921,7 +29009,7 @@
         <v>402</v>
       </c>
       <c r="K345" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L345" s="240" t="s">
         <v>403</v>
@@ -28939,7 +29027,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" s="238">
         <v>346</v>
       </c>
@@ -28971,7 +29059,7 @@
         <v>402</v>
       </c>
       <c r="K346" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L346" s="240" t="s">
         <v>403</v>
@@ -28989,7 +29077,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="238">
         <v>347</v>
       </c>
@@ -29021,7 +29109,7 @@
         <v>402</v>
       </c>
       <c r="K347" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L347" s="240" t="s">
         <v>403</v>
@@ -29039,7 +29127,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" s="238">
         <v>348</v>
       </c>
@@ -29071,7 +29159,7 @@
         <v>402</v>
       </c>
       <c r="K348" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L348" s="240" t="s">
         <v>403</v>
@@ -29089,7 +29177,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" s="238">
         <v>349</v>
       </c>
@@ -29121,7 +29209,7 @@
         <v>402</v>
       </c>
       <c r="K349" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L349" s="240" t="s">
         <v>403</v>
@@ -29139,7 +29227,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" s="238">
         <v>350</v>
       </c>
@@ -29171,7 +29259,7 @@
         <v>402</v>
       </c>
       <c r="K350" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L350" s="240" t="s">
         <v>403</v>
@@ -29189,7 +29277,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="238">
         <v>351</v>
       </c>
@@ -29221,7 +29309,7 @@
         <v>402</v>
       </c>
       <c r="K351" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L351" s="240" t="s">
         <v>403</v>
@@ -29239,7 +29327,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="238">
         <v>352</v>
       </c>
@@ -29271,7 +29359,7 @@
         <v>402</v>
       </c>
       <c r="K352" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L352" s="240" t="s">
         <v>403</v>
@@ -29289,7 +29377,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="238">
         <v>353</v>
       </c>
@@ -29321,7 +29409,7 @@
         <v>402</v>
       </c>
       <c r="K353" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L353" s="240" t="s">
         <v>403</v>
@@ -29339,7 +29427,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="238">
         <v>354</v>
       </c>
@@ -29371,7 +29459,7 @@
         <v>402</v>
       </c>
       <c r="K354" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L354" s="240" t="s">
         <v>403</v>
@@ -29389,7 +29477,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="238">
         <v>355</v>
       </c>
@@ -29421,7 +29509,7 @@
         <v>402</v>
       </c>
       <c r="K355" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L355" s="240" t="s">
         <v>403</v>
@@ -29439,7 +29527,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="238">
         <v>356</v>
       </c>
@@ -29471,7 +29559,7 @@
         <v>402</v>
       </c>
       <c r="K356" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L356" s="240" t="s">
         <v>403</v>
@@ -29489,7 +29577,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="238">
         <v>357</v>
       </c>
@@ -29521,7 +29609,7 @@
         <v>402</v>
       </c>
       <c r="K357" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L357" s="240" t="s">
         <v>403</v>
@@ -29539,7 +29627,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="238">
         <v>358</v>
       </c>
@@ -29571,7 +29659,7 @@
         <v>402</v>
       </c>
       <c r="K358" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L358" s="240" t="s">
         <v>403</v>
@@ -29589,7 +29677,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="238">
         <v>359</v>
       </c>
@@ -29621,7 +29709,7 @@
         <v>402</v>
       </c>
       <c r="K359" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L359" s="240" t="s">
         <v>403</v>
@@ -29639,7 +29727,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="238">
         <v>360</v>
       </c>
@@ -29671,7 +29759,7 @@
         <v>402</v>
       </c>
       <c r="K360" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L360" s="240" t="s">
         <v>403</v>
@@ -29689,7 +29777,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="238">
         <v>361</v>
       </c>
@@ -29721,7 +29809,7 @@
         <v>402</v>
       </c>
       <c r="K361" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L361" s="240" t="s">
         <v>403</v>
@@ -29739,7 +29827,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="238">
         <v>362</v>
       </c>
@@ -29771,7 +29859,7 @@
         <v>402</v>
       </c>
       <c r="K362" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L362" s="240" t="s">
         <v>403</v>
@@ -29789,7 +29877,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="238">
         <v>363</v>
       </c>
@@ -29821,7 +29909,7 @@
         <v>402</v>
       </c>
       <c r="K363" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L363" s="240" t="s">
         <v>403</v>
@@ -29839,7 +29927,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" s="238">
         <v>364</v>
       </c>
@@ -29871,7 +29959,7 @@
         <v>402</v>
       </c>
       <c r="K364" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L364" s="240" t="s">
         <v>403</v>
@@ -29921,7 +30009,7 @@
         <v>402</v>
       </c>
       <c r="K365" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L365" s="240" t="s">
         <v>403</v>
@@ -29971,7 +30059,7 @@
         <v>402</v>
       </c>
       <c r="K366" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L366" s="240" t="s">
         <v>403</v>
@@ -30021,7 +30109,7 @@
         <v>402</v>
       </c>
       <c r="K367" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L367" s="240" t="s">
         <v>403</v>
@@ -30071,7 +30159,7 @@
         <v>402</v>
       </c>
       <c r="K368" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L368" s="240" t="s">
         <v>403</v>
@@ -30121,7 +30209,7 @@
         <v>402</v>
       </c>
       <c r="K369" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L369" s="240" t="s">
         <v>403</v>
@@ -30171,7 +30259,7 @@
         <v>402</v>
       </c>
       <c r="K370" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L370" s="240" t="s">
         <v>403</v>
@@ -30221,7 +30309,7 @@
         <v>402</v>
       </c>
       <c r="K371" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L371" s="240" t="s">
         <v>403</v>
@@ -30271,7 +30359,7 @@
         <v>402</v>
       </c>
       <c r="K372" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L372" s="240" t="s">
         <v>403</v>
@@ -30321,7 +30409,7 @@
         <v>402</v>
       </c>
       <c r="K373" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L373" s="240" t="s">
         <v>403</v>
@@ -30371,7 +30459,7 @@
         <v>402</v>
       </c>
       <c r="K374" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L374" s="240" t="s">
         <v>403</v>
@@ -30421,7 +30509,7 @@
         <v>402</v>
       </c>
       <c r="K375" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L375" s="240" t="s">
         <v>403</v>
@@ -30471,7 +30559,7 @@
         <v>402</v>
       </c>
       <c r="K376" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L376" s="240" t="s">
         <v>403</v>
@@ -30521,7 +30609,7 @@
         <v>402</v>
       </c>
       <c r="K377" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L377" s="240" t="s">
         <v>403</v>
@@ -30571,7 +30659,7 @@
         <v>402</v>
       </c>
       <c r="K378" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L378" s="240" t="s">
         <v>403</v>
@@ -30621,7 +30709,7 @@
         <v>402</v>
       </c>
       <c r="K379" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L379" s="240" t="s">
         <v>403</v>
@@ -30671,7 +30759,7 @@
         <v>402</v>
       </c>
       <c r="K380" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L380" s="240" t="s">
         <v>403</v>
@@ -30721,7 +30809,7 @@
         <v>402</v>
       </c>
       <c r="K381" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L381" s="240" t="s">
         <v>403</v>
@@ -30771,7 +30859,7 @@
         <v>402</v>
       </c>
       <c r="K382" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L382" s="240" t="s">
         <v>403</v>
@@ -30821,7 +30909,7 @@
         <v>402</v>
       </c>
       <c r="K383" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L383" s="240" t="s">
         <v>403</v>
@@ -30871,7 +30959,7 @@
         <v>402</v>
       </c>
       <c r="K384" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L384" s="240" t="s">
         <v>403</v>
@@ -30921,7 +31009,7 @@
         <v>402</v>
       </c>
       <c r="K385" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L385" s="240" t="s">
         <v>403</v>
@@ -30971,7 +31059,7 @@
         <v>402</v>
       </c>
       <c r="K386" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L386" s="240" t="s">
         <v>403</v>
@@ -31021,7 +31109,7 @@
         <v>402</v>
       </c>
       <c r="K387" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L387" s="240" t="s">
         <v>403</v>
@@ -31071,7 +31159,7 @@
         <v>402</v>
       </c>
       <c r="K388" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L388" s="240" t="s">
         <v>403</v>
@@ -31121,7 +31209,7 @@
         <v>402</v>
       </c>
       <c r="K389" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L389" s="240" t="s">
         <v>403</v>
@@ -31171,7 +31259,7 @@
         <v>402</v>
       </c>
       <c r="K390" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L390" s="240" t="s">
         <v>403</v>
@@ -31221,7 +31309,7 @@
         <v>402</v>
       </c>
       <c r="K391" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L391" s="240" t="s">
         <v>403</v>
@@ -31271,7 +31359,7 @@
         <v>402</v>
       </c>
       <c r="K392" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L392" s="240" t="s">
         <v>403</v>
@@ -31321,7 +31409,7 @@
         <v>402</v>
       </c>
       <c r="K393" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L393" s="240" t="s">
         <v>403</v>
@@ -31371,7 +31459,7 @@
         <v>402</v>
       </c>
       <c r="K394" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L394" s="240" t="s">
         <v>403</v>
@@ -31421,7 +31509,7 @@
         <v>402</v>
       </c>
       <c r="K395" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L395" s="240" t="s">
         <v>403</v>
@@ -31471,7 +31559,7 @@
         <v>402</v>
       </c>
       <c r="K396" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L396" s="240" t="s">
         <v>403</v>
@@ -31521,7 +31609,7 @@
         <v>402</v>
       </c>
       <c r="K397" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L397" s="240" t="s">
         <v>403</v>
@@ -31571,7 +31659,7 @@
         <v>402</v>
       </c>
       <c r="K398" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L398" s="240" t="s">
         <v>403</v>
@@ -31621,7 +31709,7 @@
         <v>402</v>
       </c>
       <c r="K399" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L399" s="240" t="s">
         <v>403</v>
@@ -31671,7 +31759,7 @@
         <v>402</v>
       </c>
       <c r="K400" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L400" s="240" t="s">
         <v>403</v>
@@ -31721,7 +31809,7 @@
         <v>402</v>
       </c>
       <c r="K401" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L401" s="240" t="s">
         <v>403</v>
@@ -31771,7 +31859,7 @@
         <v>402</v>
       </c>
       <c r="K402" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L402" s="240" t="s">
         <v>403</v>
@@ -31821,7 +31909,7 @@
         <v>402</v>
       </c>
       <c r="K403" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L403" s="240" t="s">
         <v>403</v>
@@ -31871,7 +31959,7 @@
         <v>402</v>
       </c>
       <c r="K404" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L404" s="240" t="s">
         <v>403</v>
@@ -31921,7 +32009,7 @@
         <v>402</v>
       </c>
       <c r="K405" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L405" s="240" t="s">
         <v>403</v>
@@ -31971,7 +32059,7 @@
         <v>402</v>
       </c>
       <c r="K406" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L406" s="240" t="s">
         <v>403</v>
@@ -32021,7 +32109,7 @@
         <v>402</v>
       </c>
       <c r="K407" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L407" s="240" t="s">
         <v>403</v>
@@ -32071,7 +32159,7 @@
         <v>402</v>
       </c>
       <c r="K408" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L408" s="240" t="s">
         <v>403</v>
@@ -32121,7 +32209,7 @@
         <v>402</v>
       </c>
       <c r="K409" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L409" s="240" t="s">
         <v>403</v>
@@ -32171,7 +32259,7 @@
         <v>402</v>
       </c>
       <c r="K410" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L410" s="240" t="s">
         <v>403</v>
@@ -32221,7 +32309,7 @@
         <v>402</v>
       </c>
       <c r="K411" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L411" s="240" t="s">
         <v>403</v>
@@ -32271,7 +32359,7 @@
         <v>402</v>
       </c>
       <c r="K412" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L412" s="240" t="s">
         <v>403</v>
@@ -32321,7 +32409,7 @@
         <v>402</v>
       </c>
       <c r="K413" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L413" s="240" t="s">
         <v>403</v>
@@ -32371,7 +32459,7 @@
         <v>402</v>
       </c>
       <c r="K414" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L414" s="240" t="s">
         <v>403</v>
@@ -32421,7 +32509,7 @@
         <v>402</v>
       </c>
       <c r="K415" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L415" s="240" t="s">
         <v>403</v>
@@ -32471,7 +32559,7 @@
         <v>402</v>
       </c>
       <c r="K416" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L416" s="240" t="s">
         <v>403</v>
@@ -32521,7 +32609,7 @@
         <v>402</v>
       </c>
       <c r="K417" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L417" s="240" t="s">
         <v>403</v>
@@ -32571,7 +32659,7 @@
         <v>402</v>
       </c>
       <c r="K418" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L418" s="240" t="s">
         <v>403</v>
@@ -32621,7 +32709,7 @@
         <v>402</v>
       </c>
       <c r="K419" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L419" s="240" t="s">
         <v>403</v>
@@ -32671,7 +32759,7 @@
         <v>402</v>
       </c>
       <c r="K420" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L420" s="240" t="s">
         <v>403</v>
@@ -32721,7 +32809,7 @@
         <v>402</v>
       </c>
       <c r="K421" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L421" s="240" t="s">
         <v>403</v>
@@ -32771,7 +32859,7 @@
         <v>402</v>
       </c>
       <c r="K422" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L422" s="240" t="s">
         <v>403</v>
@@ -32821,7 +32909,7 @@
         <v>402</v>
       </c>
       <c r="K423" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L423" s="240" t="s">
         <v>403</v>
@@ -32871,7 +32959,7 @@
         <v>402</v>
       </c>
       <c r="K424" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L424" s="240" t="s">
         <v>403</v>
@@ -32921,7 +33009,7 @@
         <v>402</v>
       </c>
       <c r="K425" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L425" s="240" t="s">
         <v>403</v>
@@ -32971,7 +33059,7 @@
         <v>402</v>
       </c>
       <c r="K426" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L426" s="240" t="s">
         <v>403</v>
@@ -33021,7 +33109,7 @@
         <v>402</v>
       </c>
       <c r="K427" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L427" s="240" t="s">
         <v>403</v>
@@ -33071,7 +33159,7 @@
         <v>402</v>
       </c>
       <c r="K428" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L428" s="240" t="s">
         <v>403</v>
@@ -33121,7 +33209,7 @@
         <v>402</v>
       </c>
       <c r="K429" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L429" s="240" t="s">
         <v>403</v>
@@ -33171,7 +33259,7 @@
         <v>402</v>
       </c>
       <c r="K430" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L430" s="240" t="s">
         <v>403</v>
@@ -33221,7 +33309,7 @@
         <v>402</v>
       </c>
       <c r="K431" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L431" s="240" t="s">
         <v>403</v>
@@ -33271,7 +33359,7 @@
         <v>402</v>
       </c>
       <c r="K432" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L432" s="240" t="s">
         <v>403</v>
@@ -33321,7 +33409,7 @@
         <v>402</v>
       </c>
       <c r="K433" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L433" s="240" t="s">
         <v>403</v>
@@ -33371,7 +33459,7 @@
         <v>402</v>
       </c>
       <c r="K434" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L434" s="240" t="s">
         <v>403</v>
@@ -33421,7 +33509,7 @@
         <v>402</v>
       </c>
       <c r="K435" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L435" s="240" t="s">
         <v>403</v>
@@ -33471,7 +33559,7 @@
         <v>402</v>
       </c>
       <c r="K436" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L436" s="240" t="s">
         <v>403</v>
@@ -33521,7 +33609,7 @@
         <v>402</v>
       </c>
       <c r="K437" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L437" s="240" t="s">
         <v>403</v>
@@ -33571,7 +33659,7 @@
         <v>402</v>
       </c>
       <c r="K438" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L438" s="240" t="s">
         <v>403</v>
@@ -33621,7 +33709,7 @@
         <v>402</v>
       </c>
       <c r="K439" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L439" s="240" t="s">
         <v>403</v>
@@ -33671,7 +33759,7 @@
         <v>402</v>
       </c>
       <c r="K440" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L440" s="240" t="s">
         <v>403</v>
@@ -33721,7 +33809,7 @@
         <v>402</v>
       </c>
       <c r="K441" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L441" s="240" t="s">
         <v>403</v>
@@ -33771,7 +33859,7 @@
         <v>402</v>
       </c>
       <c r="K442" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L442" s="240" t="s">
         <v>403</v>
@@ -33821,7 +33909,7 @@
         <v>402</v>
       </c>
       <c r="K443" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L443" s="240" t="s">
         <v>403</v>
@@ -33871,7 +33959,7 @@
         <v>402</v>
       </c>
       <c r="K444" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L444" s="240" t="s">
         <v>403</v>
@@ -33921,7 +34009,7 @@
         <v>402</v>
       </c>
       <c r="K445" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L445" s="240" t="s">
         <v>403</v>
@@ -33971,7 +34059,7 @@
         <v>402</v>
       </c>
       <c r="K446" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L446" s="240" t="s">
         <v>403</v>
@@ -34021,7 +34109,7 @@
         <v>402</v>
       </c>
       <c r="K447" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L447" s="240" t="s">
         <v>403</v>
@@ -34071,7 +34159,7 @@
         <v>402</v>
       </c>
       <c r="K448" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L448" s="240" t="s">
         <v>403</v>
@@ -34121,7 +34209,7 @@
         <v>402</v>
       </c>
       <c r="K449" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L449" s="240" t="s">
         <v>403</v>
@@ -34171,7 +34259,7 @@
         <v>402</v>
       </c>
       <c r="K450" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L450" s="240" t="s">
         <v>403</v>
@@ -34221,7 +34309,7 @@
         <v>402</v>
       </c>
       <c r="K451" s="275">
-        <v>45518.349085648151</v>
+        <v>45518.349085648202</v>
       </c>
       <c r="L451" s="245" t="s">
         <v>403</v>
@@ -34238,6 +34326,490 @@
       <c r="P451" s="270" t="s">
         <v>1061</v>
       </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A452" s="371">
+        <v>452</v>
+      </c>
+      <c r="B452" s="372">
+        <v>1</v>
+      </c>
+      <c r="C452" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D452" s="374">
+        <v>45518</v>
+      </c>
+      <c r="E452" s="373" t="s">
+        <v>910</v>
+      </c>
+      <c r="F452" s="375" t="s">
+        <v>954</v>
+      </c>
+      <c r="G452" s="375" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H452" s="376">
+        <v>0.4</v>
+      </c>
+      <c r="I452" s="375"/>
+      <c r="J452" s="373" t="s">
+        <v>402</v>
+      </c>
+      <c r="K452" s="377">
+        <v>45518.4975694444</v>
+      </c>
+      <c r="L452" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="M452" s="378"/>
+      <c r="N452" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="O452" s="373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P452" s="379"/>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A453" s="371">
+        <v>453</v>
+      </c>
+      <c r="B453" s="372">
+        <v>1</v>
+      </c>
+      <c r="C453" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D453" s="374">
+        <v>45518</v>
+      </c>
+      <c r="E453" s="373" t="s">
+        <v>659</v>
+      </c>
+      <c r="F453" s="375" t="s">
+        <v>660</v>
+      </c>
+      <c r="G453" s="375" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H453" s="376">
+        <v>4.5</v>
+      </c>
+      <c r="I453" s="375"/>
+      <c r="J453" s="373" t="s">
+        <v>402</v>
+      </c>
+      <c r="K453" s="377">
+        <v>45518.734050925901</v>
+      </c>
+      <c r="L453" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="M453" s="378"/>
+      <c r="N453" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="O453" s="373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P453" s="379"/>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A454" s="371">
+        <v>454</v>
+      </c>
+      <c r="B454" s="372">
+        <v>1</v>
+      </c>
+      <c r="C454" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D454" s="374">
+        <v>45518</v>
+      </c>
+      <c r="E454" s="373" t="s">
+        <v>684</v>
+      </c>
+      <c r="F454" s="375" t="s">
+        <v>822</v>
+      </c>
+      <c r="G454" s="375" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H454" s="376">
+        <v>0.5</v>
+      </c>
+      <c r="I454" s="375"/>
+      <c r="J454" s="373" t="s">
+        <v>402</v>
+      </c>
+      <c r="K454" s="377">
+        <v>45518.498263888898</v>
+      </c>
+      <c r="L454" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="M454" s="378"/>
+      <c r="N454" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="O454" s="373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P454" s="379"/>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A455" s="371">
+        <v>455</v>
+      </c>
+      <c r="B455" s="372">
+        <v>1</v>
+      </c>
+      <c r="C455" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D455" s="374">
+        <v>45518</v>
+      </c>
+      <c r="E455" s="373" t="s">
+        <v>525</v>
+      </c>
+      <c r="F455" s="375" t="s">
+        <v>526</v>
+      </c>
+      <c r="G455" s="375" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H455" s="376">
+        <v>4.5</v>
+      </c>
+      <c r="I455" s="375"/>
+      <c r="J455" s="373" t="s">
+        <v>402</v>
+      </c>
+      <c r="K455" s="377">
+        <v>45518.781053240702</v>
+      </c>
+      <c r="L455" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="M455" s="378"/>
+      <c r="N455" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="O455" s="373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P455" s="379"/>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A456" s="371">
+        <v>456</v>
+      </c>
+      <c r="B456" s="372">
+        <v>1</v>
+      </c>
+      <c r="C456" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D456" s="374">
+        <v>45518</v>
+      </c>
+      <c r="E456" s="373" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F456" s="375" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G456" s="375" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H456" s="376">
+        <v>1.5</v>
+      </c>
+      <c r="I456" s="375"/>
+      <c r="J456" s="373" t="s">
+        <v>402</v>
+      </c>
+      <c r="K456" s="377">
+        <v>45518.670543981498</v>
+      </c>
+      <c r="L456" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="M456" s="378"/>
+      <c r="N456" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="O456" s="373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P456" s="379"/>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A457" s="371">
+        <v>457</v>
+      </c>
+      <c r="B457" s="372">
+        <v>1</v>
+      </c>
+      <c r="C457" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D457" s="374">
+        <v>45518</v>
+      </c>
+      <c r="E457" s="373" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F457" s="375" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G457" s="375" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H457" s="376">
+        <v>0.75</v>
+      </c>
+      <c r="I457" s="375"/>
+      <c r="J457" s="373" t="s">
+        <v>402</v>
+      </c>
+      <c r="K457" s="377">
+        <v>45518.637685185196</v>
+      </c>
+      <c r="L457" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="M457" s="378"/>
+      <c r="N457" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="O457" s="373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P457" s="379"/>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A458" s="371">
+        <v>458</v>
+      </c>
+      <c r="B458" s="372">
+        <v>1</v>
+      </c>
+      <c r="C458" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D458" s="374">
+        <v>45518</v>
+      </c>
+      <c r="E458" s="373" t="s">
+        <v>676</v>
+      </c>
+      <c r="F458" s="375" t="s">
+        <v>677</v>
+      </c>
+      <c r="G458" s="375" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H458" s="376">
+        <v>3</v>
+      </c>
+      <c r="I458" s="375"/>
+      <c r="J458" s="373" t="s">
+        <v>402</v>
+      </c>
+      <c r="K458" s="377">
+        <v>45518.778124999997</v>
+      </c>
+      <c r="L458" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="M458" s="378"/>
+      <c r="N458" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="O458" s="373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P458" s="379"/>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A459" s="371">
+        <v>459</v>
+      </c>
+      <c r="B459" s="372">
+        <v>1</v>
+      </c>
+      <c r="C459" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D459" s="374">
+        <v>45518</v>
+      </c>
+      <c r="E459" s="373" t="s">
+        <v>507</v>
+      </c>
+      <c r="F459" s="375" t="s">
+        <v>508</v>
+      </c>
+      <c r="G459" s="375" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H459" s="376">
+        <v>1</v>
+      </c>
+      <c r="I459" s="375"/>
+      <c r="J459" s="373" t="s">
+        <v>402</v>
+      </c>
+      <c r="K459" s="377">
+        <v>45518.658032407402</v>
+      </c>
+      <c r="L459" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="M459" s="378"/>
+      <c r="N459" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="O459" s="373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P459" s="379"/>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A460" s="371">
+        <v>460</v>
+      </c>
+      <c r="B460" s="372">
+        <v>1</v>
+      </c>
+      <c r="C460" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D460" s="374">
+        <v>45518</v>
+      </c>
+      <c r="E460" s="373" t="s">
+        <v>650</v>
+      </c>
+      <c r="F460" s="375" t="s">
+        <v>819</v>
+      </c>
+      <c r="G460" s="375" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H460" s="376">
+        <v>1</v>
+      </c>
+      <c r="I460" s="375"/>
+      <c r="J460" s="373" t="s">
+        <v>402</v>
+      </c>
+      <c r="K460" s="377">
+        <v>45518.6928819444</v>
+      </c>
+      <c r="L460" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="M460" s="378"/>
+      <c r="N460" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="O460" s="373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P460" s="379"/>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A461" s="371">
+        <v>461</v>
+      </c>
+      <c r="B461" s="372">
+        <v>1</v>
+      </c>
+      <c r="C461" s="373" t="s">
+        <v>15</v>
+      </c>
+      <c r="D461" s="374">
+        <v>45518</v>
+      </c>
+      <c r="E461" s="373" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F461" s="375" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G461" s="375" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H461" s="376">
+        <v>2</v>
+      </c>
+      <c r="I461" s="375"/>
+      <c r="J461" s="373" t="s">
+        <v>402</v>
+      </c>
+      <c r="K461" s="377">
+        <v>45518.764641203699</v>
+      </c>
+      <c r="L461" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="M461" s="378"/>
+      <c r="N461" s="373" t="s">
+        <v>403</v>
+      </c>
+      <c r="O461" s="373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P461" s="379"/>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A462" s="380">
+        <v>462</v>
+      </c>
+      <c r="B462" s="381">
+        <v>1</v>
+      </c>
+      <c r="C462" s="382" t="s">
+        <v>15</v>
+      </c>
+      <c r="D462" s="383">
+        <v>45518</v>
+      </c>
+      <c r="E462" s="382" t="s">
+        <v>687</v>
+      </c>
+      <c r="F462" s="384" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G462" s="384" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H462" s="385">
+        <v>0.5</v>
+      </c>
+      <c r="I462" s="384"/>
+      <c r="J462" s="382" t="s">
+        <v>402</v>
+      </c>
+      <c r="K462" s="386">
+        <v>45518.774259259299</v>
+      </c>
+      <c r="L462" s="382" t="s">
+        <v>403</v>
+      </c>
+      <c r="M462" s="387"/>
+      <c r="N462" s="382" t="s">
+        <v>403</v>
+      </c>
+      <c r="O462" s="382" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P462" s="388"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34291,51 +34863,51 @@
     <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="278"/>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
-      <c r="N1" s="278"/>
-      <c r="O1" s="278"/>
-      <c r="P1" s="278"/>
-      <c r="Q1" s="278"/>
-      <c r="R1" s="278"/>
-      <c r="S1" s="278"/>
-      <c r="T1" s="278"/>
-      <c r="U1" s="278"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
+      <c r="I1" s="363"/>
+      <c r="J1" s="363"/>
+      <c r="K1" s="363"/>
+      <c r="L1" s="363"/>
+      <c r="M1" s="363"/>
+      <c r="N1" s="363"/>
+      <c r="O1" s="363"/>
+      <c r="P1" s="363"/>
+      <c r="Q1" s="363"/>
+      <c r="R1" s="363"/>
+      <c r="S1" s="363"/>
+      <c r="T1" s="363"/>
+      <c r="U1" s="363"/>
     </row>
     <row r="2" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="364" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="279"/>
+      <c r="B2" s="364"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="24"/>
-      <c r="D3" s="280" t="s">
+      <c r="D3" s="365" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="281"/>
-      <c r="F3" s="282" t="s">
+      <c r="E3" s="366"/>
+      <c r="F3" s="367" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="284"/>
+      <c r="G3" s="368"/>
+      <c r="H3" s="368"/>
+      <c r="I3" s="368"/>
+      <c r="J3" s="368"/>
+      <c r="K3" s="368"/>
+      <c r="L3" s="368"/>
+      <c r="M3" s="369"/>
       <c r="T3" s="11"/>
       <c r="V3"/>
     </row>
@@ -34344,10 +34916,10 @@
         <v>197</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="P4" s="285"/>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="287"/>
-      <c r="S4" s="287"/>
+      <c r="P4" s="370"/>
+      <c r="Q4" s="356"/>
+      <c r="R4" s="357"/>
+      <c r="S4" s="357"/>
       <c r="V4" s="4"/>
       <c r="W4" s="2"/>
     </row>
@@ -34356,24 +34928,24 @@
         <v>198</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="D5" s="294" t="s">
+      <c r="D5" s="351" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="295"/>
-      <c r="F5" s="296" t="s">
+      <c r="E5" s="352"/>
+      <c r="F5" s="353" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="297"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="298"/>
-      <c r="P5" s="286"/>
-      <c r="Q5" s="286"/>
-      <c r="R5" s="287"/>
-      <c r="S5" s="287"/>
+      <c r="G5" s="354"/>
+      <c r="H5" s="354"/>
+      <c r="I5" s="354"/>
+      <c r="J5" s="354"/>
+      <c r="K5" s="354"/>
+      <c r="L5" s="354"/>
+      <c r="M5" s="355"/>
+      <c r="P5" s="356"/>
+      <c r="Q5" s="356"/>
+      <c r="R5" s="357"/>
+      <c r="S5" s="357"/>
       <c r="V5" s="4"/>
       <c r="W5" s="2"/>
     </row>
@@ -34382,24 +34954,24 @@
         <v>201</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="D6" s="299" t="s">
+      <c r="D6" s="358" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="300"/>
-      <c r="F6" s="301" t="s">
+      <c r="E6" s="359"/>
+      <c r="F6" s="360" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="303"/>
-      <c r="P6" s="286"/>
-      <c r="Q6" s="286"/>
-      <c r="R6" s="287"/>
-      <c r="S6" s="287"/>
+      <c r="G6" s="361"/>
+      <c r="H6" s="361"/>
+      <c r="I6" s="361"/>
+      <c r="J6" s="361"/>
+      <c r="K6" s="361"/>
+      <c r="L6" s="361"/>
+      <c r="M6" s="362"/>
+      <c r="P6" s="356"/>
+      <c r="Q6" s="356"/>
+      <c r="R6" s="357"/>
+      <c r="S6" s="357"/>
       <c r="V6" s="4"/>
       <c r="W6" s="2"/>
     </row>
@@ -34437,38 +35009,38 @@
       <c r="B9" s="30">
         <v>355</v>
       </c>
-      <c r="D9" s="306" t="s">
+      <c r="D9" s="337" t="s">
         <v>370</v>
       </c>
-      <c r="E9" s="307"/>
-      <c r="F9" s="307"/>
-      <c r="G9" s="308"/>
-      <c r="I9" s="309" t="s">
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
+      <c r="G9" s="339"/>
+      <c r="I9" s="340" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="310"/>
+      <c r="J9" s="341"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="311" t="s">
+      <c r="L9" s="292" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="312"/>
-      <c r="N9" s="313"/>
-      <c r="P9" s="314" t="s">
+      <c r="M9" s="293"/>
+      <c r="N9" s="294"/>
+      <c r="P9" s="342" t="s">
         <v>209</v>
       </c>
-      <c r="Q9" s="315"/>
-      <c r="R9" s="316"/>
-      <c r="T9" s="288" t="s">
+      <c r="Q9" s="343"/>
+      <c r="R9" s="344"/>
+      <c r="T9" s="345" t="s">
         <v>210</v>
       </c>
-      <c r="U9" s="289"/>
-      <c r="V9" s="289"/>
-      <c r="W9" s="290"/>
-      <c r="Y9" s="291" t="s">
+      <c r="U9" s="346"/>
+      <c r="V9" s="346"/>
+      <c r="W9" s="347"/>
+      <c r="Y9" s="348" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="292"/>
-      <c r="AA9" s="293"/>
+      <c r="Z9" s="349"/>
+      <c r="AA9" s="350"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="156" t="s">
@@ -34520,9 +35092,9 @@
       <c r="W10" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="Y10" s="317"/>
-      <c r="Z10" s="318"/>
-      <c r="AA10" s="319"/>
+      <c r="Y10" s="325"/>
+      <c r="Z10" s="326"/>
+      <c r="AA10" s="327"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="142" t="s">
@@ -35046,10 +35618,10 @@
       <c r="I21" s="137"/>
       <c r="J21" s="139"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="323" t="s">
+      <c r="L21" s="331" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="324"/>
+      <c r="M21" s="332"/>
       <c r="N21" s="92">
         <v>7</v>
       </c>
@@ -35155,11 +35727,11 @@
       <c r="I24" s="138"/>
       <c r="J24" s="139"/>
       <c r="K24" s="31"/>
-      <c r="P24" s="311" t="s">
+      <c r="P24" s="292" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="312"/>
-      <c r="R24" s="313"/>
+      <c r="Q24" s="293"/>
+      <c r="R24" s="294"/>
       <c r="T24" s="70" t="s">
         <v>259</v>
       </c>
@@ -35190,10 +35762,10 @@
       <c r="I25" s="140"/>
       <c r="J25" s="141"/>
       <c r="K25" s="31"/>
-      <c r="P25" s="325" t="s">
+      <c r="P25" s="333" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="326"/>
+      <c r="Q25" s="334"/>
       <c r="R25" s="99" t="s">
         <v>262</v>
       </c>
@@ -35228,10 +35800,10 @@
       <c r="G26" s="151"/>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
-      <c r="P26" s="304" t="s">
+      <c r="P26" s="335" t="s">
         <v>266</v>
       </c>
-      <c r="Q26" s="305"/>
+      <c r="Q26" s="336"/>
       <c r="R26" s="100" t="s">
         <v>267</v>
       </c>
@@ -35266,10 +35838,10 @@
       <c r="G27" s="151"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="P27" s="327" t="s">
+      <c r="P27" s="317" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" s="328"/>
+      <c r="Q27" s="318"/>
       <c r="R27" s="102" t="s">
         <v>267</v>
       </c>
@@ -35300,20 +35872,20 @@
       </c>
       <c r="F28" s="148"/>
       <c r="G28" s="151"/>
-      <c r="I28" s="329" t="s">
+      <c r="I28" s="295" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="330"/>
+      <c r="J28" s="296"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="331" t="s">
+      <c r="L28" s="319" t="s">
         <v>276</v>
       </c>
-      <c r="M28" s="332"/>
-      <c r="N28" s="333"/>
-      <c r="P28" s="334" t="s">
+      <c r="M28" s="320"/>
+      <c r="N28" s="321"/>
+      <c r="P28" s="285" t="s">
         <v>277</v>
       </c>
-      <c r="Q28" s="335"/>
+      <c r="Q28" s="322"/>
       <c r="R28" s="105" t="s">
         <v>278</v>
       </c>
@@ -35344,20 +35916,20 @@
       </c>
       <c r="F29" s="148"/>
       <c r="G29" s="151"/>
-      <c r="I29" s="334" t="s">
+      <c r="I29" s="285" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="336"/>
+      <c r="J29" s="286"/>
       <c r="K29" s="2"/>
       <c r="L29" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="M29" s="337"/>
-      <c r="N29" s="338"/>
-      <c r="P29" s="339" t="s">
+      <c r="M29" s="303"/>
+      <c r="N29" s="304"/>
+      <c r="P29" s="323" t="s">
         <v>282</v>
       </c>
-      <c r="Q29" s="340"/>
+      <c r="Q29" s="324"/>
       <c r="R29" s="102" t="s">
         <v>278</v>
       </c>
@@ -35390,20 +35962,20 @@
       </c>
       <c r="F30" s="153"/>
       <c r="G30" s="154"/>
-      <c r="I30" s="341" t="s">
+      <c r="I30" s="283" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="342"/>
+      <c r="J30" s="284"/>
       <c r="K30" s="2"/>
       <c r="L30" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="M30" s="337"/>
-      <c r="N30" s="338"/>
-      <c r="P30" s="343" t="s">
+      <c r="M30" s="303"/>
+      <c r="N30" s="304"/>
+      <c r="P30" s="315" t="s">
         <v>288</v>
       </c>
-      <c r="Q30" s="344"/>
+      <c r="Q30" s="316"/>
       <c r="R30" s="105" t="s">
         <v>267</v>
       </c>
@@ -35428,19 +36000,19 @@
       <c r="AA30" s="82"/>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I31" s="334" t="s">
+      <c r="I31" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="336"/>
+      <c r="J31" s="286"/>
       <c r="L31" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="337"/>
-      <c r="N31" s="338"/>
-      <c r="P31" s="327" t="s">
+      <c r="M31" s="303"/>
+      <c r="N31" s="304"/>
+      <c r="P31" s="317" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" s="328"/>
+      <c r="Q31" s="318"/>
       <c r="R31" s="102" t="s">
         <v>278</v>
       </c>
@@ -35465,19 +36037,19 @@
       <c r="AA31" s="82"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="341" t="s">
+      <c r="I32" s="283" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="342"/>
+      <c r="J32" s="284"/>
       <c r="L32" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="M32" s="337"/>
-      <c r="N32" s="338"/>
-      <c r="P32" s="351" t="s">
+      <c r="M32" s="303"/>
+      <c r="N32" s="304"/>
+      <c r="P32" s="305" t="s">
         <v>293</v>
       </c>
-      <c r="Q32" s="352"/>
+      <c r="Q32" s="306"/>
       <c r="R32" s="110" t="s">
         <v>267</v>
       </c>
@@ -35504,15 +36076,15 @@
       </c>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="334" t="s">
+      <c r="I33" s="285" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="336"/>
+      <c r="J33" s="286"/>
       <c r="L33" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="356"/>
-      <c r="N33" s="357"/>
+      <c r="M33" s="310"/>
+      <c r="N33" s="311"/>
       <c r="T33" s="70" t="s">
         <v>65</v>
       </c>
@@ -35534,10 +36106,10 @@
       <c r="AA33" s="82"/>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="I34" s="341" t="s">
+      <c r="I34" s="283" t="s">
         <v>299</v>
       </c>
-      <c r="J34" s="342"/>
+      <c r="J34" s="284"/>
       <c r="T34" s="70" t="s">
         <v>300</v>
       </c>
@@ -35559,12 +36131,12 @@
       <c r="AA34" s="82"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I35" s="360" t="s">
+      <c r="I35" s="278" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="361"/>
-      <c r="P35" s="362"/>
-      <c r="Q35" s="362"/>
+      <c r="J35" s="279"/>
+      <c r="P35" s="314"/>
+      <c r="Q35" s="314"/>
       <c r="T35" s="70" t="s">
         <v>303</v>
       </c>
@@ -35607,16 +36179,16 @@
       <c r="AA36" s="82"/>
     </row>
     <row r="37" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="320" t="s">
+      <c r="D37" s="328" t="s">
         <v>371</v>
       </c>
-      <c r="E37" s="321"/>
-      <c r="F37" s="322"/>
-      <c r="P37" s="311" t="s">
+      <c r="E37" s="329"/>
+      <c r="F37" s="330"/>
+      <c r="P37" s="292" t="s">
         <v>290</v>
       </c>
-      <c r="Q37" s="312"/>
-      <c r="R37" s="313"/>
+      <c r="Q37" s="293"/>
+      <c r="R37" s="294"/>
       <c r="T37" s="70" t="s">
         <v>74</v>
       </c>
@@ -35649,15 +36221,15 @@
       <c r="F38" s="161" t="s">
         <v>243</v>
       </c>
-      <c r="I38" s="363" t="s">
+      <c r="I38" s="287" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="364"/>
-      <c r="P38" s="348" t="s">
+      <c r="J38" s="288"/>
+      <c r="P38" s="297" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="349"/>
-      <c r="R38" s="350"/>
+      <c r="Q38" s="298"/>
+      <c r="R38" s="299"/>
       <c r="T38" s="70" t="s">
         <v>310</v>
       </c>
@@ -35694,11 +36266,11 @@
       <c r="J39" s="114" t="s">
         <v>313</v>
       </c>
-      <c r="P39" s="353" t="s">
+      <c r="P39" s="307" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="354"/>
-      <c r="R39" s="355"/>
+      <c r="Q39" s="308"/>
+      <c r="R39" s="309"/>
       <c r="T39" s="70" t="s">
         <v>314</v>
       </c>
@@ -35733,11 +36305,11 @@
         <v>317</v>
       </c>
       <c r="J40" s="116"/>
-      <c r="P40" s="341" t="s">
+      <c r="P40" s="283" t="s">
         <v>24</v>
       </c>
-      <c r="Q40" s="358"/>
-      <c r="R40" s="342"/>
+      <c r="Q40" s="312"/>
+      <c r="R40" s="284"/>
       <c r="T40" s="70" t="s">
         <v>318</v>
       </c>
@@ -35772,11 +36344,11 @@
         <v>88</v>
       </c>
       <c r="J41" s="120"/>
-      <c r="P41" s="334" t="s">
+      <c r="P41" s="285" t="s">
         <v>108</v>
       </c>
-      <c r="Q41" s="359"/>
-      <c r="R41" s="336"/>
+      <c r="Q41" s="313"/>
+      <c r="R41" s="286"/>
       <c r="T41" s="70" t="s">
         <v>322</v>
       </c>
@@ -35811,11 +36383,11 @@
         <v>102</v>
       </c>
       <c r="J42" s="116"/>
-      <c r="P42" s="345" t="s">
+      <c r="P42" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="Q42" s="346"/>
-      <c r="R42" s="347"/>
+      <c r="Q42" s="301"/>
+      <c r="R42" s="302"/>
       <c r="T42" s="70" t="s">
         <v>325</v>
       </c>
@@ -36003,15 +36575,15 @@
     </row>
     <row r="48" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F48" s="103"/>
-      <c r="I48" s="329" t="s">
+      <c r="I48" s="295" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="330"/>
-      <c r="P48" s="365" t="s">
+      <c r="J48" s="296"/>
+      <c r="P48" s="289" t="s">
         <v>312</v>
       </c>
-      <c r="Q48" s="366"/>
-      <c r="R48" s="367"/>
+      <c r="Q48" s="290"/>
+      <c r="R48" s="291"/>
       <c r="T48" s="70" t="s">
         <v>67</v>
       </c>
@@ -36034,10 +36606,10 @@
     </row>
     <row r="49" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F49" s="103"/>
-      <c r="I49" s="334" t="s">
+      <c r="I49" s="285" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="336"/>
+      <c r="J49" s="286"/>
       <c r="P49" s="113" t="s">
         <v>315</v>
       </c>
@@ -36069,10 +36641,10 @@
     </row>
     <row r="50" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F50" s="103"/>
-      <c r="I50" s="341" t="s">
+      <c r="I50" s="283" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="342"/>
+      <c r="J50" s="284"/>
       <c r="P50" s="117" t="s">
         <v>321</v>
       </c>
@@ -36104,10 +36676,10 @@
     </row>
     <row r="51" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F51" s="103"/>
-      <c r="I51" s="334" t="s">
+      <c r="I51" s="285" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="336"/>
+      <c r="J51" s="286"/>
       <c r="P51" s="121" t="s">
         <v>90</v>
       </c>
@@ -36137,10 +36709,10 @@
     </row>
     <row r="52" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F52" s="103"/>
-      <c r="I52" s="341" t="s">
+      <c r="I52" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="342"/>
+      <c r="J52" s="284"/>
       <c r="P52" s="124" t="s">
         <v>87</v>
       </c>
@@ -36163,10 +36735,10 @@
     </row>
     <row r="53" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F53" s="103"/>
-      <c r="I53" s="334" t="s">
+      <c r="I53" s="285" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="336"/>
+      <c r="J53" s="286"/>
       <c r="P53" s="121" t="s">
         <v>103</v>
       </c>
@@ -36211,10 +36783,10 @@
     </row>
     <row r="55" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F55" s="103"/>
-      <c r="I55" s="341" t="s">
+      <c r="I55" s="283" t="s">
         <v>358</v>
       </c>
-      <c r="J55" s="342"/>
+      <c r="J55" s="284"/>
       <c r="T55" s="70" t="s">
         <v>175</v>
       </c>
@@ -36230,10 +36802,10 @@
     </row>
     <row r="56" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F56" s="103"/>
-      <c r="I56" s="360" t="s">
+      <c r="I56" s="278" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="361"/>
+      <c r="J56" s="279"/>
       <c r="T56" s="70" t="s">
         <v>34</v>
       </c>
@@ -36499,11 +37071,11 @@
       </c>
     </row>
     <row r="74" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="311" t="s">
+      <c r="D74" s="292" t="s">
         <v>340</v>
       </c>
-      <c r="E74" s="312"/>
-      <c r="F74" s="313"/>
+      <c r="E74" s="293"/>
+      <c r="F74" s="294"/>
       <c r="T74" s="70" t="s">
         <v>187</v>
       </c>
@@ -36518,11 +37090,11 @@
       </c>
     </row>
     <row r="75" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D75" s="348" t="s">
+      <c r="D75" s="297" t="s">
         <v>243</v>
       </c>
-      <c r="E75" s="349"/>
-      <c r="F75" s="350"/>
+      <c r="E75" s="298"/>
+      <c r="F75" s="299"/>
       <c r="T75" s="70" t="s">
         <v>189</v>
       </c>
@@ -36537,11 +37109,11 @@
       </c>
     </row>
     <row r="76" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="368">
+      <c r="D76" s="280">
         <v>350</v>
       </c>
-      <c r="E76" s="369"/>
-      <c r="F76" s="370"/>
+      <c r="E76" s="281"/>
+      <c r="F76" s="282"/>
       <c r="T76" s="70" t="s">
         <v>366</v>
       </c>
@@ -36557,19 +37129,43 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P37:R37"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="P31:Q31"/>
@@ -36586,43 +37182,19 @@
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:G30">
     <cfRule type="expression" dxfId="22" priority="1">

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7E469-D818-449E-BCE8-C7DDD9C91BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4915584-EE85-44A3-9D0D-FB29A628D719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEB_Recurrent" sheetId="12" r:id="rId1"/>
@@ -72,19 +72,19 @@
     <definedName name="dnrTypeCompteGL">OFFSET(#REF!,,,COUNTA(#REF!),1)</definedName>
     <definedName name="_xlnm.Extract" localSheetId="4">FAC_Comptes_Clients!#REF!</definedName>
     <definedName name="FAC_Projets_Détails_New">FAC_Projets_Détails!$B$1:$J$1</definedName>
-    <definedName name="Invoice_Amount" localSheetId="4">OFFSET(FAC_Comptes_Clients!$H$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$123)-1,1)</definedName>
+    <definedName name="Invoice_Amount" localSheetId="4">OFFSET(FAC_Comptes_Clients!$H$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$124)-1,1)</definedName>
     <definedName name="Invoice_Amount">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Balance" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Balance">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_CustName" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_CustName">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Invoice_Date" localSheetId="4">OFFSET(FAC_Comptes_Clients!$B$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$123)-1,1)</definedName>
+    <definedName name="Invoice_Date" localSheetId="4">OFFSET(FAC_Comptes_Clients!$B$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$124)-1,1)</definedName>
     <definedName name="Invoice_Date">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DaysOver" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DaysOver">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DueDate" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DueDate">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Invoice_ID" localSheetId="4">OFFSET(FAC_Comptes_Clients!$A$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$123)-1,1)</definedName>
+    <definedName name="Invoice_ID" localSheetId="4">OFFSET(FAC_Comptes_Clients!$A$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$124)-1,1)</definedName>
     <definedName name="Invoice_ID">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Total" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Total">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5143" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="1035">
   <si>
     <t>TEC_ID</t>
   </si>
@@ -3187,6 +3187,72 @@
   </si>
   <si>
     <t>courriel et appel avec Jean-Pierre sur conversion de dette en actions</t>
+  </si>
+  <si>
+    <t>24-24478</t>
+  </si>
+  <si>
+    <t>Portail Plus International Inc.</t>
+  </si>
+  <si>
+    <t>Pierre Dastous</t>
+  </si>
+  <si>
+    <t>754 boul. Iberville</t>
+  </si>
+  <si>
+    <t>Repentigny, QC, J5Y 1L2</t>
+  </si>
+  <si>
+    <t>- Calcul des taxes pour le mois de juillet 2023 à juin 2024</t>
+  </si>
+  <si>
+    <t>- Comptabilité sur Sage 50</t>
+  </si>
+  <si>
+    <t>- Préparation des états financiers et des déclarations fiscales au 30 juin 2024</t>
+  </si>
+  <si>
+    <t>- Autres travaux et discussions</t>
+  </si>
+  <si>
+    <t>APP_v4.D.7.xlsm</t>
+  </si>
+  <si>
+    <t>MOR11 Morin, Elliott Associés Ltée</t>
+  </si>
+  <si>
+    <t>Morin, Elliott Associés Ltée [Travis Budd]</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Fact:24-24477</t>
+  </si>
+  <si>
+    <t>19/08/2024 06:31:11</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>Revenus de consultation</t>
+  </si>
+  <si>
+    <t>19/08/2024 06:31:29</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>TPS percues</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>TVQ percues</t>
   </si>
 </sst>
 </file>
@@ -3543,7 +3609,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3938,62 +4004,10 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
@@ -4857,8 +4871,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}" name="tblCC_Factures_Paiements" displayName="tblCC_Factures_Paiements" ref="A1:K123" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" dataCellStyle="Monétaire">
-  <autoFilter ref="A1:K123" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}" name="tblCC_Factures_Paiements" displayName="tblCC_Factures_Paiements" ref="A1:K124" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" dataCellStyle="Monétaire">
+  <autoFilter ref="A1:K124" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{88CD8F5C-52E0-41A6-9239-2EFEC959FEE2}" name="Invoice_No" dataDxfId="50"/>
     <tableColumn id="2" xr3:uid="{56439DE3-1A07-4893-8D43-B17866F61C00}" name="Invoice_Date" dataDxfId="49"/>
@@ -5710,12 +5724,12 @@
   <sheetPr codeName="mwshGL_Trans">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G40" sqref="G40"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6297,6 +6311,118 @@
         <v>523</v>
       </c>
     </row>
+    <row r="21" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="66">
+        <v>2</v>
+      </c>
+      <c r="B21" s="104">
+        <v>45513</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="105" t="s">
+        <v>506</v>
+      </c>
+      <c r="G21" s="106">
+        <v>999.13</v>
+      </c>
+      <c r="H21" s="106"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="65" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="66">
+        <v>2</v>
+      </c>
+      <c r="B22" s="104">
+        <v>45513</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F22" s="105" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106">
+        <v>869</v>
+      </c>
+      <c r="I22" s="105"/>
+      <c r="J22" s="65" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="66">
+        <v>2</v>
+      </c>
+      <c r="B23" s="104">
+        <v>45513</v>
+      </c>
+      <c r="C23" s="105" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F23" s="105" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106">
+        <v>43.45</v>
+      </c>
+      <c r="I23" s="105"/>
+      <c r="J23" s="65" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="66">
+        <v>2</v>
+      </c>
+      <c r="B24" s="104">
+        <v>45513</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F24" s="105" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106">
+        <v>86.68</v>
+      </c>
+      <c r="I24" s="105"/>
+      <c r="J24" s="65" t="s">
+        <v>1030</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{E0D58006-DE1D-488F-9BB7-8096C5818030}"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6305,9 +6431,9 @@
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:J99999">
+  <conditionalFormatting sqref="A25:J99999">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND($A21&lt;&gt;"",MOD(ROW(),2)=1)</formula>
+      <formula>AND($A25&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6320,10 +6446,10 @@
   <sheetPr codeName="mwshTEC_Local"/>
   <dimension ref="A1:P499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="570" topLeftCell="A469" activePane="bottomLeft"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="570" activePane="bottomLeft"/>
       <selection activeCell="M1" sqref="M1:M1048576"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="E30" activeCellId="2" sqref="A23:XFD23 A26:XFD26 A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7389,16 +7515,20 @@
         <v>45507</v>
       </c>
       <c r="L23" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="M23" s="97">
+        <v>45521.583217592597</v>
+      </c>
       <c r="N23" s="96" t="s">
         <v>136</v>
       </c>
       <c r="O23" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="P23" s="124"/>
+        <v>1022</v>
+      </c>
+      <c r="P23" s="124" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="94">
@@ -7525,16 +7655,20 @@
         <v>45507</v>
       </c>
       <c r="L26" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="M26" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="M26" s="97">
+        <v>45521.583217592597</v>
+      </c>
       <c r="N26" s="96" t="s">
         <v>136</v>
       </c>
       <c r="O26" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="P26" s="124"/>
+        <v>1022</v>
+      </c>
+      <c r="P26" s="124" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="94">
@@ -7709,16 +7843,20 @@
         <v>45507</v>
       </c>
       <c r="L30" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="M30" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="M30" s="97">
+        <v>45521.583217592597</v>
+      </c>
       <c r="N30" s="96" t="s">
         <v>136</v>
       </c>
       <c r="O30" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="P30" s="124"/>
+        <v>1022</v>
+      </c>
+      <c r="P30" s="124" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="94">
@@ -28661,356 +28799,356 @@
       <c r="P491" s="126"/>
     </row>
     <row r="492" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A492" s="148">
+      <c r="A492" s="94">
         <v>492</v>
       </c>
-      <c r="B492" s="149">
-        <v>1</v>
-      </c>
-      <c r="C492" s="150" t="s">
+      <c r="B492" s="95">
+        <v>1</v>
+      </c>
+      <c r="C492" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D492" s="151">
+      <c r="D492" s="98">
         <v>45520</v>
       </c>
-      <c r="E492" s="150" t="s">
+      <c r="E492" s="96" t="s">
         <v>643</v>
       </c>
-      <c r="F492" s="152" t="s">
+      <c r="F492" s="123" t="s">
         <v>687</v>
       </c>
-      <c r="G492" s="152" t="s">
+      <c r="G492" s="123" t="s">
         <v>1005</v>
       </c>
-      <c r="H492" s="153">
+      <c r="H492" s="128">
         <v>1.5</v>
       </c>
-      <c r="I492" s="154"/>
-      <c r="J492" s="150" t="s">
-        <v>135</v>
-      </c>
-      <c r="K492" s="155">
+      <c r="I492" s="141"/>
+      <c r="J492" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="K492" s="131">
         <v>45520.380659722199</v>
       </c>
-      <c r="L492" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="M492" s="156"/>
-      <c r="N492" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="O492" s="150" t="s">
+      <c r="L492" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="M492" s="97"/>
+      <c r="N492" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="O492" s="96" t="s">
         <v>990</v>
       </c>
-      <c r="P492" s="157"/>
+      <c r="P492" s="124"/>
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A493" s="148">
+      <c r="A493" s="94">
         <v>493</v>
       </c>
-      <c r="B493" s="149">
-        <v>1</v>
-      </c>
-      <c r="C493" s="150" t="s">
+      <c r="B493" s="95">
+        <v>1</v>
+      </c>
+      <c r="C493" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D493" s="151">
+      <c r="D493" s="98">
         <v>45520</v>
       </c>
-      <c r="E493" s="150" t="s">
+      <c r="E493" s="96" t="s">
         <v>392</v>
       </c>
-      <c r="F493" s="152" t="s">
+      <c r="F493" s="123" t="s">
         <v>393</v>
       </c>
-      <c r="G493" s="152" t="s">
+      <c r="G493" s="123" t="s">
         <v>1006</v>
       </c>
-      <c r="H493" s="153">
+      <c r="H493" s="128">
         <v>2.5</v>
       </c>
-      <c r="I493" s="154"/>
-      <c r="J493" s="150" t="s">
-        <v>135</v>
-      </c>
-      <c r="K493" s="155">
+      <c r="I493" s="141"/>
+      <c r="J493" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="K493" s="131">
         <v>45520.462303240703</v>
       </c>
-      <c r="L493" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="M493" s="156"/>
-      <c r="N493" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="O493" s="150" t="s">
+      <c r="L493" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="M493" s="97"/>
+      <c r="N493" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="O493" s="96" t="s">
         <v>990</v>
       </c>
-      <c r="P493" s="157"/>
+      <c r="P493" s="124"/>
     </row>
     <row r="494" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A494" s="148">
+      <c r="A494" s="94">
         <v>494</v>
       </c>
-      <c r="B494" s="149">
-        <v>1</v>
-      </c>
-      <c r="C494" s="150" t="s">
+      <c r="B494" s="95">
+        <v>1</v>
+      </c>
+      <c r="C494" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D494" s="151">
+      <c r="D494" s="98">
         <v>45520</v>
       </c>
-      <c r="E494" s="150" t="s">
+      <c r="E494" s="96" t="s">
         <v>401</v>
       </c>
-      <c r="F494" s="152" t="s">
+      <c r="F494" s="123" t="s">
         <v>554</v>
       </c>
-      <c r="G494" s="152" t="s">
+      <c r="G494" s="123" t="s">
         <v>1007</v>
       </c>
-      <c r="H494" s="153">
+      <c r="H494" s="128">
         <v>0.25</v>
       </c>
-      <c r="I494" s="154"/>
-      <c r="J494" s="150" t="s">
-        <v>135</v>
-      </c>
-      <c r="K494" s="155">
+      <c r="I494" s="141"/>
+      <c r="J494" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="K494" s="131">
         <v>45520.3811458333</v>
       </c>
-      <c r="L494" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="M494" s="156"/>
-      <c r="N494" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="O494" s="150" t="s">
+      <c r="L494" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="M494" s="97"/>
+      <c r="N494" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="O494" s="96" t="s">
         <v>990</v>
       </c>
-      <c r="P494" s="157"/>
+      <c r="P494" s="124"/>
     </row>
     <row r="495" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A495" s="148">
+      <c r="A495" s="94">
         <v>495</v>
       </c>
-      <c r="B495" s="149">
-        <v>1</v>
-      </c>
-      <c r="C495" s="150" t="s">
+      <c r="B495" s="95">
+        <v>1</v>
+      </c>
+      <c r="C495" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D495" s="151">
+      <c r="D495" s="98">
         <v>45520</v>
       </c>
-      <c r="E495" s="150" t="s">
+      <c r="E495" s="96" t="s">
         <v>395</v>
       </c>
-      <c r="F495" s="152" t="s">
+      <c r="F495" s="123" t="s">
         <v>396</v>
       </c>
-      <c r="G495" s="152" t="s">
+      <c r="G495" s="123" t="s">
         <v>1008</v>
       </c>
-      <c r="H495" s="153">
+      <c r="H495" s="128">
         <v>20</v>
       </c>
-      <c r="I495" s="154"/>
-      <c r="J495" s="150" t="s">
-        <v>135</v>
-      </c>
-      <c r="K495" s="155">
+      <c r="I495" s="141"/>
+      <c r="J495" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="K495" s="131">
         <v>45520.863472222198</v>
       </c>
-      <c r="L495" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="M495" s="156"/>
-      <c r="N495" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="O495" s="150" t="s">
+      <c r="L495" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="M495" s="97"/>
+      <c r="N495" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="O495" s="96" t="s">
         <v>990</v>
       </c>
-      <c r="P495" s="157"/>
+      <c r="P495" s="124"/>
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A496" s="148">
+      <c r="A496" s="94">
         <v>496</v>
       </c>
-      <c r="B496" s="149">
-        <v>1</v>
-      </c>
-      <c r="C496" s="150" t="s">
+      <c r="B496" s="95">
+        <v>1</v>
+      </c>
+      <c r="C496" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D496" s="151">
+      <c r="D496" s="98">
         <v>45520</v>
       </c>
-      <c r="E496" s="150" t="s">
+      <c r="E496" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="F496" s="152" t="s">
+      <c r="F496" s="123" t="s">
         <v>1009</v>
       </c>
-      <c r="G496" s="152" t="s">
+      <c r="G496" s="123" t="s">
         <v>1010</v>
       </c>
-      <c r="H496" s="153">
+      <c r="H496" s="128">
         <v>0.75</v>
       </c>
-      <c r="I496" s="154"/>
-      <c r="J496" s="150" t="s">
-        <v>135</v>
-      </c>
-      <c r="K496" s="155">
+      <c r="I496" s="141"/>
+      <c r="J496" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="K496" s="131">
         <v>45520.403240740699</v>
       </c>
-      <c r="L496" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="M496" s="156"/>
-      <c r="N496" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="O496" s="150" t="s">
+      <c r="L496" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="M496" s="97"/>
+      <c r="N496" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="O496" s="96" t="s">
         <v>990</v>
       </c>
-      <c r="P496" s="157"/>
+      <c r="P496" s="124"/>
     </row>
     <row r="497" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A497" s="148">
+      <c r="A497" s="94">
         <v>497</v>
       </c>
-      <c r="B497" s="149">
+      <c r="B497" s="95">
         <v>2</v>
       </c>
-      <c r="C497" s="150" t="s">
+      <c r="C497" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="D497" s="151">
+      <c r="D497" s="98">
         <v>45520</v>
       </c>
-      <c r="E497" s="150" t="s">
+      <c r="E497" s="96" t="s">
         <v>713</v>
       </c>
-      <c r="F497" s="152" t="s">
+      <c r="F497" s="123" t="s">
         <v>714</v>
       </c>
-      <c r="G497" s="152" t="s">
+      <c r="G497" s="123" t="s">
         <v>702</v>
       </c>
-      <c r="H497" s="153">
+      <c r="H497" s="128">
         <v>0.25</v>
       </c>
-      <c r="I497" s="154"/>
-      <c r="J497" s="150" t="s">
-        <v>135</v>
-      </c>
-      <c r="K497" s="155">
+      <c r="I497" s="141"/>
+      <c r="J497" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="K497" s="131">
         <v>45520.428900462997</v>
       </c>
-      <c r="L497" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="M497" s="156"/>
-      <c r="N497" s="150" t="s">
-        <v>135</v>
-      </c>
-      <c r="O497" s="150" t="s">
+      <c r="L497" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="M497" s="97"/>
+      <c r="N497" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="O497" s="96" t="s">
         <v>990</v>
       </c>
-      <c r="P497" s="157"/>
+      <c r="P497" s="124"/>
     </row>
     <row r="498" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A498" s="148">
+      <c r="A498" s="94">
         <v>498</v>
       </c>
-      <c r="B498" s="149">
-        <v>1</v>
-      </c>
-      <c r="C498" s="150" t="s">
+      <c r="B498" s="95">
+        <v>1</v>
+      </c>
+      <c r="C498" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D498" s="151">
+      <c r="D498" s="98">
         <v>45520</v>
       </c>
-      <c r="E498" s="150" t="s">
+      <c r="E498" s="96" t="s">
         <v>409</v>
       </c>
-      <c r="F498" s="152" t="s">
+      <c r="F498" s="123" t="s">
         <v>410</v>
       </c>
-      <c r="G498" s="152" t="s">
+      <c r="G498" s="123" t="s">
         <v>1011</v>
       </c>
-      <c r="H498" s="153">
+      <c r="H498" s="128">
         <v>0.4</v>
       </c>
-      <c r="I498" s="154"/>
-      <c r="J498" s="150" t="s">
-        <v>135</v>
-      </c>
-      <c r="K498" s="155">
+      <c r="I498" s="141"/>
+      <c r="J498" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="K498" s="131">
         <v>45520.4399305556</v>
       </c>
-      <c r="L498" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="M498" s="156"/>
-      <c r="N498" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="O498" s="150" t="s">
+      <c r="L498" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="M498" s="97"/>
+      <c r="N498" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="O498" s="96" t="s">
         <v>990</v>
       </c>
-      <c r="P498" s="157"/>
+      <c r="P498" s="124"/>
     </row>
     <row r="499" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A499" s="158">
+      <c r="A499" s="99">
         <v>499</v>
       </c>
-      <c r="B499" s="159">
-        <v>1</v>
-      </c>
-      <c r="C499" s="160" t="s">
+      <c r="B499" s="100">
+        <v>1</v>
+      </c>
+      <c r="C499" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D499" s="161">
+      <c r="D499" s="102">
         <v>45520</v>
       </c>
-      <c r="E499" s="160" t="s">
+      <c r="E499" s="101" t="s">
         <v>420</v>
       </c>
-      <c r="F499" s="162" t="s">
+      <c r="F499" s="125" t="s">
         <v>939</v>
       </c>
-      <c r="G499" s="162" t="s">
+      <c r="G499" s="125" t="s">
         <v>1012</v>
       </c>
-      <c r="H499" s="163">
+      <c r="H499" s="129">
         <v>0.4</v>
       </c>
-      <c r="I499" s="164"/>
-      <c r="J499" s="160" t="s">
-        <v>135</v>
-      </c>
-      <c r="K499" s="165">
+      <c r="I499" s="142"/>
+      <c r="J499" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="K499" s="132">
         <v>45520.4620138889</v>
       </c>
-      <c r="L499" s="160" t="s">
-        <v>136</v>
-      </c>
-      <c r="M499" s="166"/>
-      <c r="N499" s="160" t="s">
-        <v>136</v>
-      </c>
-      <c r="O499" s="160" t="s">
+      <c r="L499" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M499" s="103"/>
+      <c r="N499" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="O499" s="101" t="s">
         <v>990</v>
       </c>
-      <c r="P499" s="167"/>
+      <c r="P499" s="126"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29485,11 +29623,11 @@
   <sheetPr codeName="mwshFAC_Comptes_Clients">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29576,7 +29714,7 @@
       </c>
       <c r="K2" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -29612,7 +29750,7 @@
       </c>
       <c r="K3" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -29648,7 +29786,7 @@
       </c>
       <c r="K4" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -29684,7 +29822,7 @@
       </c>
       <c r="K5" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -29720,7 +29858,7 @@
       </c>
       <c r="K6" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -29756,7 +29894,7 @@
       </c>
       <c r="K7" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -29792,7 +29930,7 @@
       </c>
       <c r="K8" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -29828,7 +29966,7 @@
       </c>
       <c r="K9" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -29864,7 +30002,7 @@
       </c>
       <c r="K10" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -29900,7 +30038,7 @@
       </c>
       <c r="K11" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -29936,7 +30074,7 @@
       </c>
       <c r="K12" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -29972,7 +30110,7 @@
       </c>
       <c r="K13" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -30008,7 +30146,7 @@
       </c>
       <c r="K14" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -30044,7 +30182,7 @@
       </c>
       <c r="K15" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -30080,7 +30218,7 @@
       </c>
       <c r="K16" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -30116,7 +30254,7 @@
       </c>
       <c r="K17" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -30152,7 +30290,7 @@
       </c>
       <c r="K18" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -30188,7 +30326,7 @@
       </c>
       <c r="K19" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -30224,7 +30362,7 @@
       </c>
       <c r="K20" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -30260,7 +30398,7 @@
       </c>
       <c r="K21" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -30296,7 +30434,7 @@
       </c>
       <c r="K22" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -30332,7 +30470,7 @@
       </c>
       <c r="K23" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -30368,7 +30506,7 @@
       </c>
       <c r="K24" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -30404,7 +30542,7 @@
       </c>
       <c r="K25" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -30440,7 +30578,7 @@
       </c>
       <c r="K26" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -30476,7 +30614,7 @@
       </c>
       <c r="K27" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -30512,7 +30650,7 @@
       </c>
       <c r="K28" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -30548,7 +30686,7 @@
       </c>
       <c r="K29" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -30584,7 +30722,7 @@
       </c>
       <c r="K30" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -30620,7 +30758,7 @@
       </c>
       <c r="K31" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -30656,7 +30794,7 @@
       </c>
       <c r="K32" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -30692,7 +30830,7 @@
       </c>
       <c r="K33" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -30728,7 +30866,7 @@
       </c>
       <c r="K34" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -30764,7 +30902,7 @@
       </c>
       <c r="K35" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -30800,7 +30938,7 @@
       </c>
       <c r="K36" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -30836,7 +30974,7 @@
       </c>
       <c r="K37" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -30872,7 +31010,7 @@
       </c>
       <c r="K38" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -30908,7 +31046,7 @@
       </c>
       <c r="K39" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -30944,7 +31082,7 @@
       </c>
       <c r="K40" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -30980,7 +31118,7 @@
       </c>
       <c r="K41" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -31016,7 +31154,7 @@
       </c>
       <c r="K42" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -31052,7 +31190,7 @@
       </c>
       <c r="K43" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -31088,7 +31226,7 @@
       </c>
       <c r="K44" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -31124,7 +31262,7 @@
       </c>
       <c r="K45" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -31160,7 +31298,7 @@
       </c>
       <c r="K46" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -31196,7 +31334,7 @@
       </c>
       <c r="K47" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -31232,7 +31370,7 @@
       </c>
       <c r="K48" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -31268,7 +31406,7 @@
       </c>
       <c r="K49" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -31304,7 +31442,7 @@
       </c>
       <c r="K50" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -31340,7 +31478,7 @@
       </c>
       <c r="K51" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -31376,7 +31514,7 @@
       </c>
       <c r="K52" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -31412,7 +31550,7 @@
       </c>
       <c r="K53" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -31448,7 +31586,7 @@
       </c>
       <c r="K54" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -31484,7 +31622,7 @@
       </c>
       <c r="K55" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -31520,7 +31658,7 @@
       </c>
       <c r="K56" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -31556,7 +31694,7 @@
       </c>
       <c r="K57" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -31592,7 +31730,7 @@
       </c>
       <c r="K58" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -31628,7 +31766,7 @@
       </c>
       <c r="K59" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -31664,7 +31802,7 @@
       </c>
       <c r="K60" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -31700,7 +31838,7 @@
       </c>
       <c r="K61" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -31736,7 +31874,7 @@
       </c>
       <c r="K62" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -31772,7 +31910,7 @@
       </c>
       <c r="K63" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -31808,7 +31946,7 @@
       </c>
       <c r="K64" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -31844,7 +31982,7 @@
       </c>
       <c r="K65" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -31880,7 +32018,7 @@
       </c>
       <c r="K66" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -31916,7 +32054,7 @@
       </c>
       <c r="K67" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -31952,7 +32090,7 @@
       </c>
       <c r="K68" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -31988,7 +32126,7 @@
       </c>
       <c r="K69" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -32024,7 +32162,7 @@
       </c>
       <c r="K70" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -32060,7 +32198,7 @@
       </c>
       <c r="K71" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -32096,7 +32234,7 @@
       </c>
       <c r="K72" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -32132,7 +32270,7 @@
       </c>
       <c r="K73" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -32168,7 +32306,7 @@
       </c>
       <c r="K74" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -32204,7 +32342,7 @@
       </c>
       <c r="K75" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -32240,7 +32378,7 @@
       </c>
       <c r="K76" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -32276,7 +32414,7 @@
       </c>
       <c r="K77" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -32312,7 +32450,7 @@
       </c>
       <c r="K78" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -32348,7 +32486,7 @@
       </c>
       <c r="K79" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -32384,7 +32522,7 @@
       </c>
       <c r="K80" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -32420,7 +32558,7 @@
       </c>
       <c r="K81" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -32456,7 +32594,7 @@
       </c>
       <c r="K82" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -32492,7 +32630,7 @@
       </c>
       <c r="K83" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -32528,7 +32666,7 @@
       </c>
       <c r="K84" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -32564,7 +32702,7 @@
       </c>
       <c r="K85" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -32600,7 +32738,7 @@
       </c>
       <c r="K86" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -32636,7 +32774,7 @@
       </c>
       <c r="K87" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -32672,7 +32810,7 @@
       </c>
       <c r="K88" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -32708,7 +32846,7 @@
       </c>
       <c r="K89" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -32744,7 +32882,7 @@
       </c>
       <c r="K90" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -32780,7 +32918,7 @@
       </c>
       <c r="K91" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -32816,7 +32954,7 @@
       </c>
       <c r="K92" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -32852,7 +32990,7 @@
       </c>
       <c r="K93" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -32888,7 +33026,7 @@
       </c>
       <c r="K94" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -32924,7 +33062,7 @@
       </c>
       <c r="K95" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -32960,7 +33098,7 @@
       </c>
       <c r="K96" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -32996,7 +33134,7 @@
       </c>
       <c r="K97" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -33032,7 +33170,7 @@
       </c>
       <c r="K98" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -33068,7 +33206,7 @@
       </c>
       <c r="K99" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -33104,7 +33242,7 @@
       </c>
       <c r="K100" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -33140,7 +33278,7 @@
       </c>
       <c r="K101" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -33176,7 +33314,7 @@
       </c>
       <c r="K102" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -33212,7 +33350,7 @@
       </c>
       <c r="K103" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -33248,7 +33386,7 @@
       </c>
       <c r="K104" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -33284,7 +33422,7 @@
       </c>
       <c r="K105" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -33320,7 +33458,7 @@
       </c>
       <c r="K106" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -33356,7 +33494,7 @@
       </c>
       <c r="K107" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -33392,7 +33530,7 @@
       </c>
       <c r="K108" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -33428,7 +33566,7 @@
       </c>
       <c r="K109" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -33464,7 +33602,7 @@
       </c>
       <c r="K110" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -33500,7 +33638,7 @@
       </c>
       <c r="K111" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -33536,7 +33674,7 @@
       </c>
       <c r="K112" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -33572,7 +33710,7 @@
       </c>
       <c r="K113" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -33608,7 +33746,7 @@
       </c>
       <c r="K114" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -33644,7 +33782,7 @@
       </c>
       <c r="K115" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -33680,7 +33818,7 @@
       </c>
       <c r="K116" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -33716,7 +33854,7 @@
       </c>
       <c r="K117" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -33752,7 +33890,7 @@
       </c>
       <c r="K118" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-12</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -33788,7 +33926,7 @@
       </c>
       <c r="K119" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-13</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -33824,7 +33962,7 @@
       </c>
       <c r="K120" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-13</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -33861,7 +33999,7 @@
       </c>
       <c r="K121" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-22</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -33898,7 +34036,7 @@
       </c>
       <c r="K122" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-22</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -33909,7 +34047,7 @@
         <v>45513</v>
       </c>
       <c r="C123" s="105" t="s">
-        <v>525</v>
+        <v>1023</v>
       </c>
       <c r="D123" s="65" t="s">
         <v>146</v>
@@ -33935,7 +34073,44 @@
       </c>
       <c r="K123" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-22</v>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="65" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B124" s="104">
+        <v>45513</v>
+      </c>
+      <c r="C124" s="105" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D124" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E124" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G124" s="104">
+        <v>45543</v>
+      </c>
+      <c r="H124" s="143">
+        <v>2989.35</v>
+      </c>
+      <c r="I124" s="143">
+        <v>0</v>
+      </c>
+      <c r="J124" s="143">
+        <f>tblCC_Factures_Paiements[[#This Row],[Total]]-tblCC_Factures_Paiements[[#This Row],[Total_Paid]]</f>
+        <v>2989.35</v>
+      </c>
+      <c r="K124" s="116">
+        <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
+        <v>-20</v>
       </c>
     </row>
   </sheetData>
@@ -33953,11 +34128,11 @@
   <sheetPr codeName="mwshFAC_Entête">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33980,7 +34155,7 @@
     <col min="16" max="16" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.42578125" style="137" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="149" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34039,7 +34214,7 @@
       <c r="R1" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="136" t="s">
+      <c r="S1" s="148" t="s">
         <v>75</v>
       </c>
       <c r="T1" s="135" t="s">
@@ -34134,7 +34309,7 @@
         <v>994</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>993</v>
+        <v>532</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>995</v>
@@ -34193,7 +34368,7 @@
         <v>45513</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>146</v>
@@ -34202,7 +34377,7 @@
         <v>1001</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>525</v>
+        <v>1024</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>1002</v>
@@ -34247,6 +34422,71 @@
         <v>999.13</v>
       </c>
       <c r="V4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45513</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2600</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="138">
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="4">
+        <v>130</v>
+      </c>
+      <c r="S5" s="139">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="T5" s="4">
+        <v>259.35000000000002</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2989.35</v>
+      </c>
+      <c r="V5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -34267,10 +34507,10 @@
   <sheetPr codeName="mwshFAC_Détails">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34504,6 +34744,115 @@
       </c>
       <c r="F17" s="1" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C18" s="140"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C19" s="140"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="140"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C23" s="140"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C24" s="140"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C25" s="140">
+        <v>3.25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>100</v>
+      </c>
+      <c r="E25" s="4">
+        <v>325</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4915584-EE85-44A3-9D0D-FB29A628D719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60467DC7-6CC0-44EE-B19E-D64EB70A6336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEB_Recurrent" sheetId="12" r:id="rId1"/>
@@ -72,19 +72,19 @@
     <definedName name="dnrTypeCompteGL">OFFSET(#REF!,,,COUNTA(#REF!),1)</definedName>
     <definedName name="_xlnm.Extract" localSheetId="4">FAC_Comptes_Clients!#REF!</definedName>
     <definedName name="FAC_Projets_Détails_New">FAC_Projets_Détails!$B$1:$J$1</definedName>
-    <definedName name="Invoice_Amount" localSheetId="4">OFFSET(FAC_Comptes_Clients!$H$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$124)-1,1)</definedName>
+    <definedName name="Invoice_Amount" localSheetId="4">OFFSET(FAC_Comptes_Clients!$H$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$125)-1,1)</definedName>
     <definedName name="Invoice_Amount">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Balance" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Balance">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_CustName" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_CustName">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Invoice_Date" localSheetId="4">OFFSET(FAC_Comptes_Clients!$B$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$124)-1,1)</definedName>
+    <definedName name="Invoice_Date" localSheetId="4">OFFSET(FAC_Comptes_Clients!$B$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$125)-1,1)</definedName>
     <definedName name="Invoice_Date">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DaysOver" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DaysOver">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DueDate" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DueDate">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Invoice_ID" localSheetId="4">OFFSET(FAC_Comptes_Clients!$A$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$124)-1,1)</definedName>
+    <definedName name="Invoice_ID" localSheetId="4">OFFSET(FAC_Comptes_Clients!$A$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$125)-1,1)</definedName>
     <definedName name="Invoice_ID">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Total" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Total">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5297" uniqueCount="1056">
   <si>
     <t>TEC_ID</t>
   </si>
@@ -3253,6 +3253,69 @@
   </si>
   <si>
     <t>TVQ percues</t>
+  </si>
+  <si>
+    <t>Fact:24-24478</t>
+  </si>
+  <si>
+    <t>19/08/2024 09:57:38</t>
+  </si>
+  <si>
+    <t>24-24479</t>
+  </si>
+  <si>
+    <t>Vignoble Kobloth et Fils Inc.</t>
+  </si>
+  <si>
+    <t>Roxane Gauthier</t>
+  </si>
+  <si>
+    <t>905 Le grand Boulevard Ouest</t>
+  </si>
+  <si>
+    <t>Saint-Bruno-de-Montarville, QC, J3V 4P6</t>
+  </si>
+  <si>
+    <t>- Facturation intérimaire selon l'entente de répartition des frais</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12,75</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>*** - [Sommaire des TEC] pour la facture - ML</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>82,5</t>
+  </si>
+  <si>
+    <t>Fact:24-24476</t>
+  </si>
+  <si>
+    <t>19/08/2024 14:59:59</t>
+  </si>
+  <si>
+    <t>Fact:24-24475</t>
+  </si>
+  <si>
+    <t>19/08/2024 15:25:42</t>
+  </si>
+  <si>
+    <t>APP_v4.D.9.xlsm</t>
   </si>
 </sst>
 </file>
@@ -4871,8 +4934,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}" name="tblCC_Factures_Paiements" displayName="tblCC_Factures_Paiements" ref="A1:K124" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" dataCellStyle="Monétaire">
-  <autoFilter ref="A1:K124" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}" name="tblCC_Factures_Paiements" displayName="tblCC_Factures_Paiements" ref="A1:K125" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" dataCellStyle="Monétaire">
+  <autoFilter ref="A1:K125" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{88CD8F5C-52E0-41A6-9239-2EFEC959FEE2}" name="Invoice_No" dataDxfId="50"/>
     <tableColumn id="2" xr3:uid="{56439DE3-1A07-4893-8D43-B17866F61C00}" name="Invoice_Date" dataDxfId="49"/>
@@ -5724,12 +5787,12 @@
   <sheetPr codeName="mwshGL_Trans">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G40" sqref="G40"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6423,6 +6486,326 @@
         <v>1030</v>
       </c>
     </row>
+    <row r="25" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="66">
+        <v>3</v>
+      </c>
+      <c r="B25" s="104">
+        <v>45513</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>531</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="105" t="s">
+        <v>506</v>
+      </c>
+      <c r="G25" s="106">
+        <v>2989.35</v>
+      </c>
+      <c r="H25" s="106"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="65" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="66">
+        <v>3</v>
+      </c>
+      <c r="B26" s="104">
+        <v>45513</v>
+      </c>
+      <c r="C26" s="105" t="s">
+        <v>531</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F26" s="105" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106">
+        <v>2600</v>
+      </c>
+      <c r="I26" s="105"/>
+      <c r="J26" s="65" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="66">
+        <v>3</v>
+      </c>
+      <c r="B27" s="104">
+        <v>45513</v>
+      </c>
+      <c r="C27" s="105" t="s">
+        <v>531</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F27" s="105" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106">
+        <v>130</v>
+      </c>
+      <c r="I27" s="105"/>
+      <c r="J27" s="65" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="66">
+        <v>3</v>
+      </c>
+      <c r="B28" s="104">
+        <v>45513</v>
+      </c>
+      <c r="C28" s="105" t="s">
+        <v>531</v>
+      </c>
+      <c r="D28" s="105" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106">
+        <v>259.35000000000002</v>
+      </c>
+      <c r="I28" s="105"/>
+      <c r="J28" s="65" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="85">
+        <v>4</v>
+      </c>
+      <c r="B29" s="103">
+        <v>45513</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>532</v>
+      </c>
+      <c r="D29" s="85" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E29" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="G29" s="85">
+        <v>862.31</v>
+      </c>
+      <c r="J29" s="85" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="85">
+        <v>4</v>
+      </c>
+      <c r="B30" s="103">
+        <v>45513</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>532</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E30" s="85" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F30" s="85" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H30" s="85">
+        <v>750</v>
+      </c>
+      <c r="J30" s="85" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="85">
+        <v>4</v>
+      </c>
+      <c r="B31" s="103">
+        <v>45513</v>
+      </c>
+      <c r="C31" s="85" t="s">
+        <v>532</v>
+      </c>
+      <c r="D31" s="85" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E31" s="85" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F31" s="85" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H31" s="85">
+        <v>37.5</v>
+      </c>
+      <c r="J31" s="85" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="85">
+        <v>4</v>
+      </c>
+      <c r="B32" s="103">
+        <v>45513</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>532</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E32" s="85" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F32" s="85" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H32" s="85">
+        <v>74.81</v>
+      </c>
+      <c r="J32" s="85" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="85">
+        <v>5</v>
+      </c>
+      <c r="B33" s="103">
+        <v>45513</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>942</v>
+      </c>
+      <c r="D33" s="85" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="G33" s="85">
+        <v>2493.52</v>
+      </c>
+      <c r="J33" s="85" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="85">
+        <v>5</v>
+      </c>
+      <c r="B34" s="103">
+        <v>45513</v>
+      </c>
+      <c r="C34" s="85" t="s">
+        <v>942</v>
+      </c>
+      <c r="D34" s="85" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E34" s="85" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H34" s="85">
+        <v>2168.75</v>
+      </c>
+      <c r="J34" s="85" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="85">
+        <v>5</v>
+      </c>
+      <c r="B35" s="103">
+        <v>45513</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>942</v>
+      </c>
+      <c r="D35" s="85" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E35" s="85" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F35" s="85" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H35" s="85">
+        <v>108.44</v>
+      </c>
+      <c r="J35" s="85" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="85">
+        <v>5</v>
+      </c>
+      <c r="B36" s="103">
+        <v>45513</v>
+      </c>
+      <c r="C36" s="85" t="s">
+        <v>942</v>
+      </c>
+      <c r="D36" s="85" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E36" s="85" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F36" s="85" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H36" s="85">
+        <v>216.33</v>
+      </c>
+      <c r="J36" s="85" t="s">
+        <v>1054</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{E0D58006-DE1D-488F-9BB7-8096C5818030}"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6431,9 +6814,9 @@
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:J99999">
+  <conditionalFormatting sqref="A29:J99999">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND($A25&lt;&gt;"",MOD(ROW(),2)=1)</formula>
+      <formula>AND($A29&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6827,16 +7210,20 @@
         <v>45507</v>
       </c>
       <c r="L8" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="M8" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="M8" s="97">
+        <v>45523.642592592601</v>
+      </c>
       <c r="N8" s="96" t="s">
         <v>136</v>
       </c>
       <c r="O8" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="P8" s="124"/>
+        <v>1055</v>
+      </c>
+      <c r="P8" s="124" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="94">
@@ -7935,16 +8322,20 @@
         <v>45507</v>
       </c>
       <c r="L32" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="M32" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="M32" s="97">
+        <v>45523.642592592601</v>
+      </c>
       <c r="N32" s="96" t="s">
         <v>136</v>
       </c>
       <c r="O32" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="P32" s="124"/>
+        <v>1055</v>
+      </c>
+      <c r="P32" s="124" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="94">
@@ -7979,16 +8370,20 @@
         <v>45507</v>
       </c>
       <c r="L33" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="M33" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="M33" s="97">
+        <v>45523.642592592601</v>
+      </c>
       <c r="N33" s="96" t="s">
         <v>136</v>
       </c>
       <c r="O33" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="P33" s="124"/>
+        <v>1055</v>
+      </c>
+      <c r="P33" s="124" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="94">
@@ -8247,16 +8642,20 @@
         <v>45507</v>
       </c>
       <c r="L39" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="M39" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="M39" s="97">
+        <v>45523.642592592601</v>
+      </c>
       <c r="N39" s="96" t="s">
         <v>136</v>
       </c>
       <c r="O39" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="P39" s="124"/>
+        <v>1055</v>
+      </c>
+      <c r="P39" s="124" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="94">
@@ -19553,16 +19952,20 @@
         <v>45516.568368055603</v>
       </c>
       <c r="L296" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="M296" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="M296" s="97">
+        <v>45523.642592592601</v>
+      </c>
       <c r="N296" s="96" t="s">
         <v>136</v>
       </c>
       <c r="O296" s="96" t="s">
-        <v>719</v>
-      </c>
-      <c r="P296" s="124"/>
+        <v>1055</v>
+      </c>
+      <c r="P296" s="124" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="94">
@@ -29623,18 +30026,18 @@
   <sheetPr codeName="mwshFAC_Comptes_Clients">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
@@ -34109,6 +34512,43 @@
         <v>2989.35</v>
       </c>
       <c r="K124" s="116">
+        <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="65" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B125" s="104">
+        <v>45513</v>
+      </c>
+      <c r="C125" s="105" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D125" s="65" t="s">
+        <v>704</v>
+      </c>
+      <c r="E125" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" s="104">
+        <v>45543</v>
+      </c>
+      <c r="H125" s="143">
+        <v>563.38</v>
+      </c>
+      <c r="I125" s="143">
+        <v>0</v>
+      </c>
+      <c r="J125" s="143">
+        <f>tblCC_Factures_Paiements[[#This Row],[Total]]-tblCC_Factures_Paiements[[#This Row],[Total_Paid]]</f>
+        <v>563.38</v>
+      </c>
+      <c r="K125" s="116">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
         <v>-20</v>
       </c>
@@ -34128,7 +34568,7 @@
   <sheetPr codeName="mwshFAC_Entête">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34235,7 +34675,7 @@
         <v>45513</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>149</v>
@@ -34300,7 +34740,7 @@
         <v>45513</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>177</v>
@@ -34433,7 +34873,7 @@
         <v>45513</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>987</v>
+        <v>1025</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>166</v>
@@ -34487,6 +34927,71 @@
         <v>2989.35</v>
       </c>
       <c r="V5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B6" s="103">
+        <v>45513</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>987</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>704</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J6" s="140">
+        <v>490</v>
+      </c>
+      <c r="K6" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="140">
+        <v>0</v>
+      </c>
+      <c r="M6" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="140">
+        <v>0</v>
+      </c>
+      <c r="O6" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="140">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="85">
+        <v>0.05</v>
+      </c>
+      <c r="R6" s="140">
+        <v>24.5</v>
+      </c>
+      <c r="S6" s="85">
+        <v>0.1</v>
+      </c>
+      <c r="T6" s="140">
+        <v>48.88</v>
+      </c>
+      <c r="U6" s="140">
+        <v>563.38</v>
+      </c>
+      <c r="V6" s="140">
         <v>0</v>
       </c>
     </row>
@@ -34507,7 +35012,7 @@
   <sheetPr codeName="mwshFAC_Détails">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -34853,6 +35358,57 @@
       </c>
       <c r="F25" s="1" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="85" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F26" s="85" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="85" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>989</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F27" s="85" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="85" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D28" s="85" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E28" s="85" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F28" s="85" t="s">
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB993765-02F3-472F-8D37-CCFBF346FE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA0757C-F555-4124-82AA-68E63682E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEB_Recurrent" sheetId="12" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5703" uniqueCount="1142">
   <si>
     <t>TEC_ID</t>
   </si>
@@ -3490,12 +3490,6 @@
     <t>*** - [Sommaire des TEC] pour la facture - GC</t>
   </si>
   <si>
-    <t>2,25</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
     <t>24-24481</t>
   </si>
   <si>
@@ -3533,6 +3527,54 @@
   </si>
   <si>
     <t>9112-9031 Québec inc</t>
+  </si>
+  <si>
+    <t>Entrées des informations des clients</t>
+  </si>
+  <si>
+    <t>Analyse et test de la procédure de classement des clients</t>
+  </si>
+  <si>
+    <t>Conversion DTmax vs Taxprep</t>
+  </si>
+  <si>
+    <t>Racine Petits Fruits 2014 Inc. [Annie Perrier / Daniel Racine]</t>
+  </si>
+  <si>
+    <t>courriel avec annie sur coût de vie</t>
+  </si>
+  <si>
+    <t>analyse de recherche fiscale pour succesion vs 104(18)</t>
+  </si>
+  <si>
+    <t>Facture de Stéphane Mongeau à venir</t>
+  </si>
+  <si>
+    <t>Mise à jour des fiches clients</t>
+  </si>
+  <si>
+    <t>Librairie Lu-Lu Inc. [Céline Camirand]</t>
+  </si>
+  <si>
+    <t>divers échanges avec Marie-Claude et modification memo suite à ses questionnements + fixer rv</t>
+  </si>
+  <si>
+    <t>courriel avec BDC pour financement</t>
+  </si>
+  <si>
+    <t>Entrées des dossiers clients au nouveau logiciel. Début 11h30 et terminé à 17h30 moins 3/4 heure de diner. Il y a eu perte de temps entre le temps estimé par Robert pour recevoir les fichiers et l'heure ou les fichiers ont été reçus et installés.</t>
+  </si>
+  <si>
+    <t>Discussion avec Johanne Boutin pour l'obtention des données pour produire le rapport de gestion d'août 2024.</t>
+  </si>
+  <si>
+    <t>révision de la documentation légale sur vente de services financiers et nouvelle version de contrat de vente</t>
+  </si>
+  <si>
+    <t>modif memo avec infos sur transferts de placements et resoumettre aux juristes</t>
+  </si>
+  <si>
+    <t>répondre questions des comptables de l'acheteur</t>
   </si>
 </sst>
 </file>
@@ -5198,8 +5240,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P507" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
-  <autoFilter ref="A1:P507" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P520" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="A1:P520" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="VG"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="24-24481"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{442BE8B7-5CE4-48D7-A603-B8BD91CF4F12}" name="TEC_ID" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{AF8BE6CE-0BCF-4480-8A4A-B19F36ABFC85}" name="Prof_ID" dataDxfId="27"/>
@@ -5910,8 +5963,8 @@
   <sheetPr codeName="mwshFAC_Sommaire_Taux"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5934,39 +5987,49 @@
       <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="A2" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="139">
+        <v>2.25</v>
+      </c>
+      <c r="E2" s="4">
+        <v>350</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B3" s="84" t="s">
+      <c r="A3" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="84" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>1114</v>
+      <c r="D3" s="139">
+        <v>16.5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:E9999">
+  <conditionalFormatting sqref="A2:E9997">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
@@ -6029,13 +6092,13 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D58006-DE1D-488F-9BB7-8096C5818030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{E0D58006-DE1D-488F-9BB7-8096C5818030}">
   <sheetPr codeName="mwshGL_Trans">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0" rightToLeft="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G40" sqref="G40"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD36"/>
@@ -6056,7 +6119,7 @@
     <col min="11" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" s="52" t="s">
         <v>58</v>
       </c>
@@ -6088,7 +6151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="2">
       <c r="A2" s="66">
         <v>1</v>
       </c>
@@ -6116,7 +6179,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="3">
       <c r="A3" s="66">
         <v>1</v>
       </c>
@@ -6144,7 +6207,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="4">
       <c r="A4" s="66">
         <v>1</v>
       </c>
@@ -6172,7 +6235,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="5">
       <c r="A5" s="66">
         <v>1</v>
       </c>
@@ -6200,7 +6263,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="6">
       <c r="A6" s="66">
         <v>1</v>
       </c>
@@ -6228,7 +6291,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="7">
       <c r="A7" s="66">
         <v>1</v>
       </c>
@@ -6256,7 +6319,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="8">
       <c r="A8" s="66">
         <v>1</v>
       </c>
@@ -6284,7 +6347,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="9">
       <c r="A9" s="66">
         <v>1</v>
       </c>
@@ -6312,7 +6375,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="10">
       <c r="A10" s="66">
         <v>1</v>
       </c>
@@ -6340,7 +6403,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="11">
       <c r="A11" s="66">
         <v>1</v>
       </c>
@@ -6368,7 +6431,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="12">
       <c r="A12" s="66">
         <v>1</v>
       </c>
@@ -6396,7 +6459,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="13">
       <c r="A13" s="66">
         <v>1</v>
       </c>
@@ -6424,7 +6487,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="14">
       <c r="A14" s="66">
         <v>1</v>
       </c>
@@ -6452,7 +6515,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="15">
       <c r="A15" s="66">
         <v>1</v>
       </c>
@@ -6480,7 +6543,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="16">
       <c r="A16" s="66">
         <v>1</v>
       </c>
@@ -6508,7 +6571,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="17">
       <c r="A17" s="66">
         <v>1</v>
       </c>
@@ -6529,14 +6592,14 @@
       </c>
       <c r="G17" s="105"/>
       <c r="H17" s="105">
-        <v>1217.3699999999999</v>
+        <v>1217.37</v>
       </c>
       <c r="I17" s="104"/>
       <c r="J17" s="65" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="18">
       <c r="A18" s="66">
         <v>1</v>
       </c>
@@ -6564,7 +6627,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="19">
       <c r="A19" s="66">
         <v>1</v>
       </c>
@@ -6592,7 +6655,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="20">
       <c r="A20" s="66">
         <v>1</v>
       </c>
@@ -6620,7 +6683,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="21">
       <c r="A21" s="66">
         <v>2</v>
       </c>
@@ -6648,7 +6711,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="22">
       <c r="A22" s="66">
         <v>2</v>
       </c>
@@ -6676,7 +6739,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="23">
       <c r="A23" s="66">
         <v>2</v>
       </c>
@@ -6704,7 +6767,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="24">
       <c r="A24" s="66">
         <v>2</v>
       </c>
@@ -6732,7 +6795,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="25">
       <c r="A25" s="66">
         <v>3</v>
       </c>
@@ -6760,7 +6823,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="26">
       <c r="A26" s="66">
         <v>3</v>
       </c>
@@ -6788,7 +6851,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="27">
       <c r="A27" s="66">
         <v>3</v>
       </c>
@@ -6816,7 +6879,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="28">
       <c r="A28" s="66">
         <v>3</v>
       </c>
@@ -6844,7 +6907,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="29">
       <c r="A29" s="66">
         <v>4</v>
       </c>
@@ -6872,7 +6935,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="30">
       <c r="A30" s="66">
         <v>4</v>
       </c>
@@ -6900,7 +6963,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="31">
       <c r="A31" s="66">
         <v>4</v>
       </c>
@@ -6928,7 +6991,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="32">
       <c r="A32" s="66">
         <v>4</v>
       </c>
@@ -6956,7 +7019,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="33">
       <c r="A33" s="66">
         <v>5</v>
       </c>
@@ -6984,7 +7047,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="34">
       <c r="A34" s="66">
         <v>5</v>
       </c>
@@ -7012,7 +7075,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="35">
       <c r="A35" s="66">
         <v>5</v>
       </c>
@@ -7040,7 +7103,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row spans="1:10" s="64" customFormat="1" ht="12.75" x14ac:dyDescent="0.2" outlineLevel="0" r="36">
       <c r="A36" s="66">
         <v>5</v>
       </c>
@@ -7061,11 +7124,443 @@
       </c>
       <c r="G36" s="105"/>
       <c r="H36" s="105">
-        <v>259.35000000000002</v>
+        <v>259.35</v>
       </c>
       <c r="I36" s="104"/>
       <c r="J36" s="65" t="s">
         <v>1053</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="148">
+        <v>6</v>
+      </c>
+      <c r="B37" s="102">
+        <v>45513</v>
+      </c>
+      <c r="C37" s="148" t="inlineStr">
+        <is>
+          <t>Vignoble Kobloth et Fils Inc</t>
+        </is>
+      </c>
+      <c r="D37" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24479</t>
+        </is>
+      </c>
+      <c r="E37" s="148" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="F37" s="148" t="inlineStr">
+        <is>
+          <t>Comptes clients</t>
+        </is>
+      </c>
+      <c r="G37" s="148">
+        <v>563.38</v>
+      </c>
+      <c r="J37" s="148" t="inlineStr">
+        <is>
+          <t>20/08/2024 21:43:18</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="148">
+        <v>6</v>
+      </c>
+      <c r="B38" s="102">
+        <v>45513</v>
+      </c>
+      <c r="C38" s="148" t="inlineStr">
+        <is>
+          <t>Vignoble Kobloth et Fils Inc</t>
+        </is>
+      </c>
+      <c r="D38" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24479</t>
+        </is>
+      </c>
+      <c r="E38" s="148" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="F38" s="148" t="inlineStr">
+        <is>
+          <t>Revenus de consultation</t>
+        </is>
+      </c>
+      <c r="H38" s="148">
+        <v>490</v>
+      </c>
+      <c r="J38" s="148" t="inlineStr">
+        <is>
+          <t>20/08/2024 21:43:18</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="148">
+        <v>6</v>
+      </c>
+      <c r="B39" s="102">
+        <v>45513</v>
+      </c>
+      <c r="C39" s="148" t="inlineStr">
+        <is>
+          <t>Vignoble Kobloth et Fils Inc</t>
+        </is>
+      </c>
+      <c r="D39" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24479</t>
+        </is>
+      </c>
+      <c r="E39" s="148" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="F39" s="148" t="inlineStr">
+        <is>
+          <t>TPS percues</t>
+        </is>
+      </c>
+      <c r="H39" s="148">
+        <v>24.5</v>
+      </c>
+      <c r="J39" s="148" t="inlineStr">
+        <is>
+          <t>20/08/2024 21:43:18</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="148">
+        <v>6</v>
+      </c>
+      <c r="B40" s="102">
+        <v>45513</v>
+      </c>
+      <c r="C40" s="148" t="inlineStr">
+        <is>
+          <t>Vignoble Kobloth et Fils Inc</t>
+        </is>
+      </c>
+      <c r="D40" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24479</t>
+        </is>
+      </c>
+      <c r="E40" s="148" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="F40" s="148" t="inlineStr">
+        <is>
+          <t>TVQ percues</t>
+        </is>
+      </c>
+      <c r="H40" s="148">
+        <v>48.88</v>
+      </c>
+      <c r="J40" s="148" t="inlineStr">
+        <is>
+          <t>20/08/2024 21:43:18</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="148">
+        <v>7</v>
+      </c>
+      <c r="B41" s="102">
+        <v>45524</v>
+      </c>
+      <c r="C41" s="148" t="inlineStr">
+        <is>
+          <t>AN-AU CONSTRUCTION INC.</t>
+        </is>
+      </c>
+      <c r="D41" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24481</t>
+        </is>
+      </c>
+      <c r="E41" s="148" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="F41" s="148" t="inlineStr">
+        <is>
+          <t>Comptes clients</t>
+        </is>
+      </c>
+      <c r="G41" s="148">
+        <v>6639.81</v>
+      </c>
+      <c r="J41" s="148" t="inlineStr">
+        <is>
+          <t>21/08/2024 05:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="148">
+        <v>7</v>
+      </c>
+      <c r="B42" s="102">
+        <v>45524</v>
+      </c>
+      <c r="C42" s="148" t="inlineStr">
+        <is>
+          <t>AN-AU CONSTRUCTION INC.</t>
+        </is>
+      </c>
+      <c r="D42" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24481</t>
+        </is>
+      </c>
+      <c r="E42" s="148" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="F42" s="148" t="inlineStr">
+        <is>
+          <t>Revenus de consultation</t>
+        </is>
+      </c>
+      <c r="H42" s="148">
+        <v>5775</v>
+      </c>
+      <c r="J42" s="148" t="inlineStr">
+        <is>
+          <t>21/08/2024 05:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="148">
+        <v>7</v>
+      </c>
+      <c r="B43" s="102">
+        <v>45524</v>
+      </c>
+      <c r="C43" s="148" t="inlineStr">
+        <is>
+          <t>AN-AU CONSTRUCTION INC.</t>
+        </is>
+      </c>
+      <c r="D43" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24481</t>
+        </is>
+      </c>
+      <c r="E43" s="148" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="F43" s="148" t="inlineStr">
+        <is>
+          <t>TPS percues</t>
+        </is>
+      </c>
+      <c r="H43" s="148">
+        <v>288.75</v>
+      </c>
+      <c r="J43" s="148" t="inlineStr">
+        <is>
+          <t>21/08/2024 05:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="148">
+        <v>7</v>
+      </c>
+      <c r="B44" s="102">
+        <v>45524</v>
+      </c>
+      <c r="C44" s="148" t="inlineStr">
+        <is>
+          <t>AN-AU CONSTRUCTION INC.</t>
+        </is>
+      </c>
+      <c r="D44" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24481</t>
+        </is>
+      </c>
+      <c r="E44" s="148" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="F44" s="148" t="inlineStr">
+        <is>
+          <t>TVQ percues</t>
+        </is>
+      </c>
+      <c r="H44" s="148">
+        <v>576.06</v>
+      </c>
+      <c r="J44" s="148" t="inlineStr">
+        <is>
+          <t>21/08/2024 05:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="148">
+        <v>8</v>
+      </c>
+      <c r="B45" s="102">
+        <v>45524</v>
+      </c>
+      <c r="C45" s="148" t="inlineStr">
+        <is>
+          <t>Aménagement Extérieur Synthek Québec Inc</t>
+        </is>
+      </c>
+      <c r="D45" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24480</t>
+        </is>
+      </c>
+      <c r="E45" s="148" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="F45" s="148" t="inlineStr">
+        <is>
+          <t>Comptes clients</t>
+        </is>
+      </c>
+      <c r="G45" s="148">
+        <v>905.43</v>
+      </c>
+      <c r="J45" s="148" t="inlineStr">
+        <is>
+          <t>21/08/2024 05:04:31</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="148">
+        <v>8</v>
+      </c>
+      <c r="B46" s="102">
+        <v>45524</v>
+      </c>
+      <c r="C46" s="148" t="inlineStr">
+        <is>
+          <t>Aménagement Extérieur Synthek Québec Inc</t>
+        </is>
+      </c>
+      <c r="D46" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24480</t>
+        </is>
+      </c>
+      <c r="E46" s="148" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="F46" s="148" t="inlineStr">
+        <is>
+          <t>Revenus de consultation</t>
+        </is>
+      </c>
+      <c r="H46" s="148">
+        <v>787.5</v>
+      </c>
+      <c r="J46" s="148" t="inlineStr">
+        <is>
+          <t>21/08/2024 05:04:31</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="148">
+        <v>8</v>
+      </c>
+      <c r="B47" s="102">
+        <v>45524</v>
+      </c>
+      <c r="C47" s="148" t="inlineStr">
+        <is>
+          <t>Aménagement Extérieur Synthek Québec Inc</t>
+        </is>
+      </c>
+      <c r="D47" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24480</t>
+        </is>
+      </c>
+      <c r="E47" s="148" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="F47" s="148" t="inlineStr">
+        <is>
+          <t>TPS percues</t>
+        </is>
+      </c>
+      <c r="H47" s="148">
+        <v>39.38</v>
+      </c>
+      <c r="J47" s="148" t="inlineStr">
+        <is>
+          <t>21/08/2024 05:04:31</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="148">
+        <v>8</v>
+      </c>
+      <c r="B48" s="102">
+        <v>45524</v>
+      </c>
+      <c r="C48" s="148" t="inlineStr">
+        <is>
+          <t>Aménagement Extérieur Synthek Québec Inc</t>
+        </is>
+      </c>
+      <c r="D48" s="148" t="inlineStr">
+        <is>
+          <t>Fact:24-24480</t>
+        </is>
+      </c>
+      <c r="E48" s="148" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="F48" s="148" t="inlineStr">
+        <is>
+          <t>TVQ percues</t>
+        </is>
+      </c>
+      <c r="H48" s="148">
+        <v>78.55</v>
+      </c>
+      <c r="J48" s="148" t="inlineStr">
+        <is>
+          <t>21/08/2024 05:04:31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -7089,12 +7584,12 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="mwshTEC_Local"/>
-  <dimension ref="A1:P507"/>
+  <dimension ref="A1:P520"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="495" activePane="bottomLeft"/>
       <selection activeCell="M1" sqref="M1:M1048576"/>
-      <selection pane="bottomLeft" activeCell="M501" sqref="M501"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70:H501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7167,7 +7662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93">
         <v>1</v>
       </c>
@@ -7215,7 +7710,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93">
         <v>2</v>
       </c>
@@ -7259,7 +7754,7 @@
       </c>
       <c r="P3" s="123"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93">
         <v>3</v>
       </c>
@@ -7307,7 +7802,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="93">
         <v>4</v>
       </c>
@@ -7351,7 +7846,7 @@
       </c>
       <c r="P5" s="123"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="93">
         <v>5</v>
       </c>
@@ -7395,7 +7890,7 @@
       </c>
       <c r="P6" s="123"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93">
         <v>6</v>
       </c>
@@ -7439,7 +7934,7 @@
       </c>
       <c r="P7" s="123"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="93">
         <v>7</v>
       </c>
@@ -7487,7 +7982,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93">
         <v>8</v>
       </c>
@@ -7535,7 +8030,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93">
         <v>9</v>
       </c>
@@ -7583,7 +8078,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93">
         <v>10</v>
       </c>
@@ -7631,7 +8126,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93">
         <v>11</v>
       </c>
@@ -7679,7 +8174,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93">
         <v>12</v>
       </c>
@@ -7723,7 +8218,7 @@
       </c>
       <c r="P13" s="123"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93">
         <v>13</v>
       </c>
@@ -7771,7 +8266,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93">
         <v>14</v>
       </c>
@@ -7815,7 +8310,7 @@
       </c>
       <c r="P15" s="123"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93">
         <v>15</v>
       </c>
@@ -7863,7 +8358,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93">
         <v>16</v>
       </c>
@@ -7907,7 +8402,7 @@
       </c>
       <c r="P17" s="123"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93">
         <v>17</v>
       </c>
@@ -7951,7 +8446,7 @@
       </c>
       <c r="P18" s="123"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93">
         <v>18</v>
       </c>
@@ -7995,7 +8490,7 @@
       </c>
       <c r="P19" s="123"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93">
         <v>19</v>
       </c>
@@ -8039,7 +8534,7 @@
       </c>
       <c r="P20" s="123"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93">
         <v>20</v>
       </c>
@@ -8087,7 +8582,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93">
         <v>21</v>
       </c>
@@ -8131,7 +8626,7 @@
       </c>
       <c r="P22" s="123"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93">
         <v>22</v>
       </c>
@@ -8179,7 +8674,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93">
         <v>23</v>
       </c>
@@ -8223,7 +8718,7 @@
       </c>
       <c r="P24" s="123"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93">
         <v>24</v>
       </c>
@@ -8271,7 +8766,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93">
         <v>25</v>
       </c>
@@ -8319,7 +8814,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93">
         <v>26</v>
       </c>
@@ -8363,7 +8858,7 @@
       </c>
       <c r="P27" s="123"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93">
         <v>27</v>
       </c>
@@ -8411,7 +8906,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93">
         <v>28</v>
       </c>
@@ -8459,7 +8954,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93">
         <v>29</v>
       </c>
@@ -8507,7 +9002,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93">
         <v>30</v>
       </c>
@@ -8551,7 +9046,7 @@
       </c>
       <c r="P31" s="123"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93">
         <v>31</v>
       </c>
@@ -8599,7 +9094,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93">
         <v>32</v>
       </c>
@@ -8647,7 +9142,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93">
         <v>33</v>
       </c>
@@ -8691,7 +9186,7 @@
       </c>
       <c r="P34" s="123"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93">
         <v>34</v>
       </c>
@@ -8739,7 +9234,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93">
         <v>35</v>
       </c>
@@ -8783,7 +9278,7 @@
       </c>
       <c r="P36" s="123"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93">
         <v>36</v>
       </c>
@@ -8827,7 +9322,7 @@
       </c>
       <c r="P37" s="123"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="93">
         <v>37</v>
       </c>
@@ -8871,7 +9366,7 @@
       </c>
       <c r="P38" s="123"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="93">
         <v>38</v>
       </c>
@@ -8919,7 +9414,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93">
         <v>39</v>
       </c>
@@ -8963,7 +9458,7 @@
       </c>
       <c r="P40" s="123"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93">
         <v>40</v>
       </c>
@@ -9007,7 +9502,7 @@
       </c>
       <c r="P41" s="123"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93">
         <v>41</v>
       </c>
@@ -9051,7 +9546,7 @@
       </c>
       <c r="P42" s="123"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93">
         <v>42</v>
       </c>
@@ -9095,7 +9590,7 @@
       </c>
       <c r="P43" s="123"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93">
         <v>43</v>
       </c>
@@ -9139,7 +9634,7 @@
       </c>
       <c r="P44" s="123"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93">
         <v>44</v>
       </c>
@@ -9183,7 +9678,7 @@
       </c>
       <c r="P45" s="123"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93">
         <v>45</v>
       </c>
@@ -9227,7 +9722,7 @@
       </c>
       <c r="P46" s="123"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93">
         <v>46</v>
       </c>
@@ -9271,7 +9766,7 @@
       </c>
       <c r="P47" s="123"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93">
         <v>47</v>
       </c>
@@ -9315,7 +9810,7 @@
       </c>
       <c r="P48" s="123"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93">
         <v>48</v>
       </c>
@@ -9359,7 +9854,7 @@
       </c>
       <c r="P49" s="123"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93">
         <v>49</v>
       </c>
@@ -9403,7 +9898,7 @@
       </c>
       <c r="P50" s="123"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93">
         <v>50</v>
       </c>
@@ -9447,7 +9942,7 @@
       </c>
       <c r="P51" s="123"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93">
         <v>51</v>
       </c>
@@ -9491,7 +9986,7 @@
       </c>
       <c r="P52" s="123"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93">
         <v>52</v>
       </c>
@@ -9535,7 +10030,7 @@
       </c>
       <c r="P53" s="123"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93">
         <v>53</v>
       </c>
@@ -9579,7 +10074,7 @@
       </c>
       <c r="P54" s="123"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93">
         <v>54</v>
       </c>
@@ -9623,7 +10118,7 @@
       </c>
       <c r="P55" s="123"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93">
         <v>55</v>
       </c>
@@ -9667,7 +10162,7 @@
       </c>
       <c r="P56" s="123"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93">
         <v>56</v>
       </c>
@@ -9711,7 +10206,7 @@
       </c>
       <c r="P57" s="123"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93">
         <v>57</v>
       </c>
@@ -9755,7 +10250,7 @@
       </c>
       <c r="P58" s="123"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93">
         <v>58</v>
       </c>
@@ -9799,7 +10294,7 @@
       </c>
       <c r="P59" s="123"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93">
         <v>59</v>
       </c>
@@ -9843,7 +10338,7 @@
       </c>
       <c r="P60" s="123"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93">
         <v>60</v>
       </c>
@@ -9887,7 +10382,7 @@
       </c>
       <c r="P61" s="123"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93">
         <v>61</v>
       </c>
@@ -9931,7 +10426,7 @@
       </c>
       <c r="P62" s="123"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93">
         <v>62</v>
       </c>
@@ -9975,7 +10470,7 @@
       </c>
       <c r="P63" s="123"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93">
         <v>63</v>
       </c>
@@ -10019,7 +10514,7 @@
       </c>
       <c r="P64" s="123"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93">
         <v>64</v>
       </c>
@@ -10063,7 +10558,7 @@
       </c>
       <c r="P65" s="123"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93">
         <v>65</v>
       </c>
@@ -10107,7 +10602,7 @@
       </c>
       <c r="P66" s="123"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93">
         <v>66</v>
       </c>
@@ -10151,7 +10646,7 @@
       </c>
       <c r="P67" s="123"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93">
         <v>67</v>
       </c>
@@ -10195,7 +10690,7 @@
       </c>
       <c r="P68" s="123"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93">
         <v>68</v>
       </c>
@@ -10239,7 +10734,7 @@
       </c>
       <c r="P69" s="123"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93">
         <v>69</v>
       </c>
@@ -10284,10 +10779,10 @@
         <v>1038</v>
       </c>
       <c r="P70" s="123" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93">
         <v>70</v>
       </c>
@@ -10331,7 +10826,7 @@
       </c>
       <c r="P71" s="123"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93">
         <v>71</v>
       </c>
@@ -10375,7 +10870,7 @@
       </c>
       <c r="P72" s="123"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93">
         <v>72</v>
       </c>
@@ -10419,7 +10914,7 @@
       </c>
       <c r="P73" s="123"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93">
         <v>73</v>
       </c>
@@ -10463,7 +10958,7 @@
       </c>
       <c r="P74" s="123"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93">
         <v>74</v>
       </c>
@@ -10507,7 +11002,7 @@
       </c>
       <c r="P75" s="123"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93">
         <v>75</v>
       </c>
@@ -10551,7 +11046,7 @@
       </c>
       <c r="P76" s="123"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93">
         <v>76</v>
       </c>
@@ -10595,7 +11090,7 @@
       </c>
       <c r="P77" s="123"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93">
         <v>77</v>
       </c>
@@ -10639,7 +11134,7 @@
       </c>
       <c r="P78" s="123"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="93">
         <v>78</v>
       </c>
@@ -10683,7 +11178,7 @@
       </c>
       <c r="P79" s="123"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="93">
         <v>79</v>
       </c>
@@ -10727,7 +11222,7 @@
       </c>
       <c r="P80" s="123"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93">
         <v>80</v>
       </c>
@@ -10771,7 +11266,7 @@
       </c>
       <c r="P81" s="123"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93">
         <v>81</v>
       </c>
@@ -10815,7 +11310,7 @@
       </c>
       <c r="P82" s="123"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93">
         <v>82</v>
       </c>
@@ -10859,7 +11354,7 @@
       </c>
       <c r="P83" s="123"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93">
         <v>83</v>
       </c>
@@ -10903,7 +11398,7 @@
       </c>
       <c r="P84" s="123"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93">
         <v>84</v>
       </c>
@@ -10947,7 +11442,7 @@
       </c>
       <c r="P85" s="123"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="93">
         <v>85</v>
       </c>
@@ -10991,7 +11486,7 @@
       </c>
       <c r="P86" s="123"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93">
         <v>86</v>
       </c>
@@ -11035,7 +11530,7 @@
       </c>
       <c r="P87" s="123"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93">
         <v>87</v>
       </c>
@@ -11079,7 +11574,7 @@
       </c>
       <c r="P88" s="123"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93">
         <v>88</v>
       </c>
@@ -11123,7 +11618,7 @@
       </c>
       <c r="P89" s="123"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93">
         <v>89</v>
       </c>
@@ -11167,7 +11662,7 @@
       </c>
       <c r="P90" s="123"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93">
         <v>90</v>
       </c>
@@ -11211,7 +11706,7 @@
       </c>
       <c r="P91" s="123"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93">
         <v>91</v>
       </c>
@@ -11255,7 +11750,7 @@
       </c>
       <c r="P92" s="123"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93">
         <v>92</v>
       </c>
@@ -11299,7 +11794,7 @@
       </c>
       <c r="P93" s="123"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93">
         <v>93</v>
       </c>
@@ -11343,7 +11838,7 @@
       </c>
       <c r="P94" s="123"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="93">
         <v>94</v>
       </c>
@@ -11387,7 +11882,7 @@
       </c>
       <c r="P95" s="123"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93">
         <v>95</v>
       </c>
@@ -11431,7 +11926,7 @@
       </c>
       <c r="P96" s="123"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93">
         <v>96</v>
       </c>
@@ -11475,7 +11970,7 @@
       </c>
       <c r="P97" s="123"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93">
         <v>97</v>
       </c>
@@ -11519,7 +12014,7 @@
       </c>
       <c r="P98" s="123"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93">
         <v>98</v>
       </c>
@@ -11563,7 +12058,7 @@
       </c>
       <c r="P99" s="123"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93">
         <v>99</v>
       </c>
@@ -11607,7 +12102,7 @@
       </c>
       <c r="P100" s="123"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93">
         <v>100</v>
       </c>
@@ -11651,7 +12146,7 @@
       </c>
       <c r="P101" s="123"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93">
         <v>101</v>
       </c>
@@ -11695,7 +12190,7 @@
       </c>
       <c r="P102" s="123"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93">
         <v>102</v>
       </c>
@@ -11739,7 +12234,7 @@
       </c>
       <c r="P103" s="123"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93">
         <v>103</v>
       </c>
@@ -11783,7 +12278,7 @@
       </c>
       <c r="P104" s="123"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93">
         <v>104</v>
       </c>
@@ -11827,7 +12322,7 @@
       </c>
       <c r="P105" s="123"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93">
         <v>105</v>
       </c>
@@ -11871,7 +12366,7 @@
       </c>
       <c r="P106" s="123"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93">
         <v>106</v>
       </c>
@@ -11915,7 +12410,7 @@
       </c>
       <c r="P107" s="123"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93">
         <v>107</v>
       </c>
@@ -11959,7 +12454,7 @@
       </c>
       <c r="P108" s="123"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93">
         <v>108</v>
       </c>
@@ -12003,7 +12498,7 @@
       </c>
       <c r="P109" s="123"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93">
         <v>109</v>
       </c>
@@ -12048,10 +12543,10 @@
         <v>1038</v>
       </c>
       <c r="P110" s="123" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93">
         <v>110</v>
       </c>
@@ -12095,7 +12590,7 @@
       </c>
       <c r="P111" s="123"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93">
         <v>111</v>
       </c>
@@ -12139,7 +12634,7 @@
       </c>
       <c r="P112" s="123"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93">
         <v>112</v>
       </c>
@@ -12183,7 +12678,7 @@
       </c>
       <c r="P113" s="123"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93">
         <v>113</v>
       </c>
@@ -12227,7 +12722,7 @@
       </c>
       <c r="P114" s="123"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="93">
         <v>114</v>
       </c>
@@ -12271,7 +12766,7 @@
       </c>
       <c r="P115" s="123"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93">
         <v>115</v>
       </c>
@@ -12315,7 +12810,7 @@
       </c>
       <c r="P116" s="123"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93">
         <v>116</v>
       </c>
@@ -12359,7 +12854,7 @@
       </c>
       <c r="P117" s="123"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93">
         <v>117</v>
       </c>
@@ -12403,7 +12898,7 @@
       </c>
       <c r="P118" s="123"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93">
         <v>118</v>
       </c>
@@ -12447,7 +12942,7 @@
       </c>
       <c r="P119" s="123"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93">
         <v>119</v>
       </c>
@@ -12491,7 +12986,7 @@
       </c>
       <c r="P120" s="123"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93">
         <v>120</v>
       </c>
@@ -12535,7 +13030,7 @@
       </c>
       <c r="P121" s="123"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93">
         <v>121</v>
       </c>
@@ -12579,7 +13074,7 @@
       </c>
       <c r="P122" s="123"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93">
         <v>122</v>
       </c>
@@ -12623,7 +13118,7 @@
       </c>
       <c r="P123" s="123"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93">
         <v>123</v>
       </c>
@@ -12667,7 +13162,7 @@
       </c>
       <c r="P124" s="123"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93">
         <v>124</v>
       </c>
@@ -12711,7 +13206,7 @@
       </c>
       <c r="P125" s="123"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93">
         <v>125</v>
       </c>
@@ -12755,7 +13250,7 @@
       </c>
       <c r="P126" s="123"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93">
         <v>126</v>
       </c>
@@ -12799,7 +13294,7 @@
       </c>
       <c r="P127" s="123"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93">
         <v>127</v>
       </c>
@@ -12843,7 +13338,7 @@
       </c>
       <c r="P128" s="123"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93">
         <v>128</v>
       </c>
@@ -12887,7 +13382,7 @@
       </c>
       <c r="P129" s="123"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93">
         <v>129</v>
       </c>
@@ -12931,7 +13426,7 @@
       </c>
       <c r="P130" s="123"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93">
         <v>130</v>
       </c>
@@ -12975,7 +13470,7 @@
       </c>
       <c r="P131" s="123"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93">
         <v>131</v>
       </c>
@@ -13019,7 +13514,7 @@
       </c>
       <c r="P132" s="123"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93">
         <v>132</v>
       </c>
@@ -13063,7 +13558,7 @@
       </c>
       <c r="P133" s="123"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93">
         <v>133</v>
       </c>
@@ -13107,7 +13602,7 @@
       </c>
       <c r="P134" s="123"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93">
         <v>134</v>
       </c>
@@ -13151,7 +13646,7 @@
       </c>
       <c r="P135" s="123"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93">
         <v>135</v>
       </c>
@@ -13195,7 +13690,7 @@
       </c>
       <c r="P136" s="123"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93">
         <v>136</v>
       </c>
@@ -13239,7 +13734,7 @@
       </c>
       <c r="P137" s="123"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93">
         <v>137</v>
       </c>
@@ -13283,7 +13778,7 @@
       </c>
       <c r="P138" s="123"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93">
         <v>138</v>
       </c>
@@ -13327,7 +13822,7 @@
       </c>
       <c r="P139" s="123"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93">
         <v>139</v>
       </c>
@@ -13371,7 +13866,7 @@
       </c>
       <c r="P140" s="123"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93">
         <v>140</v>
       </c>
@@ -13415,7 +13910,7 @@
       </c>
       <c r="P141" s="123"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93">
         <v>141</v>
       </c>
@@ -13459,7 +13954,7 @@
       </c>
       <c r="P142" s="123"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93">
         <v>142</v>
       </c>
@@ -13503,7 +13998,7 @@
       </c>
       <c r="P143" s="123"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93">
         <v>143</v>
       </c>
@@ -13547,7 +14042,7 @@
       </c>
       <c r="P144" s="123"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93">
         <v>144</v>
       </c>
@@ -13591,7 +14086,7 @@
       </c>
       <c r="P145" s="123"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93">
         <v>145</v>
       </c>
@@ -13635,7 +14130,7 @@
       </c>
       <c r="P146" s="123"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93">
         <v>146</v>
       </c>
@@ -13679,7 +14174,7 @@
       </c>
       <c r="P147" s="123"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93">
         <v>147</v>
       </c>
@@ -13723,7 +14218,7 @@
       </c>
       <c r="P148" s="123"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93">
         <v>148</v>
       </c>
@@ -13767,7 +14262,7 @@
       </c>
       <c r="P149" s="123"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93">
         <v>149</v>
       </c>
@@ -13811,7 +14306,7 @@
       </c>
       <c r="P150" s="123"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93">
         <v>150</v>
       </c>
@@ -13855,7 +14350,7 @@
       </c>
       <c r="P151" s="123"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93">
         <v>151</v>
       </c>
@@ -13899,7 +14394,7 @@
       </c>
       <c r="P152" s="123"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93">
         <v>152</v>
       </c>
@@ -13943,7 +14438,7 @@
       </c>
       <c r="P153" s="123"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93">
         <v>153</v>
       </c>
@@ -13987,7 +14482,7 @@
       </c>
       <c r="P154" s="123"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93">
         <v>154</v>
       </c>
@@ -14031,7 +14526,7 @@
       </c>
       <c r="P155" s="123"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93">
         <v>155</v>
       </c>
@@ -14075,7 +14570,7 @@
       </c>
       <c r="P156" s="123"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93">
         <v>156</v>
       </c>
@@ -14119,7 +14614,7 @@
       </c>
       <c r="P157" s="123"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93">
         <v>157</v>
       </c>
@@ -14163,7 +14658,7 @@
       </c>
       <c r="P158" s="123"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="93">
         <v>158</v>
       </c>
@@ -14207,7 +14702,7 @@
       </c>
       <c r="P159" s="123"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="93">
         <v>159</v>
       </c>
@@ -14251,7 +14746,7 @@
       </c>
       <c r="P160" s="123"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93">
         <v>160</v>
       </c>
@@ -14295,7 +14790,7 @@
       </c>
       <c r="P161" s="123"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93">
         <v>161</v>
       </c>
@@ -14339,7 +14834,7 @@
       </c>
       <c r="P162" s="123"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93">
         <v>162</v>
       </c>
@@ -14383,7 +14878,7 @@
       </c>
       <c r="P163" s="123"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="93">
         <v>163</v>
       </c>
@@ -14428,10 +14923,10 @@
         <v>1038</v>
       </c>
       <c r="P164" s="123" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="93">
         <v>164</v>
       </c>
@@ -14475,7 +14970,7 @@
       </c>
       <c r="P165" s="123"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="93">
         <v>165</v>
       </c>
@@ -14519,7 +15014,7 @@
       </c>
       <c r="P166" s="123"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="93">
         <v>166</v>
       </c>
@@ -14563,7 +15058,7 @@
       </c>
       <c r="P167" s="123"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="93">
         <v>167</v>
       </c>
@@ -14607,7 +15102,7 @@
       </c>
       <c r="P168" s="123"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="93">
         <v>168</v>
       </c>
@@ -14651,7 +15146,7 @@
       </c>
       <c r="P169" s="123"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="93">
         <v>169</v>
       </c>
@@ -14696,10 +15191,10 @@
         <v>1038</v>
       </c>
       <c r="P170" s="123" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="93">
         <v>170</v>
       </c>
@@ -14743,7 +15238,7 @@
       </c>
       <c r="P171" s="123"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="93">
         <v>171</v>
       </c>
@@ -14787,7 +15282,7 @@
       </c>
       <c r="P172" s="123"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="93">
         <v>172</v>
       </c>
@@ -14832,10 +15327,10 @@
         <v>1038</v>
       </c>
       <c r="P173" s="123" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="93">
         <v>173</v>
       </c>
@@ -14879,7 +15374,7 @@
       </c>
       <c r="P174" s="123"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="93">
         <v>174</v>
       </c>
@@ -14923,7 +15418,7 @@
       </c>
       <c r="P175" s="123"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="93">
         <v>175</v>
       </c>
@@ -14967,7 +15462,7 @@
       </c>
       <c r="P176" s="123"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="93">
         <v>176</v>
       </c>
@@ -15011,7 +15506,7 @@
       </c>
       <c r="P177" s="123"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="93">
         <v>177</v>
       </c>
@@ -15055,7 +15550,7 @@
       </c>
       <c r="P178" s="123"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="93">
         <v>178</v>
       </c>
@@ -15099,7 +15594,7 @@
       </c>
       <c r="P179" s="123"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="93">
         <v>179</v>
       </c>
@@ -15143,7 +15638,7 @@
       </c>
       <c r="P180" s="123"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="93">
         <v>180</v>
       </c>
@@ -15187,7 +15682,7 @@
       </c>
       <c r="P181" s="123"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="93">
         <v>181</v>
       </c>
@@ -15231,7 +15726,7 @@
       </c>
       <c r="P182" s="123"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="93">
         <v>182</v>
       </c>
@@ -15275,7 +15770,7 @@
       </c>
       <c r="P183" s="123"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="93">
         <v>183</v>
       </c>
@@ -15319,7 +15814,7 @@
       </c>
       <c r="P184" s="123"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="93">
         <v>184</v>
       </c>
@@ -15363,7 +15858,7 @@
       </c>
       <c r="P185" s="123"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="93">
         <v>185</v>
       </c>
@@ -15407,7 +15902,7 @@
       </c>
       <c r="P186" s="123"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="93">
         <v>186</v>
       </c>
@@ -15451,7 +15946,7 @@
       </c>
       <c r="P187" s="123"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="93">
         <v>187</v>
       </c>
@@ -15497,7 +15992,7 @@
       </c>
       <c r="P188" s="123"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="93">
         <v>188</v>
       </c>
@@ -15541,7 +16036,7 @@
       </c>
       <c r="P189" s="123"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="93">
         <v>189</v>
       </c>
@@ -15585,7 +16080,7 @@
       </c>
       <c r="P190" s="123"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="93">
         <v>190</v>
       </c>
@@ -15631,7 +16126,7 @@
       </c>
       <c r="P191" s="123"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="93">
         <v>191</v>
       </c>
@@ -15675,7 +16170,7 @@
       </c>
       <c r="P192" s="123"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="93">
         <v>192</v>
       </c>
@@ -15719,7 +16214,7 @@
       </c>
       <c r="P193" s="123"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="93">
         <v>193</v>
       </c>
@@ -15763,7 +16258,7 @@
       </c>
       <c r="P194" s="123"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="93">
         <v>194</v>
       </c>
@@ -15807,7 +16302,7 @@
       </c>
       <c r="P195" s="123"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="93">
         <v>195</v>
       </c>
@@ -15851,7 +16346,7 @@
       </c>
       <c r="P196" s="123"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="93">
         <v>196</v>
       </c>
@@ -15895,7 +16390,7 @@
       </c>
       <c r="P197" s="123"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="93">
         <v>197</v>
       </c>
@@ -15939,7 +16434,7 @@
       </c>
       <c r="P198" s="123"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="93">
         <v>198</v>
       </c>
@@ -15983,7 +16478,7 @@
       </c>
       <c r="P199" s="123"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="93">
         <v>199</v>
       </c>
@@ -16027,7 +16522,7 @@
       </c>
       <c r="P200" s="123"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="93">
         <v>200</v>
       </c>
@@ -16071,7 +16566,7 @@
       </c>
       <c r="P201" s="123"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="93">
         <v>201</v>
       </c>
@@ -16115,7 +16610,7 @@
       </c>
       <c r="P202" s="123"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="93">
         <v>202</v>
       </c>
@@ -16159,7 +16654,7 @@
       </c>
       <c r="P203" s="123"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="93">
         <v>203</v>
       </c>
@@ -16203,7 +16698,7 @@
       </c>
       <c r="P204" s="123"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="93">
         <v>204</v>
       </c>
@@ -16247,7 +16742,7 @@
       </c>
       <c r="P205" s="123"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="93">
         <v>205</v>
       </c>
@@ -16291,7 +16786,7 @@
       </c>
       <c r="P206" s="123"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="93">
         <v>206</v>
       </c>
@@ -16335,7 +16830,7 @@
       </c>
       <c r="P207" s="123"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="93">
         <v>207</v>
       </c>
@@ -16379,7 +16874,7 @@
       </c>
       <c r="P208" s="123"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="93">
         <v>208</v>
       </c>
@@ -16423,7 +16918,7 @@
       </c>
       <c r="P209" s="123"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="93">
         <v>209</v>
       </c>
@@ -16467,7 +16962,7 @@
       </c>
       <c r="P210" s="123"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="93">
         <v>210</v>
       </c>
@@ -16511,7 +17006,7 @@
       </c>
       <c r="P211" s="123"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="93">
         <v>211</v>
       </c>
@@ -16555,7 +17050,7 @@
       </c>
       <c r="P212" s="123"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="93">
         <v>212</v>
       </c>
@@ -16599,7 +17094,7 @@
       </c>
       <c r="P213" s="123"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="93">
         <v>213</v>
       </c>
@@ -16647,7 +17142,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="93">
         <v>214</v>
       </c>
@@ -16691,7 +17186,7 @@
       </c>
       <c r="P215" s="123"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="93">
         <v>215</v>
       </c>
@@ -16735,7 +17230,7 @@
       </c>
       <c r="P216" s="123"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="93">
         <v>216</v>
       </c>
@@ -16779,7 +17274,7 @@
       </c>
       <c r="P217" s="123"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="93">
         <v>217</v>
       </c>
@@ -16823,7 +17318,7 @@
       </c>
       <c r="P218" s="123"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="93">
         <v>218</v>
       </c>
@@ -16867,7 +17362,7 @@
       </c>
       <c r="P219" s="123"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="93">
         <v>219</v>
       </c>
@@ -16911,7 +17406,7 @@
       </c>
       <c r="P220" s="123"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="93">
         <v>220</v>
       </c>
@@ -16955,7 +17450,7 @@
       </c>
       <c r="P221" s="123"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="93">
         <v>221</v>
       </c>
@@ -16999,7 +17494,7 @@
       </c>
       <c r="P222" s="123"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="93">
         <v>222</v>
       </c>
@@ -17043,7 +17538,7 @@
       </c>
       <c r="P223" s="123"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="93">
         <v>223</v>
       </c>
@@ -17087,7 +17582,7 @@
       </c>
       <c r="P224" s="123"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="93">
         <v>224</v>
       </c>
@@ -17131,7 +17626,7 @@
       </c>
       <c r="P225" s="123"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="93">
         <v>225</v>
       </c>
@@ -17175,7 +17670,7 @@
       </c>
       <c r="P226" s="123"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="93">
         <v>226</v>
       </c>
@@ -17219,7 +17714,7 @@
       </c>
       <c r="P227" s="123"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="93">
         <v>227</v>
       </c>
@@ -17263,7 +17758,7 @@
       </c>
       <c r="P228" s="123"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="93">
         <v>228</v>
       </c>
@@ -17307,7 +17802,7 @@
       </c>
       <c r="P229" s="123"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="93">
         <v>229</v>
       </c>
@@ -17351,7 +17846,7 @@
       </c>
       <c r="P230" s="123"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="93">
         <v>230</v>
       </c>
@@ -17395,7 +17890,7 @@
       </c>
       <c r="P231" s="123"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="93">
         <v>231</v>
       </c>
@@ -17439,7 +17934,7 @@
       </c>
       <c r="P232" s="123"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="93">
         <v>232</v>
       </c>
@@ -17483,7 +17978,7 @@
       </c>
       <c r="P233" s="123"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="93">
         <v>233</v>
       </c>
@@ -17527,7 +18022,7 @@
       </c>
       <c r="P234" s="123"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="93">
         <v>234</v>
       </c>
@@ -17616,10 +18111,10 @@
         <v>1038</v>
       </c>
       <c r="P236" s="123" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="93">
         <v>236</v>
       </c>
@@ -17663,7 +18158,7 @@
       </c>
       <c r="P237" s="123"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="93">
         <v>237</v>
       </c>
@@ -17707,7 +18202,7 @@
       </c>
       <c r="P238" s="123"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="93">
         <v>238</v>
       </c>
@@ -17751,7 +18246,7 @@
       </c>
       <c r="P239" s="123"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="93">
         <v>239</v>
       </c>
@@ -17795,7 +18290,7 @@
       </c>
       <c r="P240" s="123"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="93">
         <v>240</v>
       </c>
@@ -17884,10 +18379,10 @@
         <v>1038</v>
       </c>
       <c r="P242" s="123" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="93">
         <v>242</v>
       </c>
@@ -17931,7 +18426,7 @@
       </c>
       <c r="P243" s="123"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="93">
         <v>243</v>
       </c>
@@ -18020,10 +18515,10 @@
         <v>1038</v>
       </c>
       <c r="P245" s="123" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="93">
         <v>245</v>
       </c>
@@ -18067,7 +18562,7 @@
       </c>
       <c r="P246" s="123"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="93">
         <v>246</v>
       </c>
@@ -18111,7 +18606,7 @@
       </c>
       <c r="P247" s="123"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="93">
         <v>247</v>
       </c>
@@ -18155,7 +18650,7 @@
       </c>
       <c r="P248" s="123"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="93">
         <v>248</v>
       </c>
@@ -18199,7 +18694,7 @@
       </c>
       <c r="P249" s="123"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="93">
         <v>249</v>
       </c>
@@ -18243,7 +18738,7 @@
       </c>
       <c r="P250" s="123"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="93">
         <v>250</v>
       </c>
@@ -18287,7 +18782,7 @@
       </c>
       <c r="P251" s="123"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="93">
         <v>251</v>
       </c>
@@ -18331,7 +18826,7 @@
       </c>
       <c r="P252" s="123"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="93">
         <v>252</v>
       </c>
@@ -18375,7 +18870,7 @@
       </c>
       <c r="P253" s="123"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="93">
         <v>253</v>
       </c>
@@ -18419,7 +18914,7 @@
       </c>
       <c r="P254" s="123"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="93">
         <v>254</v>
       </c>
@@ -18463,7 +18958,7 @@
       </c>
       <c r="P255" s="123"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="93">
         <v>255</v>
       </c>
@@ -18507,7 +19002,7 @@
       </c>
       <c r="P256" s="123"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="93">
         <v>256</v>
       </c>
@@ -18551,7 +19046,7 @@
       </c>
       <c r="P257" s="123"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="93">
         <v>257</v>
       </c>
@@ -18595,7 +19090,7 @@
       </c>
       <c r="P258" s="123"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="93">
         <v>258</v>
       </c>
@@ -18639,7 +19134,7 @@
       </c>
       <c r="P259" s="123"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="93">
         <v>259</v>
       </c>
@@ -18683,7 +19178,7 @@
       </c>
       <c r="P260" s="123"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="93">
         <v>260</v>
       </c>
@@ -18725,7 +19220,7 @@
       </c>
       <c r="P261" s="123"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="98">
         <v>261</v>
       </c>
@@ -18769,7 +19264,7 @@
       </c>
       <c r="P262" s="125"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="93">
         <v>262</v>
       </c>
@@ -18813,7 +19308,7 @@
       </c>
       <c r="P263" s="123"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="93">
         <v>263</v>
       </c>
@@ -18857,7 +19352,7 @@
       </c>
       <c r="P264" s="123"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="93">
         <v>264</v>
       </c>
@@ -18901,7 +19396,7 @@
       </c>
       <c r="P265" s="123"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="93">
         <v>265</v>
       </c>
@@ -18945,7 +19440,7 @@
       </c>
       <c r="P266" s="123"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="93">
         <v>266</v>
       </c>
@@ -18989,7 +19484,7 @@
       </c>
       <c r="P267" s="123"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="93">
         <v>268</v>
       </c>
@@ -19033,7 +19528,7 @@
       </c>
       <c r="P268" s="123"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="93">
         <v>269</v>
       </c>
@@ -19077,7 +19572,7 @@
       </c>
       <c r="P269" s="123"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="93">
         <v>270</v>
       </c>
@@ -19121,7 +19616,7 @@
       </c>
       <c r="P270" s="123"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="93">
         <v>271</v>
       </c>
@@ -19165,7 +19660,7 @@
       </c>
       <c r="P271" s="123"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="98">
         <v>272</v>
       </c>
@@ -19207,7 +19702,7 @@
       </c>
       <c r="P272" s="125"/>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="93">
         <v>273</v>
       </c>
@@ -19249,7 +19744,7 @@
       </c>
       <c r="P273" s="123"/>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="93">
         <v>274</v>
       </c>
@@ -19293,7 +19788,7 @@
       </c>
       <c r="P274" s="123"/>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="93">
         <v>275</v>
       </c>
@@ -19337,7 +19832,7 @@
       </c>
       <c r="P275" s="123"/>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="93">
         <v>276</v>
       </c>
@@ -19381,7 +19876,7 @@
       </c>
       <c r="P276" s="123"/>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="93">
         <v>277</v>
       </c>
@@ -19425,7 +19920,7 @@
       </c>
       <c r="P277" s="123"/>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="93">
         <v>278</v>
       </c>
@@ -19469,7 +19964,7 @@
       </c>
       <c r="P278" s="123"/>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="93">
         <v>279</v>
       </c>
@@ -19513,7 +20008,7 @@
       </c>
       <c r="P279" s="123"/>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="93">
         <v>280</v>
       </c>
@@ -19557,7 +20052,7 @@
       </c>
       <c r="P280" s="123"/>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="93">
         <v>281</v>
       </c>
@@ -19601,7 +20096,7 @@
       </c>
       <c r="P281" s="123"/>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="93">
         <v>282</v>
       </c>
@@ -19645,7 +20140,7 @@
       </c>
       <c r="P282" s="123"/>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="93">
         <v>283</v>
       </c>
@@ -19689,7 +20184,7 @@
       </c>
       <c r="P283" s="123"/>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="93">
         <v>284</v>
       </c>
@@ -19733,7 +20228,7 @@
       </c>
       <c r="P284" s="123"/>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="93">
         <v>285</v>
       </c>
@@ -19777,7 +20272,7 @@
       </c>
       <c r="P285" s="123"/>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="93">
         <v>286</v>
       </c>
@@ -19821,7 +20316,7 @@
       </c>
       <c r="P286" s="123"/>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="93">
         <v>287</v>
       </c>
@@ -19865,7 +20360,7 @@
       </c>
       <c r="P287" s="123"/>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="93">
         <v>288</v>
       </c>
@@ -19909,7 +20404,7 @@
       </c>
       <c r="P288" s="123"/>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="93">
         <v>289</v>
       </c>
@@ -19953,7 +20448,7 @@
       </c>
       <c r="P289" s="123"/>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="93">
         <v>290</v>
       </c>
@@ -19997,7 +20492,7 @@
       </c>
       <c r="P290" s="123"/>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="93">
         <v>291</v>
       </c>
@@ -20041,7 +20536,7 @@
       </c>
       <c r="P291" s="123"/>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="93">
         <v>292</v>
       </c>
@@ -20085,7 +20580,7 @@
       </c>
       <c r="P292" s="123"/>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="93">
         <v>293</v>
       </c>
@@ -20129,7 +20624,7 @@
       </c>
       <c r="P293" s="123"/>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="93">
         <v>294</v>
       </c>
@@ -20173,7 +20668,7 @@
       </c>
       <c r="P294" s="123"/>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="93">
         <v>295</v>
       </c>
@@ -20217,7 +20712,7 @@
       </c>
       <c r="P295" s="123"/>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="93">
         <v>296</v>
       </c>
@@ -20265,7 +20760,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="93">
         <v>297</v>
       </c>
@@ -20309,7 +20804,7 @@
       </c>
       <c r="P297" s="123"/>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="93">
         <v>298</v>
       </c>
@@ -20353,7 +20848,7 @@
       </c>
       <c r="P298" s="123"/>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="93">
         <v>299</v>
       </c>
@@ -20397,7 +20892,7 @@
       </c>
       <c r="P299" s="123"/>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="93">
         <v>300</v>
       </c>
@@ -20441,7 +20936,7 @@
       </c>
       <c r="P300" s="123"/>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="93">
         <v>301</v>
       </c>
@@ -20485,7 +20980,7 @@
       </c>
       <c r="P301" s="123"/>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="93">
         <v>302</v>
       </c>
@@ -20529,7 +21024,7 @@
       </c>
       <c r="P302" s="123"/>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="93">
         <v>303</v>
       </c>
@@ -20573,7 +21068,7 @@
       </c>
       <c r="P303" s="123"/>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="93">
         <v>304</v>
       </c>
@@ -20617,7 +21112,7 @@
       </c>
       <c r="P304" s="123"/>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="93">
         <v>305</v>
       </c>
@@ -20661,7 +21156,7 @@
       </c>
       <c r="P305" s="123"/>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="93">
         <v>306</v>
       </c>
@@ -20705,7 +21200,7 @@
       </c>
       <c r="P306" s="123"/>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="93">
         <v>307</v>
       </c>
@@ -20749,7 +21244,7 @@
       </c>
       <c r="P307" s="123"/>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="93">
         <v>308</v>
       </c>
@@ -20793,7 +21288,7 @@
       </c>
       <c r="P308" s="123"/>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="93">
         <v>309</v>
       </c>
@@ -20837,7 +21332,7 @@
       </c>
       <c r="P309" s="123"/>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="93">
         <v>310</v>
       </c>
@@ -20881,7 +21376,7 @@
       </c>
       <c r="P310" s="123"/>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="93">
         <v>311</v>
       </c>
@@ -20925,7 +21420,7 @@
       </c>
       <c r="P311" s="123"/>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="93">
         <v>312</v>
       </c>
@@ -20969,7 +21464,7 @@
       </c>
       <c r="P312" s="123"/>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="93">
         <v>313</v>
       </c>
@@ -21013,7 +21508,7 @@
       </c>
       <c r="P313" s="123"/>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="93">
         <v>314</v>
       </c>
@@ -21057,7 +21552,7 @@
       </c>
       <c r="P314" s="123"/>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="93">
         <v>315</v>
       </c>
@@ -21101,7 +21596,7 @@
       </c>
       <c r="P315" s="123"/>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="93">
         <v>316</v>
       </c>
@@ -21145,7 +21640,7 @@
       </c>
       <c r="P316" s="123"/>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="93">
         <v>317</v>
       </c>
@@ -21189,7 +21684,7 @@
       </c>
       <c r="P317" s="123"/>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="93">
         <v>318</v>
       </c>
@@ -21233,7 +21728,7 @@
       </c>
       <c r="P318" s="123"/>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="93">
         <v>319</v>
       </c>
@@ -21278,10 +21773,10 @@
         <v>1038</v>
       </c>
       <c r="P319" s="123" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="93">
         <v>320</v>
       </c>
@@ -21325,7 +21820,7 @@
       </c>
       <c r="P320" s="123"/>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="93">
         <v>321</v>
       </c>
@@ -21369,7 +21864,7 @@
       </c>
       <c r="P321" s="123"/>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="93">
         <v>322</v>
       </c>
@@ -21413,7 +21908,7 @@
       </c>
       <c r="P322" s="123"/>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="93">
         <v>323</v>
       </c>
@@ -21457,7 +21952,7 @@
       </c>
       <c r="P323" s="123"/>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="93">
         <v>324</v>
       </c>
@@ -21501,7 +21996,7 @@
       </c>
       <c r="P324" s="123"/>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="93">
         <v>325</v>
       </c>
@@ -21545,7 +22040,7 @@
       </c>
       <c r="P325" s="123"/>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="93">
         <v>326</v>
       </c>
@@ -21589,7 +22084,7 @@
       </c>
       <c r="P326" s="123"/>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="93">
         <v>327</v>
       </c>
@@ -21633,7 +22128,7 @@
       </c>
       <c r="P327" s="123"/>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="93">
         <v>328</v>
       </c>
@@ -21677,7 +22172,7 @@
       </c>
       <c r="P328" s="123"/>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="93">
         <v>329</v>
       </c>
@@ -21721,7 +22216,7 @@
       </c>
       <c r="P329" s="123"/>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="93">
         <v>330</v>
       </c>
@@ -21765,7 +22260,7 @@
       </c>
       <c r="P330" s="123"/>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="93">
         <v>331</v>
       </c>
@@ -21809,7 +22304,7 @@
       </c>
       <c r="P331" s="123"/>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="93">
         <v>332</v>
       </c>
@@ -21853,7 +22348,7 @@
       </c>
       <c r="P332" s="123"/>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="93">
         <v>333</v>
       </c>
@@ -21897,7 +22392,7 @@
       </c>
       <c r="P333" s="123"/>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="93">
         <v>334</v>
       </c>
@@ -21941,7 +22436,7 @@
       </c>
       <c r="P334" s="123"/>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="93">
         <v>335</v>
       </c>
@@ -21985,7 +22480,7 @@
       </c>
       <c r="P335" s="123"/>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="93">
         <v>336</v>
       </c>
@@ -22029,7 +22524,7 @@
       </c>
       <c r="P336" s="123"/>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="93">
         <v>337</v>
       </c>
@@ -22073,7 +22568,7 @@
       </c>
       <c r="P337" s="123"/>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="93">
         <v>338</v>
       </c>
@@ -22117,7 +22612,7 @@
       </c>
       <c r="P338" s="123"/>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="93">
         <v>339</v>
       </c>
@@ -22161,7 +22656,7 @@
       </c>
       <c r="P339" s="123"/>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="93">
         <v>340</v>
       </c>
@@ -22205,7 +22700,7 @@
       </c>
       <c r="P340" s="123"/>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="93">
         <v>341</v>
       </c>
@@ -22249,7 +22744,7 @@
       </c>
       <c r="P341" s="123"/>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="98">
         <v>342</v>
       </c>
@@ -22293,7 +22788,7 @@
       </c>
       <c r="P342" s="125"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="93">
         <v>343</v>
       </c>
@@ -22343,7 +22838,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="93">
         <v>344</v>
       </c>
@@ -22393,7 +22888,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="93">
         <v>345</v>
       </c>
@@ -22443,7 +22938,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="93">
         <v>346</v>
       </c>
@@ -22493,7 +22988,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="93">
         <v>347</v>
       </c>
@@ -22543,7 +23038,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="93">
         <v>348</v>
       </c>
@@ -22589,7 +23084,7 @@
       </c>
       <c r="P348" s="123"/>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="93">
         <v>349</v>
       </c>
@@ -22639,7 +23134,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="93">
         <v>350</v>
       </c>
@@ -22689,7 +23184,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="93">
         <v>351</v>
       </c>
@@ -22739,7 +23234,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="93">
         <v>352</v>
       </c>
@@ -22789,7 +23284,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="93">
         <v>353</v>
       </c>
@@ -22839,7 +23334,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="93">
         <v>354</v>
       </c>
@@ -22889,7 +23384,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="93">
         <v>355</v>
       </c>
@@ -22939,7 +23434,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="93">
         <v>356</v>
       </c>
@@ -22989,7 +23484,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="93">
         <v>357</v>
       </c>
@@ -23039,7 +23534,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="93">
         <v>358</v>
       </c>
@@ -23089,7 +23584,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="93">
         <v>359</v>
       </c>
@@ -23139,7 +23634,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="93">
         <v>360</v>
       </c>
@@ -23189,7 +23684,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="93">
         <v>361</v>
       </c>
@@ -23239,7 +23734,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="93">
         <v>362</v>
       </c>
@@ -23289,7 +23784,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="93">
         <v>363</v>
       </c>
@@ -23339,7 +23834,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="93">
         <v>364</v>
       </c>
@@ -23389,7 +23884,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="93">
         <v>365</v>
       </c>
@@ -23439,7 +23934,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="93">
         <v>366</v>
       </c>
@@ -23489,7 +23984,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="93">
         <v>367</v>
       </c>
@@ -23539,7 +24034,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="93">
         <v>368</v>
       </c>
@@ -23589,7 +24084,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="93">
         <v>369</v>
       </c>
@@ -23639,7 +24134,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="93">
         <v>370</v>
       </c>
@@ -23689,7 +24184,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="93">
         <v>371</v>
       </c>
@@ -23739,7 +24234,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="93">
         <v>372</v>
       </c>
@@ -23789,7 +24284,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="93">
         <v>373</v>
       </c>
@@ -23839,7 +24334,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="93">
         <v>374</v>
       </c>
@@ -23889,7 +24384,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="93">
         <v>375</v>
       </c>
@@ -23939,7 +24434,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="93">
         <v>376</v>
       </c>
@@ -23989,7 +24484,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="93">
         <v>377</v>
       </c>
@@ -24039,7 +24534,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="93">
         <v>378</v>
       </c>
@@ -24089,7 +24584,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="93">
         <v>379</v>
       </c>
@@ -24139,7 +24634,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="93">
         <v>380</v>
       </c>
@@ -24189,7 +24684,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="93">
         <v>381</v>
       </c>
@@ -24239,7 +24734,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="93">
         <v>382</v>
       </c>
@@ -24289,7 +24784,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="93">
         <v>383</v>
       </c>
@@ -24339,7 +24834,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="93">
         <v>384</v>
       </c>
@@ -24389,7 +24884,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="93">
         <v>385</v>
       </c>
@@ -24439,7 +24934,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="93">
         <v>386</v>
       </c>
@@ -24489,7 +24984,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="93">
         <v>387</v>
       </c>
@@ -24539,7 +25034,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="93">
         <v>388</v>
       </c>
@@ -24589,7 +25084,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="93">
         <v>389</v>
       </c>
@@ -24639,7 +25134,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="93">
         <v>390</v>
       </c>
@@ -24689,7 +25184,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="93">
         <v>391</v>
       </c>
@@ -24739,7 +25234,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="93">
         <v>392</v>
       </c>
@@ -24789,7 +25284,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="93">
         <v>393</v>
       </c>
@@ -24839,7 +25334,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="93">
         <v>394</v>
       </c>
@@ -24889,7 +25384,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="93">
         <v>395</v>
       </c>
@@ -24939,7 +25434,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="93">
         <v>396</v>
       </c>
@@ -24989,7 +25484,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="93">
         <v>397</v>
       </c>
@@ -25039,7 +25534,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="93">
         <v>398</v>
       </c>
@@ -25089,7 +25584,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="93">
         <v>399</v>
       </c>
@@ -25139,7 +25634,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="93">
         <v>400</v>
       </c>
@@ -25189,7 +25684,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="93">
         <v>401</v>
       </c>
@@ -25239,7 +25734,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="93">
         <v>402</v>
       </c>
@@ -25289,7 +25784,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="93">
         <v>403</v>
       </c>
@@ -25339,7 +25834,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="93">
         <v>404</v>
       </c>
@@ -25389,7 +25884,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="93">
         <v>405</v>
       </c>
@@ -25439,7 +25934,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="93">
         <v>406</v>
       </c>
@@ -25489,7 +25984,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="93">
         <v>407</v>
       </c>
@@ -25539,7 +26034,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="93">
         <v>408</v>
       </c>
@@ -25589,7 +26084,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="93">
         <v>409</v>
       </c>
@@ -25639,7 +26134,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="93">
         <v>410</v>
       </c>
@@ -25689,7 +26184,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="93">
         <v>411</v>
       </c>
@@ -25739,7 +26234,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="93">
         <v>412</v>
       </c>
@@ -25789,7 +26284,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="93">
         <v>413</v>
       </c>
@@ -25839,7 +26334,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="93">
         <v>414</v>
       </c>
@@ -25889,7 +26384,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="93">
         <v>415</v>
       </c>
@@ -25939,7 +26434,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="93">
         <v>416</v>
       </c>
@@ -25989,7 +26484,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="93">
         <v>417</v>
       </c>
@@ -26039,7 +26534,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="93">
         <v>418</v>
       </c>
@@ -26089,7 +26584,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="93">
         <v>419</v>
       </c>
@@ -26139,7 +26634,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="93">
         <v>420</v>
       </c>
@@ -26189,7 +26684,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="93">
         <v>421</v>
       </c>
@@ -26239,7 +26734,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="93">
         <v>422</v>
       </c>
@@ -26289,7 +26784,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="93">
         <v>423</v>
       </c>
@@ -26339,7 +26834,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="93">
         <v>424</v>
       </c>
@@ -26389,7 +26884,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="93">
         <v>425</v>
       </c>
@@ -26439,7 +26934,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="93">
         <v>426</v>
       </c>
@@ -26489,7 +26984,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="93">
         <v>427</v>
       </c>
@@ -26539,7 +27034,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="93">
         <v>428</v>
       </c>
@@ -26589,7 +27084,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="93">
         <v>429</v>
       </c>
@@ -26639,7 +27134,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="93">
         <v>430</v>
       </c>
@@ -26689,7 +27184,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="93">
         <v>431</v>
       </c>
@@ -26739,7 +27234,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="93">
         <v>432</v>
       </c>
@@ -26789,7 +27284,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="93">
         <v>433</v>
       </c>
@@ -26839,7 +27334,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="93">
         <v>434</v>
       </c>
@@ -26889,7 +27384,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="93">
         <v>435</v>
       </c>
@@ -26939,7 +27434,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="93">
         <v>436</v>
       </c>
@@ -26989,7 +27484,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="93">
         <v>437</v>
       </c>
@@ -27039,7 +27534,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="93">
         <v>438</v>
       </c>
@@ -27089,7 +27584,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="93">
         <v>439</v>
       </c>
@@ -27139,7 +27634,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="93">
         <v>440</v>
       </c>
@@ -27189,7 +27684,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="93">
         <v>441</v>
       </c>
@@ -27239,7 +27734,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="93">
         <v>442</v>
       </c>
@@ -27289,7 +27784,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="93">
         <v>443</v>
       </c>
@@ -27339,7 +27834,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="93">
         <v>444</v>
       </c>
@@ -27389,7 +27884,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="93">
         <v>445</v>
       </c>
@@ -27439,7 +27934,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="93">
         <v>446</v>
       </c>
@@ -27489,7 +27984,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="93">
         <v>447</v>
       </c>
@@ -27539,7 +28034,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="93">
         <v>448</v>
       </c>
@@ -27589,7 +28084,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="93">
         <v>449</v>
       </c>
@@ -27639,7 +28134,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="93">
         <v>450</v>
       </c>
@@ -27689,7 +28184,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="98">
         <v>451</v>
       </c>
@@ -27739,7 +28234,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="93">
         <v>452</v>
       </c>
@@ -27783,7 +28278,7 @@
       </c>
       <c r="P452" s="123"/>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="93">
         <v>453</v>
       </c>
@@ -27827,7 +28322,7 @@
       </c>
       <c r="P453" s="123"/>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="93">
         <v>454</v>
       </c>
@@ -27871,7 +28366,7 @@
       </c>
       <c r="P454" s="123"/>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="93">
         <v>455</v>
       </c>
@@ -27915,7 +28410,7 @@
       </c>
       <c r="P455" s="123"/>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="93">
         <v>456</v>
       </c>
@@ -27959,7 +28454,7 @@
       </c>
       <c r="P456" s="123"/>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="93">
         <v>457</v>
       </c>
@@ -28003,7 +28498,7 @@
       </c>
       <c r="P457" s="123"/>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="93">
         <v>458</v>
       </c>
@@ -28047,7 +28542,7 @@
       </c>
       <c r="P458" s="123"/>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="93">
         <v>459</v>
       </c>
@@ -28091,7 +28586,7 @@
       </c>
       <c r="P459" s="123"/>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="93">
         <v>460</v>
       </c>
@@ -28135,7 +28630,7 @@
       </c>
       <c r="P460" s="123"/>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="93">
         <v>461</v>
       </c>
@@ -28179,7 +28674,7 @@
       </c>
       <c r="P461" s="123"/>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="98">
         <v>462</v>
       </c>
@@ -28223,7 +28718,7 @@
       </c>
       <c r="P462" s="125"/>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="93">
         <v>463</v>
       </c>
@@ -28267,7 +28762,7 @@
       </c>
       <c r="P463" s="123"/>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="93">
         <v>464</v>
       </c>
@@ -28311,7 +28806,7 @@
       </c>
       <c r="P464" s="123"/>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="93">
         <v>465</v>
       </c>
@@ -28355,7 +28850,7 @@
       </c>
       <c r="P465" s="123"/>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="93">
         <v>466</v>
       </c>
@@ -28399,7 +28894,7 @@
       </c>
       <c r="P466" s="123"/>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="93">
         <v>467</v>
       </c>
@@ -28443,7 +28938,7 @@
       </c>
       <c r="P467" s="123"/>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="93">
         <v>468</v>
       </c>
@@ -28487,7 +28982,7 @@
       </c>
       <c r="P468" s="123"/>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="93">
         <v>469</v>
       </c>
@@ -28531,7 +29026,7 @@
       </c>
       <c r="P469" s="123"/>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="93">
         <v>470</v>
       </c>
@@ -28575,7 +29070,7 @@
       </c>
       <c r="P470" s="123"/>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="93">
         <v>471</v>
       </c>
@@ -28619,7 +29114,7 @@
       </c>
       <c r="P471" s="123"/>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="93">
         <v>472</v>
       </c>
@@ -28663,7 +29158,7 @@
       </c>
       <c r="P472" s="123"/>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="93">
         <v>473</v>
       </c>
@@ -28707,7 +29202,7 @@
       </c>
       <c r="P473" s="123"/>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="93">
         <v>474</v>
       </c>
@@ -28751,7 +29246,7 @@
       </c>
       <c r="P474" s="123"/>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="93">
         <v>475</v>
       </c>
@@ -28795,7 +29290,7 @@
       </c>
       <c r="P475" s="123"/>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="93">
         <v>476</v>
       </c>
@@ -28839,7 +29334,7 @@
       </c>
       <c r="P476" s="123"/>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="93">
         <v>477</v>
       </c>
@@ -28883,7 +29378,7 @@
       </c>
       <c r="P477" s="123"/>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="93">
         <v>478</v>
       </c>
@@ -28927,7 +29422,7 @@
       </c>
       <c r="P478" s="123"/>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="93">
         <v>479</v>
       </c>
@@ -28971,7 +29466,7 @@
       </c>
       <c r="P479" s="123"/>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="93">
         <v>480</v>
       </c>
@@ -29015,7 +29510,7 @@
       </c>
       <c r="P480" s="123"/>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="93">
         <v>481</v>
       </c>
@@ -29059,7 +29554,7 @@
       </c>
       <c r="P481" s="123"/>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="93">
         <v>482</v>
       </c>
@@ -29103,7 +29598,7 @@
       </c>
       <c r="P482" s="123"/>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="93">
         <v>483</v>
       </c>
@@ -29147,7 +29642,7 @@
       </c>
       <c r="P483" s="123"/>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="93">
         <v>484</v>
       </c>
@@ -29191,7 +29686,7 @@
       </c>
       <c r="P484" s="123"/>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="93">
         <v>485</v>
       </c>
@@ -29235,7 +29730,7 @@
       </c>
       <c r="P485" s="123"/>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="93">
         <v>486</v>
       </c>
@@ -29279,7 +29774,7 @@
       </c>
       <c r="P486" s="123"/>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="93">
         <v>487</v>
       </c>
@@ -29323,7 +29818,7 @@
       </c>
       <c r="P487" s="123"/>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="93">
         <v>488</v>
       </c>
@@ -29367,7 +29862,7 @@
       </c>
       <c r="P488" s="123"/>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="93">
         <v>489</v>
       </c>
@@ -29411,7 +29906,7 @@
       </c>
       <c r="P489" s="123"/>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="93">
         <v>490</v>
       </c>
@@ -29455,7 +29950,7 @@
       </c>
       <c r="P490" s="123"/>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="98">
         <v>491</v>
       </c>
@@ -29499,7 +29994,7 @@
       </c>
       <c r="P491" s="125"/>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="93">
         <v>492</v>
       </c>
@@ -29543,7 +30038,7 @@
       </c>
       <c r="P492" s="123"/>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="93">
         <v>493</v>
       </c>
@@ -29587,7 +30082,7 @@
       </c>
       <c r="P493" s="123"/>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="93">
         <v>494</v>
       </c>
@@ -29631,7 +30126,7 @@
       </c>
       <c r="P494" s="123"/>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="93">
         <v>495</v>
       </c>
@@ -29675,7 +30170,7 @@
       </c>
       <c r="P495" s="123"/>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="93">
         <v>496</v>
       </c>
@@ -29719,7 +30214,7 @@
       </c>
       <c r="P496" s="123"/>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="93">
         <v>497</v>
       </c>
@@ -29763,7 +30258,7 @@
       </c>
       <c r="P497" s="123"/>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="93">
         <v>498</v>
       </c>
@@ -29807,7 +30302,7 @@
       </c>
       <c r="P498" s="123"/>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="93">
         <v>499</v>
       </c>
@@ -29851,7 +30346,7 @@
       </c>
       <c r="P499" s="123"/>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="93">
         <v>500</v>
       </c>
@@ -29895,7 +30390,7 @@
       </c>
       <c r="P500" s="123"/>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="93">
         <v>501</v>
       </c>
@@ -29940,10 +30435,10 @@
         <v>1038</v>
       </c>
       <c r="P501" s="123" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="93">
         <v>502</v>
       </c>
@@ -29987,7 +30482,7 @@
       </c>
       <c r="P502" s="123"/>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="93">
         <v>503</v>
       </c>
@@ -30031,7 +30526,7 @@
       </c>
       <c r="P503" s="123"/>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="93">
         <v>504</v>
       </c>
@@ -30075,7 +30570,7 @@
       </c>
       <c r="P504" s="123"/>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="93">
         <v>505</v>
       </c>
@@ -30119,7 +30614,7 @@
       </c>
       <c r="P505" s="123"/>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="93">
         <v>506</v>
       </c>
@@ -30163,7 +30658,7 @@
       </c>
       <c r="P506" s="123"/>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="93">
         <v>507</v>
       </c>
@@ -30206,6 +30701,580 @@
         <v>1014</v>
       </c>
       <c r="P507" s="123"/>
+    </row>
+    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="93">
+        <v>508</v>
+      </c>
+      <c r="B508" s="94">
+        <v>4</v>
+      </c>
+      <c r="C508" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="D508" s="97">
+        <v>45523</v>
+      </c>
+      <c r="E508" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="F508" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="G508" s="122" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H508" s="127">
+        <v>7.75</v>
+      </c>
+      <c r="I508" s="140"/>
+      <c r="J508" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="K508" s="130">
+        <v>45524.485717592601</v>
+      </c>
+      <c r="L508" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M508" s="96"/>
+      <c r="N508" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O508" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P508" s="123"/>
+    </row>
+    <row r="509" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="93">
+        <v>509</v>
+      </c>
+      <c r="B509" s="94">
+        <v>4</v>
+      </c>
+      <c r="C509" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="D509" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E509" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="F509" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="G509" s="122" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H509" s="127">
+        <v>1</v>
+      </c>
+      <c r="I509" s="140"/>
+      <c r="J509" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="K509" s="130">
+        <v>45524.486539351798</v>
+      </c>
+      <c r="L509" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M509" s="96"/>
+      <c r="N509" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O509" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P509" s="123"/>
+    </row>
+    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="93">
+        <v>510</v>
+      </c>
+      <c r="B510" s="94">
+        <v>3</v>
+      </c>
+      <c r="C510" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="D510" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E510" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="F510" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="G510" s="122" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H510" s="127">
+        <v>3</v>
+      </c>
+      <c r="I510" s="140"/>
+      <c r="J510" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="K510" s="130">
+        <v>45524.711122685199</v>
+      </c>
+      <c r="L510" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M510" s="96"/>
+      <c r="N510" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O510" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P510" s="123"/>
+    </row>
+    <row r="511" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="93">
+        <v>511</v>
+      </c>
+      <c r="B511" s="94">
+        <v>1</v>
+      </c>
+      <c r="C511" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D511" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E511" s="95" t="s">
+        <v>611</v>
+      </c>
+      <c r="F511" s="122" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G511" s="122" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H511" s="127">
+        <v>0.4</v>
+      </c>
+      <c r="I511" s="140"/>
+      <c r="J511" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K511" s="130">
+        <v>45524.711099537002</v>
+      </c>
+      <c r="L511" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M511" s="96"/>
+      <c r="N511" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O511" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P511" s="123"/>
+    </row>
+    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="93">
+        <v>512</v>
+      </c>
+      <c r="B512" s="94">
+        <v>1</v>
+      </c>
+      <c r="C512" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D512" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E512" s="95" t="s">
+        <v>769</v>
+      </c>
+      <c r="F512" s="122" t="s">
+        <v>770</v>
+      </c>
+      <c r="G512" s="122" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H512" s="127">
+        <v>0.75</v>
+      </c>
+      <c r="I512" s="140" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J512" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K512" s="130">
+        <v>45524.711562500001</v>
+      </c>
+      <c r="L512" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M512" s="96"/>
+      <c r="N512" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O512" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P512" s="123"/>
+    </row>
+    <row r="513" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="93">
+        <v>513</v>
+      </c>
+      <c r="B513" s="94">
+        <v>3</v>
+      </c>
+      <c r="C513" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="D513" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E513" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="F513" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="G513" s="122" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H513" s="127">
+        <v>3.5</v>
+      </c>
+      <c r="I513" s="140"/>
+      <c r="J513" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="K513" s="130">
+        <v>45524.7116550926</v>
+      </c>
+      <c r="L513" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M513" s="96"/>
+      <c r="N513" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O513" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P513" s="123"/>
+    </row>
+    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="93">
+        <v>514</v>
+      </c>
+      <c r="B514" s="94">
+        <v>1</v>
+      </c>
+      <c r="C514" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D514" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E514" s="95" t="s">
+        <v>409</v>
+      </c>
+      <c r="F514" s="122" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G514" s="122" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H514" s="127">
+        <v>1</v>
+      </c>
+      <c r="I514" s="140"/>
+      <c r="J514" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K514" s="130">
+        <v>45524.711932870399</v>
+      </c>
+      <c r="L514" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M514" s="96"/>
+      <c r="N514" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O514" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P514" s="123"/>
+    </row>
+    <row r="515" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="93">
+        <v>515</v>
+      </c>
+      <c r="B515" s="94">
+        <v>1</v>
+      </c>
+      <c r="C515" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D515" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E515" s="95" t="s">
+        <v>310</v>
+      </c>
+      <c r="F515" s="122" t="s">
+        <v>311</v>
+      </c>
+      <c r="G515" s="122" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H515" s="127">
+        <v>0.4</v>
+      </c>
+      <c r="I515" s="140"/>
+      <c r="J515" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K515" s="130">
+        <v>45524.713981481502</v>
+      </c>
+      <c r="L515" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M515" s="96"/>
+      <c r="N515" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O515" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P515" s="123"/>
+    </row>
+    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="93">
+        <v>516</v>
+      </c>
+      <c r="B516" s="94">
+        <v>4</v>
+      </c>
+      <c r="C516" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="D516" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E516" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="F516" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="G516" s="122" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H516" s="127">
+        <v>5.25</v>
+      </c>
+      <c r="I516" s="140"/>
+      <c r="J516" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="K516" s="130">
+        <v>45524.728032407402</v>
+      </c>
+      <c r="L516" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M516" s="96"/>
+      <c r="N516" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O516" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P516" s="123"/>
+    </row>
+    <row r="517" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="93">
+        <v>517</v>
+      </c>
+      <c r="B517" s="94">
+        <v>4</v>
+      </c>
+      <c r="C517" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="D517" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E517" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="F517" s="122" t="s">
+        <v>964</v>
+      </c>
+      <c r="G517" s="122" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H517" s="127">
+        <v>0.5</v>
+      </c>
+      <c r="I517" s="140"/>
+      <c r="J517" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K517" s="130">
+        <v>45524.728645833296</v>
+      </c>
+      <c r="L517" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M517" s="96"/>
+      <c r="N517" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O517" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P517" s="123"/>
+    </row>
+    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="93">
+        <v>518</v>
+      </c>
+      <c r="B518" s="94">
+        <v>1</v>
+      </c>
+      <c r="C518" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D518" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E518" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="F518" s="122" t="s">
+        <v>822</v>
+      </c>
+      <c r="G518" s="122" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H518" s="127">
+        <v>1</v>
+      </c>
+      <c r="I518" s="140"/>
+      <c r="J518" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K518" s="130">
+        <v>45524.737754629597</v>
+      </c>
+      <c r="L518" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M518" s="96"/>
+      <c r="N518" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O518" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P518" s="123"/>
+    </row>
+    <row r="519" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="93">
+        <v>519</v>
+      </c>
+      <c r="B519" s="94">
+        <v>1</v>
+      </c>
+      <c r="C519" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D519" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E519" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="F519" s="122" t="s">
+        <v>393</v>
+      </c>
+      <c r="G519" s="122" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H519" s="127">
+        <v>1.5</v>
+      </c>
+      <c r="I519" s="140"/>
+      <c r="J519" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K519" s="130">
+        <v>45524.754502314798</v>
+      </c>
+      <c r="L519" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M519" s="96"/>
+      <c r="N519" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O519" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P519" s="123"/>
+    </row>
+    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="93">
+        <v>520</v>
+      </c>
+      <c r="B520" s="94">
+        <v>1</v>
+      </c>
+      <c r="C520" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D520" s="97">
+        <v>45524</v>
+      </c>
+      <c r="E520" s="95" t="s">
+        <v>643</v>
+      </c>
+      <c r="F520" s="122" t="s">
+        <v>687</v>
+      </c>
+      <c r="G520" s="122" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H520" s="127">
+        <v>0.4</v>
+      </c>
+      <c r="I520" s="140"/>
+      <c r="J520" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K520" s="130">
+        <v>45524.7574074074</v>
+      </c>
+      <c r="L520" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="M520" s="96"/>
+      <c r="N520" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="O520" s="95" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P520" s="123"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35246,13 +36315,13 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="65" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B127" s="103">
         <v>45524</v>
       </c>
       <c r="C127" s="104" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D127" s="65" t="s">
         <v>226</v>
@@ -35292,13 +36361,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B45F79E-24DF-4598-AC35-A20900C36411}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{8B45F79E-24DF-4598-AC35-A20900C36411}">
   <sheetPr codeName="mwshFAC_Entête">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0" rightToLeft="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
     </sheetView>
@@ -35327,7 +36396,7 @@
     <col min="20" max="22" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" s="44" t="s">
         <v>46</v>
       </c>
@@ -35395,7 +36464,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row spans="1:22" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>941</v>
       </c>
@@ -35448,7 +36517,7 @@
         <v>108.44</v>
       </c>
       <c r="S2" s="138">
-        <v>9.9750000000000005E-2</v>
+        <v>0.09975</v>
       </c>
       <c r="T2" s="4">
         <v>216.33</v>
@@ -35460,7 +36529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row spans="1:22" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>992</v>
       </c>
@@ -35516,7 +36585,7 @@
         <v>37.5</v>
       </c>
       <c r="S3" s="138">
-        <v>9.9750000000000005E-2</v>
+        <v>0.09975</v>
       </c>
       <c r="T3" s="4">
         <v>74.81</v>
@@ -35528,7 +36597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row spans="1:22" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>1000</v>
       </c>
@@ -35581,7 +36650,7 @@
         <v>43.45</v>
       </c>
       <c r="S4" s="138">
-        <v>9.9750000000000005E-2</v>
+        <v>0.09975</v>
       </c>
       <c r="T4" s="4">
         <v>86.68</v>
@@ -35593,7 +36662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row spans="1:22" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>1023</v>
       </c>
@@ -35646,10 +36715,10 @@
         <v>130</v>
       </c>
       <c r="S5" s="138">
-        <v>9.9750000000000005E-2</v>
+        <v>0.09975</v>
       </c>
       <c r="T5" s="4">
-        <v>259.35000000000002</v>
+        <v>259.35</v>
       </c>
       <c r="U5" s="4">
         <v>2989.35</v>
@@ -35658,15 +36727,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row spans="1:22" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="B6" s="2">
         <v>45513</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>987</v>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="D6" s="1">
         <v>1112</v>
@@ -35711,7 +36782,7 @@
         <v>24.5</v>
       </c>
       <c r="S6" s="138">
-        <v>9.9750000000000005E-2</v>
+        <v>0.09975</v>
       </c>
       <c r="T6" s="4">
         <v>48.88</v>
@@ -35723,15 +36794,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row spans="1:22" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="B7" s="2">
         <v>45524</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>987</v>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="D7" s="1" t="s">
         <v>446</v>
@@ -35773,10 +36846,10 @@
         <v>0.05</v>
       </c>
       <c r="R7" s="4">
-        <v>39.380000000000003</v>
+        <v>39.38</v>
       </c>
       <c r="S7" s="138">
-        <v>9.9750000000000005E-2</v>
+        <v>0.09975</v>
       </c>
       <c r="T7" s="4">
         <v>78.55</v>
@@ -35788,30 +36861,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row spans="1:22" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B8" s="2">
         <v>45524</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>987</v>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="D8" s="1">
         <v>1699</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>1119</v>
       </c>
       <c r="J8" s="4">
         <v>5775</v>
@@ -35841,10 +36916,10 @@
         <v>288.75</v>
       </c>
       <c r="S8" s="138">
-        <v>9.9750000000000005E-2</v>
+        <v>0.09975</v>
       </c>
       <c r="T8" s="4">
-        <v>576.05999999999995</v>
+        <v>576.06</v>
       </c>
       <c r="U8" s="4">
         <v>6639.81</v>
@@ -36369,10 +37444,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B35" s="148" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C35" s="139"/>
       <c r="D35" s="4"/>
@@ -36383,7 +37458,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C36" s="139"/>
       <c r="D36" s="4"/>
@@ -36394,10 +37469,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B37" s="148" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C37" s="139"/>
       <c r="D37" s="4"/>
@@ -36408,7 +37483,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C38" s="139"/>
       <c r="D38" s="4"/>
@@ -36419,10 +37494,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B39" s="148" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C39" s="139"/>
       <c r="D39" s="4"/>
@@ -36433,7 +37508,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B40" s="148"/>
       <c r="C40" s="139"/>
@@ -36445,10 +37520,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B41" s="148" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C41" s="139"/>
       <c r="D41" s="4"/>
@@ -36459,7 +37534,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B42" s="148"/>
       <c r="C42" s="139"/>
@@ -36471,10 +37546,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B43" s="148" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C43" s="139"/>
       <c r="D43" s="4"/>
@@ -36485,7 +37560,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B44" s="148"/>
       <c r="C44" s="139"/>
@@ -36497,10 +37572,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B45" s="148" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C45" s="139"/>
       <c r="D45" s="4"/>
@@ -36511,7 +37586,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B46" s="148" t="s">
         <v>1112</v>
@@ -36531,10 +37606,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B47" s="148" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C47" s="149">
         <v>4.7</v>
@@ -36575,7 +37650,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37310,8 +38385,8 @@
   <sheetPr codeName="mwshFAC_Projets_Entête"/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37530,7 +38605,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>643</v>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E86FF8-3F08-4E74-843B-B01BF88EE7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0972E4B-CDF3-411E-9D22-CD634C310F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5763" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5963" uniqueCount="1181">
   <si>
     <t>TEC_ID</t>
   </si>
@@ -3590,19 +3590,122 @@
   </si>
   <si>
     <t>21/08/2024 05:04:31</t>
+  </si>
+  <si>
+    <t>courriels avec tous + tel avec Virginie sur son mandat</t>
+  </si>
+  <si>
+    <t>APP_v4.E.2.xlsb</t>
+  </si>
+  <si>
+    <t>échanges sur contrat de vente de services financiers avec virginie + tel avec virginie sur développements</t>
+  </si>
+  <si>
+    <t>tenter de fixer rencontre + finaliser rencontre</t>
+  </si>
+  <si>
+    <t>Les entreprises Lanthier et Papineau Inc. [Alain Lanthier]</t>
+  </si>
+  <si>
+    <t>courriels pour rencontre et avenir du deal</t>
+  </si>
+  <si>
+    <t>Garage L. Hébert Inc. [Karine Ricard]</t>
+  </si>
+  <si>
+    <t>réception des documents comptables + courriel d'infos manquantes</t>
+  </si>
+  <si>
+    <t>Suivis des courriels et des différents dossiers + lecture mise à jour fiscalité + familiariser avec feuille de temps + lecture Monnaie</t>
+  </si>
+  <si>
+    <t>Conversation téléphonique avec Alain Lanthier</t>
+  </si>
+  <si>
+    <t>Révision de la documentation légale + suivi avec Virginie</t>
+  </si>
+  <si>
+    <t>Discussion téléphonique avec François Hamel (Fusion/liquidation) + lecture sommaire</t>
+  </si>
+  <si>
+    <t>1796</t>
+  </si>
+  <si>
+    <t>Alexandre Bourret Courtier Immobilier Inc.</t>
+  </si>
+  <si>
+    <t>Révision des deux déclarations de revenus + analyse (plusieurs éléments manquants) + voir traitement monnaie virtuelle + conversation téléphonique avec Laurent</t>
+  </si>
+  <si>
+    <t>Multi-Plis Inc. [Kevin Fortin]</t>
+  </si>
+  <si>
+    <t>Voir roulement et CDC + suivi avec pour production</t>
+  </si>
+  <si>
+    <t>Voir documentation légale + Révision des roulement + Suivi CDC (solde de début CDC)</t>
+  </si>
+  <si>
+    <t>Administration diverses + Rencontre avec Michel pour feuille de temps + explication roulement + remplir feuille de temps du  20 août+ formation Michel roulement et explication</t>
+  </si>
+  <si>
+    <t>Préparation sommaire des chèques + (revoir mémo) + voir roulement + appeler à RQ pour obtenir NI</t>
+  </si>
+  <si>
+    <t>Atelier Mécanique Pierre Mondou Inc. [Anne Charlebois]</t>
+  </si>
+  <si>
+    <t>Conversation téléphonique avec Yvon pour Déclarationd de revenus</t>
+  </si>
+  <si>
+    <t>Rappel de Alain Lathier</t>
+  </si>
+  <si>
+    <t>Comptabilité trimestre mai à juillet</t>
+  </si>
+  <si>
+    <t>9307-244 Québec Inc. [Capitaine Vap] [Dany Borduas]</t>
+  </si>
+  <si>
+    <t>Suivi avec Dany pour choix 16.1</t>
+  </si>
+  <si>
+    <t>Révison formulaire de roulement + suivi avec Michel</t>
+  </si>
+  <si>
+    <t>Entrées des dossier dans le nouveau logiciel</t>
+  </si>
+  <si>
+    <t>Roulement Roger Fortin - formation donnée par Vladimir plus le temps de préparation des formulaires plus le temps de correction avec Vladimir</t>
+  </si>
+  <si>
+    <t>Problème rencontré par Annie et constataion que j'ai le même problème, test et discussion avec Robert Vignealut</t>
+  </si>
+  <si>
+    <t>Préparation CDC + suivi</t>
+  </si>
+  <si>
+    <t>1759</t>
+  </si>
+  <si>
+    <t>France Morin CPA</t>
+  </si>
+  <si>
+    <t>Dossier Ramonage (révision T2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;$&quot;"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -3947,7 +4050,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4342,20 +4445,80 @@
     <xf numFmtId="1" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4365,208 +4528,6 @@
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="64">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -5039,6 +5000,208 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5457,44 +5620,44 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A17978-3EBB-4673-B158-3517119EEE9E}" name="m_tblGL_Trans" displayName="m_tblGL_Trans" ref="A1:J48" totalsRowShown="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21A17978-3EBB-4673-B158-3517119EEE9E}" name="m_tblGL_Trans" displayName="m_tblGL_Trans" ref="A1:J48" totalsRowShown="0" tableBorderDxfId="42">
   <autoFilter ref="A1:J48" xr:uid="{21A17978-3EBB-4673-B158-3517119EEE9E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A612C945-1778-46F8-A266-8E3E80E4AE61}" name="No_Entrée" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1FA30F3A-616D-4880-9B9C-C3208E236EB8}" name="Date" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{FDAC2285-AD5B-44E2-8E4B-17B3C667931E}" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{FAA9F252-24AC-4EE6-BB44-57CDDDF5E428}" name="Source" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A64B4494-73FF-4B39-BB04-397704E9B201}" name="No_Compte" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6BA69BA2-16ED-40C9-B5ED-7705C4C19BFB}" name="Compte" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{669EA41C-A0D0-4788-9C78-E848423155BF}" name="Débit" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E8A8B5B0-D133-4101-B94C-01951129E175}" name="Crédit" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{AFE9DC7E-79C5-4F20-ACEF-E0F536BF8DCC}" name="AutreRemarque" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{DECC788B-8657-408C-B793-21B9755F5B37}" name="TimeStamp" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A612C945-1778-46F8-A266-8E3E80E4AE61}" name="No_Entrée" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{1FA30F3A-616D-4880-9B9C-C3208E236EB8}" name="Date" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{FDAC2285-AD5B-44E2-8E4B-17B3C667931E}" name="Description" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{FAA9F252-24AC-4EE6-BB44-57CDDDF5E428}" name="Source" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{A64B4494-73FF-4B39-BB04-397704E9B201}" name="No_Compte" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{6BA69BA2-16ED-40C9-B5ED-7705C4C19BFB}" name="Compte" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{669EA41C-A0D0-4788-9C78-E848423155BF}" name="Débit" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{E8A8B5B0-D133-4101-B94C-01951129E175}" name="Crédit" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{AFE9DC7E-79C5-4F20-ACEF-E0F536BF8DCC}" name="AutreRemarque" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{DECC788B-8657-408C-B793-21B9755F5B37}" name="TimeStamp" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P520" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
-  <autoFilter ref="A1:P520" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P545" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="A1:P545" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{442BE8B7-5CE4-48D7-A603-B8BD91CF4F12}" name="TEC_ID" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{AF8BE6CE-0BCF-4480-8A4A-B19F36ABFC85}" name="Prof_ID" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{0BBF5A6F-70D6-4E6C-8A34-1DC0B703A990}" name="Prof" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{E627AF44-B9B8-497C-BF47-8F6FF8ACD02A}" name="Date" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{2FCB36F7-7550-45BB-8BF9-F33F371A7621}" name="Client_ID" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{880B6392-67A4-44FE-99B4-2D6AFC690D19}" name="ClientNom" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{BB82BD83-08FF-46D8-AA7B-AF7F07E7D57F}" name="Description" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{6D50DCEF-6B21-4332-8C2B-6B7582E549FD}" name="Heures" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{B2B0BF98-C2E2-418F-B219-396DAE73E2C0}" name="CommentaireNote" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{04FCC7EC-6F94-4B76-87F6-13EC767E5814}" name="EstFacturable" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{31135437-F957-431B-B288-D96DDF98E911}" name="DateSaisie" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{B15D8992-EC7F-4A9F-9B45-525626044170}" name="EstFacturee" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{3FB2DD8F-2954-4B0B-82C3-975B3E73C363}" name="DateFacturee" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{5F5E7A24-97ED-4E35-AF70-985B14FFBDEF}" name="EstDetruit" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{0234FC06-DCE2-4E4D-888D-F4726D9FF50B}" name="VersionApp" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{67885876-BB1B-452D-BDA7-F4C0B770DC62}" name="NoFacture" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{442BE8B7-5CE4-48D7-A603-B8BD91CF4F12}" name="TEC_ID" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{AF8BE6CE-0BCF-4480-8A4A-B19F36ABFC85}" name="Prof_ID" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{0BBF5A6F-70D6-4E6C-8A34-1DC0B703A990}" name="Prof" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{E627AF44-B9B8-497C-BF47-8F6FF8ACD02A}" name="Date" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{2FCB36F7-7550-45BB-8BF9-F33F371A7621}" name="Client_ID" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{880B6392-67A4-44FE-99B4-2D6AFC690D19}" name="ClientNom" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{BB82BD83-08FF-46D8-AA7B-AF7F07E7D57F}" name="Description" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{6D50DCEF-6B21-4332-8C2B-6B7582E549FD}" name="Heures" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{B2B0BF98-C2E2-418F-B219-396DAE73E2C0}" name="CommentaireNote" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{04FCC7EC-6F94-4B76-87F6-13EC767E5814}" name="EstFacturable" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{31135437-F957-431B-B288-D96DDF98E911}" name="DateSaisie" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{B15D8992-EC7F-4A9F-9B45-525626044170}" name="EstFacturee" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{3FB2DD8F-2954-4B0B-82C3-975B3E73C363}" name="DateFacturee" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{5F5E7A24-97ED-4E35-AF70-985B14FFBDEF}" name="EstDetruit" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{0234FC06-DCE2-4E4D-888D-F4726D9FF50B}" name="VersionApp" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{67885876-BB1B-452D-BDA7-F4C0B770DC62}" name="NoFacture" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6175,7 +6338,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L9987">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6255,7 +6418,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E9997">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6308,7 +6471,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G962">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6324,7 +6487,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G40" sqref="G40"/>
       <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
@@ -7695,12 +7858,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J99999">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:J99999">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND($A49&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7715,10 +7878,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="mwshTEC_Local"/>
-  <dimension ref="A1:P520"/>
+  <dimension ref="A1:P545"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="495" topLeftCell="A496" activePane="bottomLeft"/>
+      <pane ySplit="495" topLeftCell="A513" activePane="bottomLeft"/>
       <selection activeCell="M1" sqref="M1:M1048576"/>
       <selection pane="bottomLeft" activeCell="B520" sqref="B520"/>
     </sheetView>
@@ -31406,6 +31569,1106 @@
         <v>1037</v>
       </c>
       <c r="P520" s="118"/>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A521" s="153">
+        <v>521</v>
+      </c>
+      <c r="B521" s="154">
+        <v>1</v>
+      </c>
+      <c r="C521" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D521" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E521" s="155" t="s">
+        <v>401</v>
+      </c>
+      <c r="F521" s="157" t="s">
+        <v>554</v>
+      </c>
+      <c r="G521" s="157" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H521" s="158">
+        <v>0.75</v>
+      </c>
+      <c r="I521" s="159"/>
+      <c r="J521" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K521" s="160">
+        <v>45525.447835648098</v>
+      </c>
+      <c r="L521" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M521" s="161"/>
+      <c r="N521" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O521" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P521" s="162"/>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A522" s="153">
+        <v>522</v>
+      </c>
+      <c r="B522" s="154">
+        <v>1</v>
+      </c>
+      <c r="C522" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D522" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E522" s="155" t="s">
+        <v>821</v>
+      </c>
+      <c r="F522" s="157" t="s">
+        <v>822</v>
+      </c>
+      <c r="G522" s="157" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H522" s="158">
+        <v>0.75</v>
+      </c>
+      <c r="I522" s="159"/>
+      <c r="J522" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K522" s="160">
+        <v>45525.447627314803</v>
+      </c>
+      <c r="L522" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M522" s="161"/>
+      <c r="N522" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O522" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P522" s="162"/>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A523" s="153">
+        <v>523</v>
+      </c>
+      <c r="B523" s="154">
+        <v>1</v>
+      </c>
+      <c r="C523" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D523" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E523" s="155" t="s">
+        <v>392</v>
+      </c>
+      <c r="F523" s="157" t="s">
+        <v>393</v>
+      </c>
+      <c r="G523" s="157" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H523" s="158">
+        <v>0.75</v>
+      </c>
+      <c r="I523" s="159"/>
+      <c r="J523" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K523" s="160">
+        <v>45525.441111111097</v>
+      </c>
+      <c r="L523" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M523" s="161"/>
+      <c r="N523" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O523" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P523" s="162"/>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A524" s="153">
+        <v>524</v>
+      </c>
+      <c r="B524" s="154">
+        <v>1</v>
+      </c>
+      <c r="C524" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D524" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E524" s="155" t="s">
+        <v>395</v>
+      </c>
+      <c r="F524" s="157" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G524" s="157" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H524" s="158">
+        <v>0.75</v>
+      </c>
+      <c r="I524" s="159"/>
+      <c r="J524" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K524" s="160">
+        <v>45525.440659722197</v>
+      </c>
+      <c r="L524" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M524" s="161"/>
+      <c r="N524" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O524" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P524" s="162"/>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A525" s="153">
+        <v>525</v>
+      </c>
+      <c r="B525" s="154">
+        <v>1</v>
+      </c>
+      <c r="C525" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D525" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E525" s="155" t="s">
+        <v>932</v>
+      </c>
+      <c r="F525" s="157" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G525" s="157" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H525" s="158">
+        <v>0.75</v>
+      </c>
+      <c r="I525" s="159"/>
+      <c r="J525" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K525" s="160">
+        <v>45525.449340277803</v>
+      </c>
+      <c r="L525" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M525" s="161"/>
+      <c r="N525" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O525" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P525" s="162"/>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A526" s="153">
+        <v>526</v>
+      </c>
+      <c r="B526" s="154">
+        <v>2</v>
+      </c>
+      <c r="C526" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D526" s="156">
+        <v>45524</v>
+      </c>
+      <c r="E526" s="155" t="s">
+        <v>152</v>
+      </c>
+      <c r="F526" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="G526" s="157" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H526" s="158">
+        <v>1.9</v>
+      </c>
+      <c r="I526" s="159"/>
+      <c r="J526" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="K526" s="160">
+        <v>45525.584988425901</v>
+      </c>
+      <c r="L526" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M526" s="161"/>
+      <c r="N526" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O526" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P526" s="162"/>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A527" s="153">
+        <v>527</v>
+      </c>
+      <c r="B527" s="154">
+        <v>2</v>
+      </c>
+      <c r="C527" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D527" s="156">
+        <v>45524</v>
+      </c>
+      <c r="E527" s="155" t="s">
+        <v>395</v>
+      </c>
+      <c r="F527" s="157" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G527" s="157" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H527" s="158">
+        <v>0.4</v>
+      </c>
+      <c r="I527" s="159"/>
+      <c r="J527" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K527" s="160">
+        <v>45525.577418981498</v>
+      </c>
+      <c r="L527" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M527" s="161"/>
+      <c r="N527" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O527" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P527" s="162"/>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A528" s="153">
+        <v>528</v>
+      </c>
+      <c r="B528" s="154">
+        <v>2</v>
+      </c>
+      <c r="C528" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D528" s="156">
+        <v>45524</v>
+      </c>
+      <c r="E528" s="155" t="s">
+        <v>401</v>
+      </c>
+      <c r="F528" s="157" t="s">
+        <v>554</v>
+      </c>
+      <c r="G528" s="157" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H528" s="158">
+        <v>1.4</v>
+      </c>
+      <c r="I528" s="159"/>
+      <c r="J528" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K528" s="160">
+        <v>45525.579548611102</v>
+      </c>
+      <c r="L528" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M528" s="161"/>
+      <c r="N528" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O528" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P528" s="162"/>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A529" s="153">
+        <v>529</v>
+      </c>
+      <c r="B529" s="154">
+        <v>2</v>
+      </c>
+      <c r="C529" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D529" s="156">
+        <v>45524</v>
+      </c>
+      <c r="E529" s="155" t="s">
+        <v>417</v>
+      </c>
+      <c r="F529" s="157" t="s">
+        <v>555</v>
+      </c>
+      <c r="G529" s="157" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H529" s="158">
+        <v>0.5</v>
+      </c>
+      <c r="I529" s="159"/>
+      <c r="J529" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K529" s="160">
+        <v>45525.581388888902</v>
+      </c>
+      <c r="L529" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M529" s="161"/>
+      <c r="N529" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O529" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P529" s="162"/>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A530" s="153">
+        <v>530</v>
+      </c>
+      <c r="B530" s="154">
+        <v>2</v>
+      </c>
+      <c r="C530" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D530" s="156">
+        <v>45524</v>
+      </c>
+      <c r="E530" s="155" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F530" s="157" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G530" s="157" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H530" s="158">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I530" s="159"/>
+      <c r="J530" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K530" s="160">
+        <v>45525.584571759297</v>
+      </c>
+      <c r="L530" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M530" s="161"/>
+      <c r="N530" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O530" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P530" s="162"/>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A531" s="153">
+        <v>531</v>
+      </c>
+      <c r="B531" s="154">
+        <v>2</v>
+      </c>
+      <c r="C531" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D531" s="156">
+        <v>45524</v>
+      </c>
+      <c r="E531" s="155" t="s">
+        <v>392</v>
+      </c>
+      <c r="F531" s="157" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G531" s="157" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H531" s="158">
+        <v>0.4</v>
+      </c>
+      <c r="I531" s="159"/>
+      <c r="J531" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K531" s="160">
+        <v>45525.587210648097</v>
+      </c>
+      <c r="L531" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M531" s="161"/>
+      <c r="N531" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O531" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P531" s="162"/>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A532" s="153">
+        <v>532</v>
+      </c>
+      <c r="B532" s="154">
+        <v>2</v>
+      </c>
+      <c r="C532" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D532" s="156">
+        <v>45524</v>
+      </c>
+      <c r="E532" s="155" t="s">
+        <v>432</v>
+      </c>
+      <c r="F532" s="157" t="s">
+        <v>556</v>
+      </c>
+      <c r="G532" s="157" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H532" s="158">
+        <v>2.1</v>
+      </c>
+      <c r="I532" s="159"/>
+      <c r="J532" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K532" s="160">
+        <v>45525.5879166667</v>
+      </c>
+      <c r="L532" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M532" s="161"/>
+      <c r="N532" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O532" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P532" s="162"/>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A533" s="153">
+        <v>533</v>
+      </c>
+      <c r="B533" s="154">
+        <v>2</v>
+      </c>
+      <c r="C533" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D533" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E533" s="155" t="s">
+        <v>152</v>
+      </c>
+      <c r="F533" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="G533" s="157" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H533" s="158">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I533" s="159"/>
+      <c r="J533" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K533" s="160">
+        <v>45525.776481481502</v>
+      </c>
+      <c r="L533" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M533" s="161"/>
+      <c r="N533" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O533" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P533" s="162"/>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A534" s="153">
+        <v>534</v>
+      </c>
+      <c r="B534" s="154">
+        <v>2</v>
+      </c>
+      <c r="C534" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D534" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E534" s="155" t="s">
+        <v>432</v>
+      </c>
+      <c r="F534" s="157" t="s">
+        <v>556</v>
+      </c>
+      <c r="G534" s="157" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H534" s="158">
+        <v>3.1</v>
+      </c>
+      <c r="I534" s="159"/>
+      <c r="J534" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K534" s="160">
+        <v>45525.686053240701</v>
+      </c>
+      <c r="L534" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M534" s="161"/>
+      <c r="N534" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O534" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P534" s="162"/>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A535" s="153">
+        <v>535</v>
+      </c>
+      <c r="B535" s="154">
+        <v>2</v>
+      </c>
+      <c r="C535" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D535" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E535" s="155" t="s">
+        <v>357</v>
+      </c>
+      <c r="F535" s="157" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G535" s="157" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H535" s="158">
+        <v>0.5</v>
+      </c>
+      <c r="I535" s="159"/>
+      <c r="J535" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K535" s="160">
+        <v>45525.593530092599</v>
+      </c>
+      <c r="L535" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M535" s="161"/>
+      <c r="N535" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O535" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P535" s="162"/>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A536" s="153">
+        <v>536</v>
+      </c>
+      <c r="B536" s="154">
+        <v>2</v>
+      </c>
+      <c r="C536" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D536" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E536" s="155" t="s">
+        <v>395</v>
+      </c>
+      <c r="F536" s="157" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G536" s="157" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H536" s="158">
+        <v>0.3</v>
+      </c>
+      <c r="I536" s="159"/>
+      <c r="J536" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K536" s="160">
+        <v>45525.593877314801</v>
+      </c>
+      <c r="L536" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M536" s="161"/>
+      <c r="N536" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O536" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P536" s="162"/>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A537" s="153">
+        <v>537</v>
+      </c>
+      <c r="B537" s="154">
+        <v>3</v>
+      </c>
+      <c r="C537" s="155" t="s">
+        <v>133</v>
+      </c>
+      <c r="D537" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E537" s="155" t="s">
+        <v>152</v>
+      </c>
+      <c r="F537" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="G537" s="157" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H537" s="158">
+        <v>4.75</v>
+      </c>
+      <c r="I537" s="159"/>
+      <c r="J537" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="K537" s="160">
+        <v>45525.647337962997</v>
+      </c>
+      <c r="L537" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M537" s="161"/>
+      <c r="N537" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O537" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P537" s="162"/>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A538" s="153">
+        <v>538</v>
+      </c>
+      <c r="B538" s="154">
+        <v>3</v>
+      </c>
+      <c r="C538" s="155" t="s">
+        <v>133</v>
+      </c>
+      <c r="D538" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E538" s="155" t="s">
+        <v>177</v>
+      </c>
+      <c r="F538" s="157" t="s">
+        <v>532</v>
+      </c>
+      <c r="G538" s="157" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H538" s="158">
+        <v>1</v>
+      </c>
+      <c r="I538" s="159"/>
+      <c r="J538" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K538" s="160">
+        <v>45525.681909722203</v>
+      </c>
+      <c r="L538" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M538" s="161"/>
+      <c r="N538" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O538" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P538" s="162"/>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A539" s="153">
+        <v>539</v>
+      </c>
+      <c r="B539" s="154">
+        <v>2</v>
+      </c>
+      <c r="C539" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D539" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E539" s="155" t="s">
+        <v>493</v>
+      </c>
+      <c r="F539" s="157" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G539" s="157" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H539" s="158">
+        <v>0.2</v>
+      </c>
+      <c r="I539" s="159"/>
+      <c r="J539" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K539" s="160">
+        <v>45525.688518518502</v>
+      </c>
+      <c r="L539" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M539" s="161"/>
+      <c r="N539" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O539" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P539" s="162"/>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A540" s="153">
+        <v>540</v>
+      </c>
+      <c r="B540" s="154">
+        <v>2</v>
+      </c>
+      <c r="C540" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D540" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E540" s="155" t="s">
+        <v>392</v>
+      </c>
+      <c r="F540" s="157" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G540" s="157" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H540" s="158">
+        <v>0.7</v>
+      </c>
+      <c r="I540" s="159"/>
+      <c r="J540" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K540" s="160">
+        <v>45525.775497685201</v>
+      </c>
+      <c r="L540" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M540" s="161"/>
+      <c r="N540" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O540" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P540" s="162"/>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A541" s="153">
+        <v>541</v>
+      </c>
+      <c r="B541" s="154">
+        <v>4</v>
+      </c>
+      <c r="C541" s="155" t="s">
+        <v>457</v>
+      </c>
+      <c r="D541" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E541" s="155" t="s">
+        <v>152</v>
+      </c>
+      <c r="F541" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="G541" s="157" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H541" s="158">
+        <v>4</v>
+      </c>
+      <c r="I541" s="159"/>
+      <c r="J541" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="K541" s="160">
+        <v>45525.742071759298</v>
+      </c>
+      <c r="L541" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M541" s="161"/>
+      <c r="N541" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O541" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P541" s="162"/>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A542" s="153">
+        <v>542</v>
+      </c>
+      <c r="B542" s="154">
+        <v>4</v>
+      </c>
+      <c r="C542" s="155" t="s">
+        <v>457</v>
+      </c>
+      <c r="D542" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E542" s="155" t="s">
+        <v>392</v>
+      </c>
+      <c r="F542" s="157" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G542" s="157" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H542" s="158">
+        <v>3.5</v>
+      </c>
+      <c r="I542" s="159"/>
+      <c r="J542" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K542" s="160">
+        <v>45525.7429976852</v>
+      </c>
+      <c r="L542" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M542" s="161"/>
+      <c r="N542" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O542" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P542" s="162"/>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A543" s="153">
+        <v>543</v>
+      </c>
+      <c r="B543" s="154">
+        <v>4</v>
+      </c>
+      <c r="C543" s="155" t="s">
+        <v>457</v>
+      </c>
+      <c r="D543" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E543" s="155" t="s">
+        <v>152</v>
+      </c>
+      <c r="F543" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="G543" s="157" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H543" s="158">
+        <v>1</v>
+      </c>
+      <c r="I543" s="159"/>
+      <c r="J543" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="K543" s="160">
+        <v>45525.744004629603</v>
+      </c>
+      <c r="L543" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M543" s="161"/>
+      <c r="N543" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O543" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P543" s="162"/>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A544" s="153">
+        <v>544</v>
+      </c>
+      <c r="B544" s="154">
+        <v>2</v>
+      </c>
+      <c r="C544" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D544" s="156">
+        <v>45525</v>
+      </c>
+      <c r="E544" s="155" t="s">
+        <v>392</v>
+      </c>
+      <c r="F544" s="157" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G544" s="157" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H544" s="158">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I544" s="159"/>
+      <c r="J544" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K544" s="160">
+        <v>45525.775150463</v>
+      </c>
+      <c r="L544" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="M544" s="161"/>
+      <c r="N544" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="O544" s="155" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P544" s="162"/>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A545" s="163">
+        <v>545</v>
+      </c>
+      <c r="B545" s="164">
+        <v>2</v>
+      </c>
+      <c r="C545" s="165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D545" s="166">
+        <v>45525</v>
+      </c>
+      <c r="E545" s="165" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F545" s="167" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G545" s="167" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H545" s="168">
+        <v>0.6</v>
+      </c>
+      <c r="I545" s="169"/>
+      <c r="J545" s="165" t="s">
+        <v>135</v>
+      </c>
+      <c r="K545" s="170">
+        <v>45525.778032407397</v>
+      </c>
+      <c r="L545" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="M545" s="171"/>
+      <c r="N545" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="O545" s="165" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P545" s="172"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31477,7 +32740,7 @@
   <autoFilter ref="A1:J1" xr:uid="{6A0BDE8C-C0CD-4E75-A0A0-916CFADCF838}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:J99993">
-    <cfRule type="expression" dxfId="11" priority="49">
+    <cfRule type="expression" dxfId="0" priority="49">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31627,7 +32890,7 @@
   <autoFilter ref="A1:P1" xr:uid="{BF285A66-D32A-4C2D-BAAD-5B60B0034FFF}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:P9924">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31813,7 +33076,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:F9929">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31866,7 +33129,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{9CC0F112-F6F5-4729-8EA4-252A1080634A}"/>
   <conditionalFormatting sqref="A2:F99947">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37056,7 +38319,7 @@
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{8B45F79E-24DF-4598-AC35-A20900C36411}"/>
   <conditionalFormatting sqref="A2:V9997">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37752,7 +39015,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:F9992">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38497,7 +39760,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:J9997">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38778,7 +40041,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AA99997">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_MASTER.xlsx
+++ b/DataFiles/GCF_BD_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E6D01-82D8-449D-BD77-F9533AF47334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C0C305B2-2FB3-4782-9237-82920AC82DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEB_Recurrent" sheetId="12" r:id="rId1"/>
@@ -70,19 +70,19 @@
     <definedName name="dnrTypeCompteGL">OFFSET(#REF!,,,COUNTA(#REF!),1)</definedName>
     <definedName name="_xlnm.Extract" localSheetId="4">FAC_Comptes_Clients!#REF!</definedName>
     <definedName name="FAC_Projets_Détails_New">FAC_Projets_Détails!$B$1:$J$1</definedName>
-    <definedName name="Invoice_Amount" localSheetId="4">OFFSET(FAC_Comptes_Clients!$H$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$128)-1,1)</definedName>
+    <definedName name="Invoice_Amount" localSheetId="4">OFFSET(FAC_Comptes_Clients!$H$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$135)-1,1)</definedName>
     <definedName name="Invoice_Amount">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Balance" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Balance">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_CustName" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_CustName">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Invoice_Date" localSheetId="4">OFFSET(FAC_Comptes_Clients!$B$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$128)-1,1)</definedName>
+    <definedName name="Invoice_Date" localSheetId="4">OFFSET(FAC_Comptes_Clients!$B$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$135)-1,1)</definedName>
     <definedName name="Invoice_Date">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DaysOver" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DaysOver">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DueDate" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_DueDate">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Invoice_ID" localSheetId="4">OFFSET(FAC_Comptes_Clients!$A$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$128)-1,1)</definedName>
+    <definedName name="Invoice_ID" localSheetId="4">OFFSET(FAC_Comptes_Clients!$A$1,1,,COUNTA(FAC_Comptes_Clients!$A$1:$A$135)-1,1)</definedName>
     <definedName name="Invoice_ID">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Total" localSheetId="4">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_Total">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
@@ -127,6 +127,7 @@
     <definedName name="TotalOverdue">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11667" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12272" uniqueCount="2035">
   <si>
     <t>TEC_ID</t>
   </si>
@@ -5765,12 +5766,6 @@
     <t>APP_v4.H.2.xlsb</t>
   </si>
   <si>
-    <t>24-45391</t>
-  </si>
-  <si>
-    <t>45539.6824189815</t>
-  </si>
-  <si>
     <t>Comptabilité de juillet</t>
   </si>
   <si>
@@ -5925,6 +5920,339 @@
   </si>
   <si>
     <t>tel avec alexandra sur dezetech - factures d'avocats</t>
+  </si>
+  <si>
+    <t>courriel sur acomptes provisionnels</t>
+  </si>
+  <si>
+    <t>APP_v4.H.7.xlsb</t>
+  </si>
+  <si>
+    <t>courriel avec ef projet et réponse</t>
+  </si>
+  <si>
+    <t>courriel sur dûs avec Sylvain Faucher</t>
+  </si>
+  <si>
+    <t>courriel avec Nathalie - question sur écritures comptables</t>
+  </si>
+  <si>
+    <t>explication à Michel Duciaume de la conversion de dette en actions privilégiées pour AGT</t>
+  </si>
+  <si>
+    <t>analyse des états financiers internes et explication de l'ajustement de prix de vente et financement de cette portion par les acheteurs</t>
+  </si>
+  <si>
+    <t>Suivi courriel</t>
+  </si>
+  <si>
+    <t>Voir courriel + suivis de dossier</t>
+  </si>
+  <si>
+    <t>analyse de vente d'actions vs vente de terrain résidence 701 (réécoute des appels + refaire tableaux avec changement de gain en capital, etc) et vente du mctavish + actions détenues par la mère et options</t>
+  </si>
+  <si>
+    <t>APP_v4.H.8.xlsb</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>Novologik Inc. [Patrick Sabourin]</t>
+  </si>
+  <si>
+    <t>réception des livres des minutes + tel avec Patrick</t>
+  </si>
+  <si>
+    <t>répondre à demande de vérificatrice sur factures d'honoraires et explications</t>
+  </si>
+  <si>
+    <t>Examen du dossier des normes d'évaluation</t>
+  </si>
+  <si>
+    <t>Préparation du dossier pour la rencontre de cet après-midi</t>
+  </si>
+  <si>
+    <t>Révision roulement</t>
+  </si>
+  <si>
+    <t>MAJ des roulements suite à l'obtention des NE</t>
+  </si>
+  <si>
+    <t>Travail sur la base de données des clients</t>
+  </si>
+  <si>
+    <t>Présence au contrat de vente du Groupe Ducharme à Malouin Ass.</t>
+  </si>
+  <si>
+    <t>Examen de la nouvelle demande pour le CRM</t>
+  </si>
+  <si>
+    <t>Appel à Revenu Canada pour l'obtention du numéro fédéral - refus - écriture de la procédure pour l'obtention du numéro par Francis Desgagnés et expédition par courriel</t>
+  </si>
+  <si>
+    <t>Discussion avec Annie pour avoir son avis sur la procédure du CRM</t>
+  </si>
+  <si>
+    <t>Problème avec l'application de la feuille de temps et discussion avec Robert</t>
+  </si>
+  <si>
+    <t>24-24483</t>
+  </si>
+  <si>
+    <t>Constructions Gilles Garry Inc</t>
+  </si>
+  <si>
+    <t>24-24484</t>
+  </si>
+  <si>
+    <t>Larry Rumsby Maréchal-Ferrant Inc</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>24-24485</t>
+  </si>
+  <si>
+    <t>24-24486</t>
+  </si>
+  <si>
+    <t>Vignoble Kobloth et fils inc.</t>
+  </si>
+  <si>
+    <t>24-24487</t>
+  </si>
+  <si>
+    <t>24-24488</t>
+  </si>
+  <si>
+    <t>Bureau Vétérinaire Griffintown Inc.</t>
+  </si>
+  <si>
+    <t>24-24489</t>
+  </si>
+  <si>
+    <t>Gilles Garry</t>
+  </si>
+  <si>
+    <t>9 Claude-Huot</t>
+  </si>
+  <si>
+    <t>Chambly, QC, J3L 5P5</t>
+  </si>
+  <si>
+    <t>Louise Mongeau</t>
+  </si>
+  <si>
+    <t>25 Chemin Rumsby</t>
+  </si>
+  <si>
+    <t>Bromont, QC, J2L 2C9</t>
+  </si>
+  <si>
+    <t>France MORIN</t>
+  </si>
+  <si>
+    <t>ROXANE GAUTHIER</t>
+  </si>
+  <si>
+    <t>905 Le grand Boulevard Ouest</t>
+  </si>
+  <si>
+    <t>Saint-Bruno-de-Montarville, QC, J3V 4P6</t>
+  </si>
+  <si>
+    <t>Alain Lanthier</t>
+  </si>
+  <si>
+    <t>166 rue Sainte-Marie</t>
+  </si>
+  <si>
+    <t>Charlemagne, QC, J5Z 3G8</t>
+  </si>
+  <si>
+    <t>Marie-Hélène Tétreault</t>
+  </si>
+  <si>
+    <t>9840 boul. Leduc</t>
+  </si>
+  <si>
+    <t>Bureau 20</t>
+  </si>
+  <si>
+    <t>Brossard, QC, J4Y 0B4</t>
+  </si>
+  <si>
+    <t>Céline Camirand</t>
+  </si>
+  <si>
+    <t>2655 chemin Gascon</t>
+  </si>
+  <si>
+    <t>Mascouche, QC, J7L 3X9</t>
+  </si>
+  <si>
+    <t>- Comptabilité complète et rapports comptables trimestriels</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>- Préparation des relevés de fin d'année (T4, relevés 1 et autres)</t>
+  </si>
+  <si>
+    <t>- Préparation des paies et remise à la source</t>
+  </si>
+  <si>
+    <t>- Préparation des déclarations de taxes (TPS,TVQ) aux trimestres</t>
+  </si>
+  <si>
+    <t>- Autres travaux et rencontres</t>
+  </si>
+  <si>
+    <t>- ESTIMATION ANNUELLE: 3 900.00 $</t>
+  </si>
+  <si>
+    <t>- Facturation trimestrielle pour l'exercice financier se terminant le 31 mai 2025 (1 de 4)</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>- Facturation pour le mois d'août 2024</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>- Recueullir les différentes informations pertinentes à l'élaboration de la planification fiscale;</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>15172,5</t>
+  </si>
+  <si>
+    <t>11550</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>- Obtention et analyse des différents soldes fiscaux de toutes les parties impliquées;</t>
+  </si>
+  <si>
+    <t>- Analyse des livres des minutes pour déterminer les caractéristiques fiscales des actions;</t>
+  </si>
+  <si>
+    <t>- Préparation de tableaux de capital actions;</t>
+  </si>
+  <si>
+    <t>- Analyse, réflexions et recherches fiscales permettant de déterminer le plan d'action fiscal optimal;</t>
+  </si>
+  <si>
+    <t>- Rédaction d'un mémorandum fiscal pour mettre en place la réorganisation fiscale déterminée;</t>
+  </si>
+  <si>
+    <t>- Diverses discussions téléphoniques avec vous et le juriste;</t>
+  </si>
+  <si>
+    <t>- Effectuer les tests de qualification à l'exonération de gain en capital;</t>
+  </si>
+  <si>
+    <t>5792,5</t>
+  </si>
+  <si>
+    <t>- Modifications au mémorandum fiscal pour mettre en place la réorganisation fiscale déterminée;</t>
+  </si>
+  <si>
+    <t>- Travail avec votre courtier en financement ;</t>
+  </si>
+  <si>
+    <t>- Modifications aux tableaux de calculs de prix de vente, tableaux de ventes et paiements ;</t>
+  </si>
+  <si>
+    <t>- Préparer un sommaire de chèques à faire pour la séance de clôture;</t>
+  </si>
+  <si>
+    <t>- Préparation à la rencontre et rencontre avec vous par Vidéoconférence;</t>
+  </si>
+  <si>
+    <t>- Démarches d'obtention des numéros pour la nouvelle entité;</t>
+  </si>
+  <si>
+    <t>- Avancement dans la préparation des formulaires de roulement T2057 et TP-518 requis;</t>
+  </si>
+  <si>
+    <t>- Travail avec votre comptable afin de retracer toutes les avances inter-entités</t>
+  </si>
+  <si>
+    <t>- Détermination des dividendes à déclarer et attributions modifiées des années passées</t>
+  </si>
+  <si>
+    <t>- Analyse de toutes les transactions passées depuis le début de la fiducie</t>
+  </si>
+  <si>
+    <t>9380</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>45541.547962963</t>
+  </si>
+  <si>
+    <t>45541.5681712963</t>
+  </si>
+  <si>
+    <t>45541.5839930556</t>
+  </si>
+  <si>
+    <t>45541.575</t>
+  </si>
+  <si>
+    <t>Suivi de dossier + rencontre avec Robert pour feuille de temps + régler problème feuille de temps +</t>
+  </si>
+  <si>
+    <t>Suivi avant rencontre et rencontre et rencontre + vérifier choix tardif</t>
+  </si>
+  <si>
+    <t>Groupe Millénium Micro Inc. [Carl Paquin]</t>
+  </si>
+  <si>
+    <t>courriel directives de remboursement des avances et ajustement de prix de vente</t>
+  </si>
+  <si>
+    <t>Fin d'année juillet 2024</t>
+  </si>
+  <si>
+    <t>tel avec vlad sur calcul du prix de vente</t>
+  </si>
+  <si>
+    <t>transférer à Vlad</t>
+  </si>
+  <si>
+    <t>explication dossier à Vlad</t>
+  </si>
+  <si>
+    <t>suivi infos manquantes</t>
+  </si>
+  <si>
+    <t>tel avec vlad du dossier</t>
+  </si>
+  <si>
+    <t>tel avec vlad sur le dossier</t>
   </si>
 </sst>
 </file>
@@ -7816,8 +8144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}" name="tblCC_Factures_Paiements" displayName="tblCC_Factures_Paiements" ref="A1:K128" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" dataCellStyle="Monétaire">
-  <autoFilter ref="A1:K128" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}" name="tblCC_Factures_Paiements" displayName="tblCC_Factures_Paiements" ref="A1:K135" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" dataCellStyle="Monétaire">
+  <autoFilter ref="A1:K135" xr:uid="{FF3ECF7E-69C3-40D5-ADA2-75DA4BB9CB43}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{88CD8F5C-52E0-41A6-9239-2EFEC959FEE2}" name="Invoice_No" dataDxfId="62"/>
     <tableColumn id="2" xr3:uid="{56439DE3-1A07-4893-8D43-B17866F61C00}" name="Invoice_Date" dataDxfId="61"/>
@@ -7872,8 +8200,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P877" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="A1:P877" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}" name="tblTEC_Local" displayName="tblTEC_Local" ref="A1:P909" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="A1:P909" xr:uid="{0372B5EF-42AF-497E-A607-E955ED120E19}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{442BE8B7-5CE4-48D7-A603-B8BD91CF4F12}" name="TEC_ID" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{AF8BE6CE-0BCF-4480-8A4A-B19F36ABFC85}" name="Prof_ID" dataDxfId="26"/>
@@ -8274,7 +8602,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B3752E-2F9F-457A-A26B-86CB2514BE15}">
   <sheetPr codeName="mwshFAC_Sommaire_Taux"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -8372,6 +8700,91 @@
         <v>28</v>
       </c>
       <c r="E5" s="99">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="137" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>995</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="137">
+        <v>66.75</v>
+      </c>
+      <c r="E6" s="139">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="137" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B7" s="137" t="s">
+        <v>853</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="137">
+        <v>33</v>
+      </c>
+      <c r="E7" s="139">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>995</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="137">
+        <v>28.5</v>
+      </c>
+      <c r="E8" s="139">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B9" s="137" t="s">
+        <v>995</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="137">
+        <v>44.75</v>
+      </c>
+      <c r="E9" s="139">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>853</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="137">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E10" s="139">
         <v>350</v>
       </c>
     </row>
@@ -16802,12 +17215,12 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="mwshTEC_Local"/>
-  <dimension ref="A1:P878"/>
+  <dimension ref="A1:P911"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" rightToLeft="false">
-      <pane ySplit="495" topLeftCell="A131" activePane="bottomLeft"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0" rightToLeft="false">
+      <pane ySplit="495" topLeftCell="A882" activePane="bottomLeft"/>
       <selection activeCell="K1" sqref="K1:K1048576"/>
-      <selection pane="bottomLeft" activeCell="H862" sqref="H862:H877"/>
+      <selection pane="bottomLeft" activeCell="A884" sqref="A884:XFD884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17053,16 +17466,20 @@
         <v>45507</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M5" s="50">
+        <v>45541.547962963</v>
+      </c>
       <c r="N5" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O5" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P5" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P5" s="71" t="s">
+        <v>1949</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" s="47">
@@ -19985,20 +20402,16 @@
         <v>45507</v>
       </c>
       <c r="L70" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M70" s="50">
-        <v>45539.670775463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M70" s="50"/>
       <c r="N70" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O70" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P70" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P70" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="71">
       <c r="A71" s="47">
@@ -21749,20 +22162,16 @@
         <v>45507</v>
       </c>
       <c r="L110" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M110" s="50">
-        <v>45539.670775463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M110" s="50"/>
       <c r="N110" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O110" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P110" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P110" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="111">
       <c r="A111" s="47">
@@ -21841,16 +22250,20 @@
         <v>45507</v>
       </c>
       <c r="L112" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M112" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M112" s="50">
+        <v>45541.575</v>
+      </c>
       <c r="N112" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O112" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P112" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P112" s="71" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="113">
       <c r="A113" s="47">
@@ -24129,20 +24542,16 @@
         <v>45507</v>
       </c>
       <c r="L164" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M164" s="50">
-        <v>45539.670775463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M164" s="50"/>
       <c r="N164" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O164" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P164" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P164" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="165">
       <c r="A165" s="47">
@@ -24397,20 +24806,16 @@
         <v>45507</v>
       </c>
       <c r="L170" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M170" s="50">
-        <v>45539.670775463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M170" s="50"/>
       <c r="N170" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O170" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P170" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P170" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="171">
       <c r="A171" s="47">
@@ -24533,20 +24938,16 @@
         <v>45507</v>
       </c>
       <c r="L173" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M173" s="50">
-        <v>45539.670775463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M173" s="50"/>
       <c r="N173" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O173" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P173" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P173" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="174">
       <c r="A174" s="47">
@@ -24977,16 +25378,20 @@
         <v>45507</v>
       </c>
       <c r="L183" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M183" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M183" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N183" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O183" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P183" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P183" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="184">
       <c r="A184" s="47">
@@ -25021,16 +25426,20 @@
         <v>45507</v>
       </c>
       <c r="L184" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M184" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M184" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N184" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O184" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P184" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P184" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="185">
       <c r="A185" s="47">
@@ -25287,16 +25696,20 @@
         <v>45507</v>
       </c>
       <c r="L190" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M190" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M190" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N190" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O190" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P190" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P190" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="191">
       <c r="A191" s="47">
@@ -25333,16 +25746,20 @@
         <v>45507</v>
       </c>
       <c r="L191" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M191" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M191" s="50">
+        <v>45541.575</v>
+      </c>
       <c r="N191" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O191" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P191" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P191" s="71" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="192">
       <c r="A192" s="47">
@@ -25465,16 +25882,20 @@
         <v>45507</v>
       </c>
       <c r="L194" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M194" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M194" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N194" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O194" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P194" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P194" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="195">
       <c r="A195" s="47">
@@ -25729,16 +26150,20 @@
         <v>45507</v>
       </c>
       <c r="L200" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M200" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M200" s="50">
+        <v>45541.575</v>
+      </c>
       <c r="N200" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O200" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P200" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P200" s="71" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="201">
       <c r="A201" s="47">
@@ -25993,16 +26418,20 @@
         <v>45507</v>
       </c>
       <c r="L206" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M206" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M206" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N206" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O206" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P206" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P206" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="207">
       <c r="A207" s="47">
@@ -26081,16 +26510,20 @@
         <v>45507</v>
       </c>
       <c r="L208" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M208" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M208" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N208" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O208" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P208" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P208" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="209">
       <c r="A209" s="47">
@@ -26125,16 +26558,20 @@
         <v>45507</v>
       </c>
       <c r="L209" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M209" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M209" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N209" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O209" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P209" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P209" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="210">
       <c r="A210" s="47">
@@ -26257,16 +26694,20 @@
         <v>45507</v>
       </c>
       <c r="L212" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M212" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M212" s="50">
+        <v>45541.575</v>
+      </c>
       <c r="N212" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O212" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P212" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P212" s="71" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="213">
       <c r="A213" s="47">
@@ -27317,20 +27758,16 @@
         <v>45507</v>
       </c>
       <c r="L236" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M236" s="50">
-        <v>45539.670775463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M236" s="50"/>
       <c r="N236" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O236" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P236" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P236" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="237">
       <c r="A237" s="47">
@@ -27585,20 +28022,16 @@
         <v>45507</v>
       </c>
       <c r="L242" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M242" s="50">
-        <v>45539.670775463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M242" s="50"/>
       <c r="N242" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O242" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P242" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P242" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="243">
       <c r="A243" s="47">
@@ -27721,20 +28154,16 @@
         <v>45507</v>
       </c>
       <c r="L245" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M245" s="50">
-        <v>45539.670775463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M245" s="50"/>
       <c r="N245" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O245" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P245" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P245" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="246">
       <c r="A246" s="47">
@@ -27945,16 +28374,20 @@
         <v>45507</v>
       </c>
       <c r="L250" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M250" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M250" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N250" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O250" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P250" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P250" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="251">
       <c r="A251" s="47">
@@ -28033,16 +28466,20 @@
         <v>45507</v>
       </c>
       <c r="L252" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M252" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M252" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N252" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O252" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P252" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P252" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="253">
       <c r="A253" s="47">
@@ -28121,16 +28558,20 @@
         <v>45507</v>
       </c>
       <c r="L254" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M254" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M254" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N254" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O254" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P254" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P254" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="255">
       <c r="A255" s="47">
@@ -28209,16 +28650,20 @@
         <v>45507</v>
       </c>
       <c r="L256" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M256" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M256" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N256" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O256" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P256" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P256" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="257">
       <c r="A257" s="47">
@@ -28427,16 +28872,20 @@
         <v>45507</v>
       </c>
       <c r="L261" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M261" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M261" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N261" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O261" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="P261" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P261" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="262">
       <c r="A262" s="51">
@@ -28995,20 +29444,16 @@
         <v>45516.7716435185</v>
       </c>
       <c r="L274" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M274" s="50">
-        <v>45539.6824189815</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M274" s="50"/>
       <c r="N274" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O274" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P274" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P274" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="275">
       <c r="A275" s="47">
@@ -29131,20 +29576,16 @@
         <v>45516.6379050926</v>
       </c>
       <c r="L277" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M277" s="50">
-        <v>45539.6824189815</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M277" s="50"/>
       <c r="N277" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O277" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P277" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P277" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="278">
       <c r="A278" s="47">
@@ -30811,16 +31252,20 @@
         <v>45516.7342361111</v>
       </c>
       <c r="L315" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M315" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M315" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N315" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O315" s="49" t="s">
-        <v>682</v>
-      </c>
-      <c r="P315" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P315" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="316">
       <c r="A316" s="47">
@@ -30987,20 +31432,16 @@
         <v>45516.7518865741</v>
       </c>
       <c r="L319" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M319" s="50">
-        <v>45539.670775463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M319" s="50"/>
       <c r="N319" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O319" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P319" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P319" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="320">
       <c r="A320" s="47">
@@ -31299,16 +31740,20 @@
         <v>45517.5971180556</v>
       </c>
       <c r="L326" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M326" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M326" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N326" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O326" s="49" t="s">
-        <v>682</v>
-      </c>
-      <c r="P326" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P326" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="327">
       <c r="A327" s="47">
@@ -31475,16 +31920,20 @@
         <v>45517.5049768519</v>
       </c>
       <c r="L330" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M330" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M330" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N330" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O330" s="49" t="s">
-        <v>682</v>
-      </c>
-      <c r="P330" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P330" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="331">
       <c r="A331" s="47">
@@ -31563,20 +32012,16 @@
         <v>45517.536712963</v>
       </c>
       <c r="L332" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M332" s="50">
-        <v>45539.6824189815</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M332" s="50"/>
       <c r="N332" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O332" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P332" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P332" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="333">
       <c r="A333" s="47">
@@ -31611,16 +32056,20 @@
         <v>45517.7104166667</v>
       </c>
       <c r="L333" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M333" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M333" s="50">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N333" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O333" s="49" t="s">
-        <v>682</v>
-      </c>
-      <c r="P333" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P333" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="334">
       <c r="A334" s="47">
@@ -32203,19 +32652,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L346" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M346" s="50" t="s">
-        <v>752</v>
+        <v>2020</v>
       </c>
       <c r="N346" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O346" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P346" s="71" t="s">
-        <v>752</v>
+        <v>1949</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="347">
@@ -32999,19 +33448,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L362" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M362" s="50" t="s">
-        <v>752</v>
+        <v>2021</v>
       </c>
       <c r="N362" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O362" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P362" s="71" t="s">
-        <v>752</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="363">
@@ -33149,19 +33598,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L365" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M365" s="50" t="s">
-        <v>752</v>
+        <v>2022</v>
       </c>
       <c r="N365" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O365" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P365" s="71" t="s">
-        <v>752</v>
+        <v>1960</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="366">
@@ -33799,19 +34248,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L378" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M378" s="50" t="s">
-        <v>752</v>
+        <v>2023</v>
       </c>
       <c r="N378" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O378" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P378" s="71" t="s">
-        <v>752</v>
+        <v>1958</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="379">
@@ -33949,19 +34398,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L381" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M381" s="50" t="s">
-        <v>752</v>
+        <v>2021</v>
       </c>
       <c r="N381" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O381" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P381" s="71" t="s">
-        <v>752</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="382">
@@ -34799,19 +35248,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L398" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M398" s="50" t="s">
-        <v>752</v>
+        <v>2021</v>
       </c>
       <c r="N398" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O398" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P398" s="71" t="s">
-        <v>752</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="399">
@@ -34949,20 +35398,16 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L401" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M401" s="50" t="s">
-        <v>1873</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M401" s="50"/>
       <c r="N401" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O401" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P401" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P401" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="402">
       <c r="A402" s="47">
@@ -35349,19 +35794,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L409" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M409" s="50" t="s">
-        <v>752</v>
+        <v>2022</v>
       </c>
       <c r="N409" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O409" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P409" s="71" t="s">
-        <v>752</v>
+        <v>1960</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="410">
@@ -35399,19 +35844,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L410" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M410" s="50" t="s">
-        <v>752</v>
+        <v>2023</v>
       </c>
       <c r="N410" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O410" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P410" s="71" t="s">
-        <v>752</v>
+        <v>1958</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="411">
@@ -35699,19 +36144,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L416" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M416" s="50" t="s">
-        <v>752</v>
+        <v>2023</v>
       </c>
       <c r="N416" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O416" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P416" s="71" t="s">
-        <v>752</v>
+        <v>1958</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="417">
@@ -36099,19 +36544,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L424" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M424" s="50" t="s">
-        <v>752</v>
+        <v>2022</v>
       </c>
       <c r="N424" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O424" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P424" s="71" t="s">
-        <v>752</v>
+        <v>1960</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="425">
@@ -36349,20 +36794,16 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L429" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M429" s="50" t="s">
-        <v>1873</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M429" s="50"/>
       <c r="N429" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O429" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P429" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P429" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="430">
       <c r="A430" s="47">
@@ -36799,19 +37240,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L438" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M438" s="50" t="s">
-        <v>752</v>
+        <v>2021</v>
       </c>
       <c r="N438" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O438" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P438" s="71" t="s">
-        <v>752</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="439">
@@ -36999,19 +37440,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L442" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M442" s="50" t="s">
-        <v>752</v>
+        <v>2021</v>
       </c>
       <c r="N442" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O442" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P442" s="71" t="s">
-        <v>752</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="443">
@@ -37149,19 +37590,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L445" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M445" s="50" t="s">
-        <v>752</v>
+        <v>2022</v>
       </c>
       <c r="N445" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O445" s="49" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P445" s="71" t="s">
-        <v>752</v>
+        <v>1960</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="446">
@@ -37449,19 +37890,19 @@
         <v>45518.3490856482</v>
       </c>
       <c r="L451" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M451" s="54" t="s">
-        <v>752</v>
+        <v>2022</v>
       </c>
       <c r="N451" s="53" t="s">
         <v>135</v>
       </c>
       <c r="O451" s="53" t="s">
-        <v>753</v>
+        <v>1934</v>
       </c>
       <c r="P451" s="73" t="s">
-        <v>752</v>
+        <v>1960</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="452">
@@ -37497,20 +37938,16 @@
         <v>45518.4975694444</v>
       </c>
       <c r="L452" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M452" s="50">
-        <v>45539.6824189815</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M452" s="50"/>
       <c r="N452" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O452" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P452" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P452" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="453">
       <c r="A453" s="47">
@@ -37765,16 +38202,20 @@
         <v>45518.778125</v>
       </c>
       <c r="L458" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M458" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M458" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N458" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O458" s="49" t="s">
-        <v>753</v>
-      </c>
-      <c r="P458" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P458" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="459">
       <c r="A459" s="47">
@@ -37985,16 +38426,20 @@
         <v>45519.7583333333</v>
       </c>
       <c r="L463" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M463" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M463" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N463" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O463" s="49" t="s">
-        <v>904</v>
-      </c>
-      <c r="P463" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P463" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="464">
       <c r="A464" s="47">
@@ -38073,20 +38518,16 @@
         <v>45519.8690740741</v>
       </c>
       <c r="L465" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M465" s="50">
-        <v>45539.6824189815</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M465" s="50"/>
       <c r="N465" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O465" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P465" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P465" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="466">
       <c r="A466" s="47">
@@ -38124,16 +38565,16 @@
         <v>134</v>
       </c>
       <c r="M466" s="50">
-        <v>45539.6824189815</v>
+        <v>45541.5681712963</v>
       </c>
       <c r="N466" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O466" s="49" t="s">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="P466" s="71" t="s">
-        <v>1872</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="467">
@@ -39269,20 +39710,16 @@
         <v>45520.3806597222</v>
       </c>
       <c r="L492" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M492" s="50">
-        <v>45539.6824189815</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M492" s="50"/>
       <c r="N492" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O492" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P492" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P492" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="493">
       <c r="A493" s="47">
@@ -39408,16 +39845,16 @@
         <v>134</v>
       </c>
       <c r="M495" s="50">
-        <v>45539.6824189815</v>
+        <v>45541.5681712963</v>
       </c>
       <c r="N495" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O495" s="49" t="s">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="P495" s="71" t="s">
-        <v>1872</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="496">
@@ -39541,16 +39978,20 @@
         <v>45520.4399305556</v>
       </c>
       <c r="L498" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M498" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M498" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N498" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O498" s="49" t="s">
-        <v>937</v>
-      </c>
-      <c r="P498" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P498" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="499">
       <c r="A499" s="47">
@@ -39632,16 +40073,16 @@
         <v>134</v>
       </c>
       <c r="M500" s="50">
-        <v>45539.6824189815</v>
+        <v>45541.5681712963</v>
       </c>
       <c r="N500" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O500" s="49" t="s">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="P500" s="71" t="s">
-        <v>1872</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="501">
@@ -39677,20 +40118,16 @@
         <v>45522.7510069444</v>
       </c>
       <c r="L501" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M501" s="50">
-        <v>45539.670775463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M501" s="50"/>
       <c r="N501" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O501" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P501" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P501" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="502">
       <c r="A502" s="47">
@@ -40255,16 +40692,20 @@
         <v>45524.7119328704</v>
       </c>
       <c r="L514" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M514" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M514" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N514" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O514" s="49" t="s">
-        <v>985</v>
-      </c>
-      <c r="P514" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P514" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="515">
       <c r="A515" s="47">
@@ -40519,20 +40960,16 @@
         <v>45524.7574074074</v>
       </c>
       <c r="L520" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M520" s="50">
-        <v>45539.6824189815</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M520" s="50"/>
       <c r="N520" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O520" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P520" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P520" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="521">
       <c r="A521" s="47">
@@ -40702,16 +41139,16 @@
         <v>134</v>
       </c>
       <c r="M524" s="50">
-        <v>45539.6824189815</v>
+        <v>45541.5681712963</v>
       </c>
       <c r="N524" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O524" s="49" t="s">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="P524" s="71" t="s">
-        <v>1872</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="525">
@@ -40838,16 +41275,16 @@
         <v>134</v>
       </c>
       <c r="M527" s="50">
-        <v>45539.6824189815</v>
+        <v>45541.5681712963</v>
       </c>
       <c r="N527" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O527" s="49" t="s">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="P527" s="71" t="s">
-        <v>1872</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="528">
@@ -41238,16 +41675,16 @@
         <v>134</v>
       </c>
       <c r="M536" s="50">
-        <v>45539.6824189815</v>
+        <v>45541.5681712963</v>
       </c>
       <c r="N536" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O536" s="49" t="s">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="P536" s="71" t="s">
-        <v>1872</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="537">
@@ -42647,20 +43084,16 @@
         <v>45527.3723263889</v>
       </c>
       <c r="L568" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M568" s="50">
-        <v>45539.6824189815</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M568" s="50"/>
       <c r="N568" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O568" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="P568" s="71" t="s">
-        <v>1872</v>
-      </c>
+      <c r="P568" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="569">
       <c r="A569" s="47">
@@ -42698,16 +43131,16 @@
         <v>134</v>
       </c>
       <c r="M569" s="50">
-        <v>45539.6824189815</v>
+        <v>45541.5681712963</v>
       </c>
       <c r="N569" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O569" s="49" t="s">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="P569" s="71" t="s">
-        <v>1872</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="570">
@@ -43755,16 +44188,20 @@
         <v>45530.2890046296</v>
       </c>
       <c r="L593" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M593" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M593" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N593" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O593" s="49" t="s">
-        <v>1365</v>
-      </c>
-      <c r="P593" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P593" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="594">
       <c r="A594" s="47">
@@ -44195,16 +44632,20 @@
         <v>45530.6980787037</v>
       </c>
       <c r="L603" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M603" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M603" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N603" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O603" s="49" t="s">
-        <v>1365</v>
-      </c>
-      <c r="P603" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P603" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="604">
       <c r="A604" s="47">
@@ -44283,16 +44724,20 @@
         <v>45530.6175115741</v>
       </c>
       <c r="L605" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M605" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M605" s="50">
+        <v>45541.575</v>
+      </c>
       <c r="N605" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O605" s="49" t="s">
-        <v>1365</v>
-      </c>
-      <c r="P605" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P605" s="71" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="606">
       <c r="A606" s="47">
@@ -45119,16 +45564,20 @@
         <v>45531.5321296296</v>
       </c>
       <c r="L624" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M624" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M624" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N624" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O624" s="49" t="s">
-        <v>1413</v>
-      </c>
-      <c r="P624" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P624" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="625">
       <c r="A625" s="47">
@@ -45210,16 +45659,16 @@
         <v>134</v>
       </c>
       <c r="M626" s="50">
-        <v>45539.6824189815</v>
+        <v>45541.5681712963</v>
       </c>
       <c r="N626" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O626" s="49" t="s">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="P626" s="71" t="s">
-        <v>1872</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="627">
@@ -45255,16 +45704,20 @@
         <v>45531.529537037</v>
       </c>
       <c r="L627" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M627" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M627" s="50">
+        <v>45541.575</v>
+      </c>
       <c r="N627" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O627" s="49" t="s">
-        <v>1413</v>
-      </c>
-      <c r="P627" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P627" s="71" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="628">
       <c r="A628" s="47">
@@ -46047,16 +46500,20 @@
         <v>45531.7125</v>
       </c>
       <c r="L645" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M645" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M645" s="50">
+        <v>45541.547962963</v>
+      </c>
       <c r="N645" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O645" s="49" t="s">
-        <v>1413</v>
-      </c>
-      <c r="P645" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P645" s="71" t="s">
+        <v>1949</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="646">
       <c r="A646" s="47">
@@ -47281,16 +47738,20 @@
         <v>45532.7355555556</v>
       </c>
       <c r="L673" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M673" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M673" s="50">
+        <v>45541.5839930556</v>
+      </c>
       <c r="N673" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O673" s="49" t="s">
-        <v>1413</v>
-      </c>
-      <c r="P673" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P673" s="71" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="674">
       <c r="A674" s="47">
@@ -47636,16 +48097,16 @@
         <v>134</v>
       </c>
       <c r="M681" s="50">
-        <v>45539.6824189815</v>
+        <v>45541.5681712963</v>
       </c>
       <c r="N681" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O681" s="49" t="s">
-        <v>1871</v>
+        <v>1934</v>
       </c>
       <c r="P681" s="71" t="s">
-        <v>1872</v>
+        <v>1957</v>
       </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="682">
@@ -48565,16 +49026,20 @@
         <v>45533.7115856481</v>
       </c>
       <c r="L702" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M702" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M702" s="50">
+        <v>45541.547962963</v>
+      </c>
       <c r="N702" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O702" s="49" t="s">
-        <v>1478</v>
-      </c>
-      <c r="P702" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P702" s="71" t="s">
+        <v>1949</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="703">
       <c r="A703" s="47">
@@ -51209,16 +51674,20 @@
         <v>45534.5565972222</v>
       </c>
       <c r="L762" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M762" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="M762" s="50">
+        <v>45541.5536574074</v>
+      </c>
       <c r="N762" s="49" t="s">
         <v>135</v>
       </c>
       <c r="O762" s="49" t="s">
-        <v>1513</v>
-      </c>
-      <c r="P762" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P762" s="71" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="763">
       <c r="A763" s="47">
@@ -54277,16 +54746,20 @@
         <v>45539.6083912037</v>
       </c>
       <c r="L831" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="M831" s="54"/>
+        <v>134</v>
+      </c>
+      <c r="M831" s="54">
+        <v>45541.5510300926</v>
+      </c>
       <c r="N831" s="152" t="s">
         <v>135</v>
       </c>
       <c r="O831" s="152" t="s">
-        <v>1840</v>
-      </c>
-      <c r="P831" s="73"/>
+        <v>1934</v>
+      </c>
+      <c r="P831" s="73" t="s">
+        <v>1954</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="832">
       <c r="A832" s="51">
@@ -54308,7 +54781,7 @@
         <v>1512</v>
       </c>
       <c r="G832" s="72" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="H832" s="76">
         <v>3.5</v>
@@ -54321,16 +54794,20 @@
         <v>45539.6094560185</v>
       </c>
       <c r="L832" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="M832" s="54"/>
+        <v>134</v>
+      </c>
+      <c r="M832" s="54">
+        <v>45541.5536574074</v>
+      </c>
       <c r="N832" s="152" t="s">
         <v>135</v>
       </c>
       <c r="O832" s="152" t="s">
-        <v>1840</v>
-      </c>
-      <c r="P832" s="73"/>
+        <v>1934</v>
+      </c>
+      <c r="P832" s="73" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="833">
       <c r="A833" s="51">
@@ -54352,7 +54829,7 @@
         <v>890</v>
       </c>
       <c r="G833" s="72" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="H833" s="76">
         <v>0.25</v>
@@ -54440,7 +54917,7 @@
         <v>1565</v>
       </c>
       <c r="G835" s="72" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="H835" s="76">
         <v>1.75</v>
@@ -54484,7 +54961,7 @@
         <v>1565</v>
       </c>
       <c r="G836" s="72" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="H836" s="76">
         <v>2.5</v>
@@ -54528,7 +55005,7 @@
         <v>1565</v>
       </c>
       <c r="G837" s="72" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="H837" s="76">
         <v>0.5</v>
@@ -54572,7 +55049,7 @@
         <v>1565</v>
       </c>
       <c r="G838" s="72" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="H838" s="76">
         <v>0.75</v>
@@ -54616,7 +55093,7 @@
         <v>1565</v>
       </c>
       <c r="G839" s="72" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="H839" s="76">
         <v>2</v>
@@ -54660,7 +55137,7 @@
         <v>1565</v>
       </c>
       <c r="G840" s="72" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="H840" s="76">
         <v>5.5</v>
@@ -54704,7 +55181,7 @@
         <v>1084</v>
       </c>
       <c r="G841" s="72" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="H841" s="76">
         <v>1</v>
@@ -54748,7 +55225,7 @@
         <v>1565</v>
       </c>
       <c r="G842" s="72" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="H842" s="76">
         <v>2.5</v>
@@ -54792,13 +55269,13 @@
         <v>524</v>
       </c>
       <c r="G843" s="72" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H843" s="76">
         <v>5.5</v>
       </c>
       <c r="I843" s="81" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="J843" s="53" t="s">
         <v>134</v>
@@ -54838,7 +55315,7 @@
         <v>655</v>
       </c>
       <c r="G844" s="72" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="H844" s="76">
         <v>0.75</v>
@@ -54882,7 +55359,7 @@
         <v>508</v>
       </c>
       <c r="G845" s="72" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="H845" s="76">
         <v>0.5</v>
@@ -54926,7 +55403,7 @@
         <v>1084</v>
       </c>
       <c r="G846" s="72" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="H846" s="76">
         <v>0.4</v>
@@ -54970,7 +55447,7 @@
         <v>1159</v>
       </c>
       <c r="G847" s="72" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="H847" s="76">
         <v>0.5</v>
@@ -55014,7 +55491,7 @@
         <v>1094</v>
       </c>
       <c r="G848" s="72" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="H848" s="76">
         <v>0.75</v>
@@ -55058,7 +55535,7 @@
         <v>1574</v>
       </c>
       <c r="G849" s="72" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="H849" s="76">
         <v>1.75</v>
@@ -55102,7 +55579,7 @@
         <v>717</v>
       </c>
       <c r="G850" s="72" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="H850" s="76">
         <v>2</v>
@@ -55146,7 +55623,7 @@
         <v>522</v>
       </c>
       <c r="G851" s="72" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="H851" s="76">
         <v>0.25</v>
@@ -55190,7 +55667,7 @@
         <v>1383</v>
       </c>
       <c r="G852" s="72" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="H852" s="76">
         <v>0.4</v>
@@ -55234,7 +55711,7 @@
         <v>1095</v>
       </c>
       <c r="G853" s="72" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="H853" s="76">
         <v>1</v>
@@ -55278,7 +55755,7 @@
         <v>652</v>
       </c>
       <c r="G854" s="72" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="H854" s="76">
         <v>0.5</v>
@@ -55322,7 +55799,7 @@
         <v>663</v>
       </c>
       <c r="G855" s="72" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="H855" s="76">
         <v>0.75</v>
@@ -55366,7 +55843,7 @@
         <v>1084</v>
       </c>
       <c r="G856" s="72" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="H856" s="76">
         <v>1</v>
@@ -55410,7 +55887,7 @@
         <v>1806</v>
       </c>
       <c r="G857" s="72" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="H857" s="76">
         <v>0.5</v>
@@ -55454,7 +55931,7 @@
         <v>1432</v>
       </c>
       <c r="G858" s="72" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="H858" s="76">
         <v>0.25</v>
@@ -55498,7 +55975,7 @@
         <v>1818</v>
       </c>
       <c r="G859" s="72" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="H859" s="76">
         <v>0.25</v>
@@ -55542,7 +56019,7 @@
         <v>1512</v>
       </c>
       <c r="G860" s="72" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="H860" s="76">
         <v>3</v>
@@ -55555,16 +56032,20 @@
         <v>45539.742337963</v>
       </c>
       <c r="L860" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="M860" s="54"/>
+        <v>134</v>
+      </c>
+      <c r="M860" s="54">
+        <v>45541.5536574074</v>
+      </c>
       <c r="N860" s="152" t="s">
         <v>135</v>
       </c>
       <c r="O860" s="152" t="s">
-        <v>1871</v>
-      </c>
-      <c r="P860" s="73"/>
+        <v>1934</v>
+      </c>
+      <c r="P860" s="73" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="861">
       <c r="A861" s="51">
@@ -55586,7 +56067,7 @@
         <v>1565</v>
       </c>
       <c r="G861" s="72" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="H861" s="76">
         <v>4.6</v>
@@ -55630,7 +56111,7 @@
         <v>1512</v>
       </c>
       <c r="G862" s="70" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="H862" s="75">
         <v>1.25</v>
@@ -55643,16 +56124,20 @@
         <v>45540.4639583333</v>
       </c>
       <c r="L862" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M862" s="168"/>
+        <v>134</v>
+      </c>
+      <c r="M862" s="168">
+        <v>45541.5536574074</v>
+      </c>
       <c r="N862" s="120" t="s">
         <v>135</v>
       </c>
       <c r="O862" s="120" t="s">
-        <v>1905</v>
-      </c>
-      <c r="P862" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P862" s="71" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="863">
       <c r="A863" s="47">
@@ -55674,7 +56159,7 @@
         <v>524</v>
       </c>
       <c r="G863" s="70" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="H863" s="75">
         <v>0.75</v>
@@ -55694,7 +56179,7 @@
         <v>135</v>
       </c>
       <c r="O863" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P863" s="71"/>
     </row>
@@ -55718,13 +56203,13 @@
         <v>1085</v>
       </c>
       <c r="G864" s="70" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="H864" s="75">
         <v>0.4</v>
       </c>
       <c r="I864" s="80" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="J864" s="49" t="s">
         <v>134</v>
@@ -55740,7 +56225,7 @@
         <v>135</v>
       </c>
       <c r="O864" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P864" s="71"/>
     </row>
@@ -55764,7 +56249,7 @@
         <v>1097</v>
       </c>
       <c r="G865" s="70" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="H865" s="75">
         <v>1.25</v>
@@ -55784,7 +56269,7 @@
         <v>135</v>
       </c>
       <c r="O865" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P865" s="71"/>
     </row>
@@ -55808,7 +56293,7 @@
         <v>1565</v>
       </c>
       <c r="G866" s="70" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="H866" s="75">
         <v>1</v>
@@ -55828,7 +56313,7 @@
         <v>135</v>
       </c>
       <c r="O866" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P866" s="71"/>
     </row>
@@ -55852,7 +56337,7 @@
         <v>1593</v>
       </c>
       <c r="G867" s="70" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="H867" s="75">
         <v>0.75</v>
@@ -55872,7 +56357,7 @@
         <v>135</v>
       </c>
       <c r="O867" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P867" s="71"/>
     </row>
@@ -55896,7 +56381,7 @@
         <v>1026</v>
       </c>
       <c r="G868" s="70" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="H868" s="75">
         <v>0.4</v>
@@ -55916,7 +56401,7 @@
         <v>135</v>
       </c>
       <c r="O868" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P868" s="71"/>
     </row>
@@ -55940,7 +56425,7 @@
         <v>1713</v>
       </c>
       <c r="G869" s="70" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="H869" s="75">
         <v>0.75</v>
@@ -55960,7 +56445,7 @@
         <v>135</v>
       </c>
       <c r="O869" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P869" s="71"/>
     </row>
@@ -55984,7 +56469,7 @@
         <v>1024</v>
       </c>
       <c r="G870" s="70" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="H870" s="75">
         <v>1.25</v>
@@ -55997,16 +56482,20 @@
         <v>45540.5209375</v>
       </c>
       <c r="L870" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M870" s="168"/>
+        <v>134</v>
+      </c>
+      <c r="M870" s="168">
+        <v>45541.5681712963</v>
+      </c>
       <c r="N870" s="120" t="s">
         <v>135</v>
       </c>
       <c r="O870" s="120" t="s">
-        <v>1905</v>
-      </c>
-      <c r="P870" s="71"/>
+        <v>1934</v>
+      </c>
+      <c r="P870" s="71" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="871">
       <c r="A871" s="47">
@@ -56028,7 +56517,7 @@
         <v>1801</v>
       </c>
       <c r="G871" s="70" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="H871" s="75">
         <v>1</v>
@@ -56048,7 +56537,7 @@
         <v>135</v>
       </c>
       <c r="O871" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P871" s="71"/>
     </row>
@@ -56069,10 +56558,10 @@
         <v>583</v>
       </c>
       <c r="F872" s="70" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="G872" s="70" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="H872" s="75">
         <v>0.75</v>
@@ -56092,7 +56581,7 @@
         <v>135</v>
       </c>
       <c r="O872" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P872" s="71"/>
     </row>
@@ -56116,7 +56605,7 @@
         <v>648</v>
       </c>
       <c r="G873" s="70" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="H873" s="75">
         <v>0.5</v>
@@ -56136,7 +56625,7 @@
         <v>135</v>
       </c>
       <c r="O873" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P873" s="71"/>
     </row>
@@ -56154,13 +56643,13 @@
         <v>45540</v>
       </c>
       <c r="E874" s="49" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F874" s="70" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G874" s="70" t="s">
         <v>1919</v>
-      </c>
-      <c r="F874" s="70" t="s">
-        <v>1920</v>
-      </c>
-      <c r="G874" s="70" t="s">
-        <v>1921</v>
       </c>
       <c r="H874" s="75">
         <v>1.5</v>
@@ -56180,7 +56669,7 @@
         <v>135</v>
       </c>
       <c r="O874" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P874" s="71"/>
     </row>
@@ -56204,7 +56693,7 @@
         <v>1574</v>
       </c>
       <c r="G875" s="70" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="H875" s="75">
         <v>0.5</v>
@@ -56224,7 +56713,7 @@
         <v>135</v>
       </c>
       <c r="O875" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P875" s="71"/>
     </row>
@@ -56248,7 +56737,7 @@
         <v>1744</v>
       </c>
       <c r="G876" s="70" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="H876" s="75">
         <v>2</v>
@@ -56268,108 +56757,1573 @@
         <v>135</v>
       </c>
       <c r="O876" s="120" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="P876" s="71"/>
     </row>
     <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="877">
-      <c r="A877" s="51">
+      <c r="A877" s="47">
         <v>877</v>
       </c>
-      <c r="B877" s="52">
+      <c r="B877" s="48">
         <v>1</v>
       </c>
-      <c r="C877" s="53" t="s">
+      <c r="C877" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D877" s="167">
+      <c r="D877" s="166">
         <v>45540</v>
       </c>
-      <c r="E877" s="53" t="s">
+      <c r="E877" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="F877" s="72" t="s">
+      <c r="F877" s="70" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G877" s="70" t="s">
+        <v>1923</v>
+      </c>
+      <c r="H877" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="I877" s="80"/>
+      <c r="J877" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K877" s="157">
+        <v>45540.750162037</v>
+      </c>
+      <c r="L877" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M877" s="168"/>
+      <c r="N877" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O877" s="120" t="s">
+        <v>1903</v>
+      </c>
+      <c r="P877" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="878">
+      <c r="A878" s="47">
+        <v>878</v>
+      </c>
+      <c r="B878" s="48">
+        <v>1</v>
+      </c>
+      <c r="C878" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D878" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E878" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="F878" s="70" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G878" s="70" t="s">
         <v>1924</v>
       </c>
-      <c r="G877" s="72" t="s">
+      <c r="H878" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="I878" s="80"/>
+      <c r="J878" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K878" s="157">
+        <v>45541.2573263889</v>
+      </c>
+      <c r="L878" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M878" s="168"/>
+      <c r="N878" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O878" s="120" t="s">
         <v>1925</v>
       </c>
-      <c r="H877" s="76">
+      <c r="P878" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="879">
+      <c r="A879" s="47">
+        <v>879</v>
+      </c>
+      <c r="B879" s="48">
+        <v>1</v>
+      </c>
+      <c r="C879" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D879" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E879" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F879" s="70" t="s">
+        <v>506</v>
+      </c>
+      <c r="G879" s="70" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H879" s="75">
+        <v>0.75</v>
+      </c>
+      <c r="I879" s="80"/>
+      <c r="J879" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K879" s="157">
+        <v>45541.2606712963</v>
+      </c>
+      <c r="L879" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M879" s="168"/>
+      <c r="N879" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O879" s="120" t="s">
+        <v>1925</v>
+      </c>
+      <c r="P879" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="880">
+      <c r="A880" s="47">
+        <v>880</v>
+      </c>
+      <c r="B880" s="48">
+        <v>1</v>
+      </c>
+      <c r="C880" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D880" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E880" s="49" t="s">
+        <v>548</v>
+      </c>
+      <c r="F880" s="70" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G880" s="70" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H880" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="I880" s="80"/>
+      <c r="J880" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K880" s="157">
+        <v>45541.261875</v>
+      </c>
+      <c r="L880" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M880" s="168"/>
+      <c r="N880" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O880" s="120" t="s">
+        <v>1925</v>
+      </c>
+      <c r="P880" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="881">
+      <c r="A881" s="47">
+        <v>881</v>
+      </c>
+      <c r="B881" s="48">
+        <v>1</v>
+      </c>
+      <c r="C881" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D881" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E881" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F881" s="70" t="s">
+        <v>655</v>
+      </c>
+      <c r="G881" s="70" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H881" s="75">
         <v>0.5</v>
       </c>
-      <c r="I877" s="81"/>
-      <c r="J877" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="K877" s="169">
-        <v>45540.750162037</v>
-      </c>
-      <c r="L877" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="M877" s="170"/>
-      <c r="N877" s="152" t="s">
-        <v>135</v>
-      </c>
-      <c r="O877" s="152" t="s">
-        <v>1905</v>
-      </c>
-      <c r="P877" s="73"/>
-    </row>
-    <row outlineLevel="0" r="878">
-      <c r="A878" s="137">
-        <v>878</v>
-      </c>
-      <c r="B878" s="137">
+      <c r="I881" s="80"/>
+      <c r="J881" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K881" s="157">
+        <v>45541.2693634259</v>
+      </c>
+      <c r="L881" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M881" s="168"/>
+      <c r="N881" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O881" s="120" t="s">
+        <v>1925</v>
+      </c>
+      <c r="P881" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="882">
+      <c r="A882" s="47">
+        <v>882</v>
+      </c>
+      <c r="B882" s="48">
+        <v>1</v>
+      </c>
+      <c r="C882" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D882" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E882" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="F882" s="70" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G882" s="70" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H882" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="I882" s="80"/>
+      <c r="J882" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K882" s="157">
+        <v>45541.2735532407</v>
+      </c>
+      <c r="L882" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M882" s="168"/>
+      <c r="N882" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O882" s="120" t="s">
+        <v>1925</v>
+      </c>
+      <c r="P882" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="883">
+      <c r="A883" s="47">
+        <v>883</v>
+      </c>
+      <c r="B883" s="48">
+        <v>1</v>
+      </c>
+      <c r="C883" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D883" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E883" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="F883" s="70" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G883" s="70" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H883" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="I883" s="80"/>
+      <c r="J883" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K883" s="157">
+        <v>45541.2771412037</v>
+      </c>
+      <c r="L883" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M883" s="168"/>
+      <c r="N883" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O883" s="120" t="s">
+        <v>1925</v>
+      </c>
+      <c r="P883" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="884">
+      <c r="A884" s="47">
+        <v>884</v>
+      </c>
+      <c r="B884" s="48">
         <v>2</v>
       </c>
-      <c r="C878" s="137" t="inlineStr">
+      <c r="C884" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D884" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E884" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F884" s="70" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G884" s="70" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H884" s="75">
+        <v>1.3</v>
+      </c>
+      <c r="I884" s="80"/>
+      <c r="J884" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="K884" s="157">
+        <v>45541.6701388889</v>
+      </c>
+      <c r="L884" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M884" s="168"/>
+      <c r="N884" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O884" s="120" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P884" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="885">
+      <c r="A885" s="47">
+        <v>885</v>
+      </c>
+      <c r="B885" s="48">
+        <v>2</v>
+      </c>
+      <c r="C885" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D885" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E885" s="49" t="s">
+        <v>550</v>
+      </c>
+      <c r="F885" s="70" t="s">
+        <v>808</v>
+      </c>
+      <c r="G885" s="70" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H885" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="I885" s="80"/>
+      <c r="J885" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K885" s="157">
+        <v>45541.3391087963</v>
+      </c>
+      <c r="L885" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M885" s="168"/>
+      <c r="N885" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O885" s="120" t="s">
+        <v>1925</v>
+      </c>
+      <c r="P885" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="886">
+      <c r="A886" s="47">
+        <v>886</v>
+      </c>
+      <c r="B886" s="48">
+        <v>2</v>
+      </c>
+      <c r="C886" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D886" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E886" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F886" s="70" t="s">
+        <v>506</v>
+      </c>
+      <c r="G886" s="70" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H886" s="75">
+        <v>1.1</v>
+      </c>
+      <c r="I886" s="80"/>
+      <c r="J886" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K886" s="157">
+        <v>45541.392650463</v>
+      </c>
+      <c r="L886" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M886" s="168"/>
+      <c r="N886" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O886" s="120" t="s">
+        <v>1925</v>
+      </c>
+      <c r="P886" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="887">
+      <c r="A887" s="47">
+        <v>887</v>
+      </c>
+      <c r="B887" s="48">
+        <v>1</v>
+      </c>
+      <c r="C887" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D887" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E887" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="F887" s="70" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G887" s="70" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H887" s="75">
+        <v>2.5</v>
+      </c>
+      <c r="I887" s="80"/>
+      <c r="J887" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K887" s="157">
+        <v>45541.4928009259</v>
+      </c>
+      <c r="L887" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M887" s="168"/>
+      <c r="N887" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O887" s="120" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P887" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="888">
+      <c r="A888" s="47">
+        <v>888</v>
+      </c>
+      <c r="B888" s="48">
+        <v>1</v>
+      </c>
+      <c r="C888" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D888" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E888" s="49" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F888" s="70" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G888" s="70" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H888" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="I888" s="80"/>
+      <c r="J888" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K888" s="157">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L888" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M888" s="168"/>
+      <c r="N888" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O888" s="120" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P888" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="889">
+      <c r="A889" s="47">
+        <v>889</v>
+      </c>
+      <c r="B889" s="48">
+        <v>1</v>
+      </c>
+      <c r="C889" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D889" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E889" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="F889" s="70" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G889" s="70" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H889" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="I889" s="80"/>
+      <c r="J889" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K889" s="157">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L889" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M889" s="168"/>
+      <c r="N889" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O889" s="120" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P889" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="890">
+      <c r="A890" s="47">
+        <v>891</v>
+      </c>
+      <c r="B890" s="48">
+        <v>4</v>
+      </c>
+      <c r="C890" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D890" s="166">
+        <v>45540</v>
+      </c>
+      <c r="E890" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F890" s="70" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G890" s="70" t="s">
+        <v>1939</v>
+      </c>
+      <c r="H890" s="75">
+        <v>0.75</v>
+      </c>
+      <c r="I890" s="80"/>
+      <c r="J890" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="K890" s="157">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L890" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M890" s="168"/>
+      <c r="N890" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O890" s="120" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P890" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="891">
+      <c r="A891" s="47">
+        <v>892</v>
+      </c>
+      <c r="B891" s="48">
+        <v>4</v>
+      </c>
+      <c r="C891" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D891" s="166">
+        <v>45540</v>
+      </c>
+      <c r="E891" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F891" s="70" t="s">
+        <v>500</v>
+      </c>
+      <c r="G891" s="70" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H891" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="I891" s="80"/>
+      <c r="J891" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K891" s="157">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L891" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M891" s="168"/>
+      <c r="N891" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O891" s="120" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P891" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="892">
+      <c r="A892" s="47">
+        <v>893</v>
+      </c>
+      <c r="B892" s="48">
+        <v>2</v>
+      </c>
+      <c r="C892" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D892" s="166">
+        <v>45541</v>
+      </c>
+      <c r="E892" s="49" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F892" s="70" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G892" s="70" t="s">
+        <v>2025</v>
+      </c>
+      <c r="H892" s="75">
+        <v>1.3</v>
+      </c>
+      <c r="I892" s="80"/>
+      <c r="J892" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K892" s="157">
+        <v>45541.6697916667</v>
+      </c>
+      <c r="L892" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M892" s="168"/>
+      <c r="N892" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="O892" s="120" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P892" s="71"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="893">
+      <c r="A893" s="51">
+        <v>894</v>
+      </c>
+      <c r="B893" s="52">
+        <v>2</v>
+      </c>
+      <c r="C893" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D893" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E893" s="53" t="s">
+        <v>856</v>
+      </c>
+      <c r="F893" s="72" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G893" s="72" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H893" s="76">
+        <v>0.2</v>
+      </c>
+      <c r="I893" s="81"/>
+      <c r="J893" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K893" s="169">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L893" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M893" s="170"/>
+      <c r="N893" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O893" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P893" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="894">
+      <c r="A894" s="51">
+        <v>895</v>
+      </c>
+      <c r="B894" s="52">
+        <v>4</v>
+      </c>
+      <c r="C894" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="D894" s="167">
+        <v>45540</v>
+      </c>
+      <c r="E894" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="F894" s="72" t="s">
+        <v>527</v>
+      </c>
+      <c r="G894" s="72" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H894" s="76">
+        <v>1</v>
+      </c>
+      <c r="I894" s="81"/>
+      <c r="J894" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K894" s="169">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L894" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M894" s="170"/>
+      <c r="N894" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O894" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P894" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="895">
+      <c r="A895" s="51">
+        <v>896</v>
+      </c>
+      <c r="B895" s="52">
+        <v>4</v>
+      </c>
+      <c r="C895" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="D895" s="167">
+        <v>45540</v>
+      </c>
+      <c r="E895" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="F895" s="72" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G895" s="72" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H895" s="76">
+        <v>1</v>
+      </c>
+      <c r="I895" s="81"/>
+      <c r="J895" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="K895" s="169">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L895" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M895" s="170"/>
+      <c r="N895" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O895" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P895" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="896">
+      <c r="A896" s="51">
+        <v>897</v>
+      </c>
+      <c r="B896" s="52">
+        <v>4</v>
+      </c>
+      <c r="C896" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="D896" s="167">
+        <v>45540</v>
+      </c>
+      <c r="E896" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="F896" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="G896" s="72" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H896" s="76">
+        <v>2.75</v>
+      </c>
+      <c r="I896" s="81"/>
+      <c r="J896" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K896" s="169">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L896" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M896" s="170"/>
+      <c r="N896" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O896" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P896" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="897">
+      <c r="A897" s="51">
+        <v>898</v>
+      </c>
+      <c r="B897" s="52">
+        <v>4</v>
+      </c>
+      <c r="C897" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="D897" s="167">
+        <v>45540</v>
+      </c>
+      <c r="E897" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="F897" s="72" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G897" s="72" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H897" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="I897" s="81"/>
+      <c r="J897" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K897" s="169">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L897" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M897" s="170"/>
+      <c r="N897" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O897" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P897" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="898">
+      <c r="A898" s="51">
+        <v>899</v>
+      </c>
+      <c r="B898" s="52">
+        <v>4</v>
+      </c>
+      <c r="C898" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="D898" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E898" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="F898" s="72" t="s">
+        <v>527</v>
+      </c>
+      <c r="G898" s="72" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H898" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="I898" s="81"/>
+      <c r="J898" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K898" s="169">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L898" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M898" s="170"/>
+      <c r="N898" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O898" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P898" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="899">
+      <c r="A899" s="51">
+        <v>900</v>
+      </c>
+      <c r="B899" s="52">
+        <v>4</v>
+      </c>
+      <c r="C899" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="D899" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E899" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="F899" s="72" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G899" s="72" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H899" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="I899" s="81"/>
+      <c r="J899" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K899" s="169">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L899" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M899" s="170"/>
+      <c r="N899" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O899" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P899" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="900">
+      <c r="A900" s="51">
+        <v>901</v>
+      </c>
+      <c r="B900" s="52">
+        <v>4</v>
+      </c>
+      <c r="C900" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="D900" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E900" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="F900" s="72" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G900" s="72" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H900" s="76">
+        <v>0.25</v>
+      </c>
+      <c r="I900" s="81"/>
+      <c r="J900" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K900" s="169">
+        <v>45541.4982291667</v>
+      </c>
+      <c r="L900" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M900" s="170"/>
+      <c r="N900" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O900" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P900" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="901">
+      <c r="A901" s="51">
+        <v>902</v>
+      </c>
+      <c r="B901" s="52">
+        <v>1</v>
+      </c>
+      <c r="C901" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D901" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E901" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="F901" s="72" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G901" s="72" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H901" s="76">
+        <v>1</v>
+      </c>
+      <c r="I901" s="81"/>
+      <c r="J901" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K901" s="169">
+        <v>45541.5379282407</v>
+      </c>
+      <c r="L901" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M901" s="170"/>
+      <c r="N901" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O901" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P901" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="902">
+      <c r="A902" s="51">
+        <v>903</v>
+      </c>
+      <c r="B902" s="52">
+        <v>3</v>
+      </c>
+      <c r="C902" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D902" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E902" s="53" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F902" s="72" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G902" s="72" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H902" s="76">
+        <v>2</v>
+      </c>
+      <c r="I902" s="81"/>
+      <c r="J902" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K902" s="169">
+        <v>45541.5417361111</v>
+      </c>
+      <c r="L902" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M902" s="170"/>
+      <c r="N902" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O902" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P902" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="903">
+      <c r="A903" s="51">
+        <v>904</v>
+      </c>
+      <c r="B903" s="52">
+        <v>1</v>
+      </c>
+      <c r="C903" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D903" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E903" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="F903" s="72" t="s">
+        <v>510</v>
+      </c>
+      <c r="G903" s="72" t="s">
+        <v>2029</v>
+      </c>
+      <c r="H903" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="I903" s="81"/>
+      <c r="J903" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K903" s="169">
+        <v>45541.6328819444</v>
+      </c>
+      <c r="L903" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M903" s="170"/>
+      <c r="N903" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O903" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P903" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="904">
+      <c r="A904" s="51">
+        <v>905</v>
+      </c>
+      <c r="B904" s="52">
+        <v>1</v>
+      </c>
+      <c r="C904" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D904" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E904" s="53" t="s">
+        <v>843</v>
+      </c>
+      <c r="F904" s="72" t="s">
+        <v>844</v>
+      </c>
+      <c r="G904" s="72" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H904" s="76">
+        <v>0.4</v>
+      </c>
+      <c r="I904" s="81"/>
+      <c r="J904" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K904" s="169">
+        <v>45541.6331365741</v>
+      </c>
+      <c r="L904" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M904" s="170"/>
+      <c r="N904" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O904" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P904" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="905">
+      <c r="A905" s="51">
+        <v>906</v>
+      </c>
+      <c r="B905" s="52">
+        <v>1</v>
+      </c>
+      <c r="C905" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D905" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E905" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="F905" s="72" t="s">
+        <v>506</v>
+      </c>
+      <c r="G905" s="72" t="s">
+        <v>2031</v>
+      </c>
+      <c r="H905" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="I905" s="81"/>
+      <c r="J905" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K905" s="169">
+        <v>45541.6333680556</v>
+      </c>
+      <c r="L905" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M905" s="170"/>
+      <c r="N905" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O905" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P905" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="906">
+      <c r="A906" s="51">
+        <v>907</v>
+      </c>
+      <c r="B906" s="52">
+        <v>1</v>
+      </c>
+      <c r="C906" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D906" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E906" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="F906" s="72" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G906" s="72" t="s">
+        <v>2032</v>
+      </c>
+      <c r="H906" s="76">
+        <v>0.4</v>
+      </c>
+      <c r="I906" s="81"/>
+      <c r="J906" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K906" s="169">
+        <v>45541.6336921296</v>
+      </c>
+      <c r="L906" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M906" s="170"/>
+      <c r="N906" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O906" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P906" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="907">
+      <c r="A907" s="51">
+        <v>908</v>
+      </c>
+      <c r="B907" s="52">
+        <v>1</v>
+      </c>
+      <c r="C907" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D907" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E907" s="53" t="s">
+        <v>607</v>
+      </c>
+      <c r="F907" s="72" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G907" s="72" t="s">
+        <v>2033</v>
+      </c>
+      <c r="H907" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="I907" s="81"/>
+      <c r="J907" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K907" s="169">
+        <v>45541.6338425926</v>
+      </c>
+      <c r="L907" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M907" s="170"/>
+      <c r="N907" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O907" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P907" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="908">
+      <c r="A908" s="51">
+        <v>909</v>
+      </c>
+      <c r="B908" s="52">
+        <v>1</v>
+      </c>
+      <c r="C908" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D908" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E908" s="53" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F908" s="72" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G908" s="72" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H908" s="76">
+        <v>0.4</v>
+      </c>
+      <c r="I908" s="81"/>
+      <c r="J908" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K908" s="169">
+        <v>45541.6340277778</v>
+      </c>
+      <c r="L908" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M908" s="170"/>
+      <c r="N908" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O908" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P908" s="73"/>
+    </row>
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="909">
+      <c r="A909" s="51">
+        <v>910</v>
+      </c>
+      <c r="B909" s="52">
+        <v>3</v>
+      </c>
+      <c r="C909" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D909" s="167">
+        <v>45541</v>
+      </c>
+      <c r="E909" s="53" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F909" s="72" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G909" s="72" t="s">
+        <v>751</v>
+      </c>
+      <c r="H909" s="76">
+        <v>2</v>
+      </c>
+      <c r="I909" s="81"/>
+      <c r="J909" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K909" s="169">
+        <v>45541.6615625</v>
+      </c>
+      <c r="L909" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M909" s="170"/>
+      <c r="N909" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="O909" s="152" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P909" s="73"/>
+    </row>
+    <row outlineLevel="0" r="910">
+      <c r="A910" s="137">
+        <v>911</v>
+      </c>
+      <c r="B910" s="137">
+        <v>1</v>
+      </c>
+      <c r="C910" s="137" t="inlineStr">
         <is>
-          <t>VG</t>
+          <t>GC</t>
         </is>
       </c>
-      <c r="D878" s="54">
-        <v>45537</v>
-      </c>
-      <c r="E878" s="137" t="inlineStr">
+      <c r="D910" s="54">
+        <v>45541</v>
+      </c>
+      <c r="E910" s="137" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>193r</t>
         </is>
       </c>
-      <c r="F878" s="137" t="inlineStr">
+      <c r="F910" s="137" t="inlineStr">
         <is>
-          <t>Fiducie Testamentaire Georges-Gariépy [Distribution FG] [François Gariépy]</t>
+          <t>9299-2585 Québec Inc [anciennement Informat] [Robert M. Vigneault]</t>
         </is>
       </c>
-      <c r="G878" s="137" t="inlineStr">
+      <c r="G910" s="137" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Test de format de date</t>
         </is>
       </c>
-      <c r="H878" s="137">
-        <v>1</v>
-      </c>
-      <c r="J878" s="137" t="inlineStr">
+      <c r="H910" s="137">
+        <v>0.1</v>
+      </c>
+      <c r="J910" s="137" t="inlineStr">
         <is>
           <t>VRAI</t>
         </is>
       </c>
-      <c r="K878" s="54">
-        <v>45541.3695833333</v>
-      </c>
-      <c r="L878" s="137" t="inlineStr">
+      <c r="K910" s="54">
+        <v>45541.6971875</v>
+      </c>
+      <c r="L910" s="137" t="inlineStr">
         <is>
           <t>FAUX</t>
         </is>
       </c>
-      <c r="N878" s="137" t="inlineStr">
+      <c r="N910" s="137" t="inlineStr">
         <is>
           <t>FAUX</t>
         </is>
       </c>
-      <c r="O878" s="137" t="inlineStr">
+      <c r="O910" s="137" t="inlineStr">
         <is>
-          <t>APP_v4.H.7.xlsb</t>
+          <t>APP_v4.H.8.xlsb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="911">
+      <c r="A911" s="137">
+        <v>912</v>
+      </c>
+      <c r="B911" s="137">
+        <v>1</v>
+      </c>
+      <c r="C911" s="137" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D911" s="54">
+        <v>45541</v>
+      </c>
+      <c r="E911" s="137" t="inlineStr">
+        <is>
+          <t>193r</t>
+        </is>
+      </c>
+      <c r="F911" s="137" t="inlineStr">
+        <is>
+          <t>9299-2585 Québec Inc [anciennement Informat] [Robert M. Vigneault]</t>
+        </is>
+      </c>
+      <c r="G911" s="137" t="inlineStr">
+        <is>
+          <t>Test sur le format des heures</t>
+        </is>
+      </c>
+      <c r="H911" s="137">
+        <v>0.1</v>
+      </c>
+      <c r="J911" s="137" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K911" s="54">
+        <v>45541.6992824074</v>
+      </c>
+      <c r="L911" s="137" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N911" s="137" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O911" s="137" t="inlineStr">
+        <is>
+          <t>APP_v4.H.8.xlsb</t>
         </is>
       </c>
     </row>
@@ -60378,11 +62332,11 @@
   <sheetPr codeName="mwshFAC_Comptes_Clients">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
+      <selection pane="bottomLeft" activeCell="P120" sqref="P120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60470,7 +62424,7 @@
       </c>
       <c r="K2" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -60507,7 +62461,7 @@
       </c>
       <c r="K3" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -60544,7 +62498,7 @@
       </c>
       <c r="K4" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -60581,7 +62535,7 @@
       </c>
       <c r="K5" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -60618,7 +62572,7 @@
       </c>
       <c r="K6" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -60655,7 +62609,7 @@
       </c>
       <c r="K7" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -60692,7 +62646,7 @@
       </c>
       <c r="K8" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -60729,7 +62683,7 @@
       </c>
       <c r="K9" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -60766,7 +62720,7 @@
       </c>
       <c r="K10" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -60803,7 +62757,7 @@
       </c>
       <c r="K11" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -60840,7 +62794,7 @@
       </c>
       <c r="K12" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -60877,7 +62831,7 @@
       </c>
       <c r="K13" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -60914,7 +62868,7 @@
       </c>
       <c r="K14" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -60951,7 +62905,7 @@
       </c>
       <c r="K15" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -60988,7 +62942,7 @@
       </c>
       <c r="K16" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -61025,7 +62979,7 @@
       </c>
       <c r="K17" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -61062,7 +63016,7 @@
       </c>
       <c r="K18" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -61099,7 +63053,7 @@
       </c>
       <c r="K19" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -61136,7 +63090,7 @@
       </c>
       <c r="K20" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -61173,7 +63127,7 @@
       </c>
       <c r="K21" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -61210,7 +63164,7 @@
       </c>
       <c r="K22" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -61247,7 +63201,7 @@
       </c>
       <c r="K23" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -61284,7 +63238,7 @@
       </c>
       <c r="K24" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -61321,7 +63275,7 @@
       </c>
       <c r="K25" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -61358,7 +63312,7 @@
       </c>
       <c r="K26" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -61395,7 +63349,7 @@
       </c>
       <c r="K27" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -61432,7 +63386,7 @@
       </c>
       <c r="K28" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -61469,7 +63423,7 @@
       </c>
       <c r="K29" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -61506,7 +63460,7 @@
       </c>
       <c r="K30" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -61543,7 +63497,7 @@
       </c>
       <c r="K31" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -61580,7 +63534,7 @@
       </c>
       <c r="K32" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -61617,7 +63571,7 @@
       </c>
       <c r="K33" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -61654,7 +63608,7 @@
       </c>
       <c r="K34" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -61691,7 +63645,7 @@
       </c>
       <c r="K35" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -61728,7 +63682,7 @@
       </c>
       <c r="K36" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -61765,7 +63719,7 @@
       </c>
       <c r="K37" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -61802,7 +63756,7 @@
       </c>
       <c r="K38" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -61839,7 +63793,7 @@
       </c>
       <c r="K39" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -61876,7 +63830,7 @@
       </c>
       <c r="K40" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -61913,7 +63867,7 @@
       </c>
       <c r="K41" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -61950,7 +63904,7 @@
       </c>
       <c r="K42" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -61987,7 +63941,7 @@
       </c>
       <c r="K43" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -62024,7 +63978,7 @@
       </c>
       <c r="K44" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -62061,7 +64015,7 @@
       </c>
       <c r="K45" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -62098,7 +64052,7 @@
       </c>
       <c r="K46" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -62135,7 +64089,7 @@
       </c>
       <c r="K47" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -62172,7 +64126,7 @@
       </c>
       <c r="K48" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -62209,7 +64163,7 @@
       </c>
       <c r="K49" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -62246,7 +64200,7 @@
       </c>
       <c r="K50" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -62283,7 +64237,7 @@
       </c>
       <c r="K51" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -62320,7 +64274,7 @@
       </c>
       <c r="K52" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -62357,7 +64311,7 @@
       </c>
       <c r="K53" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -62394,7 +64348,7 @@
       </c>
       <c r="K54" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -62431,7 +64385,7 @@
       </c>
       <c r="K55" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -62468,7 +64422,7 @@
       </c>
       <c r="K56" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -62505,7 +64459,7 @@
       </c>
       <c r="K57" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -62542,7 +64496,7 @@
       </c>
       <c r="K58" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -62579,7 +64533,7 @@
       </c>
       <c r="K59" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -62616,7 +64570,7 @@
       </c>
       <c r="K60" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -62653,7 +64607,7 @@
       </c>
       <c r="K61" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -62690,7 +64644,7 @@
       </c>
       <c r="K62" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -62727,7 +64681,7 @@
       </c>
       <c r="K63" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -62764,7 +64718,7 @@
       </c>
       <c r="K64" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -62801,7 +64755,7 @@
       </c>
       <c r="K65" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -62838,7 +64792,7 @@
       </c>
       <c r="K66" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -62875,7 +64829,7 @@
       </c>
       <c r="K67" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -62912,7 +64866,7 @@
       </c>
       <c r="K68" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -62949,7 +64903,7 @@
       </c>
       <c r="K69" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -62986,7 +64940,7 @@
       </c>
       <c r="K70" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -63023,7 +64977,7 @@
       </c>
       <c r="K71" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -63060,7 +65014,7 @@
       </c>
       <c r="K72" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -63097,7 +65051,7 @@
       </c>
       <c r="K73" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -63134,7 +65088,7 @@
       </c>
       <c r="K74" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -63171,7 +65125,7 @@
       </c>
       <c r="K75" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -63208,7 +65162,7 @@
       </c>
       <c r="K76" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -63245,7 +65199,7 @@
       </c>
       <c r="K77" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -63282,7 +65236,7 @@
       </c>
       <c r="K78" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -63319,7 +65273,7 @@
       </c>
       <c r="K79" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -63356,7 +65310,7 @@
       </c>
       <c r="K80" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -63393,7 +65347,7 @@
       </c>
       <c r="K81" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -63430,7 +65384,7 @@
       </c>
       <c r="K82" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -63467,7 +65421,7 @@
       </c>
       <c r="K83" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -63504,7 +65458,7 @@
       </c>
       <c r="K84" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -63541,7 +65495,7 @@
       </c>
       <c r="K85" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -63578,7 +65532,7 @@
       </c>
       <c r="K86" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -63615,7 +65569,7 @@
       </c>
       <c r="K87" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -63652,7 +65606,7 @@
       </c>
       <c r="K88" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -63689,7 +65643,7 @@
       </c>
       <c r="K89" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -63726,7 +65680,7 @@
       </c>
       <c r="K90" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -63763,7 +65717,7 @@
       </c>
       <c r="K91" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -63800,7 +65754,7 @@
       </c>
       <c r="K92" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -63837,7 +65791,7 @@
       </c>
       <c r="K93" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -63874,7 +65828,7 @@
       </c>
       <c r="K94" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -63911,7 +65865,7 @@
       </c>
       <c r="K95" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -63948,7 +65902,7 @@
       </c>
       <c r="K96" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -63985,7 +65939,7 @@
       </c>
       <c r="K97" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -64022,7 +65976,7 @@
       </c>
       <c r="K98" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -64059,7 +66013,7 @@
       </c>
       <c r="K99" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -64096,7 +66050,7 @@
       </c>
       <c r="K100" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -64133,7 +66087,7 @@
       </c>
       <c r="K101" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -64170,7 +66124,7 @@
       </c>
       <c r="K102" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -64207,7 +66161,7 @@
       </c>
       <c r="K103" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -64244,7 +66198,7 @@
       </c>
       <c r="K104" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -64281,7 +66235,7 @@
       </c>
       <c r="K105" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -64318,7 +66272,7 @@
       </c>
       <c r="K106" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -64355,7 +66309,7 @@
       </c>
       <c r="K107" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -64392,7 +66346,7 @@
       </c>
       <c r="K108" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -64429,7 +66383,7 @@
       </c>
       <c r="K109" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -64466,7 +66420,7 @@
       </c>
       <c r="K110" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -64503,7 +66457,7 @@
       </c>
       <c r="K111" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -64540,7 +66494,7 @@
       </c>
       <c r="K112" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -64577,7 +66531,7 @@
       </c>
       <c r="K113" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -64614,7 +66568,7 @@
       </c>
       <c r="K114" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -64651,7 +66605,7 @@
       </c>
       <c r="K115" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -64688,7 +66642,7 @@
       </c>
       <c r="K116" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -64725,7 +66679,7 @@
       </c>
       <c r="K117" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -64762,7 +66716,7 @@
       </c>
       <c r="K118" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -64799,7 +66753,7 @@
       </c>
       <c r="K119" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -64836,7 +66790,7 @@
       </c>
       <c r="K120" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -64873,7 +66827,7 @@
       </c>
       <c r="K121" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -64910,7 +66864,7 @@
       </c>
       <c r="K122" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -64947,7 +66901,7 @@
       </c>
       <c r="K123" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -64984,7 +66938,7 @@
       </c>
       <c r="K124" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -65021,7 +66975,7 @@
       </c>
       <c r="K125" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -65058,7 +67012,7 @@
       </c>
       <c r="K126" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-27</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -65095,7 +67049,7 @@
       </c>
       <c r="K127" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-29</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -65132,7 +67086,266 @@
       </c>
       <c r="K128" s="63">
         <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
-        <v>-29</v>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="36" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B129" s="159">
+        <v>45541</v>
+      </c>
+      <c r="C129" s="55" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="E129" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" s="159">
+        <v>45571</v>
+      </c>
+      <c r="H129" s="82">
+        <v>1121.01</v>
+      </c>
+      <c r="I129" s="82">
+        <v>0</v>
+      </c>
+      <c r="J129" s="62">
+        <f t="shared" ref="J129:J135" si="3">H129-I129</f>
+        <v>1121.01</v>
+      </c>
+      <c r="K129" s="63">
+        <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="36" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B130" s="159">
+        <v>45541</v>
+      </c>
+      <c r="C130" s="55" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E130" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" s="159">
+        <v>45571</v>
+      </c>
+      <c r="H130" s="82">
+        <v>833.57</v>
+      </c>
+      <c r="I130" s="82">
+        <v>0</v>
+      </c>
+      <c r="J130" s="62">
+        <f t="shared" si="3"/>
+        <v>833.57</v>
+      </c>
+      <c r="K130" s="63">
+        <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="36" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B131" s="159">
+        <v>45541</v>
+      </c>
+      <c r="C131" s="55" t="s">
+        <v>969</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G131" s="159">
+        <v>45571</v>
+      </c>
+      <c r="H131" s="82">
+        <v>999.13</v>
+      </c>
+      <c r="I131" s="82">
+        <v>0</v>
+      </c>
+      <c r="J131" s="62">
+        <f t="shared" si="3"/>
+        <v>999.13</v>
+      </c>
+      <c r="K131" s="63">
+        <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="36" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B132" s="159">
+        <v>45541</v>
+      </c>
+      <c r="C132" s="55" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="E132" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132" s="159">
+        <v>45571</v>
+      </c>
+      <c r="H132" s="82">
+        <v>563.38</v>
+      </c>
+      <c r="I132" s="82">
+        <v>0</v>
+      </c>
+      <c r="J132" s="62">
+        <f t="shared" si="3"/>
+        <v>563.38</v>
+      </c>
+      <c r="K132" s="63">
+        <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="36" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B133" s="159">
+        <v>45541</v>
+      </c>
+      <c r="C133" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="E133" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" s="159">
+        <v>45571</v>
+      </c>
+      <c r="H133" s="82">
+        <v>40140.65</v>
+      </c>
+      <c r="I133" s="82">
+        <v>0</v>
+      </c>
+      <c r="J133" s="62">
+        <f t="shared" si="3"/>
+        <v>40140.65</v>
+      </c>
+      <c r="K133" s="63">
+        <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="36" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B134" s="159">
+        <v>45541</v>
+      </c>
+      <c r="C134" s="55" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="E134" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="159">
+        <v>45571</v>
+      </c>
+      <c r="H134" s="82">
+        <v>11468.76</v>
+      </c>
+      <c r="I134" s="82">
+        <v>0</v>
+      </c>
+      <c r="J134" s="62">
+        <f t="shared" si="3"/>
+        <v>11468.76</v>
+      </c>
+      <c r="K134" s="63">
+        <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="36" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B135" s="159">
+        <v>45541</v>
+      </c>
+      <c r="C135" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="D135" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="E135" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G135" s="159">
+        <v>45571</v>
+      </c>
+      <c r="H135" s="82">
+        <v>19657.86</v>
+      </c>
+      <c r="I135" s="82">
+        <v>0</v>
+      </c>
+      <c r="J135" s="62">
+        <f t="shared" si="3"/>
+        <v>19657.86</v>
+      </c>
+      <c r="K135" s="63">
+        <f ca="1">TODAY()-tblCC_Factures_Paiements[[#This Row],[Due_Date]]</f>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
@@ -65150,11 +67363,11 @@
   <sheetPr codeName="mwshFAC_Entête">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="S126" sqref="S126:S135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72294,7 +74507,7 @@
         <v>39.380000000000003</v>
       </c>
       <c r="S126" s="103">
-        <v>9.98E-2</v>
+        <v>9.9750000000000005E-2</v>
       </c>
       <c r="T126" s="4">
         <v>78.55</v>
@@ -72359,7 +74572,7 @@
         <v>295</v>
       </c>
       <c r="S127" s="103">
-        <v>9.98E-2</v>
+        <v>9.9750000000000005E-2</v>
       </c>
       <c r="T127" s="4">
         <v>588.53</v>
@@ -72424,7 +74637,7 @@
         <v>490</v>
       </c>
       <c r="S128" s="103">
-        <v>9.98E-2</v>
+        <v>9.9750000000000005E-2</v>
       </c>
       <c r="T128" s="4">
         <v>977.55</v>
@@ -72433,6 +74646,464 @@
         <v>11267.55</v>
       </c>
       <c r="V128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B129" s="155">
+        <v>45541</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J129" s="4">
+        <v>975</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L129" s="4">
+        <v>0</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N129" s="4">
+        <v>0</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P129" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="R129" s="4">
+        <v>48.75</v>
+      </c>
+      <c r="S129" s="103">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="T129" s="4">
+        <v>97.26</v>
+      </c>
+      <c r="U129" s="4">
+        <v>1121.01</v>
+      </c>
+      <c r="V129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B130" s="155">
+        <v>45541</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>1966</v>
+      </c>
+      <c r="J130" s="4">
+        <v>725</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L130" s="4">
+        <v>0</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N130" s="4">
+        <v>0</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P130" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="R130" s="4">
+        <v>36.25</v>
+      </c>
+      <c r="S130" s="103">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="T130" s="4">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="U130" s="4">
+        <v>833.57</v>
+      </c>
+      <c r="V130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B131" s="155">
+        <v>45541</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="J131" s="4">
+        <v>869</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L131" s="4">
+        <v>0</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N131" s="4">
+        <v>0</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P131" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="R131" s="4">
+        <v>43.45</v>
+      </c>
+      <c r="S131" s="103">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="T131" s="4">
+        <v>86.68</v>
+      </c>
+      <c r="U131" s="4">
+        <v>999.13</v>
+      </c>
+      <c r="V131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B132" s="155">
+        <v>45541</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J132" s="4">
+        <v>490</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L132" s="4">
+        <v>0</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N132" s="4">
+        <v>0</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P132" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="R132" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="S132" s="103">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="T132" s="4">
+        <v>48.88</v>
+      </c>
+      <c r="U132" s="4">
+        <v>563.38</v>
+      </c>
+      <c r="V132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B133" s="155">
+        <v>45541</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J133" s="4">
+        <v>34912.5</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" s="4">
+        <v>0</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N133" s="4">
+        <v>0</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P133" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="R133" s="4">
+        <v>1745.63</v>
+      </c>
+      <c r="S133" s="103">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="T133" s="4">
+        <v>3482.52</v>
+      </c>
+      <c r="U133" s="4">
+        <v>40140.65</v>
+      </c>
+      <c r="V133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B134" s="155">
+        <v>45541</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>1977</v>
+      </c>
+      <c r="J134" s="4">
+        <v>9975</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L134" s="4">
+        <v>0</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N134" s="4">
+        <v>0</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P134" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="R134" s="4">
+        <v>498.75</v>
+      </c>
+      <c r="S134" s="103">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="T134" s="4">
+        <v>995.01</v>
+      </c>
+      <c r="U134" s="4">
+        <v>11468.76</v>
+      </c>
+      <c r="V134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B135" s="155">
+        <v>45541</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="J135" s="4">
+        <v>17097.5</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L135" s="4">
+        <v>0</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N135" s="4">
+        <v>0</v>
+      </c>
+      <c r="O135" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P135" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="R135" s="4">
+        <v>854.88</v>
+      </c>
+      <c r="S135" s="103">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="T135" s="4">
+        <v>1705.48</v>
+      </c>
+      <c r="U135" s="4">
+        <v>19657.86</v>
+      </c>
+      <c r="V135" s="4">
         <v>0</v>
       </c>
     </row>
@@ -72456,7 +75127,7 @@
   <sheetPr codeName="mwshFAC_Détails">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F72" sqref="F72"/>
@@ -73459,6 +76130,811 @@
       </c>
       <c r="F72" s="1" t="s">
         <v>1861</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="137" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B73" s="137" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F73" s="137" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="137" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B74" s="137" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F74" s="137" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="137" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B75" s="137" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F75" s="137" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="137" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B76" s="137" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F76" s="137" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="137" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B77" s="137" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F77" s="137" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="137" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B78" s="137" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F78" s="137" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="137" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F79" s="137" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="137" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B80" s="137" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F80" s="137" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="137" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B81" s="137" t="s">
+        <v>936</v>
+      </c>
+      <c r="C81" s="137">
+        <v>2.25</v>
+      </c>
+      <c r="D81" s="137" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E81" s="137" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F81" s="137" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="137" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B82" s="137" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F82" s="137" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="137" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B83" s="137" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F83" s="137" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="137" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B84" s="137" t="s">
+        <v>936</v>
+      </c>
+      <c r="C84" s="137">
+        <v>2.25</v>
+      </c>
+      <c r="D84" s="137" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E84" s="137" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F84" s="137" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="137" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B85" s="137" t="s">
+        <v>983</v>
+      </c>
+      <c r="F85" s="137" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="137" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B86" s="137" t="s">
+        <v>936</v>
+      </c>
+      <c r="C86" s="137">
+        <v>8.75</v>
+      </c>
+      <c r="D86" s="137" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E86" s="137" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F86" s="137" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="137" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B87" s="137" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F87" s="137" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="137" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B88" s="137" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C88" s="137">
+        <v>43.35</v>
+      </c>
+      <c r="D88" s="137" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E88" s="137" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F88" s="137" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="137" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B89" s="137" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C89" s="137">
+        <v>33</v>
+      </c>
+      <c r="D89" s="137" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E89" s="137" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F89" s="137" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B90" s="137" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F90" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F91" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B92" s="137" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F92" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F93" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B94" s="137" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F94" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F95" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B96" s="137" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F96" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F97" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B98" s="137" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F98" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F99" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B100" s="137" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F100" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F101" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B102" s="137" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F102" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F103" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B104" s="137" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F104" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F105" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B106" s="137" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F106" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F107" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B108" s="137" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F108" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F109" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B110" s="137" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F110" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F111" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B112" s="137" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F112" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F113" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B114" s="137" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F114" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F115" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B116" s="137" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F116" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="137" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B117" s="137" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C117" s="137">
+        <v>16.55</v>
+      </c>
+      <c r="D117" s="137" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E117" s="137" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F117" s="137" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B118" s="137" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F118" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F119" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B120" s="137" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F120" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F121" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B122" s="137" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F122" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F123" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B124" s="137" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F124" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F125" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B126" s="137" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F126" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F127" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B128" s="137" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F128" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F129" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B130" s="137" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F130" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F131" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B132" s="137" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F132" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F133" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B134" s="137" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F134" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F135" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B136" s="137" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F136" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F137" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B138" s="137" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F138" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F139" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B140" s="137" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F140" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F141" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B142" s="137" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F142" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F143" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B144" s="137" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F144" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B145" s="137" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C145" s="137">
+        <v>26.8</v>
+      </c>
+      <c r="D145" s="137" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E145" s="137" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F145" s="137" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="137" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B146" s="137" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C146" s="137">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D146" s="137" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E146" s="137" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F146" s="137" t="s">
+        <v>1782</v>
       </c>
     </row>
   </sheetData>
@@ -74292,7 +77768,7 @@
         <v>0.4</v>
       </c>
       <c r="I25" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="158">
         <v>45537.743125000001</v>
@@ -74324,7 +77800,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="158">
         <v>45537.743125000001</v>
@@ -74356,7 +77832,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="158">
         <v>45537.743125000001</v>
@@ -74388,7 +77864,7 @@
         <v>1.25</v>
       </c>
       <c r="I28" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="158">
         <v>45537.743125000001</v>
@@ -74420,7 +77896,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="158">
         <v>45537.743125000001</v>
@@ -74452,7 +77928,7 @@
         <v>6</v>
       </c>
       <c r="I30" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="158">
         <v>45537.743125000001</v>
@@ -74484,7 +77960,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="158">
         <v>45537.743125000001</v>
@@ -74516,7 +77992,7 @@
         <v>0.4</v>
       </c>
       <c r="I32" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="158">
         <v>45537.743125000001</v>
@@ -74548,7 +78024,7 @@
         <v>0.5</v>
       </c>
       <c r="I33" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="158">
         <v>45537.743125000001</v>
@@ -74996,7 +78472,7 @@
         <v>1.75</v>
       </c>
       <c r="I47" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="158">
         <v>45537.744513888902</v>
@@ -75028,7 +78504,7 @@
         <v>0.5</v>
       </c>
       <c r="I48" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="158">
         <v>45537.744513888902</v>
@@ -75060,7 +78536,7 @@
         <v>5.3</v>
       </c>
       <c r="I49" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="158">
         <v>45537.744513888902</v>
@@ -75092,7 +78568,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="158">
         <v>45537.744513888902</v>
@@ -75124,7 +78600,7 @@
         <v>6.1</v>
       </c>
       <c r="I51" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="158">
         <v>45537.744513888902</v>
@@ -75156,7 +78632,7 @@
         <v>6.9</v>
       </c>
       <c r="I52" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="158">
         <v>45537.744513888902</v>
@@ -75188,7 +78664,7 @@
         <v>0.5</v>
       </c>
       <c r="I53" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="158">
         <v>45537.744513888902</v>
@@ -75220,7 +78696,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I54" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="158">
         <v>45537.744513888902</v>
@@ -75252,7 +78728,7 @@
         <v>3.2</v>
       </c>
       <c r="I55" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="158">
         <v>45537.744513888902</v>
@@ -75284,7 +78760,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="158">
         <v>45537.744513888902</v>
@@ -75316,7 +78792,7 @@
         <v>6.2</v>
       </c>
       <c r="I57" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="158">
         <v>45537.744513888902</v>
@@ -75348,7 +78824,7 @@
         <v>0.75</v>
       </c>
       <c r="I58" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="158">
         <v>45537.744513888902</v>
@@ -75380,7 +78856,7 @@
         <v>2.4</v>
       </c>
       <c r="I59" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="158">
         <v>45537.744513888902</v>
@@ -75412,7 +78888,7 @@
         <v>0.4</v>
       </c>
       <c r="I60" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="158">
         <v>45537.744513888902</v>
@@ -75444,7 +78920,7 @@
         <v>0.4</v>
       </c>
       <c r="I61" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="158">
         <v>45537.744513888902</v>
@@ -75476,7 +78952,7 @@
         <v>0.75</v>
       </c>
       <c r="I62" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="158">
         <v>45537.744513888902</v>
@@ -75508,7 +78984,7 @@
         <v>4</v>
       </c>
       <c r="I63" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="158">
         <v>45537.744513888902</v>
@@ -75540,7 +79016,7 @@
         <v>7</v>
       </c>
       <c r="I64" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="158">
         <v>45537.744513888902</v>
@@ -75572,7 +79048,7 @@
         <v>20</v>
       </c>
       <c r="I65" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="158">
         <v>45537.744513888902</v>
@@ -75604,7 +79080,7 @@
         <v>0.4</v>
       </c>
       <c r="I66" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="158">
         <v>45537.744513888902</v>
@@ -75636,7 +79112,7 @@
         <v>0.4</v>
       </c>
       <c r="I67" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="158">
         <v>45537.744513888902</v>
@@ -75668,7 +79144,7 @@
         <v>0.75</v>
       </c>
       <c r="I68" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="158">
         <v>45537.744513888902</v>
@@ -75700,7 +79176,7 @@
         <v>0.3</v>
       </c>
       <c r="I69" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="158">
         <v>45537.744513888902</v>
@@ -75732,7 +79208,7 @@
         <v>0.4</v>
       </c>
       <c r="I70" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="158">
         <v>45537.744513888902</v>
@@ -75764,7 +79240,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="158">
         <v>45537.744513888902</v>
@@ -75796,7 +79272,7 @@
         <v>0.5</v>
       </c>
       <c r="I72" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="158">
         <v>45537.744513888902</v>
@@ -75828,7 +79304,7 @@
         <v>0.4</v>
       </c>
       <c r="I73" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="158">
         <v>45537.744895833297</v>
@@ -75860,7 +79336,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="158">
         <v>45537.744895833297</v>
@@ -75892,7 +79368,7 @@
         <v>0.5</v>
       </c>
       <c r="I75" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="158">
         <v>45537.744895833297</v>
@@ -75924,7 +79400,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="158">
         <v>45537.744895833297</v>
@@ -75956,7 +79432,7 @@
         <v>1.3</v>
       </c>
       <c r="I77" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="158">
         <v>45537.744895833297</v>
@@ -75988,7 +79464,7 @@
         <v>1.25</v>
       </c>
       <c r="I78" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="158">
         <v>45537.744895833297</v>
@@ -76020,7 +79496,7 @@
         <v>2.8</v>
       </c>
       <c r="I79" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="158">
         <v>45537.744895833297</v>
@@ -76052,7 +79528,7 @@
         <v>2.25</v>
       </c>
       <c r="I80" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="158">
         <v>45537.744895833297</v>
@@ -76084,7 +79560,7 @@
         <v>6</v>
       </c>
       <c r="I81" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="158">
         <v>45537.744895833297</v>
@@ -76116,7 +79592,7 @@
         <v>3</v>
       </c>
       <c r="I82" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" s="158">
         <v>45537.744895833297</v>
@@ -76148,7 +79624,7 @@
         <v>3.25</v>
       </c>
       <c r="I83" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="158">
         <v>45537.744895833297</v>
@@ -76180,7 +79656,7 @@
         <v>0.4</v>
       </c>
       <c r="I84" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="158">
         <v>45537.744895833297</v>
@@ -76212,7 +79688,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="158">
         <v>45537.744895833297</v>
@@ -76244,7 +79720,7 @@
         <v>1.5</v>
       </c>
       <c r="I86" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="158">
         <v>45537.744895833297</v>
@@ -76276,7 +79752,7 @@
         <v>0.75</v>
       </c>
       <c r="I87" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="158">
         <v>45537.744895833297</v>
@@ -76308,7 +79784,7 @@
         <v>2</v>
       </c>
       <c r="I88" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="158">
         <v>45537.744895833297</v>
@@ -76340,7 +79816,7 @@
         <v>1.5</v>
       </c>
       <c r="I89" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="158">
         <v>45537.744895833297</v>
@@ -79149,7 +82625,7 @@
       <c r="X5" s="39"/>
       <c r="Y5" s="39"/>
       <c r="Z5" s="5" t="s">
-        <v>995</v>
+        <v>1628</v>
       </c>
       <c r="AA5" s="10" t="s">
         <v>1652</v>
@@ -79267,7 +82743,7 @@
       <c r="X7" s="39"/>
       <c r="Y7" s="39"/>
       <c r="Z7" s="5" t="s">
-        <v>995</v>
+        <v>1628</v>
       </c>
       <c r="AA7" s="10" t="s">
         <v>1694</v>
@@ -79326,7 +82802,7 @@
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
       <c r="Z8" s="5" t="s">
-        <v>995</v>
+        <v>1628</v>
       </c>
       <c r="AA8" s="10" t="s">
         <v>1712</v>
